--- a/Data Hasil Uji Coba/Uji Coba.xlsx
+++ b/Data Hasil Uji Coba/Uji Coba.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="121">
   <si>
     <t>0 x</t>
   </si>
@@ -362,25 +362,49 @@
     <t>Rata - rata</t>
   </si>
   <si>
-    <t>Panjang Data 584</t>
-  </si>
-  <si>
     <t>Efektifitas</t>
   </si>
   <si>
     <t>Waktu</t>
   </si>
   <si>
-    <t>Panjang Data 980</t>
+    <t>FAIL</t>
   </si>
   <si>
-    <t>Panjang Data 1280</t>
+    <t>Uji Coba</t>
   </si>
   <si>
-    <t>Panjang Data 1345</t>
+    <t>Konfigurasi</t>
   </si>
   <si>
-    <t>FAIL</t>
+    <t>Efektifitas Kompresi Pada Panjang Data 584</t>
+  </si>
+  <si>
+    <t>Efektifitas Kompresi Pada Panjang Data 980</t>
+  </si>
+  <si>
+    <t>Efektifitas Kompresi Pada Panjang Data 1280</t>
+  </si>
+  <si>
+    <t>Efektifitas Kompresi Pada Panjang Data 1345</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>Rata -rata</t>
+  </si>
+  <si>
+    <t>Waktu Kompresi Pada Panjang Data 584</t>
+  </si>
+  <si>
+    <t>Waktu Kompresi Pada Panjang Data 980</t>
+  </si>
+  <si>
+    <t>Waktu Kompresi Pada Panjang Data 1280</t>
+  </si>
+  <si>
+    <t>Waktu Kompresi Pada Panjang Data 1345</t>
   </si>
 </sst>
 </file>
@@ -690,7 +714,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -806,32 +830,35 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -869,25 +896,31 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -909,18 +942,27 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="14" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="14" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="14" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="14" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -950,29 +992,23 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2366,32 +2402,32 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="83" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="K2" s="59" t="s">
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="83"/>
+      <c r="K2" s="83" t="s">
         <v>37</v>
       </c>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="59"/>
-      <c r="P2" s="59"/>
-      <c r="Q2" s="59"/>
-      <c r="R2" s="59"/>
+      <c r="L2" s="83"/>
+      <c r="M2" s="83"/>
+      <c r="N2" s="83"/>
+      <c r="O2" s="83"/>
+      <c r="P2" s="83"/>
+      <c r="Q2" s="83"/>
+      <c r="R2" s="83"/>
     </row>
     <row r="3" spans="1:18" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="60" t="s">
+      <c r="A3" s="81" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="61"/>
+      <c r="B3" s="82"/>
       <c r="C3" s="14"/>
       <c r="D3" s="15" t="s">
         <v>1</v>
@@ -2408,10 +2444,10 @@
       <c r="H3" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="60" t="s">
+      <c r="K3" s="81" t="s">
         <v>31</v>
       </c>
-      <c r="L3" s="61"/>
+      <c r="L3" s="82"/>
       <c r="M3" s="14"/>
       <c r="N3" s="15" t="s">
         <v>1</v>
@@ -2430,10 +2466,10 @@
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="62">
+      <c r="A4" s="63">
         <v>584</v>
       </c>
-      <c r="B4" s="63"/>
+      <c r="B4" s="64"/>
       <c r="C4" s="1" t="s">
         <v>30</v>
       </c>
@@ -2452,10 +2488,10 @@
       <c r="H4" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="62">
+      <c r="K4" s="63">
         <v>584</v>
       </c>
-      <c r="L4" s="63"/>
+      <c r="L4" s="64"/>
       <c r="M4" s="1" t="s">
         <v>30</v>
       </c>
@@ -2476,8 +2512,8 @@
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="64"/>
-      <c r="B5" s="65"/>
+      <c r="A5" s="65"/>
+      <c r="B5" s="66"/>
       <c r="C5" s="1" t="s">
         <v>21</v>
       </c>
@@ -2496,8 +2532,8 @@
       <c r="H5" s="1">
         <v>21</v>
       </c>
-      <c r="K5" s="64"/>
-      <c r="L5" s="65"/>
+      <c r="K5" s="65"/>
+      <c r="L5" s="66"/>
       <c r="M5" s="1" t="s">
         <v>21</v>
       </c>
@@ -2518,8 +2554,8 @@
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="64"/>
-      <c r="B6" s="65"/>
+      <c r="A6" s="65"/>
+      <c r="B6" s="66"/>
       <c r="C6" s="1" t="s">
         <v>33</v>
       </c>
@@ -2543,8 +2579,8 @@
         <f>($A$4-H5)/$A$4</f>
         <v>0.96404109589041098</v>
       </c>
-      <c r="K6" s="64"/>
-      <c r="L6" s="65"/>
+      <c r="K6" s="65"/>
+      <c r="L6" s="66"/>
       <c r="M6" s="1" t="s">
         <v>33</v>
       </c>
@@ -2570,8 +2606,8 @@
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="64"/>
-      <c r="B7" s="65"/>
+      <c r="A7" s="65"/>
+      <c r="B7" s="66"/>
       <c r="C7" s="1" t="s">
         <v>22</v>
       </c>
@@ -2590,8 +2626,8 @@
       <c r="H7" s="1">
         <v>427</v>
       </c>
-      <c r="K7" s="64"/>
-      <c r="L7" s="65"/>
+      <c r="K7" s="65"/>
+      <c r="L7" s="66"/>
       <c r="M7" s="1" t="s">
         <v>22</v>
       </c>
@@ -2612,8 +2648,8 @@
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="66"/>
-      <c r="B8" s="67"/>
+      <c r="A8" s="67"/>
+      <c r="B8" s="68"/>
       <c r="C8" s="1" t="s">
         <v>34</v>
       </c>
@@ -2637,8 +2673,8 @@
         <f>($A$4-H7)/$A$4</f>
         <v>0.26883561643835618</v>
       </c>
-      <c r="K8" s="66"/>
-      <c r="L8" s="67"/>
+      <c r="K8" s="67"/>
+      <c r="L8" s="68"/>
       <c r="M8" s="1" t="s">
         <v>34</v>
       </c>
@@ -2664,10 +2700,10 @@
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="68">
+      <c r="A9" s="69">
         <v>980</v>
       </c>
-      <c r="B9" s="69"/>
+      <c r="B9" s="70"/>
       <c r="C9" s="16" t="s">
         <v>30</v>
       </c>
@@ -2686,10 +2722,10 @@
       <c r="H9" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="K9" s="68">
+      <c r="K9" s="69">
         <v>980</v>
       </c>
-      <c r="L9" s="69"/>
+      <c r="L9" s="70"/>
       <c r="M9" s="16" t="s">
         <v>30</v>
       </c>
@@ -2710,8 +2746,8 @@
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="70"/>
-      <c r="B10" s="71"/>
+      <c r="A10" s="71"/>
+      <c r="B10" s="72"/>
       <c r="C10" s="16" t="s">
         <v>21</v>
       </c>
@@ -2730,8 +2766,8 @@
       <c r="H10" s="16">
         <v>33</v>
       </c>
-      <c r="K10" s="70"/>
-      <c r="L10" s="71"/>
+      <c r="K10" s="71"/>
+      <c r="L10" s="72"/>
       <c r="M10" s="16" t="s">
         <v>21</v>
       </c>
@@ -2752,8 +2788,8 @@
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="70"/>
-      <c r="B11" s="71"/>
+      <c r="A11" s="71"/>
+      <c r="B11" s="72"/>
       <c r="C11" s="16" t="s">
         <v>35</v>
       </c>
@@ -2777,8 +2813,8 @@
         <f>($A$9-H10)/$A$9</f>
         <v>0.96632653061224494</v>
       </c>
-      <c r="K11" s="70"/>
-      <c r="L11" s="71"/>
+      <c r="K11" s="71"/>
+      <c r="L11" s="72"/>
       <c r="M11" s="16" t="s">
         <v>35</v>
       </c>
@@ -2804,8 +2840,8 @@
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="70"/>
-      <c r="B12" s="71"/>
+      <c r="A12" s="71"/>
+      <c r="B12" s="72"/>
       <c r="C12" s="16" t="s">
         <v>22</v>
       </c>
@@ -2824,8 +2860,8 @@
       <c r="H12" s="16">
         <v>564</v>
       </c>
-      <c r="K12" s="70"/>
-      <c r="L12" s="71"/>
+      <c r="K12" s="71"/>
+      <c r="L12" s="72"/>
       <c r="M12" s="16" t="s">
         <v>22</v>
       </c>
@@ -2846,8 +2882,8 @@
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="72"/>
-      <c r="B13" s="73"/>
+      <c r="A13" s="73"/>
+      <c r="B13" s="74"/>
       <c r="C13" s="16" t="s">
         <v>34</v>
       </c>
@@ -2871,8 +2907,8 @@
         <f>($A$9-H12)/$A$9</f>
         <v>0.42448979591836733</v>
       </c>
-      <c r="K13" s="72"/>
-      <c r="L13" s="73"/>
+      <c r="K13" s="73"/>
+      <c r="L13" s="74"/>
       <c r="M13" s="16" t="s">
         <v>34</v>
       </c>
@@ -2898,10 +2934,10 @@
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="53">
+      <c r="A14" s="75">
         <v>1280</v>
       </c>
-      <c r="B14" s="54"/>
+      <c r="B14" s="76"/>
       <c r="C14" s="13" t="s">
         <v>30</v>
       </c>
@@ -2920,10 +2956,10 @@
       <c r="H14" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="53">
+      <c r="K14" s="75">
         <v>1280</v>
       </c>
-      <c r="L14" s="54"/>
+      <c r="L14" s="76"/>
       <c r="M14" s="13" t="s">
         <v>30</v>
       </c>
@@ -2944,8 +2980,8 @@
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="55"/>
-      <c r="B15" s="56"/>
+      <c r="A15" s="77"/>
+      <c r="B15" s="78"/>
       <c r="C15" s="4" t="s">
         <v>21</v>
       </c>
@@ -2962,8 +2998,8 @@
         <v>68</v>
       </c>
       <c r="H15" s="5"/>
-      <c r="K15" s="55"/>
-      <c r="L15" s="56"/>
+      <c r="K15" s="77"/>
+      <c r="L15" s="78"/>
       <c r="M15" s="4" t="s">
         <v>21</v>
       </c>
@@ -2984,8 +3020,8 @@
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="55"/>
-      <c r="B16" s="56"/>
+      <c r="A16" s="77"/>
+      <c r="B16" s="78"/>
       <c r="C16" s="4" t="s">
         <v>35</v>
       </c>
@@ -3009,8 +3045,8 @@
         <f>($A$14-H15)/$A$14</f>
         <v>1</v>
       </c>
-      <c r="K16" s="55"/>
-      <c r="L16" s="56"/>
+      <c r="K16" s="77"/>
+      <c r="L16" s="78"/>
       <c r="M16" s="4" t="s">
         <v>35</v>
       </c>
@@ -3036,8 +3072,8 @@
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="55"/>
-      <c r="B17" s="56"/>
+      <c r="A17" s="77"/>
+      <c r="B17" s="78"/>
       <c r="C17" s="4" t="s">
         <v>22</v>
       </c>
@@ -3054,8 +3090,8 @@
         <v>1120</v>
       </c>
       <c r="H17" s="5"/>
-      <c r="K17" s="55"/>
-      <c r="L17" s="56"/>
+      <c r="K17" s="77"/>
+      <c r="L17" s="78"/>
       <c r="M17" s="4" t="s">
         <v>22</v>
       </c>
@@ -3076,8 +3112,8 @@
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="57"/>
-      <c r="B18" s="58"/>
+      <c r="A18" s="79"/>
+      <c r="B18" s="80"/>
       <c r="C18" s="4" t="s">
         <v>34</v>
       </c>
@@ -3101,8 +3137,8 @@
         <f>($A$14-H17)/$A$14</f>
         <v>1</v>
       </c>
-      <c r="K18" s="57"/>
-      <c r="L18" s="58"/>
+      <c r="K18" s="79"/>
+      <c r="L18" s="80"/>
       <c r="M18" s="4" t="s">
         <v>34</v>
       </c>
@@ -3128,10 +3164,10 @@
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="74">
+      <c r="A19" s="56">
         <v>1345</v>
       </c>
-      <c r="B19" s="75"/>
+      <c r="B19" s="57"/>
       <c r="C19" s="7" t="s">
         <v>30</v>
       </c>
@@ -3150,10 +3186,10 @@
       <c r="H19" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="K19" s="74">
+      <c r="K19" s="56">
         <v>1345</v>
       </c>
-      <c r="L19" s="75"/>
+      <c r="L19" s="57"/>
       <c r="M19" s="7" t="s">
         <v>30</v>
       </c>
@@ -3174,8 +3210,8 @@
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="76"/>
-      <c r="B20" s="77"/>
+      <c r="A20" s="58"/>
+      <c r="B20" s="59"/>
       <c r="C20" s="7" t="s">
         <v>21</v>
       </c>
@@ -3192,8 +3228,8 @@
         <v>129</v>
       </c>
       <c r="H20" s="5"/>
-      <c r="K20" s="76"/>
-      <c r="L20" s="77"/>
+      <c r="K20" s="58"/>
+      <c r="L20" s="59"/>
       <c r="M20" s="7" t="s">
         <v>21</v>
       </c>
@@ -3214,8 +3250,8 @@
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21" s="76"/>
-      <c r="B21" s="77"/>
+      <c r="A21" s="58"/>
+      <c r="B21" s="59"/>
       <c r="C21" s="7" t="s">
         <v>35</v>
       </c>
@@ -3236,8 +3272,8 @@
         <v>0.90408921933085507</v>
       </c>
       <c r="H21" s="5"/>
-      <c r="K21" s="76"/>
-      <c r="L21" s="77"/>
+      <c r="K21" s="58"/>
+      <c r="L21" s="59"/>
       <c r="M21" s="7" t="s">
         <v>35</v>
       </c>
@@ -3263,8 +3299,8 @@
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A22" s="76"/>
-      <c r="B22" s="77"/>
+      <c r="A22" s="58"/>
+      <c r="B22" s="59"/>
       <c r="C22" s="7" t="s">
         <v>22</v>
       </c>
@@ -3281,8 +3317,8 @@
         <v>1182</v>
       </c>
       <c r="H22" s="5"/>
-      <c r="K22" s="76"/>
-      <c r="L22" s="77"/>
+      <c r="K22" s="58"/>
+      <c r="L22" s="59"/>
       <c r="M22" s="7" t="s">
         <v>22</v>
       </c>
@@ -3301,8 +3337,8 @@
       <c r="R22" s="5"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A23" s="78"/>
-      <c r="B23" s="79"/>
+      <c r="A23" s="60"/>
+      <c r="B23" s="61"/>
       <c r="C23" s="7" t="s">
         <v>34</v>
       </c>
@@ -3323,8 +3359,8 @@
         <v>0.12118959107806691</v>
       </c>
       <c r="H23" s="5"/>
-      <c r="K23" s="78"/>
-      <c r="L23" s="79"/>
+      <c r="K23" s="60"/>
+      <c r="L23" s="61"/>
       <c r="M23" s="7" t="s">
         <v>34</v>
       </c>
@@ -3347,10 +3383,10 @@
       <c r="R23" s="5"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="K24" s="80">
+      <c r="K24" s="62">
         <v>1640</v>
       </c>
-      <c r="L24" s="80"/>
+      <c r="L24" s="62"/>
       <c r="M24" s="24" t="s">
         <v>30</v>
       </c>
@@ -3371,10 +3407,10 @@
       </c>
     </row>
     <row r="28" spans="1:18" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="60" t="s">
+      <c r="A28" s="81" t="s">
         <v>31</v>
       </c>
-      <c r="B28" s="61"/>
+      <c r="B28" s="82"/>
       <c r="C28" s="14"/>
       <c r="D28" s="15" t="s">
         <v>1</v>
@@ -3391,10 +3427,10 @@
       <c r="H28" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="K28" s="60" t="s">
+      <c r="K28" s="81" t="s">
         <v>31</v>
       </c>
-      <c r="L28" s="61"/>
+      <c r="L28" s="82"/>
       <c r="M28" s="14"/>
       <c r="N28" s="15" t="s">
         <v>1</v>
@@ -3413,10 +3449,10 @@
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A29" s="62">
+      <c r="A29" s="63">
         <v>584</v>
       </c>
-      <c r="B29" s="63"/>
+      <c r="B29" s="64"/>
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -3436,10 +3472,10 @@
         <v>8.1119999999999994E-3</v>
       </c>
       <c r="J29" s="24"/>
-      <c r="K29" s="62">
+      <c r="K29" s="63">
         <v>584</v>
       </c>
-      <c r="L29" s="63"/>
+      <c r="L29" s="64"/>
       <c r="M29" s="1" t="s">
         <v>23</v>
       </c>
@@ -3460,8 +3496,8 @@
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A30" s="64"/>
-      <c r="B30" s="65"/>
+      <c r="A30" s="65"/>
+      <c r="B30" s="66"/>
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -3480,8 +3516,8 @@
       <c r="H30" s="1">
         <v>3.248E-3</v>
       </c>
-      <c r="K30" s="64"/>
-      <c r="L30" s="65"/>
+      <c r="K30" s="65"/>
+      <c r="L30" s="66"/>
       <c r="M30" s="1" t="s">
         <v>24</v>
       </c>
@@ -3502,8 +3538,8 @@
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A31" s="64"/>
-      <c r="B31" s="65"/>
+      <c r="A31" s="65"/>
+      <c r="B31" s="66"/>
       <c r="C31" s="19" t="s">
         <v>32</v>
       </c>
@@ -3527,8 +3563,8 @@
         <f t="shared" si="0"/>
         <v>1.1359999999999999E-2</v>
       </c>
-      <c r="K31" s="64"/>
-      <c r="L31" s="65"/>
+      <c r="K31" s="65"/>
+      <c r="L31" s="66"/>
       <c r="M31" s="19" t="s">
         <v>32</v>
       </c>
@@ -3554,8 +3590,8 @@
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A32" s="64"/>
-      <c r="B32" s="65"/>
+      <c r="A32" s="65"/>
+      <c r="B32" s="66"/>
       <c r="C32" s="1" t="s">
         <v>25</v>
       </c>
@@ -3575,8 +3611,8 @@
         <v>4.0691999999999999E-2</v>
       </c>
       <c r="J32" s="24"/>
-      <c r="K32" s="64"/>
-      <c r="L32" s="65"/>
+      <c r="K32" s="65"/>
+      <c r="L32" s="66"/>
       <c r="M32" s="1" t="s">
         <v>25</v>
       </c>
@@ -3597,8 +3633,8 @@
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A33" s="64"/>
-      <c r="B33" s="65"/>
+      <c r="A33" s="65"/>
+      <c r="B33" s="66"/>
       <c r="C33" s="1" t="s">
         <v>26</v>
       </c>
@@ -3617,8 +3653,8 @@
       <c r="H33" s="1">
         <v>1.7328E-2</v>
       </c>
-      <c r="K33" s="64"/>
-      <c r="L33" s="65"/>
+      <c r="K33" s="65"/>
+      <c r="L33" s="66"/>
       <c r="M33" s="1" t="s">
         <v>26</v>
       </c>
@@ -3639,8 +3675,8 @@
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A34" s="66"/>
-      <c r="B34" s="67"/>
+      <c r="A34" s="67"/>
+      <c r="B34" s="68"/>
       <c r="C34" s="19" t="s">
         <v>32</v>
       </c>
@@ -3664,8 +3700,8 @@
         <f t="shared" si="2"/>
         <v>5.8020000000000002E-2</v>
       </c>
-      <c r="K34" s="66"/>
-      <c r="L34" s="67"/>
+      <c r="K34" s="67"/>
+      <c r="L34" s="68"/>
       <c r="M34" s="19" t="s">
         <v>32</v>
       </c>
@@ -3691,10 +3727,10 @@
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A35" s="68">
+      <c r="A35" s="69">
         <v>980</v>
       </c>
-      <c r="B35" s="69"/>
+      <c r="B35" s="70"/>
       <c r="C35" s="16" t="s">
         <v>23</v>
       </c>
@@ -3714,10 +3750,10 @@
         <v>1.2716E-2</v>
       </c>
       <c r="J35" s="24"/>
-      <c r="K35" s="68">
+      <c r="K35" s="69">
         <v>980</v>
       </c>
-      <c r="L35" s="69"/>
+      <c r="L35" s="70"/>
       <c r="M35" s="16" t="s">
         <v>23</v>
       </c>
@@ -3738,8 +3774,8 @@
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A36" s="70"/>
-      <c r="B36" s="71"/>
+      <c r="A36" s="71"/>
+      <c r="B36" s="72"/>
       <c r="C36" s="16" t="s">
         <v>24</v>
       </c>
@@ -3758,8 +3794,8 @@
       <c r="H36" s="16">
         <v>5.1999999999999998E-3</v>
       </c>
-      <c r="K36" s="70"/>
-      <c r="L36" s="71"/>
+      <c r="K36" s="71"/>
+      <c r="L36" s="72"/>
       <c r="M36" s="16" t="s">
         <v>24</v>
       </c>
@@ -3780,8 +3816,8 @@
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A37" s="70"/>
-      <c r="B37" s="71"/>
+      <c r="A37" s="71"/>
+      <c r="B37" s="72"/>
       <c r="C37" s="19" t="s">
         <v>32</v>
       </c>
@@ -3805,8 +3841,8 @@
         <f t="shared" si="4"/>
         <v>1.7916000000000001E-2</v>
       </c>
-      <c r="K37" s="70"/>
-      <c r="L37" s="71"/>
+      <c r="K37" s="71"/>
+      <c r="L37" s="72"/>
       <c r="M37" s="19" t="s">
         <v>32</v>
       </c>
@@ -3832,8 +3868,8 @@
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A38" s="70"/>
-      <c r="B38" s="71"/>
+      <c r="A38" s="71"/>
+      <c r="B38" s="72"/>
       <c r="C38" s="16" t="s">
         <v>25</v>
       </c>
@@ -3853,8 +3889,8 @@
         <v>5.5975999999999998E-2</v>
       </c>
       <c r="J38" s="24"/>
-      <c r="K38" s="70"/>
-      <c r="L38" s="71"/>
+      <c r="K38" s="71"/>
+      <c r="L38" s="72"/>
       <c r="M38" s="16" t="s">
         <v>25</v>
       </c>
@@ -3875,8 +3911,8 @@
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A39" s="70"/>
-      <c r="B39" s="71"/>
+      <c r="A39" s="71"/>
+      <c r="B39" s="72"/>
       <c r="C39" s="16" t="s">
         <v>26</v>
       </c>
@@ -3895,8 +3931,8 @@
       <c r="H39" s="16">
         <v>2.3768000000000001E-2</v>
       </c>
-      <c r="K39" s="70"/>
-      <c r="L39" s="71"/>
+      <c r="K39" s="71"/>
+      <c r="L39" s="72"/>
       <c r="M39" s="16" t="s">
         <v>26</v>
       </c>
@@ -3917,8 +3953,8 @@
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A40" s="72"/>
-      <c r="B40" s="73"/>
+      <c r="A40" s="73"/>
+      <c r="B40" s="74"/>
       <c r="C40" s="19" t="s">
         <v>32</v>
       </c>
@@ -3942,8 +3978,8 @@
         <f t="shared" si="6"/>
         <v>7.9743999999999995E-2</v>
       </c>
-      <c r="K40" s="72"/>
-      <c r="L40" s="73"/>
+      <c r="K40" s="73"/>
+      <c r="L40" s="74"/>
       <c r="M40" s="19" t="s">
         <v>32</v>
       </c>
@@ -3969,10 +4005,10 @@
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A41" s="53">
+      <c r="A41" s="75">
         <v>1280</v>
       </c>
-      <c r="B41" s="54"/>
+      <c r="B41" s="76"/>
       <c r="C41" s="4" t="s">
         <v>23</v>
       </c>
@@ -3990,10 +4026,10 @@
       </c>
       <c r="H41" s="5"/>
       <c r="J41" s="24"/>
-      <c r="K41" s="53">
+      <c r="K41" s="75">
         <v>1280</v>
       </c>
-      <c r="L41" s="54"/>
+      <c r="L41" s="76"/>
       <c r="M41" s="4" t="s">
         <v>23</v>
       </c>
@@ -4014,8 +4050,8 @@
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A42" s="55"/>
-      <c r="B42" s="56"/>
+      <c r="A42" s="77"/>
+      <c r="B42" s="78"/>
       <c r="C42" s="4" t="s">
         <v>24</v>
       </c>
@@ -4032,8 +4068,8 @@
         <v>9.476E-3</v>
       </c>
       <c r="H42" s="5"/>
-      <c r="K42" s="55"/>
-      <c r="L42" s="56"/>
+      <c r="K42" s="77"/>
+      <c r="L42" s="78"/>
       <c r="M42" s="4" t="s">
         <v>24</v>
       </c>
@@ -4054,8 +4090,8 @@
       </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A43" s="55"/>
-      <c r="B43" s="56"/>
+      <c r="A43" s="77"/>
+      <c r="B43" s="78"/>
       <c r="C43" s="19" t="s">
         <v>32</v>
       </c>
@@ -4076,8 +4112,8 @@
         <v>2.7875999999999998E-2</v>
       </c>
       <c r="H43" s="5"/>
-      <c r="K43" s="55"/>
-      <c r="L43" s="56"/>
+      <c r="K43" s="77"/>
+      <c r="L43" s="78"/>
       <c r="M43" s="19" t="s">
         <v>32</v>
       </c>
@@ -4103,8 +4139,8 @@
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A44" s="55"/>
-      <c r="B44" s="56"/>
+      <c r="A44" s="77"/>
+      <c r="B44" s="78"/>
       <c r="C44" s="4" t="s">
         <v>25</v>
       </c>
@@ -4122,8 +4158,8 @@
       </c>
       <c r="H44" s="5"/>
       <c r="J44" s="24"/>
-      <c r="K44" s="55"/>
-      <c r="L44" s="56"/>
+      <c r="K44" s="77"/>
+      <c r="L44" s="78"/>
       <c r="M44" s="4" t="s">
         <v>25</v>
       </c>
@@ -4144,8 +4180,8 @@
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A45" s="55"/>
-      <c r="B45" s="56"/>
+      <c r="A45" s="77"/>
+      <c r="B45" s="78"/>
       <c r="C45" s="4" t="s">
         <v>26</v>
       </c>
@@ -4162,8 +4198,8 @@
         <v>4.3580000000000001E-2</v>
       </c>
       <c r="H45" s="5"/>
-      <c r="K45" s="55"/>
-      <c r="L45" s="56"/>
+      <c r="K45" s="77"/>
+      <c r="L45" s="78"/>
       <c r="M45" s="4" t="s">
         <v>26</v>
       </c>
@@ -4184,8 +4220,8 @@
       </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A46" s="57"/>
-      <c r="B46" s="58"/>
+      <c r="A46" s="79"/>
+      <c r="B46" s="80"/>
       <c r="C46" s="19" t="s">
         <v>32</v>
       </c>
@@ -4206,8 +4242,8 @@
         <v>0.146428</v>
       </c>
       <c r="H46" s="5"/>
-      <c r="K46" s="57"/>
-      <c r="L46" s="58"/>
+      <c r="K46" s="79"/>
+      <c r="L46" s="80"/>
       <c r="M46" s="19" t="s">
         <v>32</v>
       </c>
@@ -4233,10 +4269,10 @@
       </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A47" s="74">
+      <c r="A47" s="56">
         <v>1345</v>
       </c>
-      <c r="B47" s="75"/>
+      <c r="B47" s="57"/>
       <c r="C47" s="7" t="s">
         <v>23</v>
       </c>
@@ -4254,10 +4290,10 @@
       </c>
       <c r="H47" s="5"/>
       <c r="J47" s="24"/>
-      <c r="K47" s="74">
+      <c r="K47" s="56">
         <v>1345</v>
       </c>
-      <c r="L47" s="75"/>
+      <c r="L47" s="57"/>
       <c r="M47" s="7" t="s">
         <v>23</v>
       </c>
@@ -4278,8 +4314,8 @@
       </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A48" s="76"/>
-      <c r="B48" s="77"/>
+      <c r="A48" s="58"/>
+      <c r="B48" s="59"/>
       <c r="C48" s="7" t="s">
         <v>24</v>
       </c>
@@ -4296,8 +4332,8 @@
         <v>9.9319999999999999E-3</v>
       </c>
       <c r="H48" s="5"/>
-      <c r="K48" s="76"/>
-      <c r="L48" s="77"/>
+      <c r="K48" s="58"/>
+      <c r="L48" s="59"/>
       <c r="M48" s="7" t="s">
         <v>24</v>
       </c>
@@ -4316,8 +4352,8 @@
       <c r="R48" s="5"/>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A49" s="76"/>
-      <c r="B49" s="77"/>
+      <c r="A49" s="58"/>
+      <c r="B49" s="59"/>
       <c r="C49" s="19" t="s">
         <v>32</v>
       </c>
@@ -4338,8 +4374,8 @@
         <v>2.8931999999999999E-2</v>
       </c>
       <c r="H49" s="5"/>
-      <c r="K49" s="76"/>
-      <c r="L49" s="77"/>
+      <c r="K49" s="58"/>
+      <c r="L49" s="59"/>
       <c r="M49" s="19" t="s">
         <v>32</v>
       </c>
@@ -4362,8 +4398,8 @@
       <c r="R49" s="5"/>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A50" s="76"/>
-      <c r="B50" s="77"/>
+      <c r="A50" s="58"/>
+      <c r="B50" s="59"/>
       <c r="C50" s="7" t="s">
         <v>25</v>
       </c>
@@ -4381,8 +4417,8 @@
       </c>
       <c r="H50" s="5"/>
       <c r="J50" s="24"/>
-      <c r="K50" s="76"/>
-      <c r="L50" s="77"/>
+      <c r="K50" s="58"/>
+      <c r="L50" s="59"/>
       <c r="M50" s="7" t="s">
         <v>25</v>
       </c>
@@ -4401,8 +4437,8 @@
       <c r="R50" s="5"/>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A51" s="76"/>
-      <c r="B51" s="77"/>
+      <c r="A51" s="58"/>
+      <c r="B51" s="59"/>
       <c r="C51" s="7" t="s">
         <v>26</v>
       </c>
@@ -4419,8 +4455,8 @@
         <v>4.5887999999999998E-2</v>
       </c>
       <c r="H51" s="5"/>
-      <c r="K51" s="76"/>
-      <c r="L51" s="77"/>
+      <c r="K51" s="58"/>
+      <c r="L51" s="59"/>
       <c r="M51" s="7" t="s">
         <v>26</v>
       </c>
@@ -4439,8 +4475,8 @@
       <c r="R51" s="5"/>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A52" s="78"/>
-      <c r="B52" s="79"/>
+      <c r="A52" s="60"/>
+      <c r="B52" s="61"/>
       <c r="C52" s="19" t="s">
         <v>32</v>
       </c>
@@ -4461,8 +4497,8 @@
         <v>0.15465999999999999</v>
       </c>
       <c r="H52" s="5"/>
-      <c r="K52" s="78"/>
-      <c r="L52" s="79"/>
+      <c r="K52" s="60"/>
+      <c r="L52" s="61"/>
       <c r="M52" s="19" t="s">
         <v>32</v>
       </c>
@@ -4486,6 +4522,13 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="K41:L46"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="K2:R2"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="K4:L8"/>
+    <mergeCell ref="K9:L13"/>
+    <mergeCell ref="A3:B3"/>
     <mergeCell ref="K47:L52"/>
     <mergeCell ref="K24:L24"/>
     <mergeCell ref="A47:B52"/>
@@ -4502,13 +4545,6 @@
     <mergeCell ref="K28:L28"/>
     <mergeCell ref="K29:L34"/>
     <mergeCell ref="K35:L40"/>
-    <mergeCell ref="K41:L46"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="K2:R2"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="K4:L8"/>
-    <mergeCell ref="K9:L13"/>
-    <mergeCell ref="A3:B3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4546,32 +4582,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="83" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-      <c r="M1" s="59"/>
-      <c r="N1" s="59"/>
-      <c r="O1" s="59"/>
-      <c r="P1" s="59"/>
-      <c r="Q1" s="59"/>
-      <c r="R1" s="59"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
+      <c r="L1" s="83"/>
+      <c r="M1" s="83"/>
+      <c r="N1" s="83"/>
+      <c r="O1" s="83"/>
+      <c r="P1" s="83"/>
+      <c r="Q1" s="83"/>
+      <c r="R1" s="83"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="60" t="s">
+      <c r="A2" s="81" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="61"/>
+      <c r="B2" s="82"/>
       <c r="C2" s="14"/>
       <c r="D2" s="15" t="s">
         <v>1</v>
@@ -4623,10 +4659,10 @@
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="62">
+      <c r="A3" s="63">
         <v>584</v>
       </c>
-      <c r="B3" s="63"/>
+      <c r="B3" s="64"/>
       <c r="C3" s="1" t="s">
         <v>30</v>
       </c>
@@ -4680,8 +4716,8 @@
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="64"/>
-      <c r="B4" s="65"/>
+      <c r="A4" s="65"/>
+      <c r="B4" s="66"/>
       <c r="C4" s="1" t="s">
         <v>21</v>
       </c>
@@ -4735,8 +4771,8 @@
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="64"/>
-      <c r="B5" s="65"/>
+      <c r="A5" s="65"/>
+      <c r="B5" s="66"/>
       <c r="C5" s="1" t="s">
         <v>33</v>
       </c>
@@ -4806,8 +4842,8 @@
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="64"/>
-      <c r="B6" s="65"/>
+      <c r="A6" s="65"/>
+      <c r="B6" s="66"/>
       <c r="C6" s="1" t="s">
         <v>22</v>
       </c>
@@ -4861,8 +4897,8 @@
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="66"/>
-      <c r="B7" s="67"/>
+      <c r="A7" s="67"/>
+      <c r="B7" s="68"/>
       <c r="C7" s="1" t="s">
         <v>34</v>
       </c>
@@ -4932,10 +4968,10 @@
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="68">
+      <c r="A8" s="69">
         <v>980</v>
       </c>
-      <c r="B8" s="69"/>
+      <c r="B8" s="70"/>
       <c r="C8" s="16" t="s">
         <v>30</v>
       </c>
@@ -4986,8 +5022,8 @@
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="70"/>
-      <c r="B9" s="71"/>
+      <c r="A9" s="71"/>
+      <c r="B9" s="72"/>
       <c r="C9" s="16" t="s">
         <v>21</v>
       </c>
@@ -5041,8 +5077,8 @@
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="70"/>
-      <c r="B10" s="71"/>
+      <c r="A10" s="71"/>
+      <c r="B10" s="72"/>
       <c r="C10" s="16" t="s">
         <v>35</v>
       </c>
@@ -5108,8 +5144,8 @@
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="70"/>
-      <c r="B11" s="71"/>
+      <c r="A11" s="71"/>
+      <c r="B11" s="72"/>
       <c r="C11" s="16" t="s">
         <v>22</v>
       </c>
@@ -5163,8 +5199,8 @@
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="72"/>
-      <c r="B12" s="73"/>
+      <c r="A12" s="73"/>
+      <c r="B12" s="74"/>
       <c r="C12" s="16" t="s">
         <v>34</v>
       </c>
@@ -5230,10 +5266,10 @@
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="53">
+      <c r="A13" s="75">
         <v>1280</v>
       </c>
-      <c r="B13" s="54"/>
+      <c r="B13" s="76"/>
       <c r="C13" s="13" t="s">
         <v>30</v>
       </c>
@@ -5284,8 +5320,8 @@
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="55"/>
-      <c r="B14" s="56"/>
+      <c r="A14" s="77"/>
+      <c r="B14" s="78"/>
       <c r="C14" s="4" t="s">
         <v>21</v>
       </c>
@@ -5339,8 +5375,8 @@
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="55"/>
-      <c r="B15" s="56"/>
+      <c r="A15" s="77"/>
+      <c r="B15" s="78"/>
       <c r="C15" s="4" t="s">
         <v>35</v>
       </c>
@@ -5406,8 +5442,8 @@
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="55"/>
-      <c r="B16" s="56"/>
+      <c r="A16" s="77"/>
+      <c r="B16" s="78"/>
       <c r="C16" s="4" t="s">
         <v>22</v>
       </c>
@@ -5461,8 +5497,8 @@
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A17" s="57"/>
-      <c r="B17" s="58"/>
+      <c r="A17" s="79"/>
+      <c r="B17" s="80"/>
       <c r="C17" s="4" t="s">
         <v>34</v>
       </c>
@@ -5528,10 +5564,10 @@
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A18" s="74">
+      <c r="A18" s="56">
         <v>1345</v>
       </c>
-      <c r="B18" s="75"/>
+      <c r="B18" s="57"/>
       <c r="C18" s="7" t="s">
         <v>30</v>
       </c>
@@ -5585,8 +5621,8 @@
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A19" s="76"/>
-      <c r="B19" s="77"/>
+      <c r="A19" s="58"/>
+      <c r="B19" s="59"/>
       <c r="C19" s="7" t="s">
         <v>21</v>
       </c>
@@ -5643,8 +5679,8 @@
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A20" s="76"/>
-      <c r="B20" s="77"/>
+      <c r="A20" s="58"/>
+      <c r="B20" s="59"/>
       <c r="C20" s="7" t="s">
         <v>35</v>
       </c>
@@ -5710,8 +5746,8 @@
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A21" s="76"/>
-      <c r="B21" s="77"/>
+      <c r="A21" s="58"/>
+      <c r="B21" s="59"/>
       <c r="C21" s="7" t="s">
         <v>22</v>
       </c>
@@ -5765,8 +5801,8 @@
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A22" s="78"/>
-      <c r="B22" s="79"/>
+      <c r="A22" s="60"/>
+      <c r="B22" s="61"/>
       <c r="C22" s="7" t="s">
         <v>34</v>
       </c>
@@ -5832,10 +5868,10 @@
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A23" s="81">
+      <c r="A23" s="84">
         <v>1640</v>
       </c>
-      <c r="B23" s="82"/>
+      <c r="B23" s="85"/>
       <c r="C23" s="39" t="s">
         <v>30</v>
       </c>
@@ -5866,8 +5902,8 @@
       <c r="R23" s="40"/>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A24" s="83"/>
-      <c r="B24" s="84"/>
+      <c r="A24" s="86"/>
+      <c r="B24" s="87"/>
       <c r="C24" s="39" t="s">
         <v>21</v>
       </c>
@@ -5899,8 +5935,8 @@
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A25" s="83"/>
-      <c r="B25" s="84"/>
+      <c r="A25" s="86"/>
+      <c r="B25" s="87"/>
       <c r="C25" s="39" t="s">
         <v>35</v>
       </c>
@@ -5963,8 +5999,8 @@
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A26" s="83"/>
-      <c r="B26" s="84"/>
+      <c r="A26" s="86"/>
+      <c r="B26" s="87"/>
       <c r="C26" s="39" t="s">
         <v>22</v>
       </c>
@@ -5996,8 +6032,8 @@
       </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A27" s="85"/>
-      <c r="B27" s="86"/>
+      <c r="A27" s="88"/>
+      <c r="B27" s="89"/>
       <c r="C27" s="39" t="s">
         <v>34</v>
       </c>
@@ -6071,10 +6107,10 @@
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A33" s="60" t="s">
+      <c r="A33" s="81" t="s">
         <v>31</v>
       </c>
-      <c r="B33" s="61"/>
+      <c r="B33" s="82"/>
       <c r="C33" s="14"/>
       <c r="D33" s="15" t="s">
         <v>1</v>
@@ -6123,10 +6159,10 @@
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A34" s="62">
+      <c r="A34" s="63">
         <v>584</v>
       </c>
-      <c r="B34" s="63"/>
+      <c r="B34" s="64"/>
       <c r="C34" s="1" t="s">
         <v>23</v>
       </c>
@@ -6177,8 +6213,8 @@
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A35" s="64"/>
-      <c r="B35" s="65"/>
+      <c r="A35" s="65"/>
+      <c r="B35" s="66"/>
       <c r="C35" s="1" t="s">
         <v>24</v>
       </c>
@@ -6229,8 +6265,8 @@
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A36" s="64"/>
-      <c r="B36" s="65"/>
+      <c r="A36" s="65"/>
+      <c r="B36" s="66"/>
       <c r="C36" s="19" t="s">
         <v>32</v>
       </c>
@@ -6296,8 +6332,8 @@
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A37" s="64"/>
-      <c r="B37" s="65"/>
+      <c r="A37" s="65"/>
+      <c r="B37" s="66"/>
       <c r="C37" s="1" t="s">
         <v>25</v>
       </c>
@@ -6348,8 +6384,8 @@
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A38" s="64"/>
-      <c r="B38" s="65"/>
+      <c r="A38" s="65"/>
+      <c r="B38" s="66"/>
       <c r="C38" s="1" t="s">
         <v>26</v>
       </c>
@@ -6400,8 +6436,8 @@
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A39" s="66"/>
-      <c r="B39" s="67"/>
+      <c r="A39" s="67"/>
+      <c r="B39" s="68"/>
       <c r="C39" s="19" t="s">
         <v>32</v>
       </c>
@@ -6467,10 +6503,10 @@
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A40" s="68">
+      <c r="A40" s="69">
         <v>980</v>
       </c>
-      <c r="B40" s="69"/>
+      <c r="B40" s="70"/>
       <c r="C40" s="16" t="s">
         <v>23</v>
       </c>
@@ -6521,8 +6557,8 @@
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A41" s="70"/>
-      <c r="B41" s="71"/>
+      <c r="A41" s="71"/>
+      <c r="B41" s="72"/>
       <c r="C41" s="16" t="s">
         <v>24</v>
       </c>
@@ -6573,8 +6609,8 @@
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A42" s="70"/>
-      <c r="B42" s="71"/>
+      <c r="A42" s="71"/>
+      <c r="B42" s="72"/>
       <c r="C42" s="19" t="s">
         <v>32</v>
       </c>
@@ -6640,8 +6676,8 @@
       </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A43" s="70"/>
-      <c r="B43" s="71"/>
+      <c r="A43" s="71"/>
+      <c r="B43" s="72"/>
       <c r="C43" s="16" t="s">
         <v>25</v>
       </c>
@@ -6692,8 +6728,8 @@
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A44" s="70"/>
-      <c r="B44" s="71"/>
+      <c r="A44" s="71"/>
+      <c r="B44" s="72"/>
       <c r="C44" s="16" t="s">
         <v>26</v>
       </c>
@@ -6744,8 +6780,8 @@
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A45" s="72"/>
-      <c r="B45" s="73"/>
+      <c r="A45" s="73"/>
+      <c r="B45" s="74"/>
       <c r="C45" s="19" t="s">
         <v>32</v>
       </c>
@@ -6811,10 +6847,10 @@
       </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A46" s="53">
+      <c r="A46" s="75">
         <v>1280</v>
       </c>
-      <c r="B46" s="54"/>
+      <c r="B46" s="76"/>
       <c r="C46" s="4" t="s">
         <v>23</v>
       </c>
@@ -6865,8 +6901,8 @@
       </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A47" s="55"/>
-      <c r="B47" s="56"/>
+      <c r="A47" s="77"/>
+      <c r="B47" s="78"/>
       <c r="C47" s="4" t="s">
         <v>24</v>
       </c>
@@ -6917,8 +6953,8 @@
       </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A48" s="55"/>
-      <c r="B48" s="56"/>
+      <c r="A48" s="77"/>
+      <c r="B48" s="78"/>
       <c r="C48" s="19" t="s">
         <v>32</v>
       </c>
@@ -6984,8 +7020,8 @@
       </c>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A49" s="55"/>
-      <c r="B49" s="56"/>
+      <c r="A49" s="77"/>
+      <c r="B49" s="78"/>
       <c r="C49" s="4" t="s">
         <v>25</v>
       </c>
@@ -7036,8 +7072,8 @@
       </c>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A50" s="55"/>
-      <c r="B50" s="56"/>
+      <c r="A50" s="77"/>
+      <c r="B50" s="78"/>
       <c r="C50" s="4" t="s">
         <v>26</v>
       </c>
@@ -7088,8 +7124,8 @@
       </c>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A51" s="57"/>
-      <c r="B51" s="58"/>
+      <c r="A51" s="79"/>
+      <c r="B51" s="80"/>
       <c r="C51" s="19" t="s">
         <v>32</v>
       </c>
@@ -7155,10 +7191,10 @@
       </c>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A52" s="74">
+      <c r="A52" s="56">
         <v>1345</v>
       </c>
-      <c r="B52" s="75"/>
+      <c r="B52" s="57"/>
       <c r="C52" s="7" t="s">
         <v>23</v>
       </c>
@@ -7209,8 +7245,8 @@
       </c>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A53" s="76"/>
-      <c r="B53" s="77"/>
+      <c r="A53" s="58"/>
+      <c r="B53" s="59"/>
       <c r="C53" s="7" t="s">
         <v>24</v>
       </c>
@@ -7261,8 +7297,8 @@
       </c>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A54" s="76"/>
-      <c r="B54" s="77"/>
+      <c r="A54" s="58"/>
+      <c r="B54" s="59"/>
       <c r="C54" s="19" t="s">
         <v>32</v>
       </c>
@@ -7328,8 +7364,8 @@
       </c>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A55" s="76"/>
-      <c r="B55" s="77"/>
+      <c r="A55" s="58"/>
+      <c r="B55" s="59"/>
       <c r="C55" s="7" t="s">
         <v>25</v>
       </c>
@@ -7380,8 +7416,8 @@
       </c>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A56" s="76"/>
-      <c r="B56" s="77"/>
+      <c r="A56" s="58"/>
+      <c r="B56" s="59"/>
       <c r="C56" s="7" t="s">
         <v>26</v>
       </c>
@@ -7432,8 +7468,8 @@
       </c>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A57" s="78"/>
-      <c r="B57" s="79"/>
+      <c r="A57" s="60"/>
+      <c r="B57" s="61"/>
       <c r="C57" s="19" t="s">
         <v>32</v>
       </c>
@@ -7759,29 +7795,29 @@
       </c>
     </row>
     <row r="15" spans="3:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="88" t="s">
+      <c r="C15" s="93" t="s">
         <v>95</v>
       </c>
-      <c r="D15" s="88"/>
-      <c r="E15" s="87" t="s">
+      <c r="D15" s="93"/>
+      <c r="E15" s="94" t="s">
         <v>100</v>
       </c>
-      <c r="F15" s="87"/>
-      <c r="G15" s="87"/>
-      <c r="H15" s="87"/>
-      <c r="I15" s="87"/>
-      <c r="J15" s="87"/>
-      <c r="K15" s="87"/>
-      <c r="L15" s="87"/>
-      <c r="M15" s="87"/>
-      <c r="N15" s="87"/>
-      <c r="O15" s="89" t="s">
+      <c r="F15" s="94"/>
+      <c r="G15" s="94"/>
+      <c r="H15" s="94"/>
+      <c r="I15" s="94"/>
+      <c r="J15" s="94"/>
+      <c r="K15" s="94"/>
+      <c r="L15" s="94"/>
+      <c r="M15" s="94"/>
+      <c r="N15" s="94"/>
+      <c r="O15" s="90" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="16" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C16" s="88"/>
-      <c r="D16" s="88"/>
+      <c r="C16" s="93"/>
+      <c r="D16" s="93"/>
       <c r="E16" s="42">
         <v>1</v>
       </c>
@@ -7812,10 +7848,10 @@
       <c r="N16" s="42">
         <v>10</v>
       </c>
-      <c r="O16" s="89"/>
+      <c r="O16" s="90"/>
     </row>
     <row r="17" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C17" s="89" t="s">
+      <c r="C17" s="90" t="s">
         <v>96</v>
       </c>
       <c r="D17" s="42" t="s">
@@ -7851,13 +7887,13 @@
       <c r="N17" s="43">
         <v>41</v>
       </c>
-      <c r="O17" s="90">
+      <c r="O17" s="91">
         <f>SUM(E17:N17)/410</f>
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C18" s="89"/>
+      <c r="C18" s="90"/>
       <c r="D18" s="42" t="s">
         <v>98</v>
       </c>
@@ -7891,32 +7927,32 @@
       <c r="N18" s="43">
         <v>0</v>
       </c>
-      <c r="O18" s="91"/>
+      <c r="O18" s="92"/>
     </row>
     <row r="21" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C21" s="88" t="s">
+      <c r="C21" s="93" t="s">
         <v>101</v>
       </c>
-      <c r="D21" s="88"/>
-      <c r="E21" s="87" t="s">
+      <c r="D21" s="93"/>
+      <c r="E21" s="94" t="s">
         <v>100</v>
       </c>
-      <c r="F21" s="87"/>
-      <c r="G21" s="87"/>
-      <c r="H21" s="87"/>
-      <c r="I21" s="87"/>
-      <c r="J21" s="87"/>
-      <c r="K21" s="87"/>
-      <c r="L21" s="87"/>
-      <c r="M21" s="87"/>
-      <c r="N21" s="87"/>
-      <c r="O21" s="89" t="s">
+      <c r="F21" s="94"/>
+      <c r="G21" s="94"/>
+      <c r="H21" s="94"/>
+      <c r="I21" s="94"/>
+      <c r="J21" s="94"/>
+      <c r="K21" s="94"/>
+      <c r="L21" s="94"/>
+      <c r="M21" s="94"/>
+      <c r="N21" s="94"/>
+      <c r="O21" s="90" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="22" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C22" s="88"/>
-      <c r="D22" s="88"/>
+      <c r="C22" s="93"/>
+      <c r="D22" s="93"/>
       <c r="E22" s="42">
         <v>1</v>
       </c>
@@ -7947,10 +7983,10 @@
       <c r="N22" s="42">
         <v>10</v>
       </c>
-      <c r="O22" s="89"/>
+      <c r="O22" s="90"/>
     </row>
     <row r="23" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C23" s="89" t="s">
+      <c r="C23" s="90" t="s">
         <v>96</v>
       </c>
       <c r="D23" s="42" t="s">
@@ -7986,13 +8022,13 @@
       <c r="N23" s="35">
         <v>27</v>
       </c>
-      <c r="O23" s="90">
+      <c r="O23" s="91">
         <f>SUM(E23:N23)/410</f>
         <v>0.86829268292682926</v>
       </c>
     </row>
     <row r="24" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C24" s="89"/>
+      <c r="C24" s="90"/>
       <c r="D24" s="42" t="s">
         <v>98</v>
       </c>
@@ -8026,32 +8062,32 @@
       <c r="N24" s="43">
         <v>14</v>
       </c>
-      <c r="O24" s="91"/>
+      <c r="O24" s="92"/>
     </row>
     <row r="27" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C27" s="88" t="s">
+      <c r="C27" s="93" t="s">
         <v>102</v>
       </c>
-      <c r="D27" s="88"/>
-      <c r="E27" s="87" t="s">
+      <c r="D27" s="93"/>
+      <c r="E27" s="94" t="s">
         <v>100</v>
       </c>
-      <c r="F27" s="87"/>
-      <c r="G27" s="87"/>
-      <c r="H27" s="87"/>
-      <c r="I27" s="87"/>
-      <c r="J27" s="87"/>
-      <c r="K27" s="87"/>
-      <c r="L27" s="87"/>
-      <c r="M27" s="87"/>
-      <c r="N27" s="87"/>
-      <c r="O27" s="89" t="s">
+      <c r="F27" s="94"/>
+      <c r="G27" s="94"/>
+      <c r="H27" s="94"/>
+      <c r="I27" s="94"/>
+      <c r="J27" s="94"/>
+      <c r="K27" s="94"/>
+      <c r="L27" s="94"/>
+      <c r="M27" s="94"/>
+      <c r="N27" s="94"/>
+      <c r="O27" s="90" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="28" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C28" s="88"/>
-      <c r="D28" s="88"/>
+      <c r="C28" s="93"/>
+      <c r="D28" s="93"/>
       <c r="E28" s="42">
         <v>1</v>
       </c>
@@ -8082,10 +8118,10 @@
       <c r="N28" s="42">
         <v>10</v>
       </c>
-      <c r="O28" s="89"/>
+      <c r="O28" s="90"/>
     </row>
     <row r="29" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C29" s="89" t="s">
+      <c r="C29" s="90" t="s">
         <v>96</v>
       </c>
       <c r="D29" s="42" t="s">
@@ -8121,13 +8157,13 @@
       <c r="N29" s="35">
         <v>29</v>
       </c>
-      <c r="O29" s="90">
+      <c r="O29" s="91">
         <f>SUM(E29:N29)/410</f>
         <v>0.69512195121951215</v>
       </c>
     </row>
     <row r="30" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C30" s="89"/>
+      <c r="C30" s="90"/>
       <c r="D30" s="42" t="s">
         <v>98</v>
       </c>
@@ -8161,7 +8197,7 @@
       <c r="N30" s="43">
         <v>12</v>
       </c>
-      <c r="O30" s="91"/>
+      <c r="O30" s="92"/>
     </row>
     <row r="33" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C33" s="46"/>
@@ -8210,6 +8246,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="E15:N15"/>
+    <mergeCell ref="C15:D16"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="O17:O18"/>
     <mergeCell ref="C29:C30"/>
     <mergeCell ref="O29:O30"/>
     <mergeCell ref="C21:D22"/>
@@ -8220,11 +8261,6 @@
     <mergeCell ref="C27:D28"/>
     <mergeCell ref="E27:N27"/>
     <mergeCell ref="O27:O28"/>
-    <mergeCell ref="E15:N15"/>
-    <mergeCell ref="C15:D16"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="O17:O18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8234,61 +8270,82 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:AD41"/>
+  <dimension ref="A4:AN41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C34" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M48" sqref="M48"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.140625" customWidth="1"/>
+    <col min="2" max="2" width="12" customWidth="1"/>
     <col min="18" max="18" width="9.85546875" customWidth="1"/>
+    <col min="33" max="33" width="9" customWidth="1"/>
+    <col min="34" max="34" width="9.7109375" customWidth="1"/>
+    <col min="35" max="35" width="8.28515625" customWidth="1"/>
+    <col min="36" max="37" width="8.5703125" customWidth="1"/>
+    <col min="38" max="38" width="8.42578125" customWidth="1"/>
+    <col min="39" max="39" width="8.28515625" customWidth="1"/>
+    <col min="40" max="40" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="88" t="s">
-        <v>106</v>
-      </c>
-      <c r="C4" s="88"/>
-      <c r="D4" s="87" t="s">
+    <row r="4" spans="2:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="93" t="s">
+        <v>111</v>
+      </c>
+      <c r="C4" s="93"/>
+      <c r="D4" s="94" t="s">
         <v>100</v>
       </c>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="87"/>
-      <c r="J4" s="87"/>
-      <c r="K4" s="87"/>
-      <c r="L4" s="87"/>
-      <c r="M4" s="87"/>
-      <c r="N4" s="89" t="s">
+      <c r="E4" s="94"/>
+      <c r="F4" s="94"/>
+      <c r="G4" s="94"/>
+      <c r="H4" s="94"/>
+      <c r="I4" s="94"/>
+      <c r="J4" s="94"/>
+      <c r="K4" s="94"/>
+      <c r="L4" s="94"/>
+      <c r="M4" s="94"/>
+      <c r="N4" s="90" t="s">
+        <v>116</v>
+      </c>
+      <c r="R4" s="93" t="s">
+        <v>117</v>
+      </c>
+      <c r="S4" s="93"/>
+      <c r="T4" s="94" t="s">
+        <v>100</v>
+      </c>
+      <c r="U4" s="94"/>
+      <c r="V4" s="94"/>
+      <c r="W4" s="94"/>
+      <c r="X4" s="94"/>
+      <c r="Y4" s="94"/>
+      <c r="Z4" s="94"/>
+      <c r="AA4" s="94"/>
+      <c r="AB4" s="94"/>
+      <c r="AC4" s="94"/>
+      <c r="AD4" s="90" t="s">
         <v>105</v>
       </c>
-      <c r="R4" s="88" t="s">
-        <v>106</v>
-      </c>
-      <c r="S4" s="88"/>
-      <c r="T4" s="87" t="s">
-        <v>100</v>
-      </c>
-      <c r="U4" s="87"/>
-      <c r="V4" s="87"/>
-      <c r="W4" s="87"/>
-      <c r="X4" s="87"/>
-      <c r="Y4" s="87"/>
-      <c r="Z4" s="87"/>
-      <c r="AA4" s="87"/>
-      <c r="AB4" s="87"/>
-      <c r="AC4" s="87"/>
-      <c r="AD4" s="89" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="5" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B5" s="88"/>
-      <c r="C5" s="88"/>
+      <c r="AG4" s="90" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH4" s="94" t="s">
+        <v>109</v>
+      </c>
+      <c r="AI4" s="94" t="s">
+        <v>110</v>
+      </c>
+      <c r="AJ4" s="94"/>
+      <c r="AK4" s="94"/>
+      <c r="AL4" s="94"/>
+      <c r="AM4" s="94"/>
+      <c r="AN4" s="94"/>
+    </row>
+    <row r="5" spans="2:40" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="93"/>
+      <c r="C5" s="93"/>
       <c r="D5" s="45">
         <v>1</v>
       </c>
@@ -8319,9 +8376,9 @@
       <c r="M5" s="45">
         <v>10</v>
       </c>
-      <c r="N5" s="89"/>
-      <c r="R5" s="88"/>
-      <c r="S5" s="88"/>
+      <c r="N5" s="90"/>
+      <c r="R5" s="93"/>
+      <c r="S5" s="93"/>
       <c r="T5" s="45">
         <v>1</v>
       </c>
@@ -8352,11 +8409,31 @@
       <c r="AC5" s="45">
         <v>10</v>
       </c>
-      <c r="AD5" s="89"/>
-    </row>
-    <row r="6" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="87" t="s">
-        <v>107</v>
+      <c r="AD5" s="90"/>
+      <c r="AG5" s="90"/>
+      <c r="AH5" s="94"/>
+      <c r="AI5" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ5" s="53" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK5" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL5" s="53" t="s">
+        <v>52</v>
+      </c>
+      <c r="AM5" s="53" t="s">
+        <v>51</v>
+      </c>
+      <c r="AN5" s="53" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="2:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="112" t="s">
+        <v>110</v>
       </c>
       <c r="C6" s="45" t="s">
         <v>1</v>
@@ -8405,8 +8482,8 @@
         <f>AVERAGE(D6:M6)</f>
         <v>9.2636986301369864E-2</v>
       </c>
-      <c r="R6" s="87" t="s">
-        <v>108</v>
+      <c r="R6" s="112" t="s">
+        <v>110</v>
       </c>
       <c r="S6" s="45" t="s">
         <v>1</v>
@@ -8445,9 +8522,39 @@
         <f>AVERAGE(T6:AC6)</f>
         <v>5.8035200000000009E-2</v>
       </c>
-    </row>
-    <row r="7" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B7" s="87"/>
+      <c r="AG6" s="53">
+        <v>584</v>
+      </c>
+      <c r="AH6" s="53" t="s">
+        <v>107</v>
+      </c>
+      <c r="AI6" s="110">
+        <f>AD6</f>
+        <v>5.8035200000000009E-2</v>
+      </c>
+      <c r="AJ6" s="110">
+        <f>AD7</f>
+        <v>4.6922399999999996E-2</v>
+      </c>
+      <c r="AK6" s="110">
+        <f>AD8</f>
+        <v>4.1415600000000004E-2</v>
+      </c>
+      <c r="AL6" s="110">
+        <f>AD9</f>
+        <v>3.2311600000000003E-2</v>
+      </c>
+      <c r="AM6" s="110">
+        <f>AD10</f>
+        <v>2.9476800000000004E-2</v>
+      </c>
+      <c r="AN6" s="110">
+        <f>AD11</f>
+        <v>3.0045600000000006E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:40" x14ac:dyDescent="0.25">
+      <c r="B7" s="112"/>
       <c r="C7" s="45" t="s">
         <v>2</v>
       </c>
@@ -8495,7 +8602,7 @@
         <f t="shared" ref="N7:N11" si="0">AVERAGE(D7:M7)</f>
         <v>0.2441780821917808</v>
       </c>
-      <c r="R7" s="87"/>
+      <c r="R7" s="112"/>
       <c r="S7" s="45" t="s">
         <v>2</v>
       </c>
@@ -8533,9 +8640,39 @@
         <f t="shared" ref="AD7:AD11" si="1">AVERAGE(T7:AC7)</f>
         <v>4.6922399999999996E-2</v>
       </c>
-    </row>
-    <row r="8" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B8" s="87"/>
+      <c r="AG7" s="53">
+        <v>980</v>
+      </c>
+      <c r="AH7" s="53" t="s">
+        <v>107</v>
+      </c>
+      <c r="AI7" s="43">
+        <f>AD16</f>
+        <v>9.6875600000000006E-2</v>
+      </c>
+      <c r="AJ7" s="43">
+        <f>AD17</f>
+        <v>8.1484000000000001E-2</v>
+      </c>
+      <c r="AK7" s="43">
+        <f>AD18</f>
+        <v>6.8795999999999996E-2</v>
+      </c>
+      <c r="AL7" s="43">
+        <f>AD19</f>
+        <v>5.4722799999999995E-2</v>
+      </c>
+      <c r="AM7" s="43">
+        <f>AD20</f>
+        <v>5.2898399999999998E-2</v>
+      </c>
+      <c r="AN7" s="43">
+        <f>AD21</f>
+        <v>4.9896800000000005E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:40" x14ac:dyDescent="0.25">
+      <c r="B8" s="112"/>
       <c r="C8" s="45" t="s">
         <v>3</v>
       </c>
@@ -8583,7 +8720,7 @@
         <f t="shared" si="0"/>
         <v>0.31849315068493156</v>
       </c>
-      <c r="R8" s="87"/>
+      <c r="R8" s="112"/>
       <c r="S8" s="45" t="s">
         <v>3</v>
       </c>
@@ -8621,9 +8758,39 @@
         <f t="shared" si="1"/>
         <v>4.1415600000000004E-2</v>
       </c>
-    </row>
-    <row r="9" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B9" s="87"/>
+      <c r="AG8" s="53">
+        <v>1280</v>
+      </c>
+      <c r="AH8" s="53" t="s">
+        <v>107</v>
+      </c>
+      <c r="AI8" s="43">
+        <f>AD26</f>
+        <v>0.12733359999999999</v>
+      </c>
+      <c r="AJ8" s="43">
+        <f>AD27</f>
+        <v>0.11091480000000001</v>
+      </c>
+      <c r="AK8" s="43">
+        <f>AD28</f>
+        <v>8.7704799999999999E-2</v>
+      </c>
+      <c r="AL8" s="43">
+        <f>AD29</f>
+        <v>7.7805600000000003E-2</v>
+      </c>
+      <c r="AM8" s="43">
+        <f>AD30</f>
+        <v>7.8400400000000009E-2</v>
+      </c>
+      <c r="AN8" s="54" t="str">
+        <f>AD31</f>
+        <v>Fail</v>
+      </c>
+    </row>
+    <row r="9" spans="2:40" x14ac:dyDescent="0.25">
+      <c r="B9" s="112"/>
       <c r="C9" s="45" t="s">
         <v>52</v>
       </c>
@@ -8671,7 +8838,7 @@
         <f t="shared" si="0"/>
         <v>0.49383561643835616</v>
       </c>
-      <c r="R9" s="87"/>
+      <c r="R9" s="112"/>
       <c r="S9" s="45" t="s">
         <v>52</v>
       </c>
@@ -8709,9 +8876,39 @@
         <f t="shared" si="1"/>
         <v>3.2311600000000003E-2</v>
       </c>
-    </row>
-    <row r="10" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B10" s="87"/>
+      <c r="AG9" s="53">
+        <v>1345</v>
+      </c>
+      <c r="AH9" s="53" t="s">
+        <v>107</v>
+      </c>
+      <c r="AI9" s="43">
+        <f>AD36</f>
+        <v>0.1336464</v>
+      </c>
+      <c r="AJ9" s="43">
+        <f>AD37</f>
+        <v>0.11642079999999999</v>
+      </c>
+      <c r="AK9" s="43">
+        <f>AD38</f>
+        <v>9.1741199999999995E-2</v>
+      </c>
+      <c r="AL9" s="43">
+        <f>AD39</f>
+        <v>8.16828E-2</v>
+      </c>
+      <c r="AM9" s="43">
+        <f>AD40</f>
+        <v>8.2377599999999995E-2</v>
+      </c>
+      <c r="AN9" s="54" t="str">
+        <f>AD41</f>
+        <v>Fail</v>
+      </c>
+    </row>
+    <row r="10" spans="2:40" x14ac:dyDescent="0.25">
+      <c r="B10" s="112"/>
       <c r="C10" s="45" t="s">
         <v>51</v>
       </c>
@@ -8759,7 +8956,7 @@
         <f t="shared" si="0"/>
         <v>0.59845890410958913</v>
       </c>
-      <c r="R10" s="87"/>
+      <c r="R10" s="112"/>
       <c r="S10" s="45" t="s">
         <v>51</v>
       </c>
@@ -8798,8 +8995,8 @@
         <v>2.9476800000000004E-2</v>
       </c>
     </row>
-    <row r="11" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B11" s="87"/>
+    <row r="11" spans="2:40" x14ac:dyDescent="0.25">
+      <c r="B11" s="112"/>
       <c r="C11" s="45" t="s">
         <v>69</v>
       </c>
@@ -8847,7 +9044,7 @@
         <f t="shared" si="0"/>
         <v>0.56746575342465744</v>
       </c>
-      <c r="R11" s="87"/>
+      <c r="R11" s="112"/>
       <c r="S11" s="45" t="s">
         <v>69</v>
       </c>
@@ -8886,49 +9083,63 @@
         <v>3.0045600000000006E-2</v>
       </c>
     </row>
-    <row r="14" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B14" s="88" t="s">
+    <row r="14" spans="2:40" x14ac:dyDescent="0.25">
+      <c r="B14" s="93" t="s">
+        <v>112</v>
+      </c>
+      <c r="C14" s="93"/>
+      <c r="D14" s="94" t="s">
+        <v>100</v>
+      </c>
+      <c r="E14" s="94"/>
+      <c r="F14" s="94"/>
+      <c r="G14" s="94"/>
+      <c r="H14" s="94"/>
+      <c r="I14" s="94"/>
+      <c r="J14" s="94"/>
+      <c r="K14" s="94"/>
+      <c r="L14" s="94"/>
+      <c r="M14" s="94"/>
+      <c r="N14" s="90" t="s">
+        <v>105</v>
+      </c>
+      <c r="R14" s="93" t="s">
+        <v>118</v>
+      </c>
+      <c r="S14" s="93"/>
+      <c r="T14" s="94" t="s">
+        <v>100</v>
+      </c>
+      <c r="U14" s="94"/>
+      <c r="V14" s="94"/>
+      <c r="W14" s="94"/>
+      <c r="X14" s="94"/>
+      <c r="Y14" s="94"/>
+      <c r="Z14" s="94"/>
+      <c r="AA14" s="94"/>
+      <c r="AB14" s="94"/>
+      <c r="AC14" s="94"/>
+      <c r="AD14" s="90" t="s">
+        <v>105</v>
+      </c>
+      <c r="AG14" s="90" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH14" s="94" t="s">
         <v>109</v>
       </c>
-      <c r="C14" s="88"/>
-      <c r="D14" s="87" t="s">
-        <v>100</v>
-      </c>
-      <c r="E14" s="87"/>
-      <c r="F14" s="87"/>
-      <c r="G14" s="87"/>
-      <c r="H14" s="87"/>
-      <c r="I14" s="87"/>
-      <c r="J14" s="87"/>
-      <c r="K14" s="87"/>
-      <c r="L14" s="87"/>
-      <c r="M14" s="87"/>
-      <c r="N14" s="89" t="s">
-        <v>105</v>
-      </c>
-      <c r="R14" s="88" t="s">
-        <v>109</v>
-      </c>
-      <c r="S14" s="88"/>
-      <c r="T14" s="87" t="s">
-        <v>100</v>
-      </c>
-      <c r="U14" s="87"/>
-      <c r="V14" s="87"/>
-      <c r="W14" s="87"/>
-      <c r="X14" s="87"/>
-      <c r="Y14" s="87"/>
-      <c r="Z14" s="87"/>
-      <c r="AA14" s="87"/>
-      <c r="AB14" s="87"/>
-      <c r="AC14" s="87"/>
-      <c r="AD14" s="89" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="15" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B15" s="88"/>
-      <c r="C15" s="88"/>
+      <c r="AI14" s="94" t="s">
+        <v>110</v>
+      </c>
+      <c r="AJ14" s="94"/>
+      <c r="AK14" s="94"/>
+      <c r="AL14" s="94"/>
+      <c r="AM14" s="94"/>
+      <c r="AN14" s="94"/>
+    </row>
+    <row r="15" spans="2:40" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="93"/>
+      <c r="C15" s="93"/>
       <c r="D15" s="45">
         <v>1</v>
       </c>
@@ -8959,9 +9170,9 @@
       <c r="M15" s="45">
         <v>10</v>
       </c>
-      <c r="N15" s="89"/>
-      <c r="R15" s="88"/>
-      <c r="S15" s="88"/>
+      <c r="N15" s="90"/>
+      <c r="R15" s="93"/>
+      <c r="S15" s="93"/>
       <c r="T15" s="45">
         <v>1</v>
       </c>
@@ -8992,11 +9203,31 @@
       <c r="AC15" s="45">
         <v>10</v>
       </c>
-      <c r="AD15" s="89"/>
-    </row>
-    <row r="16" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B16" s="87" t="s">
-        <v>107</v>
+      <c r="AD15" s="90"/>
+      <c r="AG15" s="90"/>
+      <c r="AH15" s="94"/>
+      <c r="AI15" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ15" s="53" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK15" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL15" s="53" t="s">
+        <v>52</v>
+      </c>
+      <c r="AM15" s="53" t="s">
+        <v>51</v>
+      </c>
+      <c r="AN15" s="53" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="2:40" x14ac:dyDescent="0.25">
+      <c r="B16" s="112" t="s">
+        <v>110</v>
       </c>
       <c r="C16" s="45" t="s">
         <v>1</v>
@@ -9045,8 +9276,8 @@
         <f>AVERAGE(D16:M16)</f>
         <v>9.5918367346938788E-2</v>
       </c>
-      <c r="R16" s="87" t="s">
-        <v>108</v>
+      <c r="R16" s="112" t="s">
+        <v>110</v>
       </c>
       <c r="S16" s="45" t="s">
         <v>1</v>
@@ -9085,9 +9316,39 @@
         <f>AVERAGE(T16:AC16)</f>
         <v>9.6875600000000006E-2</v>
       </c>
-    </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B17" s="87"/>
+      <c r="AG16" s="53">
+        <v>584</v>
+      </c>
+      <c r="AH16" s="53" t="s">
+        <v>106</v>
+      </c>
+      <c r="AI16" s="111">
+        <f>N6</f>
+        <v>9.2636986301369864E-2</v>
+      </c>
+      <c r="AJ16" s="111">
+        <f>N7</f>
+        <v>0.2441780821917808</v>
+      </c>
+      <c r="AK16" s="111">
+        <f>N8</f>
+        <v>0.31849315068493156</v>
+      </c>
+      <c r="AL16" s="111">
+        <f>N9</f>
+        <v>0.49383561643835616</v>
+      </c>
+      <c r="AM16" s="111">
+        <f>N10</f>
+        <v>0.59845890410958913</v>
+      </c>
+      <c r="AN16" s="111">
+        <f>N11</f>
+        <v>0.56746575342465744</v>
+      </c>
+    </row>
+    <row r="17" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="B17" s="112"/>
       <c r="C17" s="45" t="s">
         <v>2</v>
       </c>
@@ -9135,7 +9396,7 @@
         <f t="shared" ref="N17:N21" si="2">AVERAGE(D17:M17)</f>
         <v>0.19918367346938778</v>
       </c>
-      <c r="R17" s="87"/>
+      <c r="R17" s="112"/>
       <c r="S17" s="45" t="s">
         <v>2</v>
       </c>
@@ -9173,9 +9434,39 @@
         <f t="shared" ref="AD17:AD21" si="3">AVERAGE(T17:AC17)</f>
         <v>8.1484000000000001E-2</v>
       </c>
-    </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B18" s="87"/>
+      <c r="AG17" s="53">
+        <v>980</v>
+      </c>
+      <c r="AH17" s="53" t="s">
+        <v>106</v>
+      </c>
+      <c r="AI17" s="109">
+        <f>N16</f>
+        <v>9.5918367346938788E-2</v>
+      </c>
+      <c r="AJ17" s="109">
+        <f>N17</f>
+        <v>0.19918367346938778</v>
+      </c>
+      <c r="AK17" s="109">
+        <f>N18</f>
+        <v>0.32346938775510203</v>
+      </c>
+      <c r="AL17" s="109">
+        <f>N19</f>
+        <v>0.49091836734693883</v>
+      </c>
+      <c r="AM17" s="109">
+        <f>N20</f>
+        <v>0.54499999999999993</v>
+      </c>
+      <c r="AN17" s="109">
+        <f>N21</f>
+        <v>0.60499999999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="B18" s="112"/>
       <c r="C18" s="45" t="s">
         <v>3</v>
       </c>
@@ -9223,7 +9514,7 @@
         <f t="shared" si="2"/>
         <v>0.32346938775510203</v>
       </c>
-      <c r="R18" s="87"/>
+      <c r="R18" s="112"/>
       <c r="S18" s="45" t="s">
         <v>3</v>
       </c>
@@ -9261,9 +9552,39 @@
         <f t="shared" si="3"/>
         <v>6.8795999999999996E-2</v>
       </c>
-    </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B19" s="87"/>
+      <c r="AG18" s="53">
+        <v>1280</v>
+      </c>
+      <c r="AH18" s="53" t="s">
+        <v>106</v>
+      </c>
+      <c r="AI18" s="109">
+        <f>N26</f>
+        <v>0.10015624999999999</v>
+      </c>
+      <c r="AJ18" s="109">
+        <f>N27</f>
+        <v>0.16820312499999998</v>
+      </c>
+      <c r="AK18" s="109">
+        <f>N28</f>
+        <v>0.37398437499999998</v>
+      </c>
+      <c r="AL18" s="109">
+        <f>N29</f>
+        <v>0.45929687499999999</v>
+      </c>
+      <c r="AM18" s="109">
+        <f>N30</f>
+        <v>0.50226562500000005</v>
+      </c>
+      <c r="AN18" s="54" t="str">
+        <f>AD41</f>
+        <v>Fail</v>
+      </c>
+    </row>
+    <row r="19" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="B19" s="112"/>
       <c r="C19" s="45" t="s">
         <v>52</v>
       </c>
@@ -9311,7 +9632,7 @@
         <f t="shared" si="2"/>
         <v>0.49091836734693883</v>
       </c>
-      <c r="R19" s="87"/>
+      <c r="R19" s="112"/>
       <c r="S19" s="45" t="s">
         <v>52</v>
       </c>
@@ -9349,9 +9670,39 @@
         <f t="shared" si="3"/>
         <v>5.4722799999999995E-2</v>
       </c>
-    </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B20" s="87"/>
+      <c r="AG19" s="53">
+        <v>1345</v>
+      </c>
+      <c r="AH19" s="53" t="s">
+        <v>106</v>
+      </c>
+      <c r="AI19" s="109">
+        <f>N36</f>
+        <v>0.10200743494423789</v>
+      </c>
+      <c r="AJ19" s="109">
+        <f>N37</f>
+        <v>0.16988847583643124</v>
+      </c>
+      <c r="AK19" s="109">
+        <f>N38</f>
+        <v>0.37724907063197022</v>
+      </c>
+      <c r="AL19" s="109">
+        <f>N39</f>
+        <v>0.45933085501858739</v>
+      </c>
+      <c r="AM19" s="109">
+        <f>N40</f>
+        <v>0.54542750929368033</v>
+      </c>
+      <c r="AN19" s="54">
+        <f>AD51</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="B20" s="112"/>
       <c r="C20" s="45" t="s">
         <v>51</v>
       </c>
@@ -9399,7 +9750,7 @@
         <f t="shared" si="2"/>
         <v>0.54499999999999993</v>
       </c>
-      <c r="R20" s="87"/>
+      <c r="R20" s="112"/>
       <c r="S20" s="45" t="s">
         <v>51</v>
       </c>
@@ -9438,8 +9789,8 @@
         <v>5.2898399999999998E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B21" s="87"/>
+    <row r="21" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="B21" s="112"/>
       <c r="C21" s="45" t="s">
         <v>69</v>
       </c>
@@ -9487,7 +9838,7 @@
         <f t="shared" si="2"/>
         <v>0.60499999999999998</v>
       </c>
-      <c r="R21" s="87"/>
+      <c r="R21" s="112"/>
       <c r="S21" s="45" t="s">
         <v>69</v>
       </c>
@@ -9526,49 +9877,49 @@
         <v>4.9896800000000005E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B24" s="88" t="s">
-        <v>110</v>
-      </c>
-      <c r="C24" s="88"/>
-      <c r="D24" s="87" t="s">
+    <row r="24" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="B24" s="93" t="s">
+        <v>113</v>
+      </c>
+      <c r="C24" s="93"/>
+      <c r="D24" s="94" t="s">
         <v>100</v>
       </c>
-      <c r="E24" s="87"/>
-      <c r="F24" s="87"/>
-      <c r="G24" s="87"/>
-      <c r="H24" s="87"/>
-      <c r="I24" s="87"/>
-      <c r="J24" s="87"/>
-      <c r="K24" s="87"/>
-      <c r="L24" s="87"/>
-      <c r="M24" s="87"/>
-      <c r="N24" s="89" t="s">
+      <c r="E24" s="94"/>
+      <c r="F24" s="94"/>
+      <c r="G24" s="94"/>
+      <c r="H24" s="94"/>
+      <c r="I24" s="94"/>
+      <c r="J24" s="94"/>
+      <c r="K24" s="94"/>
+      <c r="L24" s="94"/>
+      <c r="M24" s="94"/>
+      <c r="N24" s="90" t="s">
         <v>105</v>
       </c>
-      <c r="R24" s="88" t="s">
-        <v>110</v>
-      </c>
-      <c r="S24" s="88"/>
-      <c r="T24" s="87" t="s">
+      <c r="R24" s="93" t="s">
+        <v>119</v>
+      </c>
+      <c r="S24" s="93"/>
+      <c r="T24" s="94" t="s">
         <v>100</v>
       </c>
-      <c r="U24" s="87"/>
-      <c r="V24" s="87"/>
-      <c r="W24" s="87"/>
-      <c r="X24" s="87"/>
-      <c r="Y24" s="87"/>
-      <c r="Z24" s="87"/>
-      <c r="AA24" s="87"/>
-      <c r="AB24" s="87"/>
-      <c r="AC24" s="87"/>
-      <c r="AD24" s="89" t="s">
+      <c r="U24" s="94"/>
+      <c r="V24" s="94"/>
+      <c r="W24" s="94"/>
+      <c r="X24" s="94"/>
+      <c r="Y24" s="94"/>
+      <c r="Z24" s="94"/>
+      <c r="AA24" s="94"/>
+      <c r="AB24" s="94"/>
+      <c r="AC24" s="94"/>
+      <c r="AD24" s="90" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B25" s="88"/>
-      <c r="C25" s="88"/>
+    <row r="25" spans="1:40" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="93"/>
+      <c r="C25" s="93"/>
       <c r="D25" s="45">
         <v>1</v>
       </c>
@@ -9599,9 +9950,9 @@
       <c r="M25" s="45">
         <v>10</v>
       </c>
-      <c r="N25" s="89"/>
-      <c r="R25" s="88"/>
-      <c r="S25" s="88"/>
+      <c r="N25" s="90"/>
+      <c r="R25" s="93"/>
+      <c r="S25" s="93"/>
       <c r="T25" s="45">
         <v>1</v>
       </c>
@@ -9632,11 +9983,11 @@
       <c r="AC25" s="45">
         <v>10</v>
       </c>
-      <c r="AD25" s="89"/>
-    </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B26" s="87" t="s">
-        <v>107</v>
+      <c r="AD25" s="90"/>
+    </row>
+    <row r="26" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="B26" s="112" t="s">
+        <v>110</v>
       </c>
       <c r="C26" s="45" t="s">
         <v>1</v>
@@ -9685,8 +10036,8 @@
         <f>AVERAGE(D26:M26)</f>
         <v>0.10015624999999999</v>
       </c>
-      <c r="R26" s="87" t="s">
-        <v>108</v>
+      <c r="R26" s="112" t="s">
+        <v>110</v>
       </c>
       <c r="S26" s="45" t="s">
         <v>1</v>
@@ -9726,8 +10077,8 @@
         <v>0.12733359999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B27" s="87"/>
+    <row r="27" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="B27" s="112"/>
       <c r="C27" s="45" t="s">
         <v>2</v>
       </c>
@@ -9775,7 +10126,7 @@
         <f t="shared" ref="N27:N31" si="4">AVERAGE(D27:M27)</f>
         <v>0.16820312499999998</v>
       </c>
-      <c r="R27" s="87"/>
+      <c r="R27" s="112"/>
       <c r="S27" s="45" t="s">
         <v>2</v>
       </c>
@@ -9814,8 +10165,8 @@
         <v>0.11091480000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B28" s="87"/>
+    <row r="28" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="B28" s="112"/>
       <c r="C28" s="45" t="s">
         <v>3</v>
       </c>
@@ -9863,7 +10214,7 @@
         <f t="shared" si="4"/>
         <v>0.37398437499999998</v>
       </c>
-      <c r="R28" s="87"/>
+      <c r="R28" s="112"/>
       <c r="S28" s="45" t="s">
         <v>3</v>
       </c>
@@ -9902,8 +10253,8 @@
         <v>8.7704799999999999E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B29" s="87"/>
+    <row r="29" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="B29" s="112"/>
       <c r="C29" s="45" t="s">
         <v>52</v>
       </c>
@@ -9951,7 +10302,7 @@
         <f t="shared" si="4"/>
         <v>0.45929687499999999</v>
       </c>
-      <c r="R29" s="87"/>
+      <c r="R29" s="112"/>
       <c r="S29" s="45" t="s">
         <v>52</v>
       </c>
@@ -9990,8 +10341,8 @@
         <v>7.7805600000000003E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B30" s="87"/>
+    <row r="30" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="B30" s="112"/>
       <c r="C30" s="45" t="s">
         <v>51</v>
       </c>
@@ -10039,7 +10390,7 @@
         <f t="shared" si="4"/>
         <v>0.50226562500000005</v>
       </c>
-      <c r="R30" s="87"/>
+      <c r="R30" s="112"/>
       <c r="S30" s="45" t="s">
         <v>51</v>
       </c>
@@ -10078,140 +10429,128 @@
         <v>7.8400400000000009E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>112</v>
-      </c>
-      <c r="B31" s="87"/>
-      <c r="C31" s="106" t="s">
+        <v>108</v>
+      </c>
+      <c r="B31" s="112"/>
+      <c r="C31" s="54" t="s">
         <v>69</v>
       </c>
-      <c r="D31" s="107">
-        <f t="shared" ref="D31" si="6">1-(0/1280)</f>
-        <v>1</v>
-      </c>
-      <c r="E31" s="107">
-        <f t="shared" ref="E31:M31" si="7">1-(0/1280)</f>
-        <v>1</v>
-      </c>
-      <c r="F31" s="107">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="G31" s="107">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="H31" s="107">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="I31" s="107">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="J31" s="107">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="K31" s="107">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="L31" s="107">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="M31" s="107">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="N31" s="107">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="R31" s="87"/>
-      <c r="S31" s="106" t="s">
+      <c r="D31" s="55" t="s">
+        <v>115</v>
+      </c>
+      <c r="E31" s="55" t="s">
+        <v>115</v>
+      </c>
+      <c r="F31" s="55" t="s">
+        <v>115</v>
+      </c>
+      <c r="G31" s="55" t="s">
+        <v>115</v>
+      </c>
+      <c r="H31" s="55" t="s">
+        <v>115</v>
+      </c>
+      <c r="I31" s="55" t="s">
+        <v>115</v>
+      </c>
+      <c r="J31" s="55" t="s">
+        <v>115</v>
+      </c>
+      <c r="K31" s="55" t="s">
+        <v>115</v>
+      </c>
+      <c r="L31" s="55" t="s">
+        <v>115</v>
+      </c>
+      <c r="M31" s="55" t="s">
+        <v>115</v>
+      </c>
+      <c r="N31" s="55" t="s">
+        <v>115</v>
+      </c>
+      <c r="R31" s="112"/>
+      <c r="S31" s="54" t="s">
         <v>69</v>
       </c>
-      <c r="T31" s="108">
-        <v>0</v>
-      </c>
-      <c r="U31" s="108">
-        <v>0</v>
-      </c>
-      <c r="V31" s="108">
-        <v>0</v>
-      </c>
-      <c r="W31" s="108">
-        <v>0</v>
-      </c>
-      <c r="X31" s="108">
-        <v>0</v>
-      </c>
-      <c r="Y31" s="108">
-        <v>0</v>
-      </c>
-      <c r="Z31" s="108">
-        <v>0</v>
-      </c>
-      <c r="AA31" s="108">
-        <v>0</v>
-      </c>
-      <c r="AB31" s="108">
-        <v>0</v>
-      </c>
-      <c r="AC31" s="108">
-        <v>0</v>
-      </c>
-      <c r="AD31" s="108">
-        <f t="shared" si="5"/>
-        <v>0</v>
+      <c r="T31" s="55" t="s">
+        <v>115</v>
+      </c>
+      <c r="U31" s="55" t="s">
+        <v>115</v>
+      </c>
+      <c r="V31" s="55" t="s">
+        <v>115</v>
+      </c>
+      <c r="W31" s="55" t="s">
+        <v>115</v>
+      </c>
+      <c r="X31" s="55" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y31" s="55" t="s">
+        <v>115</v>
+      </c>
+      <c r="Z31" s="55" t="s">
+        <v>115</v>
+      </c>
+      <c r="AA31" s="55" t="s">
+        <v>115</v>
+      </c>
+      <c r="AB31" s="55" t="s">
+        <v>115</v>
+      </c>
+      <c r="AC31" s="55" t="s">
+        <v>115</v>
+      </c>
+      <c r="AD31" s="55" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="34" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B34" s="88" t="s">
-        <v>111</v>
-      </c>
-      <c r="C34" s="88"/>
-      <c r="D34" s="87" t="s">
+      <c r="B34" s="93" t="s">
+        <v>114</v>
+      </c>
+      <c r="C34" s="93"/>
+      <c r="D34" s="94" t="s">
         <v>100</v>
       </c>
-      <c r="E34" s="87"/>
-      <c r="F34" s="87"/>
-      <c r="G34" s="87"/>
-      <c r="H34" s="87"/>
-      <c r="I34" s="87"/>
-      <c r="J34" s="87"/>
-      <c r="K34" s="87"/>
-      <c r="L34" s="87"/>
-      <c r="M34" s="87"/>
-      <c r="N34" s="89" t="s">
+      <c r="E34" s="94"/>
+      <c r="F34" s="94"/>
+      <c r="G34" s="94"/>
+      <c r="H34" s="94"/>
+      <c r="I34" s="94"/>
+      <c r="J34" s="94"/>
+      <c r="K34" s="94"/>
+      <c r="L34" s="94"/>
+      <c r="M34" s="94"/>
+      <c r="N34" s="90" t="s">
         <v>105</v>
       </c>
-      <c r="R34" s="88" t="s">
-        <v>111</v>
-      </c>
-      <c r="S34" s="88"/>
-      <c r="T34" s="87" t="s">
+      <c r="R34" s="93" t="s">
+        <v>120</v>
+      </c>
+      <c r="S34" s="93"/>
+      <c r="T34" s="94" t="s">
         <v>100</v>
       </c>
-      <c r="U34" s="87"/>
-      <c r="V34" s="87"/>
-      <c r="W34" s="87"/>
-      <c r="X34" s="87"/>
-      <c r="Y34" s="87"/>
-      <c r="Z34" s="87"/>
-      <c r="AA34" s="87"/>
-      <c r="AB34" s="87"/>
-      <c r="AC34" s="87"/>
-      <c r="AD34" s="89" t="s">
+      <c r="U34" s="94"/>
+      <c r="V34" s="94"/>
+      <c r="W34" s="94"/>
+      <c r="X34" s="94"/>
+      <c r="Y34" s="94"/>
+      <c r="Z34" s="94"/>
+      <c r="AA34" s="94"/>
+      <c r="AB34" s="94"/>
+      <c r="AC34" s="94"/>
+      <c r="AD34" s="90" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B35" s="88"/>
-      <c r="C35" s="88"/>
+    <row r="35" spans="1:30" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="93"/>
+      <c r="C35" s="93"/>
       <c r="D35" s="45">
         <v>1</v>
       </c>
@@ -10242,9 +10581,9 @@
       <c r="M35" s="45">
         <v>10</v>
       </c>
-      <c r="N35" s="89"/>
-      <c r="R35" s="88"/>
-      <c r="S35" s="88"/>
+      <c r="N35" s="90"/>
+      <c r="R35" s="93"/>
+      <c r="S35" s="93"/>
       <c r="T35" s="45">
         <v>1</v>
       </c>
@@ -10275,11 +10614,11 @@
       <c r="AC35" s="45">
         <v>10</v>
       </c>
-      <c r="AD35" s="89"/>
+      <c r="AD35" s="90"/>
     </row>
     <row r="36" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B36" s="87" t="s">
-        <v>107</v>
+      <c r="B36" s="112" t="s">
+        <v>110</v>
       </c>
       <c r="C36" s="45" t="s">
         <v>1</v>
@@ -10328,8 +10667,8 @@
         <f>AVERAGE(D36:M36)</f>
         <v>0.10200743494423789</v>
       </c>
-      <c r="R36" s="87" t="s">
-        <v>108</v>
+      <c r="R36" s="112" t="s">
+        <v>110</v>
       </c>
       <c r="S36" s="45" t="s">
         <v>1</v>
@@ -10370,7 +10709,7 @@
       </c>
     </row>
     <row r="37" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B37" s="87"/>
+      <c r="B37" s="112"/>
       <c r="C37" s="45" t="s">
         <v>2</v>
       </c>
@@ -10415,10 +10754,10 @@
         <v>0.28996282527881045</v>
       </c>
       <c r="N37" s="50">
-        <f t="shared" ref="N37:N41" si="8">AVERAGE(D37:M37)</f>
+        <f t="shared" ref="N37:N41" si="6">AVERAGE(D37:M37)</f>
         <v>0.16988847583643124</v>
       </c>
-      <c r="R37" s="87"/>
+      <c r="R37" s="112"/>
       <c r="S37" s="45" t="s">
         <v>2</v>
       </c>
@@ -10453,12 +10792,12 @@
         <v>0.10981200000000001</v>
       </c>
       <c r="AD37" s="52">
-        <f t="shared" ref="AD37:AD41" si="9">AVERAGE(T37:AC37)</f>
+        <f t="shared" ref="AD37:AD41" si="7">AVERAGE(T37:AC37)</f>
         <v>0.11642079999999999</v>
       </c>
     </row>
     <row r="38" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B38" s="87"/>
+      <c r="B38" s="112"/>
       <c r="C38" s="45" t="s">
         <v>3</v>
       </c>
@@ -10503,10 +10842,10 @@
         <v>0.3197026022304833</v>
       </c>
       <c r="N38" s="50">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0.37724907063197022</v>
       </c>
-      <c r="R38" s="87"/>
+      <c r="R38" s="112"/>
       <c r="S38" s="45" t="s">
         <v>3</v>
       </c>
@@ -10541,12 +10880,12 @@
         <v>0.10173599999999999</v>
       </c>
       <c r="AD38" s="52">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>9.1741199999999995E-2</v>
       </c>
     </row>
     <row r="39" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B39" s="87"/>
+      <c r="B39" s="112"/>
       <c r="C39" s="45" t="s">
         <v>52</v>
       </c>
@@ -10591,10 +10930,10 @@
         <v>0.34795539033457246</v>
       </c>
       <c r="N39" s="50">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0.45933085501858739</v>
       </c>
-      <c r="R39" s="87"/>
+      <c r="R39" s="112"/>
       <c r="S39" s="45" t="s">
         <v>52</v>
       </c>
@@ -10629,12 +10968,12 @@
         <v>9.6271999999999996E-2</v>
       </c>
       <c r="AD39" s="52">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>8.16828E-2</v>
       </c>
     </row>
     <row r="40" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B40" s="87"/>
+      <c r="B40" s="112"/>
       <c r="C40" s="45" t="s">
         <v>51</v>
       </c>
@@ -10679,10 +11018,10 @@
         <v>0.31226765799256506</v>
       </c>
       <c r="N40" s="50">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0.54542750929368033</v>
       </c>
-      <c r="R40" s="87"/>
+      <c r="R40" s="112"/>
       <c r="S40" s="45" t="s">
         <v>51</v>
       </c>
@@ -10717,119 +11056,97 @@
         <v>0.10668800000000001</v>
       </c>
       <c r="AD40" s="52">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>8.2377599999999995E-2</v>
       </c>
     </row>
     <row r="41" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>112</v>
-      </c>
-      <c r="B41" s="87"/>
-      <c r="C41" s="106" t="s">
+        <v>108</v>
+      </c>
+      <c r="B41" s="112"/>
+      <c r="C41" s="54" t="s">
         <v>69</v>
       </c>
-      <c r="D41" s="107">
-        <f t="shared" ref="D37:D41" si="10">1-(0/1345)</f>
-        <v>1</v>
-      </c>
-      <c r="E41" s="107">
-        <f t="shared" ref="E36:M41" si="11">1-(0/1345)</f>
-        <v>1</v>
-      </c>
-      <c r="F41" s="107">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="G41" s="107">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="H41" s="107">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="I41" s="107">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="J41" s="107">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="K41" s="107">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="L41" s="107">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="M41" s="107">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="N41" s="107">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="R41" s="87"/>
-      <c r="S41" s="106" t="s">
+      <c r="D41" s="55" t="s">
+        <v>115</v>
+      </c>
+      <c r="E41" s="55" t="s">
+        <v>115</v>
+      </c>
+      <c r="F41" s="55" t="s">
+        <v>115</v>
+      </c>
+      <c r="G41" s="55" t="s">
+        <v>115</v>
+      </c>
+      <c r="H41" s="55" t="s">
+        <v>115</v>
+      </c>
+      <c r="I41" s="55" t="s">
+        <v>115</v>
+      </c>
+      <c r="J41" s="55" t="s">
+        <v>115</v>
+      </c>
+      <c r="K41" s="55" t="s">
+        <v>115</v>
+      </c>
+      <c r="L41" s="55" t="s">
+        <v>115</v>
+      </c>
+      <c r="M41" s="55" t="s">
+        <v>115</v>
+      </c>
+      <c r="N41" s="55" t="s">
+        <v>115</v>
+      </c>
+      <c r="R41" s="112"/>
+      <c r="S41" s="54" t="s">
         <v>69</v>
       </c>
-      <c r="T41" s="108">
-        <v>0</v>
-      </c>
-      <c r="U41" s="108">
-        <v>0</v>
-      </c>
-      <c r="V41" s="108">
-        <v>0</v>
-      </c>
-      <c r="W41" s="108">
-        <v>0</v>
-      </c>
-      <c r="X41" s="108">
-        <v>0</v>
-      </c>
-      <c r="Y41" s="108">
-        <v>0</v>
-      </c>
-      <c r="Z41" s="108">
-        <v>0</v>
-      </c>
-      <c r="AA41" s="108">
-        <v>0</v>
-      </c>
-      <c r="AB41" s="108">
-        <v>0</v>
-      </c>
-      <c r="AC41" s="108">
-        <v>0</v>
-      </c>
-      <c r="AD41" s="108">
-        <f t="shared" si="9"/>
-        <v>0</v>
+      <c r="T41" s="55" t="s">
+        <v>115</v>
+      </c>
+      <c r="U41" s="55" t="s">
+        <v>115</v>
+      </c>
+      <c r="V41" s="55" t="s">
+        <v>115</v>
+      </c>
+      <c r="W41" s="55" t="s">
+        <v>115</v>
+      </c>
+      <c r="X41" s="55" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y41" s="55" t="s">
+        <v>115</v>
+      </c>
+      <c r="Z41" s="55" t="s">
+        <v>115</v>
+      </c>
+      <c r="AA41" s="55" t="s">
+        <v>115</v>
+      </c>
+      <c r="AB41" s="55" t="s">
+        <v>115</v>
+      </c>
+      <c r="AC41" s="55" t="s">
+        <v>115</v>
+      </c>
+      <c r="AD41" s="55" t="s">
+        <v>115</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="32">
-    <mergeCell ref="R4:S5"/>
-    <mergeCell ref="T4:AC4"/>
-    <mergeCell ref="AD4:AD5"/>
-    <mergeCell ref="R6:R11"/>
-    <mergeCell ref="B14:C15"/>
-    <mergeCell ref="D14:M14"/>
-    <mergeCell ref="N14:N15"/>
-    <mergeCell ref="B4:C5"/>
-    <mergeCell ref="D4:M4"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="B6:B11"/>
-    <mergeCell ref="N24:N25"/>
-    <mergeCell ref="B26:B31"/>
-    <mergeCell ref="B34:C35"/>
-    <mergeCell ref="D34:M34"/>
-    <mergeCell ref="N34:N35"/>
+  <mergeCells count="38">
+    <mergeCell ref="AG4:AG5"/>
+    <mergeCell ref="AH4:AH5"/>
+    <mergeCell ref="AI4:AN4"/>
+    <mergeCell ref="AG14:AG15"/>
+    <mergeCell ref="AH14:AH15"/>
+    <mergeCell ref="AI14:AN14"/>
     <mergeCell ref="T34:AC34"/>
     <mergeCell ref="AD34:AD35"/>
     <mergeCell ref="R36:R41"/>
@@ -10846,6 +11163,22 @@
     <mergeCell ref="B16:B21"/>
     <mergeCell ref="B24:C25"/>
     <mergeCell ref="D24:M24"/>
+    <mergeCell ref="N24:N25"/>
+    <mergeCell ref="B26:B31"/>
+    <mergeCell ref="B34:C35"/>
+    <mergeCell ref="D34:M34"/>
+    <mergeCell ref="N34:N35"/>
+    <mergeCell ref="R4:S5"/>
+    <mergeCell ref="T4:AC4"/>
+    <mergeCell ref="AD4:AD5"/>
+    <mergeCell ref="R6:R11"/>
+    <mergeCell ref="B14:C15"/>
+    <mergeCell ref="D14:M14"/>
+    <mergeCell ref="N14:N15"/>
+    <mergeCell ref="B4:C5"/>
+    <mergeCell ref="D4:M4"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="B6:B11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -10929,7 +11262,7 @@
       </c>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B8" s="102">
+      <c r="B8" s="97">
         <v>584</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -10950,7 +11283,7 @@
       <c r="H8" s="1">
         <v>8.0800000000000004E-3</v>
       </c>
-      <c r="L8" s="92">
+      <c r="L8" s="98">
         <v>584</v>
       </c>
       <c r="M8" s="1" t="s">
@@ -10973,7 +11306,7 @@
       </c>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B9" s="102"/>
+      <c r="B9" s="97"/>
       <c r="C9" s="1" t="s">
         <v>68</v>
       </c>
@@ -10992,7 +11325,7 @@
       <c r="H9" s="1">
         <v>4.5935999999999998E-2</v>
       </c>
-      <c r="L9" s="93"/>
+      <c r="L9" s="99"/>
       <c r="M9" s="1" t="s">
         <v>65</v>
       </c>
@@ -11018,7 +11351,7 @@
       </c>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B10" s="103">
+      <c r="B10" s="95">
         <v>980</v>
       </c>
       <c r="C10" s="16" t="s">
@@ -11039,7 +11372,7 @@
       <c r="H10" s="16">
         <v>1.2456E-2</v>
       </c>
-      <c r="L10" s="93"/>
+      <c r="L10" s="99"/>
       <c r="M10" s="1" t="s">
         <v>61</v>
       </c>
@@ -11060,7 +11393,7 @@
       </c>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B11" s="103"/>
+      <c r="B11" s="95"/>
       <c r="C11" s="16" t="s">
         <v>68</v>
       </c>
@@ -11079,7 +11412,7 @@
       <c r="H11" s="16">
         <v>6.3119999999999996E-2</v>
       </c>
-      <c r="L11" s="94"/>
+      <c r="L11" s="100"/>
       <c r="M11" s="1" t="s">
         <v>66</v>
       </c>
@@ -11105,7 +11438,7 @@
       </c>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B12" s="87">
+      <c r="B12" s="94">
         <v>1280</v>
       </c>
       <c r="C12" s="4" t="s">
@@ -11126,7 +11459,7 @@
       <c r="H12" s="4">
         <v>1.5299999999999999E-2</v>
       </c>
-      <c r="L12" s="95">
+      <c r="L12" s="101">
         <v>980</v>
       </c>
       <c r="M12" s="16" t="s">
@@ -11149,7 +11482,7 @@
       </c>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B13" s="87"/>
+      <c r="B13" s="94"/>
       <c r="C13" s="4" t="s">
         <v>68</v>
       </c>
@@ -11168,7 +11501,7 @@
       <c r="H13" s="4">
         <v>6.6844000000000001E-2</v>
       </c>
-      <c r="L13" s="96"/>
+      <c r="L13" s="102"/>
       <c r="M13" s="16" t="s">
         <v>66</v>
       </c>
@@ -11194,7 +11527,7 @@
       </c>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B14" s="101">
+      <c r="B14" s="96">
         <v>1345</v>
       </c>
       <c r="C14" s="7" t="s">
@@ -11215,7 +11548,7 @@
       <c r="H14" s="7">
         <v>1.5807999999999999E-2</v>
       </c>
-      <c r="L14" s="96"/>
+      <c r="L14" s="102"/>
       <c r="M14" s="16" t="s">
         <v>61</v>
       </c>
@@ -11236,7 +11569,7 @@
       </c>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B15" s="101"/>
+      <c r="B15" s="96"/>
       <c r="C15" s="7" t="s">
         <v>68</v>
       </c>
@@ -11255,7 +11588,7 @@
       <c r="H15" s="7">
         <v>6.7227999999999996E-2</v>
       </c>
-      <c r="L15" s="97"/>
+      <c r="L15" s="103"/>
       <c r="M15" s="16" t="s">
         <v>66</v>
       </c>
@@ -11281,7 +11614,7 @@
       </c>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="L16" s="98">
+      <c r="L16" s="104">
         <v>1280</v>
       </c>
       <c r="M16" s="4" t="s">
@@ -11304,7 +11637,7 @@
       </c>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="L17" s="99"/>
+      <c r="L17" s="105"/>
       <c r="M17" s="4" t="s">
         <v>65</v>
       </c>
@@ -11330,7 +11663,7 @@
       </c>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="L18" s="99"/>
+      <c r="L18" s="105"/>
       <c r="M18" s="4" t="s">
         <v>61</v>
       </c>
@@ -11351,7 +11684,7 @@
       </c>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="L19" s="100"/>
+      <c r="L19" s="106"/>
       <c r="M19" s="4" t="s">
         <v>65</v>
       </c>
@@ -11377,7 +11710,7 @@
       </c>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="L20" s="101">
+      <c r="L20" s="96">
         <v>1345</v>
       </c>
       <c r="M20" s="7" t="s">
@@ -11400,7 +11733,7 @@
       </c>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="L21" s="101"/>
+      <c r="L21" s="96"/>
       <c r="M21" s="7" t="s">
         <v>65</v>
       </c>
@@ -11426,7 +11759,7 @@
       </c>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="L22" s="101"/>
+      <c r="L22" s="96"/>
       <c r="M22" s="7" t="s">
         <v>61</v>
       </c>
@@ -11447,7 +11780,7 @@
       </c>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="L23" s="101"/>
+      <c r="L23" s="96"/>
       <c r="M23" s="7" t="s">
         <v>65</v>
       </c>
@@ -11501,7 +11834,7 @@
       </c>
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B31" s="102">
+      <c r="B31" s="97">
         <v>584</v>
       </c>
       <c r="C31" s="1" t="s">
@@ -11524,7 +11857,7 @@
       </c>
     </row>
     <row r="32" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B32" s="102"/>
+      <c r="B32" s="97"/>
       <c r="C32" s="1" t="s">
         <v>68</v>
       </c>
@@ -11545,7 +11878,7 @@
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B33" s="103">
+      <c r="B33" s="95">
         <v>980</v>
       </c>
       <c r="C33" s="16" t="s">
@@ -11568,7 +11901,7 @@
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B34" s="103"/>
+      <c r="B34" s="95"/>
       <c r="C34" s="16" t="s">
         <v>68</v>
       </c>
@@ -11589,7 +11922,7 @@
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B35" s="87">
+      <c r="B35" s="94">
         <v>1280</v>
       </c>
       <c r="C35" s="4" t="s">
@@ -11612,7 +11945,7 @@
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B36" s="87"/>
+      <c r="B36" s="94"/>
       <c r="C36" s="4" t="s">
         <v>68</v>
       </c>
@@ -11633,7 +11966,7 @@
       </c>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B37" s="101">
+      <c r="B37" s="96">
         <v>1345</v>
       </c>
       <c r="C37" s="7" t="s">
@@ -11656,7 +11989,7 @@
       </c>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B38" s="101"/>
+      <c r="B38" s="96"/>
       <c r="C38" s="7" t="s">
         <v>68</v>
       </c>
@@ -11678,6 +12011,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="L8:L11"/>
+    <mergeCell ref="L12:L15"/>
+    <mergeCell ref="L16:L19"/>
+    <mergeCell ref="L20:L23"/>
+    <mergeCell ref="B31:B32"/>
     <mergeCell ref="B33:B34"/>
     <mergeCell ref="B35:B36"/>
     <mergeCell ref="B37:B38"/>
@@ -11685,11 +12023,6 @@
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="B14:B15"/>
-    <mergeCell ref="L8:L11"/>
-    <mergeCell ref="L12:L15"/>
-    <mergeCell ref="L16:L19"/>
-    <mergeCell ref="L20:L23"/>
-    <mergeCell ref="B31:B32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -11715,7 +12048,7 @@
   </cols>
   <sheetData>
     <row r="5" spans="1:18" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="104" t="s">
+      <c r="A5" s="107" t="s">
         <v>73</v>
       </c>
       <c r="B5" s="32" t="s">
@@ -11741,7 +12074,7 @@
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="104"/>
+      <c r="A6" s="107"/>
       <c r="B6" s="33">
         <v>584</v>
       </c>
@@ -11765,7 +12098,7 @@
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="104"/>
+      <c r="A7" s="107"/>
       <c r="B7" s="33">
         <v>980</v>
       </c>
@@ -11789,7 +12122,7 @@
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="104"/>
+      <c r="A8" s="107"/>
       <c r="B8" s="33">
         <v>1280</v>
       </c>
@@ -11813,7 +12146,7 @@
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="104"/>
+      <c r="A9" s="107"/>
       <c r="B9" s="33">
         <v>1435</v>
       </c>
@@ -11837,7 +12170,7 @@
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="104"/>
+      <c r="A10" s="107"/>
       <c r="B10" s="33">
         <v>1640</v>
       </c>
@@ -11861,7 +12194,7 @@
       </c>
     </row>
     <row r="14" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="104" t="s">
+      <c r="A14" s="107" t="s">
         <v>72</v>
       </c>
       <c r="B14" s="32" t="s">
@@ -11887,7 +12220,7 @@
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="104"/>
+      <c r="A15" s="107"/>
       <c r="B15" s="33">
         <v>584</v>
       </c>
@@ -11899,7 +12232,7 @@
       <c r="H15" s="1"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="104"/>
+      <c r="A16" s="107"/>
       <c r="B16" s="33">
         <v>980</v>
       </c>
@@ -11909,11 +12242,11 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="5"/>
-      <c r="K16" s="105" t="s">
+      <c r="K16" s="108" t="s">
         <v>74</v>
       </c>
-      <c r="L16" s="105"/>
-      <c r="M16" s="105"/>
+      <c r="L16" s="108"/>
+      <c r="M16" s="108"/>
       <c r="P16" s="11" t="s">
         <v>80</v>
       </c>
@@ -11925,7 +12258,7 @@
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="104"/>
+      <c r="A17" s="107"/>
       <c r="B17" s="33">
         <v>1280</v>
       </c>
@@ -11955,7 +12288,7 @@
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="104"/>
+      <c r="A18" s="107"/>
       <c r="B18" s="33">
         <v>1435</v>
       </c>
@@ -11985,7 +12318,7 @@
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="104"/>
+      <c r="A19" s="107"/>
       <c r="B19" s="33">
         <v>1640</v>
       </c>

--- a/Data Hasil Uji Coba/Uji Coba.xlsx
+++ b/Data Hasil Uji Coba/Uji Coba.xlsx
@@ -4,14 +4,15 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Static Buffer" sheetId="1" r:id="rId1"/>
     <sheet name="Dinamic Buffer" sheetId="2" r:id="rId2"/>
     <sheet name="Akurasi Pengiriman" sheetId="5" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId4"/>
-    <sheet name="Sheet2" sheetId="4" r:id="rId5"/>
+    <sheet name="Efektifitas" sheetId="6" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId5"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913" calcMode="manual"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="113">
   <si>
     <t>0 x</t>
   </si>
@@ -357,6 +358,30 @@
   <si>
     <t>±10 meter</t>
   </si>
+  <si>
+    <t>Rata - rata</t>
+  </si>
+  <si>
+    <t>Panjang Data 584</t>
+  </si>
+  <si>
+    <t>Efektifitas</t>
+  </si>
+  <si>
+    <t>Waktu</t>
+  </si>
+  <si>
+    <t>Panjang Data 980</t>
+  </si>
+  <si>
+    <t>Panjang Data 1280</t>
+  </si>
+  <si>
+    <t>Panjang Data 1345</t>
+  </si>
+  <si>
+    <t>FAIL</t>
+  </si>
 </sst>
 </file>
 
@@ -665,7 +690,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -758,6 +783,28 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="14" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -861,6 +908,21 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="14" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="14" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -897,33 +959,20 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="14" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="14" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -985,7 +1034,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1077,7 +1125,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1195,7 +1242,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1379,7 +1425,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2321,32 +2366,32 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="59" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="K2" s="51" t="s">
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="K2" s="59" t="s">
         <v>37</v>
       </c>
-      <c r="L2" s="51"/>
-      <c r="M2" s="51"/>
-      <c r="N2" s="51"/>
-      <c r="O2" s="51"/>
-      <c r="P2" s="51"/>
-      <c r="Q2" s="51"/>
-      <c r="R2" s="51"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="59"/>
+      <c r="P2" s="59"/>
+      <c r="Q2" s="59"/>
+      <c r="R2" s="59"/>
     </row>
     <row r="3" spans="1:18" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="52" t="s">
+      <c r="A3" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="53"/>
+      <c r="B3" s="61"/>
       <c r="C3" s="14"/>
       <c r="D3" s="15" t="s">
         <v>1</v>
@@ -2363,10 +2408,10 @@
       <c r="H3" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="52" t="s">
+      <c r="K3" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="L3" s="53"/>
+      <c r="L3" s="61"/>
       <c r="M3" s="14"/>
       <c r="N3" s="15" t="s">
         <v>1</v>
@@ -2385,10 +2430,10 @@
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="54">
+      <c r="A4" s="62">
         <v>584</v>
       </c>
-      <c r="B4" s="55"/>
+      <c r="B4" s="63"/>
       <c r="C4" s="1" t="s">
         <v>30</v>
       </c>
@@ -2407,10 +2452,10 @@
       <c r="H4" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="54">
+      <c r="K4" s="62">
         <v>584</v>
       </c>
-      <c r="L4" s="55"/>
+      <c r="L4" s="63"/>
       <c r="M4" s="1" t="s">
         <v>30</v>
       </c>
@@ -2431,8 +2476,8 @@
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="56"/>
-      <c r="B5" s="57"/>
+      <c r="A5" s="64"/>
+      <c r="B5" s="65"/>
       <c r="C5" s="1" t="s">
         <v>21</v>
       </c>
@@ -2451,8 +2496,8 @@
       <c r="H5" s="1">
         <v>21</v>
       </c>
-      <c r="K5" s="56"/>
-      <c r="L5" s="57"/>
+      <c r="K5" s="64"/>
+      <c r="L5" s="65"/>
       <c r="M5" s="1" t="s">
         <v>21</v>
       </c>
@@ -2473,8 +2518,8 @@
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="56"/>
-      <c r="B6" s="57"/>
+      <c r="A6" s="64"/>
+      <c r="B6" s="65"/>
       <c r="C6" s="1" t="s">
         <v>33</v>
       </c>
@@ -2498,8 +2543,8 @@
         <f>($A$4-H5)/$A$4</f>
         <v>0.96404109589041098</v>
       </c>
-      <c r="K6" s="56"/>
-      <c r="L6" s="57"/>
+      <c r="K6" s="64"/>
+      <c r="L6" s="65"/>
       <c r="M6" s="1" t="s">
         <v>33</v>
       </c>
@@ -2525,8 +2570,8 @@
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="56"/>
-      <c r="B7" s="57"/>
+      <c r="A7" s="64"/>
+      <c r="B7" s="65"/>
       <c r="C7" s="1" t="s">
         <v>22</v>
       </c>
@@ -2545,8 +2590,8 @@
       <c r="H7" s="1">
         <v>427</v>
       </c>
-      <c r="K7" s="56"/>
-      <c r="L7" s="57"/>
+      <c r="K7" s="64"/>
+      <c r="L7" s="65"/>
       <c r="M7" s="1" t="s">
         <v>22</v>
       </c>
@@ -2567,8 +2612,8 @@
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="58"/>
-      <c r="B8" s="59"/>
+      <c r="A8" s="66"/>
+      <c r="B8" s="67"/>
       <c r="C8" s="1" t="s">
         <v>34</v>
       </c>
@@ -2592,8 +2637,8 @@
         <f>($A$4-H7)/$A$4</f>
         <v>0.26883561643835618</v>
       </c>
-      <c r="K8" s="58"/>
-      <c r="L8" s="59"/>
+      <c r="K8" s="66"/>
+      <c r="L8" s="67"/>
       <c r="M8" s="1" t="s">
         <v>34</v>
       </c>
@@ -2619,10 +2664,10 @@
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="60">
+      <c r="A9" s="68">
         <v>980</v>
       </c>
-      <c r="B9" s="61"/>
+      <c r="B9" s="69"/>
       <c r="C9" s="16" t="s">
         <v>30</v>
       </c>
@@ -2641,10 +2686,10 @@
       <c r="H9" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="K9" s="60">
+      <c r="K9" s="68">
         <v>980</v>
       </c>
-      <c r="L9" s="61"/>
+      <c r="L9" s="69"/>
       <c r="M9" s="16" t="s">
         <v>30</v>
       </c>
@@ -2665,8 +2710,8 @@
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="62"/>
-      <c r="B10" s="63"/>
+      <c r="A10" s="70"/>
+      <c r="B10" s="71"/>
       <c r="C10" s="16" t="s">
         <v>21</v>
       </c>
@@ -2685,8 +2730,8 @@
       <c r="H10" s="16">
         <v>33</v>
       </c>
-      <c r="K10" s="62"/>
-      <c r="L10" s="63"/>
+      <c r="K10" s="70"/>
+      <c r="L10" s="71"/>
       <c r="M10" s="16" t="s">
         <v>21</v>
       </c>
@@ -2707,8 +2752,8 @@
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="62"/>
-      <c r="B11" s="63"/>
+      <c r="A11" s="70"/>
+      <c r="B11" s="71"/>
       <c r="C11" s="16" t="s">
         <v>35</v>
       </c>
@@ -2732,8 +2777,8 @@
         <f>($A$9-H10)/$A$9</f>
         <v>0.96632653061224494</v>
       </c>
-      <c r="K11" s="62"/>
-      <c r="L11" s="63"/>
+      <c r="K11" s="70"/>
+      <c r="L11" s="71"/>
       <c r="M11" s="16" t="s">
         <v>35</v>
       </c>
@@ -2759,8 +2804,8 @@
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="62"/>
-      <c r="B12" s="63"/>
+      <c r="A12" s="70"/>
+      <c r="B12" s="71"/>
       <c r="C12" s="16" t="s">
         <v>22</v>
       </c>
@@ -2779,8 +2824,8 @@
       <c r="H12" s="16">
         <v>564</v>
       </c>
-      <c r="K12" s="62"/>
-      <c r="L12" s="63"/>
+      <c r="K12" s="70"/>
+      <c r="L12" s="71"/>
       <c r="M12" s="16" t="s">
         <v>22</v>
       </c>
@@ -2801,8 +2846,8 @@
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="64"/>
-      <c r="B13" s="65"/>
+      <c r="A13" s="72"/>
+      <c r="B13" s="73"/>
       <c r="C13" s="16" t="s">
         <v>34</v>
       </c>
@@ -2826,8 +2871,8 @@
         <f>($A$9-H12)/$A$9</f>
         <v>0.42448979591836733</v>
       </c>
-      <c r="K13" s="64"/>
-      <c r="L13" s="65"/>
+      <c r="K13" s="72"/>
+      <c r="L13" s="73"/>
       <c r="M13" s="16" t="s">
         <v>34</v>
       </c>
@@ -2853,10 +2898,10 @@
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="45">
+      <c r="A14" s="53">
         <v>1280</v>
       </c>
-      <c r="B14" s="46"/>
+      <c r="B14" s="54"/>
       <c r="C14" s="13" t="s">
         <v>30</v>
       </c>
@@ -2875,10 +2920,10 @@
       <c r="H14" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="45">
+      <c r="K14" s="53">
         <v>1280</v>
       </c>
-      <c r="L14" s="46"/>
+      <c r="L14" s="54"/>
       <c r="M14" s="13" t="s">
         <v>30</v>
       </c>
@@ -2899,8 +2944,8 @@
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="47"/>
-      <c r="B15" s="48"/>
+      <c r="A15" s="55"/>
+      <c r="B15" s="56"/>
       <c r="C15" s="4" t="s">
         <v>21</v>
       </c>
@@ -2917,8 +2962,8 @@
         <v>68</v>
       </c>
       <c r="H15" s="5"/>
-      <c r="K15" s="47"/>
-      <c r="L15" s="48"/>
+      <c r="K15" s="55"/>
+      <c r="L15" s="56"/>
       <c r="M15" s="4" t="s">
         <v>21</v>
       </c>
@@ -2939,8 +2984,8 @@
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="47"/>
-      <c r="B16" s="48"/>
+      <c r="A16" s="55"/>
+      <c r="B16" s="56"/>
       <c r="C16" s="4" t="s">
         <v>35</v>
       </c>
@@ -2964,8 +3009,8 @@
         <f>($A$14-H15)/$A$14</f>
         <v>1</v>
       </c>
-      <c r="K16" s="47"/>
-      <c r="L16" s="48"/>
+      <c r="K16" s="55"/>
+      <c r="L16" s="56"/>
       <c r="M16" s="4" t="s">
         <v>35</v>
       </c>
@@ -2991,8 +3036,8 @@
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="47"/>
-      <c r="B17" s="48"/>
+      <c r="A17" s="55"/>
+      <c r="B17" s="56"/>
       <c r="C17" s="4" t="s">
         <v>22</v>
       </c>
@@ -3009,8 +3054,8 @@
         <v>1120</v>
       </c>
       <c r="H17" s="5"/>
-      <c r="K17" s="47"/>
-      <c r="L17" s="48"/>
+      <c r="K17" s="55"/>
+      <c r="L17" s="56"/>
       <c r="M17" s="4" t="s">
         <v>22</v>
       </c>
@@ -3031,8 +3076,8 @@
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="49"/>
-      <c r="B18" s="50"/>
+      <c r="A18" s="57"/>
+      <c r="B18" s="58"/>
       <c r="C18" s="4" t="s">
         <v>34</v>
       </c>
@@ -3056,8 +3101,8 @@
         <f>($A$14-H17)/$A$14</f>
         <v>1</v>
       </c>
-      <c r="K18" s="49"/>
-      <c r="L18" s="50"/>
+      <c r="K18" s="57"/>
+      <c r="L18" s="58"/>
       <c r="M18" s="4" t="s">
         <v>34</v>
       </c>
@@ -3083,10 +3128,10 @@
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="66">
+      <c r="A19" s="74">
         <v>1345</v>
       </c>
-      <c r="B19" s="67"/>
+      <c r="B19" s="75"/>
       <c r="C19" s="7" t="s">
         <v>30</v>
       </c>
@@ -3105,10 +3150,10 @@
       <c r="H19" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="K19" s="66">
+      <c r="K19" s="74">
         <v>1345</v>
       </c>
-      <c r="L19" s="67"/>
+      <c r="L19" s="75"/>
       <c r="M19" s="7" t="s">
         <v>30</v>
       </c>
@@ -3129,8 +3174,8 @@
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="68"/>
-      <c r="B20" s="69"/>
+      <c r="A20" s="76"/>
+      <c r="B20" s="77"/>
       <c r="C20" s="7" t="s">
         <v>21</v>
       </c>
@@ -3147,8 +3192,8 @@
         <v>129</v>
       </c>
       <c r="H20" s="5"/>
-      <c r="K20" s="68"/>
-      <c r="L20" s="69"/>
+      <c r="K20" s="76"/>
+      <c r="L20" s="77"/>
       <c r="M20" s="7" t="s">
         <v>21</v>
       </c>
@@ -3169,8 +3214,8 @@
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21" s="68"/>
-      <c r="B21" s="69"/>
+      <c r="A21" s="76"/>
+      <c r="B21" s="77"/>
       <c r="C21" s="7" t="s">
         <v>35</v>
       </c>
@@ -3191,8 +3236,8 @@
         <v>0.90408921933085507</v>
       </c>
       <c r="H21" s="5"/>
-      <c r="K21" s="68"/>
-      <c r="L21" s="69"/>
+      <c r="K21" s="76"/>
+      <c r="L21" s="77"/>
       <c r="M21" s="7" t="s">
         <v>35</v>
       </c>
@@ -3218,8 +3263,8 @@
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A22" s="68"/>
-      <c r="B22" s="69"/>
+      <c r="A22" s="76"/>
+      <c r="B22" s="77"/>
       <c r="C22" s="7" t="s">
         <v>22</v>
       </c>
@@ -3236,8 +3281,8 @@
         <v>1182</v>
       </c>
       <c r="H22" s="5"/>
-      <c r="K22" s="68"/>
-      <c r="L22" s="69"/>
+      <c r="K22" s="76"/>
+      <c r="L22" s="77"/>
       <c r="M22" s="7" t="s">
         <v>22</v>
       </c>
@@ -3256,8 +3301,8 @@
       <c r="R22" s="5"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A23" s="70"/>
-      <c r="B23" s="71"/>
+      <c r="A23" s="78"/>
+      <c r="B23" s="79"/>
       <c r="C23" s="7" t="s">
         <v>34</v>
       </c>
@@ -3278,8 +3323,8 @@
         <v>0.12118959107806691</v>
       </c>
       <c r="H23" s="5"/>
-      <c r="K23" s="70"/>
-      <c r="L23" s="71"/>
+      <c r="K23" s="78"/>
+      <c r="L23" s="79"/>
       <c r="M23" s="7" t="s">
         <v>34</v>
       </c>
@@ -3302,10 +3347,10 @@
       <c r="R23" s="5"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="K24" s="72">
+      <c r="K24" s="80">
         <v>1640</v>
       </c>
-      <c r="L24" s="72"/>
+      <c r="L24" s="80"/>
       <c r="M24" s="24" t="s">
         <v>30</v>
       </c>
@@ -3326,10 +3371,10 @@
       </c>
     </row>
     <row r="28" spans="1:18" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="52" t="s">
+      <c r="A28" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="B28" s="53"/>
+      <c r="B28" s="61"/>
       <c r="C28" s="14"/>
       <c r="D28" s="15" t="s">
         <v>1</v>
@@ -3346,10 +3391,10 @@
       <c r="H28" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="K28" s="52" t="s">
+      <c r="K28" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="L28" s="53"/>
+      <c r="L28" s="61"/>
       <c r="M28" s="14"/>
       <c r="N28" s="15" t="s">
         <v>1</v>
@@ -3368,10 +3413,10 @@
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A29" s="54">
+      <c r="A29" s="62">
         <v>584</v>
       </c>
-      <c r="B29" s="55"/>
+      <c r="B29" s="63"/>
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -3391,10 +3436,10 @@
         <v>8.1119999999999994E-3</v>
       </c>
       <c r="J29" s="24"/>
-      <c r="K29" s="54">
+      <c r="K29" s="62">
         <v>584</v>
       </c>
-      <c r="L29" s="55"/>
+      <c r="L29" s="63"/>
       <c r="M29" s="1" t="s">
         <v>23</v>
       </c>
@@ -3415,8 +3460,8 @@
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A30" s="56"/>
-      <c r="B30" s="57"/>
+      <c r="A30" s="64"/>
+      <c r="B30" s="65"/>
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -3435,8 +3480,8 @@
       <c r="H30" s="1">
         <v>3.248E-3</v>
       </c>
-      <c r="K30" s="56"/>
-      <c r="L30" s="57"/>
+      <c r="K30" s="64"/>
+      <c r="L30" s="65"/>
       <c r="M30" s="1" t="s">
         <v>24</v>
       </c>
@@ -3457,8 +3502,8 @@
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A31" s="56"/>
-      <c r="B31" s="57"/>
+      <c r="A31" s="64"/>
+      <c r="B31" s="65"/>
       <c r="C31" s="19" t="s">
         <v>32</v>
       </c>
@@ -3482,8 +3527,8 @@
         <f t="shared" si="0"/>
         <v>1.1359999999999999E-2</v>
       </c>
-      <c r="K31" s="56"/>
-      <c r="L31" s="57"/>
+      <c r="K31" s="64"/>
+      <c r="L31" s="65"/>
       <c r="M31" s="19" t="s">
         <v>32</v>
       </c>
@@ -3509,8 +3554,8 @@
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A32" s="56"/>
-      <c r="B32" s="57"/>
+      <c r="A32" s="64"/>
+      <c r="B32" s="65"/>
       <c r="C32" s="1" t="s">
         <v>25</v>
       </c>
@@ -3530,8 +3575,8 @@
         <v>4.0691999999999999E-2</v>
       </c>
       <c r="J32" s="24"/>
-      <c r="K32" s="56"/>
-      <c r="L32" s="57"/>
+      <c r="K32" s="64"/>
+      <c r="L32" s="65"/>
       <c r="M32" s="1" t="s">
         <v>25</v>
       </c>
@@ -3552,8 +3597,8 @@
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A33" s="56"/>
-      <c r="B33" s="57"/>
+      <c r="A33" s="64"/>
+      <c r="B33" s="65"/>
       <c r="C33" s="1" t="s">
         <v>26</v>
       </c>
@@ -3572,8 +3617,8 @@
       <c r="H33" s="1">
         <v>1.7328E-2</v>
       </c>
-      <c r="K33" s="56"/>
-      <c r="L33" s="57"/>
+      <c r="K33" s="64"/>
+      <c r="L33" s="65"/>
       <c r="M33" s="1" t="s">
         <v>26</v>
       </c>
@@ -3594,8 +3639,8 @@
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A34" s="58"/>
-      <c r="B34" s="59"/>
+      <c r="A34" s="66"/>
+      <c r="B34" s="67"/>
       <c r="C34" s="19" t="s">
         <v>32</v>
       </c>
@@ -3619,8 +3664,8 @@
         <f t="shared" si="2"/>
         <v>5.8020000000000002E-2</v>
       </c>
-      <c r="K34" s="58"/>
-      <c r="L34" s="59"/>
+      <c r="K34" s="66"/>
+      <c r="L34" s="67"/>
       <c r="M34" s="19" t="s">
         <v>32</v>
       </c>
@@ -3646,10 +3691,10 @@
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A35" s="60">
+      <c r="A35" s="68">
         <v>980</v>
       </c>
-      <c r="B35" s="61"/>
+      <c r="B35" s="69"/>
       <c r="C35" s="16" t="s">
         <v>23</v>
       </c>
@@ -3669,10 +3714,10 @@
         <v>1.2716E-2</v>
       </c>
       <c r="J35" s="24"/>
-      <c r="K35" s="60">
+      <c r="K35" s="68">
         <v>980</v>
       </c>
-      <c r="L35" s="61"/>
+      <c r="L35" s="69"/>
       <c r="M35" s="16" t="s">
         <v>23</v>
       </c>
@@ -3693,8 +3738,8 @@
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A36" s="62"/>
-      <c r="B36" s="63"/>
+      <c r="A36" s="70"/>
+      <c r="B36" s="71"/>
       <c r="C36" s="16" t="s">
         <v>24</v>
       </c>
@@ -3713,8 +3758,8 @@
       <c r="H36" s="16">
         <v>5.1999999999999998E-3</v>
       </c>
-      <c r="K36" s="62"/>
-      <c r="L36" s="63"/>
+      <c r="K36" s="70"/>
+      <c r="L36" s="71"/>
       <c r="M36" s="16" t="s">
         <v>24</v>
       </c>
@@ -3735,8 +3780,8 @@
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A37" s="62"/>
-      <c r="B37" s="63"/>
+      <c r="A37" s="70"/>
+      <c r="B37" s="71"/>
       <c r="C37" s="19" t="s">
         <v>32</v>
       </c>
@@ -3760,8 +3805,8 @@
         <f t="shared" si="4"/>
         <v>1.7916000000000001E-2</v>
       </c>
-      <c r="K37" s="62"/>
-      <c r="L37" s="63"/>
+      <c r="K37" s="70"/>
+      <c r="L37" s="71"/>
       <c r="M37" s="19" t="s">
         <v>32</v>
       </c>
@@ -3787,8 +3832,8 @@
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A38" s="62"/>
-      <c r="B38" s="63"/>
+      <c r="A38" s="70"/>
+      <c r="B38" s="71"/>
       <c r="C38" s="16" t="s">
         <v>25</v>
       </c>
@@ -3808,8 +3853,8 @@
         <v>5.5975999999999998E-2</v>
       </c>
       <c r="J38" s="24"/>
-      <c r="K38" s="62"/>
-      <c r="L38" s="63"/>
+      <c r="K38" s="70"/>
+      <c r="L38" s="71"/>
       <c r="M38" s="16" t="s">
         <v>25</v>
       </c>
@@ -3830,8 +3875,8 @@
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A39" s="62"/>
-      <c r="B39" s="63"/>
+      <c r="A39" s="70"/>
+      <c r="B39" s="71"/>
       <c r="C39" s="16" t="s">
         <v>26</v>
       </c>
@@ -3850,8 +3895,8 @@
       <c r="H39" s="16">
         <v>2.3768000000000001E-2</v>
       </c>
-      <c r="K39" s="62"/>
-      <c r="L39" s="63"/>
+      <c r="K39" s="70"/>
+      <c r="L39" s="71"/>
       <c r="M39" s="16" t="s">
         <v>26</v>
       </c>
@@ -3872,8 +3917,8 @@
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A40" s="64"/>
-      <c r="B40" s="65"/>
+      <c r="A40" s="72"/>
+      <c r="B40" s="73"/>
       <c r="C40" s="19" t="s">
         <v>32</v>
       </c>
@@ -3897,8 +3942,8 @@
         <f t="shared" si="6"/>
         <v>7.9743999999999995E-2</v>
       </c>
-      <c r="K40" s="64"/>
-      <c r="L40" s="65"/>
+      <c r="K40" s="72"/>
+      <c r="L40" s="73"/>
       <c r="M40" s="19" t="s">
         <v>32</v>
       </c>
@@ -3924,10 +3969,10 @@
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A41" s="45">
+      <c r="A41" s="53">
         <v>1280</v>
       </c>
-      <c r="B41" s="46"/>
+      <c r="B41" s="54"/>
       <c r="C41" s="4" t="s">
         <v>23</v>
       </c>
@@ -3945,10 +3990,10 @@
       </c>
       <c r="H41" s="5"/>
       <c r="J41" s="24"/>
-      <c r="K41" s="45">
+      <c r="K41" s="53">
         <v>1280</v>
       </c>
-      <c r="L41" s="46"/>
+      <c r="L41" s="54"/>
       <c r="M41" s="4" t="s">
         <v>23</v>
       </c>
@@ -3969,8 +4014,8 @@
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A42" s="47"/>
-      <c r="B42" s="48"/>
+      <c r="A42" s="55"/>
+      <c r="B42" s="56"/>
       <c r="C42" s="4" t="s">
         <v>24</v>
       </c>
@@ -3987,8 +4032,8 @@
         <v>9.476E-3</v>
       </c>
       <c r="H42" s="5"/>
-      <c r="K42" s="47"/>
-      <c r="L42" s="48"/>
+      <c r="K42" s="55"/>
+      <c r="L42" s="56"/>
       <c r="M42" s="4" t="s">
         <v>24</v>
       </c>
@@ -4009,8 +4054,8 @@
       </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A43" s="47"/>
-      <c r="B43" s="48"/>
+      <c r="A43" s="55"/>
+      <c r="B43" s="56"/>
       <c r="C43" s="19" t="s">
         <v>32</v>
       </c>
@@ -4031,8 +4076,8 @@
         <v>2.7875999999999998E-2</v>
       </c>
       <c r="H43" s="5"/>
-      <c r="K43" s="47"/>
-      <c r="L43" s="48"/>
+      <c r="K43" s="55"/>
+      <c r="L43" s="56"/>
       <c r="M43" s="19" t="s">
         <v>32</v>
       </c>
@@ -4058,8 +4103,8 @@
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A44" s="47"/>
-      <c r="B44" s="48"/>
+      <c r="A44" s="55"/>
+      <c r="B44" s="56"/>
       <c r="C44" s="4" t="s">
         <v>25</v>
       </c>
@@ -4077,8 +4122,8 @@
       </c>
       <c r="H44" s="5"/>
       <c r="J44" s="24"/>
-      <c r="K44" s="47"/>
-      <c r="L44" s="48"/>
+      <c r="K44" s="55"/>
+      <c r="L44" s="56"/>
       <c r="M44" s="4" t="s">
         <v>25</v>
       </c>
@@ -4099,8 +4144,8 @@
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A45" s="47"/>
-      <c r="B45" s="48"/>
+      <c r="A45" s="55"/>
+      <c r="B45" s="56"/>
       <c r="C45" s="4" t="s">
         <v>26</v>
       </c>
@@ -4117,8 +4162,8 @@
         <v>4.3580000000000001E-2</v>
       </c>
       <c r="H45" s="5"/>
-      <c r="K45" s="47"/>
-      <c r="L45" s="48"/>
+      <c r="K45" s="55"/>
+      <c r="L45" s="56"/>
       <c r="M45" s="4" t="s">
         <v>26</v>
       </c>
@@ -4139,8 +4184,8 @@
       </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A46" s="49"/>
-      <c r="B46" s="50"/>
+      <c r="A46" s="57"/>
+      <c r="B46" s="58"/>
       <c r="C46" s="19" t="s">
         <v>32</v>
       </c>
@@ -4161,8 +4206,8 @@
         <v>0.146428</v>
       </c>
       <c r="H46" s="5"/>
-      <c r="K46" s="49"/>
-      <c r="L46" s="50"/>
+      <c r="K46" s="57"/>
+      <c r="L46" s="58"/>
       <c r="M46" s="19" t="s">
         <v>32</v>
       </c>
@@ -4188,10 +4233,10 @@
       </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A47" s="66">
+      <c r="A47" s="74">
         <v>1345</v>
       </c>
-      <c r="B47" s="67"/>
+      <c r="B47" s="75"/>
       <c r="C47" s="7" t="s">
         <v>23</v>
       </c>
@@ -4209,10 +4254,10 @@
       </c>
       <c r="H47" s="5"/>
       <c r="J47" s="24"/>
-      <c r="K47" s="66">
+      <c r="K47" s="74">
         <v>1345</v>
       </c>
-      <c r="L47" s="67"/>
+      <c r="L47" s="75"/>
       <c r="M47" s="7" t="s">
         <v>23</v>
       </c>
@@ -4233,8 +4278,8 @@
       </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A48" s="68"/>
-      <c r="B48" s="69"/>
+      <c r="A48" s="76"/>
+      <c r="B48" s="77"/>
       <c r="C48" s="7" t="s">
         <v>24</v>
       </c>
@@ -4251,8 +4296,8 @@
         <v>9.9319999999999999E-3</v>
       </c>
       <c r="H48" s="5"/>
-      <c r="K48" s="68"/>
-      <c r="L48" s="69"/>
+      <c r="K48" s="76"/>
+      <c r="L48" s="77"/>
       <c r="M48" s="7" t="s">
         <v>24</v>
       </c>
@@ -4271,8 +4316,8 @@
       <c r="R48" s="5"/>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A49" s="68"/>
-      <c r="B49" s="69"/>
+      <c r="A49" s="76"/>
+      <c r="B49" s="77"/>
       <c r="C49" s="19" t="s">
         <v>32</v>
       </c>
@@ -4293,8 +4338,8 @@
         <v>2.8931999999999999E-2</v>
       </c>
       <c r="H49" s="5"/>
-      <c r="K49" s="68"/>
-      <c r="L49" s="69"/>
+      <c r="K49" s="76"/>
+      <c r="L49" s="77"/>
       <c r="M49" s="19" t="s">
         <v>32</v>
       </c>
@@ -4317,8 +4362,8 @@
       <c r="R49" s="5"/>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A50" s="68"/>
-      <c r="B50" s="69"/>
+      <c r="A50" s="76"/>
+      <c r="B50" s="77"/>
       <c r="C50" s="7" t="s">
         <v>25</v>
       </c>
@@ -4336,8 +4381,8 @@
       </c>
       <c r="H50" s="5"/>
       <c r="J50" s="24"/>
-      <c r="K50" s="68"/>
-      <c r="L50" s="69"/>
+      <c r="K50" s="76"/>
+      <c r="L50" s="77"/>
       <c r="M50" s="7" t="s">
         <v>25</v>
       </c>
@@ -4356,8 +4401,8 @@
       <c r="R50" s="5"/>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A51" s="68"/>
-      <c r="B51" s="69"/>
+      <c r="A51" s="76"/>
+      <c r="B51" s="77"/>
       <c r="C51" s="7" t="s">
         <v>26</v>
       </c>
@@ -4374,8 +4419,8 @@
         <v>4.5887999999999998E-2</v>
       </c>
       <c r="H51" s="5"/>
-      <c r="K51" s="68"/>
-      <c r="L51" s="69"/>
+      <c r="K51" s="76"/>
+      <c r="L51" s="77"/>
       <c r="M51" s="7" t="s">
         <v>26</v>
       </c>
@@ -4394,8 +4439,8 @@
       <c r="R51" s="5"/>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A52" s="70"/>
-      <c r="B52" s="71"/>
+      <c r="A52" s="78"/>
+      <c r="B52" s="79"/>
       <c r="C52" s="19" t="s">
         <v>32</v>
       </c>
@@ -4416,8 +4461,8 @@
         <v>0.15465999999999999</v>
       </c>
       <c r="H52" s="5"/>
-      <c r="K52" s="70"/>
-      <c r="L52" s="71"/>
+      <c r="K52" s="78"/>
+      <c r="L52" s="79"/>
       <c r="M52" s="19" t="s">
         <v>32</v>
       </c>
@@ -4474,7 +4519,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U59"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
@@ -4501,32 +4546,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="59" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
-      <c r="N1" s="51"/>
-      <c r="O1" s="51"/>
-      <c r="P1" s="51"/>
-      <c r="Q1" s="51"/>
-      <c r="R1" s="51"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
+      <c r="N1" s="59"/>
+      <c r="O1" s="59"/>
+      <c r="P1" s="59"/>
+      <c r="Q1" s="59"/>
+      <c r="R1" s="59"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="53"/>
+      <c r="B2" s="61"/>
       <c r="C2" s="14"/>
       <c r="D2" s="15" t="s">
         <v>1</v>
@@ -4578,10 +4623,10 @@
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="54">
+      <c r="A3" s="62">
         <v>584</v>
       </c>
-      <c r="B3" s="55"/>
+      <c r="B3" s="63"/>
       <c r="C3" s="1" t="s">
         <v>30</v>
       </c>
@@ -4635,8 +4680,8 @@
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="56"/>
-      <c r="B4" s="57"/>
+      <c r="A4" s="64"/>
+      <c r="B4" s="65"/>
       <c r="C4" s="1" t="s">
         <v>21</v>
       </c>
@@ -4690,8 +4735,8 @@
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="56"/>
-      <c r="B5" s="57"/>
+      <c r="A5" s="64"/>
+      <c r="B5" s="65"/>
       <c r="C5" s="1" t="s">
         <v>33</v>
       </c>
@@ -4761,8 +4806,8 @@
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="56"/>
-      <c r="B6" s="57"/>
+      <c r="A6" s="64"/>
+      <c r="B6" s="65"/>
       <c r="C6" s="1" t="s">
         <v>22</v>
       </c>
@@ -4816,8 +4861,8 @@
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="58"/>
-      <c r="B7" s="59"/>
+      <c r="A7" s="66"/>
+      <c r="B7" s="67"/>
       <c r="C7" s="1" t="s">
         <v>34</v>
       </c>
@@ -4887,10 +4932,10 @@
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="60">
+      <c r="A8" s="68">
         <v>980</v>
       </c>
-      <c r="B8" s="61"/>
+      <c r="B8" s="69"/>
       <c r="C8" s="16" t="s">
         <v>30</v>
       </c>
@@ -4941,8 +4986,8 @@
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="62"/>
-      <c r="B9" s="63"/>
+      <c r="A9" s="70"/>
+      <c r="B9" s="71"/>
       <c r="C9" s="16" t="s">
         <v>21</v>
       </c>
@@ -4996,8 +5041,8 @@
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="62"/>
-      <c r="B10" s="63"/>
+      <c r="A10" s="70"/>
+      <c r="B10" s="71"/>
       <c r="C10" s="16" t="s">
         <v>35</v>
       </c>
@@ -5063,8 +5108,8 @@
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="62"/>
-      <c r="B11" s="63"/>
+      <c r="A11" s="70"/>
+      <c r="B11" s="71"/>
       <c r="C11" s="16" t="s">
         <v>22</v>
       </c>
@@ -5118,8 +5163,8 @@
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="64"/>
-      <c r="B12" s="65"/>
+      <c r="A12" s="72"/>
+      <c r="B12" s="73"/>
       <c r="C12" s="16" t="s">
         <v>34</v>
       </c>
@@ -5185,10 +5230,10 @@
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="45">
+      <c r="A13" s="53">
         <v>1280</v>
       </c>
-      <c r="B13" s="46"/>
+      <c r="B13" s="54"/>
       <c r="C13" s="13" t="s">
         <v>30</v>
       </c>
@@ -5239,8 +5284,8 @@
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="47"/>
-      <c r="B14" s="48"/>
+      <c r="A14" s="55"/>
+      <c r="B14" s="56"/>
       <c r="C14" s="4" t="s">
         <v>21</v>
       </c>
@@ -5294,8 +5339,8 @@
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="47"/>
-      <c r="B15" s="48"/>
+      <c r="A15" s="55"/>
+      <c r="B15" s="56"/>
       <c r="C15" s="4" t="s">
         <v>35</v>
       </c>
@@ -5361,8 +5406,8 @@
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="47"/>
-      <c r="B16" s="48"/>
+      <c r="A16" s="55"/>
+      <c r="B16" s="56"/>
       <c r="C16" s="4" t="s">
         <v>22</v>
       </c>
@@ -5416,8 +5461,8 @@
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A17" s="49"/>
-      <c r="B17" s="50"/>
+      <c r="A17" s="57"/>
+      <c r="B17" s="58"/>
       <c r="C17" s="4" t="s">
         <v>34</v>
       </c>
@@ -5483,10 +5528,10 @@
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A18" s="66">
+      <c r="A18" s="74">
         <v>1345</v>
       </c>
-      <c r="B18" s="67"/>
+      <c r="B18" s="75"/>
       <c r="C18" s="7" t="s">
         <v>30</v>
       </c>
@@ -5540,8 +5585,8 @@
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A19" s="68"/>
-      <c r="B19" s="69"/>
+      <c r="A19" s="76"/>
+      <c r="B19" s="77"/>
       <c r="C19" s="7" t="s">
         <v>21</v>
       </c>
@@ -5598,8 +5643,8 @@
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A20" s="68"/>
-      <c r="B20" s="69"/>
+      <c r="A20" s="76"/>
+      <c r="B20" s="77"/>
       <c r="C20" s="7" t="s">
         <v>35</v>
       </c>
@@ -5665,8 +5710,8 @@
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A21" s="68"/>
-      <c r="B21" s="69"/>
+      <c r="A21" s="76"/>
+      <c r="B21" s="77"/>
       <c r="C21" s="7" t="s">
         <v>22</v>
       </c>
@@ -5720,8 +5765,8 @@
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A22" s="70"/>
-      <c r="B22" s="71"/>
+      <c r="A22" s="78"/>
+      <c r="B22" s="79"/>
       <c r="C22" s="7" t="s">
         <v>34</v>
       </c>
@@ -5787,10 +5832,10 @@
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A23" s="73">
+      <c r="A23" s="81">
         <v>1640</v>
       </c>
-      <c r="B23" s="74"/>
+      <c r="B23" s="82"/>
       <c r="C23" s="39" t="s">
         <v>30</v>
       </c>
@@ -5821,8 +5866,8 @@
       <c r="R23" s="40"/>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A24" s="75"/>
-      <c r="B24" s="76"/>
+      <c r="A24" s="83"/>
+      <c r="B24" s="84"/>
       <c r="C24" s="39" t="s">
         <v>21</v>
       </c>
@@ -5854,8 +5899,8 @@
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A25" s="75"/>
-      <c r="B25" s="76"/>
+      <c r="A25" s="83"/>
+      <c r="B25" s="84"/>
       <c r="C25" s="39" t="s">
         <v>35</v>
       </c>
@@ -5918,8 +5963,8 @@
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A26" s="75"/>
-      <c r="B26" s="76"/>
+      <c r="A26" s="83"/>
+      <c r="B26" s="84"/>
       <c r="C26" s="39" t="s">
         <v>22</v>
       </c>
@@ -5951,8 +5996,8 @@
       </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A27" s="77"/>
-      <c r="B27" s="78"/>
+      <c r="A27" s="85"/>
+      <c r="B27" s="86"/>
       <c r="C27" s="39" t="s">
         <v>34</v>
       </c>
@@ -6026,10 +6071,10 @@
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A33" s="52" t="s">
+      <c r="A33" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="B33" s="53"/>
+      <c r="B33" s="61"/>
       <c r="C33" s="14"/>
       <c r="D33" s="15" t="s">
         <v>1</v>
@@ -6078,10 +6123,10 @@
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A34" s="54">
+      <c r="A34" s="62">
         <v>584</v>
       </c>
-      <c r="B34" s="55"/>
+      <c r="B34" s="63"/>
       <c r="C34" s="1" t="s">
         <v>23</v>
       </c>
@@ -6132,8 +6177,8 @@
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A35" s="56"/>
-      <c r="B35" s="57"/>
+      <c r="A35" s="64"/>
+      <c r="B35" s="65"/>
       <c r="C35" s="1" t="s">
         <v>24</v>
       </c>
@@ -6184,8 +6229,8 @@
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A36" s="56"/>
-      <c r="B36" s="57"/>
+      <c r="A36" s="64"/>
+      <c r="B36" s="65"/>
       <c r="C36" s="19" t="s">
         <v>32</v>
       </c>
@@ -6251,8 +6296,8 @@
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A37" s="56"/>
-      <c r="B37" s="57"/>
+      <c r="A37" s="64"/>
+      <c r="B37" s="65"/>
       <c r="C37" s="1" t="s">
         <v>25</v>
       </c>
@@ -6303,8 +6348,8 @@
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A38" s="56"/>
-      <c r="B38" s="57"/>
+      <c r="A38" s="64"/>
+      <c r="B38" s="65"/>
       <c r="C38" s="1" t="s">
         <v>26</v>
       </c>
@@ -6355,8 +6400,8 @@
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A39" s="58"/>
-      <c r="B39" s="59"/>
+      <c r="A39" s="66"/>
+      <c r="B39" s="67"/>
       <c r="C39" s="19" t="s">
         <v>32</v>
       </c>
@@ -6422,10 +6467,10 @@
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A40" s="60">
+      <c r="A40" s="68">
         <v>980</v>
       </c>
-      <c r="B40" s="61"/>
+      <c r="B40" s="69"/>
       <c r="C40" s="16" t="s">
         <v>23</v>
       </c>
@@ -6476,8 +6521,8 @@
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A41" s="62"/>
-      <c r="B41" s="63"/>
+      <c r="A41" s="70"/>
+      <c r="B41" s="71"/>
       <c r="C41" s="16" t="s">
         <v>24</v>
       </c>
@@ -6528,8 +6573,8 @@
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A42" s="62"/>
-      <c r="B42" s="63"/>
+      <c r="A42" s="70"/>
+      <c r="B42" s="71"/>
       <c r="C42" s="19" t="s">
         <v>32</v>
       </c>
@@ -6595,8 +6640,8 @@
       </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A43" s="62"/>
-      <c r="B43" s="63"/>
+      <c r="A43" s="70"/>
+      <c r="B43" s="71"/>
       <c r="C43" s="16" t="s">
         <v>25</v>
       </c>
@@ -6647,8 +6692,8 @@
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A44" s="62"/>
-      <c r="B44" s="63"/>
+      <c r="A44" s="70"/>
+      <c r="B44" s="71"/>
       <c r="C44" s="16" t="s">
         <v>26</v>
       </c>
@@ -6699,8 +6744,8 @@
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A45" s="64"/>
-      <c r="B45" s="65"/>
+      <c r="A45" s="72"/>
+      <c r="B45" s="73"/>
       <c r="C45" s="19" t="s">
         <v>32</v>
       </c>
@@ -6766,10 +6811,10 @@
       </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A46" s="45">
+      <c r="A46" s="53">
         <v>1280</v>
       </c>
-      <c r="B46" s="46"/>
+      <c r="B46" s="54"/>
       <c r="C46" s="4" t="s">
         <v>23</v>
       </c>
@@ -6820,8 +6865,8 @@
       </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A47" s="47"/>
-      <c r="B47" s="48"/>
+      <c r="A47" s="55"/>
+      <c r="B47" s="56"/>
       <c r="C47" s="4" t="s">
         <v>24</v>
       </c>
@@ -6872,8 +6917,8 @@
       </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A48" s="47"/>
-      <c r="B48" s="48"/>
+      <c r="A48" s="55"/>
+      <c r="B48" s="56"/>
       <c r="C48" s="19" t="s">
         <v>32</v>
       </c>
@@ -6939,8 +6984,8 @@
       </c>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A49" s="47"/>
-      <c r="B49" s="48"/>
+      <c r="A49" s="55"/>
+      <c r="B49" s="56"/>
       <c r="C49" s="4" t="s">
         <v>25</v>
       </c>
@@ -6991,8 +7036,8 @@
       </c>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A50" s="47"/>
-      <c r="B50" s="48"/>
+      <c r="A50" s="55"/>
+      <c r="B50" s="56"/>
       <c r="C50" s="4" t="s">
         <v>26</v>
       </c>
@@ -7043,8 +7088,8 @@
       </c>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A51" s="49"/>
-      <c r="B51" s="50"/>
+      <c r="A51" s="57"/>
+      <c r="B51" s="58"/>
       <c r="C51" s="19" t="s">
         <v>32</v>
       </c>
@@ -7110,10 +7155,10 @@
       </c>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A52" s="66">
+      <c r="A52" s="74">
         <v>1345</v>
       </c>
-      <c r="B52" s="67"/>
+      <c r="B52" s="75"/>
       <c r="C52" s="7" t="s">
         <v>23</v>
       </c>
@@ -7164,8 +7209,8 @@
       </c>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A53" s="68"/>
-      <c r="B53" s="69"/>
+      <c r="A53" s="76"/>
+      <c r="B53" s="77"/>
       <c r="C53" s="7" t="s">
         <v>24</v>
       </c>
@@ -7216,8 +7261,8 @@
       </c>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A54" s="68"/>
-      <c r="B54" s="69"/>
+      <c r="A54" s="76"/>
+      <c r="B54" s="77"/>
       <c r="C54" s="19" t="s">
         <v>32</v>
       </c>
@@ -7283,8 +7328,8 @@
       </c>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A55" s="68"/>
-      <c r="B55" s="69"/>
+      <c r="A55" s="76"/>
+      <c r="B55" s="77"/>
       <c r="C55" s="7" t="s">
         <v>25</v>
       </c>
@@ -7335,8 +7380,8 @@
       </c>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A56" s="68"/>
-      <c r="B56" s="69"/>
+      <c r="A56" s="76"/>
+      <c r="B56" s="77"/>
       <c r="C56" s="7" t="s">
         <v>26</v>
       </c>
@@ -7387,8 +7432,8 @@
       </c>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A57" s="70"/>
-      <c r="B57" s="71"/>
+      <c r="A57" s="78"/>
+      <c r="B57" s="79"/>
       <c r="C57" s="19" t="s">
         <v>32</v>
       </c>
@@ -7454,7 +7499,7 @@
       </c>
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B59" s="96"/>
+      <c r="B59" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -7479,8 +7524,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C7:O36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="Q44" sqref="Q44"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15:O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7714,29 +7759,29 @@
       </c>
     </row>
     <row r="15" spans="3:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="97" t="s">
+      <c r="C15" s="88" t="s">
         <v>95</v>
       </c>
-      <c r="D15" s="97"/>
-      <c r="E15" s="91" t="s">
+      <c r="D15" s="88"/>
+      <c r="E15" s="87" t="s">
         <v>100</v>
       </c>
-      <c r="F15" s="91"/>
-      <c r="G15" s="91"/>
-      <c r="H15" s="91"/>
-      <c r="I15" s="91"/>
-      <c r="J15" s="91"/>
-      <c r="K15" s="91"/>
-      <c r="L15" s="91"/>
-      <c r="M15" s="91"/>
-      <c r="N15" s="91"/>
-      <c r="O15" s="95" t="s">
+      <c r="F15" s="87"/>
+      <c r="G15" s="87"/>
+      <c r="H15" s="87"/>
+      <c r="I15" s="87"/>
+      <c r="J15" s="87"/>
+      <c r="K15" s="87"/>
+      <c r="L15" s="87"/>
+      <c r="M15" s="87"/>
+      <c r="N15" s="87"/>
+      <c r="O15" s="89" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="16" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C16" s="97"/>
-      <c r="D16" s="97"/>
+      <c r="C16" s="88"/>
+      <c r="D16" s="88"/>
       <c r="E16" s="42">
         <v>1</v>
       </c>
@@ -7767,10 +7812,10 @@
       <c r="N16" s="42">
         <v>10</v>
       </c>
-      <c r="O16" s="95"/>
+      <c r="O16" s="89"/>
     </row>
     <row r="17" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C17" s="95" t="s">
+      <c r="C17" s="89" t="s">
         <v>96</v>
       </c>
       <c r="D17" s="42" t="s">
@@ -7806,13 +7851,13 @@
       <c r="N17" s="43">
         <v>41</v>
       </c>
-      <c r="O17" s="98">
+      <c r="O17" s="90">
         <f>SUM(E17:N17)/410</f>
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C18" s="95"/>
+      <c r="C18" s="89"/>
       <c r="D18" s="42" t="s">
         <v>98</v>
       </c>
@@ -7846,32 +7891,32 @@
       <c r="N18" s="43">
         <v>0</v>
       </c>
-      <c r="O18" s="99"/>
+      <c r="O18" s="91"/>
     </row>
     <row r="21" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C21" s="97" t="s">
+      <c r="C21" s="88" t="s">
         <v>101</v>
       </c>
-      <c r="D21" s="97"/>
-      <c r="E21" s="91" t="s">
+      <c r="D21" s="88"/>
+      <c r="E21" s="87" t="s">
         <v>100</v>
       </c>
-      <c r="F21" s="91"/>
-      <c r="G21" s="91"/>
-      <c r="H21" s="91"/>
-      <c r="I21" s="91"/>
-      <c r="J21" s="91"/>
-      <c r="K21" s="91"/>
-      <c r="L21" s="91"/>
-      <c r="M21" s="91"/>
-      <c r="N21" s="91"/>
-      <c r="O21" s="95" t="s">
+      <c r="F21" s="87"/>
+      <c r="G21" s="87"/>
+      <c r="H21" s="87"/>
+      <c r="I21" s="87"/>
+      <c r="J21" s="87"/>
+      <c r="K21" s="87"/>
+      <c r="L21" s="87"/>
+      <c r="M21" s="87"/>
+      <c r="N21" s="87"/>
+      <c r="O21" s="89" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="22" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C22" s="97"/>
-      <c r="D22" s="97"/>
+      <c r="C22" s="88"/>
+      <c r="D22" s="88"/>
       <c r="E22" s="42">
         <v>1</v>
       </c>
@@ -7902,10 +7947,10 @@
       <c r="N22" s="42">
         <v>10</v>
       </c>
-      <c r="O22" s="95"/>
+      <c r="O22" s="89"/>
     </row>
     <row r="23" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C23" s="95" t="s">
+      <c r="C23" s="89" t="s">
         <v>96</v>
       </c>
       <c r="D23" s="42" t="s">
@@ -7941,13 +7986,13 @@
       <c r="N23" s="35">
         <v>27</v>
       </c>
-      <c r="O23" s="98">
+      <c r="O23" s="90">
         <f>SUM(E23:N23)/410</f>
         <v>0.86829268292682926</v>
       </c>
     </row>
     <row r="24" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C24" s="95"/>
+      <c r="C24" s="89"/>
       <c r="D24" s="42" t="s">
         <v>98</v>
       </c>
@@ -7981,32 +8026,32 @@
       <c r="N24" s="43">
         <v>14</v>
       </c>
-      <c r="O24" s="99"/>
+      <c r="O24" s="91"/>
     </row>
     <row r="27" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C27" s="97" t="s">
+      <c r="C27" s="88" t="s">
         <v>102</v>
       </c>
-      <c r="D27" s="97"/>
-      <c r="E27" s="91" t="s">
+      <c r="D27" s="88"/>
+      <c r="E27" s="87" t="s">
         <v>100</v>
       </c>
-      <c r="F27" s="91"/>
-      <c r="G27" s="91"/>
-      <c r="H27" s="91"/>
-      <c r="I27" s="91"/>
-      <c r="J27" s="91"/>
-      <c r="K27" s="91"/>
-      <c r="L27" s="91"/>
-      <c r="M27" s="91"/>
-      <c r="N27" s="91"/>
-      <c r="O27" s="95" t="s">
+      <c r="F27" s="87"/>
+      <c r="G27" s="87"/>
+      <c r="H27" s="87"/>
+      <c r="I27" s="87"/>
+      <c r="J27" s="87"/>
+      <c r="K27" s="87"/>
+      <c r="L27" s="87"/>
+      <c r="M27" s="87"/>
+      <c r="N27" s="87"/>
+      <c r="O27" s="89" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="28" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C28" s="97"/>
-      <c r="D28" s="97"/>
+      <c r="C28" s="88"/>
+      <c r="D28" s="88"/>
       <c r="E28" s="42">
         <v>1</v>
       </c>
@@ -8037,10 +8082,10 @@
       <c r="N28" s="42">
         <v>10</v>
       </c>
-      <c r="O28" s="95"/>
+      <c r="O28" s="89"/>
     </row>
     <row r="29" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C29" s="95" t="s">
+      <c r="C29" s="89" t="s">
         <v>96</v>
       </c>
       <c r="D29" s="42" t="s">
@@ -8076,13 +8121,13 @@
       <c r="N29" s="35">
         <v>29</v>
       </c>
-      <c r="O29" s="98">
+      <c r="O29" s="90">
         <f>SUM(E29:N29)/410</f>
         <v>0.69512195121951215</v>
       </c>
     </row>
     <row r="30" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C30" s="95"/>
+      <c r="C30" s="89"/>
       <c r="D30" s="42" t="s">
         <v>98</v>
       </c>
@@ -8116,49 +8161,49 @@
       <c r="N30" s="43">
         <v>12</v>
       </c>
-      <c r="O30" s="99"/>
+      <c r="O30" s="91"/>
     </row>
     <row r="33" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C33" s="94"/>
-      <c r="D33" s="94" t="s">
+      <c r="C33" s="46"/>
+      <c r="D33" s="46" t="s">
         <v>103</v>
       </c>
-      <c r="E33" s="94" t="s">
+      <c r="E33" s="46" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="34" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C34" s="94" t="s">
+      <c r="C34" s="46" t="s">
         <v>104</v>
       </c>
-      <c r="D34" s="100">
+      <c r="D34" s="48">
         <v>1</v>
       </c>
-      <c r="E34" s="100">
+      <c r="E34" s="48">
         <f>100%-D34</f>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C35" s="94" t="s">
+      <c r="C35" s="46" t="s">
         <v>78</v>
       </c>
-      <c r="D35" s="100">
+      <c r="D35" s="48">
         <v>0.86799999999999999</v>
       </c>
-      <c r="E35" s="100">
+      <c r="E35" s="48">
         <f t="shared" ref="E35:E36" si="2">100%-D35</f>
         <v>0.13200000000000001</v>
       </c>
     </row>
     <row r="36" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C36" s="94" t="s">
+      <c r="C36" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="D36" s="100">
+      <c r="D36" s="48">
         <v>0.69499999999999995</v>
       </c>
-      <c r="E36" s="100">
+      <c r="E36" s="48">
         <f t="shared" si="2"/>
         <v>0.30500000000000005</v>
       </c>
@@ -8189,9 +8234,2631 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A4:AD41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C34" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M48" sqref="M48"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="10.140625" customWidth="1"/>
+    <col min="18" max="18" width="9.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="88" t="s">
+        <v>106</v>
+      </c>
+      <c r="C4" s="88"/>
+      <c r="D4" s="87" t="s">
+        <v>100</v>
+      </c>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
+      <c r="J4" s="87"/>
+      <c r="K4" s="87"/>
+      <c r="L4" s="87"/>
+      <c r="M4" s="87"/>
+      <c r="N4" s="89" t="s">
+        <v>105</v>
+      </c>
+      <c r="R4" s="88" t="s">
+        <v>106</v>
+      </c>
+      <c r="S4" s="88"/>
+      <c r="T4" s="87" t="s">
+        <v>100</v>
+      </c>
+      <c r="U4" s="87"/>
+      <c r="V4" s="87"/>
+      <c r="W4" s="87"/>
+      <c r="X4" s="87"/>
+      <c r="Y4" s="87"/>
+      <c r="Z4" s="87"/>
+      <c r="AA4" s="87"/>
+      <c r="AB4" s="87"/>
+      <c r="AC4" s="87"/>
+      <c r="AD4" s="89" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B5" s="88"/>
+      <c r="C5" s="88"/>
+      <c r="D5" s="45">
+        <v>1</v>
+      </c>
+      <c r="E5" s="45">
+        <v>2</v>
+      </c>
+      <c r="F5" s="45">
+        <v>3</v>
+      </c>
+      <c r="G5" s="45">
+        <v>4</v>
+      </c>
+      <c r="H5" s="45">
+        <v>5</v>
+      </c>
+      <c r="I5" s="45">
+        <v>6</v>
+      </c>
+      <c r="J5" s="45">
+        <v>7</v>
+      </c>
+      <c r="K5" s="45">
+        <v>8</v>
+      </c>
+      <c r="L5" s="45">
+        <v>9</v>
+      </c>
+      <c r="M5" s="45">
+        <v>10</v>
+      </c>
+      <c r="N5" s="89"/>
+      <c r="R5" s="88"/>
+      <c r="S5" s="88"/>
+      <c r="T5" s="45">
+        <v>1</v>
+      </c>
+      <c r="U5" s="45">
+        <v>2</v>
+      </c>
+      <c r="V5" s="45">
+        <v>3</v>
+      </c>
+      <c r="W5" s="45">
+        <v>4</v>
+      </c>
+      <c r="X5" s="45">
+        <v>5</v>
+      </c>
+      <c r="Y5" s="45">
+        <v>6</v>
+      </c>
+      <c r="Z5" s="45">
+        <v>7</v>
+      </c>
+      <c r="AA5" s="45">
+        <v>8</v>
+      </c>
+      <c r="AB5" s="45">
+        <v>9</v>
+      </c>
+      <c r="AC5" s="45">
+        <v>10</v>
+      </c>
+      <c r="AD5" s="89"/>
+    </row>
+    <row r="6" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="87" t="s">
+        <v>107</v>
+      </c>
+      <c r="C6" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="49">
+        <f>1-(76/584)</f>
+        <v>0.86986301369863017</v>
+      </c>
+      <c r="E6" s="49">
+        <f>1-(568/584)</f>
+        <v>2.7397260273972601E-2</v>
+      </c>
+      <c r="F6" s="49">
+        <f>1-(611/584)</f>
+        <v>-4.6232876712328785E-2</v>
+      </c>
+      <c r="G6" s="49">
+        <f>1-(645/584)</f>
+        <v>-0.10445205479452047</v>
+      </c>
+      <c r="H6" s="49">
+        <f>1-(597/584)</f>
+        <v>-2.2260273972602773E-2</v>
+      </c>
+      <c r="I6" s="49">
+        <f>1-(574/584)</f>
+        <v>1.7123287671232834E-2</v>
+      </c>
+      <c r="J6" s="49">
+        <f>1-(592/584)</f>
+        <v>-1.3698630136986356E-2</v>
+      </c>
+      <c r="K6" s="49">
+        <f>1-(570/584)</f>
+        <v>2.3972602739726012E-2</v>
+      </c>
+      <c r="L6" s="49">
+        <f>1-(585/584)</f>
+        <v>-1.712328767123239E-3</v>
+      </c>
+      <c r="M6" s="49">
+        <f>1-(481/584)</f>
+        <v>0.17636986301369861</v>
+      </c>
+      <c r="N6" s="50">
+        <f>AVERAGE(D6:M6)</f>
+        <v>9.2636986301369864E-2</v>
+      </c>
+      <c r="R6" s="87" t="s">
+        <v>108</v>
+      </c>
+      <c r="S6" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="T6" s="51">
+        <v>2.1668E-2</v>
+      </c>
+      <c r="U6" s="51">
+        <v>6.1920000000000003E-2</v>
+      </c>
+      <c r="V6" s="51">
+        <v>6.3820000000000002E-2</v>
+      </c>
+      <c r="W6" s="51">
+        <v>6.6196000000000005E-2</v>
+      </c>
+      <c r="X6" s="51">
+        <v>6.2815999999999997E-2</v>
+      </c>
+      <c r="Y6" s="51">
+        <v>6.2168000000000001E-2</v>
+      </c>
+      <c r="Z6" s="51">
+        <v>6.3084000000000001E-2</v>
+      </c>
+      <c r="AA6" s="51">
+        <v>6.2399999999999997E-2</v>
+      </c>
+      <c r="AB6" s="51">
+        <v>6.1323999999999997E-2</v>
+      </c>
+      <c r="AC6" s="51">
+        <v>5.4955999999999998E-2</v>
+      </c>
+      <c r="AD6" s="52">
+        <f>AVERAGE(T6:AC6)</f>
+        <v>5.8035200000000009E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B7" s="87"/>
+      <c r="C7" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="49">
+        <f>1-(49/584)</f>
+        <v>0.91609589041095885</v>
+      </c>
+      <c r="E7" s="49">
+        <f>1-(543/584)</f>
+        <v>7.0205479452054798E-2</v>
+      </c>
+      <c r="F7" s="49">
+        <f>1-(527/584)</f>
+        <v>9.7602739726027399E-2</v>
+      </c>
+      <c r="G7" s="49">
+        <f>1-(590/584)</f>
+        <v>-1.0273972602739656E-2</v>
+      </c>
+      <c r="H7" s="49">
+        <f>1-(559/584)</f>
+        <v>4.2808219178082196E-2</v>
+      </c>
+      <c r="I7" s="49">
+        <f>1-(445/584)</f>
+        <v>0.23801369863013699</v>
+      </c>
+      <c r="J7" s="49">
+        <f>1-(489/584)</f>
+        <v>0.16267123287671237</v>
+      </c>
+      <c r="K7" s="49">
+        <f>1-(240/584)</f>
+        <v>0.58904109589041098</v>
+      </c>
+      <c r="L7" s="49">
+        <f>1-(559/584)</f>
+        <v>4.2808219178082196E-2</v>
+      </c>
+      <c r="M7" s="49">
+        <f>1-(413/584)</f>
+        <v>0.2928082191780822</v>
+      </c>
+      <c r="N7" s="50">
+        <f t="shared" ref="N7:N11" si="0">AVERAGE(D7:M7)</f>
+        <v>0.2441780821917808</v>
+      </c>
+      <c r="R7" s="87"/>
+      <c r="S7" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="T7" s="51">
+        <v>1.4168E-2</v>
+      </c>
+      <c r="U7" s="51">
+        <v>5.4823999999999998E-2</v>
+      </c>
+      <c r="V7" s="51">
+        <v>5.2968000000000001E-2</v>
+      </c>
+      <c r="W7" s="51">
+        <v>5.8035999999999997E-2</v>
+      </c>
+      <c r="X7" s="51">
+        <v>5.6048000000000001E-2</v>
+      </c>
+      <c r="Y7" s="51">
+        <v>4.7523999999999997E-2</v>
+      </c>
+      <c r="Z7" s="51">
+        <v>5.2024000000000001E-2</v>
+      </c>
+      <c r="AA7" s="51">
+        <v>3.2739999999999998E-2</v>
+      </c>
+      <c r="AB7" s="51">
+        <v>5.5759999999999997E-2</v>
+      </c>
+      <c r="AC7" s="51">
+        <v>4.5131999999999999E-2</v>
+      </c>
+      <c r="AD7" s="52">
+        <f t="shared" ref="AD7:AD11" si="1">AVERAGE(T7:AC7)</f>
+        <v>4.6922399999999996E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B8" s="87"/>
+      <c r="C8" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="49">
+        <f>1-(31/584)</f>
+        <v>0.94691780821917804</v>
+      </c>
+      <c r="E8" s="49">
+        <f>1-(524/584)</f>
+        <v>0.10273972602739723</v>
+      </c>
+      <c r="F8" s="49">
+        <f>1-(443/584)</f>
+        <v>0.24143835616438358</v>
+      </c>
+      <c r="G8" s="49">
+        <f>1-(554/584)</f>
+        <v>5.1369863013698613E-2</v>
+      </c>
+      <c r="H8" s="49">
+        <f>1-(556/584)</f>
+        <v>4.7945205479452024E-2</v>
+      </c>
+      <c r="I8" s="49">
+        <f>1-(365/584)</f>
+        <v>0.375</v>
+      </c>
+      <c r="J8" s="49">
+        <f>1-(495/584)</f>
+        <v>0.1523972602739726</v>
+      </c>
+      <c r="K8" s="49">
+        <f>1-(142/584)</f>
+        <v>0.75684931506849318</v>
+      </c>
+      <c r="L8" s="49">
+        <f>1-(513/584)</f>
+        <v>0.12157534246575341</v>
+      </c>
+      <c r="M8" s="49">
+        <f>1-(357/584)</f>
+        <v>0.38869863013698636</v>
+      </c>
+      <c r="N8" s="50">
+        <f t="shared" si="0"/>
+        <v>0.31849315068493156</v>
+      </c>
+      <c r="R8" s="87"/>
+      <c r="S8" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="T8" s="51">
+        <v>1.0436000000000001E-2</v>
+      </c>
+      <c r="U8" s="51">
+        <v>5.1796000000000002E-2</v>
+      </c>
+      <c r="V8" s="51">
+        <v>4.4220000000000002E-2</v>
+      </c>
+      <c r="W8" s="51">
+        <v>5.3679999999999999E-2</v>
+      </c>
+      <c r="X8" s="51">
+        <v>5.4028E-2</v>
+      </c>
+      <c r="Y8" s="51">
+        <v>3.934E-2</v>
+      </c>
+      <c r="Z8" s="51">
+        <v>5.0396000000000003E-2</v>
+      </c>
+      <c r="AA8" s="51">
+        <v>2.044E-2</v>
+      </c>
+      <c r="AB8" s="51">
+        <v>5.1007999999999998E-2</v>
+      </c>
+      <c r="AC8" s="51">
+        <v>3.8811999999999999E-2</v>
+      </c>
+      <c r="AD8" s="52">
+        <f t="shared" si="1"/>
+        <v>4.1415600000000004E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B9" s="87"/>
+      <c r="C9" s="45" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" s="49">
+        <f>1-(20/584)</f>
+        <v>0.96575342465753422</v>
+      </c>
+      <c r="E9" s="49">
+        <f>1-(529/584)</f>
+        <v>9.417808219178081E-2</v>
+      </c>
+      <c r="F9" s="49">
+        <f>1-(413/584)</f>
+        <v>0.2928082191780822</v>
+      </c>
+      <c r="G9" s="49">
+        <f>1-(539/584)</f>
+        <v>7.7054794520547976E-2</v>
+      </c>
+      <c r="H9" s="49">
+        <f>1-(514/584)</f>
+        <v>0.11986301369863017</v>
+      </c>
+      <c r="I9" s="49">
+        <f>1-(136/584)</f>
+        <v>0.76712328767123283</v>
+      </c>
+      <c r="J9" s="49">
+        <f>1-(190/584)</f>
+        <v>0.67465753424657526</v>
+      </c>
+      <c r="K9" s="49">
+        <f>1-(117/584)</f>
+        <v>0.79965753424657537</v>
+      </c>
+      <c r="L9" s="49">
+        <f>1-(158/584)</f>
+        <v>0.72945205479452047</v>
+      </c>
+      <c r="M9" s="49">
+        <f>1-(340/584)</f>
+        <v>0.4178082191780822</v>
+      </c>
+      <c r="N9" s="50">
+        <f t="shared" si="0"/>
+        <v>0.49383561643835616</v>
+      </c>
+      <c r="R9" s="87"/>
+      <c r="S9" s="45" t="s">
+        <v>52</v>
+      </c>
+      <c r="T9" s="51">
+        <v>9.1280000000000007E-3</v>
+      </c>
+      <c r="U9" s="51">
+        <v>5.1923999999999998E-2</v>
+      </c>
+      <c r="V9" s="51">
+        <v>4.1576000000000002E-2</v>
+      </c>
+      <c r="W9" s="51">
+        <v>5.2336000000000001E-2</v>
+      </c>
+      <c r="X9" s="51">
+        <v>5.1124000000000003E-2</v>
+      </c>
+      <c r="Y9" s="51">
+        <v>1.8880000000000001E-2</v>
+      </c>
+      <c r="Z9" s="51">
+        <v>2.3331999999999999E-2</v>
+      </c>
+      <c r="AA9" s="51">
+        <v>1.7176E-2</v>
+      </c>
+      <c r="AB9" s="51">
+        <v>2.0936E-2</v>
+      </c>
+      <c r="AC9" s="51">
+        <v>3.6704000000000001E-2</v>
+      </c>
+      <c r="AD9" s="52">
+        <f t="shared" si="1"/>
+        <v>3.2311600000000003E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B10" s="87"/>
+      <c r="C10" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="49">
+        <f>1-(13/584)</f>
+        <v>0.97773972602739723</v>
+      </c>
+      <c r="E10" s="49">
+        <f>1-(447/584)</f>
+        <v>0.2345890410958904</v>
+      </c>
+      <c r="F10" s="49">
+        <f>1-(428/584)</f>
+        <v>0.26712328767123283</v>
+      </c>
+      <c r="G10" s="49">
+        <f>1-(326/584)</f>
+        <v>0.44178082191780821</v>
+      </c>
+      <c r="H10" s="49">
+        <f>1-(359/584)</f>
+        <v>0.38527397260273977</v>
+      </c>
+      <c r="I10" s="49">
+        <f>1-(140/584)</f>
+        <v>0.76027397260273977</v>
+      </c>
+      <c r="J10" s="49">
+        <f>1-(194/584)</f>
+        <v>0.6678082191780822</v>
+      </c>
+      <c r="K10" s="49">
+        <f>1-(120/584)</f>
+        <v>0.79452054794520555</v>
+      </c>
+      <c r="L10" s="49">
+        <f>1-(165/584)</f>
+        <v>0.71746575342465757</v>
+      </c>
+      <c r="M10" s="49">
+        <f>1-(153/584)</f>
+        <v>0.73801369863013699</v>
+      </c>
+      <c r="N10" s="50">
+        <f t="shared" si="0"/>
+        <v>0.59845890410958913</v>
+      </c>
+      <c r="R10" s="87"/>
+      <c r="S10" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="T10" s="51">
+        <v>8.4440000000000001E-3</v>
+      </c>
+      <c r="U10" s="51">
+        <v>4.648E-2</v>
+      </c>
+      <c r="V10" s="51">
+        <v>4.4192000000000002E-2</v>
+      </c>
+      <c r="W10" s="51">
+        <v>3.5055999999999997E-2</v>
+      </c>
+      <c r="X10" s="51">
+        <v>3.9483999999999998E-2</v>
+      </c>
+      <c r="Y10" s="51">
+        <v>1.9623999999999999E-2</v>
+      </c>
+      <c r="Z10" s="51">
+        <v>2.3363999999999999E-2</v>
+      </c>
+      <c r="AA10" s="51">
+        <v>1.8768E-2</v>
+      </c>
+      <c r="AB10" s="51">
+        <v>2.0643999999999999E-2</v>
+      </c>
+      <c r="AC10" s="51">
+        <v>3.8712000000000003E-2</v>
+      </c>
+      <c r="AD10" s="52">
+        <f t="shared" si="1"/>
+        <v>2.9476800000000004E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B11" s="87"/>
+      <c r="C11" s="45" t="s">
+        <v>69</v>
+      </c>
+      <c r="D11" s="49">
+        <f>1-(9/584)</f>
+        <v>0.9845890410958904</v>
+      </c>
+      <c r="E11" s="49">
+        <f>1-(430/584)</f>
+        <v>0.26369863013698636</v>
+      </c>
+      <c r="F11" s="49">
+        <f>1-(427/584)</f>
+        <v>0.26883561643835618</v>
+      </c>
+      <c r="G11" s="49">
+        <f>1-(331/584)</f>
+        <v>0.43321917808219179</v>
+      </c>
+      <c r="H11" s="49">
+        <f>1-(338/584)</f>
+        <v>0.42123287671232879</v>
+      </c>
+      <c r="I11" s="49">
+        <f>1-(142/584)</f>
+        <v>0.75684931506849318</v>
+      </c>
+      <c r="J11" s="49">
+        <f>1-(198/584)</f>
+        <v>0.66095890410958902</v>
+      </c>
+      <c r="K11" s="49">
+        <f>1-(124/584)</f>
+        <v>0.78767123287671237</v>
+      </c>
+      <c r="L11" s="49">
+        <f>1-(169/584)</f>
+        <v>0.71061643835616439</v>
+      </c>
+      <c r="M11" s="49">
+        <f>1-(358/584)</f>
+        <v>0.38698630136986301</v>
+      </c>
+      <c r="N11" s="50">
+        <f t="shared" si="0"/>
+        <v>0.56746575342465744</v>
+      </c>
+      <c r="R11" s="87"/>
+      <c r="S11" s="45" t="s">
+        <v>69</v>
+      </c>
+      <c r="T11" s="51">
+        <v>9.7959999999999992E-3</v>
+      </c>
+      <c r="U11" s="51">
+        <v>4.5659999999999999E-2</v>
+      </c>
+      <c r="V11" s="51">
+        <v>4.4852000000000003E-2</v>
+      </c>
+      <c r="W11" s="51">
+        <v>3.6096000000000003E-2</v>
+      </c>
+      <c r="X11" s="51">
+        <v>3.8075999999999999E-2</v>
+      </c>
+      <c r="Y11" s="51">
+        <v>1.9476E-2</v>
+      </c>
+      <c r="Z11" s="51">
+        <v>2.5196E-2</v>
+      </c>
+      <c r="AA11" s="51">
+        <v>1.9356000000000002E-2</v>
+      </c>
+      <c r="AB11" s="51">
+        <v>2.2348E-2</v>
+      </c>
+      <c r="AC11" s="51">
+        <v>3.9600000000000003E-2</v>
+      </c>
+      <c r="AD11" s="52">
+        <f t="shared" si="1"/>
+        <v>3.0045600000000006E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B14" s="88" t="s">
+        <v>109</v>
+      </c>
+      <c r="C14" s="88"/>
+      <c r="D14" s="87" t="s">
+        <v>100</v>
+      </c>
+      <c r="E14" s="87"/>
+      <c r="F14" s="87"/>
+      <c r="G14" s="87"/>
+      <c r="H14" s="87"/>
+      <c r="I14" s="87"/>
+      <c r="J14" s="87"/>
+      <c r="K14" s="87"/>
+      <c r="L14" s="87"/>
+      <c r="M14" s="87"/>
+      <c r="N14" s="89" t="s">
+        <v>105</v>
+      </c>
+      <c r="R14" s="88" t="s">
+        <v>109</v>
+      </c>
+      <c r="S14" s="88"/>
+      <c r="T14" s="87" t="s">
+        <v>100</v>
+      </c>
+      <c r="U14" s="87"/>
+      <c r="V14" s="87"/>
+      <c r="W14" s="87"/>
+      <c r="X14" s="87"/>
+      <c r="Y14" s="87"/>
+      <c r="Z14" s="87"/>
+      <c r="AA14" s="87"/>
+      <c r="AB14" s="87"/>
+      <c r="AC14" s="87"/>
+      <c r="AD14" s="89" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="15" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B15" s="88"/>
+      <c r="C15" s="88"/>
+      <c r="D15" s="45">
+        <v>1</v>
+      </c>
+      <c r="E15" s="45">
+        <v>2</v>
+      </c>
+      <c r="F15" s="45">
+        <v>3</v>
+      </c>
+      <c r="G15" s="45">
+        <v>4</v>
+      </c>
+      <c r="H15" s="45">
+        <v>5</v>
+      </c>
+      <c r="I15" s="45">
+        <v>6</v>
+      </c>
+      <c r="J15" s="45">
+        <v>7</v>
+      </c>
+      <c r="K15" s="45">
+        <v>8</v>
+      </c>
+      <c r="L15" s="45">
+        <v>9</v>
+      </c>
+      <c r="M15" s="45">
+        <v>10</v>
+      </c>
+      <c r="N15" s="89"/>
+      <c r="R15" s="88"/>
+      <c r="S15" s="88"/>
+      <c r="T15" s="45">
+        <v>1</v>
+      </c>
+      <c r="U15" s="45">
+        <v>2</v>
+      </c>
+      <c r="V15" s="45">
+        <v>3</v>
+      </c>
+      <c r="W15" s="45">
+        <v>4</v>
+      </c>
+      <c r="X15" s="45">
+        <v>5</v>
+      </c>
+      <c r="Y15" s="45">
+        <v>6</v>
+      </c>
+      <c r="Z15" s="45">
+        <v>7</v>
+      </c>
+      <c r="AA15" s="45">
+        <v>8</v>
+      </c>
+      <c r="AB15" s="45">
+        <v>9</v>
+      </c>
+      <c r="AC15" s="45">
+        <v>10</v>
+      </c>
+      <c r="AD15" s="89"/>
+    </row>
+    <row r="16" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B16" s="87" t="s">
+        <v>107</v>
+      </c>
+      <c r="C16" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="49">
+        <f>1-(126/980)</f>
+        <v>0.87142857142857144</v>
+      </c>
+      <c r="E16" s="49">
+        <f>1-(946/980)</f>
+        <v>3.469387755102038E-2</v>
+      </c>
+      <c r="F16" s="49">
+        <f>1-(925/980)</f>
+        <v>5.6122448979591844E-2</v>
+      </c>
+      <c r="G16" s="49">
+        <f>1-(972/980)</f>
+        <v>8.1632653061224358E-3</v>
+      </c>
+      <c r="H16" s="49">
+        <f>1-(1010/980)</f>
+        <v>-3.0612244897959107E-2</v>
+      </c>
+      <c r="I16" s="49">
+        <f>1-(995/980)</f>
+        <v>-1.5306122448979664E-2</v>
+      </c>
+      <c r="J16" s="49">
+        <f>1-(877/980)</f>
+        <v>0.10510204081632657</v>
+      </c>
+      <c r="K16" s="49">
+        <f>1-(1017/980)</f>
+        <v>-3.7755102040816224E-2</v>
+      </c>
+      <c r="L16" s="49">
+        <f>1-(990/980)</f>
+        <v>-1.0204081632652962E-2</v>
+      </c>
+      <c r="M16" s="49">
+        <f>1-(1002/980)</f>
+        <v>-2.2448979591836782E-2</v>
+      </c>
+      <c r="N16" s="50">
+        <f>AVERAGE(D16:M16)</f>
+        <v>9.5918367346938788E-2</v>
+      </c>
+      <c r="R16" s="87" t="s">
+        <v>108</v>
+      </c>
+      <c r="S16" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="T16" s="51">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="U16" s="51">
+        <v>0.10301200000000001</v>
+      </c>
+      <c r="V16" s="51">
+        <v>9.9108000000000002E-2</v>
+      </c>
+      <c r="W16" s="51">
+        <v>0.104328</v>
+      </c>
+      <c r="X16" s="51">
+        <v>0.10516</v>
+      </c>
+      <c r="Y16" s="51">
+        <v>0.10527599999999999</v>
+      </c>
+      <c r="Z16" s="51">
+        <v>9.8072000000000006E-2</v>
+      </c>
+      <c r="AA16" s="51">
+        <v>0.107804</v>
+      </c>
+      <c r="AB16" s="51">
+        <v>0.104436</v>
+      </c>
+      <c r="AC16" s="51">
+        <v>0.10556</v>
+      </c>
+      <c r="AD16" s="52">
+        <f>AVERAGE(T16:AC16)</f>
+        <v>9.6875600000000006E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="B17" s="87"/>
+      <c r="C17" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" s="49">
+        <f>1-(80/980)</f>
+        <v>0.91836734693877553</v>
+      </c>
+      <c r="E17" s="49">
+        <f>1-(920/980)</f>
+        <v>6.1224489795918324E-2</v>
+      </c>
+      <c r="F17" s="49">
+        <f>1-(873/980)</f>
+        <v>0.10918367346938773</v>
+      </c>
+      <c r="G17" s="49">
+        <f>1-(745/980)</f>
+        <v>0.23979591836734693</v>
+      </c>
+      <c r="H17" s="49">
+        <f>1-(853/980)</f>
+        <v>0.12959183673469388</v>
+      </c>
+      <c r="I17" s="49">
+        <f>1-(801/980)</f>
+        <v>0.18265306122448977</v>
+      </c>
+      <c r="J17" s="49">
+        <f>1-(882/980)</f>
+        <v>9.9999999999999978E-2</v>
+      </c>
+      <c r="K17" s="49">
+        <f>1-(971/980)</f>
+        <v>9.1836734693877542E-3</v>
+      </c>
+      <c r="L17" s="49">
+        <f>1-(865/980)</f>
+        <v>0.11734693877551017</v>
+      </c>
+      <c r="M17" s="49">
+        <f>1-(858/980)</f>
+        <v>0.1244897959183674</v>
+      </c>
+      <c r="N17" s="50">
+        <f t="shared" ref="N17:N21" si="2">AVERAGE(D17:M17)</f>
+        <v>0.19918367346938778</v>
+      </c>
+      <c r="R17" s="87"/>
+      <c r="S17" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="T17" s="51">
+        <v>2.3316E-2</v>
+      </c>
+      <c r="U17" s="51">
+        <v>9.1980000000000006E-2</v>
+      </c>
+      <c r="V17" s="51">
+        <v>8.8132000000000002E-2</v>
+      </c>
+      <c r="W17" s="51">
+        <v>7.9584000000000002E-2</v>
+      </c>
+      <c r="X17" s="51">
+        <v>8.6620000000000003E-2</v>
+      </c>
+      <c r="Y17" s="51">
+        <v>8.2323999999999994E-2</v>
+      </c>
+      <c r="Z17" s="51">
+        <v>8.8419999999999999E-2</v>
+      </c>
+      <c r="AA17" s="51">
+        <v>9.7552E-2</v>
+      </c>
+      <c r="AB17" s="51">
+        <v>8.8636000000000006E-2</v>
+      </c>
+      <c r="AC17" s="51">
+        <v>8.8275999999999993E-2</v>
+      </c>
+      <c r="AD17" s="52">
+        <f t="shared" ref="AD17:AD21" si="3">AVERAGE(T17:AC17)</f>
+        <v>8.1484000000000001E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="B18" s="87"/>
+      <c r="C18" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" s="49">
+        <f>1-(49/980)</f>
+        <v>0.95</v>
+      </c>
+      <c r="E18" s="49">
+        <f>1-(902/980)</f>
+        <v>7.9591836734693833E-2</v>
+      </c>
+      <c r="F18" s="49">
+        <f>1-(785/980)</f>
+        <v>0.19897959183673475</v>
+      </c>
+      <c r="G18" s="49">
+        <f>1-(602/980)</f>
+        <v>0.38571428571428568</v>
+      </c>
+      <c r="H18" s="49">
+        <f>1-(806/980)</f>
+        <v>0.17755102040816328</v>
+      </c>
+      <c r="I18" s="49">
+        <f>1-(489/980)</f>
+        <v>0.50102040816326532</v>
+      </c>
+      <c r="J18" s="49">
+        <f>1-(892/980)</f>
+        <v>8.9795918367346905E-2</v>
+      </c>
+      <c r="K18" s="49">
+        <f>1-(716/980)</f>
+        <v>0.26938775510204083</v>
+      </c>
+      <c r="L18" s="49">
+        <f>1-(696/980)</f>
+        <v>0.28979591836734697</v>
+      </c>
+      <c r="M18" s="49">
+        <f>1-(693/980)</f>
+        <v>0.29285714285714282</v>
+      </c>
+      <c r="N18" s="50">
+        <f t="shared" si="2"/>
+        <v>0.32346938775510203</v>
+      </c>
+      <c r="R18" s="87"/>
+      <c r="S18" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="T18" s="51">
+        <v>1.6504000000000001E-2</v>
+      </c>
+      <c r="U18" s="51">
+        <v>8.7723999999999996E-2</v>
+      </c>
+      <c r="V18" s="51">
+        <v>7.8168000000000001E-2</v>
+      </c>
+      <c r="W18" s="51">
+        <v>6.4963999999999994E-2</v>
+      </c>
+      <c r="X18" s="51">
+        <v>7.8771999999999995E-2</v>
+      </c>
+      <c r="Y18" s="51">
+        <v>5.6883999999999997E-2</v>
+      </c>
+      <c r="Z18" s="51">
+        <v>8.4103999999999998E-2</v>
+      </c>
+      <c r="AA18" s="51">
+        <v>7.4172000000000002E-2</v>
+      </c>
+      <c r="AB18" s="51">
+        <v>7.3576000000000003E-2</v>
+      </c>
+      <c r="AC18" s="51">
+        <v>7.3092000000000004E-2</v>
+      </c>
+      <c r="AD18" s="52">
+        <f t="shared" si="3"/>
+        <v>6.8795999999999996E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="B19" s="87"/>
+      <c r="C19" s="45" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" s="49">
+        <f>1-(31/980)</f>
+        <v>0.96836734693877546</v>
+      </c>
+      <c r="E19" s="49">
+        <f>1-(906/980)</f>
+        <v>7.551020408163267E-2</v>
+      </c>
+      <c r="F19" s="49">
+        <f>1-(670/980)</f>
+        <v>0.31632653061224492</v>
+      </c>
+      <c r="G19" s="49">
+        <f>1-(254/980)</f>
+        <v>0.74081632653061225</v>
+      </c>
+      <c r="H19" s="49">
+        <f>1-(801/980)</f>
+        <v>0.18265306122448977</v>
+      </c>
+      <c r="I19" s="49">
+        <f>1-(265/980)</f>
+        <v>0.72959183673469385</v>
+      </c>
+      <c r="J19" s="49">
+        <f>1-(320/980)</f>
+        <v>0.67346938775510212</v>
+      </c>
+      <c r="K19" s="49">
+        <f>1-(499/980)</f>
+        <v>0.49081632653061225</v>
+      </c>
+      <c r="L19" s="49">
+        <f>1-(632/980)</f>
+        <v>0.35510204081632657</v>
+      </c>
+      <c r="M19" s="49">
+        <f>1-(611/980)</f>
+        <v>0.37653061224489792</v>
+      </c>
+      <c r="N19" s="50">
+        <f t="shared" si="2"/>
+        <v>0.49091836734693883</v>
+      </c>
+      <c r="R19" s="87"/>
+      <c r="S19" s="45" t="s">
+        <v>52</v>
+      </c>
+      <c r="T19" s="51">
+        <v>1.3812E-2</v>
+      </c>
+      <c r="U19" s="51">
+        <v>8.8555999999999996E-2</v>
+      </c>
+      <c r="V19" s="51">
+        <v>6.9959999999999994E-2</v>
+      </c>
+      <c r="W19" s="51">
+        <v>3.3180000000000001E-2</v>
+      </c>
+      <c r="X19" s="51">
+        <v>7.7619999999999995E-2</v>
+      </c>
+      <c r="Y19" s="51">
+        <v>3.7476000000000002E-2</v>
+      </c>
+      <c r="Z19" s="51">
+        <v>3.5456000000000001E-2</v>
+      </c>
+      <c r="AA19" s="51">
+        <v>5.6680000000000001E-2</v>
+      </c>
+      <c r="AB19" s="51">
+        <v>6.7972000000000005E-2</v>
+      </c>
+      <c r="AC19" s="51">
+        <v>6.6516000000000006E-2</v>
+      </c>
+      <c r="AD19" s="52">
+        <f t="shared" si="3"/>
+        <v>5.4722799999999995E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="B20" s="87"/>
+      <c r="C20" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" s="49">
+        <f>1-(19/980)</f>
+        <v>0.98061224489795917</v>
+      </c>
+      <c r="E20" s="49">
+        <f>1-(579/980)</f>
+        <v>0.40918367346938778</v>
+      </c>
+      <c r="F20" s="49">
+        <f>1-(597/980)</f>
+        <v>0.39081632653061227</v>
+      </c>
+      <c r="G20" s="49">
+        <f>1-(264/980)</f>
+        <v>0.73061224489795917</v>
+      </c>
+      <c r="H20" s="49">
+        <f>1-(708/980)</f>
+        <v>0.27755102040816326</v>
+      </c>
+      <c r="I20" s="49">
+        <f>1-(217/980)</f>
+        <v>0.77857142857142858</v>
+      </c>
+      <c r="J20" s="49">
+        <f>1-(314/980)</f>
+        <v>0.67959183673469381</v>
+      </c>
+      <c r="K20" s="49">
+        <f>1-(516/980)</f>
+        <v>0.47346938775510206</v>
+      </c>
+      <c r="L20" s="49">
+        <f>1-(630/980)</f>
+        <v>0.3571428571428571</v>
+      </c>
+      <c r="M20" s="49">
+        <f>1-(615/980)</f>
+        <v>0.37244897959183676</v>
+      </c>
+      <c r="N20" s="50">
+        <f t="shared" si="2"/>
+        <v>0.54499999999999993</v>
+      </c>
+      <c r="R20" s="87"/>
+      <c r="S20" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="T20" s="51">
+        <v>1.2840000000000001E-2</v>
+      </c>
+      <c r="U20" s="51">
+        <v>6.3624E-2</v>
+      </c>
+      <c r="V20" s="51">
+        <v>6.5643999999999994E-2</v>
+      </c>
+      <c r="W20" s="51">
+        <v>3.6611999999999999E-2</v>
+      </c>
+      <c r="X20" s="51">
+        <v>7.2835999999999998E-2</v>
+      </c>
+      <c r="Y20" s="51">
+        <v>3.3568000000000001E-2</v>
+      </c>
+      <c r="Z20" s="51">
+        <v>3.7744E-2</v>
+      </c>
+      <c r="AA20" s="51">
+        <v>6.1047999999999998E-2</v>
+      </c>
+      <c r="AB20" s="51">
+        <v>7.2896000000000002E-2</v>
+      </c>
+      <c r="AC20" s="51">
+        <v>7.2172E-2</v>
+      </c>
+      <c r="AD20" s="52">
+        <f t="shared" si="3"/>
+        <v>5.2898399999999998E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="B21" s="87"/>
+      <c r="C21" s="45" t="s">
+        <v>69</v>
+      </c>
+      <c r="D21" s="49">
+        <f>1-(12/980)</f>
+        <v>0.98775510204081629</v>
+      </c>
+      <c r="E21" s="49">
+        <f>1-(558/980)</f>
+        <v>0.43061224489795913</v>
+      </c>
+      <c r="F21" s="49">
+        <f>1-(534/980)</f>
+        <v>0.45510204081632655</v>
+      </c>
+      <c r="G21" s="49">
+        <f>1-(268/980)</f>
+        <v>0.72653061224489801</v>
+      </c>
+      <c r="H21" s="49">
+        <f>1-(348/980)</f>
+        <v>0.64489795918367343</v>
+      </c>
+      <c r="I21" s="49">
+        <f>1-(116/980)</f>
+        <v>0.88163265306122451</v>
+      </c>
+      <c r="J21" s="49">
+        <f>1-(314/980)</f>
+        <v>0.67959183673469381</v>
+      </c>
+      <c r="K21" s="49">
+        <f>1-(510/980)</f>
+        <v>0.47959183673469385</v>
+      </c>
+      <c r="L21" s="49">
+        <f>1-(614/980)</f>
+        <v>0.37346938775510208</v>
+      </c>
+      <c r="M21" s="49">
+        <f>1-(597/980)</f>
+        <v>0.39081632653061227</v>
+      </c>
+      <c r="N21" s="50">
+        <f t="shared" si="2"/>
+        <v>0.60499999999999998</v>
+      </c>
+      <c r="R21" s="87"/>
+      <c r="S21" s="45" t="s">
+        <v>69</v>
+      </c>
+      <c r="T21" s="51">
+        <v>1.3731999999999999E-2</v>
+      </c>
+      <c r="U21" s="51">
+        <v>6.3600000000000004E-2</v>
+      </c>
+      <c r="V21" s="51">
+        <v>6.2556E-2</v>
+      </c>
+      <c r="W21" s="51">
+        <v>3.7560000000000003E-2</v>
+      </c>
+      <c r="X21" s="51">
+        <v>4.0267999999999998E-2</v>
+      </c>
+      <c r="Y21" s="51">
+        <v>2.0992E-2</v>
+      </c>
+      <c r="Z21" s="51">
+        <v>3.9064000000000002E-2</v>
+      </c>
+      <c r="AA21" s="51">
+        <v>6.4876000000000003E-2</v>
+      </c>
+      <c r="AB21" s="51">
+        <v>7.8504000000000004E-2</v>
+      </c>
+      <c r="AC21" s="51">
+        <v>7.7815999999999996E-2</v>
+      </c>
+      <c r="AD21" s="52">
+        <f t="shared" si="3"/>
+        <v>4.9896800000000005E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="B24" s="88" t="s">
+        <v>110</v>
+      </c>
+      <c r="C24" s="88"/>
+      <c r="D24" s="87" t="s">
+        <v>100</v>
+      </c>
+      <c r="E24" s="87"/>
+      <c r="F24" s="87"/>
+      <c r="G24" s="87"/>
+      <c r="H24" s="87"/>
+      <c r="I24" s="87"/>
+      <c r="J24" s="87"/>
+      <c r="K24" s="87"/>
+      <c r="L24" s="87"/>
+      <c r="M24" s="87"/>
+      <c r="N24" s="89" t="s">
+        <v>105</v>
+      </c>
+      <c r="R24" s="88" t="s">
+        <v>110</v>
+      </c>
+      <c r="S24" s="88"/>
+      <c r="T24" s="87" t="s">
+        <v>100</v>
+      </c>
+      <c r="U24" s="87"/>
+      <c r="V24" s="87"/>
+      <c r="W24" s="87"/>
+      <c r="X24" s="87"/>
+      <c r="Y24" s="87"/>
+      <c r="Z24" s="87"/>
+      <c r="AA24" s="87"/>
+      <c r="AB24" s="87"/>
+      <c r="AC24" s="87"/>
+      <c r="AD24" s="89" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="B25" s="88"/>
+      <c r="C25" s="88"/>
+      <c r="D25" s="45">
+        <v>1</v>
+      </c>
+      <c r="E25" s="45">
+        <v>2</v>
+      </c>
+      <c r="F25" s="45">
+        <v>3</v>
+      </c>
+      <c r="G25" s="45">
+        <v>4</v>
+      </c>
+      <c r="H25" s="45">
+        <v>5</v>
+      </c>
+      <c r="I25" s="45">
+        <v>6</v>
+      </c>
+      <c r="J25" s="45">
+        <v>7</v>
+      </c>
+      <c r="K25" s="45">
+        <v>8</v>
+      </c>
+      <c r="L25" s="45">
+        <v>9</v>
+      </c>
+      <c r="M25" s="45">
+        <v>10</v>
+      </c>
+      <c r="N25" s="89"/>
+      <c r="R25" s="88"/>
+      <c r="S25" s="88"/>
+      <c r="T25" s="45">
+        <v>1</v>
+      </c>
+      <c r="U25" s="45">
+        <v>2</v>
+      </c>
+      <c r="V25" s="45">
+        <v>3</v>
+      </c>
+      <c r="W25" s="45">
+        <v>4</v>
+      </c>
+      <c r="X25" s="45">
+        <v>5</v>
+      </c>
+      <c r="Y25" s="45">
+        <v>6</v>
+      </c>
+      <c r="Z25" s="45">
+        <v>7</v>
+      </c>
+      <c r="AA25" s="45">
+        <v>8</v>
+      </c>
+      <c r="AB25" s="45">
+        <v>9</v>
+      </c>
+      <c r="AC25" s="45">
+        <v>10</v>
+      </c>
+      <c r="AD25" s="89"/>
+    </row>
+    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="B26" s="87" t="s">
+        <v>107</v>
+      </c>
+      <c r="C26" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26" s="49">
+        <f>1-(163/1280)</f>
+        <v>0.87265625000000002</v>
+      </c>
+      <c r="E26" s="49">
+        <f>1-(1232/1280)</f>
+        <v>3.7499999999999978E-2</v>
+      </c>
+      <c r="F26" s="49">
+        <f>1-(1345/1280)</f>
+        <v>-5.078125E-2</v>
+      </c>
+      <c r="G26" s="49">
+        <f>1-(1264/1280)</f>
+        <v>1.2499999999999956E-2</v>
+      </c>
+      <c r="H26" s="49">
+        <f>1-(1326/1280)</f>
+        <v>-3.5937499999999956E-2</v>
+      </c>
+      <c r="I26" s="49">
+        <f>1-(1365/1280)</f>
+        <v>-6.640625E-2</v>
+      </c>
+      <c r="J26" s="49">
+        <f>1-(1104/1280)</f>
+        <v>0.13749999999999996</v>
+      </c>
+      <c r="K26" s="49">
+        <f>1-(1345/1280)</f>
+        <v>-5.078125E-2</v>
+      </c>
+      <c r="L26" s="49">
+        <f>1-(1351/1280)</f>
+        <v>-5.5468749999999956E-2</v>
+      </c>
+      <c r="M26" s="49">
+        <f>1-(1023/1280)</f>
+        <v>0.20078125000000002</v>
+      </c>
+      <c r="N26" s="50">
+        <f>AVERAGE(D26:M26)</f>
+        <v>0.10015624999999999</v>
+      </c>
+      <c r="R26" s="87" t="s">
+        <v>108</v>
+      </c>
+      <c r="S26" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="T26" s="51">
+        <v>4.6783999999999999E-2</v>
+      </c>
+      <c r="U26" s="51">
+        <v>0.13430800000000001</v>
+      </c>
+      <c r="V26" s="51">
+        <v>0.14149999999999999</v>
+      </c>
+      <c r="W26" s="51">
+        <v>0.13453999999999999</v>
+      </c>
+      <c r="X26" s="51">
+        <v>0.14152000000000001</v>
+      </c>
+      <c r="Y26" s="51">
+        <v>0.14224000000000001</v>
+      </c>
+      <c r="Z26" s="51">
+        <v>0.12944800000000001</v>
+      </c>
+      <c r="AA26" s="51">
+        <v>0.14002800000000001</v>
+      </c>
+      <c r="AB26" s="51">
+        <v>0.14033599999999999</v>
+      </c>
+      <c r="AC26" s="51">
+        <v>0.122632</v>
+      </c>
+      <c r="AD26" s="52">
+        <f>AVERAGE(T26:AC26)</f>
+        <v>0.12733359999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="B27" s="87"/>
+      <c r="C27" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="D27" s="49">
+        <f>1-(103/1280)</f>
+        <v>0.91953125000000002</v>
+      </c>
+      <c r="E27" s="49">
+        <f>1-(1205/1280)</f>
+        <v>5.859375E-2</v>
+      </c>
+      <c r="F27" s="49">
+        <f>1-(1284/1280)</f>
+        <v>-3.1250000000000444E-3</v>
+      </c>
+      <c r="G27" s="49">
+        <f>1-(1033/1280)</f>
+        <v>0.19296875000000002</v>
+      </c>
+      <c r="H27" s="49">
+        <f>1-(1233/1280)</f>
+        <v>3.6718750000000022E-2</v>
+      </c>
+      <c r="I27" s="49">
+        <f>1-(1277/1280)</f>
+        <v>2.3437499999999778E-3</v>
+      </c>
+      <c r="J27" s="49">
+        <f>1-(1018/1280)</f>
+        <v>0.20468750000000002</v>
+      </c>
+      <c r="K27" s="49">
+        <f>1-(1275/1280)</f>
+        <v>3.90625E-3</v>
+      </c>
+      <c r="L27" s="49">
+        <f>1-(1299/1280)</f>
+        <v>-1.4843750000000044E-2</v>
+      </c>
+      <c r="M27" s="49">
+        <f>1-(920/1280)</f>
+        <v>0.28125</v>
+      </c>
+      <c r="N27" s="50">
+        <f t="shared" ref="N27:N31" si="4">AVERAGE(D27:M27)</f>
+        <v>0.16820312499999998</v>
+      </c>
+      <c r="R27" s="87"/>
+      <c r="S27" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="T27" s="51">
+        <v>2.9956E-2</v>
+      </c>
+      <c r="U27" s="51">
+        <v>0.120004</v>
+      </c>
+      <c r="V27" s="51">
+        <v>0.12806400000000001</v>
+      </c>
+      <c r="W27" s="51">
+        <v>0.10656</v>
+      </c>
+      <c r="X27" s="51">
+        <v>0.12515599999999999</v>
+      </c>
+      <c r="Y27" s="51">
+        <v>0.12678</v>
+      </c>
+      <c r="Z27" s="51">
+        <v>0.114456</v>
+      </c>
+      <c r="AA27" s="51">
+        <v>0.12634799999999999</v>
+      </c>
+      <c r="AB27" s="51">
+        <v>0.12698799999999999</v>
+      </c>
+      <c r="AC27" s="51">
+        <v>0.104836</v>
+      </c>
+      <c r="AD27" s="52">
+        <f t="shared" ref="AD27:AD31" si="5">AVERAGE(T27:AC27)</f>
+        <v>0.11091480000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="B28" s="87"/>
+      <c r="C28" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="D28" s="49">
+        <f>1-(63/1280)</f>
+        <v>0.95078125000000002</v>
+      </c>
+      <c r="E28" s="49">
+        <f>1-(1191/1280)</f>
+        <v>6.9531250000000044E-2</v>
+      </c>
+      <c r="F28" s="49">
+        <f>1-(1040/1280)</f>
+        <v>0.1875</v>
+      </c>
+      <c r="G28" s="49">
+        <f>1-(930/1280)</f>
+        <v>0.2734375</v>
+      </c>
+      <c r="H28" s="49">
+        <f>1-(1114/1280)</f>
+        <v>0.12968749999999996</v>
+      </c>
+      <c r="I28" s="49">
+        <f>1-(966/1280)</f>
+        <v>0.24531250000000004</v>
+      </c>
+      <c r="J28" s="49">
+        <f>1-(972/1280)</f>
+        <v>0.24062499999999998</v>
+      </c>
+      <c r="K28" s="49">
+        <f>1-(444/1280)</f>
+        <v>0.65312499999999996</v>
+      </c>
+      <c r="L28" s="49">
+        <f>1-(415/1280)</f>
+        <v>0.67578125</v>
+      </c>
+      <c r="M28" s="49">
+        <f>1-(878/1280)</f>
+        <v>0.31406250000000002</v>
+      </c>
+      <c r="N28" s="50">
+        <f t="shared" si="4"/>
+        <v>0.37398437499999998</v>
+      </c>
+      <c r="R28" s="87"/>
+      <c r="S28" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="T28" s="51">
+        <v>2.1319999999999999E-2</v>
+      </c>
+      <c r="U28" s="51">
+        <v>0.115304</v>
+      </c>
+      <c r="V28" s="51">
+        <v>0.104852</v>
+      </c>
+      <c r="W28" s="51">
+        <v>9.5560000000000006E-2</v>
+      </c>
+      <c r="X28" s="51">
+        <v>0.11336</v>
+      </c>
+      <c r="Y28" s="51">
+        <v>9.9804000000000004E-2</v>
+      </c>
+      <c r="Z28" s="51">
+        <v>0.109652</v>
+      </c>
+      <c r="AA28" s="51">
+        <v>6.1011999999999997E-2</v>
+      </c>
+      <c r="AB28" s="51">
+        <v>5.9364E-2</v>
+      </c>
+      <c r="AC28" s="51">
+        <v>9.6820000000000003E-2</v>
+      </c>
+      <c r="AD28" s="52">
+        <f t="shared" si="5"/>
+        <v>8.7704799999999999E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="B29" s="87"/>
+      <c r="C29" s="45" t="s">
+        <v>52</v>
+      </c>
+      <c r="D29" s="49">
+        <f>1-(38/1280)</f>
+        <v>0.97031250000000002</v>
+      </c>
+      <c r="E29" s="49">
+        <f>1-(1147/1280)</f>
+        <v>0.10390624999999998</v>
+      </c>
+      <c r="F29" s="49">
+        <f>1-(727/1280)</f>
+        <v>0.43203124999999998</v>
+      </c>
+      <c r="G29" s="49">
+        <f>1-(767/1280)</f>
+        <v>0.40078124999999998</v>
+      </c>
+      <c r="H29" s="49">
+        <f>1-(1011/1280)</f>
+        <v>0.21015625000000004</v>
+      </c>
+      <c r="I29" s="49">
+        <f>1-(964/1280)</f>
+        <v>0.24687499999999996</v>
+      </c>
+      <c r="J29" s="49">
+        <f>1-(965/1280)</f>
+        <v>0.24609375</v>
+      </c>
+      <c r="K29" s="49">
+        <f>1-(232/1280)</f>
+        <v>0.81874999999999998</v>
+      </c>
+      <c r="L29" s="49">
+        <f>1-(229/1280)</f>
+        <v>0.82109374999999996</v>
+      </c>
+      <c r="M29" s="49">
+        <f>1-(841/1280)</f>
+        <v>0.34296875000000004</v>
+      </c>
+      <c r="N29" s="50">
+        <f t="shared" si="4"/>
+        <v>0.45929687499999999</v>
+      </c>
+      <c r="R29" s="87"/>
+      <c r="S29" s="45" t="s">
+        <v>52</v>
+      </c>
+      <c r="T29" s="51">
+        <v>1.7191999999999999E-2</v>
+      </c>
+      <c r="U29" s="51">
+        <v>0.11322</v>
+      </c>
+      <c r="V29" s="51">
+        <v>7.9880000000000007E-2</v>
+      </c>
+      <c r="W29" s="51">
+        <v>8.1867999999999996E-2</v>
+      </c>
+      <c r="X29" s="51">
+        <v>0.10635600000000001</v>
+      </c>
+      <c r="Y29" s="51">
+        <v>9.9696000000000007E-2</v>
+      </c>
+      <c r="Z29" s="51">
+        <v>0.112556</v>
+      </c>
+      <c r="AA29" s="51">
+        <v>3.8032000000000003E-2</v>
+      </c>
+      <c r="AB29" s="51">
+        <v>3.8067999999999998E-2</v>
+      </c>
+      <c r="AC29" s="51">
+        <v>9.1188000000000005E-2</v>
+      </c>
+      <c r="AD29" s="52">
+        <f t="shared" si="5"/>
+        <v>7.7805600000000003E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="B30" s="87"/>
+      <c r="C30" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="D30" s="49">
+        <f>1-(23/1280)</f>
+        <v>0.98203125000000002</v>
+      </c>
+      <c r="E30" s="49">
+        <f>1-(590/1280)</f>
+        <v>0.5390625</v>
+      </c>
+      <c r="F30" s="49">
+        <f>1-(692/1280)</f>
+        <v>0.45937499999999998</v>
+      </c>
+      <c r="G30" s="49">
+        <f>1-(762/1280)</f>
+        <v>0.40468749999999998</v>
+      </c>
+      <c r="H30" s="49">
+        <f>1-(992/1280)</f>
+        <v>0.22499999999999998</v>
+      </c>
+      <c r="I30" s="49">
+        <f>1-(937/1280)</f>
+        <v>0.26796874999999998</v>
+      </c>
+      <c r="J30" s="49">
+        <f>1-(1008/1280)</f>
+        <v>0.21250000000000002</v>
+      </c>
+      <c r="K30" s="49">
+        <f>1-(242/1280)</f>
+        <v>0.81093749999999998</v>
+      </c>
+      <c r="L30" s="49">
+        <f>1-(241/1280)</f>
+        <v>0.81171875000000004</v>
+      </c>
+      <c r="M30" s="49">
+        <f>1-(884/1280)</f>
+        <v>0.30937499999999996</v>
+      </c>
+      <c r="N30" s="50">
+        <f t="shared" si="4"/>
+        <v>0.50226562500000005</v>
+      </c>
+      <c r="R30" s="87"/>
+      <c r="S30" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="T30" s="51">
+        <v>1.5740000000000001E-2</v>
+      </c>
+      <c r="U30" s="51">
+        <v>6.7535999999999999E-2</v>
+      </c>
+      <c r="V30" s="51">
+        <v>8.2156000000000007E-2</v>
+      </c>
+      <c r="W30" s="51">
+        <v>8.4428000000000003E-2</v>
+      </c>
+      <c r="X30" s="51">
+        <v>0.116148</v>
+      </c>
+      <c r="Y30" s="51">
+        <v>0.105112</v>
+      </c>
+      <c r="Z30" s="51">
+        <v>0.136576</v>
+      </c>
+      <c r="AA30" s="51">
+        <v>3.6651999999999997E-2</v>
+      </c>
+      <c r="AB30" s="51">
+        <v>3.8328000000000001E-2</v>
+      </c>
+      <c r="AC30" s="51">
+        <v>0.101328</v>
+      </c>
+      <c r="AD30" s="52">
+        <f t="shared" si="5"/>
+        <v>7.8400400000000009E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>112</v>
+      </c>
+      <c r="B31" s="87"/>
+      <c r="C31" s="106" t="s">
+        <v>69</v>
+      </c>
+      <c r="D31" s="107">
+        <f t="shared" ref="D31" si="6">1-(0/1280)</f>
+        <v>1</v>
+      </c>
+      <c r="E31" s="107">
+        <f t="shared" ref="E31:M31" si="7">1-(0/1280)</f>
+        <v>1</v>
+      </c>
+      <c r="F31" s="107">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="G31" s="107">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="H31" s="107">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="I31" s="107">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="J31" s="107">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="K31" s="107">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="L31" s="107">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="M31" s="107">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="N31" s="107">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="R31" s="87"/>
+      <c r="S31" s="106" t="s">
+        <v>69</v>
+      </c>
+      <c r="T31" s="108">
+        <v>0</v>
+      </c>
+      <c r="U31" s="108">
+        <v>0</v>
+      </c>
+      <c r="V31" s="108">
+        <v>0</v>
+      </c>
+      <c r="W31" s="108">
+        <v>0</v>
+      </c>
+      <c r="X31" s="108">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="108">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="108">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="108">
+        <v>0</v>
+      </c>
+      <c r="AB31" s="108">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="108">
+        <v>0</v>
+      </c>
+      <c r="AD31" s="108">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="B34" s="88" t="s">
+        <v>111</v>
+      </c>
+      <c r="C34" s="88"/>
+      <c r="D34" s="87" t="s">
+        <v>100</v>
+      </c>
+      <c r="E34" s="87"/>
+      <c r="F34" s="87"/>
+      <c r="G34" s="87"/>
+      <c r="H34" s="87"/>
+      <c r="I34" s="87"/>
+      <c r="J34" s="87"/>
+      <c r="K34" s="87"/>
+      <c r="L34" s="87"/>
+      <c r="M34" s="87"/>
+      <c r="N34" s="89" t="s">
+        <v>105</v>
+      </c>
+      <c r="R34" s="88" t="s">
+        <v>111</v>
+      </c>
+      <c r="S34" s="88"/>
+      <c r="T34" s="87" t="s">
+        <v>100</v>
+      </c>
+      <c r="U34" s="87"/>
+      <c r="V34" s="87"/>
+      <c r="W34" s="87"/>
+      <c r="X34" s="87"/>
+      <c r="Y34" s="87"/>
+      <c r="Z34" s="87"/>
+      <c r="AA34" s="87"/>
+      <c r="AB34" s="87"/>
+      <c r="AC34" s="87"/>
+      <c r="AD34" s="89" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="35" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="B35" s="88"/>
+      <c r="C35" s="88"/>
+      <c r="D35" s="45">
+        <v>1</v>
+      </c>
+      <c r="E35" s="45">
+        <v>2</v>
+      </c>
+      <c r="F35" s="45">
+        <v>3</v>
+      </c>
+      <c r="G35" s="45">
+        <v>4</v>
+      </c>
+      <c r="H35" s="45">
+        <v>5</v>
+      </c>
+      <c r="I35" s="45">
+        <v>6</v>
+      </c>
+      <c r="J35" s="45">
+        <v>7</v>
+      </c>
+      <c r="K35" s="45">
+        <v>8</v>
+      </c>
+      <c r="L35" s="45">
+        <v>9</v>
+      </c>
+      <c r="M35" s="45">
+        <v>10</v>
+      </c>
+      <c r="N35" s="89"/>
+      <c r="R35" s="88"/>
+      <c r="S35" s="88"/>
+      <c r="T35" s="45">
+        <v>1</v>
+      </c>
+      <c r="U35" s="45">
+        <v>2</v>
+      </c>
+      <c r="V35" s="45">
+        <v>3</v>
+      </c>
+      <c r="W35" s="45">
+        <v>4</v>
+      </c>
+      <c r="X35" s="45">
+        <v>5</v>
+      </c>
+      <c r="Y35" s="45">
+        <v>6</v>
+      </c>
+      <c r="Z35" s="45">
+        <v>7</v>
+      </c>
+      <c r="AA35" s="45">
+        <v>8</v>
+      </c>
+      <c r="AB35" s="45">
+        <v>9</v>
+      </c>
+      <c r="AC35" s="45">
+        <v>10</v>
+      </c>
+      <c r="AD35" s="89"/>
+    </row>
+    <row r="36" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="B36" s="87" t="s">
+        <v>107</v>
+      </c>
+      <c r="C36" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="D36" s="49">
+        <f>1-(171/1345)</f>
+        <v>0.87286245353159853</v>
+      </c>
+      <c r="E36" s="49">
+        <f>1-(1287/1345)</f>
+        <v>4.3122676579925634E-2</v>
+      </c>
+      <c r="F36" s="49">
+        <f>1-(1412/1345)</f>
+        <v>-4.9814126394052138E-2</v>
+      </c>
+      <c r="G36" s="49">
+        <f>1-(1330/1345)</f>
+        <v>1.1152416356877359E-2</v>
+      </c>
+      <c r="H36" s="49">
+        <f>1-(1389/1345)</f>
+        <v>-3.2713754646840121E-2</v>
+      </c>
+      <c r="I36" s="49">
+        <f>1-(1427/1345)</f>
+        <v>-6.0966542750929387E-2</v>
+      </c>
+      <c r="J36" s="49">
+        <f>1-(1163/1345)</f>
+        <v>0.13531598513011156</v>
+      </c>
+      <c r="K36" s="49">
+        <f>1-(1412/1345)</f>
+        <v>-4.9814126394052138E-2</v>
+      </c>
+      <c r="L36" s="49">
+        <f>1-(1420/1345)</f>
+        <v>-5.5762081784386686E-2</v>
+      </c>
+      <c r="M36" s="49">
+        <f>1-(1067/1345)</f>
+        <v>0.20669144981412635</v>
+      </c>
+      <c r="N36" s="50">
+        <f>AVERAGE(D36:M36)</f>
+        <v>0.10200743494423789</v>
+      </c>
+      <c r="R36" s="87" t="s">
+        <v>108</v>
+      </c>
+      <c r="S36" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="T36" s="51">
+        <v>4.9096000000000001E-2</v>
+      </c>
+      <c r="U36" s="51">
+        <v>0.14039199999999999</v>
+      </c>
+      <c r="V36" s="51">
+        <v>0.14860799999999999</v>
+      </c>
+      <c r="W36" s="51">
+        <v>0.14174800000000001</v>
+      </c>
+      <c r="X36" s="51">
+        <v>0.14821599999999999</v>
+      </c>
+      <c r="Y36" s="51">
+        <v>0.14899599999999999</v>
+      </c>
+      <c r="Z36" s="51">
+        <v>0.13625599999999999</v>
+      </c>
+      <c r="AA36" s="51">
+        <v>0.14705199999999999</v>
+      </c>
+      <c r="AB36" s="51">
+        <v>0.14749200000000001</v>
+      </c>
+      <c r="AC36" s="51">
+        <v>0.128608</v>
+      </c>
+      <c r="AD36" s="52">
+        <f>AVERAGE(T36:AC36)</f>
+        <v>0.1336464</v>
+      </c>
+    </row>
+    <row r="37" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="B37" s="87"/>
+      <c r="C37" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="D37" s="49">
+        <f>1-(108/1345)</f>
+        <v>0.91970260223048328</v>
+      </c>
+      <c r="E37" s="49">
+        <f>1-(1263/1345)</f>
+        <v>6.0966542750929387E-2</v>
+      </c>
+      <c r="F37" s="49">
+        <f>1-(1350/1345)</f>
+        <v>-3.7174721189590088E-3</v>
+      </c>
+      <c r="G37" s="49">
+        <f>1-(1080/1345)</f>
+        <v>0.19702602230483268</v>
+      </c>
+      <c r="H37" s="49">
+        <f>1-(1296/1345)</f>
+        <v>3.6431226765799241E-2</v>
+      </c>
+      <c r="I37" s="49">
+        <f>1-(1329/1345)</f>
+        <v>1.1895910780669094E-2</v>
+      </c>
+      <c r="J37" s="49">
+        <f>1-(1078/1345)</f>
+        <v>0.19851301115241637</v>
+      </c>
+      <c r="K37" s="49">
+        <f>1-(1340/1345)</f>
+        <v>3.7174721189591198E-3</v>
+      </c>
+      <c r="L37" s="49">
+        <f>1-(1366/1345)</f>
+        <v>-1.5613382899628325E-2</v>
+      </c>
+      <c r="M37" s="49">
+        <f>1-(955/1345)</f>
+        <v>0.28996282527881045</v>
+      </c>
+      <c r="N37" s="50">
+        <f t="shared" ref="N37:N41" si="8">AVERAGE(D37:M37)</f>
+        <v>0.16988847583643124</v>
+      </c>
+      <c r="R37" s="87"/>
+      <c r="S37" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="T37" s="51">
+        <v>3.1415999999999999E-2</v>
+      </c>
+      <c r="U37" s="51">
+        <v>0.12640399999999999</v>
+      </c>
+      <c r="V37" s="51">
+        <v>0.13466800000000001</v>
+      </c>
+      <c r="W37" s="51">
+        <v>0.11135200000000001</v>
+      </c>
+      <c r="X37" s="51">
+        <v>0.13167999999999999</v>
+      </c>
+      <c r="Y37" s="51">
+        <v>0.13233600000000001</v>
+      </c>
+      <c r="Z37" s="51">
+        <v>0.12044000000000001</v>
+      </c>
+      <c r="AA37" s="51">
+        <v>0.13252800000000001</v>
+      </c>
+      <c r="AB37" s="51">
+        <v>0.133572</v>
+      </c>
+      <c r="AC37" s="51">
+        <v>0.10981200000000001</v>
+      </c>
+      <c r="AD37" s="52">
+        <f t="shared" ref="AD37:AD41" si="9">AVERAGE(T37:AC37)</f>
+        <v>0.11642079999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="B38" s="87"/>
+      <c r="C38" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="D38" s="49">
+        <f>1-(66/1345)</f>
+        <v>0.95092936802973982</v>
+      </c>
+      <c r="E38" s="49">
+        <f>1-(1250/1345)</f>
+        <v>7.0631970260223054E-2</v>
+      </c>
+      <c r="F38" s="49">
+        <f>1-(1070/1345)</f>
+        <v>0.20446096654275092</v>
+      </c>
+      <c r="G38" s="49">
+        <f>1-(965/1345)</f>
+        <v>0.28252788104089221</v>
+      </c>
+      <c r="H38" s="49">
+        <f>1-(1171/1345)</f>
+        <v>0.1293680297397769</v>
+      </c>
+      <c r="I38" s="49">
+        <f>1-(1019/1345)</f>
+        <v>0.24237918215613385</v>
+      </c>
+      <c r="J38" s="49">
+        <f>1-(1023/1345)</f>
+        <v>0.23940520446096658</v>
+      </c>
+      <c r="K38" s="49">
+        <f>1-(459/1345)</f>
+        <v>0.65873605947955394</v>
+      </c>
+      <c r="L38" s="49">
+        <f>1-(438/1345)</f>
+        <v>0.67434944237918215</v>
+      </c>
+      <c r="M38" s="49">
+        <f>1-(915/1345)</f>
+        <v>0.3197026022304833</v>
+      </c>
+      <c r="N38" s="50">
+        <f t="shared" si="8"/>
+        <v>0.37724907063197022</v>
+      </c>
+      <c r="R38" s="87"/>
+      <c r="S38" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="T38" s="51">
+        <v>2.2332000000000001E-2</v>
+      </c>
+      <c r="U38" s="51">
+        <v>0.12016</v>
+      </c>
+      <c r="V38" s="51">
+        <v>0.108376</v>
+      </c>
+      <c r="W38" s="51">
+        <v>9.9092E-2</v>
+      </c>
+      <c r="X38" s="51">
+        <v>0.11926</v>
+      </c>
+      <c r="Y38" s="51">
+        <v>0.105184</v>
+      </c>
+      <c r="Z38" s="51">
+        <v>0.11550000000000001</v>
+      </c>
+      <c r="AA38" s="51">
+        <v>6.3644000000000006E-2</v>
+      </c>
+      <c r="AB38" s="51">
+        <v>6.2128000000000003E-2</v>
+      </c>
+      <c r="AC38" s="51">
+        <v>0.10173599999999999</v>
+      </c>
+      <c r="AD38" s="52">
+        <f t="shared" si="9"/>
+        <v>9.1741199999999995E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="B39" s="87"/>
+      <c r="C39" s="45" t="s">
+        <v>52</v>
+      </c>
+      <c r="D39" s="49">
+        <f>1-(39/1345)</f>
+        <v>0.971003717472119</v>
+      </c>
+      <c r="E39" s="49">
+        <f>1-(1208/1345)</f>
+        <v>0.10185873605947959</v>
+      </c>
+      <c r="F39" s="49">
+        <f>1-(758/1345)</f>
+        <v>0.43643122676579926</v>
+      </c>
+      <c r="G39" s="49">
+        <f>1-(803/1345)</f>
+        <v>0.4029739776951673</v>
+      </c>
+      <c r="H39" s="49">
+        <f>1-(1062/1345)</f>
+        <v>0.21040892193308547</v>
+      </c>
+      <c r="I39" s="49">
+        <f>1-(1016/1345)</f>
+        <v>0.24460966542750928</v>
+      </c>
+      <c r="J39" s="49">
+        <f>1-(1016/1345)</f>
+        <v>0.24460966542750928</v>
+      </c>
+      <c r="K39" s="49">
+        <f>1-(243/1345)</f>
+        <v>0.81933085501858738</v>
+      </c>
+      <c r="L39" s="49">
+        <f>1-(250/1345)</f>
+        <v>0.81412639405204468</v>
+      </c>
+      <c r="M39" s="49">
+        <f>1-(877/1345)</f>
+        <v>0.34795539033457246</v>
+      </c>
+      <c r="N39" s="50">
+        <f t="shared" si="8"/>
+        <v>0.45933085501858739</v>
+      </c>
+      <c r="R39" s="87"/>
+      <c r="S39" s="45" t="s">
+        <v>52</v>
+      </c>
+      <c r="T39" s="51">
+        <v>1.7663999999999999E-2</v>
+      </c>
+      <c r="U39" s="51">
+        <v>0.118092</v>
+      </c>
+      <c r="V39" s="51">
+        <v>8.2736000000000004E-2</v>
+      </c>
+      <c r="W39" s="51">
+        <v>8.5620000000000002E-2</v>
+      </c>
+      <c r="X39" s="51">
+        <v>0.111744</v>
+      </c>
+      <c r="Y39" s="51">
+        <v>0.105064</v>
+      </c>
+      <c r="Z39" s="51">
+        <v>0.118672</v>
+      </c>
+      <c r="AA39" s="51">
+        <v>4.0044000000000003E-2</v>
+      </c>
+      <c r="AB39" s="51">
+        <v>4.0919999999999998E-2</v>
+      </c>
+      <c r="AC39" s="51">
+        <v>9.6271999999999996E-2</v>
+      </c>
+      <c r="AD39" s="52">
+        <f t="shared" si="9"/>
+        <v>8.16828E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="B40" s="87"/>
+      <c r="C40" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="D40" s="49">
+        <f>1-(25/1345)</f>
+        <v>0.98141263940520451</v>
+      </c>
+      <c r="E40" s="49">
+        <f>1-(59/1345)</f>
+        <v>0.95613382899628252</v>
+      </c>
+      <c r="F40" s="49">
+        <f>1-(715/1345)</f>
+        <v>0.46840148698884754</v>
+      </c>
+      <c r="G40" s="49">
+        <f>1-(796/1345)</f>
+        <v>0.40817843866171</v>
+      </c>
+      <c r="H40" s="49">
+        <f>1-(1042/1345)</f>
+        <v>0.22527881040892195</v>
+      </c>
+      <c r="I40" s="49">
+        <f>1-(988/1345)</f>
+        <v>0.26542750929368031</v>
+      </c>
+      <c r="J40" s="49">
+        <f>1-(1062/1345)</f>
+        <v>0.21040892193308547</v>
+      </c>
+      <c r="K40" s="49">
+        <f>1-(253/1345)</f>
+        <v>0.81189591078066914</v>
+      </c>
+      <c r="L40" s="49">
+        <f>1-(249/1345)</f>
+        <v>0.81486988847583641</v>
+      </c>
+      <c r="M40" s="49">
+        <f>1-(925/1345)</f>
+        <v>0.31226765799256506</v>
+      </c>
+      <c r="N40" s="50">
+        <f t="shared" si="8"/>
+        <v>0.54542750929368033</v>
+      </c>
+      <c r="R40" s="87"/>
+      <c r="S40" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="T40" s="51">
+        <v>1.6247999999999999E-2</v>
+      </c>
+      <c r="U40" s="51">
+        <v>6.8127999999999994E-2</v>
+      </c>
+      <c r="V40" s="51">
+        <v>8.5727999999999999E-2</v>
+      </c>
+      <c r="W40" s="51">
+        <v>8.8632000000000002E-2</v>
+      </c>
+      <c r="X40" s="51">
+        <v>0.123212</v>
+      </c>
+      <c r="Y40" s="51">
+        <v>0.111364</v>
+      </c>
+      <c r="Z40" s="51">
+        <v>0.14499600000000001</v>
+      </c>
+      <c r="AA40" s="51">
+        <v>3.9204000000000003E-2</v>
+      </c>
+      <c r="AB40" s="51">
+        <v>3.9576E-2</v>
+      </c>
+      <c r="AC40" s="51">
+        <v>0.10668800000000001</v>
+      </c>
+      <c r="AD40" s="52">
+        <f t="shared" si="9"/>
+        <v>8.2377599999999995E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>112</v>
+      </c>
+      <c r="B41" s="87"/>
+      <c r="C41" s="106" t="s">
+        <v>69</v>
+      </c>
+      <c r="D41" s="107">
+        <f t="shared" ref="D37:D41" si="10">1-(0/1345)</f>
+        <v>1</v>
+      </c>
+      <c r="E41" s="107">
+        <f t="shared" ref="E36:M41" si="11">1-(0/1345)</f>
+        <v>1</v>
+      </c>
+      <c r="F41" s="107">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="G41" s="107">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="H41" s="107">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="I41" s="107">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="J41" s="107">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="K41" s="107">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="L41" s="107">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="M41" s="107">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="N41" s="107">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="R41" s="87"/>
+      <c r="S41" s="106" t="s">
+        <v>69</v>
+      </c>
+      <c r="T41" s="108">
+        <v>0</v>
+      </c>
+      <c r="U41" s="108">
+        <v>0</v>
+      </c>
+      <c r="V41" s="108">
+        <v>0</v>
+      </c>
+      <c r="W41" s="108">
+        <v>0</v>
+      </c>
+      <c r="X41" s="108">
+        <v>0</v>
+      </c>
+      <c r="Y41" s="108">
+        <v>0</v>
+      </c>
+      <c r="Z41" s="108">
+        <v>0</v>
+      </c>
+      <c r="AA41" s="108">
+        <v>0</v>
+      </c>
+      <c r="AB41" s="108">
+        <v>0</v>
+      </c>
+      <c r="AC41" s="108">
+        <v>0</v>
+      </c>
+      <c r="AD41" s="108">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="32">
+    <mergeCell ref="R4:S5"/>
+    <mergeCell ref="T4:AC4"/>
+    <mergeCell ref="AD4:AD5"/>
+    <mergeCell ref="R6:R11"/>
+    <mergeCell ref="B14:C15"/>
+    <mergeCell ref="D14:M14"/>
+    <mergeCell ref="N14:N15"/>
+    <mergeCell ref="B4:C5"/>
+    <mergeCell ref="D4:M4"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="B6:B11"/>
+    <mergeCell ref="N24:N25"/>
+    <mergeCell ref="B26:B31"/>
+    <mergeCell ref="B34:C35"/>
+    <mergeCell ref="D34:M34"/>
+    <mergeCell ref="N34:N35"/>
+    <mergeCell ref="T34:AC34"/>
+    <mergeCell ref="AD34:AD35"/>
+    <mergeCell ref="R36:R41"/>
+    <mergeCell ref="B36:B41"/>
+    <mergeCell ref="R14:S15"/>
+    <mergeCell ref="T14:AC14"/>
+    <mergeCell ref="AD14:AD15"/>
+    <mergeCell ref="R16:R21"/>
+    <mergeCell ref="R24:S25"/>
+    <mergeCell ref="T24:AC24"/>
+    <mergeCell ref="AD24:AD25"/>
+    <mergeCell ref="R26:R31"/>
+    <mergeCell ref="R34:S35"/>
+    <mergeCell ref="B16:B21"/>
+    <mergeCell ref="B24:C25"/>
+    <mergeCell ref="D24:M24"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="E6:E7 D7" formula="1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B6:R38"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D30" sqref="D30:H30"/>
     </sheetView>
   </sheetViews>
@@ -8262,7 +10929,7 @@
       </c>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B8" s="89">
+      <c r="B8" s="102">
         <v>584</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -8283,7 +10950,7 @@
       <c r="H8" s="1">
         <v>8.0800000000000004E-3</v>
       </c>
-      <c r="L8" s="79">
+      <c r="L8" s="92">
         <v>584</v>
       </c>
       <c r="M8" s="1" t="s">
@@ -8306,7 +10973,7 @@
       </c>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B9" s="89"/>
+      <c r="B9" s="102"/>
       <c r="C9" s="1" t="s">
         <v>68</v>
       </c>
@@ -8325,7 +10992,7 @@
       <c r="H9" s="1">
         <v>4.5935999999999998E-2</v>
       </c>
-      <c r="L9" s="80"/>
+      <c r="L9" s="93"/>
       <c r="M9" s="1" t="s">
         <v>65</v>
       </c>
@@ -8351,7 +11018,7 @@
       </c>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B10" s="90">
+      <c r="B10" s="103">
         <v>980</v>
       </c>
       <c r="C10" s="16" t="s">
@@ -8372,7 +11039,7 @@
       <c r="H10" s="16">
         <v>1.2456E-2</v>
       </c>
-      <c r="L10" s="80"/>
+      <c r="L10" s="93"/>
       <c r="M10" s="1" t="s">
         <v>61</v>
       </c>
@@ -8393,7 +11060,7 @@
       </c>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B11" s="90"/>
+      <c r="B11" s="103"/>
       <c r="C11" s="16" t="s">
         <v>68</v>
       </c>
@@ -8412,7 +11079,7 @@
       <c r="H11" s="16">
         <v>6.3119999999999996E-2</v>
       </c>
-      <c r="L11" s="81"/>
+      <c r="L11" s="94"/>
       <c r="M11" s="1" t="s">
         <v>66</v>
       </c>
@@ -8438,7 +11105,7 @@
       </c>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B12" s="91">
+      <c r="B12" s="87">
         <v>1280</v>
       </c>
       <c r="C12" s="4" t="s">
@@ -8459,7 +11126,7 @@
       <c r="H12" s="4">
         <v>1.5299999999999999E-2</v>
       </c>
-      <c r="L12" s="82">
+      <c r="L12" s="95">
         <v>980</v>
       </c>
       <c r="M12" s="16" t="s">
@@ -8482,7 +11149,7 @@
       </c>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B13" s="91"/>
+      <c r="B13" s="87"/>
       <c r="C13" s="4" t="s">
         <v>68</v>
       </c>
@@ -8501,7 +11168,7 @@
       <c r="H13" s="4">
         <v>6.6844000000000001E-2</v>
       </c>
-      <c r="L13" s="83"/>
+      <c r="L13" s="96"/>
       <c r="M13" s="16" t="s">
         <v>66</v>
       </c>
@@ -8527,7 +11194,7 @@
       </c>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B14" s="88">
+      <c r="B14" s="101">
         <v>1345</v>
       </c>
       <c r="C14" s="7" t="s">
@@ -8548,7 +11215,7 @@
       <c r="H14" s="7">
         <v>1.5807999999999999E-2</v>
       </c>
-      <c r="L14" s="83"/>
+      <c r="L14" s="96"/>
       <c r="M14" s="16" t="s">
         <v>61</v>
       </c>
@@ -8569,7 +11236,7 @@
       </c>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B15" s="88"/>
+      <c r="B15" s="101"/>
       <c r="C15" s="7" t="s">
         <v>68</v>
       </c>
@@ -8588,7 +11255,7 @@
       <c r="H15" s="7">
         <v>6.7227999999999996E-2</v>
       </c>
-      <c r="L15" s="84"/>
+      <c r="L15" s="97"/>
       <c r="M15" s="16" t="s">
         <v>66</v>
       </c>
@@ -8614,7 +11281,7 @@
       </c>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="L16" s="85">
+      <c r="L16" s="98">
         <v>1280</v>
       </c>
       <c r="M16" s="4" t="s">
@@ -8637,7 +11304,7 @@
       </c>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="L17" s="86"/>
+      <c r="L17" s="99"/>
       <c r="M17" s="4" t="s">
         <v>65</v>
       </c>
@@ -8663,7 +11330,7 @@
       </c>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="L18" s="86"/>
+      <c r="L18" s="99"/>
       <c r="M18" s="4" t="s">
         <v>61</v>
       </c>
@@ -8684,7 +11351,7 @@
       </c>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="L19" s="87"/>
+      <c r="L19" s="100"/>
       <c r="M19" s="4" t="s">
         <v>65</v>
       </c>
@@ -8710,7 +11377,7 @@
       </c>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="L20" s="88">
+      <c r="L20" s="101">
         <v>1345</v>
       </c>
       <c r="M20" s="7" t="s">
@@ -8733,7 +11400,7 @@
       </c>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="L21" s="88"/>
+      <c r="L21" s="101"/>
       <c r="M21" s="7" t="s">
         <v>65</v>
       </c>
@@ -8759,7 +11426,7 @@
       </c>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="L22" s="88"/>
+      <c r="L22" s="101"/>
       <c r="M22" s="7" t="s">
         <v>61</v>
       </c>
@@ -8780,7 +11447,7 @@
       </c>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="L23" s="88"/>
+      <c r="L23" s="101"/>
       <c r="M23" s="7" t="s">
         <v>65</v>
       </c>
@@ -8834,7 +11501,7 @@
       </c>
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B31" s="89">
+      <c r="B31" s="102">
         <v>584</v>
       </c>
       <c r="C31" s="1" t="s">
@@ -8857,7 +11524,7 @@
       </c>
     </row>
     <row r="32" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B32" s="89"/>
+      <c r="B32" s="102"/>
       <c r="C32" s="1" t="s">
         <v>68</v>
       </c>
@@ -8878,7 +11545,7 @@
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B33" s="90">
+      <c r="B33" s="103">
         <v>980</v>
       </c>
       <c r="C33" s="16" t="s">
@@ -8901,7 +11568,7 @@
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B34" s="90"/>
+      <c r="B34" s="103"/>
       <c r="C34" s="16" t="s">
         <v>68</v>
       </c>
@@ -8922,7 +11589,7 @@
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B35" s="91">
+      <c r="B35" s="87">
         <v>1280</v>
       </c>
       <c r="C35" s="4" t="s">
@@ -8945,7 +11612,7 @@
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B36" s="91"/>
+      <c r="B36" s="87"/>
       <c r="C36" s="4" t="s">
         <v>68</v>
       </c>
@@ -8966,7 +11633,7 @@
       </c>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B37" s="88">
+      <c r="B37" s="101">
         <v>1345</v>
       </c>
       <c r="C37" s="7" t="s">
@@ -8989,7 +11656,7 @@
       </c>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B38" s="88"/>
+      <c r="B38" s="101"/>
       <c r="C38" s="7" t="s">
         <v>68</v>
       </c>
@@ -9029,7 +11696,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A5:R19"/>
   <sheetViews>
@@ -9048,7 +11715,7 @@
   </cols>
   <sheetData>
     <row r="5" spans="1:18" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="92" t="s">
+      <c r="A5" s="104" t="s">
         <v>73</v>
       </c>
       <c r="B5" s="32" t="s">
@@ -9074,7 +11741,7 @@
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="92"/>
+      <c r="A6" s="104"/>
       <c r="B6" s="33">
         <v>584</v>
       </c>
@@ -9098,7 +11765,7 @@
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="92"/>
+      <c r="A7" s="104"/>
       <c r="B7" s="33">
         <v>980</v>
       </c>
@@ -9122,7 +11789,7 @@
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="92"/>
+      <c r="A8" s="104"/>
       <c r="B8" s="33">
         <v>1280</v>
       </c>
@@ -9146,7 +11813,7 @@
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="92"/>
+      <c r="A9" s="104"/>
       <c r="B9" s="33">
         <v>1435</v>
       </c>
@@ -9170,7 +11837,7 @@
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="92"/>
+      <c r="A10" s="104"/>
       <c r="B10" s="33">
         <v>1640</v>
       </c>
@@ -9194,7 +11861,7 @@
       </c>
     </row>
     <row r="14" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="92" t="s">
+      <c r="A14" s="104" t="s">
         <v>72</v>
       </c>
       <c r="B14" s="32" t="s">
@@ -9220,7 +11887,7 @@
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="92"/>
+      <c r="A15" s="104"/>
       <c r="B15" s="33">
         <v>584</v>
       </c>
@@ -9232,7 +11899,7 @@
       <c r="H15" s="1"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="92"/>
+      <c r="A16" s="104"/>
       <c r="B16" s="33">
         <v>980</v>
       </c>
@@ -9242,11 +11909,11 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="5"/>
-      <c r="K16" s="93" t="s">
+      <c r="K16" s="105" t="s">
         <v>74</v>
       </c>
-      <c r="L16" s="93"/>
-      <c r="M16" s="93"/>
+      <c r="L16" s="105"/>
+      <c r="M16" s="105"/>
       <c r="P16" s="11" t="s">
         <v>80</v>
       </c>
@@ -9258,7 +11925,7 @@
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="92"/>
+      <c r="A17" s="104"/>
       <c r="B17" s="33">
         <v>1280</v>
       </c>
@@ -9288,7 +11955,7 @@
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="92"/>
+      <c r="A18" s="104"/>
       <c r="B18" s="33">
         <v>1435</v>
       </c>
@@ -9318,7 +11985,7 @@
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="92"/>
+      <c r="A19" s="104"/>
       <c r="B19" s="33">
         <v>1640</v>
       </c>

--- a/Data Hasil Uji Coba/Uji Coba.xlsx
+++ b/Data Hasil Uji Coba/Uji Coba.xlsx
@@ -1,18 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{40882DD1-D8C2-482D-9238-9700EF588061}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Static Buffer" sheetId="1" r:id="rId1"/>
     <sheet name="Dinamic Buffer" sheetId="2" r:id="rId2"/>
     <sheet name="Akurasi Pengiriman" sheetId="5" r:id="rId3"/>
     <sheet name="Efektifitas" sheetId="6" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId5"/>
-    <sheet name="Sheet2" sheetId="4" r:id="rId6"/>
+    <sheet name="Waktu" sheetId="7" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId6"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913" calcMode="manual"/>
   <extLst>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694" uniqueCount="125">
   <si>
     <t>0 x</t>
   </si>
@@ -406,11 +408,23 @@
   <si>
     <t>Waktu Kompresi Pada Panjang Data 1345</t>
   </si>
+  <si>
+    <t>Waktu Dekompresi Pada Panjang Data 584</t>
+  </si>
+  <si>
+    <t>Waktu Dekompresi Pada Panjang Data 980</t>
+  </si>
+  <si>
+    <t>Waktu Dekompresi Pada Panjang Data 1280</t>
+  </si>
+  <si>
+    <t>Waktu Dekompresi Pada Panjang Data 1345</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
@@ -714,7 +728,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -839,6 +853,21 @@
     <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -956,6 +985,9 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -997,18 +1029,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2090,7 +2110,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2370,7 +2396,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:R52"/>
   <sheetViews>
     <sheetView topLeftCell="I26" workbookViewId="0">
@@ -2402,32 +2428,32 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="83" t="s">
+      <c r="A2" s="88" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83"/>
-      <c r="G2" s="83"/>
-      <c r="H2" s="83"/>
-      <c r="K2" s="83" t="s">
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="K2" s="88" t="s">
         <v>37</v>
       </c>
-      <c r="L2" s="83"/>
-      <c r="M2" s="83"/>
-      <c r="N2" s="83"/>
-      <c r="O2" s="83"/>
-      <c r="P2" s="83"/>
-      <c r="Q2" s="83"/>
-      <c r="R2" s="83"/>
+      <c r="L2" s="88"/>
+      <c r="M2" s="88"/>
+      <c r="N2" s="88"/>
+      <c r="O2" s="88"/>
+      <c r="P2" s="88"/>
+      <c r="Q2" s="88"/>
+      <c r="R2" s="88"/>
     </row>
     <row r="3" spans="1:18" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="81" t="s">
+      <c r="A3" s="86" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="82"/>
+      <c r="B3" s="87"/>
       <c r="C3" s="14"/>
       <c r="D3" s="15" t="s">
         <v>1</v>
@@ -2444,10 +2470,10 @@
       <c r="H3" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="81" t="s">
+      <c r="K3" s="86" t="s">
         <v>31</v>
       </c>
-      <c r="L3" s="82"/>
+      <c r="L3" s="87"/>
       <c r="M3" s="14"/>
       <c r="N3" s="15" t="s">
         <v>1</v>
@@ -2466,10 +2492,10 @@
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="63">
+      <c r="A4" s="68">
         <v>584</v>
       </c>
-      <c r="B4" s="64"/>
+      <c r="B4" s="69"/>
       <c r="C4" s="1" t="s">
         <v>30</v>
       </c>
@@ -2488,10 +2514,10 @@
       <c r="H4" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="63">
+      <c r="K4" s="68">
         <v>584</v>
       </c>
-      <c r="L4" s="64"/>
+      <c r="L4" s="69"/>
       <c r="M4" s="1" t="s">
         <v>30</v>
       </c>
@@ -2512,8 +2538,8 @@
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="65"/>
-      <c r="B5" s="66"/>
+      <c r="A5" s="70"/>
+      <c r="B5" s="71"/>
       <c r="C5" s="1" t="s">
         <v>21</v>
       </c>
@@ -2532,8 +2558,8 @@
       <c r="H5" s="1">
         <v>21</v>
       </c>
-      <c r="K5" s="65"/>
-      <c r="L5" s="66"/>
+      <c r="K5" s="70"/>
+      <c r="L5" s="71"/>
       <c r="M5" s="1" t="s">
         <v>21</v>
       </c>
@@ -2554,8 +2580,8 @@
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="65"/>
-      <c r="B6" s="66"/>
+      <c r="A6" s="70"/>
+      <c r="B6" s="71"/>
       <c r="C6" s="1" t="s">
         <v>33</v>
       </c>
@@ -2579,8 +2605,8 @@
         <f>($A$4-H5)/$A$4</f>
         <v>0.96404109589041098</v>
       </c>
-      <c r="K6" s="65"/>
-      <c r="L6" s="66"/>
+      <c r="K6" s="70"/>
+      <c r="L6" s="71"/>
       <c r="M6" s="1" t="s">
         <v>33</v>
       </c>
@@ -2606,8 +2632,8 @@
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="65"/>
-      <c r="B7" s="66"/>
+      <c r="A7" s="70"/>
+      <c r="B7" s="71"/>
       <c r="C7" s="1" t="s">
         <v>22</v>
       </c>
@@ -2626,8 +2652,8 @@
       <c r="H7" s="1">
         <v>427</v>
       </c>
-      <c r="K7" s="65"/>
-      <c r="L7" s="66"/>
+      <c r="K7" s="70"/>
+      <c r="L7" s="71"/>
       <c r="M7" s="1" t="s">
         <v>22</v>
       </c>
@@ -2648,8 +2674,8 @@
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="67"/>
-      <c r="B8" s="68"/>
+      <c r="A8" s="72"/>
+      <c r="B8" s="73"/>
       <c r="C8" s="1" t="s">
         <v>34</v>
       </c>
@@ -2673,8 +2699,8 @@
         <f>($A$4-H7)/$A$4</f>
         <v>0.26883561643835618</v>
       </c>
-      <c r="K8" s="67"/>
-      <c r="L8" s="68"/>
+      <c r="K8" s="72"/>
+      <c r="L8" s="73"/>
       <c r="M8" s="1" t="s">
         <v>34</v>
       </c>
@@ -2700,10 +2726,10 @@
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="69">
+      <c r="A9" s="74">
         <v>980</v>
       </c>
-      <c r="B9" s="70"/>
+      <c r="B9" s="75"/>
       <c r="C9" s="16" t="s">
         <v>30</v>
       </c>
@@ -2722,10 +2748,10 @@
       <c r="H9" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="K9" s="69">
+      <c r="K9" s="74">
         <v>980</v>
       </c>
-      <c r="L9" s="70"/>
+      <c r="L9" s="75"/>
       <c r="M9" s="16" t="s">
         <v>30</v>
       </c>
@@ -2746,8 +2772,8 @@
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="71"/>
-      <c r="B10" s="72"/>
+      <c r="A10" s="76"/>
+      <c r="B10" s="77"/>
       <c r="C10" s="16" t="s">
         <v>21</v>
       </c>
@@ -2766,8 +2792,8 @@
       <c r="H10" s="16">
         <v>33</v>
       </c>
-      <c r="K10" s="71"/>
-      <c r="L10" s="72"/>
+      <c r="K10" s="76"/>
+      <c r="L10" s="77"/>
       <c r="M10" s="16" t="s">
         <v>21</v>
       </c>
@@ -2788,8 +2814,8 @@
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="71"/>
-      <c r="B11" s="72"/>
+      <c r="A11" s="76"/>
+      <c r="B11" s="77"/>
       <c r="C11" s="16" t="s">
         <v>35</v>
       </c>
@@ -2813,8 +2839,8 @@
         <f>($A$9-H10)/$A$9</f>
         <v>0.96632653061224494</v>
       </c>
-      <c r="K11" s="71"/>
-      <c r="L11" s="72"/>
+      <c r="K11" s="76"/>
+      <c r="L11" s="77"/>
       <c r="M11" s="16" t="s">
         <v>35</v>
       </c>
@@ -2840,8 +2866,8 @@
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="71"/>
-      <c r="B12" s="72"/>
+      <c r="A12" s="76"/>
+      <c r="B12" s="77"/>
       <c r="C12" s="16" t="s">
         <v>22</v>
       </c>
@@ -2860,8 +2886,8 @@
       <c r="H12" s="16">
         <v>564</v>
       </c>
-      <c r="K12" s="71"/>
-      <c r="L12" s="72"/>
+      <c r="K12" s="76"/>
+      <c r="L12" s="77"/>
       <c r="M12" s="16" t="s">
         <v>22</v>
       </c>
@@ -2882,8 +2908,8 @@
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="73"/>
-      <c r="B13" s="74"/>
+      <c r="A13" s="78"/>
+      <c r="B13" s="79"/>
       <c r="C13" s="16" t="s">
         <v>34</v>
       </c>
@@ -2907,8 +2933,8 @@
         <f>($A$9-H12)/$A$9</f>
         <v>0.42448979591836733</v>
       </c>
-      <c r="K13" s="73"/>
-      <c r="L13" s="74"/>
+      <c r="K13" s="78"/>
+      <c r="L13" s="79"/>
       <c r="M13" s="16" t="s">
         <v>34</v>
       </c>
@@ -2934,10 +2960,10 @@
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="75">
+      <c r="A14" s="80">
         <v>1280</v>
       </c>
-      <c r="B14" s="76"/>
+      <c r="B14" s="81"/>
       <c r="C14" s="13" t="s">
         <v>30</v>
       </c>
@@ -2956,10 +2982,10 @@
       <c r="H14" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="75">
+      <c r="K14" s="80">
         <v>1280</v>
       </c>
-      <c r="L14" s="76"/>
+      <c r="L14" s="81"/>
       <c r="M14" s="13" t="s">
         <v>30</v>
       </c>
@@ -2980,8 +3006,8 @@
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="77"/>
-      <c r="B15" s="78"/>
+      <c r="A15" s="82"/>
+      <c r="B15" s="83"/>
       <c r="C15" s="4" t="s">
         <v>21</v>
       </c>
@@ -2998,8 +3024,8 @@
         <v>68</v>
       </c>
       <c r="H15" s="5"/>
-      <c r="K15" s="77"/>
-      <c r="L15" s="78"/>
+      <c r="K15" s="82"/>
+      <c r="L15" s="83"/>
       <c r="M15" s="4" t="s">
         <v>21</v>
       </c>
@@ -3020,8 +3046,8 @@
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="77"/>
-      <c r="B16" s="78"/>
+      <c r="A16" s="82"/>
+      <c r="B16" s="83"/>
       <c r="C16" s="4" t="s">
         <v>35</v>
       </c>
@@ -3045,8 +3071,8 @@
         <f>($A$14-H15)/$A$14</f>
         <v>1</v>
       </c>
-      <c r="K16" s="77"/>
-      <c r="L16" s="78"/>
+      <c r="K16" s="82"/>
+      <c r="L16" s="83"/>
       <c r="M16" s="4" t="s">
         <v>35</v>
       </c>
@@ -3072,8 +3098,8 @@
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="77"/>
-      <c r="B17" s="78"/>
+      <c r="A17" s="82"/>
+      <c r="B17" s="83"/>
       <c r="C17" s="4" t="s">
         <v>22</v>
       </c>
@@ -3090,8 +3116,8 @@
         <v>1120</v>
       </c>
       <c r="H17" s="5"/>
-      <c r="K17" s="77"/>
-      <c r="L17" s="78"/>
+      <c r="K17" s="82"/>
+      <c r="L17" s="83"/>
       <c r="M17" s="4" t="s">
         <v>22</v>
       </c>
@@ -3112,8 +3138,8 @@
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="79"/>
-      <c r="B18" s="80"/>
+      <c r="A18" s="84"/>
+      <c r="B18" s="85"/>
       <c r="C18" s="4" t="s">
         <v>34</v>
       </c>
@@ -3137,8 +3163,8 @@
         <f>($A$14-H17)/$A$14</f>
         <v>1</v>
       </c>
-      <c r="K18" s="79"/>
-      <c r="L18" s="80"/>
+      <c r="K18" s="84"/>
+      <c r="L18" s="85"/>
       <c r="M18" s="4" t="s">
         <v>34</v>
       </c>
@@ -3164,10 +3190,10 @@
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="56">
+      <c r="A19" s="61">
         <v>1345</v>
       </c>
-      <c r="B19" s="57"/>
+      <c r="B19" s="62"/>
       <c r="C19" s="7" t="s">
         <v>30</v>
       </c>
@@ -3186,10 +3212,10 @@
       <c r="H19" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="K19" s="56">
+      <c r="K19" s="61">
         <v>1345</v>
       </c>
-      <c r="L19" s="57"/>
+      <c r="L19" s="62"/>
       <c r="M19" s="7" t="s">
         <v>30</v>
       </c>
@@ -3210,8 +3236,8 @@
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="58"/>
-      <c r="B20" s="59"/>
+      <c r="A20" s="63"/>
+      <c r="B20" s="64"/>
       <c r="C20" s="7" t="s">
         <v>21</v>
       </c>
@@ -3228,8 +3254,8 @@
         <v>129</v>
       </c>
       <c r="H20" s="5"/>
-      <c r="K20" s="58"/>
-      <c r="L20" s="59"/>
+      <c r="K20" s="63"/>
+      <c r="L20" s="64"/>
       <c r="M20" s="7" t="s">
         <v>21</v>
       </c>
@@ -3250,8 +3276,8 @@
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21" s="58"/>
-      <c r="B21" s="59"/>
+      <c r="A21" s="63"/>
+      <c r="B21" s="64"/>
       <c r="C21" s="7" t="s">
         <v>35</v>
       </c>
@@ -3272,8 +3298,8 @@
         <v>0.90408921933085507</v>
       </c>
       <c r="H21" s="5"/>
-      <c r="K21" s="58"/>
-      <c r="L21" s="59"/>
+      <c r="K21" s="63"/>
+      <c r="L21" s="64"/>
       <c r="M21" s="7" t="s">
         <v>35</v>
       </c>
@@ -3299,8 +3325,8 @@
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A22" s="58"/>
-      <c r="B22" s="59"/>
+      <c r="A22" s="63"/>
+      <c r="B22" s="64"/>
       <c r="C22" s="7" t="s">
         <v>22</v>
       </c>
@@ -3317,8 +3343,8 @@
         <v>1182</v>
       </c>
       <c r="H22" s="5"/>
-      <c r="K22" s="58"/>
-      <c r="L22" s="59"/>
+      <c r="K22" s="63"/>
+      <c r="L22" s="64"/>
       <c r="M22" s="7" t="s">
         <v>22</v>
       </c>
@@ -3337,8 +3363,8 @@
       <c r="R22" s="5"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A23" s="60"/>
-      <c r="B23" s="61"/>
+      <c r="A23" s="65"/>
+      <c r="B23" s="66"/>
       <c r="C23" s="7" t="s">
         <v>34</v>
       </c>
@@ -3359,8 +3385,8 @@
         <v>0.12118959107806691</v>
       </c>
       <c r="H23" s="5"/>
-      <c r="K23" s="60"/>
-      <c r="L23" s="61"/>
+      <c r="K23" s="65"/>
+      <c r="L23" s="66"/>
       <c r="M23" s="7" t="s">
         <v>34</v>
       </c>
@@ -3383,10 +3409,10 @@
       <c r="R23" s="5"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="K24" s="62">
+      <c r="K24" s="67">
         <v>1640</v>
       </c>
-      <c r="L24" s="62"/>
+      <c r="L24" s="67"/>
       <c r="M24" s="24" t="s">
         <v>30</v>
       </c>
@@ -3407,10 +3433,10 @@
       </c>
     </row>
     <row r="28" spans="1:18" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="81" t="s">
+      <c r="A28" s="86" t="s">
         <v>31</v>
       </c>
-      <c r="B28" s="82"/>
+      <c r="B28" s="87"/>
       <c r="C28" s="14"/>
       <c r="D28" s="15" t="s">
         <v>1</v>
@@ -3427,10 +3453,10 @@
       <c r="H28" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="K28" s="81" t="s">
+      <c r="K28" s="86" t="s">
         <v>31</v>
       </c>
-      <c r="L28" s="82"/>
+      <c r="L28" s="87"/>
       <c r="M28" s="14"/>
       <c r="N28" s="15" t="s">
         <v>1</v>
@@ -3449,10 +3475,10 @@
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A29" s="63">
+      <c r="A29" s="68">
         <v>584</v>
       </c>
-      <c r="B29" s="64"/>
+      <c r="B29" s="69"/>
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -3472,10 +3498,10 @@
         <v>8.1119999999999994E-3</v>
       </c>
       <c r="J29" s="24"/>
-      <c r="K29" s="63">
+      <c r="K29" s="68">
         <v>584</v>
       </c>
-      <c r="L29" s="64"/>
+      <c r="L29" s="69"/>
       <c r="M29" s="1" t="s">
         <v>23</v>
       </c>
@@ -3496,8 +3522,8 @@
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A30" s="65"/>
-      <c r="B30" s="66"/>
+      <c r="A30" s="70"/>
+      <c r="B30" s="71"/>
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -3516,8 +3542,8 @@
       <c r="H30" s="1">
         <v>3.248E-3</v>
       </c>
-      <c r="K30" s="65"/>
-      <c r="L30" s="66"/>
+      <c r="K30" s="70"/>
+      <c r="L30" s="71"/>
       <c r="M30" s="1" t="s">
         <v>24</v>
       </c>
@@ -3538,8 +3564,8 @@
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A31" s="65"/>
-      <c r="B31" s="66"/>
+      <c r="A31" s="70"/>
+      <c r="B31" s="71"/>
       <c r="C31" s="19" t="s">
         <v>32</v>
       </c>
@@ -3563,8 +3589,8 @@
         <f t="shared" si="0"/>
         <v>1.1359999999999999E-2</v>
       </c>
-      <c r="K31" s="65"/>
-      <c r="L31" s="66"/>
+      <c r="K31" s="70"/>
+      <c r="L31" s="71"/>
       <c r="M31" s="19" t="s">
         <v>32</v>
       </c>
@@ -3590,8 +3616,8 @@
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A32" s="65"/>
-      <c r="B32" s="66"/>
+      <c r="A32" s="70"/>
+      <c r="B32" s="71"/>
       <c r="C32" s="1" t="s">
         <v>25</v>
       </c>
@@ -3611,8 +3637,8 @@
         <v>4.0691999999999999E-2</v>
       </c>
       <c r="J32" s="24"/>
-      <c r="K32" s="65"/>
-      <c r="L32" s="66"/>
+      <c r="K32" s="70"/>
+      <c r="L32" s="71"/>
       <c r="M32" s="1" t="s">
         <v>25</v>
       </c>
@@ -3633,8 +3659,8 @@
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A33" s="65"/>
-      <c r="B33" s="66"/>
+      <c r="A33" s="70"/>
+      <c r="B33" s="71"/>
       <c r="C33" s="1" t="s">
         <v>26</v>
       </c>
@@ -3653,8 +3679,8 @@
       <c r="H33" s="1">
         <v>1.7328E-2</v>
       </c>
-      <c r="K33" s="65"/>
-      <c r="L33" s="66"/>
+      <c r="K33" s="70"/>
+      <c r="L33" s="71"/>
       <c r="M33" s="1" t="s">
         <v>26</v>
       </c>
@@ -3675,8 +3701,8 @@
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A34" s="67"/>
-      <c r="B34" s="68"/>
+      <c r="A34" s="72"/>
+      <c r="B34" s="73"/>
       <c r="C34" s="19" t="s">
         <v>32</v>
       </c>
@@ -3700,8 +3726,8 @@
         <f t="shared" si="2"/>
         <v>5.8020000000000002E-2</v>
       </c>
-      <c r="K34" s="67"/>
-      <c r="L34" s="68"/>
+      <c r="K34" s="72"/>
+      <c r="L34" s="73"/>
       <c r="M34" s="19" t="s">
         <v>32</v>
       </c>
@@ -3727,10 +3753,10 @@
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A35" s="69">
+      <c r="A35" s="74">
         <v>980</v>
       </c>
-      <c r="B35" s="70"/>
+      <c r="B35" s="75"/>
       <c r="C35" s="16" t="s">
         <v>23</v>
       </c>
@@ -3750,10 +3776,10 @@
         <v>1.2716E-2</v>
       </c>
       <c r="J35" s="24"/>
-      <c r="K35" s="69">
+      <c r="K35" s="74">
         <v>980</v>
       </c>
-      <c r="L35" s="70"/>
+      <c r="L35" s="75"/>
       <c r="M35" s="16" t="s">
         <v>23</v>
       </c>
@@ -3774,8 +3800,8 @@
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A36" s="71"/>
-      <c r="B36" s="72"/>
+      <c r="A36" s="76"/>
+      <c r="B36" s="77"/>
       <c r="C36" s="16" t="s">
         <v>24</v>
       </c>
@@ -3794,8 +3820,8 @@
       <c r="H36" s="16">
         <v>5.1999999999999998E-3</v>
       </c>
-      <c r="K36" s="71"/>
-      <c r="L36" s="72"/>
+      <c r="K36" s="76"/>
+      <c r="L36" s="77"/>
       <c r="M36" s="16" t="s">
         <v>24</v>
       </c>
@@ -3816,8 +3842,8 @@
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A37" s="71"/>
-      <c r="B37" s="72"/>
+      <c r="A37" s="76"/>
+      <c r="B37" s="77"/>
       <c r="C37" s="19" t="s">
         <v>32</v>
       </c>
@@ -3841,8 +3867,8 @@
         <f t="shared" si="4"/>
         <v>1.7916000000000001E-2</v>
       </c>
-      <c r="K37" s="71"/>
-      <c r="L37" s="72"/>
+      <c r="K37" s="76"/>
+      <c r="L37" s="77"/>
       <c r="M37" s="19" t="s">
         <v>32</v>
       </c>
@@ -3868,8 +3894,8 @@
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A38" s="71"/>
-      <c r="B38" s="72"/>
+      <c r="A38" s="76"/>
+      <c r="B38" s="77"/>
       <c r="C38" s="16" t="s">
         <v>25</v>
       </c>
@@ -3889,8 +3915,8 @@
         <v>5.5975999999999998E-2</v>
       </c>
       <c r="J38" s="24"/>
-      <c r="K38" s="71"/>
-      <c r="L38" s="72"/>
+      <c r="K38" s="76"/>
+      <c r="L38" s="77"/>
       <c r="M38" s="16" t="s">
         <v>25</v>
       </c>
@@ -3911,8 +3937,8 @@
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A39" s="71"/>
-      <c r="B39" s="72"/>
+      <c r="A39" s="76"/>
+      <c r="B39" s="77"/>
       <c r="C39" s="16" t="s">
         <v>26</v>
       </c>
@@ -3931,8 +3957,8 @@
       <c r="H39" s="16">
         <v>2.3768000000000001E-2</v>
       </c>
-      <c r="K39" s="71"/>
-      <c r="L39" s="72"/>
+      <c r="K39" s="76"/>
+      <c r="L39" s="77"/>
       <c r="M39" s="16" t="s">
         <v>26</v>
       </c>
@@ -3953,8 +3979,8 @@
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A40" s="73"/>
-      <c r="B40" s="74"/>
+      <c r="A40" s="78"/>
+      <c r="B40" s="79"/>
       <c r="C40" s="19" t="s">
         <v>32</v>
       </c>
@@ -3978,8 +4004,8 @@
         <f t="shared" si="6"/>
         <v>7.9743999999999995E-2</v>
       </c>
-      <c r="K40" s="73"/>
-      <c r="L40" s="74"/>
+      <c r="K40" s="78"/>
+      <c r="L40" s="79"/>
       <c r="M40" s="19" t="s">
         <v>32</v>
       </c>
@@ -4005,10 +4031,10 @@
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A41" s="75">
+      <c r="A41" s="80">
         <v>1280</v>
       </c>
-      <c r="B41" s="76"/>
+      <c r="B41" s="81"/>
       <c r="C41" s="4" t="s">
         <v>23</v>
       </c>
@@ -4026,10 +4052,10 @@
       </c>
       <c r="H41" s="5"/>
       <c r="J41" s="24"/>
-      <c r="K41" s="75">
+      <c r="K41" s="80">
         <v>1280</v>
       </c>
-      <c r="L41" s="76"/>
+      <c r="L41" s="81"/>
       <c r="M41" s="4" t="s">
         <v>23</v>
       </c>
@@ -4050,8 +4076,8 @@
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A42" s="77"/>
-      <c r="B42" s="78"/>
+      <c r="A42" s="82"/>
+      <c r="B42" s="83"/>
       <c r="C42" s="4" t="s">
         <v>24</v>
       </c>
@@ -4068,8 +4094,8 @@
         <v>9.476E-3</v>
       </c>
       <c r="H42" s="5"/>
-      <c r="K42" s="77"/>
-      <c r="L42" s="78"/>
+      <c r="K42" s="82"/>
+      <c r="L42" s="83"/>
       <c r="M42" s="4" t="s">
         <v>24</v>
       </c>
@@ -4090,8 +4116,8 @@
       </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A43" s="77"/>
-      <c r="B43" s="78"/>
+      <c r="A43" s="82"/>
+      <c r="B43" s="83"/>
       <c r="C43" s="19" t="s">
         <v>32</v>
       </c>
@@ -4112,8 +4138,8 @@
         <v>2.7875999999999998E-2</v>
       </c>
       <c r="H43" s="5"/>
-      <c r="K43" s="77"/>
-      <c r="L43" s="78"/>
+      <c r="K43" s="82"/>
+      <c r="L43" s="83"/>
       <c r="M43" s="19" t="s">
         <v>32</v>
       </c>
@@ -4139,8 +4165,8 @@
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A44" s="77"/>
-      <c r="B44" s="78"/>
+      <c r="A44" s="82"/>
+      <c r="B44" s="83"/>
       <c r="C44" s="4" t="s">
         <v>25</v>
       </c>
@@ -4158,8 +4184,8 @@
       </c>
       <c r="H44" s="5"/>
       <c r="J44" s="24"/>
-      <c r="K44" s="77"/>
-      <c r="L44" s="78"/>
+      <c r="K44" s="82"/>
+      <c r="L44" s="83"/>
       <c r="M44" s="4" t="s">
         <v>25</v>
       </c>
@@ -4180,8 +4206,8 @@
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A45" s="77"/>
-      <c r="B45" s="78"/>
+      <c r="A45" s="82"/>
+      <c r="B45" s="83"/>
       <c r="C45" s="4" t="s">
         <v>26</v>
       </c>
@@ -4198,8 +4224,8 @@
         <v>4.3580000000000001E-2</v>
       </c>
       <c r="H45" s="5"/>
-      <c r="K45" s="77"/>
-      <c r="L45" s="78"/>
+      <c r="K45" s="82"/>
+      <c r="L45" s="83"/>
       <c r="M45" s="4" t="s">
         <v>26</v>
       </c>
@@ -4220,8 +4246,8 @@
       </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A46" s="79"/>
-      <c r="B46" s="80"/>
+      <c r="A46" s="84"/>
+      <c r="B46" s="85"/>
       <c r="C46" s="19" t="s">
         <v>32</v>
       </c>
@@ -4242,8 +4268,8 @@
         <v>0.146428</v>
       </c>
       <c r="H46" s="5"/>
-      <c r="K46" s="79"/>
-      <c r="L46" s="80"/>
+      <c r="K46" s="84"/>
+      <c r="L46" s="85"/>
       <c r="M46" s="19" t="s">
         <v>32</v>
       </c>
@@ -4269,10 +4295,10 @@
       </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A47" s="56">
+      <c r="A47" s="61">
         <v>1345</v>
       </c>
-      <c r="B47" s="57"/>
+      <c r="B47" s="62"/>
       <c r="C47" s="7" t="s">
         <v>23</v>
       </c>
@@ -4290,10 +4316,10 @@
       </c>
       <c r="H47" s="5"/>
       <c r="J47" s="24"/>
-      <c r="K47" s="56">
+      <c r="K47" s="61">
         <v>1345</v>
       </c>
-      <c r="L47" s="57"/>
+      <c r="L47" s="62"/>
       <c r="M47" s="7" t="s">
         <v>23</v>
       </c>
@@ -4314,8 +4340,8 @@
       </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A48" s="58"/>
-      <c r="B48" s="59"/>
+      <c r="A48" s="63"/>
+      <c r="B48" s="64"/>
       <c r="C48" s="7" t="s">
         <v>24</v>
       </c>
@@ -4332,8 +4358,8 @@
         <v>9.9319999999999999E-3</v>
       </c>
       <c r="H48" s="5"/>
-      <c r="K48" s="58"/>
-      <c r="L48" s="59"/>
+      <c r="K48" s="63"/>
+      <c r="L48" s="64"/>
       <c r="M48" s="7" t="s">
         <v>24</v>
       </c>
@@ -4352,8 +4378,8 @@
       <c r="R48" s="5"/>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A49" s="58"/>
-      <c r="B49" s="59"/>
+      <c r="A49" s="63"/>
+      <c r="B49" s="64"/>
       <c r="C49" s="19" t="s">
         <v>32</v>
       </c>
@@ -4374,8 +4400,8 @@
         <v>2.8931999999999999E-2</v>
       </c>
       <c r="H49" s="5"/>
-      <c r="K49" s="58"/>
-      <c r="L49" s="59"/>
+      <c r="K49" s="63"/>
+      <c r="L49" s="64"/>
       <c r="M49" s="19" t="s">
         <v>32</v>
       </c>
@@ -4398,8 +4424,8 @@
       <c r="R49" s="5"/>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A50" s="58"/>
-      <c r="B50" s="59"/>
+      <c r="A50" s="63"/>
+      <c r="B50" s="64"/>
       <c r="C50" s="7" t="s">
         <v>25</v>
       </c>
@@ -4417,8 +4443,8 @@
       </c>
       <c r="H50" s="5"/>
       <c r="J50" s="24"/>
-      <c r="K50" s="58"/>
-      <c r="L50" s="59"/>
+      <c r="K50" s="63"/>
+      <c r="L50" s="64"/>
       <c r="M50" s="7" t="s">
         <v>25</v>
       </c>
@@ -4437,8 +4463,8 @@
       <c r="R50" s="5"/>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A51" s="58"/>
-      <c r="B51" s="59"/>
+      <c r="A51" s="63"/>
+      <c r="B51" s="64"/>
       <c r="C51" s="7" t="s">
         <v>26</v>
       </c>
@@ -4455,8 +4481,8 @@
         <v>4.5887999999999998E-2</v>
       </c>
       <c r="H51" s="5"/>
-      <c r="K51" s="58"/>
-      <c r="L51" s="59"/>
+      <c r="K51" s="63"/>
+      <c r="L51" s="64"/>
       <c r="M51" s="7" t="s">
         <v>26</v>
       </c>
@@ -4475,8 +4501,8 @@
       <c r="R51" s="5"/>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A52" s="60"/>
-      <c r="B52" s="61"/>
+      <c r="A52" s="65"/>
+      <c r="B52" s="66"/>
       <c r="C52" s="19" t="s">
         <v>32</v>
       </c>
@@ -4497,8 +4523,8 @@
         <v>0.15465999999999999</v>
       </c>
       <c r="H52" s="5"/>
-      <c r="K52" s="60"/>
-      <c r="L52" s="61"/>
+      <c r="K52" s="65"/>
+      <c r="L52" s="66"/>
       <c r="M52" s="19" t="s">
         <v>32</v>
       </c>
@@ -4552,7 +4578,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:U59"/>
   <sheetViews>
     <sheetView topLeftCell="A19" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
@@ -4582,32 +4608,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="88" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="83"/>
-      <c r="N1" s="83"/>
-      <c r="O1" s="83"/>
-      <c r="P1" s="83"/>
-      <c r="Q1" s="83"/>
-      <c r="R1" s="83"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
+      <c r="M1" s="88"/>
+      <c r="N1" s="88"/>
+      <c r="O1" s="88"/>
+      <c r="P1" s="88"/>
+      <c r="Q1" s="88"/>
+      <c r="R1" s="88"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="86" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="82"/>
+      <c r="B2" s="87"/>
       <c r="C2" s="14"/>
       <c r="D2" s="15" t="s">
         <v>1</v>
@@ -4659,10 +4685,10 @@
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="63">
+      <c r="A3" s="68">
         <v>584</v>
       </c>
-      <c r="B3" s="64"/>
+      <c r="B3" s="69"/>
       <c r="C3" s="1" t="s">
         <v>30</v>
       </c>
@@ -4716,8 +4742,8 @@
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="65"/>
-      <c r="B4" s="66"/>
+      <c r="A4" s="70"/>
+      <c r="B4" s="71"/>
       <c r="C4" s="1" t="s">
         <v>21</v>
       </c>
@@ -4771,8 +4797,8 @@
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="65"/>
-      <c r="B5" s="66"/>
+      <c r="A5" s="70"/>
+      <c r="B5" s="71"/>
       <c r="C5" s="1" t="s">
         <v>33</v>
       </c>
@@ -4842,8 +4868,8 @@
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="65"/>
-      <c r="B6" s="66"/>
+      <c r="A6" s="70"/>
+      <c r="B6" s="71"/>
       <c r="C6" s="1" t="s">
         <v>22</v>
       </c>
@@ -4897,8 +4923,8 @@
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="67"/>
-      <c r="B7" s="68"/>
+      <c r="A7" s="72"/>
+      <c r="B7" s="73"/>
       <c r="C7" s="1" t="s">
         <v>34</v>
       </c>
@@ -4968,10 +4994,10 @@
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="69">
+      <c r="A8" s="74">
         <v>980</v>
       </c>
-      <c r="B8" s="70"/>
+      <c r="B8" s="75"/>
       <c r="C8" s="16" t="s">
         <v>30</v>
       </c>
@@ -5022,8 +5048,8 @@
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="71"/>
-      <c r="B9" s="72"/>
+      <c r="A9" s="76"/>
+      <c r="B9" s="77"/>
       <c r="C9" s="16" t="s">
         <v>21</v>
       </c>
@@ -5077,8 +5103,8 @@
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="71"/>
-      <c r="B10" s="72"/>
+      <c r="A10" s="76"/>
+      <c r="B10" s="77"/>
       <c r="C10" s="16" t="s">
         <v>35</v>
       </c>
@@ -5144,8 +5170,8 @@
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="71"/>
-      <c r="B11" s="72"/>
+      <c r="A11" s="76"/>
+      <c r="B11" s="77"/>
       <c r="C11" s="16" t="s">
         <v>22</v>
       </c>
@@ -5199,8 +5225,8 @@
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="73"/>
-      <c r="B12" s="74"/>
+      <c r="A12" s="78"/>
+      <c r="B12" s="79"/>
       <c r="C12" s="16" t="s">
         <v>34</v>
       </c>
@@ -5266,10 +5292,10 @@
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="75">
+      <c r="A13" s="80">
         <v>1280</v>
       </c>
-      <c r="B13" s="76"/>
+      <c r="B13" s="81"/>
       <c r="C13" s="13" t="s">
         <v>30</v>
       </c>
@@ -5320,8 +5346,8 @@
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="77"/>
-      <c r="B14" s="78"/>
+      <c r="A14" s="82"/>
+      <c r="B14" s="83"/>
       <c r="C14" s="4" t="s">
         <v>21</v>
       </c>
@@ -5375,8 +5401,8 @@
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="77"/>
-      <c r="B15" s="78"/>
+      <c r="A15" s="82"/>
+      <c r="B15" s="83"/>
       <c r="C15" s="4" t="s">
         <v>35</v>
       </c>
@@ -5442,8 +5468,8 @@
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="77"/>
-      <c r="B16" s="78"/>
+      <c r="A16" s="82"/>
+      <c r="B16" s="83"/>
       <c r="C16" s="4" t="s">
         <v>22</v>
       </c>
@@ -5497,8 +5523,8 @@
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A17" s="79"/>
-      <c r="B17" s="80"/>
+      <c r="A17" s="84"/>
+      <c r="B17" s="85"/>
       <c r="C17" s="4" t="s">
         <v>34</v>
       </c>
@@ -5564,10 +5590,10 @@
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A18" s="56">
+      <c r="A18" s="61">
         <v>1345</v>
       </c>
-      <c r="B18" s="57"/>
+      <c r="B18" s="62"/>
       <c r="C18" s="7" t="s">
         <v>30</v>
       </c>
@@ -5621,8 +5647,8 @@
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A19" s="58"/>
-      <c r="B19" s="59"/>
+      <c r="A19" s="63"/>
+      <c r="B19" s="64"/>
       <c r="C19" s="7" t="s">
         <v>21</v>
       </c>
@@ -5679,8 +5705,8 @@
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A20" s="58"/>
-      <c r="B20" s="59"/>
+      <c r="A20" s="63"/>
+      <c r="B20" s="64"/>
       <c r="C20" s="7" t="s">
         <v>35</v>
       </c>
@@ -5746,8 +5772,8 @@
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A21" s="58"/>
-      <c r="B21" s="59"/>
+      <c r="A21" s="63"/>
+      <c r="B21" s="64"/>
       <c r="C21" s="7" t="s">
         <v>22</v>
       </c>
@@ -5801,8 +5827,8 @@
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A22" s="60"/>
-      <c r="B22" s="61"/>
+      <c r="A22" s="65"/>
+      <c r="B22" s="66"/>
       <c r="C22" s="7" t="s">
         <v>34</v>
       </c>
@@ -5868,10 +5894,10 @@
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A23" s="84">
+      <c r="A23" s="89">
         <v>1640</v>
       </c>
-      <c r="B23" s="85"/>
+      <c r="B23" s="90"/>
       <c r="C23" s="39" t="s">
         <v>30</v>
       </c>
@@ -5902,8 +5928,8 @@
       <c r="R23" s="40"/>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A24" s="86"/>
-      <c r="B24" s="87"/>
+      <c r="A24" s="91"/>
+      <c r="B24" s="92"/>
       <c r="C24" s="39" t="s">
         <v>21</v>
       </c>
@@ -5935,8 +5961,8 @@
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A25" s="86"/>
-      <c r="B25" s="87"/>
+      <c r="A25" s="91"/>
+      <c r="B25" s="92"/>
       <c r="C25" s="39" t="s">
         <v>35</v>
       </c>
@@ -5999,8 +6025,8 @@
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A26" s="86"/>
-      <c r="B26" s="87"/>
+      <c r="A26" s="91"/>
+      <c r="B26" s="92"/>
       <c r="C26" s="39" t="s">
         <v>22</v>
       </c>
@@ -6032,8 +6058,8 @@
       </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A27" s="88"/>
-      <c r="B27" s="89"/>
+      <c r="A27" s="93"/>
+      <c r="B27" s="94"/>
       <c r="C27" s="39" t="s">
         <v>34</v>
       </c>
@@ -6107,10 +6133,10 @@
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A33" s="81" t="s">
+      <c r="A33" s="86" t="s">
         <v>31</v>
       </c>
-      <c r="B33" s="82"/>
+      <c r="B33" s="87"/>
       <c r="C33" s="14"/>
       <c r="D33" s="15" t="s">
         <v>1</v>
@@ -6159,10 +6185,10 @@
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A34" s="63">
+      <c r="A34" s="68">
         <v>584</v>
       </c>
-      <c r="B34" s="64"/>
+      <c r="B34" s="69"/>
       <c r="C34" s="1" t="s">
         <v>23</v>
       </c>
@@ -6213,8 +6239,8 @@
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A35" s="65"/>
-      <c r="B35" s="66"/>
+      <c r="A35" s="70"/>
+      <c r="B35" s="71"/>
       <c r="C35" s="1" t="s">
         <v>24</v>
       </c>
@@ -6265,8 +6291,8 @@
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A36" s="65"/>
-      <c r="B36" s="66"/>
+      <c r="A36" s="70"/>
+      <c r="B36" s="71"/>
       <c r="C36" s="19" t="s">
         <v>32</v>
       </c>
@@ -6332,8 +6358,8 @@
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A37" s="65"/>
-      <c r="B37" s="66"/>
+      <c r="A37" s="70"/>
+      <c r="B37" s="71"/>
       <c r="C37" s="1" t="s">
         <v>25</v>
       </c>
@@ -6384,8 +6410,8 @@
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A38" s="65"/>
-      <c r="B38" s="66"/>
+      <c r="A38" s="70"/>
+      <c r="B38" s="71"/>
       <c r="C38" s="1" t="s">
         <v>26</v>
       </c>
@@ -6436,8 +6462,8 @@
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A39" s="67"/>
-      <c r="B39" s="68"/>
+      <c r="A39" s="72"/>
+      <c r="B39" s="73"/>
       <c r="C39" s="19" t="s">
         <v>32</v>
       </c>
@@ -6503,10 +6529,10 @@
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A40" s="69">
+      <c r="A40" s="74">
         <v>980</v>
       </c>
-      <c r="B40" s="70"/>
+      <c r="B40" s="75"/>
       <c r="C40" s="16" t="s">
         <v>23</v>
       </c>
@@ -6557,8 +6583,8 @@
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A41" s="71"/>
-      <c r="B41" s="72"/>
+      <c r="A41" s="76"/>
+      <c r="B41" s="77"/>
       <c r="C41" s="16" t="s">
         <v>24</v>
       </c>
@@ -6609,8 +6635,8 @@
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A42" s="71"/>
-      <c r="B42" s="72"/>
+      <c r="A42" s="76"/>
+      <c r="B42" s="77"/>
       <c r="C42" s="19" t="s">
         <v>32</v>
       </c>
@@ -6676,8 +6702,8 @@
       </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A43" s="71"/>
-      <c r="B43" s="72"/>
+      <c r="A43" s="76"/>
+      <c r="B43" s="77"/>
       <c r="C43" s="16" t="s">
         <v>25</v>
       </c>
@@ -6728,8 +6754,8 @@
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A44" s="71"/>
-      <c r="B44" s="72"/>
+      <c r="A44" s="76"/>
+      <c r="B44" s="77"/>
       <c r="C44" s="16" t="s">
         <v>26</v>
       </c>
@@ -6780,8 +6806,8 @@
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A45" s="73"/>
-      <c r="B45" s="74"/>
+      <c r="A45" s="78"/>
+      <c r="B45" s="79"/>
       <c r="C45" s="19" t="s">
         <v>32</v>
       </c>
@@ -6847,10 +6873,10 @@
       </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A46" s="75">
+      <c r="A46" s="80">
         <v>1280</v>
       </c>
-      <c r="B46" s="76"/>
+      <c r="B46" s="81"/>
       <c r="C46" s="4" t="s">
         <v>23</v>
       </c>
@@ -6901,8 +6927,8 @@
       </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A47" s="77"/>
-      <c r="B47" s="78"/>
+      <c r="A47" s="82"/>
+      <c r="B47" s="83"/>
       <c r="C47" s="4" t="s">
         <v>24</v>
       </c>
@@ -6953,8 +6979,8 @@
       </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A48" s="77"/>
-      <c r="B48" s="78"/>
+      <c r="A48" s="82"/>
+      <c r="B48" s="83"/>
       <c r="C48" s="19" t="s">
         <v>32</v>
       </c>
@@ -7020,8 +7046,8 @@
       </c>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A49" s="77"/>
-      <c r="B49" s="78"/>
+      <c r="A49" s="82"/>
+      <c r="B49" s="83"/>
       <c r="C49" s="4" t="s">
         <v>25</v>
       </c>
@@ -7072,8 +7098,8 @@
       </c>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A50" s="77"/>
-      <c r="B50" s="78"/>
+      <c r="A50" s="82"/>
+      <c r="B50" s="83"/>
       <c r="C50" s="4" t="s">
         <v>26</v>
       </c>
@@ -7124,8 +7150,8 @@
       </c>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A51" s="79"/>
-      <c r="B51" s="80"/>
+      <c r="A51" s="84"/>
+      <c r="B51" s="85"/>
       <c r="C51" s="19" t="s">
         <v>32</v>
       </c>
@@ -7191,10 +7217,10 @@
       </c>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A52" s="56">
+      <c r="A52" s="61">
         <v>1345</v>
       </c>
-      <c r="B52" s="57"/>
+      <c r="B52" s="62"/>
       <c r="C52" s="7" t="s">
         <v>23</v>
       </c>
@@ -7245,8 +7271,8 @@
       </c>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A53" s="58"/>
-      <c r="B53" s="59"/>
+      <c r="A53" s="63"/>
+      <c r="B53" s="64"/>
       <c r="C53" s="7" t="s">
         <v>24</v>
       </c>
@@ -7297,8 +7323,8 @@
       </c>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A54" s="58"/>
-      <c r="B54" s="59"/>
+      <c r="A54" s="63"/>
+      <c r="B54" s="64"/>
       <c r="C54" s="19" t="s">
         <v>32</v>
       </c>
@@ -7364,8 +7390,8 @@
       </c>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A55" s="58"/>
-      <c r="B55" s="59"/>
+      <c r="A55" s="63"/>
+      <c r="B55" s="64"/>
       <c r="C55" s="7" t="s">
         <v>25</v>
       </c>
@@ -7416,8 +7442,8 @@
       </c>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A56" s="58"/>
-      <c r="B56" s="59"/>
+      <c r="A56" s="63"/>
+      <c r="B56" s="64"/>
       <c r="C56" s="7" t="s">
         <v>26</v>
       </c>
@@ -7468,8 +7494,8 @@
       </c>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A57" s="60"/>
-      <c r="B57" s="61"/>
+      <c r="A57" s="65"/>
+      <c r="B57" s="66"/>
       <c r="C57" s="19" t="s">
         <v>32</v>
       </c>
@@ -7557,7 +7583,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="C7:O36"/>
   <sheetViews>
     <sheetView topLeftCell="A11" workbookViewId="0">
@@ -7795,29 +7821,29 @@
       </c>
     </row>
     <row r="15" spans="3:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="93" t="s">
+      <c r="C15" s="98" t="s">
         <v>95</v>
       </c>
-      <c r="D15" s="93"/>
-      <c r="E15" s="94" t="s">
+      <c r="D15" s="98"/>
+      <c r="E15" s="99" t="s">
         <v>100</v>
       </c>
-      <c r="F15" s="94"/>
-      <c r="G15" s="94"/>
-      <c r="H15" s="94"/>
-      <c r="I15" s="94"/>
-      <c r="J15" s="94"/>
-      <c r="K15" s="94"/>
-      <c r="L15" s="94"/>
-      <c r="M15" s="94"/>
-      <c r="N15" s="94"/>
-      <c r="O15" s="90" t="s">
+      <c r="F15" s="99"/>
+      <c r="G15" s="99"/>
+      <c r="H15" s="99"/>
+      <c r="I15" s="99"/>
+      <c r="J15" s="99"/>
+      <c r="K15" s="99"/>
+      <c r="L15" s="99"/>
+      <c r="M15" s="99"/>
+      <c r="N15" s="99"/>
+      <c r="O15" s="95" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="16" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C16" s="93"/>
-      <c r="D16" s="93"/>
+      <c r="C16" s="98"/>
+      <c r="D16" s="98"/>
       <c r="E16" s="42">
         <v>1</v>
       </c>
@@ -7848,10 +7874,10 @@
       <c r="N16" s="42">
         <v>10</v>
       </c>
-      <c r="O16" s="90"/>
+      <c r="O16" s="95"/>
     </row>
     <row r="17" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C17" s="90" t="s">
+      <c r="C17" s="95" t="s">
         <v>96</v>
       </c>
       <c r="D17" s="42" t="s">
@@ -7887,13 +7913,13 @@
       <c r="N17" s="43">
         <v>41</v>
       </c>
-      <c r="O17" s="91">
+      <c r="O17" s="96">
         <f>SUM(E17:N17)/410</f>
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C18" s="90"/>
+      <c r="C18" s="95"/>
       <c r="D18" s="42" t="s">
         <v>98</v>
       </c>
@@ -7927,32 +7953,32 @@
       <c r="N18" s="43">
         <v>0</v>
       </c>
-      <c r="O18" s="92"/>
+      <c r="O18" s="97"/>
     </row>
     <row r="21" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C21" s="93" t="s">
+      <c r="C21" s="98" t="s">
         <v>101</v>
       </c>
-      <c r="D21" s="93"/>
-      <c r="E21" s="94" t="s">
+      <c r="D21" s="98"/>
+      <c r="E21" s="99" t="s">
         <v>100</v>
       </c>
-      <c r="F21" s="94"/>
-      <c r="G21" s="94"/>
-      <c r="H21" s="94"/>
-      <c r="I21" s="94"/>
-      <c r="J21" s="94"/>
-      <c r="K21" s="94"/>
-      <c r="L21" s="94"/>
-      <c r="M21" s="94"/>
-      <c r="N21" s="94"/>
-      <c r="O21" s="90" t="s">
+      <c r="F21" s="99"/>
+      <c r="G21" s="99"/>
+      <c r="H21" s="99"/>
+      <c r="I21" s="99"/>
+      <c r="J21" s="99"/>
+      <c r="K21" s="99"/>
+      <c r="L21" s="99"/>
+      <c r="M21" s="99"/>
+      <c r="N21" s="99"/>
+      <c r="O21" s="95" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="22" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C22" s="93"/>
-      <c r="D22" s="93"/>
+      <c r="C22" s="98"/>
+      <c r="D22" s="98"/>
       <c r="E22" s="42">
         <v>1</v>
       </c>
@@ -7983,10 +8009,10 @@
       <c r="N22" s="42">
         <v>10</v>
       </c>
-      <c r="O22" s="90"/>
+      <c r="O22" s="95"/>
     </row>
     <row r="23" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C23" s="90" t="s">
+      <c r="C23" s="95" t="s">
         <v>96</v>
       </c>
       <c r="D23" s="42" t="s">
@@ -8022,13 +8048,13 @@
       <c r="N23" s="35">
         <v>27</v>
       </c>
-      <c r="O23" s="91">
+      <c r="O23" s="96">
         <f>SUM(E23:N23)/410</f>
         <v>0.86829268292682926</v>
       </c>
     </row>
     <row r="24" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C24" s="90"/>
+      <c r="C24" s="95"/>
       <c r="D24" s="42" t="s">
         <v>98</v>
       </c>
@@ -8062,32 +8088,32 @@
       <c r="N24" s="43">
         <v>14</v>
       </c>
-      <c r="O24" s="92"/>
+      <c r="O24" s="97"/>
     </row>
     <row r="27" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C27" s="93" t="s">
+      <c r="C27" s="98" t="s">
         <v>102</v>
       </c>
-      <c r="D27" s="93"/>
-      <c r="E27" s="94" t="s">
+      <c r="D27" s="98"/>
+      <c r="E27" s="99" t="s">
         <v>100</v>
       </c>
-      <c r="F27" s="94"/>
-      <c r="G27" s="94"/>
-      <c r="H27" s="94"/>
-      <c r="I27" s="94"/>
-      <c r="J27" s="94"/>
-      <c r="K27" s="94"/>
-      <c r="L27" s="94"/>
-      <c r="M27" s="94"/>
-      <c r="N27" s="94"/>
-      <c r="O27" s="90" t="s">
+      <c r="F27" s="99"/>
+      <c r="G27" s="99"/>
+      <c r="H27" s="99"/>
+      <c r="I27" s="99"/>
+      <c r="J27" s="99"/>
+      <c r="K27" s="99"/>
+      <c r="L27" s="99"/>
+      <c r="M27" s="99"/>
+      <c r="N27" s="99"/>
+      <c r="O27" s="95" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="28" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C28" s="93"/>
-      <c r="D28" s="93"/>
+      <c r="C28" s="98"/>
+      <c r="D28" s="98"/>
       <c r="E28" s="42">
         <v>1</v>
       </c>
@@ -8118,10 +8144,10 @@
       <c r="N28" s="42">
         <v>10</v>
       </c>
-      <c r="O28" s="90"/>
+      <c r="O28" s="95"/>
     </row>
     <row r="29" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C29" s="90" t="s">
+      <c r="C29" s="95" t="s">
         <v>96</v>
       </c>
       <c r="D29" s="42" t="s">
@@ -8157,13 +8183,13 @@
       <c r="N29" s="35">
         <v>29</v>
       </c>
-      <c r="O29" s="91">
+      <c r="O29" s="96">
         <f>SUM(E29:N29)/410</f>
         <v>0.69512195121951215</v>
       </c>
     </row>
     <row r="30" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C30" s="90"/>
+      <c r="C30" s="95"/>
       <c r="D30" s="42" t="s">
         <v>98</v>
       </c>
@@ -8197,7 +8223,7 @@
       <c r="N30" s="43">
         <v>12</v>
       </c>
-      <c r="O30" s="92"/>
+      <c r="O30" s="97"/>
     </row>
     <row r="33" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C33" s="46"/>
@@ -8269,11 +8295,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A4:AN41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q18" sqref="Q18"/>
+    <sheetView topLeftCell="N1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AG4" sqref="AG4:AN9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8290,62 +8316,62 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="93" t="s">
+      <c r="B4" s="98" t="s">
         <v>111</v>
       </c>
-      <c r="C4" s="93"/>
-      <c r="D4" s="94" t="s">
+      <c r="C4" s="98"/>
+      <c r="D4" s="99" t="s">
         <v>100</v>
       </c>
-      <c r="E4" s="94"/>
-      <c r="F4" s="94"/>
-      <c r="G4" s="94"/>
-      <c r="H4" s="94"/>
-      <c r="I4" s="94"/>
-      <c r="J4" s="94"/>
-      <c r="K4" s="94"/>
-      <c r="L4" s="94"/>
-      <c r="M4" s="94"/>
-      <c r="N4" s="90" t="s">
+      <c r="E4" s="99"/>
+      <c r="F4" s="99"/>
+      <c r="G4" s="99"/>
+      <c r="H4" s="99"/>
+      <c r="I4" s="99"/>
+      <c r="J4" s="99"/>
+      <c r="K4" s="99"/>
+      <c r="L4" s="99"/>
+      <c r="M4" s="99"/>
+      <c r="N4" s="95" t="s">
         <v>116</v>
       </c>
-      <c r="R4" s="93" t="s">
+      <c r="R4" s="98" t="s">
         <v>117</v>
       </c>
-      <c r="S4" s="93"/>
-      <c r="T4" s="94" t="s">
+      <c r="S4" s="98"/>
+      <c r="T4" s="99" t="s">
         <v>100</v>
       </c>
-      <c r="U4" s="94"/>
-      <c r="V4" s="94"/>
-      <c r="W4" s="94"/>
-      <c r="X4" s="94"/>
-      <c r="Y4" s="94"/>
-      <c r="Z4" s="94"/>
-      <c r="AA4" s="94"/>
-      <c r="AB4" s="94"/>
-      <c r="AC4" s="94"/>
-      <c r="AD4" s="90" t="s">
+      <c r="U4" s="99"/>
+      <c r="V4" s="99"/>
+      <c r="W4" s="99"/>
+      <c r="X4" s="99"/>
+      <c r="Y4" s="99"/>
+      <c r="Z4" s="99"/>
+      <c r="AA4" s="99"/>
+      <c r="AB4" s="99"/>
+      <c r="AC4" s="99"/>
+      <c r="AD4" s="95" t="s">
         <v>105</v>
       </c>
-      <c r="AG4" s="90" t="s">
+      <c r="AG4" s="95" t="s">
         <v>59</v>
       </c>
-      <c r="AH4" s="94" t="s">
+      <c r="AH4" s="99" t="s">
         <v>109</v>
       </c>
-      <c r="AI4" s="94" t="s">
+      <c r="AI4" s="99" t="s">
         <v>110</v>
       </c>
-      <c r="AJ4" s="94"/>
-      <c r="AK4" s="94"/>
-      <c r="AL4" s="94"/>
-      <c r="AM4" s="94"/>
-      <c r="AN4" s="94"/>
+      <c r="AJ4" s="99"/>
+      <c r="AK4" s="99"/>
+      <c r="AL4" s="99"/>
+      <c r="AM4" s="99"/>
+      <c r="AN4" s="99"/>
     </row>
     <row r="5" spans="2:40" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="93"/>
-      <c r="C5" s="93"/>
+      <c r="B5" s="98"/>
+      <c r="C5" s="98"/>
       <c r="D5" s="45">
         <v>1</v>
       </c>
@@ -8376,9 +8402,9 @@
       <c r="M5" s="45">
         <v>10</v>
       </c>
-      <c r="N5" s="90"/>
-      <c r="R5" s="93"/>
-      <c r="S5" s="93"/>
+      <c r="N5" s="95"/>
+      <c r="R5" s="98"/>
+      <c r="S5" s="98"/>
       <c r="T5" s="45">
         <v>1</v>
       </c>
@@ -8409,9 +8435,9 @@
       <c r="AC5" s="45">
         <v>10</v>
       </c>
-      <c r="AD5" s="90"/>
-      <c r="AG5" s="90"/>
-      <c r="AH5" s="94"/>
+      <c r="AD5" s="95"/>
+      <c r="AG5" s="95"/>
+      <c r="AH5" s="99"/>
       <c r="AI5" s="53" t="s">
         <v>1</v>
       </c>
@@ -8432,7 +8458,7 @@
       </c>
     </row>
     <row r="6" spans="2:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="112" t="s">
+      <c r="B6" s="100" t="s">
         <v>110</v>
       </c>
       <c r="C6" s="45" t="s">
@@ -8482,7 +8508,7 @@
         <f>AVERAGE(D6:M6)</f>
         <v>9.2636986301369864E-2</v>
       </c>
-      <c r="R6" s="112" t="s">
+      <c r="R6" s="100" t="s">
         <v>110</v>
       </c>
       <c r="S6" s="45" t="s">
@@ -8528,33 +8554,33 @@
       <c r="AH6" s="53" t="s">
         <v>107</v>
       </c>
-      <c r="AI6" s="110">
+      <c r="AI6" s="58">
         <f>AD6</f>
         <v>5.8035200000000009E-2</v>
       </c>
-      <c r="AJ6" s="110">
+      <c r="AJ6" s="58">
         <f>AD7</f>
         <v>4.6922399999999996E-2</v>
       </c>
-      <c r="AK6" s="110">
+      <c r="AK6" s="58">
         <f>AD8</f>
         <v>4.1415600000000004E-2</v>
       </c>
-      <c r="AL6" s="110">
+      <c r="AL6" s="58">
         <f>AD9</f>
         <v>3.2311600000000003E-2</v>
       </c>
-      <c r="AM6" s="110">
+      <c r="AM6" s="58">
         <f>AD10</f>
         <v>2.9476800000000004E-2</v>
       </c>
-      <c r="AN6" s="110">
+      <c r="AN6" s="58">
         <f>AD11</f>
         <v>3.0045600000000006E-2</v>
       </c>
     </row>
     <row r="7" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B7" s="112"/>
+      <c r="B7" s="100"/>
       <c r="C7" s="45" t="s">
         <v>2</v>
       </c>
@@ -8602,7 +8628,7 @@
         <f t="shared" ref="N7:N11" si="0">AVERAGE(D7:M7)</f>
         <v>0.2441780821917808</v>
       </c>
-      <c r="R7" s="112"/>
+      <c r="R7" s="100"/>
       <c r="S7" s="45" t="s">
         <v>2</v>
       </c>
@@ -8672,7 +8698,7 @@
       </c>
     </row>
     <row r="8" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B8" s="112"/>
+      <c r="B8" s="100"/>
       <c r="C8" s="45" t="s">
         <v>3</v>
       </c>
@@ -8720,7 +8746,7 @@
         <f t="shared" si="0"/>
         <v>0.31849315068493156</v>
       </c>
-      <c r="R8" s="112"/>
+      <c r="R8" s="100"/>
       <c r="S8" s="45" t="s">
         <v>3</v>
       </c>
@@ -8790,7 +8816,7 @@
       </c>
     </row>
     <row r="9" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B9" s="112"/>
+      <c r="B9" s="100"/>
       <c r="C9" s="45" t="s">
         <v>52</v>
       </c>
@@ -8838,7 +8864,7 @@
         <f t="shared" si="0"/>
         <v>0.49383561643835616</v>
       </c>
-      <c r="R9" s="112"/>
+      <c r="R9" s="100"/>
       <c r="S9" s="45" t="s">
         <v>52</v>
       </c>
@@ -8908,7 +8934,7 @@
       </c>
     </row>
     <row r="10" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B10" s="112"/>
+      <c r="B10" s="100"/>
       <c r="C10" s="45" t="s">
         <v>51</v>
       </c>
@@ -8956,7 +8982,7 @@
         <f t="shared" si="0"/>
         <v>0.59845890410958913</v>
       </c>
-      <c r="R10" s="112"/>
+      <c r="R10" s="100"/>
       <c r="S10" s="45" t="s">
         <v>51</v>
       </c>
@@ -8996,7 +9022,7 @@
       </c>
     </row>
     <row r="11" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B11" s="112"/>
+      <c r="B11" s="100"/>
       <c r="C11" s="45" t="s">
         <v>69</v>
       </c>
@@ -9044,7 +9070,7 @@
         <f t="shared" si="0"/>
         <v>0.56746575342465744</v>
       </c>
-      <c r="R11" s="112"/>
+      <c r="R11" s="100"/>
       <c r="S11" s="45" t="s">
         <v>69</v>
       </c>
@@ -9084,62 +9110,62 @@
       </c>
     </row>
     <row r="14" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B14" s="93" t="s">
+      <c r="B14" s="98" t="s">
         <v>112</v>
       </c>
-      <c r="C14" s="93"/>
-      <c r="D14" s="94" t="s">
+      <c r="C14" s="98"/>
+      <c r="D14" s="99" t="s">
         <v>100</v>
       </c>
-      <c r="E14" s="94"/>
-      <c r="F14" s="94"/>
-      <c r="G14" s="94"/>
-      <c r="H14" s="94"/>
-      <c r="I14" s="94"/>
-      <c r="J14" s="94"/>
-      <c r="K14" s="94"/>
-      <c r="L14" s="94"/>
-      <c r="M14" s="94"/>
-      <c r="N14" s="90" t="s">
+      <c r="E14" s="99"/>
+      <c r="F14" s="99"/>
+      <c r="G14" s="99"/>
+      <c r="H14" s="99"/>
+      <c r="I14" s="99"/>
+      <c r="J14" s="99"/>
+      <c r="K14" s="99"/>
+      <c r="L14" s="99"/>
+      <c r="M14" s="99"/>
+      <c r="N14" s="95" t="s">
         <v>105</v>
       </c>
-      <c r="R14" s="93" t="s">
+      <c r="R14" s="98" t="s">
         <v>118</v>
       </c>
-      <c r="S14" s="93"/>
-      <c r="T14" s="94" t="s">
+      <c r="S14" s="98"/>
+      <c r="T14" s="99" t="s">
         <v>100</v>
       </c>
-      <c r="U14" s="94"/>
-      <c r="V14" s="94"/>
-      <c r="W14" s="94"/>
-      <c r="X14" s="94"/>
-      <c r="Y14" s="94"/>
-      <c r="Z14" s="94"/>
-      <c r="AA14" s="94"/>
-      <c r="AB14" s="94"/>
-      <c r="AC14" s="94"/>
-      <c r="AD14" s="90" t="s">
+      <c r="U14" s="99"/>
+      <c r="V14" s="99"/>
+      <c r="W14" s="99"/>
+      <c r="X14" s="99"/>
+      <c r="Y14" s="99"/>
+      <c r="Z14" s="99"/>
+      <c r="AA14" s="99"/>
+      <c r="AB14" s="99"/>
+      <c r="AC14" s="99"/>
+      <c r="AD14" s="95" t="s">
         <v>105</v>
       </c>
-      <c r="AG14" s="90" t="s">
+      <c r="AG14" s="95" t="s">
         <v>59</v>
       </c>
-      <c r="AH14" s="94" t="s">
+      <c r="AH14" s="99" t="s">
         <v>109</v>
       </c>
-      <c r="AI14" s="94" t="s">
+      <c r="AI14" s="99" t="s">
         <v>110</v>
       </c>
-      <c r="AJ14" s="94"/>
-      <c r="AK14" s="94"/>
-      <c r="AL14" s="94"/>
-      <c r="AM14" s="94"/>
-      <c r="AN14" s="94"/>
+      <c r="AJ14" s="99"/>
+      <c r="AK14" s="99"/>
+      <c r="AL14" s="99"/>
+      <c r="AM14" s="99"/>
+      <c r="AN14" s="99"/>
     </row>
     <row r="15" spans="2:40" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="93"/>
-      <c r="C15" s="93"/>
+      <c r="B15" s="98"/>
+      <c r="C15" s="98"/>
       <c r="D15" s="45">
         <v>1</v>
       </c>
@@ -9170,9 +9196,9 @@
       <c r="M15" s="45">
         <v>10</v>
       </c>
-      <c r="N15" s="90"/>
-      <c r="R15" s="93"/>
-      <c r="S15" s="93"/>
+      <c r="N15" s="95"/>
+      <c r="R15" s="98"/>
+      <c r="S15" s="98"/>
       <c r="T15" s="45">
         <v>1</v>
       </c>
@@ -9203,9 +9229,9 @@
       <c r="AC15" s="45">
         <v>10</v>
       </c>
-      <c r="AD15" s="90"/>
-      <c r="AG15" s="90"/>
-      <c r="AH15" s="94"/>
+      <c r="AD15" s="95"/>
+      <c r="AG15" s="95"/>
+      <c r="AH15" s="99"/>
       <c r="AI15" s="53" t="s">
         <v>1</v>
       </c>
@@ -9226,7 +9252,7 @@
       </c>
     </row>
     <row r="16" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B16" s="112" t="s">
+      <c r="B16" s="100" t="s">
         <v>110</v>
       </c>
       <c r="C16" s="45" t="s">
@@ -9276,7 +9302,7 @@
         <f>AVERAGE(D16:M16)</f>
         <v>9.5918367346938788E-2</v>
       </c>
-      <c r="R16" s="112" t="s">
+      <c r="R16" s="100" t="s">
         <v>110</v>
       </c>
       <c r="S16" s="45" t="s">
@@ -9322,33 +9348,33 @@
       <c r="AH16" s="53" t="s">
         <v>106</v>
       </c>
-      <c r="AI16" s="111">
+      <c r="AI16" s="59">
         <f>N6</f>
         <v>9.2636986301369864E-2</v>
       </c>
-      <c r="AJ16" s="111">
+      <c r="AJ16" s="59">
         <f>N7</f>
         <v>0.2441780821917808</v>
       </c>
-      <c r="AK16" s="111">
+      <c r="AK16" s="59">
         <f>N8</f>
         <v>0.31849315068493156</v>
       </c>
-      <c r="AL16" s="111">
+      <c r="AL16" s="59">
         <f>N9</f>
         <v>0.49383561643835616</v>
       </c>
-      <c r="AM16" s="111">
+      <c r="AM16" s="59">
         <f>N10</f>
         <v>0.59845890410958913</v>
       </c>
-      <c r="AN16" s="111">
+      <c r="AN16" s="59">
         <f>N11</f>
         <v>0.56746575342465744</v>
       </c>
     </row>
     <row r="17" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="B17" s="112"/>
+      <c r="B17" s="100"/>
       <c r="C17" s="45" t="s">
         <v>2</v>
       </c>
@@ -9396,7 +9422,7 @@
         <f t="shared" ref="N17:N21" si="2">AVERAGE(D17:M17)</f>
         <v>0.19918367346938778</v>
       </c>
-      <c r="R17" s="112"/>
+      <c r="R17" s="100"/>
       <c r="S17" s="45" t="s">
         <v>2</v>
       </c>
@@ -9440,33 +9466,33 @@
       <c r="AH17" s="53" t="s">
         <v>106</v>
       </c>
-      <c r="AI17" s="109">
+      <c r="AI17" s="57">
         <f>N16</f>
         <v>9.5918367346938788E-2</v>
       </c>
-      <c r="AJ17" s="109">
+      <c r="AJ17" s="57">
         <f>N17</f>
         <v>0.19918367346938778</v>
       </c>
-      <c r="AK17" s="109">
+      <c r="AK17" s="57">
         <f>N18</f>
         <v>0.32346938775510203</v>
       </c>
-      <c r="AL17" s="109">
+      <c r="AL17" s="57">
         <f>N19</f>
         <v>0.49091836734693883</v>
       </c>
-      <c r="AM17" s="109">
+      <c r="AM17" s="57">
         <f>N20</f>
         <v>0.54499999999999993</v>
       </c>
-      <c r="AN17" s="109">
+      <c r="AN17" s="57">
         <f>N21</f>
         <v>0.60499999999999998</v>
       </c>
     </row>
     <row r="18" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="B18" s="112"/>
+      <c r="B18" s="100"/>
       <c r="C18" s="45" t="s">
         <v>3</v>
       </c>
@@ -9514,7 +9540,7 @@
         <f t="shared" si="2"/>
         <v>0.32346938775510203</v>
       </c>
-      <c r="R18" s="112"/>
+      <c r="R18" s="100"/>
       <c r="S18" s="45" t="s">
         <v>3</v>
       </c>
@@ -9558,23 +9584,23 @@
       <c r="AH18" s="53" t="s">
         <v>106</v>
       </c>
-      <c r="AI18" s="109">
+      <c r="AI18" s="57">
         <f>N26</f>
         <v>0.10015624999999999</v>
       </c>
-      <c r="AJ18" s="109">
+      <c r="AJ18" s="57">
         <f>N27</f>
         <v>0.16820312499999998</v>
       </c>
-      <c r="AK18" s="109">
+      <c r="AK18" s="57">
         <f>N28</f>
         <v>0.37398437499999998</v>
       </c>
-      <c r="AL18" s="109">
+      <c r="AL18" s="57">
         <f>N29</f>
         <v>0.45929687499999999</v>
       </c>
-      <c r="AM18" s="109">
+      <c r="AM18" s="57">
         <f>N30</f>
         <v>0.50226562500000005</v>
       </c>
@@ -9584,7 +9610,7 @@
       </c>
     </row>
     <row r="19" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="B19" s="112"/>
+      <c r="B19" s="100"/>
       <c r="C19" s="45" t="s">
         <v>52</v>
       </c>
@@ -9632,7 +9658,7 @@
         <f t="shared" si="2"/>
         <v>0.49091836734693883</v>
       </c>
-      <c r="R19" s="112"/>
+      <c r="R19" s="100"/>
       <c r="S19" s="45" t="s">
         <v>52</v>
       </c>
@@ -9676,23 +9702,23 @@
       <c r="AH19" s="53" t="s">
         <v>106</v>
       </c>
-      <c r="AI19" s="109">
+      <c r="AI19" s="57">
         <f>N36</f>
         <v>0.10200743494423789</v>
       </c>
-      <c r="AJ19" s="109">
+      <c r="AJ19" s="57">
         <f>N37</f>
         <v>0.16988847583643124</v>
       </c>
-      <c r="AK19" s="109">
+      <c r="AK19" s="57">
         <f>N38</f>
         <v>0.37724907063197022</v>
       </c>
-      <c r="AL19" s="109">
+      <c r="AL19" s="57">
         <f>N39</f>
         <v>0.45933085501858739</v>
       </c>
-      <c r="AM19" s="109">
+      <c r="AM19" s="57">
         <f>N40</f>
         <v>0.54542750929368033</v>
       </c>
@@ -9702,7 +9728,7 @@
       </c>
     </row>
     <row r="20" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="B20" s="112"/>
+      <c r="B20" s="100"/>
       <c r="C20" s="45" t="s">
         <v>51</v>
       </c>
@@ -9750,7 +9776,7 @@
         <f t="shared" si="2"/>
         <v>0.54499999999999993</v>
       </c>
-      <c r="R20" s="112"/>
+      <c r="R20" s="100"/>
       <c r="S20" s="45" t="s">
         <v>51</v>
       </c>
@@ -9790,7 +9816,7 @@
       </c>
     </row>
     <row r="21" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="B21" s="112"/>
+      <c r="B21" s="100"/>
       <c r="C21" s="45" t="s">
         <v>69</v>
       </c>
@@ -9838,7 +9864,7 @@
         <f t="shared" si="2"/>
         <v>0.60499999999999998</v>
       </c>
-      <c r="R21" s="112"/>
+      <c r="R21" s="100"/>
       <c r="S21" s="45" t="s">
         <v>69</v>
       </c>
@@ -9878,48 +9904,48 @@
       </c>
     </row>
     <row r="24" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="B24" s="93" t="s">
+      <c r="B24" s="98" t="s">
         <v>113</v>
       </c>
-      <c r="C24" s="93"/>
-      <c r="D24" s="94" t="s">
+      <c r="C24" s="98"/>
+      <c r="D24" s="99" t="s">
         <v>100</v>
       </c>
-      <c r="E24" s="94"/>
-      <c r="F24" s="94"/>
-      <c r="G24" s="94"/>
-      <c r="H24" s="94"/>
-      <c r="I24" s="94"/>
-      <c r="J24" s="94"/>
-      <c r="K24" s="94"/>
-      <c r="L24" s="94"/>
-      <c r="M24" s="94"/>
-      <c r="N24" s="90" t="s">
+      <c r="E24" s="99"/>
+      <c r="F24" s="99"/>
+      <c r="G24" s="99"/>
+      <c r="H24" s="99"/>
+      <c r="I24" s="99"/>
+      <c r="J24" s="99"/>
+      <c r="K24" s="99"/>
+      <c r="L24" s="99"/>
+      <c r="M24" s="99"/>
+      <c r="N24" s="95" t="s">
         <v>105</v>
       </c>
-      <c r="R24" s="93" t="s">
+      <c r="R24" s="98" t="s">
         <v>119</v>
       </c>
-      <c r="S24" s="93"/>
-      <c r="T24" s="94" t="s">
+      <c r="S24" s="98"/>
+      <c r="T24" s="99" t="s">
         <v>100</v>
       </c>
-      <c r="U24" s="94"/>
-      <c r="V24" s="94"/>
-      <c r="W24" s="94"/>
-      <c r="X24" s="94"/>
-      <c r="Y24" s="94"/>
-      <c r="Z24" s="94"/>
-      <c r="AA24" s="94"/>
-      <c r="AB24" s="94"/>
-      <c r="AC24" s="94"/>
-      <c r="AD24" s="90" t="s">
+      <c r="U24" s="99"/>
+      <c r="V24" s="99"/>
+      <c r="W24" s="99"/>
+      <c r="X24" s="99"/>
+      <c r="Y24" s="99"/>
+      <c r="Z24" s="99"/>
+      <c r="AA24" s="99"/>
+      <c r="AB24" s="99"/>
+      <c r="AC24" s="99"/>
+      <c r="AD24" s="95" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="25" spans="1:40" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="93"/>
-      <c r="C25" s="93"/>
+      <c r="B25" s="98"/>
+      <c r="C25" s="98"/>
       <c r="D25" s="45">
         <v>1</v>
       </c>
@@ -9950,9 +9976,9 @@
       <c r="M25" s="45">
         <v>10</v>
       </c>
-      <c r="N25" s="90"/>
-      <c r="R25" s="93"/>
-      <c r="S25" s="93"/>
+      <c r="N25" s="95"/>
+      <c r="R25" s="98"/>
+      <c r="S25" s="98"/>
       <c r="T25" s="45">
         <v>1</v>
       </c>
@@ -9983,10 +10009,10 @@
       <c r="AC25" s="45">
         <v>10</v>
       </c>
-      <c r="AD25" s="90"/>
+      <c r="AD25" s="95"/>
     </row>
     <row r="26" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="B26" s="112" t="s">
+      <c r="B26" s="100" t="s">
         <v>110</v>
       </c>
       <c r="C26" s="45" t="s">
@@ -10036,7 +10062,7 @@
         <f>AVERAGE(D26:M26)</f>
         <v>0.10015624999999999</v>
       </c>
-      <c r="R26" s="112" t="s">
+      <c r="R26" s="100" t="s">
         <v>110</v>
       </c>
       <c r="S26" s="45" t="s">
@@ -10078,7 +10104,7 @@
       </c>
     </row>
     <row r="27" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="B27" s="112"/>
+      <c r="B27" s="100"/>
       <c r="C27" s="45" t="s">
         <v>2</v>
       </c>
@@ -10123,10 +10149,10 @@
         <v>0.28125</v>
       </c>
       <c r="N27" s="50">
-        <f t="shared" ref="N27:N31" si="4">AVERAGE(D27:M27)</f>
+        <f t="shared" ref="N27:N30" si="4">AVERAGE(D27:M27)</f>
         <v>0.16820312499999998</v>
       </c>
-      <c r="R27" s="112"/>
+      <c r="R27" s="100"/>
       <c r="S27" s="45" t="s">
         <v>2</v>
       </c>
@@ -10161,12 +10187,12 @@
         <v>0.104836</v>
       </c>
       <c r="AD27" s="52">
-        <f t="shared" ref="AD27:AD31" si="5">AVERAGE(T27:AC27)</f>
+        <f t="shared" ref="AD27:AD30" si="5">AVERAGE(T27:AC27)</f>
         <v>0.11091480000000001</v>
       </c>
     </row>
     <row r="28" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="B28" s="112"/>
+      <c r="B28" s="100"/>
       <c r="C28" s="45" t="s">
         <v>3</v>
       </c>
@@ -10214,7 +10240,7 @@
         <f t="shared" si="4"/>
         <v>0.37398437499999998</v>
       </c>
-      <c r="R28" s="112"/>
+      <c r="R28" s="100"/>
       <c r="S28" s="45" t="s">
         <v>3</v>
       </c>
@@ -10254,7 +10280,7 @@
       </c>
     </row>
     <row r="29" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="B29" s="112"/>
+      <c r="B29" s="100"/>
       <c r="C29" s="45" t="s">
         <v>52</v>
       </c>
@@ -10302,7 +10328,7 @@
         <f t="shared" si="4"/>
         <v>0.45929687499999999</v>
       </c>
-      <c r="R29" s="112"/>
+      <c r="R29" s="100"/>
       <c r="S29" s="45" t="s">
         <v>52</v>
       </c>
@@ -10342,7 +10368,7 @@
       </c>
     </row>
     <row r="30" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="B30" s="112"/>
+      <c r="B30" s="100"/>
       <c r="C30" s="45" t="s">
         <v>51</v>
       </c>
@@ -10390,7 +10416,7 @@
         <f t="shared" si="4"/>
         <v>0.50226562500000005</v>
       </c>
-      <c r="R30" s="112"/>
+      <c r="R30" s="100"/>
       <c r="S30" s="45" t="s">
         <v>51</v>
       </c>
@@ -10433,7 +10459,7 @@
       <c r="A31" t="s">
         <v>108</v>
       </c>
-      <c r="B31" s="112"/>
+      <c r="B31" s="100"/>
       <c r="C31" s="54" t="s">
         <v>69</v>
       </c>
@@ -10470,7 +10496,7 @@
       <c r="N31" s="55" t="s">
         <v>115</v>
       </c>
-      <c r="R31" s="112"/>
+      <c r="R31" s="100"/>
       <c r="S31" s="54" t="s">
         <v>69</v>
       </c>
@@ -10509,48 +10535,48 @@
       </c>
     </row>
     <row r="34" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B34" s="93" t="s">
+      <c r="B34" s="98" t="s">
         <v>114</v>
       </c>
-      <c r="C34" s="93"/>
-      <c r="D34" s="94" t="s">
+      <c r="C34" s="98"/>
+      <c r="D34" s="99" t="s">
         <v>100</v>
       </c>
-      <c r="E34" s="94"/>
-      <c r="F34" s="94"/>
-      <c r="G34" s="94"/>
-      <c r="H34" s="94"/>
-      <c r="I34" s="94"/>
-      <c r="J34" s="94"/>
-      <c r="K34" s="94"/>
-      <c r="L34" s="94"/>
-      <c r="M34" s="94"/>
-      <c r="N34" s="90" t="s">
+      <c r="E34" s="99"/>
+      <c r="F34" s="99"/>
+      <c r="G34" s="99"/>
+      <c r="H34" s="99"/>
+      <c r="I34" s="99"/>
+      <c r="J34" s="99"/>
+      <c r="K34" s="99"/>
+      <c r="L34" s="99"/>
+      <c r="M34" s="99"/>
+      <c r="N34" s="95" t="s">
         <v>105</v>
       </c>
-      <c r="R34" s="93" t="s">
+      <c r="R34" s="98" t="s">
         <v>120</v>
       </c>
-      <c r="S34" s="93"/>
-      <c r="T34" s="94" t="s">
+      <c r="S34" s="98"/>
+      <c r="T34" s="99" t="s">
         <v>100</v>
       </c>
-      <c r="U34" s="94"/>
-      <c r="V34" s="94"/>
-      <c r="W34" s="94"/>
-      <c r="X34" s="94"/>
-      <c r="Y34" s="94"/>
-      <c r="Z34" s="94"/>
-      <c r="AA34" s="94"/>
-      <c r="AB34" s="94"/>
-      <c r="AC34" s="94"/>
-      <c r="AD34" s="90" t="s">
+      <c r="U34" s="99"/>
+      <c r="V34" s="99"/>
+      <c r="W34" s="99"/>
+      <c r="X34" s="99"/>
+      <c r="Y34" s="99"/>
+      <c r="Z34" s="99"/>
+      <c r="AA34" s="99"/>
+      <c r="AB34" s="99"/>
+      <c r="AC34" s="99"/>
+      <c r="AD34" s="95" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="35" spans="1:30" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="93"/>
-      <c r="C35" s="93"/>
+      <c r="B35" s="98"/>
+      <c r="C35" s="98"/>
       <c r="D35" s="45">
         <v>1</v>
       </c>
@@ -10581,9 +10607,9 @@
       <c r="M35" s="45">
         <v>10</v>
       </c>
-      <c r="N35" s="90"/>
-      <c r="R35" s="93"/>
-      <c r="S35" s="93"/>
+      <c r="N35" s="95"/>
+      <c r="R35" s="98"/>
+      <c r="S35" s="98"/>
       <c r="T35" s="45">
         <v>1</v>
       </c>
@@ -10614,10 +10640,10 @@
       <c r="AC35" s="45">
         <v>10</v>
       </c>
-      <c r="AD35" s="90"/>
+      <c r="AD35" s="95"/>
     </row>
     <row r="36" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B36" s="112" t="s">
+      <c r="B36" s="100" t="s">
         <v>110</v>
       </c>
       <c r="C36" s="45" t="s">
@@ -10667,7 +10693,7 @@
         <f>AVERAGE(D36:M36)</f>
         <v>0.10200743494423789</v>
       </c>
-      <c r="R36" s="112" t="s">
+      <c r="R36" s="100" t="s">
         <v>110</v>
       </c>
       <c r="S36" s="45" t="s">
@@ -10709,7 +10735,7 @@
       </c>
     </row>
     <row r="37" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B37" s="112"/>
+      <c r="B37" s="100"/>
       <c r="C37" s="45" t="s">
         <v>2</v>
       </c>
@@ -10754,10 +10780,10 @@
         <v>0.28996282527881045</v>
       </c>
       <c r="N37" s="50">
-        <f t="shared" ref="N37:N41" si="6">AVERAGE(D37:M37)</f>
+        <f t="shared" ref="N37:N40" si="6">AVERAGE(D37:M37)</f>
         <v>0.16988847583643124</v>
       </c>
-      <c r="R37" s="112"/>
+      <c r="R37" s="100"/>
       <c r="S37" s="45" t="s">
         <v>2</v>
       </c>
@@ -10792,12 +10818,12 @@
         <v>0.10981200000000001</v>
       </c>
       <c r="AD37" s="52">
-        <f t="shared" ref="AD37:AD41" si="7">AVERAGE(T37:AC37)</f>
+        <f t="shared" ref="AD37:AD40" si="7">AVERAGE(T37:AC37)</f>
         <v>0.11642079999999999</v>
       </c>
     </row>
     <row r="38" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B38" s="112"/>
+      <c r="B38" s="100"/>
       <c r="C38" s="45" t="s">
         <v>3</v>
       </c>
@@ -10845,7 +10871,7 @@
         <f t="shared" si="6"/>
         <v>0.37724907063197022</v>
       </c>
-      <c r="R38" s="112"/>
+      <c r="R38" s="100"/>
       <c r="S38" s="45" t="s">
         <v>3</v>
       </c>
@@ -10885,7 +10911,7 @@
       </c>
     </row>
     <row r="39" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B39" s="112"/>
+      <c r="B39" s="100"/>
       <c r="C39" s="45" t="s">
         <v>52</v>
       </c>
@@ -10933,7 +10959,7 @@
         <f t="shared" si="6"/>
         <v>0.45933085501858739</v>
       </c>
-      <c r="R39" s="112"/>
+      <c r="R39" s="100"/>
       <c r="S39" s="45" t="s">
         <v>52</v>
       </c>
@@ -10973,7 +10999,7 @@
       </c>
     </row>
     <row r="40" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B40" s="112"/>
+      <c r="B40" s="100"/>
       <c r="C40" s="45" t="s">
         <v>51</v>
       </c>
@@ -11021,7 +11047,7 @@
         <f t="shared" si="6"/>
         <v>0.54542750929368033</v>
       </c>
-      <c r="R40" s="112"/>
+      <c r="R40" s="100"/>
       <c r="S40" s="45" t="s">
         <v>51</v>
       </c>
@@ -11064,7 +11090,7 @@
       <c r="A41" t="s">
         <v>108</v>
       </c>
-      <c r="B41" s="112"/>
+      <c r="B41" s="100"/>
       <c r="C41" s="54" t="s">
         <v>69</v>
       </c>
@@ -11101,7 +11127,7 @@
       <c r="N41" s="55" t="s">
         <v>115</v>
       </c>
-      <c r="R41" s="112"/>
+      <c r="R41" s="100"/>
       <c r="S41" s="54" t="s">
         <v>69</v>
       </c>
@@ -11188,7 +11214,1387 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFC5CAB5-F7BD-4C9D-9320-5671A06A5F0A}">
+  <dimension ref="B4:X41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R30" sqref="R30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="4" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B4" s="98" t="s">
+        <v>121</v>
+      </c>
+      <c r="C4" s="98"/>
+      <c r="D4" s="99" t="s">
+        <v>100</v>
+      </c>
+      <c r="E4" s="99"/>
+      <c r="F4" s="99"/>
+      <c r="G4" s="99"/>
+      <c r="H4" s="99"/>
+      <c r="I4" s="99"/>
+      <c r="J4" s="99"/>
+      <c r="K4" s="99"/>
+      <c r="L4" s="99"/>
+      <c r="M4" s="99"/>
+      <c r="N4" s="95" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q4" s="95" t="s">
+        <v>59</v>
+      </c>
+      <c r="R4" s="99" t="s">
+        <v>109</v>
+      </c>
+      <c r="S4" s="99" t="s">
+        <v>110</v>
+      </c>
+      <c r="T4" s="99"/>
+      <c r="U4" s="99"/>
+      <c r="V4" s="99"/>
+      <c r="W4" s="99"/>
+      <c r="X4" s="99"/>
+    </row>
+    <row r="5" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="98"/>
+      <c r="C5" s="98"/>
+      <c r="D5" s="56">
+        <v>1</v>
+      </c>
+      <c r="E5" s="56">
+        <v>2</v>
+      </c>
+      <c r="F5" s="56">
+        <v>3</v>
+      </c>
+      <c r="G5" s="56">
+        <v>4</v>
+      </c>
+      <c r="H5" s="56">
+        <v>5</v>
+      </c>
+      <c r="I5" s="56">
+        <v>6</v>
+      </c>
+      <c r="J5" s="56">
+        <v>7</v>
+      </c>
+      <c r="K5" s="56">
+        <v>8</v>
+      </c>
+      <c r="L5" s="56">
+        <v>9</v>
+      </c>
+      <c r="M5" s="56">
+        <v>10</v>
+      </c>
+      <c r="N5" s="95"/>
+      <c r="Q5" s="95"/>
+      <c r="R5" s="99"/>
+      <c r="S5" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="T5" s="60" t="s">
+        <v>2</v>
+      </c>
+      <c r="U5" s="60" t="s">
+        <v>3</v>
+      </c>
+      <c r="V5" s="60" t="s">
+        <v>52</v>
+      </c>
+      <c r="W5" s="60" t="s">
+        <v>51</v>
+      </c>
+      <c r="X5" s="60" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B6" s="100" t="s">
+        <v>110</v>
+      </c>
+      <c r="C6" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="51">
+        <v>7.5079999999999999E-3</v>
+      </c>
+      <c r="E6" s="51">
+        <v>2.18E-2</v>
+      </c>
+      <c r="F6" s="51">
+        <v>2.2623999999999998E-2</v>
+      </c>
+      <c r="G6" s="51">
+        <v>2.3324000000000001E-2</v>
+      </c>
+      <c r="H6" s="51">
+        <v>2.2284000000000002E-2</v>
+      </c>
+      <c r="I6" s="51">
+        <v>2.1784000000000001E-2</v>
+      </c>
+      <c r="J6" s="51">
+        <v>2.2352E-2</v>
+      </c>
+      <c r="K6" s="51">
+        <v>2.1624000000000001E-2</v>
+      </c>
+      <c r="L6" s="51">
+        <v>2.1843999999999999E-2</v>
+      </c>
+      <c r="M6" s="51">
+        <v>1.9212E-2</v>
+      </c>
+      <c r="N6" s="52">
+        <f>AVERAGE(D6:M6)</f>
+        <v>2.0435600000000002E-2</v>
+      </c>
+      <c r="Q6" s="60">
+        <v>584</v>
+      </c>
+      <c r="R6" s="60" t="s">
+        <v>107</v>
+      </c>
+      <c r="S6" s="58">
+        <f>N6</f>
+        <v>2.0435600000000002E-2</v>
+      </c>
+      <c r="T6" s="58">
+        <f>N7</f>
+        <v>1.8062399999999999E-2</v>
+      </c>
+      <c r="U6" s="58">
+        <f>N8</f>
+        <v>1.6647600000000002E-2</v>
+      </c>
+      <c r="V6" s="58">
+        <f>N9</f>
+        <v>1.3285999999999997E-2</v>
+      </c>
+      <c r="W6" s="58">
+        <f>N10</f>
+        <v>1.1668800000000002E-2</v>
+      </c>
+      <c r="X6" s="58">
+        <f>N11</f>
+        <v>1.1855599999999999E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B7" s="100"/>
+      <c r="C7" s="56" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="51">
+        <v>4.9399999999999999E-3</v>
+      </c>
+      <c r="E7" s="51">
+        <v>2.1284000000000001E-2</v>
+      </c>
+      <c r="F7" s="51">
+        <v>2.0587999999999999E-2</v>
+      </c>
+      <c r="G7" s="51">
+        <v>2.2599999999999999E-2</v>
+      </c>
+      <c r="H7" s="51">
+        <v>2.1548000000000001E-2</v>
+      </c>
+      <c r="I7" s="51">
+        <v>1.8475999999999999E-2</v>
+      </c>
+      <c r="J7" s="51">
+        <v>2.0104E-2</v>
+      </c>
+      <c r="K7" s="51">
+        <v>1.2319999999999999E-2</v>
+      </c>
+      <c r="L7" s="51">
+        <v>2.1484E-2</v>
+      </c>
+      <c r="M7" s="51">
+        <v>1.728E-2</v>
+      </c>
+      <c r="N7" s="52">
+        <f t="shared" ref="N7:N11" si="0">AVERAGE(D7:M7)</f>
+        <v>1.8062399999999999E-2</v>
+      </c>
+      <c r="Q7" s="60">
+        <v>980</v>
+      </c>
+      <c r="R7" s="60" t="s">
+        <v>107</v>
+      </c>
+      <c r="S7" s="43">
+        <f>N16</f>
+        <v>3.3833199999999994E-2</v>
+      </c>
+      <c r="T7" s="43">
+        <f>N17</f>
+        <v>3.1182000000000005E-2</v>
+      </c>
+      <c r="U7" s="43">
+        <f>N18</f>
+        <v>2.74644E-2</v>
+      </c>
+      <c r="V7" s="43">
+        <f>N19</f>
+        <v>2.2094399999999997E-2</v>
+      </c>
+      <c r="W7" s="43">
+        <f>N20</f>
+        <v>1.983E-2</v>
+      </c>
+      <c r="X7" s="43">
+        <f>N21</f>
+        <v>1.8287599999999998E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B8" s="100"/>
+      <c r="C8" s="56" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="51">
+        <v>4.0280000000000003E-3</v>
+      </c>
+      <c r="E8" s="51">
+        <v>2.0812000000000001E-2</v>
+      </c>
+      <c r="F8" s="51">
+        <v>1.8168E-2</v>
+      </c>
+      <c r="G8" s="51">
+        <v>2.1635999999999999E-2</v>
+      </c>
+      <c r="H8" s="51">
+        <v>2.1700000000000001E-2</v>
+      </c>
+      <c r="I8" s="51">
+        <v>1.5712E-2</v>
+      </c>
+      <c r="J8" s="51">
+        <v>2.034E-2</v>
+      </c>
+      <c r="K8" s="51">
+        <v>8.4200000000000004E-3</v>
+      </c>
+      <c r="L8" s="51">
+        <v>2.0184000000000001E-2</v>
+      </c>
+      <c r="M8" s="51">
+        <v>1.5476E-2</v>
+      </c>
+      <c r="N8" s="52">
+        <f t="shared" si="0"/>
+        <v>1.6647600000000002E-2</v>
+      </c>
+      <c r="Q8" s="60">
+        <v>1280</v>
+      </c>
+      <c r="R8" s="60" t="s">
+        <v>107</v>
+      </c>
+      <c r="S8" s="43">
+        <f>N26</f>
+        <v>4.4414799999999997E-2</v>
+      </c>
+      <c r="T8" s="43">
+        <f>N27</f>
+        <v>4.2452000000000004E-2</v>
+      </c>
+      <c r="U8" s="43">
+        <f>N28</f>
+        <v>3.4628800000000001E-2</v>
+      </c>
+      <c r="V8" s="43">
+        <f>N29</f>
+        <v>3.0598800000000002E-2</v>
+      </c>
+      <c r="W8" s="43">
+        <f>N30</f>
+        <v>2.77308E-2</v>
+      </c>
+      <c r="X8" s="54" t="str">
+        <f>N31</f>
+        <v>Fail</v>
+      </c>
+    </row>
+    <row r="9" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B9" s="100"/>
+      <c r="C9" s="56" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" s="51">
+        <v>3.5560000000000001E-3</v>
+      </c>
+      <c r="E9" s="51">
+        <v>2.1135999999999999E-2</v>
+      </c>
+      <c r="F9" s="51">
+        <v>1.7323999999999999E-2</v>
+      </c>
+      <c r="G9" s="51">
+        <v>2.1243999999999999E-2</v>
+      </c>
+      <c r="H9" s="51">
+        <v>2.0619999999999999E-2</v>
+      </c>
+      <c r="I9" s="51">
+        <v>7.9719999999999999E-3</v>
+      </c>
+      <c r="J9" s="51">
+        <v>9.9120000000000007E-3</v>
+      </c>
+      <c r="K9" s="51">
+        <v>7.3920000000000001E-3</v>
+      </c>
+      <c r="L9" s="51">
+        <v>8.7279999999999996E-3</v>
+      </c>
+      <c r="M9" s="51">
+        <v>1.4976E-2</v>
+      </c>
+      <c r="N9" s="52">
+        <f t="shared" si="0"/>
+        <v>1.3285999999999997E-2</v>
+      </c>
+      <c r="Q9" s="60">
+        <v>1345</v>
+      </c>
+      <c r="R9" s="60" t="s">
+        <v>107</v>
+      </c>
+      <c r="S9" s="43">
+        <f>N36</f>
+        <v>4.6591200000000006E-2</v>
+      </c>
+      <c r="T9" s="43">
+        <f>N37</f>
+        <v>4.45184E-2</v>
+      </c>
+      <c r="U9" s="43">
+        <f>N38</f>
+        <v>3.6243600000000001E-2</v>
+      </c>
+      <c r="V9" s="43">
+        <f>N39</f>
+        <v>3.2141200000000002E-2</v>
+      </c>
+      <c r="W9" s="43">
+        <f>N40</f>
+        <v>2.8977599999999999E-2</v>
+      </c>
+      <c r="X9" s="54" t="str">
+        <f>N41</f>
+        <v>Fail</v>
+      </c>
+    </row>
+    <row r="10" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B10" s="100"/>
+      <c r="C10" s="56" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="51">
+        <v>3.3159999999999999E-3</v>
+      </c>
+      <c r="E10" s="51">
+        <v>1.7804E-2</v>
+      </c>
+      <c r="F10" s="51">
+        <v>1.7347999999999999E-2</v>
+      </c>
+      <c r="G10" s="51">
+        <v>1.3976000000000001E-2</v>
+      </c>
+      <c r="H10" s="51">
+        <v>1.5072E-2</v>
+      </c>
+      <c r="I10" s="51">
+        <v>8.064E-3</v>
+      </c>
+      <c r="J10" s="51">
+        <v>9.8600000000000007E-3</v>
+      </c>
+      <c r="K10" s="51">
+        <v>7.456E-3</v>
+      </c>
+      <c r="L10" s="51">
+        <v>8.8800000000000007E-3</v>
+      </c>
+      <c r="M10" s="51">
+        <v>1.4912E-2</v>
+      </c>
+      <c r="N10" s="52">
+        <f t="shared" si="0"/>
+        <v>1.1668800000000002E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B11" s="100"/>
+      <c r="C11" s="56" t="s">
+        <v>69</v>
+      </c>
+      <c r="D11" s="51">
+        <v>3.2520000000000001E-3</v>
+      </c>
+      <c r="E11" s="51">
+        <v>1.7548000000000001E-2</v>
+      </c>
+      <c r="F11" s="51">
+        <v>1.7663999999999999E-2</v>
+      </c>
+      <c r="G11" s="51">
+        <v>1.4423999999999999E-2</v>
+      </c>
+      <c r="H11" s="51">
+        <v>1.4683999999999999E-2</v>
+      </c>
+      <c r="I11" s="51">
+        <v>8.3320000000000009E-3</v>
+      </c>
+      <c r="J11" s="51">
+        <v>1.0196E-2</v>
+      </c>
+      <c r="K11" s="51">
+        <v>7.7679999999999997E-3</v>
+      </c>
+      <c r="L11" s="51">
+        <v>9.2239999999999996E-3</v>
+      </c>
+      <c r="M11" s="51">
+        <v>1.5464E-2</v>
+      </c>
+      <c r="N11" s="52">
+        <f t="shared" si="0"/>
+        <v>1.1855599999999999E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B14" s="98" t="s">
+        <v>122</v>
+      </c>
+      <c r="C14" s="98"/>
+      <c r="D14" s="99" t="s">
+        <v>100</v>
+      </c>
+      <c r="E14" s="99"/>
+      <c r="F14" s="99"/>
+      <c r="G14" s="99"/>
+      <c r="H14" s="99"/>
+      <c r="I14" s="99"/>
+      <c r="J14" s="99"/>
+      <c r="K14" s="99"/>
+      <c r="L14" s="99"/>
+      <c r="M14" s="99"/>
+      <c r="N14" s="95" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="15" spans="2:24" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="98"/>
+      <c r="C15" s="98"/>
+      <c r="D15" s="56">
+        <v>1</v>
+      </c>
+      <c r="E15" s="56">
+        <v>2</v>
+      </c>
+      <c r="F15" s="56">
+        <v>3</v>
+      </c>
+      <c r="G15" s="56">
+        <v>4</v>
+      </c>
+      <c r="H15" s="56">
+        <v>5</v>
+      </c>
+      <c r="I15" s="56">
+        <v>6</v>
+      </c>
+      <c r="J15" s="56">
+        <v>7</v>
+      </c>
+      <c r="K15" s="56">
+        <v>8</v>
+      </c>
+      <c r="L15" s="56">
+        <v>9</v>
+      </c>
+      <c r="M15" s="56">
+        <v>10</v>
+      </c>
+      <c r="N15" s="95"/>
+    </row>
+    <row r="16" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B16" s="100" t="s">
+        <v>110</v>
+      </c>
+      <c r="C16" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="51">
+        <v>1.2284E-2</v>
+      </c>
+      <c r="E16" s="51">
+        <v>3.5875999999999998E-2</v>
+      </c>
+      <c r="F16" s="51">
+        <v>3.5027999999999997E-2</v>
+      </c>
+      <c r="G16" s="51">
+        <v>3.6415999999999997E-2</v>
+      </c>
+      <c r="H16" s="51">
+        <v>3.6991999999999997E-2</v>
+      </c>
+      <c r="I16" s="51">
+        <v>3.6704000000000001E-2</v>
+      </c>
+      <c r="J16" s="51">
+        <v>3.3568000000000001E-2</v>
+      </c>
+      <c r="K16" s="51">
+        <v>3.7859999999999998E-2</v>
+      </c>
+      <c r="L16" s="51">
+        <v>3.6616000000000003E-2</v>
+      </c>
+      <c r="M16" s="51">
+        <v>3.6988E-2</v>
+      </c>
+      <c r="N16" s="52">
+        <f>AVERAGE(D16:M16)</f>
+        <v>3.3833199999999994E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B17" s="100"/>
+      <c r="C17" s="56" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" s="51">
+        <v>9.1319999999999995E-3</v>
+      </c>
+      <c r="E17" s="51">
+        <v>3.5380000000000002E-2</v>
+      </c>
+      <c r="F17" s="51">
+        <v>3.3959999999999997E-2</v>
+      </c>
+      <c r="G17" s="51">
+        <v>3.058E-2</v>
+      </c>
+      <c r="H17" s="51">
+        <v>3.3015999999999997E-2</v>
+      </c>
+      <c r="I17" s="51">
+        <v>3.1452000000000001E-2</v>
+      </c>
+      <c r="J17" s="51">
+        <v>3.3584000000000003E-2</v>
+      </c>
+      <c r="K17" s="51">
+        <v>3.7476000000000002E-2</v>
+      </c>
+      <c r="L17" s="51">
+        <v>3.3700000000000001E-2</v>
+      </c>
+      <c r="M17" s="51">
+        <v>3.354E-2</v>
+      </c>
+      <c r="N17" s="52">
+        <f t="shared" ref="N17:N21" si="1">AVERAGE(D17:M17)</f>
+        <v>3.1182000000000005E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B18" s="100"/>
+      <c r="C18" s="56" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" s="51">
+        <v>6.3359999999999996E-3</v>
+      </c>
+      <c r="E18" s="51">
+        <v>3.5096000000000002E-2</v>
+      </c>
+      <c r="F18" s="51">
+        <v>3.1668000000000002E-2</v>
+      </c>
+      <c r="G18" s="51">
+        <v>2.5748E-2</v>
+      </c>
+      <c r="H18" s="51">
+        <v>3.1815999999999997E-2</v>
+      </c>
+      <c r="I18" s="51">
+        <v>2.2259999999999999E-2</v>
+      </c>
+      <c r="J18" s="51">
+        <v>3.4020000000000002E-2</v>
+      </c>
+      <c r="K18" s="51">
+        <v>2.9592E-2</v>
+      </c>
+      <c r="L18" s="51">
+        <v>2.9059999999999999E-2</v>
+      </c>
+      <c r="M18" s="51">
+        <v>2.9048000000000001E-2</v>
+      </c>
+      <c r="N18" s="52">
+        <f t="shared" si="1"/>
+        <v>2.74644E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B19" s="100"/>
+      <c r="C19" s="56" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" s="51">
+        <v>5.5240000000000003E-3</v>
+      </c>
+      <c r="E19" s="51">
+        <v>3.5499999999999997E-2</v>
+      </c>
+      <c r="F19" s="51">
+        <v>2.8087999999999998E-2</v>
+      </c>
+      <c r="G19" s="51">
+        <v>1.3847999999999999E-2</v>
+      </c>
+      <c r="H19" s="51">
+        <v>3.1940000000000003E-2</v>
+      </c>
+      <c r="I19" s="51">
+        <v>1.4696000000000001E-2</v>
+      </c>
+      <c r="J19" s="51">
+        <v>1.5896E-2</v>
+      </c>
+      <c r="K19" s="51">
+        <v>2.222E-2</v>
+      </c>
+      <c r="L19" s="51">
+        <v>2.6915999999999999E-2</v>
+      </c>
+      <c r="M19" s="51">
+        <v>2.6315999999999999E-2</v>
+      </c>
+      <c r="N19" s="52">
+        <f t="shared" si="1"/>
+        <v>2.2094399999999997E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B20" s="100"/>
+      <c r="C20" s="56" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" s="51">
+        <v>5.1120000000000002E-3</v>
+      </c>
+      <c r="E20" s="51">
+        <v>2.4004000000000001E-2</v>
+      </c>
+      <c r="F20" s="51">
+        <v>2.4576000000000001E-2</v>
+      </c>
+      <c r="G20" s="51">
+        <v>1.4083999999999999E-2</v>
+      </c>
+      <c r="H20" s="51">
+        <v>2.8384E-2</v>
+      </c>
+      <c r="I20" s="51">
+        <v>1.2812E-2</v>
+      </c>
+      <c r="J20" s="51">
+        <v>1.5587999999999999E-2</v>
+      </c>
+      <c r="K20" s="51">
+        <v>2.2248E-2</v>
+      </c>
+      <c r="L20" s="51">
+        <v>2.5992000000000001E-2</v>
+      </c>
+      <c r="M20" s="51">
+        <v>2.5499999999999998E-2</v>
+      </c>
+      <c r="N20" s="52">
+        <f t="shared" si="1"/>
+        <v>1.983E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B21" s="100"/>
+      <c r="C21" s="56" t="s">
+        <v>69</v>
+      </c>
+      <c r="D21" s="51">
+        <v>4.9800000000000001E-3</v>
+      </c>
+      <c r="E21" s="51">
+        <v>2.3647999999999999E-2</v>
+      </c>
+      <c r="F21" s="51">
+        <v>2.3448E-2</v>
+      </c>
+      <c r="G21" s="51">
+        <v>1.4484E-2</v>
+      </c>
+      <c r="H21" s="51">
+        <v>1.7083999999999998E-2</v>
+      </c>
+      <c r="I21" s="51">
+        <v>9.5040000000000003E-3</v>
+      </c>
+      <c r="J21" s="51">
+        <v>1.5827999999999998E-2</v>
+      </c>
+      <c r="K21" s="51">
+        <v>2.2508E-2</v>
+      </c>
+      <c r="L21" s="51">
+        <v>2.5995999999999998E-2</v>
+      </c>
+      <c r="M21" s="51">
+        <v>2.5395999999999998E-2</v>
+      </c>
+      <c r="N21" s="52">
+        <f t="shared" si="1"/>
+        <v>1.8287599999999998E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B24" s="98" t="s">
+        <v>123</v>
+      </c>
+      <c r="C24" s="98"/>
+      <c r="D24" s="99" t="s">
+        <v>100</v>
+      </c>
+      <c r="E24" s="99"/>
+      <c r="F24" s="99"/>
+      <c r="G24" s="99"/>
+      <c r="H24" s="99"/>
+      <c r="I24" s="99"/>
+      <c r="J24" s="99"/>
+      <c r="K24" s="99"/>
+      <c r="L24" s="99"/>
+      <c r="M24" s="99"/>
+      <c r="N24" s="95" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="98"/>
+      <c r="C25" s="98"/>
+      <c r="D25" s="56">
+        <v>1</v>
+      </c>
+      <c r="E25" s="56">
+        <v>2</v>
+      </c>
+      <c r="F25" s="56">
+        <v>3</v>
+      </c>
+      <c r="G25" s="56">
+        <v>4</v>
+      </c>
+      <c r="H25" s="56">
+        <v>5</v>
+      </c>
+      <c r="I25" s="56">
+        <v>6</v>
+      </c>
+      <c r="J25" s="56">
+        <v>7</v>
+      </c>
+      <c r="K25" s="56">
+        <v>8</v>
+      </c>
+      <c r="L25" s="56">
+        <v>9</v>
+      </c>
+      <c r="M25" s="56">
+        <v>10</v>
+      </c>
+      <c r="N25" s="95"/>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B26" s="100" t="s">
+        <v>110</v>
+      </c>
+      <c r="C26" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26" s="51">
+        <v>1.5876000000000001E-2</v>
+      </c>
+      <c r="E26" s="51">
+        <v>4.6615999999999998E-2</v>
+      </c>
+      <c r="F26" s="51">
+        <v>4.9723999999999997E-2</v>
+      </c>
+      <c r="G26" s="51">
+        <v>4.7216000000000001E-2</v>
+      </c>
+      <c r="H26" s="51">
+        <v>4.9571999999999998E-2</v>
+      </c>
+      <c r="I26" s="51">
+        <v>4.9604000000000002E-2</v>
+      </c>
+      <c r="J26" s="51">
+        <v>4.4403999999999999E-2</v>
+      </c>
+      <c r="K26" s="51">
+        <v>4.9548000000000002E-2</v>
+      </c>
+      <c r="L26" s="51">
+        <v>4.9647999999999998E-2</v>
+      </c>
+      <c r="M26" s="51">
+        <v>4.1939999999999998E-2</v>
+      </c>
+      <c r="N26" s="52">
+        <f>AVERAGE(D26:M26)</f>
+        <v>4.4414799999999997E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B27" s="100"/>
+      <c r="C27" s="56" t="s">
+        <v>2</v>
+      </c>
+      <c r="D27" s="51">
+        <v>1.1808000000000001E-2</v>
+      </c>
+      <c r="E27" s="51">
+        <v>4.6156000000000003E-2</v>
+      </c>
+      <c r="F27" s="51">
+        <v>4.9404000000000003E-2</v>
+      </c>
+      <c r="G27" s="51">
+        <v>4.054E-2</v>
+      </c>
+      <c r="H27" s="51">
+        <v>4.8236000000000001E-2</v>
+      </c>
+      <c r="I27" s="51">
+        <v>4.8076000000000001E-2</v>
+      </c>
+      <c r="J27" s="51">
+        <v>4.2816E-2</v>
+      </c>
+      <c r="K27" s="51">
+        <v>4.8660000000000002E-2</v>
+      </c>
+      <c r="L27" s="51">
+        <v>4.9299999999999997E-2</v>
+      </c>
+      <c r="M27" s="51">
+        <v>3.9523999999999997E-2</v>
+      </c>
+      <c r="N27" s="52">
+        <f t="shared" ref="N27:N30" si="2">AVERAGE(D27:M27)</f>
+        <v>4.2452000000000004E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B28" s="100"/>
+      <c r="C28" s="56" t="s">
+        <v>3</v>
+      </c>
+      <c r="D28" s="51">
+        <v>9.5440000000000004E-3</v>
+      </c>
+      <c r="E28" s="51">
+        <v>4.6019999999999998E-2</v>
+      </c>
+      <c r="F28" s="51">
+        <v>4.2028000000000003E-2</v>
+      </c>
+      <c r="G28" s="51">
+        <v>3.7892000000000002E-2</v>
+      </c>
+      <c r="H28" s="51">
+        <v>4.5032000000000003E-2</v>
+      </c>
+      <c r="I28" s="51">
+        <v>3.9488000000000002E-2</v>
+      </c>
+      <c r="J28" s="51">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="K28" s="51">
+        <v>2.3619999999999999E-2</v>
+      </c>
+      <c r="L28" s="51">
+        <v>2.2651999999999999E-2</v>
+      </c>
+      <c r="M28" s="51">
+        <v>3.8011999999999997E-2</v>
+      </c>
+      <c r="N28" s="52">
+        <f t="shared" si="2"/>
+        <v>3.4628800000000001E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B29" s="100"/>
+      <c r="C29" s="56" t="s">
+        <v>52</v>
+      </c>
+      <c r="D29" s="51">
+        <v>7.0239999999999999E-3</v>
+      </c>
+      <c r="E29" s="51">
+        <v>4.4915999999999998E-2</v>
+      </c>
+      <c r="F29" s="51">
+        <v>3.1671999999999999E-2</v>
+      </c>
+      <c r="G29" s="51">
+        <v>3.2804E-2</v>
+      </c>
+      <c r="H29" s="51">
+        <v>4.1579999999999999E-2</v>
+      </c>
+      <c r="I29" s="51">
+        <v>3.9620000000000002E-2</v>
+      </c>
+      <c r="J29" s="51">
+        <v>4.1588E-2</v>
+      </c>
+      <c r="K29" s="51">
+        <v>1.5384E-2</v>
+      </c>
+      <c r="L29" s="51">
+        <v>1.536E-2</v>
+      </c>
+      <c r="M29" s="51">
+        <v>3.6040000000000003E-2</v>
+      </c>
+      <c r="N29" s="52">
+        <f t="shared" si="2"/>
+        <v>3.0598800000000002E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B30" s="100"/>
+      <c r="C30" s="56" t="s">
+        <v>51</v>
+      </c>
+      <c r="D30" s="51">
+        <v>6.4879999999999998E-3</v>
+      </c>
+      <c r="E30" s="51">
+        <v>2.5947999999999999E-2</v>
+      </c>
+      <c r="F30" s="51">
+        <v>2.9416000000000001E-2</v>
+      </c>
+      <c r="G30" s="51">
+        <v>3.1859999999999999E-2</v>
+      </c>
+      <c r="H30" s="51">
+        <v>3.9239999999999997E-2</v>
+      </c>
+      <c r="I30" s="51">
+        <v>3.7412000000000001E-2</v>
+      </c>
+      <c r="J30" s="51">
+        <v>4.0564000000000003E-2</v>
+      </c>
+      <c r="K30" s="51">
+        <v>1.5192000000000001E-2</v>
+      </c>
+      <c r="L30" s="51">
+        <v>1.5192000000000001E-2</v>
+      </c>
+      <c r="M30" s="51">
+        <v>3.5996E-2</v>
+      </c>
+      <c r="N30" s="52">
+        <f t="shared" si="2"/>
+        <v>2.77308E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B31" s="100"/>
+      <c r="C31" s="54" t="s">
+        <v>69</v>
+      </c>
+      <c r="D31" s="55" t="s">
+        <v>115</v>
+      </c>
+      <c r="E31" s="55" t="s">
+        <v>115</v>
+      </c>
+      <c r="F31" s="55" t="s">
+        <v>115</v>
+      </c>
+      <c r="G31" s="55" t="s">
+        <v>115</v>
+      </c>
+      <c r="H31" s="55" t="s">
+        <v>115</v>
+      </c>
+      <c r="I31" s="55" t="s">
+        <v>115</v>
+      </c>
+      <c r="J31" s="55" t="s">
+        <v>115</v>
+      </c>
+      <c r="K31" s="55" t="s">
+        <v>115</v>
+      </c>
+      <c r="L31" s="55" t="s">
+        <v>115</v>
+      </c>
+      <c r="M31" s="55" t="s">
+        <v>115</v>
+      </c>
+      <c r="N31" s="55" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B34" s="98" t="s">
+        <v>124</v>
+      </c>
+      <c r="C34" s="98"/>
+      <c r="D34" s="99" t="s">
+        <v>100</v>
+      </c>
+      <c r="E34" s="99"/>
+      <c r="F34" s="99"/>
+      <c r="G34" s="99"/>
+      <c r="H34" s="99"/>
+      <c r="I34" s="99"/>
+      <c r="J34" s="99"/>
+      <c r="K34" s="99"/>
+      <c r="L34" s="99"/>
+      <c r="M34" s="99"/>
+      <c r="N34" s="95" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="98"/>
+      <c r="C35" s="98"/>
+      <c r="D35" s="56">
+        <v>1</v>
+      </c>
+      <c r="E35" s="56">
+        <v>2</v>
+      </c>
+      <c r="F35" s="56">
+        <v>3</v>
+      </c>
+      <c r="G35" s="56">
+        <v>4</v>
+      </c>
+      <c r="H35" s="56">
+        <v>5</v>
+      </c>
+      <c r="I35" s="56">
+        <v>6</v>
+      </c>
+      <c r="J35" s="56">
+        <v>7</v>
+      </c>
+      <c r="K35" s="56">
+        <v>8</v>
+      </c>
+      <c r="L35" s="56">
+        <v>9</v>
+      </c>
+      <c r="M35" s="56">
+        <v>10</v>
+      </c>
+      <c r="N35" s="95"/>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B36" s="100" t="s">
+        <v>110</v>
+      </c>
+      <c r="C36" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="D36" s="51">
+        <v>1.6643999999999999E-2</v>
+      </c>
+      <c r="E36" s="51">
+        <v>4.8787999999999998E-2</v>
+      </c>
+      <c r="F36" s="51">
+        <v>5.2207999999999997E-2</v>
+      </c>
+      <c r="G36" s="51">
+        <v>4.9627999999999999E-2</v>
+      </c>
+      <c r="H36" s="51">
+        <v>5.1996000000000001E-2</v>
+      </c>
+      <c r="I36" s="51">
+        <v>5.1872000000000001E-2</v>
+      </c>
+      <c r="J36" s="51">
+        <v>4.6696000000000001E-2</v>
+      </c>
+      <c r="K36" s="51">
+        <v>5.2012000000000003E-2</v>
+      </c>
+      <c r="L36" s="51">
+        <v>5.2156000000000001E-2</v>
+      </c>
+      <c r="M36" s="51">
+        <v>4.3912E-2</v>
+      </c>
+      <c r="N36" s="52">
+        <f>AVERAGE(D36:M36)</f>
+        <v>4.6591200000000006E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B37" s="100"/>
+      <c r="C37" s="56" t="s">
+        <v>2</v>
+      </c>
+      <c r="D37" s="51">
+        <v>1.2376E-2</v>
+      </c>
+      <c r="E37" s="51">
+        <v>4.8379999999999999E-2</v>
+      </c>
+      <c r="F37" s="51">
+        <v>5.1903999999999999E-2</v>
+      </c>
+      <c r="G37" s="51">
+        <v>4.2403999999999997E-2</v>
+      </c>
+      <c r="H37" s="51">
+        <v>5.0687999999999997E-2</v>
+      </c>
+      <c r="I37" s="51">
+        <v>5.0104000000000003E-2</v>
+      </c>
+      <c r="J37" s="51">
+        <v>4.5143999999999997E-2</v>
+      </c>
+      <c r="K37" s="51">
+        <v>5.1128E-2</v>
+      </c>
+      <c r="L37" s="51">
+        <v>5.1796000000000002E-2</v>
+      </c>
+      <c r="M37" s="51">
+        <v>4.1259999999999998E-2</v>
+      </c>
+      <c r="N37" s="52">
+        <f t="shared" ref="N37:N40" si="3">AVERAGE(D37:M37)</f>
+        <v>4.45184E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B38" s="100"/>
+      <c r="C38" s="56" t="s">
+        <v>3</v>
+      </c>
+      <c r="D38" s="51">
+        <v>1.0012E-2</v>
+      </c>
+      <c r="E38" s="51">
+        <v>4.8287999999999998E-2</v>
+      </c>
+      <c r="F38" s="51">
+        <v>4.3344000000000001E-2</v>
+      </c>
+      <c r="G38" s="51">
+        <v>3.9416E-2</v>
+      </c>
+      <c r="H38" s="51">
+        <v>4.7287999999999997E-2</v>
+      </c>
+      <c r="I38" s="51">
+        <v>4.1604000000000002E-2</v>
+      </c>
+      <c r="J38" s="51">
+        <v>4.4268000000000002E-2</v>
+      </c>
+      <c r="K38" s="51">
+        <v>2.4572E-2</v>
+      </c>
+      <c r="L38" s="51">
+        <v>2.384E-2</v>
+      </c>
+      <c r="M38" s="51">
+        <v>3.9803999999999999E-2</v>
+      </c>
+      <c r="N38" s="52">
+        <f t="shared" si="3"/>
+        <v>3.6243600000000001E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B39" s="100"/>
+      <c r="C39" s="56" t="s">
+        <v>52</v>
+      </c>
+      <c r="D39" s="51">
+        <v>7.3359999999999996E-3</v>
+      </c>
+      <c r="E39" s="51">
+        <v>4.7224000000000002E-2</v>
+      </c>
+      <c r="F39" s="51">
+        <v>3.3020000000000001E-2</v>
+      </c>
+      <c r="G39" s="51">
+        <v>3.4320000000000003E-2</v>
+      </c>
+      <c r="H39" s="51">
+        <v>4.3647999999999999E-2</v>
+      </c>
+      <c r="I39" s="51">
+        <v>4.1716000000000003E-2</v>
+      </c>
+      <c r="J39" s="51">
+        <v>4.3864E-2</v>
+      </c>
+      <c r="K39" s="51">
+        <v>1.6112000000000001E-2</v>
+      </c>
+      <c r="L39" s="51">
+        <v>1.6448000000000001E-2</v>
+      </c>
+      <c r="M39" s="51">
+        <v>3.7724000000000001E-2</v>
+      </c>
+      <c r="N39" s="52">
+        <f t="shared" si="3"/>
+        <v>3.2141200000000002E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B40" s="100"/>
+      <c r="C40" s="56" t="s">
+        <v>51</v>
+      </c>
+      <c r="D40" s="51">
+        <v>6.816E-3</v>
+      </c>
+      <c r="E40" s="51">
+        <v>2.6388000000000002E-2</v>
+      </c>
+      <c r="F40" s="51">
+        <v>3.0504E-2</v>
+      </c>
+      <c r="G40" s="51">
+        <v>3.3304E-2</v>
+      </c>
+      <c r="H40" s="51">
+        <v>4.1251999999999997E-2</v>
+      </c>
+      <c r="I40" s="51">
+        <v>3.9376000000000001E-2</v>
+      </c>
+      <c r="J40" s="51">
+        <v>4.2684E-2</v>
+      </c>
+      <c r="K40" s="51">
+        <v>1.5911999999999999E-2</v>
+      </c>
+      <c r="L40" s="51">
+        <v>1.5807999999999999E-2</v>
+      </c>
+      <c r="M40" s="51">
+        <v>3.7732000000000002E-2</v>
+      </c>
+      <c r="N40" s="52">
+        <f>AVERAGE(D40:M40)</f>
+        <v>2.8977599999999999E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B41" s="100"/>
+      <c r="C41" s="54" t="s">
+        <v>69</v>
+      </c>
+      <c r="D41" s="55" t="s">
+        <v>115</v>
+      </c>
+      <c r="E41" s="55" t="s">
+        <v>115</v>
+      </c>
+      <c r="F41" s="55" t="s">
+        <v>115</v>
+      </c>
+      <c r="G41" s="55" t="s">
+        <v>115</v>
+      </c>
+      <c r="H41" s="55" t="s">
+        <v>115</v>
+      </c>
+      <c r="I41" s="55" t="s">
+        <v>115</v>
+      </c>
+      <c r="J41" s="55" t="s">
+        <v>115</v>
+      </c>
+      <c r="K41" s="55" t="s">
+        <v>115</v>
+      </c>
+      <c r="L41" s="55" t="s">
+        <v>115</v>
+      </c>
+      <c r="M41" s="55" t="s">
+        <v>115</v>
+      </c>
+      <c r="N41" s="55" t="s">
+        <v>115</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="19">
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:X4"/>
+    <mergeCell ref="B4:C5"/>
+    <mergeCell ref="D4:M4"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="B6:B11"/>
+    <mergeCell ref="B14:C15"/>
+    <mergeCell ref="D14:M14"/>
+    <mergeCell ref="N14:N15"/>
+    <mergeCell ref="B36:B41"/>
+    <mergeCell ref="B16:B21"/>
+    <mergeCell ref="B24:C25"/>
+    <mergeCell ref="D24:M24"/>
+    <mergeCell ref="N24:N25"/>
+    <mergeCell ref="B26:B31"/>
+    <mergeCell ref="B34:C35"/>
+    <mergeCell ref="D34:M34"/>
+    <mergeCell ref="N34:N35"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B6:R38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11262,7 +12668,7 @@
       </c>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B8" s="97">
+      <c r="B8" s="103">
         <v>584</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -11283,7 +12689,7 @@
       <c r="H8" s="1">
         <v>8.0800000000000004E-3</v>
       </c>
-      <c r="L8" s="98">
+      <c r="L8" s="104">
         <v>584</v>
       </c>
       <c r="M8" s="1" t="s">
@@ -11306,7 +12712,7 @@
       </c>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B9" s="97"/>
+      <c r="B9" s="103"/>
       <c r="C9" s="1" t="s">
         <v>68</v>
       </c>
@@ -11325,7 +12731,7 @@
       <c r="H9" s="1">
         <v>4.5935999999999998E-2</v>
       </c>
-      <c r="L9" s="99"/>
+      <c r="L9" s="105"/>
       <c r="M9" s="1" t="s">
         <v>65</v>
       </c>
@@ -11351,7 +12757,7 @@
       </c>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B10" s="95">
+      <c r="B10" s="101">
         <v>980</v>
       </c>
       <c r="C10" s="16" t="s">
@@ -11372,7 +12778,7 @@
       <c r="H10" s="16">
         <v>1.2456E-2</v>
       </c>
-      <c r="L10" s="99"/>
+      <c r="L10" s="105"/>
       <c r="M10" s="1" t="s">
         <v>61</v>
       </c>
@@ -11393,7 +12799,7 @@
       </c>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B11" s="95"/>
+      <c r="B11" s="101"/>
       <c r="C11" s="16" t="s">
         <v>68</v>
       </c>
@@ -11412,7 +12818,7 @@
       <c r="H11" s="16">
         <v>6.3119999999999996E-2</v>
       </c>
-      <c r="L11" s="100"/>
+      <c r="L11" s="106"/>
       <c r="M11" s="1" t="s">
         <v>66</v>
       </c>
@@ -11438,7 +12844,7 @@
       </c>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B12" s="94">
+      <c r="B12" s="99">
         <v>1280</v>
       </c>
       <c r="C12" s="4" t="s">
@@ -11459,7 +12865,7 @@
       <c r="H12" s="4">
         <v>1.5299999999999999E-2</v>
       </c>
-      <c r="L12" s="101">
+      <c r="L12" s="107">
         <v>980</v>
       </c>
       <c r="M12" s="16" t="s">
@@ -11482,7 +12888,7 @@
       </c>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B13" s="94"/>
+      <c r="B13" s="99"/>
       <c r="C13" s="4" t="s">
         <v>68</v>
       </c>
@@ -11501,7 +12907,7 @@
       <c r="H13" s="4">
         <v>6.6844000000000001E-2</v>
       </c>
-      <c r="L13" s="102"/>
+      <c r="L13" s="108"/>
       <c r="M13" s="16" t="s">
         <v>66</v>
       </c>
@@ -11527,7 +12933,7 @@
       </c>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B14" s="96">
+      <c r="B14" s="102">
         <v>1345</v>
       </c>
       <c r="C14" s="7" t="s">
@@ -11548,7 +12954,7 @@
       <c r="H14" s="7">
         <v>1.5807999999999999E-2</v>
       </c>
-      <c r="L14" s="102"/>
+      <c r="L14" s="108"/>
       <c r="M14" s="16" t="s">
         <v>61</v>
       </c>
@@ -11569,7 +12975,7 @@
       </c>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B15" s="96"/>
+      <c r="B15" s="102"/>
       <c r="C15" s="7" t="s">
         <v>68</v>
       </c>
@@ -11588,7 +12994,7 @@
       <c r="H15" s="7">
         <v>6.7227999999999996E-2</v>
       </c>
-      <c r="L15" s="103"/>
+      <c r="L15" s="109"/>
       <c r="M15" s="16" t="s">
         <v>66</v>
       </c>
@@ -11614,7 +13020,7 @@
       </c>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="L16" s="104">
+      <c r="L16" s="110">
         <v>1280</v>
       </c>
       <c r="M16" s="4" t="s">
@@ -11637,7 +13043,7 @@
       </c>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="L17" s="105"/>
+      <c r="L17" s="111"/>
       <c r="M17" s="4" t="s">
         <v>65</v>
       </c>
@@ -11663,7 +13069,7 @@
       </c>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="L18" s="105"/>
+      <c r="L18" s="111"/>
       <c r="M18" s="4" t="s">
         <v>61</v>
       </c>
@@ -11684,7 +13090,7 @@
       </c>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="L19" s="106"/>
+      <c r="L19" s="112"/>
       <c r="M19" s="4" t="s">
         <v>65</v>
       </c>
@@ -11710,7 +13116,7 @@
       </c>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="L20" s="96">
+      <c r="L20" s="102">
         <v>1345</v>
       </c>
       <c r="M20" s="7" t="s">
@@ -11733,7 +13139,7 @@
       </c>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="L21" s="96"/>
+      <c r="L21" s="102"/>
       <c r="M21" s="7" t="s">
         <v>65</v>
       </c>
@@ -11759,7 +13165,7 @@
       </c>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="L22" s="96"/>
+      <c r="L22" s="102"/>
       <c r="M22" s="7" t="s">
         <v>61</v>
       </c>
@@ -11780,7 +13186,7 @@
       </c>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="L23" s="96"/>
+      <c r="L23" s="102"/>
       <c r="M23" s="7" t="s">
         <v>65</v>
       </c>
@@ -11834,7 +13240,7 @@
       </c>
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B31" s="97">
+      <c r="B31" s="103">
         <v>584</v>
       </c>
       <c r="C31" s="1" t="s">
@@ -11857,7 +13263,7 @@
       </c>
     </row>
     <row r="32" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B32" s="97"/>
+      <c r="B32" s="103"/>
       <c r="C32" s="1" t="s">
         <v>68</v>
       </c>
@@ -11878,7 +13284,7 @@
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B33" s="95">
+      <c r="B33" s="101">
         <v>980</v>
       </c>
       <c r="C33" s="16" t="s">
@@ -11901,7 +13307,7 @@
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B34" s="95"/>
+      <c r="B34" s="101"/>
       <c r="C34" s="16" t="s">
         <v>68</v>
       </c>
@@ -11922,7 +13328,7 @@
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B35" s="94">
+      <c r="B35" s="99">
         <v>1280</v>
       </c>
       <c r="C35" s="4" t="s">
@@ -11945,7 +13351,7 @@
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B36" s="94"/>
+      <c r="B36" s="99"/>
       <c r="C36" s="4" t="s">
         <v>68</v>
       </c>
@@ -11966,7 +13372,7 @@
       </c>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B37" s="96">
+      <c r="B37" s="102">
         <v>1345</v>
       </c>
       <c r="C37" s="7" t="s">
@@ -11989,7 +13395,7 @@
       </c>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B38" s="96"/>
+      <c r="B38" s="102"/>
       <c r="C38" s="7" t="s">
         <v>68</v>
       </c>
@@ -12029,8 +13435,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A5:R19"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
@@ -12048,7 +13454,7 @@
   </cols>
   <sheetData>
     <row r="5" spans="1:18" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="107" t="s">
+      <c r="A5" s="113" t="s">
         <v>73</v>
       </c>
       <c r="B5" s="32" t="s">
@@ -12074,7 +13480,7 @@
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="107"/>
+      <c r="A6" s="113"/>
       <c r="B6" s="33">
         <v>584</v>
       </c>
@@ -12098,7 +13504,7 @@
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="107"/>
+      <c r="A7" s="113"/>
       <c r="B7" s="33">
         <v>980</v>
       </c>
@@ -12122,7 +13528,7 @@
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="107"/>
+      <c r="A8" s="113"/>
       <c r="B8" s="33">
         <v>1280</v>
       </c>
@@ -12146,7 +13552,7 @@
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="107"/>
+      <c r="A9" s="113"/>
       <c r="B9" s="33">
         <v>1435</v>
       </c>
@@ -12170,7 +13576,7 @@
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="107"/>
+      <c r="A10" s="113"/>
       <c r="B10" s="33">
         <v>1640</v>
       </c>
@@ -12194,7 +13600,7 @@
       </c>
     </row>
     <row r="14" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="107" t="s">
+      <c r="A14" s="113" t="s">
         <v>72</v>
       </c>
       <c r="B14" s="32" t="s">
@@ -12220,7 +13626,7 @@
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="107"/>
+      <c r="A15" s="113"/>
       <c r="B15" s="33">
         <v>584</v>
       </c>
@@ -12232,7 +13638,7 @@
       <c r="H15" s="1"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="107"/>
+      <c r="A16" s="113"/>
       <c r="B16" s="33">
         <v>980</v>
       </c>
@@ -12242,11 +13648,11 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="5"/>
-      <c r="K16" s="108" t="s">
+      <c r="K16" s="114" t="s">
         <v>74</v>
       </c>
-      <c r="L16" s="108"/>
-      <c r="M16" s="108"/>
+      <c r="L16" s="114"/>
+      <c r="M16" s="114"/>
       <c r="P16" s="11" t="s">
         <v>80</v>
       </c>
@@ -12258,7 +13664,7 @@
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="107"/>
+      <c r="A17" s="113"/>
       <c r="B17" s="33">
         <v>1280</v>
       </c>
@@ -12288,7 +13694,7 @@
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="107"/>
+      <c r="A18" s="113"/>
       <c r="B18" s="33">
         <v>1435</v>
       </c>
@@ -12318,7 +13724,7 @@
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="107"/>
+      <c r="A19" s="113"/>
       <c r="B19" s="33">
         <v>1640</v>
       </c>

--- a/Data Hasil Uji Coba/Uji Coba.xlsx
+++ b/Data Hasil Uji Coba/Uji Coba.xlsx
@@ -3,16 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{40882DD1-D8C2-482D-9238-9700EF588061}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{EE43CD3D-86C9-43A5-954B-73602E0BB775}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Static Buffer" sheetId="1" r:id="rId1"/>
     <sheet name="Dinamic Buffer" sheetId="2" r:id="rId2"/>
     <sheet name="Akurasi Pengiriman" sheetId="5" r:id="rId3"/>
     <sheet name="Efektifitas" sheetId="6" r:id="rId4"/>
-    <sheet name="Waktu" sheetId="7" r:id="rId5"/>
+    <sheet name="Waktu Dekompresi" sheetId="7" r:id="rId5"/>
     <sheet name="Sheet1" sheetId="3" r:id="rId6"/>
     <sheet name="Sheet2" sheetId="4" r:id="rId7"/>
   </sheets>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="127">
   <si>
     <t>0 x</t>
   </si>
@@ -391,9 +391,6 @@
     <t>Efektifitas Kompresi Pada Panjang Data 1345</t>
   </si>
   <si>
-    <t>Fail</t>
-  </si>
-  <si>
     <t>Rata -rata</t>
   </si>
   <si>
@@ -419,6 +416,15 @@
   </si>
   <si>
     <t>Waktu Dekompresi Pada Panjang Data 1345</t>
+  </si>
+  <si>
+    <t>Efektifitas Kompresi Pada Panjang Data 1870</t>
+  </si>
+  <si>
+    <t>Waktu Kompresi Pada Panjang Data 1870</t>
+  </si>
+  <si>
+    <t>Waktu Dekompresi Pada Panjang Data 1870</t>
   </si>
 </sst>
 </file>
@@ -728,7 +734,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -866,6 +872,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2428,32 +2446,32 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="92" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="88"/>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="88"/>
-      <c r="K2" s="88" t="s">
+      <c r="B2" s="92"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="92"/>
+      <c r="H2" s="92"/>
+      <c r="K2" s="92" t="s">
         <v>37</v>
       </c>
-      <c r="L2" s="88"/>
-      <c r="M2" s="88"/>
-      <c r="N2" s="88"/>
-      <c r="O2" s="88"/>
-      <c r="P2" s="88"/>
-      <c r="Q2" s="88"/>
-      <c r="R2" s="88"/>
+      <c r="L2" s="92"/>
+      <c r="M2" s="92"/>
+      <c r="N2" s="92"/>
+      <c r="O2" s="92"/>
+      <c r="P2" s="92"/>
+      <c r="Q2" s="92"/>
+      <c r="R2" s="92"/>
     </row>
     <row r="3" spans="1:18" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="86" t="s">
+      <c r="A3" s="90" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="87"/>
+      <c r="B3" s="91"/>
       <c r="C3" s="14"/>
       <c r="D3" s="15" t="s">
         <v>1</v>
@@ -2470,10 +2488,10 @@
       <c r="H3" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="86" t="s">
+      <c r="K3" s="90" t="s">
         <v>31</v>
       </c>
-      <c r="L3" s="87"/>
+      <c r="L3" s="91"/>
       <c r="M3" s="14"/>
       <c r="N3" s="15" t="s">
         <v>1</v>
@@ -2492,10 +2510,10 @@
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="68">
+      <c r="A4" s="72">
         <v>584</v>
       </c>
-      <c r="B4" s="69"/>
+      <c r="B4" s="73"/>
       <c r="C4" s="1" t="s">
         <v>30</v>
       </c>
@@ -2514,10 +2532,10 @@
       <c r="H4" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="68">
+      <c r="K4" s="72">
         <v>584</v>
       </c>
-      <c r="L4" s="69"/>
+      <c r="L4" s="73"/>
       <c r="M4" s="1" t="s">
         <v>30</v>
       </c>
@@ -2538,8 +2556,8 @@
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="70"/>
-      <c r="B5" s="71"/>
+      <c r="A5" s="74"/>
+      <c r="B5" s="75"/>
       <c r="C5" s="1" t="s">
         <v>21</v>
       </c>
@@ -2558,8 +2576,8 @@
       <c r="H5" s="1">
         <v>21</v>
       </c>
-      <c r="K5" s="70"/>
-      <c r="L5" s="71"/>
+      <c r="K5" s="74"/>
+      <c r="L5" s="75"/>
       <c r="M5" s="1" t="s">
         <v>21</v>
       </c>
@@ -2580,8 +2598,8 @@
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="70"/>
-      <c r="B6" s="71"/>
+      <c r="A6" s="74"/>
+      <c r="B6" s="75"/>
       <c r="C6" s="1" t="s">
         <v>33</v>
       </c>
@@ -2605,8 +2623,8 @@
         <f>($A$4-H5)/$A$4</f>
         <v>0.96404109589041098</v>
       </c>
-      <c r="K6" s="70"/>
-      <c r="L6" s="71"/>
+      <c r="K6" s="74"/>
+      <c r="L6" s="75"/>
       <c r="M6" s="1" t="s">
         <v>33</v>
       </c>
@@ -2632,8 +2650,8 @@
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="70"/>
-      <c r="B7" s="71"/>
+      <c r="A7" s="74"/>
+      <c r="B7" s="75"/>
       <c r="C7" s="1" t="s">
         <v>22</v>
       </c>
@@ -2652,8 +2670,8 @@
       <c r="H7" s="1">
         <v>427</v>
       </c>
-      <c r="K7" s="70"/>
-      <c r="L7" s="71"/>
+      <c r="K7" s="74"/>
+      <c r="L7" s="75"/>
       <c r="M7" s="1" t="s">
         <v>22</v>
       </c>
@@ -2674,8 +2692,8 @@
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="72"/>
-      <c r="B8" s="73"/>
+      <c r="A8" s="76"/>
+      <c r="B8" s="77"/>
       <c r="C8" s="1" t="s">
         <v>34</v>
       </c>
@@ -2699,8 +2717,8 @@
         <f>($A$4-H7)/$A$4</f>
         <v>0.26883561643835618</v>
       </c>
-      <c r="K8" s="72"/>
-      <c r="L8" s="73"/>
+      <c r="K8" s="76"/>
+      <c r="L8" s="77"/>
       <c r="M8" s="1" t="s">
         <v>34</v>
       </c>
@@ -2726,10 +2744,10 @@
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="74">
+      <c r="A9" s="78">
         <v>980</v>
       </c>
-      <c r="B9" s="75"/>
+      <c r="B9" s="79"/>
       <c r="C9" s="16" t="s">
         <v>30</v>
       </c>
@@ -2748,10 +2766,10 @@
       <c r="H9" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="K9" s="74">
+      <c r="K9" s="78">
         <v>980</v>
       </c>
-      <c r="L9" s="75"/>
+      <c r="L9" s="79"/>
       <c r="M9" s="16" t="s">
         <v>30</v>
       </c>
@@ -2772,8 +2790,8 @@
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="76"/>
-      <c r="B10" s="77"/>
+      <c r="A10" s="80"/>
+      <c r="B10" s="81"/>
       <c r="C10" s="16" t="s">
         <v>21</v>
       </c>
@@ -2792,8 +2810,8 @@
       <c r="H10" s="16">
         <v>33</v>
       </c>
-      <c r="K10" s="76"/>
-      <c r="L10" s="77"/>
+      <c r="K10" s="80"/>
+      <c r="L10" s="81"/>
       <c r="M10" s="16" t="s">
         <v>21</v>
       </c>
@@ -2814,8 +2832,8 @@
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="76"/>
-      <c r="B11" s="77"/>
+      <c r="A11" s="80"/>
+      <c r="B11" s="81"/>
       <c r="C11" s="16" t="s">
         <v>35</v>
       </c>
@@ -2839,8 +2857,8 @@
         <f>($A$9-H10)/$A$9</f>
         <v>0.96632653061224494</v>
       </c>
-      <c r="K11" s="76"/>
-      <c r="L11" s="77"/>
+      <c r="K11" s="80"/>
+      <c r="L11" s="81"/>
       <c r="M11" s="16" t="s">
         <v>35</v>
       </c>
@@ -2866,8 +2884,8 @@
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="76"/>
-      <c r="B12" s="77"/>
+      <c r="A12" s="80"/>
+      <c r="B12" s="81"/>
       <c r="C12" s="16" t="s">
         <v>22</v>
       </c>
@@ -2886,8 +2904,8 @@
       <c r="H12" s="16">
         <v>564</v>
       </c>
-      <c r="K12" s="76"/>
-      <c r="L12" s="77"/>
+      <c r="K12" s="80"/>
+      <c r="L12" s="81"/>
       <c r="M12" s="16" t="s">
         <v>22</v>
       </c>
@@ -2908,8 +2926,8 @@
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="78"/>
-      <c r="B13" s="79"/>
+      <c r="A13" s="82"/>
+      <c r="B13" s="83"/>
       <c r="C13" s="16" t="s">
         <v>34</v>
       </c>
@@ -2933,8 +2951,8 @@
         <f>($A$9-H12)/$A$9</f>
         <v>0.42448979591836733</v>
       </c>
-      <c r="K13" s="78"/>
-      <c r="L13" s="79"/>
+      <c r="K13" s="82"/>
+      <c r="L13" s="83"/>
       <c r="M13" s="16" t="s">
         <v>34</v>
       </c>
@@ -2960,10 +2978,10 @@
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="80">
+      <c r="A14" s="84">
         <v>1280</v>
       </c>
-      <c r="B14" s="81"/>
+      <c r="B14" s="85"/>
       <c r="C14" s="13" t="s">
         <v>30</v>
       </c>
@@ -2982,10 +3000,10 @@
       <c r="H14" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="80">
+      <c r="K14" s="84">
         <v>1280</v>
       </c>
-      <c r="L14" s="81"/>
+      <c r="L14" s="85"/>
       <c r="M14" s="13" t="s">
         <v>30</v>
       </c>
@@ -3006,8 +3024,8 @@
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="82"/>
-      <c r="B15" s="83"/>
+      <c r="A15" s="86"/>
+      <c r="B15" s="87"/>
       <c r="C15" s="4" t="s">
         <v>21</v>
       </c>
@@ -3024,8 +3042,8 @@
         <v>68</v>
       </c>
       <c r="H15" s="5"/>
-      <c r="K15" s="82"/>
-      <c r="L15" s="83"/>
+      <c r="K15" s="86"/>
+      <c r="L15" s="87"/>
       <c r="M15" s="4" t="s">
         <v>21</v>
       </c>
@@ -3046,8 +3064,8 @@
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="82"/>
-      <c r="B16" s="83"/>
+      <c r="A16" s="86"/>
+      <c r="B16" s="87"/>
       <c r="C16" s="4" t="s">
         <v>35</v>
       </c>
@@ -3071,8 +3089,8 @@
         <f>($A$14-H15)/$A$14</f>
         <v>1</v>
       </c>
-      <c r="K16" s="82"/>
-      <c r="L16" s="83"/>
+      <c r="K16" s="86"/>
+      <c r="L16" s="87"/>
       <c r="M16" s="4" t="s">
         <v>35</v>
       </c>
@@ -3098,8 +3116,8 @@
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="82"/>
-      <c r="B17" s="83"/>
+      <c r="A17" s="86"/>
+      <c r="B17" s="87"/>
       <c r="C17" s="4" t="s">
         <v>22</v>
       </c>
@@ -3116,8 +3134,8 @@
         <v>1120</v>
       </c>
       <c r="H17" s="5"/>
-      <c r="K17" s="82"/>
-      <c r="L17" s="83"/>
+      <c r="K17" s="86"/>
+      <c r="L17" s="87"/>
       <c r="M17" s="4" t="s">
         <v>22</v>
       </c>
@@ -3138,8 +3156,8 @@
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="84"/>
-      <c r="B18" s="85"/>
+      <c r="A18" s="88"/>
+      <c r="B18" s="89"/>
       <c r="C18" s="4" t="s">
         <v>34</v>
       </c>
@@ -3163,8 +3181,8 @@
         <f>($A$14-H17)/$A$14</f>
         <v>1</v>
       </c>
-      <c r="K18" s="84"/>
-      <c r="L18" s="85"/>
+      <c r="K18" s="88"/>
+      <c r="L18" s="89"/>
       <c r="M18" s="4" t="s">
         <v>34</v>
       </c>
@@ -3190,10 +3208,10 @@
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="61">
+      <c r="A19" s="65">
         <v>1345</v>
       </c>
-      <c r="B19" s="62"/>
+      <c r="B19" s="66"/>
       <c r="C19" s="7" t="s">
         <v>30</v>
       </c>
@@ -3212,10 +3230,10 @@
       <c r="H19" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="K19" s="61">
+      <c r="K19" s="65">
         <v>1345</v>
       </c>
-      <c r="L19" s="62"/>
+      <c r="L19" s="66"/>
       <c r="M19" s="7" t="s">
         <v>30</v>
       </c>
@@ -3236,8 +3254,8 @@
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="63"/>
-      <c r="B20" s="64"/>
+      <c r="A20" s="67"/>
+      <c r="B20" s="68"/>
       <c r="C20" s="7" t="s">
         <v>21</v>
       </c>
@@ -3254,8 +3272,8 @@
         <v>129</v>
       </c>
       <c r="H20" s="5"/>
-      <c r="K20" s="63"/>
-      <c r="L20" s="64"/>
+      <c r="K20" s="67"/>
+      <c r="L20" s="68"/>
       <c r="M20" s="7" t="s">
         <v>21</v>
       </c>
@@ -3276,8 +3294,8 @@
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21" s="63"/>
-      <c r="B21" s="64"/>
+      <c r="A21" s="67"/>
+      <c r="B21" s="68"/>
       <c r="C21" s="7" t="s">
         <v>35</v>
       </c>
@@ -3298,8 +3316,8 @@
         <v>0.90408921933085507</v>
       </c>
       <c r="H21" s="5"/>
-      <c r="K21" s="63"/>
-      <c r="L21" s="64"/>
+      <c r="K21" s="67"/>
+      <c r="L21" s="68"/>
       <c r="M21" s="7" t="s">
         <v>35</v>
       </c>
@@ -3325,8 +3343,8 @@
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A22" s="63"/>
-      <c r="B22" s="64"/>
+      <c r="A22" s="67"/>
+      <c r="B22" s="68"/>
       <c r="C22" s="7" t="s">
         <v>22</v>
       </c>
@@ -3343,8 +3361,8 @@
         <v>1182</v>
       </c>
       <c r="H22" s="5"/>
-      <c r="K22" s="63"/>
-      <c r="L22" s="64"/>
+      <c r="K22" s="67"/>
+      <c r="L22" s="68"/>
       <c r="M22" s="7" t="s">
         <v>22</v>
       </c>
@@ -3363,8 +3381,8 @@
       <c r="R22" s="5"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A23" s="65"/>
-      <c r="B23" s="66"/>
+      <c r="A23" s="69"/>
+      <c r="B23" s="70"/>
       <c r="C23" s="7" t="s">
         <v>34</v>
       </c>
@@ -3385,8 +3403,8 @@
         <v>0.12118959107806691</v>
       </c>
       <c r="H23" s="5"/>
-      <c r="K23" s="65"/>
-      <c r="L23" s="66"/>
+      <c r="K23" s="69"/>
+      <c r="L23" s="70"/>
       <c r="M23" s="7" t="s">
         <v>34</v>
       </c>
@@ -3409,10 +3427,10 @@
       <c r="R23" s="5"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="K24" s="67">
+      <c r="K24" s="71">
         <v>1640</v>
       </c>
-      <c r="L24" s="67"/>
+      <c r="L24" s="71"/>
       <c r="M24" s="24" t="s">
         <v>30</v>
       </c>
@@ -3433,10 +3451,10 @@
       </c>
     </row>
     <row r="28" spans="1:18" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="86" t="s">
+      <c r="A28" s="90" t="s">
         <v>31</v>
       </c>
-      <c r="B28" s="87"/>
+      <c r="B28" s="91"/>
       <c r="C28" s="14"/>
       <c r="D28" s="15" t="s">
         <v>1</v>
@@ -3453,10 +3471,10 @@
       <c r="H28" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="K28" s="86" t="s">
+      <c r="K28" s="90" t="s">
         <v>31</v>
       </c>
-      <c r="L28" s="87"/>
+      <c r="L28" s="91"/>
       <c r="M28" s="14"/>
       <c r="N28" s="15" t="s">
         <v>1</v>
@@ -3475,10 +3493,10 @@
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A29" s="68">
+      <c r="A29" s="72">
         <v>584</v>
       </c>
-      <c r="B29" s="69"/>
+      <c r="B29" s="73"/>
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -3498,10 +3516,10 @@
         <v>8.1119999999999994E-3</v>
       </c>
       <c r="J29" s="24"/>
-      <c r="K29" s="68">
+      <c r="K29" s="72">
         <v>584</v>
       </c>
-      <c r="L29" s="69"/>
+      <c r="L29" s="73"/>
       <c r="M29" s="1" t="s">
         <v>23</v>
       </c>
@@ -3522,8 +3540,8 @@
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A30" s="70"/>
-      <c r="B30" s="71"/>
+      <c r="A30" s="74"/>
+      <c r="B30" s="75"/>
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -3542,8 +3560,8 @@
       <c r="H30" s="1">
         <v>3.248E-3</v>
       </c>
-      <c r="K30" s="70"/>
-      <c r="L30" s="71"/>
+      <c r="K30" s="74"/>
+      <c r="L30" s="75"/>
       <c r="M30" s="1" t="s">
         <v>24</v>
       </c>
@@ -3564,8 +3582,8 @@
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A31" s="70"/>
-      <c r="B31" s="71"/>
+      <c r="A31" s="74"/>
+      <c r="B31" s="75"/>
       <c r="C31" s="19" t="s">
         <v>32</v>
       </c>
@@ -3589,8 +3607,8 @@
         <f t="shared" si="0"/>
         <v>1.1359999999999999E-2</v>
       </c>
-      <c r="K31" s="70"/>
-      <c r="L31" s="71"/>
+      <c r="K31" s="74"/>
+      <c r="L31" s="75"/>
       <c r="M31" s="19" t="s">
         <v>32</v>
       </c>
@@ -3616,8 +3634,8 @@
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A32" s="70"/>
-      <c r="B32" s="71"/>
+      <c r="A32" s="74"/>
+      <c r="B32" s="75"/>
       <c r="C32" s="1" t="s">
         <v>25</v>
       </c>
@@ -3637,8 +3655,8 @@
         <v>4.0691999999999999E-2</v>
       </c>
       <c r="J32" s="24"/>
-      <c r="K32" s="70"/>
-      <c r="L32" s="71"/>
+      <c r="K32" s="74"/>
+      <c r="L32" s="75"/>
       <c r="M32" s="1" t="s">
         <v>25</v>
       </c>
@@ -3659,8 +3677,8 @@
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A33" s="70"/>
-      <c r="B33" s="71"/>
+      <c r="A33" s="74"/>
+      <c r="B33" s="75"/>
       <c r="C33" s="1" t="s">
         <v>26</v>
       </c>
@@ -3679,8 +3697,8 @@
       <c r="H33" s="1">
         <v>1.7328E-2</v>
       </c>
-      <c r="K33" s="70"/>
-      <c r="L33" s="71"/>
+      <c r="K33" s="74"/>
+      <c r="L33" s="75"/>
       <c r="M33" s="1" t="s">
         <v>26</v>
       </c>
@@ -3701,8 +3719,8 @@
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A34" s="72"/>
-      <c r="B34" s="73"/>
+      <c r="A34" s="76"/>
+      <c r="B34" s="77"/>
       <c r="C34" s="19" t="s">
         <v>32</v>
       </c>
@@ -3726,8 +3744,8 @@
         <f t="shared" si="2"/>
         <v>5.8020000000000002E-2</v>
       </c>
-      <c r="K34" s="72"/>
-      <c r="L34" s="73"/>
+      <c r="K34" s="76"/>
+      <c r="L34" s="77"/>
       <c r="M34" s="19" t="s">
         <v>32</v>
       </c>
@@ -3753,10 +3771,10 @@
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A35" s="74">
+      <c r="A35" s="78">
         <v>980</v>
       </c>
-      <c r="B35" s="75"/>
+      <c r="B35" s="79"/>
       <c r="C35" s="16" t="s">
         <v>23</v>
       </c>
@@ -3776,10 +3794,10 @@
         <v>1.2716E-2</v>
       </c>
       <c r="J35" s="24"/>
-      <c r="K35" s="74">
+      <c r="K35" s="78">
         <v>980</v>
       </c>
-      <c r="L35" s="75"/>
+      <c r="L35" s="79"/>
       <c r="M35" s="16" t="s">
         <v>23</v>
       </c>
@@ -3800,8 +3818,8 @@
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A36" s="76"/>
-      <c r="B36" s="77"/>
+      <c r="A36" s="80"/>
+      <c r="B36" s="81"/>
       <c r="C36" s="16" t="s">
         <v>24</v>
       </c>
@@ -3820,8 +3838,8 @@
       <c r="H36" s="16">
         <v>5.1999999999999998E-3</v>
       </c>
-      <c r="K36" s="76"/>
-      <c r="L36" s="77"/>
+      <c r="K36" s="80"/>
+      <c r="L36" s="81"/>
       <c r="M36" s="16" t="s">
         <v>24</v>
       </c>
@@ -3842,8 +3860,8 @@
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A37" s="76"/>
-      <c r="B37" s="77"/>
+      <c r="A37" s="80"/>
+      <c r="B37" s="81"/>
       <c r="C37" s="19" t="s">
         <v>32</v>
       </c>
@@ -3867,8 +3885,8 @@
         <f t="shared" si="4"/>
         <v>1.7916000000000001E-2</v>
       </c>
-      <c r="K37" s="76"/>
-      <c r="L37" s="77"/>
+      <c r="K37" s="80"/>
+      <c r="L37" s="81"/>
       <c r="M37" s="19" t="s">
         <v>32</v>
       </c>
@@ -3894,8 +3912,8 @@
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A38" s="76"/>
-      <c r="B38" s="77"/>
+      <c r="A38" s="80"/>
+      <c r="B38" s="81"/>
       <c r="C38" s="16" t="s">
         <v>25</v>
       </c>
@@ -3915,8 +3933,8 @@
         <v>5.5975999999999998E-2</v>
       </c>
       <c r="J38" s="24"/>
-      <c r="K38" s="76"/>
-      <c r="L38" s="77"/>
+      <c r="K38" s="80"/>
+      <c r="L38" s="81"/>
       <c r="M38" s="16" t="s">
         <v>25</v>
       </c>
@@ -3937,8 +3955,8 @@
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A39" s="76"/>
-      <c r="B39" s="77"/>
+      <c r="A39" s="80"/>
+      <c r="B39" s="81"/>
       <c r="C39" s="16" t="s">
         <v>26</v>
       </c>
@@ -3957,8 +3975,8 @@
       <c r="H39" s="16">
         <v>2.3768000000000001E-2</v>
       </c>
-      <c r="K39" s="76"/>
-      <c r="L39" s="77"/>
+      <c r="K39" s="80"/>
+      <c r="L39" s="81"/>
       <c r="M39" s="16" t="s">
         <v>26</v>
       </c>
@@ -3979,8 +3997,8 @@
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A40" s="78"/>
-      <c r="B40" s="79"/>
+      <c r="A40" s="82"/>
+      <c r="B40" s="83"/>
       <c r="C40" s="19" t="s">
         <v>32</v>
       </c>
@@ -4004,8 +4022,8 @@
         <f t="shared" si="6"/>
         <v>7.9743999999999995E-2</v>
       </c>
-      <c r="K40" s="78"/>
-      <c r="L40" s="79"/>
+      <c r="K40" s="82"/>
+      <c r="L40" s="83"/>
       <c r="M40" s="19" t="s">
         <v>32</v>
       </c>
@@ -4031,10 +4049,10 @@
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A41" s="80">
+      <c r="A41" s="84">
         <v>1280</v>
       </c>
-      <c r="B41" s="81"/>
+      <c r="B41" s="85"/>
       <c r="C41" s="4" t="s">
         <v>23</v>
       </c>
@@ -4052,10 +4070,10 @@
       </c>
       <c r="H41" s="5"/>
       <c r="J41" s="24"/>
-      <c r="K41" s="80">
+      <c r="K41" s="84">
         <v>1280</v>
       </c>
-      <c r="L41" s="81"/>
+      <c r="L41" s="85"/>
       <c r="M41" s="4" t="s">
         <v>23</v>
       </c>
@@ -4076,8 +4094,8 @@
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A42" s="82"/>
-      <c r="B42" s="83"/>
+      <c r="A42" s="86"/>
+      <c r="B42" s="87"/>
       <c r="C42" s="4" t="s">
         <v>24</v>
       </c>
@@ -4094,8 +4112,8 @@
         <v>9.476E-3</v>
       </c>
       <c r="H42" s="5"/>
-      <c r="K42" s="82"/>
-      <c r="L42" s="83"/>
+      <c r="K42" s="86"/>
+      <c r="L42" s="87"/>
       <c r="M42" s="4" t="s">
         <v>24</v>
       </c>
@@ -4116,8 +4134,8 @@
       </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A43" s="82"/>
-      <c r="B43" s="83"/>
+      <c r="A43" s="86"/>
+      <c r="B43" s="87"/>
       <c r="C43" s="19" t="s">
         <v>32</v>
       </c>
@@ -4138,8 +4156,8 @@
         <v>2.7875999999999998E-2</v>
       </c>
       <c r="H43" s="5"/>
-      <c r="K43" s="82"/>
-      <c r="L43" s="83"/>
+      <c r="K43" s="86"/>
+      <c r="L43" s="87"/>
       <c r="M43" s="19" t="s">
         <v>32</v>
       </c>
@@ -4165,8 +4183,8 @@
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A44" s="82"/>
-      <c r="B44" s="83"/>
+      <c r="A44" s="86"/>
+      <c r="B44" s="87"/>
       <c r="C44" s="4" t="s">
         <v>25</v>
       </c>
@@ -4184,8 +4202,8 @@
       </c>
       <c r="H44" s="5"/>
       <c r="J44" s="24"/>
-      <c r="K44" s="82"/>
-      <c r="L44" s="83"/>
+      <c r="K44" s="86"/>
+      <c r="L44" s="87"/>
       <c r="M44" s="4" t="s">
         <v>25</v>
       </c>
@@ -4206,8 +4224,8 @@
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A45" s="82"/>
-      <c r="B45" s="83"/>
+      <c r="A45" s="86"/>
+      <c r="B45" s="87"/>
       <c r="C45" s="4" t="s">
         <v>26</v>
       </c>
@@ -4224,8 +4242,8 @@
         <v>4.3580000000000001E-2</v>
       </c>
       <c r="H45" s="5"/>
-      <c r="K45" s="82"/>
-      <c r="L45" s="83"/>
+      <c r="K45" s="86"/>
+      <c r="L45" s="87"/>
       <c r="M45" s="4" t="s">
         <v>26</v>
       </c>
@@ -4246,8 +4264,8 @@
       </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A46" s="84"/>
-      <c r="B46" s="85"/>
+      <c r="A46" s="88"/>
+      <c r="B46" s="89"/>
       <c r="C46" s="19" t="s">
         <v>32</v>
       </c>
@@ -4268,8 +4286,8 @@
         <v>0.146428</v>
       </c>
       <c r="H46" s="5"/>
-      <c r="K46" s="84"/>
-      <c r="L46" s="85"/>
+      <c r="K46" s="88"/>
+      <c r="L46" s="89"/>
       <c r="M46" s="19" t="s">
         <v>32</v>
       </c>
@@ -4295,10 +4313,10 @@
       </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A47" s="61">
+      <c r="A47" s="65">
         <v>1345</v>
       </c>
-      <c r="B47" s="62"/>
+      <c r="B47" s="66"/>
       <c r="C47" s="7" t="s">
         <v>23</v>
       </c>
@@ -4316,10 +4334,10 @@
       </c>
       <c r="H47" s="5"/>
       <c r="J47" s="24"/>
-      <c r="K47" s="61">
+      <c r="K47" s="65">
         <v>1345</v>
       </c>
-      <c r="L47" s="62"/>
+      <c r="L47" s="66"/>
       <c r="M47" s="7" t="s">
         <v>23</v>
       </c>
@@ -4340,8 +4358,8 @@
       </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A48" s="63"/>
-      <c r="B48" s="64"/>
+      <c r="A48" s="67"/>
+      <c r="B48" s="68"/>
       <c r="C48" s="7" t="s">
         <v>24</v>
       </c>
@@ -4358,8 +4376,8 @@
         <v>9.9319999999999999E-3</v>
       </c>
       <c r="H48" s="5"/>
-      <c r="K48" s="63"/>
-      <c r="L48" s="64"/>
+      <c r="K48" s="67"/>
+      <c r="L48" s="68"/>
       <c r="M48" s="7" t="s">
         <v>24</v>
       </c>
@@ -4378,8 +4396,8 @@
       <c r="R48" s="5"/>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A49" s="63"/>
-      <c r="B49" s="64"/>
+      <c r="A49" s="67"/>
+      <c r="B49" s="68"/>
       <c r="C49" s="19" t="s">
         <v>32</v>
       </c>
@@ -4400,8 +4418,8 @@
         <v>2.8931999999999999E-2</v>
       </c>
       <c r="H49" s="5"/>
-      <c r="K49" s="63"/>
-      <c r="L49" s="64"/>
+      <c r="K49" s="67"/>
+      <c r="L49" s="68"/>
       <c r="M49" s="19" t="s">
         <v>32</v>
       </c>
@@ -4424,8 +4442,8 @@
       <c r="R49" s="5"/>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A50" s="63"/>
-      <c r="B50" s="64"/>
+      <c r="A50" s="67"/>
+      <c r="B50" s="68"/>
       <c r="C50" s="7" t="s">
         <v>25</v>
       </c>
@@ -4443,8 +4461,8 @@
       </c>
       <c r="H50" s="5"/>
       <c r="J50" s="24"/>
-      <c r="K50" s="63"/>
-      <c r="L50" s="64"/>
+      <c r="K50" s="67"/>
+      <c r="L50" s="68"/>
       <c r="M50" s="7" t="s">
         <v>25</v>
       </c>
@@ -4463,8 +4481,8 @@
       <c r="R50" s="5"/>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A51" s="63"/>
-      <c r="B51" s="64"/>
+      <c r="A51" s="67"/>
+      <c r="B51" s="68"/>
       <c r="C51" s="7" t="s">
         <v>26</v>
       </c>
@@ -4481,8 +4499,8 @@
         <v>4.5887999999999998E-2</v>
       </c>
       <c r="H51" s="5"/>
-      <c r="K51" s="63"/>
-      <c r="L51" s="64"/>
+      <c r="K51" s="67"/>
+      <c r="L51" s="68"/>
       <c r="M51" s="7" t="s">
         <v>26</v>
       </c>
@@ -4501,8 +4519,8 @@
       <c r="R51" s="5"/>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A52" s="65"/>
-      <c r="B52" s="66"/>
+      <c r="A52" s="69"/>
+      <c r="B52" s="70"/>
       <c r="C52" s="19" t="s">
         <v>32</v>
       </c>
@@ -4523,8 +4541,8 @@
         <v>0.15465999999999999</v>
       </c>
       <c r="H52" s="5"/>
-      <c r="K52" s="65"/>
-      <c r="L52" s="66"/>
+      <c r="K52" s="69"/>
+      <c r="L52" s="70"/>
       <c r="M52" s="19" t="s">
         <v>32</v>
       </c>
@@ -4608,32 +4626,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="92" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88"/>
-      <c r="M1" s="88"/>
-      <c r="N1" s="88"/>
-      <c r="O1" s="88"/>
-      <c r="P1" s="88"/>
-      <c r="Q1" s="88"/>
-      <c r="R1" s="88"/>
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="92"/>
+      <c r="K1" s="92"/>
+      <c r="L1" s="92"/>
+      <c r="M1" s="92"/>
+      <c r="N1" s="92"/>
+      <c r="O1" s="92"/>
+      <c r="P1" s="92"/>
+      <c r="Q1" s="92"/>
+      <c r="R1" s="92"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="86" t="s">
+      <c r="A2" s="90" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="87"/>
+      <c r="B2" s="91"/>
       <c r="C2" s="14"/>
       <c r="D2" s="15" t="s">
         <v>1</v>
@@ -4685,10 +4703,10 @@
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="68">
+      <c r="A3" s="72">
         <v>584</v>
       </c>
-      <c r="B3" s="69"/>
+      <c r="B3" s="73"/>
       <c r="C3" s="1" t="s">
         <v>30</v>
       </c>
@@ -4742,8 +4760,8 @@
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="70"/>
-      <c r="B4" s="71"/>
+      <c r="A4" s="74"/>
+      <c r="B4" s="75"/>
       <c r="C4" s="1" t="s">
         <v>21</v>
       </c>
@@ -4797,8 +4815,8 @@
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="70"/>
-      <c r="B5" s="71"/>
+      <c r="A5" s="74"/>
+      <c r="B5" s="75"/>
       <c r="C5" s="1" t="s">
         <v>33</v>
       </c>
@@ -4868,8 +4886,8 @@
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="70"/>
-      <c r="B6" s="71"/>
+      <c r="A6" s="74"/>
+      <c r="B6" s="75"/>
       <c r="C6" s="1" t="s">
         <v>22</v>
       </c>
@@ -4923,8 +4941,8 @@
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="72"/>
-      <c r="B7" s="73"/>
+      <c r="A7" s="76"/>
+      <c r="B7" s="77"/>
       <c r="C7" s="1" t="s">
         <v>34</v>
       </c>
@@ -4994,10 +5012,10 @@
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="74">
+      <c r="A8" s="78">
         <v>980</v>
       </c>
-      <c r="B8" s="75"/>
+      <c r="B8" s="79"/>
       <c r="C8" s="16" t="s">
         <v>30</v>
       </c>
@@ -5048,8 +5066,8 @@
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="76"/>
-      <c r="B9" s="77"/>
+      <c r="A9" s="80"/>
+      <c r="B9" s="81"/>
       <c r="C9" s="16" t="s">
         <v>21</v>
       </c>
@@ -5103,8 +5121,8 @@
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="76"/>
-      <c r="B10" s="77"/>
+      <c r="A10" s="80"/>
+      <c r="B10" s="81"/>
       <c r="C10" s="16" t="s">
         <v>35</v>
       </c>
@@ -5170,8 +5188,8 @@
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="76"/>
-      <c r="B11" s="77"/>
+      <c r="A11" s="80"/>
+      <c r="B11" s="81"/>
       <c r="C11" s="16" t="s">
         <v>22</v>
       </c>
@@ -5225,8 +5243,8 @@
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="78"/>
-      <c r="B12" s="79"/>
+      <c r="A12" s="82"/>
+      <c r="B12" s="83"/>
       <c r="C12" s="16" t="s">
         <v>34</v>
       </c>
@@ -5292,10 +5310,10 @@
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="80">
+      <c r="A13" s="84">
         <v>1280</v>
       </c>
-      <c r="B13" s="81"/>
+      <c r="B13" s="85"/>
       <c r="C13" s="13" t="s">
         <v>30</v>
       </c>
@@ -5346,8 +5364,8 @@
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="82"/>
-      <c r="B14" s="83"/>
+      <c r="A14" s="86"/>
+      <c r="B14" s="87"/>
       <c r="C14" s="4" t="s">
         <v>21</v>
       </c>
@@ -5401,8 +5419,8 @@
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="82"/>
-      <c r="B15" s="83"/>
+      <c r="A15" s="86"/>
+      <c r="B15" s="87"/>
       <c r="C15" s="4" t="s">
         <v>35</v>
       </c>
@@ -5468,8 +5486,8 @@
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="82"/>
-      <c r="B16" s="83"/>
+      <c r="A16" s="86"/>
+      <c r="B16" s="87"/>
       <c r="C16" s="4" t="s">
         <v>22</v>
       </c>
@@ -5523,8 +5541,8 @@
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A17" s="84"/>
-      <c r="B17" s="85"/>
+      <c r="A17" s="88"/>
+      <c r="B17" s="89"/>
       <c r="C17" s="4" t="s">
         <v>34</v>
       </c>
@@ -5590,10 +5608,10 @@
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A18" s="61">
+      <c r="A18" s="65">
         <v>1345</v>
       </c>
-      <c r="B18" s="62"/>
+      <c r="B18" s="66"/>
       <c r="C18" s="7" t="s">
         <v>30</v>
       </c>
@@ -5647,8 +5665,8 @@
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A19" s="63"/>
-      <c r="B19" s="64"/>
+      <c r="A19" s="67"/>
+      <c r="B19" s="68"/>
       <c r="C19" s="7" t="s">
         <v>21</v>
       </c>
@@ -5705,8 +5723,8 @@
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A20" s="63"/>
-      <c r="B20" s="64"/>
+      <c r="A20" s="67"/>
+      <c r="B20" s="68"/>
       <c r="C20" s="7" t="s">
         <v>35</v>
       </c>
@@ -5772,8 +5790,8 @@
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A21" s="63"/>
-      <c r="B21" s="64"/>
+      <c r="A21" s="67"/>
+      <c r="B21" s="68"/>
       <c r="C21" s="7" t="s">
         <v>22</v>
       </c>
@@ -5827,8 +5845,8 @@
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A22" s="65"/>
-      <c r="B22" s="66"/>
+      <c r="A22" s="69"/>
+      <c r="B22" s="70"/>
       <c r="C22" s="7" t="s">
         <v>34</v>
       </c>
@@ -5894,10 +5912,10 @@
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A23" s="89">
+      <c r="A23" s="93">
         <v>1640</v>
       </c>
-      <c r="B23" s="90"/>
+      <c r="B23" s="94"/>
       <c r="C23" s="39" t="s">
         <v>30</v>
       </c>
@@ -5928,8 +5946,8 @@
       <c r="R23" s="40"/>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A24" s="91"/>
-      <c r="B24" s="92"/>
+      <c r="A24" s="95"/>
+      <c r="B24" s="96"/>
       <c r="C24" s="39" t="s">
         <v>21</v>
       </c>
@@ -5961,8 +5979,8 @@
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A25" s="91"/>
-      <c r="B25" s="92"/>
+      <c r="A25" s="95"/>
+      <c r="B25" s="96"/>
       <c r="C25" s="39" t="s">
         <v>35</v>
       </c>
@@ -6025,8 +6043,8 @@
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A26" s="91"/>
-      <c r="B26" s="92"/>
+      <c r="A26" s="95"/>
+      <c r="B26" s="96"/>
       <c r="C26" s="39" t="s">
         <v>22</v>
       </c>
@@ -6058,8 +6076,8 @@
       </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A27" s="93"/>
-      <c r="B27" s="94"/>
+      <c r="A27" s="97"/>
+      <c r="B27" s="98"/>
       <c r="C27" s="39" t="s">
         <v>34</v>
       </c>
@@ -6133,10 +6151,10 @@
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A33" s="86" t="s">
+      <c r="A33" s="90" t="s">
         <v>31</v>
       </c>
-      <c r="B33" s="87"/>
+      <c r="B33" s="91"/>
       <c r="C33" s="14"/>
       <c r="D33" s="15" t="s">
         <v>1</v>
@@ -6185,10 +6203,10 @@
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A34" s="68">
+      <c r="A34" s="72">
         <v>584</v>
       </c>
-      <c r="B34" s="69"/>
+      <c r="B34" s="73"/>
       <c r="C34" s="1" t="s">
         <v>23</v>
       </c>
@@ -6239,8 +6257,8 @@
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A35" s="70"/>
-      <c r="B35" s="71"/>
+      <c r="A35" s="74"/>
+      <c r="B35" s="75"/>
       <c r="C35" s="1" t="s">
         <v>24</v>
       </c>
@@ -6291,8 +6309,8 @@
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A36" s="70"/>
-      <c r="B36" s="71"/>
+      <c r="A36" s="74"/>
+      <c r="B36" s="75"/>
       <c r="C36" s="19" t="s">
         <v>32</v>
       </c>
@@ -6358,8 +6376,8 @@
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A37" s="70"/>
-      <c r="B37" s="71"/>
+      <c r="A37" s="74"/>
+      <c r="B37" s="75"/>
       <c r="C37" s="1" t="s">
         <v>25</v>
       </c>
@@ -6410,8 +6428,8 @@
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A38" s="70"/>
-      <c r="B38" s="71"/>
+      <c r="A38" s="74"/>
+      <c r="B38" s="75"/>
       <c r="C38" s="1" t="s">
         <v>26</v>
       </c>
@@ -6462,8 +6480,8 @@
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A39" s="72"/>
-      <c r="B39" s="73"/>
+      <c r="A39" s="76"/>
+      <c r="B39" s="77"/>
       <c r="C39" s="19" t="s">
         <v>32</v>
       </c>
@@ -6529,10 +6547,10 @@
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A40" s="74">
+      <c r="A40" s="78">
         <v>980</v>
       </c>
-      <c r="B40" s="75"/>
+      <c r="B40" s="79"/>
       <c r="C40" s="16" t="s">
         <v>23</v>
       </c>
@@ -6583,8 +6601,8 @@
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A41" s="76"/>
-      <c r="B41" s="77"/>
+      <c r="A41" s="80"/>
+      <c r="B41" s="81"/>
       <c r="C41" s="16" t="s">
         <v>24</v>
       </c>
@@ -6635,8 +6653,8 @@
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A42" s="76"/>
-      <c r="B42" s="77"/>
+      <c r="A42" s="80"/>
+      <c r="B42" s="81"/>
       <c r="C42" s="19" t="s">
         <v>32</v>
       </c>
@@ -6702,8 +6720,8 @@
       </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A43" s="76"/>
-      <c r="B43" s="77"/>
+      <c r="A43" s="80"/>
+      <c r="B43" s="81"/>
       <c r="C43" s="16" t="s">
         <v>25</v>
       </c>
@@ -6754,8 +6772,8 @@
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A44" s="76"/>
-      <c r="B44" s="77"/>
+      <c r="A44" s="80"/>
+      <c r="B44" s="81"/>
       <c r="C44" s="16" t="s">
         <v>26</v>
       </c>
@@ -6806,8 +6824,8 @@
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A45" s="78"/>
-      <c r="B45" s="79"/>
+      <c r="A45" s="82"/>
+      <c r="B45" s="83"/>
       <c r="C45" s="19" t="s">
         <v>32</v>
       </c>
@@ -6873,10 +6891,10 @@
       </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A46" s="80">
+      <c r="A46" s="84">
         <v>1280</v>
       </c>
-      <c r="B46" s="81"/>
+      <c r="B46" s="85"/>
       <c r="C46" s="4" t="s">
         <v>23</v>
       </c>
@@ -6927,8 +6945,8 @@
       </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A47" s="82"/>
-      <c r="B47" s="83"/>
+      <c r="A47" s="86"/>
+      <c r="B47" s="87"/>
       <c r="C47" s="4" t="s">
         <v>24</v>
       </c>
@@ -6979,8 +6997,8 @@
       </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A48" s="82"/>
-      <c r="B48" s="83"/>
+      <c r="A48" s="86"/>
+      <c r="B48" s="87"/>
       <c r="C48" s="19" t="s">
         <v>32</v>
       </c>
@@ -7046,8 +7064,8 @@
       </c>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A49" s="82"/>
-      <c r="B49" s="83"/>
+      <c r="A49" s="86"/>
+      <c r="B49" s="87"/>
       <c r="C49" s="4" t="s">
         <v>25</v>
       </c>
@@ -7098,8 +7116,8 @@
       </c>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A50" s="82"/>
-      <c r="B50" s="83"/>
+      <c r="A50" s="86"/>
+      <c r="B50" s="87"/>
       <c r="C50" s="4" t="s">
         <v>26</v>
       </c>
@@ -7150,8 +7168,8 @@
       </c>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A51" s="84"/>
-      <c r="B51" s="85"/>
+      <c r="A51" s="88"/>
+      <c r="B51" s="89"/>
       <c r="C51" s="19" t="s">
         <v>32</v>
       </c>
@@ -7217,10 +7235,10 @@
       </c>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A52" s="61">
+      <c r="A52" s="65">
         <v>1345</v>
       </c>
-      <c r="B52" s="62"/>
+      <c r="B52" s="66"/>
       <c r="C52" s="7" t="s">
         <v>23</v>
       </c>
@@ -7271,8 +7289,8 @@
       </c>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A53" s="63"/>
-      <c r="B53" s="64"/>
+      <c r="A53" s="67"/>
+      <c r="B53" s="68"/>
       <c r="C53" s="7" t="s">
         <v>24</v>
       </c>
@@ -7323,8 +7341,8 @@
       </c>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A54" s="63"/>
-      <c r="B54" s="64"/>
+      <c r="A54" s="67"/>
+      <c r="B54" s="68"/>
       <c r="C54" s="19" t="s">
         <v>32</v>
       </c>
@@ -7390,8 +7408,8 @@
       </c>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A55" s="63"/>
-      <c r="B55" s="64"/>
+      <c r="A55" s="67"/>
+      <c r="B55" s="68"/>
       <c r="C55" s="7" t="s">
         <v>25</v>
       </c>
@@ -7442,8 +7460,8 @@
       </c>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A56" s="63"/>
-      <c r="B56" s="64"/>
+      <c r="A56" s="67"/>
+      <c r="B56" s="68"/>
       <c r="C56" s="7" t="s">
         <v>26</v>
       </c>
@@ -7494,8 +7512,8 @@
       </c>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A57" s="65"/>
-      <c r="B57" s="66"/>
+      <c r="A57" s="69"/>
+      <c r="B57" s="70"/>
       <c r="C57" s="19" t="s">
         <v>32</v>
       </c>
@@ -7586,8 +7604,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="C7:O36"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15:O18"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="V32" sqref="V32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7821,29 +7839,29 @@
       </c>
     </row>
     <row r="15" spans="3:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="98" t="s">
+      <c r="C15" s="102" t="s">
         <v>95</v>
       </c>
-      <c r="D15" s="98"/>
-      <c r="E15" s="99" t="s">
+      <c r="D15" s="102"/>
+      <c r="E15" s="103" t="s">
         <v>100</v>
       </c>
-      <c r="F15" s="99"/>
-      <c r="G15" s="99"/>
-      <c r="H15" s="99"/>
-      <c r="I15" s="99"/>
-      <c r="J15" s="99"/>
-      <c r="K15" s="99"/>
-      <c r="L15" s="99"/>
-      <c r="M15" s="99"/>
-      <c r="N15" s="99"/>
-      <c r="O15" s="95" t="s">
+      <c r="F15" s="103"/>
+      <c r="G15" s="103"/>
+      <c r="H15" s="103"/>
+      <c r="I15" s="103"/>
+      <c r="J15" s="103"/>
+      <c r="K15" s="103"/>
+      <c r="L15" s="103"/>
+      <c r="M15" s="103"/>
+      <c r="N15" s="103"/>
+      <c r="O15" s="99" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="16" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C16" s="98"/>
-      <c r="D16" s="98"/>
+      <c r="C16" s="102"/>
+      <c r="D16" s="102"/>
       <c r="E16" s="42">
         <v>1</v>
       </c>
@@ -7874,10 +7892,10 @@
       <c r="N16" s="42">
         <v>10</v>
       </c>
-      <c r="O16" s="95"/>
+      <c r="O16" s="99"/>
     </row>
     <row r="17" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C17" s="95" t="s">
+      <c r="C17" s="99" t="s">
         <v>96</v>
       </c>
       <c r="D17" s="42" t="s">
@@ -7913,13 +7931,13 @@
       <c r="N17" s="43">
         <v>41</v>
       </c>
-      <c r="O17" s="96">
+      <c r="O17" s="100">
         <f>SUM(E17:N17)/410</f>
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C18" s="95"/>
+      <c r="C18" s="99"/>
       <c r="D18" s="42" t="s">
         <v>98</v>
       </c>
@@ -7953,32 +7971,32 @@
       <c r="N18" s="43">
         <v>0</v>
       </c>
-      <c r="O18" s="97"/>
+      <c r="O18" s="101"/>
     </row>
     <row r="21" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C21" s="98" t="s">
+      <c r="C21" s="102" t="s">
         <v>101</v>
       </c>
-      <c r="D21" s="98"/>
-      <c r="E21" s="99" t="s">
+      <c r="D21" s="102"/>
+      <c r="E21" s="103" t="s">
         <v>100</v>
       </c>
-      <c r="F21" s="99"/>
-      <c r="G21" s="99"/>
-      <c r="H21" s="99"/>
-      <c r="I21" s="99"/>
-      <c r="J21" s="99"/>
-      <c r="K21" s="99"/>
-      <c r="L21" s="99"/>
-      <c r="M21" s="99"/>
-      <c r="N21" s="99"/>
-      <c r="O21" s="95" t="s">
+      <c r="F21" s="103"/>
+      <c r="G21" s="103"/>
+      <c r="H21" s="103"/>
+      <c r="I21" s="103"/>
+      <c r="J21" s="103"/>
+      <c r="K21" s="103"/>
+      <c r="L21" s="103"/>
+      <c r="M21" s="103"/>
+      <c r="N21" s="103"/>
+      <c r="O21" s="99" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="22" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C22" s="98"/>
-      <c r="D22" s="98"/>
+      <c r="C22" s="102"/>
+      <c r="D22" s="102"/>
       <c r="E22" s="42">
         <v>1</v>
       </c>
@@ -8009,10 +8027,10 @@
       <c r="N22" s="42">
         <v>10</v>
       </c>
-      <c r="O22" s="95"/>
+      <c r="O22" s="99"/>
     </row>
     <row r="23" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C23" s="95" t="s">
+      <c r="C23" s="99" t="s">
         <v>96</v>
       </c>
       <c r="D23" s="42" t="s">
@@ -8048,13 +8066,13 @@
       <c r="N23" s="35">
         <v>27</v>
       </c>
-      <c r="O23" s="96">
+      <c r="O23" s="100">
         <f>SUM(E23:N23)/410</f>
         <v>0.86829268292682926</v>
       </c>
     </row>
     <row r="24" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C24" s="95"/>
+      <c r="C24" s="99"/>
       <c r="D24" s="42" t="s">
         <v>98</v>
       </c>
@@ -8088,32 +8106,32 @@
       <c r="N24" s="43">
         <v>14</v>
       </c>
-      <c r="O24" s="97"/>
+      <c r="O24" s="101"/>
     </row>
     <row r="27" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C27" s="98" t="s">
+      <c r="C27" s="102" t="s">
         <v>102</v>
       </c>
-      <c r="D27" s="98"/>
-      <c r="E27" s="99" t="s">
+      <c r="D27" s="102"/>
+      <c r="E27" s="103" t="s">
         <v>100</v>
       </c>
-      <c r="F27" s="99"/>
-      <c r="G27" s="99"/>
-      <c r="H27" s="99"/>
-      <c r="I27" s="99"/>
-      <c r="J27" s="99"/>
-      <c r="K27" s="99"/>
-      <c r="L27" s="99"/>
-      <c r="M27" s="99"/>
-      <c r="N27" s="99"/>
-      <c r="O27" s="95" t="s">
+      <c r="F27" s="103"/>
+      <c r="G27" s="103"/>
+      <c r="H27" s="103"/>
+      <c r="I27" s="103"/>
+      <c r="J27" s="103"/>
+      <c r="K27" s="103"/>
+      <c r="L27" s="103"/>
+      <c r="M27" s="103"/>
+      <c r="N27" s="103"/>
+      <c r="O27" s="99" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="28" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C28" s="98"/>
-      <c r="D28" s="98"/>
+      <c r="C28" s="102"/>
+      <c r="D28" s="102"/>
       <c r="E28" s="42">
         <v>1</v>
       </c>
@@ -8144,10 +8162,10 @@
       <c r="N28" s="42">
         <v>10</v>
       </c>
-      <c r="O28" s="95"/>
+      <c r="O28" s="99"/>
     </row>
     <row r="29" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C29" s="95" t="s">
+      <c r="C29" s="99" t="s">
         <v>96</v>
       </c>
       <c r="D29" s="42" t="s">
@@ -8183,13 +8201,13 @@
       <c r="N29" s="35">
         <v>29</v>
       </c>
-      <c r="O29" s="96">
+      <c r="O29" s="100">
         <f>SUM(E29:N29)/410</f>
         <v>0.69512195121951215</v>
       </c>
     </row>
     <row r="30" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C30" s="95"/>
+      <c r="C30" s="99"/>
       <c r="D30" s="42" t="s">
         <v>98</v>
       </c>
@@ -8223,7 +8241,7 @@
       <c r="N30" s="43">
         <v>12</v>
       </c>
-      <c r="O30" s="97"/>
+      <c r="O30" s="101"/>
     </row>
     <row r="33" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C33" s="46"/>
@@ -8296,10 +8314,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A4:AN41"/>
+  <dimension ref="A4:AN51"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AG4" sqref="AG4:AN9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41:N41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8316,62 +8334,62 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="98" t="s">
+      <c r="B4" s="102" t="s">
         <v>111</v>
       </c>
-      <c r="C4" s="98"/>
-      <c r="D4" s="99" t="s">
+      <c r="C4" s="102"/>
+      <c r="D4" s="103" t="s">
         <v>100</v>
       </c>
-      <c r="E4" s="99"/>
-      <c r="F4" s="99"/>
-      <c r="G4" s="99"/>
-      <c r="H4" s="99"/>
-      <c r="I4" s="99"/>
-      <c r="J4" s="99"/>
-      <c r="K4" s="99"/>
-      <c r="L4" s="99"/>
-      <c r="M4" s="99"/>
-      <c r="N4" s="95" t="s">
+      <c r="E4" s="103"/>
+      <c r="F4" s="103"/>
+      <c r="G4" s="103"/>
+      <c r="H4" s="103"/>
+      <c r="I4" s="103"/>
+      <c r="J4" s="103"/>
+      <c r="K4" s="103"/>
+      <c r="L4" s="103"/>
+      <c r="M4" s="103"/>
+      <c r="N4" s="99" t="s">
+        <v>115</v>
+      </c>
+      <c r="R4" s="102" t="s">
         <v>116</v>
       </c>
-      <c r="R4" s="98" t="s">
-        <v>117</v>
-      </c>
-      <c r="S4" s="98"/>
-      <c r="T4" s="99" t="s">
+      <c r="S4" s="102"/>
+      <c r="T4" s="103" t="s">
         <v>100</v>
       </c>
-      <c r="U4" s="99"/>
-      <c r="V4" s="99"/>
-      <c r="W4" s="99"/>
-      <c r="X4" s="99"/>
-      <c r="Y4" s="99"/>
-      <c r="Z4" s="99"/>
-      <c r="AA4" s="99"/>
-      <c r="AB4" s="99"/>
-      <c r="AC4" s="99"/>
-      <c r="AD4" s="95" t="s">
+      <c r="U4" s="103"/>
+      <c r="V4" s="103"/>
+      <c r="W4" s="103"/>
+      <c r="X4" s="103"/>
+      <c r="Y4" s="103"/>
+      <c r="Z4" s="103"/>
+      <c r="AA4" s="103"/>
+      <c r="AB4" s="103"/>
+      <c r="AC4" s="103"/>
+      <c r="AD4" s="99" t="s">
         <v>105</v>
       </c>
-      <c r="AG4" s="95" t="s">
+      <c r="AG4" s="99" t="s">
         <v>59</v>
       </c>
-      <c r="AH4" s="99" t="s">
+      <c r="AH4" s="103" t="s">
         <v>109</v>
       </c>
-      <c r="AI4" s="99" t="s">
+      <c r="AI4" s="103" t="s">
         <v>110</v>
       </c>
-      <c r="AJ4" s="99"/>
-      <c r="AK4" s="99"/>
-      <c r="AL4" s="99"/>
-      <c r="AM4" s="99"/>
-      <c r="AN4" s="99"/>
+      <c r="AJ4" s="103"/>
+      <c r="AK4" s="103"/>
+      <c r="AL4" s="103"/>
+      <c r="AM4" s="103"/>
+      <c r="AN4" s="103"/>
     </row>
     <row r="5" spans="2:40" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="98"/>
-      <c r="C5" s="98"/>
+      <c r="B5" s="102"/>
+      <c r="C5" s="102"/>
       <c r="D5" s="45">
         <v>1</v>
       </c>
@@ -8402,9 +8420,9 @@
       <c r="M5" s="45">
         <v>10</v>
       </c>
-      <c r="N5" s="95"/>
-      <c r="R5" s="98"/>
-      <c r="S5" s="98"/>
+      <c r="N5" s="99"/>
+      <c r="R5" s="102"/>
+      <c r="S5" s="102"/>
       <c r="T5" s="45">
         <v>1</v>
       </c>
@@ -8435,9 +8453,9 @@
       <c r="AC5" s="45">
         <v>10</v>
       </c>
-      <c r="AD5" s="95"/>
-      <c r="AG5" s="95"/>
-      <c r="AH5" s="99"/>
+      <c r="AD5" s="99"/>
+      <c r="AG5" s="99"/>
+      <c r="AH5" s="103"/>
       <c r="AI5" s="53" t="s">
         <v>1</v>
       </c>
@@ -8458,7 +8476,7 @@
       </c>
     </row>
     <row r="6" spans="2:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="100" t="s">
+      <c r="B6" s="104" t="s">
         <v>110</v>
       </c>
       <c r="C6" s="45" t="s">
@@ -8508,7 +8526,7 @@
         <f>AVERAGE(D6:M6)</f>
         <v>9.2636986301369864E-2</v>
       </c>
-      <c r="R6" s="100" t="s">
+      <c r="R6" s="104" t="s">
         <v>110</v>
       </c>
       <c r="S6" s="45" t="s">
@@ -8580,7 +8598,7 @@
       </c>
     </row>
     <row r="7" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B7" s="100"/>
+      <c r="B7" s="104"/>
       <c r="C7" s="45" t="s">
         <v>2</v>
       </c>
@@ -8628,7 +8646,7 @@
         <f t="shared" ref="N7:N11" si="0">AVERAGE(D7:M7)</f>
         <v>0.2441780821917808</v>
       </c>
-      <c r="R7" s="100"/>
+      <c r="R7" s="104"/>
       <c r="S7" s="45" t="s">
         <v>2</v>
       </c>
@@ -8698,7 +8716,7 @@
       </c>
     </row>
     <row r="8" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B8" s="100"/>
+      <c r="B8" s="104"/>
       <c r="C8" s="45" t="s">
         <v>3</v>
       </c>
@@ -8746,7 +8764,7 @@
         <f t="shared" si="0"/>
         <v>0.31849315068493156</v>
       </c>
-      <c r="R8" s="100"/>
+      <c r="R8" s="104"/>
       <c r="S8" s="45" t="s">
         <v>3</v>
       </c>
@@ -8812,11 +8830,11 @@
       </c>
       <c r="AN8" s="54" t="str">
         <f>AD31</f>
-        <v>Fail</v>
+        <v>gagal</v>
       </c>
     </row>
     <row r="9" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B9" s="100"/>
+      <c r="B9" s="104"/>
       <c r="C9" s="45" t="s">
         <v>52</v>
       </c>
@@ -8864,7 +8882,7 @@
         <f t="shared" si="0"/>
         <v>0.49383561643835616</v>
       </c>
-      <c r="R9" s="100"/>
+      <c r="R9" s="104"/>
       <c r="S9" s="45" t="s">
         <v>52</v>
       </c>
@@ -8930,11 +8948,11 @@
       </c>
       <c r="AN9" s="54" t="str">
         <f>AD41</f>
-        <v>Fail</v>
+        <v>gagal</v>
       </c>
     </row>
     <row r="10" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B10" s="100"/>
+      <c r="B10" s="104"/>
       <c r="C10" s="45" t="s">
         <v>51</v>
       </c>
@@ -8982,7 +9000,7 @@
         <f t="shared" si="0"/>
         <v>0.59845890410958913</v>
       </c>
-      <c r="R10" s="100"/>
+      <c r="R10" s="104"/>
       <c r="S10" s="45" t="s">
         <v>51</v>
       </c>
@@ -9020,9 +9038,39 @@
         <f t="shared" si="1"/>
         <v>2.9476800000000004E-2</v>
       </c>
+      <c r="AG10" s="61">
+        <v>1870</v>
+      </c>
+      <c r="AH10" s="61" t="s">
+        <v>107</v>
+      </c>
+      <c r="AI10" s="43">
+        <f>AD46</f>
+        <v>0.19123519999999999</v>
+      </c>
+      <c r="AJ10" s="43">
+        <f>AD47</f>
+        <v>0.1675944</v>
+      </c>
+      <c r="AK10" s="43">
+        <f>AD48</f>
+        <v>0.14966200000000002</v>
+      </c>
+      <c r="AL10" s="43">
+        <f>AD49</f>
+        <v>0.14012160000000001</v>
+      </c>
+      <c r="AM10" s="54" t="str">
+        <f>AD50</f>
+        <v>gagal</v>
+      </c>
+      <c r="AN10" s="54" t="str">
+        <f>AD51</f>
+        <v>gagal</v>
+      </c>
     </row>
     <row r="11" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B11" s="100"/>
+      <c r="B11" s="104"/>
       <c r="C11" s="45" t="s">
         <v>69</v>
       </c>
@@ -9070,7 +9118,7 @@
         <f t="shared" si="0"/>
         <v>0.56746575342465744</v>
       </c>
-      <c r="R11" s="100"/>
+      <c r="R11" s="104"/>
       <c r="S11" s="45" t="s">
         <v>69</v>
       </c>
@@ -9110,62 +9158,62 @@
       </c>
     </row>
     <row r="14" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B14" s="98" t="s">
+      <c r="B14" s="102" t="s">
         <v>112</v>
       </c>
-      <c r="C14" s="98"/>
-      <c r="D14" s="99" t="s">
+      <c r="C14" s="102"/>
+      <c r="D14" s="103" t="s">
         <v>100</v>
       </c>
-      <c r="E14" s="99"/>
-      <c r="F14" s="99"/>
-      <c r="G14" s="99"/>
-      <c r="H14" s="99"/>
-      <c r="I14" s="99"/>
-      <c r="J14" s="99"/>
-      <c r="K14" s="99"/>
-      <c r="L14" s="99"/>
-      <c r="M14" s="99"/>
-      <c r="N14" s="95" t="s">
+      <c r="E14" s="103"/>
+      <c r="F14" s="103"/>
+      <c r="G14" s="103"/>
+      <c r="H14" s="103"/>
+      <c r="I14" s="103"/>
+      <c r="J14" s="103"/>
+      <c r="K14" s="103"/>
+      <c r="L14" s="103"/>
+      <c r="M14" s="103"/>
+      <c r="N14" s="99" t="s">
         <v>105</v>
       </c>
-      <c r="R14" s="98" t="s">
-        <v>118</v>
-      </c>
-      <c r="S14" s="98"/>
-      <c r="T14" s="99" t="s">
+      <c r="R14" s="102" t="s">
+        <v>117</v>
+      </c>
+      <c r="S14" s="102"/>
+      <c r="T14" s="103" t="s">
         <v>100</v>
       </c>
-      <c r="U14" s="99"/>
-      <c r="V14" s="99"/>
-      <c r="W14" s="99"/>
-      <c r="X14" s="99"/>
-      <c r="Y14" s="99"/>
-      <c r="Z14" s="99"/>
-      <c r="AA14" s="99"/>
-      <c r="AB14" s="99"/>
-      <c r="AC14" s="99"/>
-      <c r="AD14" s="95" t="s">
+      <c r="U14" s="103"/>
+      <c r="V14" s="103"/>
+      <c r="W14" s="103"/>
+      <c r="X14" s="103"/>
+      <c r="Y14" s="103"/>
+      <c r="Z14" s="103"/>
+      <c r="AA14" s="103"/>
+      <c r="AB14" s="103"/>
+      <c r="AC14" s="103"/>
+      <c r="AD14" s="99" t="s">
         <v>105</v>
       </c>
-      <c r="AG14" s="95" t="s">
+      <c r="AG14" s="99" t="s">
         <v>59</v>
       </c>
-      <c r="AH14" s="99" t="s">
+      <c r="AH14" s="103" t="s">
         <v>109</v>
       </c>
-      <c r="AI14" s="99" t="s">
+      <c r="AI14" s="103" t="s">
         <v>110</v>
       </c>
-      <c r="AJ14" s="99"/>
-      <c r="AK14" s="99"/>
-      <c r="AL14" s="99"/>
-      <c r="AM14" s="99"/>
-      <c r="AN14" s="99"/>
+      <c r="AJ14" s="103"/>
+      <c r="AK14" s="103"/>
+      <c r="AL14" s="103"/>
+      <c r="AM14" s="103"/>
+      <c r="AN14" s="103"/>
     </row>
     <row r="15" spans="2:40" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="98"/>
-      <c r="C15" s="98"/>
+      <c r="B15" s="102"/>
+      <c r="C15" s="102"/>
       <c r="D15" s="45">
         <v>1</v>
       </c>
@@ -9196,9 +9244,9 @@
       <c r="M15" s="45">
         <v>10</v>
       </c>
-      <c r="N15" s="95"/>
-      <c r="R15" s="98"/>
-      <c r="S15" s="98"/>
+      <c r="N15" s="99"/>
+      <c r="R15" s="102"/>
+      <c r="S15" s="102"/>
       <c r="T15" s="45">
         <v>1</v>
       </c>
@@ -9229,9 +9277,9 @@
       <c r="AC15" s="45">
         <v>10</v>
       </c>
-      <c r="AD15" s="95"/>
-      <c r="AG15" s="95"/>
-      <c r="AH15" s="99"/>
+      <c r="AD15" s="99"/>
+      <c r="AG15" s="99"/>
+      <c r="AH15" s="103"/>
       <c r="AI15" s="53" t="s">
         <v>1</v>
       </c>
@@ -9252,7 +9300,7 @@
       </c>
     </row>
     <row r="16" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B16" s="100" t="s">
+      <c r="B16" s="104" t="s">
         <v>110</v>
       </c>
       <c r="C16" s="45" t="s">
@@ -9302,7 +9350,7 @@
         <f>AVERAGE(D16:M16)</f>
         <v>9.5918367346938788E-2</v>
       </c>
-      <c r="R16" s="100" t="s">
+      <c r="R16" s="104" t="s">
         <v>110</v>
       </c>
       <c r="S16" s="45" t="s">
@@ -9342,10 +9390,10 @@
         <f>AVERAGE(T16:AC16)</f>
         <v>9.6875600000000006E-2</v>
       </c>
-      <c r="AG16" s="53">
+      <c r="AG16" s="61">
         <v>584</v>
       </c>
-      <c r="AH16" s="53" t="s">
+      <c r="AH16" s="61" t="s">
         <v>106</v>
       </c>
       <c r="AI16" s="59">
@@ -9374,7 +9422,7 @@
       </c>
     </row>
     <row r="17" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="B17" s="100"/>
+      <c r="B17" s="104"/>
       <c r="C17" s="45" t="s">
         <v>2</v>
       </c>
@@ -9422,7 +9470,7 @@
         <f t="shared" ref="N17:N21" si="2">AVERAGE(D17:M17)</f>
         <v>0.19918367346938778</v>
       </c>
-      <c r="R17" s="100"/>
+      <c r="R17" s="104"/>
       <c r="S17" s="45" t="s">
         <v>2</v>
       </c>
@@ -9460,10 +9508,10 @@
         <f t="shared" ref="AD17:AD21" si="3">AVERAGE(T17:AC17)</f>
         <v>8.1484000000000001E-2</v>
       </c>
-      <c r="AG17" s="53">
+      <c r="AG17" s="61">
         <v>980</v>
       </c>
-      <c r="AH17" s="53" t="s">
+      <c r="AH17" s="61" t="s">
         <v>106</v>
       </c>
       <c r="AI17" s="57">
@@ -9492,7 +9540,7 @@
       </c>
     </row>
     <row r="18" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="B18" s="100"/>
+      <c r="B18" s="104"/>
       <c r="C18" s="45" t="s">
         <v>3</v>
       </c>
@@ -9540,7 +9588,7 @@
         <f t="shared" si="2"/>
         <v>0.32346938775510203</v>
       </c>
-      <c r="R18" s="100"/>
+      <c r="R18" s="104"/>
       <c r="S18" s="45" t="s">
         <v>3</v>
       </c>
@@ -9578,10 +9626,10 @@
         <f t="shared" si="3"/>
         <v>6.8795999999999996E-2</v>
       </c>
-      <c r="AG18" s="53">
+      <c r="AG18" s="61">
         <v>1280</v>
       </c>
-      <c r="AH18" s="53" t="s">
+      <c r="AH18" s="61" t="s">
         <v>106</v>
       </c>
       <c r="AI18" s="57">
@@ -9604,13 +9652,12 @@
         <f>N30</f>
         <v>0.50226562500000005</v>
       </c>
-      <c r="AN18" s="54" t="str">
-        <f>AD41</f>
-        <v>Fail</v>
+      <c r="AN18" s="54" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="B19" s="100"/>
+      <c r="B19" s="104"/>
       <c r="C19" s="45" t="s">
         <v>52</v>
       </c>
@@ -9658,7 +9705,7 @@
         <f t="shared" si="2"/>
         <v>0.49091836734693883</v>
       </c>
-      <c r="R19" s="100"/>
+      <c r="R19" s="104"/>
       <c r="S19" s="45" t="s">
         <v>52</v>
       </c>
@@ -9696,10 +9743,10 @@
         <f t="shared" si="3"/>
         <v>5.4722799999999995E-2</v>
       </c>
-      <c r="AG19" s="53">
+      <c r="AG19" s="61">
         <v>1345</v>
       </c>
-      <c r="AH19" s="53" t="s">
+      <c r="AH19" s="61" t="s">
         <v>106</v>
       </c>
       <c r="AI19" s="57">
@@ -9722,13 +9769,13 @@
         <f>N40</f>
         <v>0.54542750929368033</v>
       </c>
-      <c r="AN19" s="54">
+      <c r="AN19" s="54" t="str">
         <f>AD51</f>
-        <v>0</v>
+        <v>gagal</v>
       </c>
     </row>
     <row r="20" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="B20" s="100"/>
+      <c r="B20" s="104"/>
       <c r="C20" s="45" t="s">
         <v>51</v>
       </c>
@@ -9776,7 +9823,7 @@
         <f t="shared" si="2"/>
         <v>0.54499999999999993</v>
       </c>
-      <c r="R20" s="100"/>
+      <c r="R20" s="104"/>
       <c r="S20" s="45" t="s">
         <v>51</v>
       </c>
@@ -9814,9 +9861,39 @@
         <f t="shared" si="3"/>
         <v>5.2898399999999998E-2</v>
       </c>
+      <c r="AG20" s="61">
+        <v>1870</v>
+      </c>
+      <c r="AH20" s="61" t="s">
+        <v>106</v>
+      </c>
+      <c r="AI20" s="57">
+        <f>N46</f>
+        <v>5.0641711229946505E-2</v>
+      </c>
+      <c r="AJ20" s="57">
+        <f>N47</f>
+        <v>0.11176470588235295</v>
+      </c>
+      <c r="AK20" s="57">
+        <f>N48</f>
+        <v>0.20358288770053479</v>
+      </c>
+      <c r="AL20" s="57">
+        <f>N49</f>
+        <v>0.27796791443850272</v>
+      </c>
+      <c r="AM20" s="64" t="str">
+        <f>N50</f>
+        <v>gagal</v>
+      </c>
+      <c r="AN20" s="64" t="str">
+        <f>N51</f>
+        <v>gagal</v>
+      </c>
     </row>
     <row r="21" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="B21" s="100"/>
+      <c r="B21" s="104"/>
       <c r="C21" s="45" t="s">
         <v>69</v>
       </c>
@@ -9864,7 +9941,7 @@
         <f t="shared" si="2"/>
         <v>0.60499999999999998</v>
       </c>
-      <c r="R21" s="100"/>
+      <c r="R21" s="104"/>
       <c r="S21" s="45" t="s">
         <v>69</v>
       </c>
@@ -9904,48 +9981,48 @@
       </c>
     </row>
     <row r="24" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="B24" s="98" t="s">
+      <c r="B24" s="102" t="s">
         <v>113</v>
       </c>
-      <c r="C24" s="98"/>
-      <c r="D24" s="99" t="s">
+      <c r="C24" s="102"/>
+      <c r="D24" s="103" t="s">
         <v>100</v>
       </c>
-      <c r="E24" s="99"/>
-      <c r="F24" s="99"/>
-      <c r="G24" s="99"/>
-      <c r="H24" s="99"/>
-      <c r="I24" s="99"/>
-      <c r="J24" s="99"/>
-      <c r="K24" s="99"/>
-      <c r="L24" s="99"/>
-      <c r="M24" s="99"/>
-      <c r="N24" s="95" t="s">
+      <c r="E24" s="103"/>
+      <c r="F24" s="103"/>
+      <c r="G24" s="103"/>
+      <c r="H24" s="103"/>
+      <c r="I24" s="103"/>
+      <c r="J24" s="103"/>
+      <c r="K24" s="103"/>
+      <c r="L24" s="103"/>
+      <c r="M24" s="103"/>
+      <c r="N24" s="99" t="s">
         <v>105</v>
       </c>
-      <c r="R24" s="98" t="s">
-        <v>119</v>
-      </c>
-      <c r="S24" s="98"/>
-      <c r="T24" s="99" t="s">
+      <c r="R24" s="102" t="s">
+        <v>118</v>
+      </c>
+      <c r="S24" s="102"/>
+      <c r="T24" s="103" t="s">
         <v>100</v>
       </c>
-      <c r="U24" s="99"/>
-      <c r="V24" s="99"/>
-      <c r="W24" s="99"/>
-      <c r="X24" s="99"/>
-      <c r="Y24" s="99"/>
-      <c r="Z24" s="99"/>
-      <c r="AA24" s="99"/>
-      <c r="AB24" s="99"/>
-      <c r="AC24" s="99"/>
-      <c r="AD24" s="95" t="s">
+      <c r="U24" s="103"/>
+      <c r="V24" s="103"/>
+      <c r="W24" s="103"/>
+      <c r="X24" s="103"/>
+      <c r="Y24" s="103"/>
+      <c r="Z24" s="103"/>
+      <c r="AA24" s="103"/>
+      <c r="AB24" s="103"/>
+      <c r="AC24" s="103"/>
+      <c r="AD24" s="99" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="25" spans="1:40" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="98"/>
-      <c r="C25" s="98"/>
+      <c r="B25" s="102"/>
+      <c r="C25" s="102"/>
       <c r="D25" s="45">
         <v>1</v>
       </c>
@@ -9976,9 +10053,9 @@
       <c r="M25" s="45">
         <v>10</v>
       </c>
-      <c r="N25" s="95"/>
-      <c r="R25" s="98"/>
-      <c r="S25" s="98"/>
+      <c r="N25" s="99"/>
+      <c r="R25" s="102"/>
+      <c r="S25" s="102"/>
       <c r="T25" s="45">
         <v>1</v>
       </c>
@@ -10009,10 +10086,10 @@
       <c r="AC25" s="45">
         <v>10</v>
       </c>
-      <c r="AD25" s="95"/>
+      <c r="AD25" s="99"/>
     </row>
     <row r="26" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="B26" s="100" t="s">
+      <c r="B26" s="104" t="s">
         <v>110</v>
       </c>
       <c r="C26" s="45" t="s">
@@ -10062,7 +10139,7 @@
         <f>AVERAGE(D26:M26)</f>
         <v>0.10015624999999999</v>
       </c>
-      <c r="R26" s="100" t="s">
+      <c r="R26" s="104" t="s">
         <v>110</v>
       </c>
       <c r="S26" s="45" t="s">
@@ -10104,7 +10181,7 @@
       </c>
     </row>
     <row r="27" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="B27" s="100"/>
+      <c r="B27" s="104"/>
       <c r="C27" s="45" t="s">
         <v>2</v>
       </c>
@@ -10152,7 +10229,7 @@
         <f t="shared" ref="N27:N30" si="4">AVERAGE(D27:M27)</f>
         <v>0.16820312499999998</v>
       </c>
-      <c r="R27" s="100"/>
+      <c r="R27" s="104"/>
       <c r="S27" s="45" t="s">
         <v>2</v>
       </c>
@@ -10192,7 +10269,7 @@
       </c>
     </row>
     <row r="28" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="B28" s="100"/>
+      <c r="B28" s="104"/>
       <c r="C28" s="45" t="s">
         <v>3</v>
       </c>
@@ -10240,7 +10317,7 @@
         <f t="shared" si="4"/>
         <v>0.37398437499999998</v>
       </c>
-      <c r="R28" s="100"/>
+      <c r="R28" s="104"/>
       <c r="S28" s="45" t="s">
         <v>3</v>
       </c>
@@ -10280,7 +10357,7 @@
       </c>
     </row>
     <row r="29" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="B29" s="100"/>
+      <c r="B29" s="104"/>
       <c r="C29" s="45" t="s">
         <v>52</v>
       </c>
@@ -10328,7 +10405,7 @@
         <f t="shared" si="4"/>
         <v>0.45929687499999999</v>
       </c>
-      <c r="R29" s="100"/>
+      <c r="R29" s="104"/>
       <c r="S29" s="45" t="s">
         <v>52</v>
       </c>
@@ -10368,7 +10445,7 @@
       </c>
     </row>
     <row r="30" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="B30" s="100"/>
+      <c r="B30" s="104"/>
       <c r="C30" s="45" t="s">
         <v>51</v>
       </c>
@@ -10416,7 +10493,7 @@
         <f t="shared" si="4"/>
         <v>0.50226562500000005</v>
       </c>
-      <c r="R30" s="100"/>
+      <c r="R30" s="104"/>
       <c r="S30" s="45" t="s">
         <v>51</v>
       </c>
@@ -10459,124 +10536,124 @@
       <c r="A31" t="s">
         <v>108</v>
       </c>
-      <c r="B31" s="100"/>
+      <c r="B31" s="104"/>
       <c r="C31" s="54" t="s">
         <v>69</v>
       </c>
       <c r="D31" s="55" t="s">
-        <v>115</v>
+        <v>71</v>
       </c>
       <c r="E31" s="55" t="s">
-        <v>115</v>
+        <v>71</v>
       </c>
       <c r="F31" s="55" t="s">
-        <v>115</v>
+        <v>71</v>
       </c>
       <c r="G31" s="55" t="s">
-        <v>115</v>
+        <v>71</v>
       </c>
       <c r="H31" s="55" t="s">
-        <v>115</v>
+        <v>71</v>
       </c>
       <c r="I31" s="55" t="s">
-        <v>115</v>
+        <v>71</v>
       </c>
       <c r="J31" s="55" t="s">
-        <v>115</v>
+        <v>71</v>
       </c>
       <c r="K31" s="55" t="s">
-        <v>115</v>
+        <v>71</v>
       </c>
       <c r="L31" s="55" t="s">
-        <v>115</v>
+        <v>71</v>
       </c>
       <c r="M31" s="55" t="s">
-        <v>115</v>
+        <v>71</v>
       </c>
       <c r="N31" s="55" t="s">
-        <v>115</v>
-      </c>
-      <c r="R31" s="100"/>
+        <v>71</v>
+      </c>
+      <c r="R31" s="104"/>
       <c r="S31" s="54" t="s">
         <v>69</v>
       </c>
       <c r="T31" s="55" t="s">
-        <v>115</v>
+        <v>71</v>
       </c>
       <c r="U31" s="55" t="s">
-        <v>115</v>
+        <v>71</v>
       </c>
       <c r="V31" s="55" t="s">
-        <v>115</v>
+        <v>71</v>
       </c>
       <c r="W31" s="55" t="s">
-        <v>115</v>
+        <v>71</v>
       </c>
       <c r="X31" s="55" t="s">
-        <v>115</v>
+        <v>71</v>
       </c>
       <c r="Y31" s="55" t="s">
-        <v>115</v>
+        <v>71</v>
       </c>
       <c r="Z31" s="55" t="s">
-        <v>115</v>
+        <v>71</v>
       </c>
       <c r="AA31" s="55" t="s">
-        <v>115</v>
+        <v>71</v>
       </c>
       <c r="AB31" s="55" t="s">
-        <v>115</v>
+        <v>71</v>
       </c>
       <c r="AC31" s="55" t="s">
-        <v>115</v>
+        <v>71</v>
       </c>
       <c r="AD31" s="55" t="s">
-        <v>115</v>
+        <v>71</v>
       </c>
     </row>
     <row r="34" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B34" s="98" t="s">
+      <c r="B34" s="102" t="s">
         <v>114</v>
       </c>
-      <c r="C34" s="98"/>
-      <c r="D34" s="99" t="s">
+      <c r="C34" s="102"/>
+      <c r="D34" s="103" t="s">
         <v>100</v>
       </c>
-      <c r="E34" s="99"/>
-      <c r="F34" s="99"/>
-      <c r="G34" s="99"/>
-      <c r="H34" s="99"/>
-      <c r="I34" s="99"/>
-      <c r="J34" s="99"/>
-      <c r="K34" s="99"/>
-      <c r="L34" s="99"/>
-      <c r="M34" s="99"/>
-      <c r="N34" s="95" t="s">
+      <c r="E34" s="103"/>
+      <c r="F34" s="103"/>
+      <c r="G34" s="103"/>
+      <c r="H34" s="103"/>
+      <c r="I34" s="103"/>
+      <c r="J34" s="103"/>
+      <c r="K34" s="103"/>
+      <c r="L34" s="103"/>
+      <c r="M34" s="103"/>
+      <c r="N34" s="99" t="s">
         <v>105</v>
       </c>
-      <c r="R34" s="98" t="s">
-        <v>120</v>
-      </c>
-      <c r="S34" s="98"/>
-      <c r="T34" s="99" t="s">
+      <c r="R34" s="102" t="s">
+        <v>119</v>
+      </c>
+      <c r="S34" s="102"/>
+      <c r="T34" s="103" t="s">
         <v>100</v>
       </c>
-      <c r="U34" s="99"/>
-      <c r="V34" s="99"/>
-      <c r="W34" s="99"/>
-      <c r="X34" s="99"/>
-      <c r="Y34" s="99"/>
-      <c r="Z34" s="99"/>
-      <c r="AA34" s="99"/>
-      <c r="AB34" s="99"/>
-      <c r="AC34" s="99"/>
-      <c r="AD34" s="95" t="s">
+      <c r="U34" s="103"/>
+      <c r="V34" s="103"/>
+      <c r="W34" s="103"/>
+      <c r="X34" s="103"/>
+      <c r="Y34" s="103"/>
+      <c r="Z34" s="103"/>
+      <c r="AA34" s="103"/>
+      <c r="AB34" s="103"/>
+      <c r="AC34" s="103"/>
+      <c r="AD34" s="99" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="35" spans="1:30" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="98"/>
-      <c r="C35" s="98"/>
+      <c r="B35" s="102"/>
+      <c r="C35" s="102"/>
       <c r="D35" s="45">
         <v>1</v>
       </c>
@@ -10607,9 +10684,9 @@
       <c r="M35" s="45">
         <v>10</v>
       </c>
-      <c r="N35" s="95"/>
-      <c r="R35" s="98"/>
-      <c r="S35" s="98"/>
+      <c r="N35" s="99"/>
+      <c r="R35" s="102"/>
+      <c r="S35" s="102"/>
       <c r="T35" s="45">
         <v>1</v>
       </c>
@@ -10640,10 +10717,10 @@
       <c r="AC35" s="45">
         <v>10</v>
       </c>
-      <c r="AD35" s="95"/>
+      <c r="AD35" s="99"/>
     </row>
     <row r="36" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B36" s="100" t="s">
+      <c r="B36" s="104" t="s">
         <v>110</v>
       </c>
       <c r="C36" s="45" t="s">
@@ -10693,7 +10770,7 @@
         <f>AVERAGE(D36:M36)</f>
         <v>0.10200743494423789</v>
       </c>
-      <c r="R36" s="100" t="s">
+      <c r="R36" s="104" t="s">
         <v>110</v>
       </c>
       <c r="S36" s="45" t="s">
@@ -10735,7 +10812,7 @@
       </c>
     </row>
     <row r="37" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B37" s="100"/>
+      <c r="B37" s="104"/>
       <c r="C37" s="45" t="s">
         <v>2</v>
       </c>
@@ -10783,7 +10860,7 @@
         <f t="shared" ref="N37:N40" si="6">AVERAGE(D37:M37)</f>
         <v>0.16988847583643124</v>
       </c>
-      <c r="R37" s="100"/>
+      <c r="R37" s="104"/>
       <c r="S37" s="45" t="s">
         <v>2</v>
       </c>
@@ -10823,7 +10900,7 @@
       </c>
     </row>
     <row r="38" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B38" s="100"/>
+      <c r="B38" s="104"/>
       <c r="C38" s="45" t="s">
         <v>3</v>
       </c>
@@ -10871,7 +10948,7 @@
         <f t="shared" si="6"/>
         <v>0.37724907063197022</v>
       </c>
-      <c r="R38" s="100"/>
+      <c r="R38" s="104"/>
       <c r="S38" s="45" t="s">
         <v>3</v>
       </c>
@@ -10911,7 +10988,7 @@
       </c>
     </row>
     <row r="39" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B39" s="100"/>
+      <c r="B39" s="104"/>
       <c r="C39" s="45" t="s">
         <v>52</v>
       </c>
@@ -10959,7 +11036,7 @@
         <f t="shared" si="6"/>
         <v>0.45933085501858739</v>
       </c>
-      <c r="R39" s="100"/>
+      <c r="R39" s="104"/>
       <c r="S39" s="45" t="s">
         <v>52</v>
       </c>
@@ -10999,7 +11076,7 @@
       </c>
     </row>
     <row r="40" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B40" s="100"/>
+      <c r="B40" s="104"/>
       <c r="C40" s="45" t="s">
         <v>51</v>
       </c>
@@ -11047,7 +11124,7 @@
         <f t="shared" si="6"/>
         <v>0.54542750929368033</v>
       </c>
-      <c r="R40" s="100"/>
+      <c r="R40" s="104"/>
       <c r="S40" s="45" t="s">
         <v>51</v>
       </c>
@@ -11090,83 +11167,699 @@
       <c r="A41" t="s">
         <v>108</v>
       </c>
-      <c r="B41" s="100"/>
+      <c r="B41" s="104"/>
       <c r="C41" s="54" t="s">
         <v>69</v>
       </c>
       <c r="D41" s="55" t="s">
-        <v>115</v>
+        <v>71</v>
       </c>
       <c r="E41" s="55" t="s">
-        <v>115</v>
+        <v>71</v>
       </c>
       <c r="F41" s="55" t="s">
-        <v>115</v>
+        <v>71</v>
       </c>
       <c r="G41" s="55" t="s">
-        <v>115</v>
+        <v>71</v>
       </c>
       <c r="H41" s="55" t="s">
-        <v>115</v>
+        <v>71</v>
       </c>
       <c r="I41" s="55" t="s">
-        <v>115</v>
+        <v>71</v>
       </c>
       <c r="J41" s="55" t="s">
-        <v>115</v>
+        <v>71</v>
       </c>
       <c r="K41" s="55" t="s">
-        <v>115</v>
+        <v>71</v>
       </c>
       <c r="L41" s="55" t="s">
-        <v>115</v>
+        <v>71</v>
       </c>
       <c r="M41" s="55" t="s">
-        <v>115</v>
+        <v>71</v>
       </c>
       <c r="N41" s="55" t="s">
-        <v>115</v>
-      </c>
-      <c r="R41" s="100"/>
+        <v>71</v>
+      </c>
+      <c r="R41" s="104"/>
       <c r="S41" s="54" t="s">
         <v>69</v>
       </c>
       <c r="T41" s="55" t="s">
-        <v>115</v>
+        <v>71</v>
       </c>
       <c r="U41" s="55" t="s">
-        <v>115</v>
+        <v>71</v>
       </c>
       <c r="V41" s="55" t="s">
-        <v>115</v>
+        <v>71</v>
       </c>
       <c r="W41" s="55" t="s">
-        <v>115</v>
+        <v>71</v>
       </c>
       <c r="X41" s="55" t="s">
-        <v>115</v>
+        <v>71</v>
       </c>
       <c r="Y41" s="55" t="s">
-        <v>115</v>
+        <v>71</v>
       </c>
       <c r="Z41" s="55" t="s">
-        <v>115</v>
+        <v>71</v>
       </c>
       <c r="AA41" s="55" t="s">
-        <v>115</v>
+        <v>71</v>
       </c>
       <c r="AB41" s="55" t="s">
-        <v>115</v>
+        <v>71</v>
       </c>
       <c r="AC41" s="55" t="s">
-        <v>115</v>
+        <v>71</v>
       </c>
       <c r="AD41" s="55" t="s">
-        <v>115</v>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="44" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="B44" s="102" t="s">
+        <v>124</v>
+      </c>
+      <c r="C44" s="102"/>
+      <c r="D44" s="103" t="s">
+        <v>100</v>
+      </c>
+      <c r="E44" s="103"/>
+      <c r="F44" s="103"/>
+      <c r="G44" s="103"/>
+      <c r="H44" s="103"/>
+      <c r="I44" s="103"/>
+      <c r="J44" s="103"/>
+      <c r="K44" s="103"/>
+      <c r="L44" s="103"/>
+      <c r="M44" s="103"/>
+      <c r="N44" s="99" t="s">
+        <v>105</v>
+      </c>
+      <c r="R44" s="102" t="s">
+        <v>125</v>
+      </c>
+      <c r="S44" s="102"/>
+      <c r="T44" s="103" t="s">
+        <v>100</v>
+      </c>
+      <c r="U44" s="103"/>
+      <c r="V44" s="103"/>
+      <c r="W44" s="103"/>
+      <c r="X44" s="103"/>
+      <c r="Y44" s="103"/>
+      <c r="Z44" s="103"/>
+      <c r="AA44" s="103"/>
+      <c r="AB44" s="103"/>
+      <c r="AC44" s="103"/>
+      <c r="AD44" s="99" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="45" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="102"/>
+      <c r="C45" s="102"/>
+      <c r="D45" s="61">
+        <v>1</v>
+      </c>
+      <c r="E45" s="61">
+        <v>2</v>
+      </c>
+      <c r="F45" s="61">
+        <v>3</v>
+      </c>
+      <c r="G45" s="61">
+        <v>4</v>
+      </c>
+      <c r="H45" s="61">
+        <v>5</v>
+      </c>
+      <c r="I45" s="61">
+        <v>6</v>
+      </c>
+      <c r="J45" s="61">
+        <v>7</v>
+      </c>
+      <c r="K45" s="61">
+        <v>8</v>
+      </c>
+      <c r="L45" s="61">
+        <v>9</v>
+      </c>
+      <c r="M45" s="61">
+        <v>10</v>
+      </c>
+      <c r="N45" s="99"/>
+      <c r="R45" s="102"/>
+      <c r="S45" s="102"/>
+      <c r="T45" s="61">
+        <v>1</v>
+      </c>
+      <c r="U45" s="61">
+        <v>2</v>
+      </c>
+      <c r="V45" s="61">
+        <v>3</v>
+      </c>
+      <c r="W45" s="61">
+        <v>4</v>
+      </c>
+      <c r="X45" s="61">
+        <v>5</v>
+      </c>
+      <c r="Y45" s="61">
+        <v>6</v>
+      </c>
+      <c r="Z45" s="61">
+        <v>7</v>
+      </c>
+      <c r="AA45" s="61">
+        <v>8</v>
+      </c>
+      <c r="AB45" s="61">
+        <v>9</v>
+      </c>
+      <c r="AC45" s="61">
+        <v>10</v>
+      </c>
+      <c r="AD45" s="99"/>
+    </row>
+    <row r="46" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="B46" s="104" t="s">
+        <v>110</v>
+      </c>
+      <c r="C46" s="61" t="s">
+        <v>1</v>
+      </c>
+      <c r="D46" s="49">
+        <f>1-(237/1870)</f>
+        <v>0.87326203208556152</v>
+      </c>
+      <c r="E46" s="49">
+        <f>1-(1814/1870)</f>
+        <v>2.9946524064171087E-2</v>
+      </c>
+      <c r="F46" s="49">
+        <f>1-(1948/1870)</f>
+        <v>-4.1711229946524098E-2</v>
+      </c>
+      <c r="G46" s="49">
+        <f>1-(1822/1870)</f>
+        <v>2.5668449197860932E-2</v>
+      </c>
+      <c r="H46" s="49">
+        <f>1-(1933/1870)</f>
+        <v>-3.3689839572192515E-2</v>
+      </c>
+      <c r="I46" s="49">
+        <f>1-(1963/1870)</f>
+        <v>-4.9732620320855681E-2</v>
+      </c>
+      <c r="J46" s="49">
+        <f>1-(2032/1870)</f>
+        <v>-8.6631016042780784E-2</v>
+      </c>
+      <c r="K46" s="49">
+        <f>1-(1949/1870)</f>
+        <v>-4.2245989304812825E-2</v>
+      </c>
+      <c r="L46" s="49">
+        <f>1-(2034/1870)</f>
+        <v>-8.770053475935824E-2</v>
+      </c>
+      <c r="M46" s="49">
+        <f>1-(2021/1870)</f>
+        <v>-8.0748663101604334E-2</v>
+      </c>
+      <c r="N46" s="50">
+        <f>AVERAGE(D46:M46)</f>
+        <v>5.0641711229946505E-2</v>
+      </c>
+      <c r="R46" s="104" t="s">
+        <v>110</v>
+      </c>
+      <c r="S46" s="61" t="s">
+        <v>1</v>
+      </c>
+      <c r="T46" s="51">
+        <v>6.7972000000000005E-2</v>
+      </c>
+      <c r="U46" s="51">
+        <v>0.19611999999999999</v>
+      </c>
+      <c r="V46" s="51">
+        <v>0.20626800000000001</v>
+      </c>
+      <c r="W46" s="51">
+        <v>0.20006399999999999</v>
+      </c>
+      <c r="X46" s="51">
+        <v>0.20372799999999999</v>
+      </c>
+      <c r="Y46" s="51">
+        <v>0.205596</v>
+      </c>
+      <c r="Z46" s="51">
+        <v>0.20894399999999999</v>
+      </c>
+      <c r="AA46" s="51">
+        <v>0.20574400000000001</v>
+      </c>
+      <c r="AB46" s="51">
+        <v>0.20954800000000001</v>
+      </c>
+      <c r="AC46" s="51">
+        <v>0.208368</v>
+      </c>
+      <c r="AD46" s="52">
+        <f>AVERAGE(T46:AC46)</f>
+        <v>0.19123519999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="B47" s="104"/>
+      <c r="C47" s="61" t="s">
+        <v>2</v>
+      </c>
+      <c r="D47" s="49">
+        <f>1-(149/1870)</f>
+        <v>0.92032085561497323</v>
+      </c>
+      <c r="E47" s="49">
+        <f>1-(1779/1870)</f>
+        <v>4.8663101604278114E-2</v>
+      </c>
+      <c r="F47" s="49">
+        <f>1-(1828/1870)</f>
+        <v>2.2459893048128343E-2</v>
+      </c>
+      <c r="G47" s="49">
+        <f>1-(1695/1870)</f>
+        <v>9.35828877005348E-2</v>
+      </c>
+      <c r="H47" s="49">
+        <f>1-(1757/1870)</f>
+        <v>6.0427807486631013E-2</v>
+      </c>
+      <c r="I47" s="49">
+        <f>1-(1759/1870)</f>
+        <v>5.9358288770053447E-2</v>
+      </c>
+      <c r="J47" s="49">
+        <f>1-(1998/1870)</f>
+        <v>-6.8449197860962485E-2</v>
+      </c>
+      <c r="K47" s="49">
+        <f>1-(1881/1870)</f>
+        <v>-5.8823529411764497E-3</v>
+      </c>
+      <c r="L47" s="49">
+        <f>1-(1948/1870)</f>
+        <v>-4.1711229946524098E-2</v>
+      </c>
+      <c r="M47" s="49">
+        <f>1-(1816/1870)</f>
+        <v>2.8877005347593632E-2</v>
+      </c>
+      <c r="N47" s="50">
+        <f t="shared" ref="N47:N49" si="8">AVERAGE(D47:M47)</f>
+        <v>0.11176470588235295</v>
+      </c>
+      <c r="R47" s="104"/>
+      <c r="S47" s="61" t="s">
+        <v>2</v>
+      </c>
+      <c r="T47" s="51">
+        <v>4.3167999999999998E-2</v>
+      </c>
+      <c r="U47" s="51">
+        <v>0.17633199999999999</v>
+      </c>
+      <c r="V47" s="51">
+        <v>0.183084</v>
+      </c>
+      <c r="W47" s="51">
+        <v>0.177008</v>
+      </c>
+      <c r="X47" s="51">
+        <v>0.1769</v>
+      </c>
+      <c r="Y47" s="51">
+        <v>0.17679600000000001</v>
+      </c>
+      <c r="Z47" s="51">
+        <v>0.19022800000000001</v>
+      </c>
+      <c r="AA47" s="51">
+        <v>0.18450800000000001</v>
+      </c>
+      <c r="AB47" s="51">
+        <v>0.18845600000000001</v>
+      </c>
+      <c r="AC47" s="51">
+        <v>0.17946400000000001</v>
+      </c>
+      <c r="AD47" s="52">
+        <f t="shared" ref="AD47:AD49" si="9">AVERAGE(T47:AC47)</f>
+        <v>0.1675944</v>
+      </c>
+    </row>
+    <row r="48" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="B48" s="104"/>
+      <c r="C48" s="61" t="s">
+        <v>3</v>
+      </c>
+      <c r="D48" s="49">
+        <f>1-(91/1870)</f>
+        <v>0.95133689839572189</v>
+      </c>
+      <c r="E48" s="49">
+        <f>1-(1761/1870)</f>
+        <v>5.8288770053475991E-2</v>
+      </c>
+      <c r="F48" s="49">
+        <f>1-(1590/1870)</f>
+        <v>0.14973262032085566</v>
+      </c>
+      <c r="G48" s="49">
+        <f>1-(1487/1870)</f>
+        <v>0.20481283422459895</v>
+      </c>
+      <c r="H48" s="49">
+        <f>1-(1457/1870)</f>
+        <v>0.220855614973262</v>
+      </c>
+      <c r="I48" s="49">
+        <f>1-(1260/1870)</f>
+        <v>0.3262032085561497</v>
+      </c>
+      <c r="J48" s="49">
+        <f>1-(1978/1870)</f>
+        <v>-5.7754010695187263E-2</v>
+      </c>
+      <c r="K48" s="49">
+        <f>1-(1726/1870)</f>
+        <v>7.7005347593582907E-2</v>
+      </c>
+      <c r="L48" s="49">
+        <f>1-(1922/1870)</f>
+        <v>-2.7807486631016065E-2</v>
+      </c>
+      <c r="M48" s="49">
+        <f>1-(1621/1870)</f>
+        <v>0.13315508021390376</v>
+      </c>
+      <c r="N48" s="50">
+        <f t="shared" si="8"/>
+        <v>0.20358288770053479</v>
+      </c>
+      <c r="R48" s="104"/>
+      <c r="S48" s="61" t="s">
+        <v>3</v>
+      </c>
+      <c r="T48" s="51">
+        <v>3.0551999999999999E-2</v>
+      </c>
+      <c r="U48" s="51">
+        <v>0.16975599999999999</v>
+      </c>
+      <c r="V48" s="51">
+        <v>0.16064800000000001</v>
+      </c>
+      <c r="W48" s="51">
+        <v>0.15772</v>
+      </c>
+      <c r="X48" s="51">
+        <v>0.149724</v>
+      </c>
+      <c r="Y48" s="51">
+        <v>0.13320399999999999</v>
+      </c>
+      <c r="Z48" s="51">
+        <v>0.18414800000000001</v>
+      </c>
+      <c r="AA48" s="51">
+        <v>0.16864399999999999</v>
+      </c>
+      <c r="AB48" s="51">
+        <v>0.181924</v>
+      </c>
+      <c r="AC48" s="51">
+        <v>0.1603</v>
+      </c>
+      <c r="AD48" s="52">
+        <f t="shared" si="9"/>
+        <v>0.14966200000000002</v>
+      </c>
+    </row>
+    <row r="49" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B49" s="104"/>
+      <c r="C49" s="61" t="s">
+        <v>52</v>
+      </c>
+      <c r="D49" s="49">
+        <f>1-(55/1870)</f>
+        <v>0.97058823529411764</v>
+      </c>
+      <c r="E49" s="49">
+        <f>1-(1411/1870)</f>
+        <v>0.24545454545454548</v>
+      </c>
+      <c r="F49" s="49">
+        <f>1-(1457/1870)</f>
+        <v>0.220855614973262</v>
+      </c>
+      <c r="G49" s="49">
+        <f>1-(1325/1870)</f>
+        <v>0.29144385026737973</v>
+      </c>
+      <c r="H49" s="49">
+        <f>1-(1329/1870)</f>
+        <v>0.2893048128342246</v>
+      </c>
+      <c r="I49" s="49">
+        <f>1-(1182/1870)</f>
+        <v>0.3679144385026738</v>
+      </c>
+      <c r="J49" s="49">
+        <f>1-(1876/1870)</f>
+        <v>-3.2085561497325887E-3</v>
+      </c>
+      <c r="K49" s="49">
+        <f>1-(1523/1870)</f>
+        <v>0.1855614973262032</v>
+      </c>
+      <c r="L49" s="49">
+        <f>1-(1841/1870)</f>
+        <v>1.5508021390374327E-2</v>
+      </c>
+      <c r="M49" s="49">
+        <f>1-(1503/1870)</f>
+        <v>0.19625668449197864</v>
+      </c>
+      <c r="N49" s="50">
+        <f t="shared" si="8"/>
+        <v>0.27796791443850272</v>
+      </c>
+      <c r="R49" s="104"/>
+      <c r="S49" s="61" t="s">
+        <v>52</v>
+      </c>
+      <c r="T49" s="51">
+        <v>2.4604000000000001E-2</v>
+      </c>
+      <c r="U49" s="51">
+        <v>0.14213200000000001</v>
+      </c>
+      <c r="V49" s="51">
+        <v>0.15076400000000001</v>
+      </c>
+      <c r="W49" s="51">
+        <v>0.14680799999999999</v>
+      </c>
+      <c r="X49" s="51">
+        <v>0.14161199999999999</v>
+      </c>
+      <c r="Y49" s="51">
+        <v>0.12817999999999999</v>
+      </c>
+      <c r="Z49" s="51">
+        <v>0.181036</v>
+      </c>
+      <c r="AA49" s="51">
+        <v>0.15559999999999999</v>
+      </c>
+      <c r="AB49" s="51">
+        <v>0.17908399999999999</v>
+      </c>
+      <c r="AC49" s="51">
+        <v>0.151396</v>
+      </c>
+      <c r="AD49" s="52">
+        <f t="shared" si="9"/>
+        <v>0.14012160000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B50" s="104"/>
+      <c r="C50" s="54" t="s">
+        <v>51</v>
+      </c>
+      <c r="D50" s="55" t="s">
+        <v>71</v>
+      </c>
+      <c r="E50" s="55" t="s">
+        <v>71</v>
+      </c>
+      <c r="F50" s="55" t="s">
+        <v>71</v>
+      </c>
+      <c r="G50" s="55" t="s">
+        <v>71</v>
+      </c>
+      <c r="H50" s="55" t="s">
+        <v>71</v>
+      </c>
+      <c r="I50" s="55" t="s">
+        <v>71</v>
+      </c>
+      <c r="J50" s="55" t="s">
+        <v>71</v>
+      </c>
+      <c r="K50" s="55" t="s">
+        <v>71</v>
+      </c>
+      <c r="L50" s="55" t="s">
+        <v>71</v>
+      </c>
+      <c r="M50" s="55" t="s">
+        <v>71</v>
+      </c>
+      <c r="N50" s="55" t="s">
+        <v>71</v>
+      </c>
+      <c r="R50" s="104"/>
+      <c r="S50" s="54" t="s">
+        <v>51</v>
+      </c>
+      <c r="T50" s="63" t="s">
+        <v>71</v>
+      </c>
+      <c r="U50" s="63" t="s">
+        <v>71</v>
+      </c>
+      <c r="V50" s="63" t="s">
+        <v>71</v>
+      </c>
+      <c r="W50" s="63" t="s">
+        <v>71</v>
+      </c>
+      <c r="X50" s="63" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y50" s="63" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z50" s="63" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA50" s="63" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB50" s="63" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC50" s="63" t="s">
+        <v>71</v>
+      </c>
+      <c r="AD50" s="63" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="51" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B51" s="104"/>
+      <c r="C51" s="54" t="s">
+        <v>69</v>
+      </c>
+      <c r="D51" s="55" t="s">
+        <v>71</v>
+      </c>
+      <c r="E51" s="55" t="s">
+        <v>71</v>
+      </c>
+      <c r="F51" s="55" t="s">
+        <v>71</v>
+      </c>
+      <c r="G51" s="55" t="s">
+        <v>71</v>
+      </c>
+      <c r="H51" s="55" t="s">
+        <v>71</v>
+      </c>
+      <c r="I51" s="55" t="s">
+        <v>71</v>
+      </c>
+      <c r="J51" s="55" t="s">
+        <v>71</v>
+      </c>
+      <c r="K51" s="55" t="s">
+        <v>71</v>
+      </c>
+      <c r="L51" s="55" t="s">
+        <v>71</v>
+      </c>
+      <c r="M51" s="55" t="s">
+        <v>71</v>
+      </c>
+      <c r="N51" s="55" t="s">
+        <v>71</v>
+      </c>
+      <c r="R51" s="104"/>
+      <c r="S51" s="54" t="s">
+        <v>69</v>
+      </c>
+      <c r="T51" s="63" t="s">
+        <v>71</v>
+      </c>
+      <c r="U51" s="63" t="s">
+        <v>71</v>
+      </c>
+      <c r="V51" s="63" t="s">
+        <v>71</v>
+      </c>
+      <c r="W51" s="63" t="s">
+        <v>71</v>
+      </c>
+      <c r="X51" s="63" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y51" s="63" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z51" s="63" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA51" s="63" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB51" s="63" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC51" s="63" t="s">
+        <v>71</v>
+      </c>
+      <c r="AD51" s="63" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="38">
+  <mergeCells count="46">
     <mergeCell ref="AG4:AG5"/>
     <mergeCell ref="AH4:AH5"/>
     <mergeCell ref="AI4:AN4"/>
@@ -11205,6 +11898,14 @@
     <mergeCell ref="D4:M4"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="B6:B11"/>
+    <mergeCell ref="T44:AC44"/>
+    <mergeCell ref="AD44:AD45"/>
+    <mergeCell ref="R46:R51"/>
+    <mergeCell ref="B44:C45"/>
+    <mergeCell ref="D44:M44"/>
+    <mergeCell ref="N44:N45"/>
+    <mergeCell ref="B46:B51"/>
+    <mergeCell ref="R44:S45"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -11215,52 +11916,52 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFC5CAB5-F7BD-4C9D-9320-5671A06A5F0A}">
-  <dimension ref="B4:X41"/>
+  <dimension ref="B4:X51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R30" sqref="R30"/>
+    <sheetView topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q45" sqref="Q45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="4" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B4" s="98" t="s">
-        <v>121</v>
-      </c>
-      <c r="C4" s="98"/>
-      <c r="D4" s="99" t="s">
+      <c r="B4" s="102" t="s">
+        <v>120</v>
+      </c>
+      <c r="C4" s="102"/>
+      <c r="D4" s="103" t="s">
         <v>100</v>
       </c>
-      <c r="E4" s="99"/>
-      <c r="F4" s="99"/>
-      <c r="G4" s="99"/>
-      <c r="H4" s="99"/>
-      <c r="I4" s="99"/>
-      <c r="J4" s="99"/>
-      <c r="K4" s="99"/>
-      <c r="L4" s="99"/>
-      <c r="M4" s="99"/>
-      <c r="N4" s="95" t="s">
+      <c r="E4" s="103"/>
+      <c r="F4" s="103"/>
+      <c r="G4" s="103"/>
+      <c r="H4" s="103"/>
+      <c r="I4" s="103"/>
+      <c r="J4" s="103"/>
+      <c r="K4" s="103"/>
+      <c r="L4" s="103"/>
+      <c r="M4" s="103"/>
+      <c r="N4" s="99" t="s">
         <v>105</v>
       </c>
-      <c r="Q4" s="95" t="s">
+      <c r="Q4" s="99" t="s">
         <v>59</v>
       </c>
-      <c r="R4" s="99" t="s">
+      <c r="R4" s="103" t="s">
         <v>109</v>
       </c>
-      <c r="S4" s="99" t="s">
+      <c r="S4" s="103" t="s">
         <v>110</v>
       </c>
-      <c r="T4" s="99"/>
-      <c r="U4" s="99"/>
-      <c r="V4" s="99"/>
-      <c r="W4" s="99"/>
-      <c r="X4" s="99"/>
+      <c r="T4" s="103"/>
+      <c r="U4" s="103"/>
+      <c r="V4" s="103"/>
+      <c r="W4" s="103"/>
+      <c r="X4" s="103"/>
     </row>
     <row r="5" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="98"/>
-      <c r="C5" s="98"/>
+      <c r="B5" s="102"/>
+      <c r="C5" s="102"/>
       <c r="D5" s="56">
         <v>1</v>
       </c>
@@ -11291,9 +11992,9 @@
       <c r="M5" s="56">
         <v>10</v>
       </c>
-      <c r="N5" s="95"/>
-      <c r="Q5" s="95"/>
-      <c r="R5" s="99"/>
+      <c r="N5" s="99"/>
+      <c r="Q5" s="99"/>
+      <c r="R5" s="103"/>
       <c r="S5" s="60" t="s">
         <v>1</v>
       </c>
@@ -11314,7 +12015,7 @@
       </c>
     </row>
     <row r="6" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B6" s="100" t="s">
+      <c r="B6" s="104" t="s">
         <v>110</v>
       </c>
       <c r="C6" s="56" t="s">
@@ -11386,7 +12087,7 @@
       </c>
     </row>
     <row r="7" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B7" s="100"/>
+      <c r="B7" s="104"/>
       <c r="C7" s="56" t="s">
         <v>2</v>
       </c>
@@ -11456,7 +12157,7 @@
       </c>
     </row>
     <row r="8" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B8" s="100"/>
+      <c r="B8" s="104"/>
       <c r="C8" s="56" t="s">
         <v>3</v>
       </c>
@@ -11522,11 +12223,11 @@
       </c>
       <c r="X8" s="54" t="str">
         <f>N31</f>
-        <v>Fail</v>
+        <v>gagal</v>
       </c>
     </row>
     <row r="9" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B9" s="100"/>
+      <c r="B9" s="104"/>
       <c r="C9" s="56" t="s">
         <v>52</v>
       </c>
@@ -11592,11 +12293,11 @@
       </c>
       <c r="X9" s="54" t="str">
         <f>N41</f>
-        <v>Fail</v>
+        <v>gagal</v>
       </c>
     </row>
     <row r="10" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B10" s="100"/>
+      <c r="B10" s="104"/>
       <c r="C10" s="56" t="s">
         <v>51</v>
       </c>
@@ -11634,9 +12335,39 @@
         <f t="shared" si="0"/>
         <v>1.1668800000000002E-2</v>
       </c>
+      <c r="Q10" s="62">
+        <v>1870</v>
+      </c>
+      <c r="R10" s="62" t="s">
+        <v>107</v>
+      </c>
+      <c r="S10" s="43">
+        <f>N46</f>
+        <v>6.6589200000000001E-2</v>
+      </c>
+      <c r="T10" s="43">
+        <f>N47</f>
+        <v>6.4134799999999992E-2</v>
+      </c>
+      <c r="U10" s="43">
+        <f>N48</f>
+        <v>5.9675599999999995E-2</v>
+      </c>
+      <c r="V10" s="43">
+        <f>N49</f>
+        <v>5.5481200000000008E-2</v>
+      </c>
+      <c r="W10" s="54" t="str">
+        <f>N50</f>
+        <v>gagal</v>
+      </c>
+      <c r="X10" s="64" t="str">
+        <f>N51</f>
+        <v>gagal</v>
+      </c>
     </row>
     <row r="11" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B11" s="100"/>
+      <c r="B11" s="104"/>
       <c r="C11" s="56" t="s">
         <v>69</v>
       </c>
@@ -11676,29 +12407,29 @@
       </c>
     </row>
     <row r="14" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B14" s="98" t="s">
-        <v>122</v>
-      </c>
-      <c r="C14" s="98"/>
-      <c r="D14" s="99" t="s">
+      <c r="B14" s="102" t="s">
+        <v>121</v>
+      </c>
+      <c r="C14" s="102"/>
+      <c r="D14" s="103" t="s">
         <v>100</v>
       </c>
-      <c r="E14" s="99"/>
-      <c r="F14" s="99"/>
-      <c r="G14" s="99"/>
-      <c r="H14" s="99"/>
-      <c r="I14" s="99"/>
-      <c r="J14" s="99"/>
-      <c r="K14" s="99"/>
-      <c r="L14" s="99"/>
-      <c r="M14" s="99"/>
-      <c r="N14" s="95" t="s">
+      <c r="E14" s="103"/>
+      <c r="F14" s="103"/>
+      <c r="G14" s="103"/>
+      <c r="H14" s="103"/>
+      <c r="I14" s="103"/>
+      <c r="J14" s="103"/>
+      <c r="K14" s="103"/>
+      <c r="L14" s="103"/>
+      <c r="M14" s="103"/>
+      <c r="N14" s="99" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="15" spans="2:24" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="98"/>
-      <c r="C15" s="98"/>
+      <c r="B15" s="102"/>
+      <c r="C15" s="102"/>
       <c r="D15" s="56">
         <v>1</v>
       </c>
@@ -11729,10 +12460,10 @@
       <c r="M15" s="56">
         <v>10</v>
       </c>
-      <c r="N15" s="95"/>
+      <c r="N15" s="99"/>
     </row>
     <row r="16" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B16" s="100" t="s">
+      <c r="B16" s="104" t="s">
         <v>110</v>
       </c>
       <c r="C16" s="56" t="s">
@@ -11774,7 +12505,7 @@
       </c>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B17" s="100"/>
+      <c r="B17" s="104"/>
       <c r="C17" s="56" t="s">
         <v>2</v>
       </c>
@@ -11814,7 +12545,7 @@
       </c>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B18" s="100"/>
+      <c r="B18" s="104"/>
       <c r="C18" s="56" t="s">
         <v>3</v>
       </c>
@@ -11854,7 +12585,7 @@
       </c>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B19" s="100"/>
+      <c r="B19" s="104"/>
       <c r="C19" s="56" t="s">
         <v>52</v>
       </c>
@@ -11894,7 +12625,7 @@
       </c>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B20" s="100"/>
+      <c r="B20" s="104"/>
       <c r="C20" s="56" t="s">
         <v>51</v>
       </c>
@@ -11934,7 +12665,7 @@
       </c>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B21" s="100"/>
+      <c r="B21" s="104"/>
       <c r="C21" s="56" t="s">
         <v>69</v>
       </c>
@@ -11974,29 +12705,29 @@
       </c>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B24" s="98" t="s">
-        <v>123</v>
-      </c>
-      <c r="C24" s="98"/>
-      <c r="D24" s="99" t="s">
+      <c r="B24" s="102" t="s">
+        <v>122</v>
+      </c>
+      <c r="C24" s="102"/>
+      <c r="D24" s="103" t="s">
         <v>100</v>
       </c>
-      <c r="E24" s="99"/>
-      <c r="F24" s="99"/>
-      <c r="G24" s="99"/>
-      <c r="H24" s="99"/>
-      <c r="I24" s="99"/>
-      <c r="J24" s="99"/>
-      <c r="K24" s="99"/>
-      <c r="L24" s="99"/>
-      <c r="M24" s="99"/>
-      <c r="N24" s="95" t="s">
+      <c r="E24" s="103"/>
+      <c r="F24" s="103"/>
+      <c r="G24" s="103"/>
+      <c r="H24" s="103"/>
+      <c r="I24" s="103"/>
+      <c r="J24" s="103"/>
+      <c r="K24" s="103"/>
+      <c r="L24" s="103"/>
+      <c r="M24" s="103"/>
+      <c r="N24" s="99" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="25" spans="2:14" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="98"/>
-      <c r="C25" s="98"/>
+      <c r="B25" s="102"/>
+      <c r="C25" s="102"/>
       <c r="D25" s="56">
         <v>1</v>
       </c>
@@ -12027,10 +12758,10 @@
       <c r="M25" s="56">
         <v>10</v>
       </c>
-      <c r="N25" s="95"/>
+      <c r="N25" s="99"/>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B26" s="100" t="s">
+      <c r="B26" s="104" t="s">
         <v>110</v>
       </c>
       <c r="C26" s="56" t="s">
@@ -12072,7 +12803,7 @@
       </c>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B27" s="100"/>
+      <c r="B27" s="104"/>
       <c r="C27" s="56" t="s">
         <v>2</v>
       </c>
@@ -12112,7 +12843,7 @@
       </c>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B28" s="100"/>
+      <c r="B28" s="104"/>
       <c r="C28" s="56" t="s">
         <v>3</v>
       </c>
@@ -12152,7 +12883,7 @@
       </c>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B29" s="100"/>
+      <c r="B29" s="104"/>
       <c r="C29" s="56" t="s">
         <v>52</v>
       </c>
@@ -12192,7 +12923,7 @@
       </c>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B30" s="100"/>
+      <c r="B30" s="104"/>
       <c r="C30" s="56" t="s">
         <v>51</v>
       </c>
@@ -12232,68 +12963,68 @@
       </c>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B31" s="100"/>
+      <c r="B31" s="104"/>
       <c r="C31" s="54" t="s">
         <v>69</v>
       </c>
       <c r="D31" s="55" t="s">
-        <v>115</v>
+        <v>71</v>
       </c>
       <c r="E31" s="55" t="s">
-        <v>115</v>
+        <v>71</v>
       </c>
       <c r="F31" s="55" t="s">
-        <v>115</v>
+        <v>71</v>
       </c>
       <c r="G31" s="55" t="s">
-        <v>115</v>
+        <v>71</v>
       </c>
       <c r="H31" s="55" t="s">
-        <v>115</v>
+        <v>71</v>
       </c>
       <c r="I31" s="55" t="s">
-        <v>115</v>
+        <v>71</v>
       </c>
       <c r="J31" s="55" t="s">
-        <v>115</v>
+        <v>71</v>
       </c>
       <c r="K31" s="55" t="s">
-        <v>115</v>
+        <v>71</v>
       </c>
       <c r="L31" s="55" t="s">
-        <v>115</v>
+        <v>71</v>
       </c>
       <c r="M31" s="55" t="s">
-        <v>115</v>
+        <v>71</v>
       </c>
       <c r="N31" s="55" t="s">
-        <v>115</v>
+        <v>71</v>
       </c>
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B34" s="98" t="s">
-        <v>124</v>
-      </c>
-      <c r="C34" s="98"/>
-      <c r="D34" s="99" t="s">
+      <c r="B34" s="102" t="s">
+        <v>123</v>
+      </c>
+      <c r="C34" s="102"/>
+      <c r="D34" s="103" t="s">
         <v>100</v>
       </c>
-      <c r="E34" s="99"/>
-      <c r="F34" s="99"/>
-      <c r="G34" s="99"/>
-      <c r="H34" s="99"/>
-      <c r="I34" s="99"/>
-      <c r="J34" s="99"/>
-      <c r="K34" s="99"/>
-      <c r="L34" s="99"/>
-      <c r="M34" s="99"/>
-      <c r="N34" s="95" t="s">
+      <c r="E34" s="103"/>
+      <c r="F34" s="103"/>
+      <c r="G34" s="103"/>
+      <c r="H34" s="103"/>
+      <c r="I34" s="103"/>
+      <c r="J34" s="103"/>
+      <c r="K34" s="103"/>
+      <c r="L34" s="103"/>
+      <c r="M34" s="103"/>
+      <c r="N34" s="99" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="35" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="98"/>
-      <c r="C35" s="98"/>
+      <c r="B35" s="102"/>
+      <c r="C35" s="102"/>
       <c r="D35" s="56">
         <v>1</v>
       </c>
@@ -12324,10 +13055,10 @@
       <c r="M35" s="56">
         <v>10</v>
       </c>
-      <c r="N35" s="95"/>
+      <c r="N35" s="99"/>
     </row>
     <row r="36" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B36" s="100" t="s">
+      <c r="B36" s="104" t="s">
         <v>110</v>
       </c>
       <c r="C36" s="56" t="s">
@@ -12369,7 +13100,7 @@
       </c>
     </row>
     <row r="37" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B37" s="100"/>
+      <c r="B37" s="104"/>
       <c r="C37" s="56" t="s">
         <v>2</v>
       </c>
@@ -12404,12 +13135,12 @@
         <v>4.1259999999999998E-2</v>
       </c>
       <c r="N37" s="52">
-        <f t="shared" ref="N37:N40" si="3">AVERAGE(D37:M37)</f>
+        <f t="shared" ref="N37:N39" si="3">AVERAGE(D37:M37)</f>
         <v>4.45184E-2</v>
       </c>
     </row>
     <row r="38" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B38" s="100"/>
+      <c r="B38" s="104"/>
       <c r="C38" s="56" t="s">
         <v>3</v>
       </c>
@@ -12449,7 +13180,7 @@
       </c>
     </row>
     <row r="39" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B39" s="100"/>
+      <c r="B39" s="104"/>
       <c r="C39" s="56" t="s">
         <v>52</v>
       </c>
@@ -12489,7 +13220,7 @@
       </c>
     </row>
     <row r="40" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B40" s="100"/>
+      <c r="B40" s="104"/>
       <c r="C40" s="56" t="s">
         <v>51</v>
       </c>
@@ -12529,46 +13260,346 @@
       </c>
     </row>
     <row r="41" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B41" s="100"/>
+      <c r="B41" s="104"/>
       <c r="C41" s="54" t="s">
         <v>69</v>
       </c>
       <c r="D41" s="55" t="s">
-        <v>115</v>
+        <v>71</v>
       </c>
       <c r="E41" s="55" t="s">
-        <v>115</v>
+        <v>71</v>
       </c>
       <c r="F41" s="55" t="s">
-        <v>115</v>
+        <v>71</v>
       </c>
       <c r="G41" s="55" t="s">
-        <v>115</v>
+        <v>71</v>
       </c>
       <c r="H41" s="55" t="s">
-        <v>115</v>
+        <v>71</v>
       </c>
       <c r="I41" s="55" t="s">
-        <v>115</v>
+        <v>71</v>
       </c>
       <c r="J41" s="55" t="s">
-        <v>115</v>
+        <v>71</v>
       </c>
       <c r="K41" s="55" t="s">
-        <v>115</v>
+        <v>71</v>
       </c>
       <c r="L41" s="55" t="s">
-        <v>115</v>
+        <v>71</v>
       </c>
       <c r="M41" s="55" t="s">
-        <v>115</v>
+        <v>71</v>
       </c>
       <c r="N41" s="55" t="s">
-        <v>115</v>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B44" s="102" t="s">
+        <v>126</v>
+      </c>
+      <c r="C44" s="102"/>
+      <c r="D44" s="103" t="s">
+        <v>100</v>
+      </c>
+      <c r="E44" s="103"/>
+      <c r="F44" s="103"/>
+      <c r="G44" s="103"/>
+      <c r="H44" s="103"/>
+      <c r="I44" s="103"/>
+      <c r="J44" s="103"/>
+      <c r="K44" s="103"/>
+      <c r="L44" s="103"/>
+      <c r="M44" s="103"/>
+      <c r="N44" s="99" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="102"/>
+      <c r="C45" s="102"/>
+      <c r="D45" s="62">
+        <v>1</v>
+      </c>
+      <c r="E45" s="62">
+        <v>2</v>
+      </c>
+      <c r="F45" s="62">
+        <v>3</v>
+      </c>
+      <c r="G45" s="62">
+        <v>4</v>
+      </c>
+      <c r="H45" s="62">
+        <v>5</v>
+      </c>
+      <c r="I45" s="62">
+        <v>6</v>
+      </c>
+      <c r="J45" s="62">
+        <v>7</v>
+      </c>
+      <c r="K45" s="62">
+        <v>8</v>
+      </c>
+      <c r="L45" s="62">
+        <v>9</v>
+      </c>
+      <c r="M45" s="62">
+        <v>10</v>
+      </c>
+      <c r="N45" s="99"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B46" s="104" t="s">
+        <v>110</v>
+      </c>
+      <c r="C46" s="62" t="s">
+        <v>1</v>
+      </c>
+      <c r="D46" s="51">
+        <v>2.2915999999999999E-2</v>
+      </c>
+      <c r="E46" s="51">
+        <v>6.8040000000000003E-2</v>
+      </c>
+      <c r="F46" s="51">
+        <v>7.1952000000000002E-2</v>
+      </c>
+      <c r="G46" s="51">
+        <v>6.9311999999999999E-2</v>
+      </c>
+      <c r="H46" s="51">
+        <v>7.0875999999999995E-2</v>
+      </c>
+      <c r="I46" s="51">
+        <v>7.1643999999999999E-2</v>
+      </c>
+      <c r="J46" s="51">
+        <v>7.3064000000000004E-2</v>
+      </c>
+      <c r="K46" s="51">
+        <v>7.1908E-2</v>
+      </c>
+      <c r="L46" s="51">
+        <v>7.3211999999999999E-2</v>
+      </c>
+      <c r="M46" s="51">
+        <v>7.2968000000000005E-2</v>
+      </c>
+      <c r="N46" s="52">
+        <f>AVERAGE(D46:M46)</f>
+        <v>6.6589200000000001E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B47" s="104"/>
+      <c r="C47" s="62" t="s">
+        <v>2</v>
+      </c>
+      <c r="D47" s="51">
+        <v>1.6948000000000001E-2</v>
+      </c>
+      <c r="E47" s="51">
+        <v>6.7447999999999994E-2</v>
+      </c>
+      <c r="F47" s="51">
+        <v>6.9956000000000004E-2</v>
+      </c>
+      <c r="G47" s="51">
+        <v>6.7047999999999996E-2</v>
+      </c>
+      <c r="H47" s="51">
+        <v>6.7267999999999994E-2</v>
+      </c>
+      <c r="I47" s="51">
+        <v>6.7192000000000002E-2</v>
+      </c>
+      <c r="J47" s="51">
+        <v>7.3027999999999996E-2</v>
+      </c>
+      <c r="K47" s="51">
+        <v>7.1136000000000005E-2</v>
+      </c>
+      <c r="L47" s="51">
+        <v>7.2344000000000006E-2</v>
+      </c>
+      <c r="M47" s="51">
+        <v>6.898E-2</v>
+      </c>
+      <c r="N47" s="52">
+        <f t="shared" ref="N47:N49" si="4">AVERAGE(D47:M47)</f>
+        <v>6.4134799999999992E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B48" s="104"/>
+      <c r="C48" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="D48" s="51">
+        <v>1.3716000000000001E-2</v>
+      </c>
+      <c r="E48" s="51">
+        <v>6.7488000000000006E-2</v>
+      </c>
+      <c r="F48" s="51">
+        <v>6.3747999999999999E-2</v>
+      </c>
+      <c r="G48" s="51">
+        <v>6.2019999999999999E-2</v>
+      </c>
+      <c r="H48" s="51">
+        <v>5.8979999999999998E-2</v>
+      </c>
+      <c r="I48" s="51">
+        <v>5.3052000000000002E-2</v>
+      </c>
+      <c r="J48" s="51">
+        <v>7.3368000000000003E-2</v>
+      </c>
+      <c r="K48" s="51">
+        <v>6.7627999999999994E-2</v>
+      </c>
+      <c r="L48" s="51">
+        <v>7.2576000000000002E-2</v>
+      </c>
+      <c r="M48" s="51">
+        <v>6.4180000000000001E-2</v>
+      </c>
+      <c r="N48" s="52">
+        <f t="shared" si="4"/>
+        <v>5.9675599999999995E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B49" s="104"/>
+      <c r="C49" s="62" t="s">
+        <v>52</v>
+      </c>
+      <c r="D49" s="51">
+        <v>1.0972000000000001E-2</v>
+      </c>
+      <c r="E49" s="51">
+        <v>5.6604000000000002E-2</v>
+      </c>
+      <c r="F49" s="51">
+        <v>5.9596000000000003E-2</v>
+      </c>
+      <c r="G49" s="51">
+        <v>5.6564000000000003E-2</v>
+      </c>
+      <c r="H49" s="51">
+        <v>5.5104E-2</v>
+      </c>
+      <c r="I49" s="51">
+        <v>5.058E-2</v>
+      </c>
+      <c r="J49" s="51">
+        <v>7.1548E-2</v>
+      </c>
+      <c r="K49" s="51">
+        <v>6.2212000000000003E-2</v>
+      </c>
+      <c r="L49" s="51">
+        <v>7.1071999999999996E-2</v>
+      </c>
+      <c r="M49" s="51">
+        <v>6.0560000000000003E-2</v>
+      </c>
+      <c r="N49" s="52">
+        <f t="shared" si="4"/>
+        <v>5.5481200000000008E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B50" s="104"/>
+      <c r="C50" s="54" t="s">
+        <v>51</v>
+      </c>
+      <c r="D50" s="63" t="s">
+        <v>71</v>
+      </c>
+      <c r="E50" s="63" t="s">
+        <v>71</v>
+      </c>
+      <c r="F50" s="63" t="s">
+        <v>71</v>
+      </c>
+      <c r="G50" s="63" t="s">
+        <v>71</v>
+      </c>
+      <c r="H50" s="63" t="s">
+        <v>71</v>
+      </c>
+      <c r="I50" s="63" t="s">
+        <v>71</v>
+      </c>
+      <c r="J50" s="63" t="s">
+        <v>71</v>
+      </c>
+      <c r="K50" s="63" t="s">
+        <v>71</v>
+      </c>
+      <c r="L50" s="63" t="s">
+        <v>71</v>
+      </c>
+      <c r="M50" s="63" t="s">
+        <v>71</v>
+      </c>
+      <c r="N50" s="63" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B51" s="104"/>
+      <c r="C51" s="54" t="s">
+        <v>69</v>
+      </c>
+      <c r="D51" s="55" t="s">
+        <v>71</v>
+      </c>
+      <c r="E51" s="55" t="s">
+        <v>71</v>
+      </c>
+      <c r="F51" s="55" t="s">
+        <v>71</v>
+      </c>
+      <c r="G51" s="55" t="s">
+        <v>71</v>
+      </c>
+      <c r="H51" s="55" t="s">
+        <v>71</v>
+      </c>
+      <c r="I51" s="55" t="s">
+        <v>71</v>
+      </c>
+      <c r="J51" s="55" t="s">
+        <v>71</v>
+      </c>
+      <c r="K51" s="55" t="s">
+        <v>71</v>
+      </c>
+      <c r="L51" s="55" t="s">
+        <v>71</v>
+      </c>
+      <c r="M51" s="55" t="s">
+        <v>71</v>
+      </c>
+      <c r="N51" s="55" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="23">
+    <mergeCell ref="B44:C45"/>
+    <mergeCell ref="D44:M44"/>
+    <mergeCell ref="N44:N45"/>
+    <mergeCell ref="B46:B51"/>
     <mergeCell ref="Q4:Q5"/>
     <mergeCell ref="R4:R5"/>
     <mergeCell ref="S4:X4"/>
@@ -12668,7 +13699,7 @@
       </c>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B8" s="103">
+      <c r="B8" s="107">
         <v>584</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -12689,7 +13720,7 @@
       <c r="H8" s="1">
         <v>8.0800000000000004E-3</v>
       </c>
-      <c r="L8" s="104">
+      <c r="L8" s="108">
         <v>584</v>
       </c>
       <c r="M8" s="1" t="s">
@@ -12712,7 +13743,7 @@
       </c>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B9" s="103"/>
+      <c r="B9" s="107"/>
       <c r="C9" s="1" t="s">
         <v>68</v>
       </c>
@@ -12731,7 +13762,7 @@
       <c r="H9" s="1">
         <v>4.5935999999999998E-2</v>
       </c>
-      <c r="L9" s="105"/>
+      <c r="L9" s="109"/>
       <c r="M9" s="1" t="s">
         <v>65</v>
       </c>
@@ -12757,7 +13788,7 @@
       </c>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B10" s="101">
+      <c r="B10" s="105">
         <v>980</v>
       </c>
       <c r="C10" s="16" t="s">
@@ -12778,7 +13809,7 @@
       <c r="H10" s="16">
         <v>1.2456E-2</v>
       </c>
-      <c r="L10" s="105"/>
+      <c r="L10" s="109"/>
       <c r="M10" s="1" t="s">
         <v>61</v>
       </c>
@@ -12799,7 +13830,7 @@
       </c>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B11" s="101"/>
+      <c r="B11" s="105"/>
       <c r="C11" s="16" t="s">
         <v>68</v>
       </c>
@@ -12818,7 +13849,7 @@
       <c r="H11" s="16">
         <v>6.3119999999999996E-2</v>
       </c>
-      <c r="L11" s="106"/>
+      <c r="L11" s="110"/>
       <c r="M11" s="1" t="s">
         <v>66</v>
       </c>
@@ -12844,7 +13875,7 @@
       </c>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B12" s="99">
+      <c r="B12" s="103">
         <v>1280</v>
       </c>
       <c r="C12" s="4" t="s">
@@ -12865,7 +13896,7 @@
       <c r="H12" s="4">
         <v>1.5299999999999999E-2</v>
       </c>
-      <c r="L12" s="107">
+      <c r="L12" s="111">
         <v>980</v>
       </c>
       <c r="M12" s="16" t="s">
@@ -12888,7 +13919,7 @@
       </c>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B13" s="99"/>
+      <c r="B13" s="103"/>
       <c r="C13" s="4" t="s">
         <v>68</v>
       </c>
@@ -12907,7 +13938,7 @@
       <c r="H13" s="4">
         <v>6.6844000000000001E-2</v>
       </c>
-      <c r="L13" s="108"/>
+      <c r="L13" s="112"/>
       <c r="M13" s="16" t="s">
         <v>66</v>
       </c>
@@ -12933,7 +13964,7 @@
       </c>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B14" s="102">
+      <c r="B14" s="106">
         <v>1345</v>
       </c>
       <c r="C14" s="7" t="s">
@@ -12954,7 +13985,7 @@
       <c r="H14" s="7">
         <v>1.5807999999999999E-2</v>
       </c>
-      <c r="L14" s="108"/>
+      <c r="L14" s="112"/>
       <c r="M14" s="16" t="s">
         <v>61</v>
       </c>
@@ -12975,7 +14006,7 @@
       </c>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B15" s="102"/>
+      <c r="B15" s="106"/>
       <c r="C15" s="7" t="s">
         <v>68</v>
       </c>
@@ -12994,7 +14025,7 @@
       <c r="H15" s="7">
         <v>6.7227999999999996E-2</v>
       </c>
-      <c r="L15" s="109"/>
+      <c r="L15" s="113"/>
       <c r="M15" s="16" t="s">
         <v>66</v>
       </c>
@@ -13020,7 +14051,7 @@
       </c>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="L16" s="110">
+      <c r="L16" s="114">
         <v>1280</v>
       </c>
       <c r="M16" s="4" t="s">
@@ -13043,7 +14074,7 @@
       </c>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="L17" s="111"/>
+      <c r="L17" s="115"/>
       <c r="M17" s="4" t="s">
         <v>65</v>
       </c>
@@ -13069,7 +14100,7 @@
       </c>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="L18" s="111"/>
+      <c r="L18" s="115"/>
       <c r="M18" s="4" t="s">
         <v>61</v>
       </c>
@@ -13090,7 +14121,7 @@
       </c>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="L19" s="112"/>
+      <c r="L19" s="116"/>
       <c r="M19" s="4" t="s">
         <v>65</v>
       </c>
@@ -13116,7 +14147,7 @@
       </c>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="L20" s="102">
+      <c r="L20" s="106">
         <v>1345</v>
       </c>
       <c r="M20" s="7" t="s">
@@ -13139,7 +14170,7 @@
       </c>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="L21" s="102"/>
+      <c r="L21" s="106"/>
       <c r="M21" s="7" t="s">
         <v>65</v>
       </c>
@@ -13165,7 +14196,7 @@
       </c>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="L22" s="102"/>
+      <c r="L22" s="106"/>
       <c r="M22" s="7" t="s">
         <v>61</v>
       </c>
@@ -13186,7 +14217,7 @@
       </c>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="L23" s="102"/>
+      <c r="L23" s="106"/>
       <c r="M23" s="7" t="s">
         <v>65</v>
       </c>
@@ -13240,7 +14271,7 @@
       </c>
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B31" s="103">
+      <c r="B31" s="107">
         <v>584</v>
       </c>
       <c r="C31" s="1" t="s">
@@ -13263,7 +14294,7 @@
       </c>
     </row>
     <row r="32" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B32" s="103"/>
+      <c r="B32" s="107"/>
       <c r="C32" s="1" t="s">
         <v>68</v>
       </c>
@@ -13284,7 +14315,7 @@
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B33" s="101">
+      <c r="B33" s="105">
         <v>980</v>
       </c>
       <c r="C33" s="16" t="s">
@@ -13307,7 +14338,7 @@
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B34" s="101"/>
+      <c r="B34" s="105"/>
       <c r="C34" s="16" t="s">
         <v>68</v>
       </c>
@@ -13328,7 +14359,7 @@
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B35" s="99">
+      <c r="B35" s="103">
         <v>1280</v>
       </c>
       <c r="C35" s="4" t="s">
@@ -13351,7 +14382,7 @@
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B36" s="99"/>
+      <c r="B36" s="103"/>
       <c r="C36" s="4" t="s">
         <v>68</v>
       </c>
@@ -13372,7 +14403,7 @@
       </c>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B37" s="102">
+      <c r="B37" s="106">
         <v>1345</v>
       </c>
       <c r="C37" s="7" t="s">
@@ -13395,7 +14426,7 @@
       </c>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B38" s="102"/>
+      <c r="B38" s="106"/>
       <c r="C38" s="7" t="s">
         <v>68</v>
       </c>
@@ -13454,7 +14485,7 @@
   </cols>
   <sheetData>
     <row r="5" spans="1:18" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="113" t="s">
+      <c r="A5" s="117" t="s">
         <v>73</v>
       </c>
       <c r="B5" s="32" t="s">
@@ -13480,7 +14511,7 @@
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="113"/>
+      <c r="A6" s="117"/>
       <c r="B6" s="33">
         <v>584</v>
       </c>
@@ -13504,7 +14535,7 @@
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="113"/>
+      <c r="A7" s="117"/>
       <c r="B7" s="33">
         <v>980</v>
       </c>
@@ -13528,7 +14559,7 @@
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="113"/>
+      <c r="A8" s="117"/>
       <c r="B8" s="33">
         <v>1280</v>
       </c>
@@ -13552,7 +14583,7 @@
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="113"/>
+      <c r="A9" s="117"/>
       <c r="B9" s="33">
         <v>1435</v>
       </c>
@@ -13576,7 +14607,7 @@
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="113"/>
+      <c r="A10" s="117"/>
       <c r="B10" s="33">
         <v>1640</v>
       </c>
@@ -13600,7 +14631,7 @@
       </c>
     </row>
     <row r="14" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="113" t="s">
+      <c r="A14" s="117" t="s">
         <v>72</v>
       </c>
       <c r="B14" s="32" t="s">
@@ -13626,7 +14657,7 @@
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="113"/>
+      <c r="A15" s="117"/>
       <c r="B15" s="33">
         <v>584</v>
       </c>
@@ -13638,7 +14669,7 @@
       <c r="H15" s="1"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="113"/>
+      <c r="A16" s="117"/>
       <c r="B16" s="33">
         <v>980</v>
       </c>
@@ -13648,11 +14679,11 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="5"/>
-      <c r="K16" s="114" t="s">
+      <c r="K16" s="118" t="s">
         <v>74</v>
       </c>
-      <c r="L16" s="114"/>
-      <c r="M16" s="114"/>
+      <c r="L16" s="118"/>
+      <c r="M16" s="118"/>
       <c r="P16" s="11" t="s">
         <v>80</v>
       </c>
@@ -13664,7 +14695,7 @@
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="113"/>
+      <c r="A17" s="117"/>
       <c r="B17" s="33">
         <v>1280</v>
       </c>
@@ -13694,7 +14725,7 @@
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="113"/>
+      <c r="A18" s="117"/>
       <c r="B18" s="33">
         <v>1435</v>
       </c>
@@ -13724,7 +14755,7 @@
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="113"/>
+      <c r="A19" s="117"/>
       <c r="B19" s="33">
         <v>1640</v>
       </c>

--- a/Data Hasil Uji Coba/Uji Coba.xlsx
+++ b/Data Hasil Uji Coba/Uji Coba.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{EE43CD3D-86C9-43A5-954B-73602E0BB775}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{2C10D9E1-5B2D-4D3F-8C75-2C1EE347C2C7}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Static Buffer" sheetId="1" r:id="rId1"/>
     <sheet name="Dinamic Buffer" sheetId="2" r:id="rId2"/>
-    <sheet name="Akurasi Pengiriman" sheetId="5" r:id="rId3"/>
-    <sheet name="Efektifitas" sheetId="6" r:id="rId4"/>
-    <sheet name="Waktu Dekompresi" sheetId="7" r:id="rId5"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId6"/>
-    <sheet name="Sheet2" sheetId="4" r:id="rId7"/>
+    <sheet name="Akurasi Single hop" sheetId="5" r:id="rId3"/>
+    <sheet name="Akurasi Multi hop" sheetId="8" r:id="rId4"/>
+    <sheet name="Efektifitas" sheetId="6" r:id="rId5"/>
+    <sheet name="Waktu Dekompresi" sheetId="7" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId7"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913" calcMode="manual"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="133">
   <si>
     <t>0 x</t>
   </si>
@@ -426,6 +427,24 @@
   <si>
     <t>Waktu Dekompresi Pada Panjang Data 1870</t>
   </si>
+  <si>
+    <t>Jumlah Data Masuk Dari End Device Ke Router</t>
+  </si>
+  <si>
+    <t>Jumlah Data Masuk dari Router ke Cordinator</t>
+  </si>
+  <si>
+    <t>Total Akurasi</t>
+  </si>
+  <si>
+    <t>Single Hop</t>
+  </si>
+  <si>
+    <t>Multi Hop</t>
+  </si>
+  <si>
+    <t>Jumlah Data Masuk dari End Device ke Router</t>
+  </si>
 </sst>
 </file>
 
@@ -734,7 +753,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="119">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -886,26 +905,35 @@
     <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -943,31 +971,25 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -989,6 +1011,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="14" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -997,23 +1025,8 @@
     <xf numFmtId="164" fontId="0" fillId="14" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1042,11 +1055,29 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="14" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1146,7 +1177,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Akurasi Pengiriman'!$D$33</c:f>
+              <c:f>'Akurasi Single hop'!$D$33</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1219,7 +1250,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Akurasi Pengiriman'!$C$34:$C$36</c:f>
+              <c:f>'Akurasi Single hop'!$C$34:$C$36</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1236,7 +1267,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Akurasi Pengiriman'!$D$34:$D$36</c:f>
+              <c:f>'Akurasi Single hop'!$D$34:$D$36</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1263,7 +1294,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Akurasi Pengiriman'!$E$33</c:f>
+              <c:f>'Akurasi Single hop'!$E$33</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1336,7 +1367,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Akurasi Pengiriman'!$C$34:$C$36</c:f>
+              <c:f>'Akurasi Single hop'!$C$34:$C$36</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1353,7 +1384,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Akurasi Pengiriman'!$E$34:$E$36</c:f>
+              <c:f>'Akurasi Single hop'!$E$34:$E$36</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1566,7 +1597,469 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Perbandingan</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Akurasi Pengiriman Data ZigBee</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.16623617023948559"/>
+          <c:y val="4.1585436583641777E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Akurasi Multi hop'!$R$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Single Hop</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Akurasi Multi hop'!$S$6:$U$6</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>±10 meter</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>±20 meter</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>±30 meter</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Akurasi Multi hop'!$S$7:$U$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.86799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.69499999999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-316A-4E2F-913D-892A62F004BA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Akurasi Multi hop'!$R$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Multi Hop</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Akurasi Multi hop'!$S$6:$U$6</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>±10 meter</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>±20 meter</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>±30 meter</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Akurasi Multi hop'!$S$8:$U$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.90600000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.82599999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-316A-4E2F-913D-892A62F004BA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="474125328"/>
+        <c:axId val="474125000"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="474125328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="474125000"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="474125000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="474125328"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2111,20 +2604,523 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>314324</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>61912</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>247649</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2132,6 +3128,47 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{650DC72A-11E5-440D-B073-81356412A110}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2446,32 +3483,32 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="92" t="s">
+      <c r="A2" s="72" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="92"/>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="92"/>
-      <c r="H2" s="92"/>
-      <c r="K2" s="92" t="s">
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="K2" s="72" t="s">
         <v>37</v>
       </c>
-      <c r="L2" s="92"/>
-      <c r="M2" s="92"/>
-      <c r="N2" s="92"/>
-      <c r="O2" s="92"/>
-      <c r="P2" s="92"/>
-      <c r="Q2" s="92"/>
-      <c r="R2" s="92"/>
+      <c r="L2" s="72"/>
+      <c r="M2" s="72"/>
+      <c r="N2" s="72"/>
+      <c r="O2" s="72"/>
+      <c r="P2" s="72"/>
+      <c r="Q2" s="72"/>
+      <c r="R2" s="72"/>
     </row>
     <row r="3" spans="1:18" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="90" t="s">
+      <c r="A3" s="73" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="91"/>
+      <c r="B3" s="74"/>
       <c r="C3" s="14"/>
       <c r="D3" s="15" t="s">
         <v>1</v>
@@ -2488,10 +3525,10 @@
       <c r="H3" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="90" t="s">
+      <c r="K3" s="73" t="s">
         <v>31</v>
       </c>
-      <c r="L3" s="91"/>
+      <c r="L3" s="74"/>
       <c r="M3" s="14"/>
       <c r="N3" s="15" t="s">
         <v>1</v>
@@ -2510,10 +3547,10 @@
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="72">
+      <c r="A4" s="75">
         <v>584</v>
       </c>
-      <c r="B4" s="73"/>
+      <c r="B4" s="76"/>
       <c r="C4" s="1" t="s">
         <v>30</v>
       </c>
@@ -2532,10 +3569,10 @@
       <c r="H4" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="72">
+      <c r="K4" s="75">
         <v>584</v>
       </c>
-      <c r="L4" s="73"/>
+      <c r="L4" s="76"/>
       <c r="M4" s="1" t="s">
         <v>30</v>
       </c>
@@ -2556,8 +3593,8 @@
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="74"/>
-      <c r="B5" s="75"/>
+      <c r="A5" s="77"/>
+      <c r="B5" s="78"/>
       <c r="C5" s="1" t="s">
         <v>21</v>
       </c>
@@ -2576,8 +3613,8 @@
       <c r="H5" s="1">
         <v>21</v>
       </c>
-      <c r="K5" s="74"/>
-      <c r="L5" s="75"/>
+      <c r="K5" s="77"/>
+      <c r="L5" s="78"/>
       <c r="M5" s="1" t="s">
         <v>21</v>
       </c>
@@ -2598,8 +3635,8 @@
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="74"/>
-      <c r="B6" s="75"/>
+      <c r="A6" s="77"/>
+      <c r="B6" s="78"/>
       <c r="C6" s="1" t="s">
         <v>33</v>
       </c>
@@ -2623,8 +3660,8 @@
         <f>($A$4-H5)/$A$4</f>
         <v>0.96404109589041098</v>
       </c>
-      <c r="K6" s="74"/>
-      <c r="L6" s="75"/>
+      <c r="K6" s="77"/>
+      <c r="L6" s="78"/>
       <c r="M6" s="1" t="s">
         <v>33</v>
       </c>
@@ -2650,8 +3687,8 @@
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="74"/>
-      <c r="B7" s="75"/>
+      <c r="A7" s="77"/>
+      <c r="B7" s="78"/>
       <c r="C7" s="1" t="s">
         <v>22</v>
       </c>
@@ -2670,8 +3707,8 @@
       <c r="H7" s="1">
         <v>427</v>
       </c>
-      <c r="K7" s="74"/>
-      <c r="L7" s="75"/>
+      <c r="K7" s="77"/>
+      <c r="L7" s="78"/>
       <c r="M7" s="1" t="s">
         <v>22</v>
       </c>
@@ -2692,8 +3729,8 @@
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="76"/>
-      <c r="B8" s="77"/>
+      <c r="A8" s="79"/>
+      <c r="B8" s="80"/>
       <c r="C8" s="1" t="s">
         <v>34</v>
       </c>
@@ -2717,8 +3754,8 @@
         <f>($A$4-H7)/$A$4</f>
         <v>0.26883561643835618</v>
       </c>
-      <c r="K8" s="76"/>
-      <c r="L8" s="77"/>
+      <c r="K8" s="79"/>
+      <c r="L8" s="80"/>
       <c r="M8" s="1" t="s">
         <v>34</v>
       </c>
@@ -2744,10 +3781,10 @@
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="78">
+      <c r="A9" s="81">
         <v>980</v>
       </c>
-      <c r="B9" s="79"/>
+      <c r="B9" s="82"/>
       <c r="C9" s="16" t="s">
         <v>30</v>
       </c>
@@ -2766,10 +3803,10 @@
       <c r="H9" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="K9" s="78">
+      <c r="K9" s="81">
         <v>980</v>
       </c>
-      <c r="L9" s="79"/>
+      <c r="L9" s="82"/>
       <c r="M9" s="16" t="s">
         <v>30</v>
       </c>
@@ -2790,8 +3827,8 @@
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="80"/>
-      <c r="B10" s="81"/>
+      <c r="A10" s="83"/>
+      <c r="B10" s="84"/>
       <c r="C10" s="16" t="s">
         <v>21</v>
       </c>
@@ -2810,8 +3847,8 @@
       <c r="H10" s="16">
         <v>33</v>
       </c>
-      <c r="K10" s="80"/>
-      <c r="L10" s="81"/>
+      <c r="K10" s="83"/>
+      <c r="L10" s="84"/>
       <c r="M10" s="16" t="s">
         <v>21</v>
       </c>
@@ -2832,8 +3869,8 @@
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="80"/>
-      <c r="B11" s="81"/>
+      <c r="A11" s="83"/>
+      <c r="B11" s="84"/>
       <c r="C11" s="16" t="s">
         <v>35</v>
       </c>
@@ -2857,8 +3894,8 @@
         <f>($A$9-H10)/$A$9</f>
         <v>0.96632653061224494</v>
       </c>
-      <c r="K11" s="80"/>
-      <c r="L11" s="81"/>
+      <c r="K11" s="83"/>
+      <c r="L11" s="84"/>
       <c r="M11" s="16" t="s">
         <v>35</v>
       </c>
@@ -2884,8 +3921,8 @@
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="80"/>
-      <c r="B12" s="81"/>
+      <c r="A12" s="83"/>
+      <c r="B12" s="84"/>
       <c r="C12" s="16" t="s">
         <v>22</v>
       </c>
@@ -2904,8 +3941,8 @@
       <c r="H12" s="16">
         <v>564</v>
       </c>
-      <c r="K12" s="80"/>
-      <c r="L12" s="81"/>
+      <c r="K12" s="83"/>
+      <c r="L12" s="84"/>
       <c r="M12" s="16" t="s">
         <v>22</v>
       </c>
@@ -2926,8 +3963,8 @@
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="82"/>
-      <c r="B13" s="83"/>
+      <c r="A13" s="85"/>
+      <c r="B13" s="86"/>
       <c r="C13" s="16" t="s">
         <v>34</v>
       </c>
@@ -2951,8 +3988,8 @@
         <f>($A$9-H12)/$A$9</f>
         <v>0.42448979591836733</v>
       </c>
-      <c r="K13" s="82"/>
-      <c r="L13" s="83"/>
+      <c r="K13" s="85"/>
+      <c r="L13" s="86"/>
       <c r="M13" s="16" t="s">
         <v>34</v>
       </c>
@@ -2978,10 +4015,10 @@
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="84">
+      <c r="A14" s="66">
         <v>1280</v>
       </c>
-      <c r="B14" s="85"/>
+      <c r="B14" s="67"/>
       <c r="C14" s="13" t="s">
         <v>30</v>
       </c>
@@ -3000,10 +4037,10 @@
       <c r="H14" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="84">
+      <c r="K14" s="66">
         <v>1280</v>
       </c>
-      <c r="L14" s="85"/>
+      <c r="L14" s="67"/>
       <c r="M14" s="13" t="s">
         <v>30</v>
       </c>
@@ -3024,8 +4061,8 @@
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="86"/>
-      <c r="B15" s="87"/>
+      <c r="A15" s="68"/>
+      <c r="B15" s="69"/>
       <c r="C15" s="4" t="s">
         <v>21</v>
       </c>
@@ -3042,8 +4079,8 @@
         <v>68</v>
       </c>
       <c r="H15" s="5"/>
-      <c r="K15" s="86"/>
-      <c r="L15" s="87"/>
+      <c r="K15" s="68"/>
+      <c r="L15" s="69"/>
       <c r="M15" s="4" t="s">
         <v>21</v>
       </c>
@@ -3064,8 +4101,8 @@
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="86"/>
-      <c r="B16" s="87"/>
+      <c r="A16" s="68"/>
+      <c r="B16" s="69"/>
       <c r="C16" s="4" t="s">
         <v>35</v>
       </c>
@@ -3089,8 +4126,8 @@
         <f>($A$14-H15)/$A$14</f>
         <v>1</v>
       </c>
-      <c r="K16" s="86"/>
-      <c r="L16" s="87"/>
+      <c r="K16" s="68"/>
+      <c r="L16" s="69"/>
       <c r="M16" s="4" t="s">
         <v>35</v>
       </c>
@@ -3116,8 +4153,8 @@
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="86"/>
-      <c r="B17" s="87"/>
+      <c r="A17" s="68"/>
+      <c r="B17" s="69"/>
       <c r="C17" s="4" t="s">
         <v>22</v>
       </c>
@@ -3134,8 +4171,8 @@
         <v>1120</v>
       </c>
       <c r="H17" s="5"/>
-      <c r="K17" s="86"/>
-      <c r="L17" s="87"/>
+      <c r="K17" s="68"/>
+      <c r="L17" s="69"/>
       <c r="M17" s="4" t="s">
         <v>22</v>
       </c>
@@ -3156,8 +4193,8 @@
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="88"/>
-      <c r="B18" s="89"/>
+      <c r="A18" s="70"/>
+      <c r="B18" s="71"/>
       <c r="C18" s="4" t="s">
         <v>34</v>
       </c>
@@ -3181,8 +4218,8 @@
         <f>($A$14-H17)/$A$14</f>
         <v>1</v>
       </c>
-      <c r="K18" s="88"/>
-      <c r="L18" s="89"/>
+      <c r="K18" s="70"/>
+      <c r="L18" s="71"/>
       <c r="M18" s="4" t="s">
         <v>34</v>
       </c>
@@ -3208,10 +4245,10 @@
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="65">
+      <c r="A19" s="87">
         <v>1345</v>
       </c>
-      <c r="B19" s="66"/>
+      <c r="B19" s="88"/>
       <c r="C19" s="7" t="s">
         <v>30</v>
       </c>
@@ -3230,10 +4267,10 @@
       <c r="H19" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="K19" s="65">
+      <c r="K19" s="87">
         <v>1345</v>
       </c>
-      <c r="L19" s="66"/>
+      <c r="L19" s="88"/>
       <c r="M19" s="7" t="s">
         <v>30</v>
       </c>
@@ -3254,8 +4291,8 @@
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="67"/>
-      <c r="B20" s="68"/>
+      <c r="A20" s="89"/>
+      <c r="B20" s="90"/>
       <c r="C20" s="7" t="s">
         <v>21</v>
       </c>
@@ -3272,8 +4309,8 @@
         <v>129</v>
       </c>
       <c r="H20" s="5"/>
-      <c r="K20" s="67"/>
-      <c r="L20" s="68"/>
+      <c r="K20" s="89"/>
+      <c r="L20" s="90"/>
       <c r="M20" s="7" t="s">
         <v>21</v>
       </c>
@@ -3294,8 +4331,8 @@
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21" s="67"/>
-      <c r="B21" s="68"/>
+      <c r="A21" s="89"/>
+      <c r="B21" s="90"/>
       <c r="C21" s="7" t="s">
         <v>35</v>
       </c>
@@ -3316,8 +4353,8 @@
         <v>0.90408921933085507</v>
       </c>
       <c r="H21" s="5"/>
-      <c r="K21" s="67"/>
-      <c r="L21" s="68"/>
+      <c r="K21" s="89"/>
+      <c r="L21" s="90"/>
       <c r="M21" s="7" t="s">
         <v>35</v>
       </c>
@@ -3343,8 +4380,8 @@
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A22" s="67"/>
-      <c r="B22" s="68"/>
+      <c r="A22" s="89"/>
+      <c r="B22" s="90"/>
       <c r="C22" s="7" t="s">
         <v>22</v>
       </c>
@@ -3361,8 +4398,8 @@
         <v>1182</v>
       </c>
       <c r="H22" s="5"/>
-      <c r="K22" s="67"/>
-      <c r="L22" s="68"/>
+      <c r="K22" s="89"/>
+      <c r="L22" s="90"/>
       <c r="M22" s="7" t="s">
         <v>22</v>
       </c>
@@ -3381,8 +4418,8 @@
       <c r="R22" s="5"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A23" s="69"/>
-      <c r="B23" s="70"/>
+      <c r="A23" s="91"/>
+      <c r="B23" s="92"/>
       <c r="C23" s="7" t="s">
         <v>34</v>
       </c>
@@ -3403,8 +4440,8 @@
         <v>0.12118959107806691</v>
       </c>
       <c r="H23" s="5"/>
-      <c r="K23" s="69"/>
-      <c r="L23" s="70"/>
+      <c r="K23" s="91"/>
+      <c r="L23" s="92"/>
       <c r="M23" s="7" t="s">
         <v>34</v>
       </c>
@@ -3427,10 +4464,10 @@
       <c r="R23" s="5"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="K24" s="71">
+      <c r="K24" s="93">
         <v>1640</v>
       </c>
-      <c r="L24" s="71"/>
+      <c r="L24" s="93"/>
       <c r="M24" s="24" t="s">
         <v>30</v>
       </c>
@@ -3451,10 +4488,10 @@
       </c>
     </row>
     <row r="28" spans="1:18" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="90" t="s">
+      <c r="A28" s="73" t="s">
         <v>31</v>
       </c>
-      <c r="B28" s="91"/>
+      <c r="B28" s="74"/>
       <c r="C28" s="14"/>
       <c r="D28" s="15" t="s">
         <v>1</v>
@@ -3471,10 +4508,10 @@
       <c r="H28" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="K28" s="90" t="s">
+      <c r="K28" s="73" t="s">
         <v>31</v>
       </c>
-      <c r="L28" s="91"/>
+      <c r="L28" s="74"/>
       <c r="M28" s="14"/>
       <c r="N28" s="15" t="s">
         <v>1</v>
@@ -3493,10 +4530,10 @@
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A29" s="72">
+      <c r="A29" s="75">
         <v>584</v>
       </c>
-      <c r="B29" s="73"/>
+      <c r="B29" s="76"/>
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -3516,10 +4553,10 @@
         <v>8.1119999999999994E-3</v>
       </c>
       <c r="J29" s="24"/>
-      <c r="K29" s="72">
+      <c r="K29" s="75">
         <v>584</v>
       </c>
-      <c r="L29" s="73"/>
+      <c r="L29" s="76"/>
       <c r="M29" s="1" t="s">
         <v>23</v>
       </c>
@@ -3540,8 +4577,8 @@
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A30" s="74"/>
-      <c r="B30" s="75"/>
+      <c r="A30" s="77"/>
+      <c r="B30" s="78"/>
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -3560,8 +4597,8 @@
       <c r="H30" s="1">
         <v>3.248E-3</v>
       </c>
-      <c r="K30" s="74"/>
-      <c r="L30" s="75"/>
+      <c r="K30" s="77"/>
+      <c r="L30" s="78"/>
       <c r="M30" s="1" t="s">
         <v>24</v>
       </c>
@@ -3582,8 +4619,8 @@
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A31" s="74"/>
-      <c r="B31" s="75"/>
+      <c r="A31" s="77"/>
+      <c r="B31" s="78"/>
       <c r="C31" s="19" t="s">
         <v>32</v>
       </c>
@@ -3607,8 +4644,8 @@
         <f t="shared" si="0"/>
         <v>1.1359999999999999E-2</v>
       </c>
-      <c r="K31" s="74"/>
-      <c r="L31" s="75"/>
+      <c r="K31" s="77"/>
+      <c r="L31" s="78"/>
       <c r="M31" s="19" t="s">
         <v>32</v>
       </c>
@@ -3634,8 +4671,8 @@
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A32" s="74"/>
-      <c r="B32" s="75"/>
+      <c r="A32" s="77"/>
+      <c r="B32" s="78"/>
       <c r="C32" s="1" t="s">
         <v>25</v>
       </c>
@@ -3655,8 +4692,8 @@
         <v>4.0691999999999999E-2</v>
       </c>
       <c r="J32" s="24"/>
-      <c r="K32" s="74"/>
-      <c r="L32" s="75"/>
+      <c r="K32" s="77"/>
+      <c r="L32" s="78"/>
       <c r="M32" s="1" t="s">
         <v>25</v>
       </c>
@@ -3677,8 +4714,8 @@
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A33" s="74"/>
-      <c r="B33" s="75"/>
+      <c r="A33" s="77"/>
+      <c r="B33" s="78"/>
       <c r="C33" s="1" t="s">
         <v>26</v>
       </c>
@@ -3697,8 +4734,8 @@
       <c r="H33" s="1">
         <v>1.7328E-2</v>
       </c>
-      <c r="K33" s="74"/>
-      <c r="L33" s="75"/>
+      <c r="K33" s="77"/>
+      <c r="L33" s="78"/>
       <c r="M33" s="1" t="s">
         <v>26</v>
       </c>
@@ -3719,8 +4756,8 @@
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A34" s="76"/>
-      <c r="B34" s="77"/>
+      <c r="A34" s="79"/>
+      <c r="B34" s="80"/>
       <c r="C34" s="19" t="s">
         <v>32</v>
       </c>
@@ -3744,8 +4781,8 @@
         <f t="shared" si="2"/>
         <v>5.8020000000000002E-2</v>
       </c>
-      <c r="K34" s="76"/>
-      <c r="L34" s="77"/>
+      <c r="K34" s="79"/>
+      <c r="L34" s="80"/>
       <c r="M34" s="19" t="s">
         <v>32</v>
       </c>
@@ -3771,10 +4808,10 @@
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A35" s="78">
+      <c r="A35" s="81">
         <v>980</v>
       </c>
-      <c r="B35" s="79"/>
+      <c r="B35" s="82"/>
       <c r="C35" s="16" t="s">
         <v>23</v>
       </c>
@@ -3794,10 +4831,10 @@
         <v>1.2716E-2</v>
       </c>
       <c r="J35" s="24"/>
-      <c r="K35" s="78">
+      <c r="K35" s="81">
         <v>980</v>
       </c>
-      <c r="L35" s="79"/>
+      <c r="L35" s="82"/>
       <c r="M35" s="16" t="s">
         <v>23</v>
       </c>
@@ -3818,8 +4855,8 @@
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A36" s="80"/>
-      <c r="B36" s="81"/>
+      <c r="A36" s="83"/>
+      <c r="B36" s="84"/>
       <c r="C36" s="16" t="s">
         <v>24</v>
       </c>
@@ -3838,8 +4875,8 @@
       <c r="H36" s="16">
         <v>5.1999999999999998E-3</v>
       </c>
-      <c r="K36" s="80"/>
-      <c r="L36" s="81"/>
+      <c r="K36" s="83"/>
+      <c r="L36" s="84"/>
       <c r="M36" s="16" t="s">
         <v>24</v>
       </c>
@@ -3860,8 +4897,8 @@
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A37" s="80"/>
-      <c r="B37" s="81"/>
+      <c r="A37" s="83"/>
+      <c r="B37" s="84"/>
       <c r="C37" s="19" t="s">
         <v>32</v>
       </c>
@@ -3885,8 +4922,8 @@
         <f t="shared" si="4"/>
         <v>1.7916000000000001E-2</v>
       </c>
-      <c r="K37" s="80"/>
-      <c r="L37" s="81"/>
+      <c r="K37" s="83"/>
+      <c r="L37" s="84"/>
       <c r="M37" s="19" t="s">
         <v>32</v>
       </c>
@@ -3912,8 +4949,8 @@
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A38" s="80"/>
-      <c r="B38" s="81"/>
+      <c r="A38" s="83"/>
+      <c r="B38" s="84"/>
       <c r="C38" s="16" t="s">
         <v>25</v>
       </c>
@@ -3933,8 +4970,8 @@
         <v>5.5975999999999998E-2</v>
       </c>
       <c r="J38" s="24"/>
-      <c r="K38" s="80"/>
-      <c r="L38" s="81"/>
+      <c r="K38" s="83"/>
+      <c r="L38" s="84"/>
       <c r="M38" s="16" t="s">
         <v>25</v>
       </c>
@@ -3955,8 +4992,8 @@
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A39" s="80"/>
-      <c r="B39" s="81"/>
+      <c r="A39" s="83"/>
+      <c r="B39" s="84"/>
       <c r="C39" s="16" t="s">
         <v>26</v>
       </c>
@@ -3975,8 +5012,8 @@
       <c r="H39" s="16">
         <v>2.3768000000000001E-2</v>
       </c>
-      <c r="K39" s="80"/>
-      <c r="L39" s="81"/>
+      <c r="K39" s="83"/>
+      <c r="L39" s="84"/>
       <c r="M39" s="16" t="s">
         <v>26</v>
       </c>
@@ -3997,8 +5034,8 @@
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A40" s="82"/>
-      <c r="B40" s="83"/>
+      <c r="A40" s="85"/>
+      <c r="B40" s="86"/>
       <c r="C40" s="19" t="s">
         <v>32</v>
       </c>
@@ -4022,8 +5059,8 @@
         <f t="shared" si="6"/>
         <v>7.9743999999999995E-2</v>
       </c>
-      <c r="K40" s="82"/>
-      <c r="L40" s="83"/>
+      <c r="K40" s="85"/>
+      <c r="L40" s="86"/>
       <c r="M40" s="19" t="s">
         <v>32</v>
       </c>
@@ -4049,10 +5086,10 @@
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A41" s="84">
+      <c r="A41" s="66">
         <v>1280</v>
       </c>
-      <c r="B41" s="85"/>
+      <c r="B41" s="67"/>
       <c r="C41" s="4" t="s">
         <v>23</v>
       </c>
@@ -4070,10 +5107,10 @@
       </c>
       <c r="H41" s="5"/>
       <c r="J41" s="24"/>
-      <c r="K41" s="84">
+      <c r="K41" s="66">
         <v>1280</v>
       </c>
-      <c r="L41" s="85"/>
+      <c r="L41" s="67"/>
       <c r="M41" s="4" t="s">
         <v>23</v>
       </c>
@@ -4094,8 +5131,8 @@
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A42" s="86"/>
-      <c r="B42" s="87"/>
+      <c r="A42" s="68"/>
+      <c r="B42" s="69"/>
       <c r="C42" s="4" t="s">
         <v>24</v>
       </c>
@@ -4112,8 +5149,8 @@
         <v>9.476E-3</v>
       </c>
       <c r="H42" s="5"/>
-      <c r="K42" s="86"/>
-      <c r="L42" s="87"/>
+      <c r="K42" s="68"/>
+      <c r="L42" s="69"/>
       <c r="M42" s="4" t="s">
         <v>24</v>
       </c>
@@ -4134,8 +5171,8 @@
       </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A43" s="86"/>
-      <c r="B43" s="87"/>
+      <c r="A43" s="68"/>
+      <c r="B43" s="69"/>
       <c r="C43" s="19" t="s">
         <v>32</v>
       </c>
@@ -4156,8 +5193,8 @@
         <v>2.7875999999999998E-2</v>
       </c>
       <c r="H43" s="5"/>
-      <c r="K43" s="86"/>
-      <c r="L43" s="87"/>
+      <c r="K43" s="68"/>
+      <c r="L43" s="69"/>
       <c r="M43" s="19" t="s">
         <v>32</v>
       </c>
@@ -4183,8 +5220,8 @@
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A44" s="86"/>
-      <c r="B44" s="87"/>
+      <c r="A44" s="68"/>
+      <c r="B44" s="69"/>
       <c r="C44" s="4" t="s">
         <v>25</v>
       </c>
@@ -4202,8 +5239,8 @@
       </c>
       <c r="H44" s="5"/>
       <c r="J44" s="24"/>
-      <c r="K44" s="86"/>
-      <c r="L44" s="87"/>
+      <c r="K44" s="68"/>
+      <c r="L44" s="69"/>
       <c r="M44" s="4" t="s">
         <v>25</v>
       </c>
@@ -4224,8 +5261,8 @@
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A45" s="86"/>
-      <c r="B45" s="87"/>
+      <c r="A45" s="68"/>
+      <c r="B45" s="69"/>
       <c r="C45" s="4" t="s">
         <v>26</v>
       </c>
@@ -4242,8 +5279,8 @@
         <v>4.3580000000000001E-2</v>
       </c>
       <c r="H45" s="5"/>
-      <c r="K45" s="86"/>
-      <c r="L45" s="87"/>
+      <c r="K45" s="68"/>
+      <c r="L45" s="69"/>
       <c r="M45" s="4" t="s">
         <v>26</v>
       </c>
@@ -4264,8 +5301,8 @@
       </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A46" s="88"/>
-      <c r="B46" s="89"/>
+      <c r="A46" s="70"/>
+      <c r="B46" s="71"/>
       <c r="C46" s="19" t="s">
         <v>32</v>
       </c>
@@ -4286,8 +5323,8 @@
         <v>0.146428</v>
       </c>
       <c r="H46" s="5"/>
-      <c r="K46" s="88"/>
-      <c r="L46" s="89"/>
+      <c r="K46" s="70"/>
+      <c r="L46" s="71"/>
       <c r="M46" s="19" t="s">
         <v>32</v>
       </c>
@@ -4313,10 +5350,10 @@
       </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A47" s="65">
+      <c r="A47" s="87">
         <v>1345</v>
       </c>
-      <c r="B47" s="66"/>
+      <c r="B47" s="88"/>
       <c r="C47" s="7" t="s">
         <v>23</v>
       </c>
@@ -4334,10 +5371,10 @@
       </c>
       <c r="H47" s="5"/>
       <c r="J47" s="24"/>
-      <c r="K47" s="65">
+      <c r="K47" s="87">
         <v>1345</v>
       </c>
-      <c r="L47" s="66"/>
+      <c r="L47" s="88"/>
       <c r="M47" s="7" t="s">
         <v>23</v>
       </c>
@@ -4358,8 +5395,8 @@
       </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A48" s="67"/>
-      <c r="B48" s="68"/>
+      <c r="A48" s="89"/>
+      <c r="B48" s="90"/>
       <c r="C48" s="7" t="s">
         <v>24</v>
       </c>
@@ -4376,8 +5413,8 @@
         <v>9.9319999999999999E-3</v>
       </c>
       <c r="H48" s="5"/>
-      <c r="K48" s="67"/>
-      <c r="L48" s="68"/>
+      <c r="K48" s="89"/>
+      <c r="L48" s="90"/>
       <c r="M48" s="7" t="s">
         <v>24</v>
       </c>
@@ -4396,8 +5433,8 @@
       <c r="R48" s="5"/>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A49" s="67"/>
-      <c r="B49" s="68"/>
+      <c r="A49" s="89"/>
+      <c r="B49" s="90"/>
       <c r="C49" s="19" t="s">
         <v>32</v>
       </c>
@@ -4418,8 +5455,8 @@
         <v>2.8931999999999999E-2</v>
       </c>
       <c r="H49" s="5"/>
-      <c r="K49" s="67"/>
-      <c r="L49" s="68"/>
+      <c r="K49" s="89"/>
+      <c r="L49" s="90"/>
       <c r="M49" s="19" t="s">
         <v>32</v>
       </c>
@@ -4442,8 +5479,8 @@
       <c r="R49" s="5"/>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A50" s="67"/>
-      <c r="B50" s="68"/>
+      <c r="A50" s="89"/>
+      <c r="B50" s="90"/>
       <c r="C50" s="7" t="s">
         <v>25</v>
       </c>
@@ -4461,8 +5498,8 @@
       </c>
       <c r="H50" s="5"/>
       <c r="J50" s="24"/>
-      <c r="K50" s="67"/>
-      <c r="L50" s="68"/>
+      <c r="K50" s="89"/>
+      <c r="L50" s="90"/>
       <c r="M50" s="7" t="s">
         <v>25</v>
       </c>
@@ -4481,8 +5518,8 @@
       <c r="R50" s="5"/>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A51" s="67"/>
-      <c r="B51" s="68"/>
+      <c r="A51" s="89"/>
+      <c r="B51" s="90"/>
       <c r="C51" s="7" t="s">
         <v>26</v>
       </c>
@@ -4499,8 +5536,8 @@
         <v>4.5887999999999998E-2</v>
       </c>
       <c r="H51" s="5"/>
-      <c r="K51" s="67"/>
-      <c r="L51" s="68"/>
+      <c r="K51" s="89"/>
+      <c r="L51" s="90"/>
       <c r="M51" s="7" t="s">
         <v>26</v>
       </c>
@@ -4519,8 +5556,8 @@
       <c r="R51" s="5"/>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A52" s="69"/>
-      <c r="B52" s="70"/>
+      <c r="A52" s="91"/>
+      <c r="B52" s="92"/>
       <c r="C52" s="19" t="s">
         <v>32</v>
       </c>
@@ -4541,8 +5578,8 @@
         <v>0.15465999999999999</v>
       </c>
       <c r="H52" s="5"/>
-      <c r="K52" s="69"/>
-      <c r="L52" s="70"/>
+      <c r="K52" s="91"/>
+      <c r="L52" s="92"/>
       <c r="M52" s="19" t="s">
         <v>32</v>
       </c>
@@ -4566,13 +5603,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="K41:L46"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="K2:R2"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="K4:L8"/>
-    <mergeCell ref="K9:L13"/>
-    <mergeCell ref="A3:B3"/>
     <mergeCell ref="K47:L52"/>
     <mergeCell ref="K24:L24"/>
     <mergeCell ref="A47:B52"/>
@@ -4589,6 +5619,13 @@
     <mergeCell ref="K28:L28"/>
     <mergeCell ref="K29:L34"/>
     <mergeCell ref="K35:L40"/>
+    <mergeCell ref="K41:L46"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="K2:R2"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="K4:L8"/>
+    <mergeCell ref="K9:L13"/>
+    <mergeCell ref="A3:B3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4626,32 +5663,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="72" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="92"/>
-      <c r="J1" s="92"/>
-      <c r="K1" s="92"/>
-      <c r="L1" s="92"/>
-      <c r="M1" s="92"/>
-      <c r="N1" s="92"/>
-      <c r="O1" s="92"/>
-      <c r="P1" s="92"/>
-      <c r="Q1" s="92"/>
-      <c r="R1" s="92"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="72"/>
+      <c r="O1" s="72"/>
+      <c r="P1" s="72"/>
+      <c r="Q1" s="72"/>
+      <c r="R1" s="72"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="90" t="s">
+      <c r="A2" s="73" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="91"/>
+      <c r="B2" s="74"/>
       <c r="C2" s="14"/>
       <c r="D2" s="15" t="s">
         <v>1</v>
@@ -4703,10 +5740,10 @@
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="72">
+      <c r="A3" s="75">
         <v>584</v>
       </c>
-      <c r="B3" s="73"/>
+      <c r="B3" s="76"/>
       <c r="C3" s="1" t="s">
         <v>30</v>
       </c>
@@ -4760,8 +5797,8 @@
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="74"/>
-      <c r="B4" s="75"/>
+      <c r="A4" s="77"/>
+      <c r="B4" s="78"/>
       <c r="C4" s="1" t="s">
         <v>21</v>
       </c>
@@ -4815,8 +5852,8 @@
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="74"/>
-      <c r="B5" s="75"/>
+      <c r="A5" s="77"/>
+      <c r="B5" s="78"/>
       <c r="C5" s="1" t="s">
         <v>33</v>
       </c>
@@ -4886,8 +5923,8 @@
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="74"/>
-      <c r="B6" s="75"/>
+      <c r="A6" s="77"/>
+      <c r="B6" s="78"/>
       <c r="C6" s="1" t="s">
         <v>22</v>
       </c>
@@ -4941,8 +5978,8 @@
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="76"/>
-      <c r="B7" s="77"/>
+      <c r="A7" s="79"/>
+      <c r="B7" s="80"/>
       <c r="C7" s="1" t="s">
         <v>34</v>
       </c>
@@ -5012,10 +6049,10 @@
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="78">
+      <c r="A8" s="81">
         <v>980</v>
       </c>
-      <c r="B8" s="79"/>
+      <c r="B8" s="82"/>
       <c r="C8" s="16" t="s">
         <v>30</v>
       </c>
@@ -5066,8 +6103,8 @@
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="80"/>
-      <c r="B9" s="81"/>
+      <c r="A9" s="83"/>
+      <c r="B9" s="84"/>
       <c r="C9" s="16" t="s">
         <v>21</v>
       </c>
@@ -5121,8 +6158,8 @@
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="80"/>
-      <c r="B10" s="81"/>
+      <c r="A10" s="83"/>
+      <c r="B10" s="84"/>
       <c r="C10" s="16" t="s">
         <v>35</v>
       </c>
@@ -5188,8 +6225,8 @@
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="80"/>
-      <c r="B11" s="81"/>
+      <c r="A11" s="83"/>
+      <c r="B11" s="84"/>
       <c r="C11" s="16" t="s">
         <v>22</v>
       </c>
@@ -5243,8 +6280,8 @@
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="82"/>
-      <c r="B12" s="83"/>
+      <c r="A12" s="85"/>
+      <c r="B12" s="86"/>
       <c r="C12" s="16" t="s">
         <v>34</v>
       </c>
@@ -5310,10 +6347,10 @@
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="84">
+      <c r="A13" s="66">
         <v>1280</v>
       </c>
-      <c r="B13" s="85"/>
+      <c r="B13" s="67"/>
       <c r="C13" s="13" t="s">
         <v>30</v>
       </c>
@@ -5364,8 +6401,8 @@
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="86"/>
-      <c r="B14" s="87"/>
+      <c r="A14" s="68"/>
+      <c r="B14" s="69"/>
       <c r="C14" s="4" t="s">
         <v>21</v>
       </c>
@@ -5419,8 +6456,8 @@
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="86"/>
-      <c r="B15" s="87"/>
+      <c r="A15" s="68"/>
+      <c r="B15" s="69"/>
       <c r="C15" s="4" t="s">
         <v>35</v>
       </c>
@@ -5486,8 +6523,8 @@
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="86"/>
-      <c r="B16" s="87"/>
+      <c r="A16" s="68"/>
+      <c r="B16" s="69"/>
       <c r="C16" s="4" t="s">
         <v>22</v>
       </c>
@@ -5541,8 +6578,8 @@
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A17" s="88"/>
-      <c r="B17" s="89"/>
+      <c r="A17" s="70"/>
+      <c r="B17" s="71"/>
       <c r="C17" s="4" t="s">
         <v>34</v>
       </c>
@@ -5608,10 +6645,10 @@
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A18" s="65">
+      <c r="A18" s="87">
         <v>1345</v>
       </c>
-      <c r="B18" s="66"/>
+      <c r="B18" s="88"/>
       <c r="C18" s="7" t="s">
         <v>30</v>
       </c>
@@ -5665,8 +6702,8 @@
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A19" s="67"/>
-      <c r="B19" s="68"/>
+      <c r="A19" s="89"/>
+      <c r="B19" s="90"/>
       <c r="C19" s="7" t="s">
         <v>21</v>
       </c>
@@ -5723,8 +6760,8 @@
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A20" s="67"/>
-      <c r="B20" s="68"/>
+      <c r="A20" s="89"/>
+      <c r="B20" s="90"/>
       <c r="C20" s="7" t="s">
         <v>35</v>
       </c>
@@ -5790,8 +6827,8 @@
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A21" s="67"/>
-      <c r="B21" s="68"/>
+      <c r="A21" s="89"/>
+      <c r="B21" s="90"/>
       <c r="C21" s="7" t="s">
         <v>22</v>
       </c>
@@ -5845,8 +6882,8 @@
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A22" s="69"/>
-      <c r="B22" s="70"/>
+      <c r="A22" s="91"/>
+      <c r="B22" s="92"/>
       <c r="C22" s="7" t="s">
         <v>34</v>
       </c>
@@ -5912,10 +6949,10 @@
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A23" s="93">
+      <c r="A23" s="94">
         <v>1640</v>
       </c>
-      <c r="B23" s="94"/>
+      <c r="B23" s="95"/>
       <c r="C23" s="39" t="s">
         <v>30</v>
       </c>
@@ -5946,8 +6983,8 @@
       <c r="R23" s="40"/>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A24" s="95"/>
-      <c r="B24" s="96"/>
+      <c r="A24" s="96"/>
+      <c r="B24" s="97"/>
       <c r="C24" s="39" t="s">
         <v>21</v>
       </c>
@@ -5979,8 +7016,8 @@
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A25" s="95"/>
-      <c r="B25" s="96"/>
+      <c r="A25" s="96"/>
+      <c r="B25" s="97"/>
       <c r="C25" s="39" t="s">
         <v>35</v>
       </c>
@@ -6043,8 +7080,8 @@
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A26" s="95"/>
-      <c r="B26" s="96"/>
+      <c r="A26" s="96"/>
+      <c r="B26" s="97"/>
       <c r="C26" s="39" t="s">
         <v>22</v>
       </c>
@@ -6076,8 +7113,8 @@
       </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A27" s="97"/>
-      <c r="B27" s="98"/>
+      <c r="A27" s="98"/>
+      <c r="B27" s="99"/>
       <c r="C27" s="39" t="s">
         <v>34</v>
       </c>
@@ -6151,10 +7188,10 @@
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A33" s="90" t="s">
+      <c r="A33" s="73" t="s">
         <v>31</v>
       </c>
-      <c r="B33" s="91"/>
+      <c r="B33" s="74"/>
       <c r="C33" s="14"/>
       <c r="D33" s="15" t="s">
         <v>1</v>
@@ -6203,10 +7240,10 @@
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A34" s="72">
+      <c r="A34" s="75">
         <v>584</v>
       </c>
-      <c r="B34" s="73"/>
+      <c r="B34" s="76"/>
       <c r="C34" s="1" t="s">
         <v>23</v>
       </c>
@@ -6257,8 +7294,8 @@
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A35" s="74"/>
-      <c r="B35" s="75"/>
+      <c r="A35" s="77"/>
+      <c r="B35" s="78"/>
       <c r="C35" s="1" t="s">
         <v>24</v>
       </c>
@@ -6309,8 +7346,8 @@
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A36" s="74"/>
-      <c r="B36" s="75"/>
+      <c r="A36" s="77"/>
+      <c r="B36" s="78"/>
       <c r="C36" s="19" t="s">
         <v>32</v>
       </c>
@@ -6376,8 +7413,8 @@
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A37" s="74"/>
-      <c r="B37" s="75"/>
+      <c r="A37" s="77"/>
+      <c r="B37" s="78"/>
       <c r="C37" s="1" t="s">
         <v>25</v>
       </c>
@@ -6428,8 +7465,8 @@
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A38" s="74"/>
-      <c r="B38" s="75"/>
+      <c r="A38" s="77"/>
+      <c r="B38" s="78"/>
       <c r="C38" s="1" t="s">
         <v>26</v>
       </c>
@@ -6480,8 +7517,8 @@
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A39" s="76"/>
-      <c r="B39" s="77"/>
+      <c r="A39" s="79"/>
+      <c r="B39" s="80"/>
       <c r="C39" s="19" t="s">
         <v>32</v>
       </c>
@@ -6547,10 +7584,10 @@
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A40" s="78">
+      <c r="A40" s="81">
         <v>980</v>
       </c>
-      <c r="B40" s="79"/>
+      <c r="B40" s="82"/>
       <c r="C40" s="16" t="s">
         <v>23</v>
       </c>
@@ -6601,8 +7638,8 @@
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A41" s="80"/>
-      <c r="B41" s="81"/>
+      <c r="A41" s="83"/>
+      <c r="B41" s="84"/>
       <c r="C41" s="16" t="s">
         <v>24</v>
       </c>
@@ -6653,8 +7690,8 @@
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A42" s="80"/>
-      <c r="B42" s="81"/>
+      <c r="A42" s="83"/>
+      <c r="B42" s="84"/>
       <c r="C42" s="19" t="s">
         <v>32</v>
       </c>
@@ -6720,8 +7757,8 @@
       </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A43" s="80"/>
-      <c r="B43" s="81"/>
+      <c r="A43" s="83"/>
+      <c r="B43" s="84"/>
       <c r="C43" s="16" t="s">
         <v>25</v>
       </c>
@@ -6772,8 +7809,8 @@
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A44" s="80"/>
-      <c r="B44" s="81"/>
+      <c r="A44" s="83"/>
+      <c r="B44" s="84"/>
       <c r="C44" s="16" t="s">
         <v>26</v>
       </c>
@@ -6824,8 +7861,8 @@
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A45" s="82"/>
-      <c r="B45" s="83"/>
+      <c r="A45" s="85"/>
+      <c r="B45" s="86"/>
       <c r="C45" s="19" t="s">
         <v>32</v>
       </c>
@@ -6891,10 +7928,10 @@
       </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A46" s="84">
+      <c r="A46" s="66">
         <v>1280</v>
       </c>
-      <c r="B46" s="85"/>
+      <c r="B46" s="67"/>
       <c r="C46" s="4" t="s">
         <v>23</v>
       </c>
@@ -6945,8 +7982,8 @@
       </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A47" s="86"/>
-      <c r="B47" s="87"/>
+      <c r="A47" s="68"/>
+      <c r="B47" s="69"/>
       <c r="C47" s="4" t="s">
         <v>24</v>
       </c>
@@ -6997,8 +8034,8 @@
       </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A48" s="86"/>
-      <c r="B48" s="87"/>
+      <c r="A48" s="68"/>
+      <c r="B48" s="69"/>
       <c r="C48" s="19" t="s">
         <v>32</v>
       </c>
@@ -7064,8 +8101,8 @@
       </c>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A49" s="86"/>
-      <c r="B49" s="87"/>
+      <c r="A49" s="68"/>
+      <c r="B49" s="69"/>
       <c r="C49" s="4" t="s">
         <v>25</v>
       </c>
@@ -7116,8 +8153,8 @@
       </c>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A50" s="86"/>
-      <c r="B50" s="87"/>
+      <c r="A50" s="68"/>
+      <c r="B50" s="69"/>
       <c r="C50" s="4" t="s">
         <v>26</v>
       </c>
@@ -7168,8 +8205,8 @@
       </c>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A51" s="88"/>
-      <c r="B51" s="89"/>
+      <c r="A51" s="70"/>
+      <c r="B51" s="71"/>
       <c r="C51" s="19" t="s">
         <v>32</v>
       </c>
@@ -7235,10 +8272,10 @@
       </c>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A52" s="65">
+      <c r="A52" s="87">
         <v>1345</v>
       </c>
-      <c r="B52" s="66"/>
+      <c r="B52" s="88"/>
       <c r="C52" s="7" t="s">
         <v>23</v>
       </c>
@@ -7289,8 +8326,8 @@
       </c>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A53" s="67"/>
-      <c r="B53" s="68"/>
+      <c r="A53" s="89"/>
+      <c r="B53" s="90"/>
       <c r="C53" s="7" t="s">
         <v>24</v>
       </c>
@@ -7341,8 +8378,8 @@
       </c>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A54" s="67"/>
-      <c r="B54" s="68"/>
+      <c r="A54" s="89"/>
+      <c r="B54" s="90"/>
       <c r="C54" s="19" t="s">
         <v>32</v>
       </c>
@@ -7408,8 +8445,8 @@
       </c>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A55" s="67"/>
-      <c r="B55" s="68"/>
+      <c r="A55" s="89"/>
+      <c r="B55" s="90"/>
       <c r="C55" s="7" t="s">
         <v>25</v>
       </c>
@@ -7460,8 +8497,8 @@
       </c>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A56" s="67"/>
-      <c r="B56" s="68"/>
+      <c r="A56" s="89"/>
+      <c r="B56" s="90"/>
       <c r="C56" s="7" t="s">
         <v>26</v>
       </c>
@@ -7512,8 +8549,8 @@
       </c>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A57" s="69"/>
-      <c r="B57" s="70"/>
+      <c r="A57" s="91"/>
+      <c r="B57" s="92"/>
       <c r="C57" s="19" t="s">
         <v>32</v>
       </c>
@@ -7604,8 +8641,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="C7:O36"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="V32" sqref="V32"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7839,29 +8876,29 @@
       </c>
     </row>
     <row r="15" spans="3:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="102" t="s">
+      <c r="C15" s="101" t="s">
         <v>95</v>
       </c>
-      <c r="D15" s="102"/>
-      <c r="E15" s="103" t="s">
+      <c r="D15" s="101"/>
+      <c r="E15" s="100" t="s">
         <v>100</v>
       </c>
-      <c r="F15" s="103"/>
-      <c r="G15" s="103"/>
-      <c r="H15" s="103"/>
-      <c r="I15" s="103"/>
-      <c r="J15" s="103"/>
-      <c r="K15" s="103"/>
-      <c r="L15" s="103"/>
-      <c r="M15" s="103"/>
-      <c r="N15" s="103"/>
-      <c r="O15" s="99" t="s">
+      <c r="F15" s="100"/>
+      <c r="G15" s="100"/>
+      <c r="H15" s="100"/>
+      <c r="I15" s="100"/>
+      <c r="J15" s="100"/>
+      <c r="K15" s="100"/>
+      <c r="L15" s="100"/>
+      <c r="M15" s="100"/>
+      <c r="N15" s="100"/>
+      <c r="O15" s="102" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="16" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C16" s="102"/>
-      <c r="D16" s="102"/>
+      <c r="C16" s="101"/>
+      <c r="D16" s="101"/>
       <c r="E16" s="42">
         <v>1</v>
       </c>
@@ -7892,10 +8929,10 @@
       <c r="N16" s="42">
         <v>10</v>
       </c>
-      <c r="O16" s="99"/>
+      <c r="O16" s="102"/>
     </row>
     <row r="17" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C17" s="99" t="s">
+      <c r="C17" s="102" t="s">
         <v>96</v>
       </c>
       <c r="D17" s="42" t="s">
@@ -7931,13 +8968,13 @@
       <c r="N17" s="43">
         <v>41</v>
       </c>
-      <c r="O17" s="100">
+      <c r="O17" s="103">
         <f>SUM(E17:N17)/410</f>
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C18" s="99"/>
+      <c r="C18" s="102"/>
       <c r="D18" s="42" t="s">
         <v>98</v>
       </c>
@@ -7971,32 +9008,32 @@
       <c r="N18" s="43">
         <v>0</v>
       </c>
-      <c r="O18" s="101"/>
+      <c r="O18" s="104"/>
     </row>
     <row r="21" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C21" s="102" t="s">
+      <c r="C21" s="101" t="s">
         <v>101</v>
       </c>
-      <c r="D21" s="102"/>
-      <c r="E21" s="103" t="s">
+      <c r="D21" s="101"/>
+      <c r="E21" s="100" t="s">
         <v>100</v>
       </c>
-      <c r="F21" s="103"/>
-      <c r="G21" s="103"/>
-      <c r="H21" s="103"/>
-      <c r="I21" s="103"/>
-      <c r="J21" s="103"/>
-      <c r="K21" s="103"/>
-      <c r="L21" s="103"/>
-      <c r="M21" s="103"/>
-      <c r="N21" s="103"/>
-      <c r="O21" s="99" t="s">
+      <c r="F21" s="100"/>
+      <c r="G21" s="100"/>
+      <c r="H21" s="100"/>
+      <c r="I21" s="100"/>
+      <c r="J21" s="100"/>
+      <c r="K21" s="100"/>
+      <c r="L21" s="100"/>
+      <c r="M21" s="100"/>
+      <c r="N21" s="100"/>
+      <c r="O21" s="102" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="22" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C22" s="102"/>
-      <c r="D22" s="102"/>
+      <c r="C22" s="101"/>
+      <c r="D22" s="101"/>
       <c r="E22" s="42">
         <v>1</v>
       </c>
@@ -8027,10 +9064,10 @@
       <c r="N22" s="42">
         <v>10</v>
       </c>
-      <c r="O22" s="99"/>
+      <c r="O22" s="102"/>
     </row>
     <row r="23" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C23" s="99" t="s">
+      <c r="C23" s="102" t="s">
         <v>96</v>
       </c>
       <c r="D23" s="42" t="s">
@@ -8066,13 +9103,13 @@
       <c r="N23" s="35">
         <v>27</v>
       </c>
-      <c r="O23" s="100">
+      <c r="O23" s="103">
         <f>SUM(E23:N23)/410</f>
         <v>0.86829268292682926</v>
       </c>
     </row>
     <row r="24" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C24" s="99"/>
+      <c r="C24" s="102"/>
       <c r="D24" s="42" t="s">
         <v>98</v>
       </c>
@@ -8106,32 +9143,32 @@
       <c r="N24" s="43">
         <v>14</v>
       </c>
-      <c r="O24" s="101"/>
+      <c r="O24" s="104"/>
     </row>
     <row r="27" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C27" s="102" t="s">
+      <c r="C27" s="101" t="s">
         <v>102</v>
       </c>
-      <c r="D27" s="102"/>
-      <c r="E27" s="103" t="s">
+      <c r="D27" s="101"/>
+      <c r="E27" s="100" t="s">
         <v>100</v>
       </c>
-      <c r="F27" s="103"/>
-      <c r="G27" s="103"/>
-      <c r="H27" s="103"/>
-      <c r="I27" s="103"/>
-      <c r="J27" s="103"/>
-      <c r="K27" s="103"/>
-      <c r="L27" s="103"/>
-      <c r="M27" s="103"/>
-      <c r="N27" s="103"/>
-      <c r="O27" s="99" t="s">
+      <c r="F27" s="100"/>
+      <c r="G27" s="100"/>
+      <c r="H27" s="100"/>
+      <c r="I27" s="100"/>
+      <c r="J27" s="100"/>
+      <c r="K27" s="100"/>
+      <c r="L27" s="100"/>
+      <c r="M27" s="100"/>
+      <c r="N27" s="100"/>
+      <c r="O27" s="102" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="28" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C28" s="102"/>
-      <c r="D28" s="102"/>
+      <c r="C28" s="101"/>
+      <c r="D28" s="101"/>
       <c r="E28" s="42">
         <v>1</v>
       </c>
@@ -8162,10 +9199,10 @@
       <c r="N28" s="42">
         <v>10</v>
       </c>
-      <c r="O28" s="99"/>
+      <c r="O28" s="102"/>
     </row>
     <row r="29" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C29" s="99" t="s">
+      <c r="C29" s="102" t="s">
         <v>96</v>
       </c>
       <c r="D29" s="42" t="s">
@@ -8201,13 +9238,13 @@
       <c r="N29" s="35">
         <v>29</v>
       </c>
-      <c r="O29" s="100">
+      <c r="O29" s="103">
         <f>SUM(E29:N29)/410</f>
         <v>0.69512195121951215</v>
       </c>
     </row>
     <row r="30" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C30" s="99"/>
+      <c r="C30" s="102"/>
       <c r="D30" s="42" t="s">
         <v>98</v>
       </c>
@@ -8241,7 +9278,7 @@
       <c r="N30" s="43">
         <v>12</v>
       </c>
-      <c r="O30" s="101"/>
+      <c r="O30" s="104"/>
     </row>
     <row r="33" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C33" s="46"/>
@@ -8290,11 +9327,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="E15:N15"/>
-    <mergeCell ref="C15:D16"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="O17:O18"/>
     <mergeCell ref="C29:C30"/>
     <mergeCell ref="O29:O30"/>
     <mergeCell ref="C21:D22"/>
@@ -8305,6 +9337,11 @@
     <mergeCell ref="C27:D28"/>
     <mergeCell ref="E27:N27"/>
     <mergeCell ref="O27:O28"/>
+    <mergeCell ref="E15:N15"/>
+    <mergeCell ref="C15:D16"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="O17:O18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8313,11 +9350,773 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{863E2203-BBD3-4582-9488-5B7EA02887EE}">
+  <dimension ref="B4:U25"/>
+  <sheetViews>
+    <sheetView topLeftCell="C7" workbookViewId="0">
+      <selection activeCell="R24" sqref="R24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="25.7109375" customWidth="1"/>
+    <col min="15" max="15" width="12.7109375" customWidth="1"/>
+    <col min="18" max="18" width="13.5703125" customWidth="1"/>
+    <col min="19" max="19" width="9.7109375" customWidth="1"/>
+    <col min="20" max="20" width="10.140625" customWidth="1"/>
+    <col min="21" max="21" width="9.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:21" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="101" t="s">
+        <v>95</v>
+      </c>
+      <c r="C4" s="101"/>
+      <c r="D4" s="100" t="s">
+        <v>100</v>
+      </c>
+      <c r="E4" s="100"/>
+      <c r="F4" s="100"/>
+      <c r="G4" s="100"/>
+      <c r="H4" s="100"/>
+      <c r="I4" s="100"/>
+      <c r="J4" s="100"/>
+      <c r="K4" s="100"/>
+      <c r="L4" s="100"/>
+      <c r="M4" s="100"/>
+      <c r="N4" s="102" t="s">
+        <v>99</v>
+      </c>
+      <c r="O4" s="100" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="5" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B5" s="101"/>
+      <c r="C5" s="101"/>
+      <c r="D5" s="65">
+        <v>1</v>
+      </c>
+      <c r="E5" s="65">
+        <v>2</v>
+      </c>
+      <c r="F5" s="65">
+        <v>3</v>
+      </c>
+      <c r="G5" s="65">
+        <v>4</v>
+      </c>
+      <c r="H5" s="65">
+        <v>5</v>
+      </c>
+      <c r="I5" s="65">
+        <v>6</v>
+      </c>
+      <c r="J5" s="65">
+        <v>7</v>
+      </c>
+      <c r="K5" s="65">
+        <v>8</v>
+      </c>
+      <c r="L5" s="65">
+        <v>9</v>
+      </c>
+      <c r="M5" s="65">
+        <v>10</v>
+      </c>
+      <c r="N5" s="102"/>
+      <c r="O5" s="100"/>
+    </row>
+    <row r="6" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="102" t="s">
+        <v>132</v>
+      </c>
+      <c r="C6" s="65" t="s">
+        <v>97</v>
+      </c>
+      <c r="D6" s="43">
+        <v>41</v>
+      </c>
+      <c r="E6" s="43">
+        <v>41</v>
+      </c>
+      <c r="F6" s="43">
+        <v>41</v>
+      </c>
+      <c r="G6" s="43">
+        <v>41</v>
+      </c>
+      <c r="H6" s="43">
+        <v>41</v>
+      </c>
+      <c r="I6" s="43">
+        <v>41</v>
+      </c>
+      <c r="J6" s="43">
+        <v>41</v>
+      </c>
+      <c r="K6" s="43">
+        <v>41</v>
+      </c>
+      <c r="L6" s="43">
+        <v>41</v>
+      </c>
+      <c r="M6" s="43">
+        <v>41</v>
+      </c>
+      <c r="N6" s="103">
+        <f>SUM(D6:M6)/410</f>
+        <v>1</v>
+      </c>
+      <c r="O6" s="122">
+        <f>(N6+N8)/2</f>
+        <v>1</v>
+      </c>
+      <c r="R6" s="120"/>
+      <c r="S6" s="120" t="s">
+        <v>104</v>
+      </c>
+      <c r="T6" s="120" t="s">
+        <v>78</v>
+      </c>
+      <c r="U6" s="120" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="2:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="102"/>
+      <c r="C7" s="65" t="s">
+        <v>98</v>
+      </c>
+      <c r="D7" s="43">
+        <v>0</v>
+      </c>
+      <c r="E7" s="43">
+        <v>0</v>
+      </c>
+      <c r="F7" s="43">
+        <v>0</v>
+      </c>
+      <c r="G7" s="43">
+        <v>0</v>
+      </c>
+      <c r="H7" s="43">
+        <v>0</v>
+      </c>
+      <c r="I7" s="43">
+        <v>0</v>
+      </c>
+      <c r="J7" s="43">
+        <v>0</v>
+      </c>
+      <c r="K7" s="43">
+        <v>0</v>
+      </c>
+      <c r="L7" s="43">
+        <v>0</v>
+      </c>
+      <c r="M7" s="43">
+        <v>0</v>
+      </c>
+      <c r="N7" s="104"/>
+      <c r="O7" s="122"/>
+      <c r="R7" s="120" t="s">
+        <v>130</v>
+      </c>
+      <c r="S7" s="121">
+        <v>1</v>
+      </c>
+      <c r="T7" s="121">
+        <v>0.86799999999999999</v>
+      </c>
+      <c r="U7" s="121">
+        <v>0.69499999999999995</v>
+      </c>
+    </row>
+    <row r="8" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B8" s="102" t="s">
+        <v>128</v>
+      </c>
+      <c r="C8" s="65" t="s">
+        <v>97</v>
+      </c>
+      <c r="D8" s="43">
+        <v>41</v>
+      </c>
+      <c r="E8" s="43">
+        <v>41</v>
+      </c>
+      <c r="F8" s="43">
+        <v>41</v>
+      </c>
+      <c r="G8" s="43">
+        <v>41</v>
+      </c>
+      <c r="H8" s="43">
+        <v>41</v>
+      </c>
+      <c r="I8" s="43">
+        <v>41</v>
+      </c>
+      <c r="J8" s="43">
+        <v>41</v>
+      </c>
+      <c r="K8" s="43">
+        <v>41</v>
+      </c>
+      <c r="L8" s="43">
+        <v>41</v>
+      </c>
+      <c r="M8" s="43">
+        <v>41</v>
+      </c>
+      <c r="N8" s="103">
+        <f>SUM(D8:M8)/410</f>
+        <v>1</v>
+      </c>
+      <c r="O8" s="122"/>
+      <c r="R8" s="120" t="s">
+        <v>131</v>
+      </c>
+      <c r="S8" s="121">
+        <v>1</v>
+      </c>
+      <c r="T8" s="121">
+        <v>0.90600000000000003</v>
+      </c>
+      <c r="U8" s="121">
+        <v>0.82599999999999996</v>
+      </c>
+    </row>
+    <row r="9" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B9" s="102"/>
+      <c r="C9" s="65" t="s">
+        <v>98</v>
+      </c>
+      <c r="D9" s="43">
+        <v>0</v>
+      </c>
+      <c r="E9" s="43">
+        <v>0</v>
+      </c>
+      <c r="F9" s="43">
+        <v>0</v>
+      </c>
+      <c r="G9" s="43">
+        <v>0</v>
+      </c>
+      <c r="H9" s="43">
+        <v>0</v>
+      </c>
+      <c r="I9" s="43">
+        <v>0</v>
+      </c>
+      <c r="J9" s="43">
+        <v>0</v>
+      </c>
+      <c r="K9" s="43">
+        <v>0</v>
+      </c>
+      <c r="L9" s="43">
+        <v>0</v>
+      </c>
+      <c r="M9" s="43">
+        <v>0</v>
+      </c>
+      <c r="N9" s="104"/>
+      <c r="O9" s="122"/>
+    </row>
+    <row r="12" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B12" s="101" t="s">
+        <v>101</v>
+      </c>
+      <c r="C12" s="101"/>
+      <c r="D12" s="100" t="s">
+        <v>100</v>
+      </c>
+      <c r="E12" s="100"/>
+      <c r="F12" s="100"/>
+      <c r="G12" s="100"/>
+      <c r="H12" s="100"/>
+      <c r="I12" s="100"/>
+      <c r="J12" s="100"/>
+      <c r="K12" s="100"/>
+      <c r="L12" s="100"/>
+      <c r="M12" s="100"/>
+      <c r="N12" s="102" t="s">
+        <v>99</v>
+      </c>
+      <c r="O12" s="100" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="13" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B13" s="101"/>
+      <c r="C13" s="101"/>
+      <c r="D13" s="65">
+        <v>1</v>
+      </c>
+      <c r="E13" s="65">
+        <v>2</v>
+      </c>
+      <c r="F13" s="65">
+        <v>3</v>
+      </c>
+      <c r="G13" s="65">
+        <v>4</v>
+      </c>
+      <c r="H13" s="65">
+        <v>5</v>
+      </c>
+      <c r="I13" s="65">
+        <v>6</v>
+      </c>
+      <c r="J13" s="65">
+        <v>7</v>
+      </c>
+      <c r="K13" s="65">
+        <v>8</v>
+      </c>
+      <c r="L13" s="65">
+        <v>9</v>
+      </c>
+      <c r="M13" s="65">
+        <v>10</v>
+      </c>
+      <c r="N13" s="102"/>
+      <c r="O13" s="100"/>
+    </row>
+    <row r="14" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B14" s="102" t="s">
+        <v>127</v>
+      </c>
+      <c r="C14" s="65" t="s">
+        <v>97</v>
+      </c>
+      <c r="D14" s="43">
+        <v>38</v>
+      </c>
+      <c r="E14" s="43">
+        <v>40</v>
+      </c>
+      <c r="F14" s="43">
+        <v>29</v>
+      </c>
+      <c r="G14" s="43">
+        <v>38</v>
+      </c>
+      <c r="H14" s="43">
+        <v>40</v>
+      </c>
+      <c r="I14" s="43">
+        <v>40</v>
+      </c>
+      <c r="J14" s="43">
+        <v>38</v>
+      </c>
+      <c r="K14" s="43">
+        <v>31</v>
+      </c>
+      <c r="L14" s="43">
+        <v>40</v>
+      </c>
+      <c r="M14" s="43">
+        <v>38</v>
+      </c>
+      <c r="N14" s="103">
+        <f>SUM(D14:M14)/410</f>
+        <v>0.90731707317073174</v>
+      </c>
+      <c r="O14" s="122">
+        <f>(N14+N16)/2</f>
+        <v>0.90609756097560978</v>
+      </c>
+    </row>
+    <row r="15" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B15" s="102"/>
+      <c r="C15" s="65" t="s">
+        <v>98</v>
+      </c>
+      <c r="D15" s="43">
+        <v>3</v>
+      </c>
+      <c r="E15" s="43">
+        <v>1</v>
+      </c>
+      <c r="F15" s="43">
+        <v>12</v>
+      </c>
+      <c r="G15" s="43">
+        <v>3</v>
+      </c>
+      <c r="H15" s="43">
+        <v>1</v>
+      </c>
+      <c r="I15" s="43">
+        <v>1</v>
+      </c>
+      <c r="J15" s="43">
+        <v>3</v>
+      </c>
+      <c r="K15" s="43">
+        <v>10</v>
+      </c>
+      <c r="L15" s="43">
+        <v>1</v>
+      </c>
+      <c r="M15" s="43">
+        <v>3</v>
+      </c>
+      <c r="N15" s="104"/>
+      <c r="O15" s="122"/>
+    </row>
+    <row r="16" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B16" s="102" t="s">
+        <v>128</v>
+      </c>
+      <c r="C16" s="65" t="s">
+        <v>97</v>
+      </c>
+      <c r="D16" s="43">
+        <v>38</v>
+      </c>
+      <c r="E16" s="43">
+        <v>40</v>
+      </c>
+      <c r="F16" s="43">
+        <v>29</v>
+      </c>
+      <c r="G16" s="43">
+        <v>38</v>
+      </c>
+      <c r="H16" s="43">
+        <v>40</v>
+      </c>
+      <c r="I16" s="43">
+        <v>40</v>
+      </c>
+      <c r="J16" s="43">
+        <v>38</v>
+      </c>
+      <c r="K16" s="43">
+        <v>31</v>
+      </c>
+      <c r="L16" s="43">
+        <v>40</v>
+      </c>
+      <c r="M16" s="43">
+        <v>37</v>
+      </c>
+      <c r="N16" s="103">
+        <f>SUM(D16:M16)/410</f>
+        <v>0.90487804878048783</v>
+      </c>
+      <c r="O16" s="122"/>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B17" s="102"/>
+      <c r="C17" s="65" t="s">
+        <v>98</v>
+      </c>
+      <c r="D17" s="43">
+        <v>3</v>
+      </c>
+      <c r="E17" s="43">
+        <v>1</v>
+      </c>
+      <c r="F17" s="43">
+        <v>12</v>
+      </c>
+      <c r="G17" s="43">
+        <v>3</v>
+      </c>
+      <c r="H17" s="43">
+        <v>1</v>
+      </c>
+      <c r="I17" s="43">
+        <v>1</v>
+      </c>
+      <c r="J17" s="43">
+        <v>3</v>
+      </c>
+      <c r="K17" s="43">
+        <v>10</v>
+      </c>
+      <c r="L17" s="43">
+        <v>1</v>
+      </c>
+      <c r="M17" s="43">
+        <v>4</v>
+      </c>
+      <c r="N17" s="104"/>
+      <c r="O17" s="122"/>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B20" s="101" t="s">
+        <v>102</v>
+      </c>
+      <c r="C20" s="101"/>
+      <c r="D20" s="100" t="s">
+        <v>100</v>
+      </c>
+      <c r="E20" s="100"/>
+      <c r="F20" s="100"/>
+      <c r="G20" s="100"/>
+      <c r="H20" s="100"/>
+      <c r="I20" s="100"/>
+      <c r="J20" s="100"/>
+      <c r="K20" s="100"/>
+      <c r="L20" s="100"/>
+      <c r="M20" s="100"/>
+      <c r="N20" s="102" t="s">
+        <v>99</v>
+      </c>
+      <c r="O20" s="100" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B21" s="101"/>
+      <c r="C21" s="101"/>
+      <c r="D21" s="65">
+        <v>1</v>
+      </c>
+      <c r="E21" s="65">
+        <v>2</v>
+      </c>
+      <c r="F21" s="65">
+        <v>3</v>
+      </c>
+      <c r="G21" s="65">
+        <v>4</v>
+      </c>
+      <c r="H21" s="65">
+        <v>5</v>
+      </c>
+      <c r="I21" s="65">
+        <v>6</v>
+      </c>
+      <c r="J21" s="65">
+        <v>7</v>
+      </c>
+      <c r="K21" s="65">
+        <v>8</v>
+      </c>
+      <c r="L21" s="65">
+        <v>9</v>
+      </c>
+      <c r="M21" s="65">
+        <v>10</v>
+      </c>
+      <c r="N21" s="102"/>
+      <c r="O21" s="100"/>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B22" s="102" t="s">
+        <v>127</v>
+      </c>
+      <c r="C22" s="65" t="s">
+        <v>97</v>
+      </c>
+      <c r="D22" s="43">
+        <v>31</v>
+      </c>
+      <c r="E22" s="43">
+        <v>40</v>
+      </c>
+      <c r="F22" s="43">
+        <v>40</v>
+      </c>
+      <c r="G22" s="43">
+        <v>23</v>
+      </c>
+      <c r="H22" s="43">
+        <v>40</v>
+      </c>
+      <c r="I22" s="43">
+        <v>40</v>
+      </c>
+      <c r="J22" s="43">
+        <v>40</v>
+      </c>
+      <c r="K22" s="43">
+        <v>40</v>
+      </c>
+      <c r="L22" s="43">
+        <v>40</v>
+      </c>
+      <c r="M22" s="43">
+        <v>9</v>
+      </c>
+      <c r="N22" s="103">
+        <f>SUM(D22:M22)/410</f>
+        <v>0.8365853658536585</v>
+      </c>
+      <c r="O22" s="122">
+        <f>(N22+N24)/2</f>
+        <v>0.82560975609756093</v>
+      </c>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B23" s="102"/>
+      <c r="C23" s="65" t="s">
+        <v>98</v>
+      </c>
+      <c r="D23" s="43">
+        <v>10</v>
+      </c>
+      <c r="E23" s="43">
+        <v>1</v>
+      </c>
+      <c r="F23" s="43">
+        <v>1</v>
+      </c>
+      <c r="G23" s="43">
+        <v>18</v>
+      </c>
+      <c r="H23" s="43">
+        <v>1</v>
+      </c>
+      <c r="I23" s="43">
+        <v>1</v>
+      </c>
+      <c r="J23" s="43">
+        <v>1</v>
+      </c>
+      <c r="K23" s="43">
+        <v>1</v>
+      </c>
+      <c r="L23" s="43">
+        <v>1</v>
+      </c>
+      <c r="M23" s="43">
+        <v>32</v>
+      </c>
+      <c r="N23" s="104"/>
+      <c r="O23" s="122"/>
+    </row>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B24" s="102" t="s">
+        <v>128</v>
+      </c>
+      <c r="C24" s="65" t="s">
+        <v>97</v>
+      </c>
+      <c r="D24" s="43">
+        <v>29</v>
+      </c>
+      <c r="E24" s="43">
+        <v>37</v>
+      </c>
+      <c r="F24" s="43">
+        <v>40</v>
+      </c>
+      <c r="G24" s="43">
+        <v>23</v>
+      </c>
+      <c r="H24" s="43">
+        <v>40</v>
+      </c>
+      <c r="I24" s="43">
+        <v>37</v>
+      </c>
+      <c r="J24" s="43">
+        <v>40</v>
+      </c>
+      <c r="K24" s="43">
+        <v>40</v>
+      </c>
+      <c r="L24" s="43">
+        <v>39</v>
+      </c>
+      <c r="M24" s="43">
+        <v>9</v>
+      </c>
+      <c r="N24" s="103">
+        <f>SUM(D24:M24)/410</f>
+        <v>0.81463414634146336</v>
+      </c>
+      <c r="O24" s="122"/>
+    </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B25" s="102"/>
+      <c r="C25" s="65" t="s">
+        <v>98</v>
+      </c>
+      <c r="D25" s="43">
+        <v>12</v>
+      </c>
+      <c r="E25" s="43">
+        <v>4</v>
+      </c>
+      <c r="F25" s="43">
+        <v>1</v>
+      </c>
+      <c r="G25" s="43">
+        <v>18</v>
+      </c>
+      <c r="H25" s="43">
+        <v>1</v>
+      </c>
+      <c r="I25" s="43">
+        <v>4</v>
+      </c>
+      <c r="J25" s="43">
+        <v>1</v>
+      </c>
+      <c r="K25" s="43">
+        <v>1</v>
+      </c>
+      <c r="L25" s="43">
+        <v>2</v>
+      </c>
+      <c r="M25" s="43">
+        <v>32</v>
+      </c>
+      <c r="N25" s="104"/>
+      <c r="O25" s="122"/>
+    </row>
+  </sheetData>
+  <mergeCells count="27">
+    <mergeCell ref="O12:O13"/>
+    <mergeCell ref="O14:O17"/>
+    <mergeCell ref="O20:O21"/>
+    <mergeCell ref="O22:O25"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="O6:O9"/>
+    <mergeCell ref="B20:C21"/>
+    <mergeCell ref="D20:M20"/>
+    <mergeCell ref="N20:N21"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="N22:N23"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="N24:N25"/>
+    <mergeCell ref="B12:C13"/>
+    <mergeCell ref="D12:M12"/>
+    <mergeCell ref="N12:N13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="N14:N15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="N16:N17"/>
+    <mergeCell ref="B4:C5"/>
+    <mergeCell ref="D4:M4"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="N8:N9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A4:AN51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41:N41"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="U38" sqref="U38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8334,62 +10133,62 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="102" t="s">
+      <c r="B4" s="101" t="s">
         <v>111</v>
       </c>
-      <c r="C4" s="102"/>
-      <c r="D4" s="103" t="s">
+      <c r="C4" s="101"/>
+      <c r="D4" s="100" t="s">
         <v>100</v>
       </c>
-      <c r="E4" s="103"/>
-      <c r="F4" s="103"/>
-      <c r="G4" s="103"/>
-      <c r="H4" s="103"/>
-      <c r="I4" s="103"/>
-      <c r="J4" s="103"/>
-      <c r="K4" s="103"/>
-      <c r="L4" s="103"/>
-      <c r="M4" s="103"/>
-      <c r="N4" s="99" t="s">
+      <c r="E4" s="100"/>
+      <c r="F4" s="100"/>
+      <c r="G4" s="100"/>
+      <c r="H4" s="100"/>
+      <c r="I4" s="100"/>
+      <c r="J4" s="100"/>
+      <c r="K4" s="100"/>
+      <c r="L4" s="100"/>
+      <c r="M4" s="100"/>
+      <c r="N4" s="102" t="s">
         <v>115</v>
       </c>
-      <c r="R4" s="102" t="s">
+      <c r="R4" s="101" t="s">
         <v>116</v>
       </c>
-      <c r="S4" s="102"/>
-      <c r="T4" s="103" t="s">
+      <c r="S4" s="101"/>
+      <c r="T4" s="100" t="s">
         <v>100</v>
       </c>
-      <c r="U4" s="103"/>
-      <c r="V4" s="103"/>
-      <c r="W4" s="103"/>
-      <c r="X4" s="103"/>
-      <c r="Y4" s="103"/>
-      <c r="Z4" s="103"/>
-      <c r="AA4" s="103"/>
-      <c r="AB4" s="103"/>
-      <c r="AC4" s="103"/>
-      <c r="AD4" s="99" t="s">
+      <c r="U4" s="100"/>
+      <c r="V4" s="100"/>
+      <c r="W4" s="100"/>
+      <c r="X4" s="100"/>
+      <c r="Y4" s="100"/>
+      <c r="Z4" s="100"/>
+      <c r="AA4" s="100"/>
+      <c r="AB4" s="100"/>
+      <c r="AC4" s="100"/>
+      <c r="AD4" s="102" t="s">
         <v>105</v>
       </c>
-      <c r="AG4" s="99" t="s">
+      <c r="AG4" s="102" t="s">
         <v>59</v>
       </c>
-      <c r="AH4" s="103" t="s">
+      <c r="AH4" s="100" t="s">
         <v>109</v>
       </c>
-      <c r="AI4" s="103" t="s">
+      <c r="AI4" s="100" t="s">
         <v>110</v>
       </c>
-      <c r="AJ4" s="103"/>
-      <c r="AK4" s="103"/>
-      <c r="AL4" s="103"/>
-      <c r="AM4" s="103"/>
-      <c r="AN4" s="103"/>
+      <c r="AJ4" s="100"/>
+      <c r="AK4" s="100"/>
+      <c r="AL4" s="100"/>
+      <c r="AM4" s="100"/>
+      <c r="AN4" s="100"/>
     </row>
     <row r="5" spans="2:40" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="102"/>
-      <c r="C5" s="102"/>
+      <c r="B5" s="101"/>
+      <c r="C5" s="101"/>
       <c r="D5" s="45">
         <v>1</v>
       </c>
@@ -8420,9 +10219,9 @@
       <c r="M5" s="45">
         <v>10</v>
       </c>
-      <c r="N5" s="99"/>
-      <c r="R5" s="102"/>
-      <c r="S5" s="102"/>
+      <c r="N5" s="102"/>
+      <c r="R5" s="101"/>
+      <c r="S5" s="101"/>
       <c r="T5" s="45">
         <v>1</v>
       </c>
@@ -8453,9 +10252,9 @@
       <c r="AC5" s="45">
         <v>10</v>
       </c>
-      <c r="AD5" s="99"/>
-      <c r="AG5" s="99"/>
-      <c r="AH5" s="103"/>
+      <c r="AD5" s="102"/>
+      <c r="AG5" s="102"/>
+      <c r="AH5" s="100"/>
       <c r="AI5" s="53" t="s">
         <v>1</v>
       </c>
@@ -8476,7 +10275,7 @@
       </c>
     </row>
     <row r="6" spans="2:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="104" t="s">
+      <c r="B6" s="105" t="s">
         <v>110</v>
       </c>
       <c r="C6" s="45" t="s">
@@ -8526,7 +10325,7 @@
         <f>AVERAGE(D6:M6)</f>
         <v>9.2636986301369864E-2</v>
       </c>
-      <c r="R6" s="104" t="s">
+      <c r="R6" s="105" t="s">
         <v>110</v>
       </c>
       <c r="S6" s="45" t="s">
@@ -8598,7 +10397,7 @@
       </c>
     </row>
     <row r="7" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B7" s="104"/>
+      <c r="B7" s="105"/>
       <c r="C7" s="45" t="s">
         <v>2</v>
       </c>
@@ -8646,7 +10445,7 @@
         <f t="shared" ref="N7:N11" si="0">AVERAGE(D7:M7)</f>
         <v>0.2441780821917808</v>
       </c>
-      <c r="R7" s="104"/>
+      <c r="R7" s="105"/>
       <c r="S7" s="45" t="s">
         <v>2</v>
       </c>
@@ -8716,7 +10515,7 @@
       </c>
     </row>
     <row r="8" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B8" s="104"/>
+      <c r="B8" s="105"/>
       <c r="C8" s="45" t="s">
         <v>3</v>
       </c>
@@ -8764,7 +10563,7 @@
         <f t="shared" si="0"/>
         <v>0.31849315068493156</v>
       </c>
-      <c r="R8" s="104"/>
+      <c r="R8" s="105"/>
       <c r="S8" s="45" t="s">
         <v>3</v>
       </c>
@@ -8834,7 +10633,7 @@
       </c>
     </row>
     <row r="9" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B9" s="104"/>
+      <c r="B9" s="105"/>
       <c r="C9" s="45" t="s">
         <v>52</v>
       </c>
@@ -8882,7 +10681,7 @@
         <f t="shared" si="0"/>
         <v>0.49383561643835616</v>
       </c>
-      <c r="R9" s="104"/>
+      <c r="R9" s="105"/>
       <c r="S9" s="45" t="s">
         <v>52</v>
       </c>
@@ -8952,7 +10751,7 @@
       </c>
     </row>
     <row r="10" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B10" s="104"/>
+      <c r="B10" s="105"/>
       <c r="C10" s="45" t="s">
         <v>51</v>
       </c>
@@ -9000,7 +10799,7 @@
         <f t="shared" si="0"/>
         <v>0.59845890410958913</v>
       </c>
-      <c r="R10" s="104"/>
+      <c r="R10" s="105"/>
       <c r="S10" s="45" t="s">
         <v>51</v>
       </c>
@@ -9070,7 +10869,7 @@
       </c>
     </row>
     <row r="11" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B11" s="104"/>
+      <c r="B11" s="105"/>
       <c r="C11" s="45" t="s">
         <v>69</v>
       </c>
@@ -9118,7 +10917,7 @@
         <f t="shared" si="0"/>
         <v>0.56746575342465744</v>
       </c>
-      <c r="R11" s="104"/>
+      <c r="R11" s="105"/>
       <c r="S11" s="45" t="s">
         <v>69</v>
       </c>
@@ -9158,62 +10957,62 @@
       </c>
     </row>
     <row r="14" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B14" s="102" t="s">
+      <c r="B14" s="101" t="s">
         <v>112</v>
       </c>
-      <c r="C14" s="102"/>
-      <c r="D14" s="103" t="s">
+      <c r="C14" s="101"/>
+      <c r="D14" s="100" t="s">
         <v>100</v>
       </c>
-      <c r="E14" s="103"/>
-      <c r="F14" s="103"/>
-      <c r="G14" s="103"/>
-      <c r="H14" s="103"/>
-      <c r="I14" s="103"/>
-      <c r="J14" s="103"/>
-      <c r="K14" s="103"/>
-      <c r="L14" s="103"/>
-      <c r="M14" s="103"/>
-      <c r="N14" s="99" t="s">
+      <c r="E14" s="100"/>
+      <c r="F14" s="100"/>
+      <c r="G14" s="100"/>
+      <c r="H14" s="100"/>
+      <c r="I14" s="100"/>
+      <c r="J14" s="100"/>
+      <c r="K14" s="100"/>
+      <c r="L14" s="100"/>
+      <c r="M14" s="100"/>
+      <c r="N14" s="102" t="s">
         <v>105</v>
       </c>
-      <c r="R14" s="102" t="s">
+      <c r="R14" s="101" t="s">
         <v>117</v>
       </c>
-      <c r="S14" s="102"/>
-      <c r="T14" s="103" t="s">
+      <c r="S14" s="101"/>
+      <c r="T14" s="100" t="s">
         <v>100</v>
       </c>
-      <c r="U14" s="103"/>
-      <c r="V14" s="103"/>
-      <c r="W14" s="103"/>
-      <c r="X14" s="103"/>
-      <c r="Y14" s="103"/>
-      <c r="Z14" s="103"/>
-      <c r="AA14" s="103"/>
-      <c r="AB14" s="103"/>
-      <c r="AC14" s="103"/>
-      <c r="AD14" s="99" t="s">
+      <c r="U14" s="100"/>
+      <c r="V14" s="100"/>
+      <c r="W14" s="100"/>
+      <c r="X14" s="100"/>
+      <c r="Y14" s="100"/>
+      <c r="Z14" s="100"/>
+      <c r="AA14" s="100"/>
+      <c r="AB14" s="100"/>
+      <c r="AC14" s="100"/>
+      <c r="AD14" s="102" t="s">
         <v>105</v>
       </c>
-      <c r="AG14" s="99" t="s">
+      <c r="AG14" s="102" t="s">
         <v>59</v>
       </c>
-      <c r="AH14" s="103" t="s">
+      <c r="AH14" s="100" t="s">
         <v>109</v>
       </c>
-      <c r="AI14" s="103" t="s">
+      <c r="AI14" s="100" t="s">
         <v>110</v>
       </c>
-      <c r="AJ14" s="103"/>
-      <c r="AK14" s="103"/>
-      <c r="AL14" s="103"/>
-      <c r="AM14" s="103"/>
-      <c r="AN14" s="103"/>
+      <c r="AJ14" s="100"/>
+      <c r="AK14" s="100"/>
+      <c r="AL14" s="100"/>
+      <c r="AM14" s="100"/>
+      <c r="AN14" s="100"/>
     </row>
     <row r="15" spans="2:40" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="102"/>
-      <c r="C15" s="102"/>
+      <c r="B15" s="101"/>
+      <c r="C15" s="101"/>
       <c r="D15" s="45">
         <v>1</v>
       </c>
@@ -9244,9 +11043,9 @@
       <c r="M15" s="45">
         <v>10</v>
       </c>
-      <c r="N15" s="99"/>
-      <c r="R15" s="102"/>
-      <c r="S15" s="102"/>
+      <c r="N15" s="102"/>
+      <c r="R15" s="101"/>
+      <c r="S15" s="101"/>
       <c r="T15" s="45">
         <v>1</v>
       </c>
@@ -9277,9 +11076,9 @@
       <c r="AC15" s="45">
         <v>10</v>
       </c>
-      <c r="AD15" s="99"/>
-      <c r="AG15" s="99"/>
-      <c r="AH15" s="103"/>
+      <c r="AD15" s="102"/>
+      <c r="AG15" s="102"/>
+      <c r="AH15" s="100"/>
       <c r="AI15" s="53" t="s">
         <v>1</v>
       </c>
@@ -9300,7 +11099,7 @@
       </c>
     </row>
     <row r="16" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B16" s="104" t="s">
+      <c r="B16" s="105" t="s">
         <v>110</v>
       </c>
       <c r="C16" s="45" t="s">
@@ -9350,7 +11149,7 @@
         <f>AVERAGE(D16:M16)</f>
         <v>9.5918367346938788E-2</v>
       </c>
-      <c r="R16" s="104" t="s">
+      <c r="R16" s="105" t="s">
         <v>110</v>
       </c>
       <c r="S16" s="45" t="s">
@@ -9422,7 +11221,7 @@
       </c>
     </row>
     <row r="17" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="B17" s="104"/>
+      <c r="B17" s="105"/>
       <c r="C17" s="45" t="s">
         <v>2</v>
       </c>
@@ -9470,7 +11269,7 @@
         <f t="shared" ref="N17:N21" si="2">AVERAGE(D17:M17)</f>
         <v>0.19918367346938778</v>
       </c>
-      <c r="R17" s="104"/>
+      <c r="R17" s="105"/>
       <c r="S17" s="45" t="s">
         <v>2</v>
       </c>
@@ -9540,7 +11339,7 @@
       </c>
     </row>
     <row r="18" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="B18" s="104"/>
+      <c r="B18" s="105"/>
       <c r="C18" s="45" t="s">
         <v>3</v>
       </c>
@@ -9588,7 +11387,7 @@
         <f t="shared" si="2"/>
         <v>0.32346938775510203</v>
       </c>
-      <c r="R18" s="104"/>
+      <c r="R18" s="105"/>
       <c r="S18" s="45" t="s">
         <v>3</v>
       </c>
@@ -9657,7 +11456,7 @@
       </c>
     </row>
     <row r="19" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="B19" s="104"/>
+      <c r="B19" s="105"/>
       <c r="C19" s="45" t="s">
         <v>52</v>
       </c>
@@ -9705,7 +11504,7 @@
         <f t="shared" si="2"/>
         <v>0.49091836734693883</v>
       </c>
-      <c r="R19" s="104"/>
+      <c r="R19" s="105"/>
       <c r="S19" s="45" t="s">
         <v>52</v>
       </c>
@@ -9775,7 +11574,7 @@
       </c>
     </row>
     <row r="20" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="B20" s="104"/>
+      <c r="B20" s="105"/>
       <c r="C20" s="45" t="s">
         <v>51</v>
       </c>
@@ -9823,7 +11622,7 @@
         <f t="shared" si="2"/>
         <v>0.54499999999999993</v>
       </c>
-      <c r="R20" s="104"/>
+      <c r="R20" s="105"/>
       <c r="S20" s="45" t="s">
         <v>51</v>
       </c>
@@ -9893,7 +11692,7 @@
       </c>
     </row>
     <row r="21" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="B21" s="104"/>
+      <c r="B21" s="105"/>
       <c r="C21" s="45" t="s">
         <v>69</v>
       </c>
@@ -9941,7 +11740,7 @@
         <f t="shared" si="2"/>
         <v>0.60499999999999998</v>
       </c>
-      <c r="R21" s="104"/>
+      <c r="R21" s="105"/>
       <c r="S21" s="45" t="s">
         <v>69</v>
       </c>
@@ -9981,48 +11780,48 @@
       </c>
     </row>
     <row r="24" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="B24" s="102" t="s">
+      <c r="B24" s="101" t="s">
         <v>113</v>
       </c>
-      <c r="C24" s="102"/>
-      <c r="D24" s="103" t="s">
+      <c r="C24" s="101"/>
+      <c r="D24" s="100" t="s">
         <v>100</v>
       </c>
-      <c r="E24" s="103"/>
-      <c r="F24" s="103"/>
-      <c r="G24" s="103"/>
-      <c r="H24" s="103"/>
-      <c r="I24" s="103"/>
-      <c r="J24" s="103"/>
-      <c r="K24" s="103"/>
-      <c r="L24" s="103"/>
-      <c r="M24" s="103"/>
-      <c r="N24" s="99" t="s">
+      <c r="E24" s="100"/>
+      <c r="F24" s="100"/>
+      <c r="G24" s="100"/>
+      <c r="H24" s="100"/>
+      <c r="I24" s="100"/>
+      <c r="J24" s="100"/>
+      <c r="K24" s="100"/>
+      <c r="L24" s="100"/>
+      <c r="M24" s="100"/>
+      <c r="N24" s="102" t="s">
         <v>105</v>
       </c>
-      <c r="R24" s="102" t="s">
+      <c r="R24" s="101" t="s">
         <v>118</v>
       </c>
-      <c r="S24" s="102"/>
-      <c r="T24" s="103" t="s">
+      <c r="S24" s="101"/>
+      <c r="T24" s="100" t="s">
         <v>100</v>
       </c>
-      <c r="U24" s="103"/>
-      <c r="V24" s="103"/>
-      <c r="W24" s="103"/>
-      <c r="X24" s="103"/>
-      <c r="Y24" s="103"/>
-      <c r="Z24" s="103"/>
-      <c r="AA24" s="103"/>
-      <c r="AB24" s="103"/>
-      <c r="AC24" s="103"/>
-      <c r="AD24" s="99" t="s">
+      <c r="U24" s="100"/>
+      <c r="V24" s="100"/>
+      <c r="W24" s="100"/>
+      <c r="X24" s="100"/>
+      <c r="Y24" s="100"/>
+      <c r="Z24" s="100"/>
+      <c r="AA24" s="100"/>
+      <c r="AB24" s="100"/>
+      <c r="AC24" s="100"/>
+      <c r="AD24" s="102" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="25" spans="1:40" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="102"/>
-      <c r="C25" s="102"/>
+      <c r="B25" s="101"/>
+      <c r="C25" s="101"/>
       <c r="D25" s="45">
         <v>1</v>
       </c>
@@ -10053,9 +11852,9 @@
       <c r="M25" s="45">
         <v>10</v>
       </c>
-      <c r="N25" s="99"/>
-      <c r="R25" s="102"/>
-      <c r="S25" s="102"/>
+      <c r="N25" s="102"/>
+      <c r="R25" s="101"/>
+      <c r="S25" s="101"/>
       <c r="T25" s="45">
         <v>1</v>
       </c>
@@ -10086,10 +11885,10 @@
       <c r="AC25" s="45">
         <v>10</v>
       </c>
-      <c r="AD25" s="99"/>
+      <c r="AD25" s="102"/>
     </row>
     <row r="26" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="B26" s="104" t="s">
+      <c r="B26" s="105" t="s">
         <v>110</v>
       </c>
       <c r="C26" s="45" t="s">
@@ -10139,7 +11938,7 @@
         <f>AVERAGE(D26:M26)</f>
         <v>0.10015624999999999</v>
       </c>
-      <c r="R26" s="104" t="s">
+      <c r="R26" s="105" t="s">
         <v>110</v>
       </c>
       <c r="S26" s="45" t="s">
@@ -10181,7 +11980,7 @@
       </c>
     </row>
     <row r="27" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="B27" s="104"/>
+      <c r="B27" s="105"/>
       <c r="C27" s="45" t="s">
         <v>2</v>
       </c>
@@ -10229,7 +12028,7 @@
         <f t="shared" ref="N27:N30" si="4">AVERAGE(D27:M27)</f>
         <v>0.16820312499999998</v>
       </c>
-      <c r="R27" s="104"/>
+      <c r="R27" s="105"/>
       <c r="S27" s="45" t="s">
         <v>2</v>
       </c>
@@ -10269,7 +12068,7 @@
       </c>
     </row>
     <row r="28" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="B28" s="104"/>
+      <c r="B28" s="105"/>
       <c r="C28" s="45" t="s">
         <v>3</v>
       </c>
@@ -10317,7 +12116,7 @@
         <f t="shared" si="4"/>
         <v>0.37398437499999998</v>
       </c>
-      <c r="R28" s="104"/>
+      <c r="R28" s="105"/>
       <c r="S28" s="45" t="s">
         <v>3</v>
       </c>
@@ -10357,7 +12156,7 @@
       </c>
     </row>
     <row r="29" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="B29" s="104"/>
+      <c r="B29" s="105"/>
       <c r="C29" s="45" t="s">
         <v>52</v>
       </c>
@@ -10405,7 +12204,7 @@
         <f t="shared" si="4"/>
         <v>0.45929687499999999</v>
       </c>
-      <c r="R29" s="104"/>
+      <c r="R29" s="105"/>
       <c r="S29" s="45" t="s">
         <v>52</v>
       </c>
@@ -10445,7 +12244,7 @@
       </c>
     </row>
     <row r="30" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="B30" s="104"/>
+      <c r="B30" s="105"/>
       <c r="C30" s="45" t="s">
         <v>51</v>
       </c>
@@ -10493,7 +12292,7 @@
         <f t="shared" si="4"/>
         <v>0.50226562500000005</v>
       </c>
-      <c r="R30" s="104"/>
+      <c r="R30" s="105"/>
       <c r="S30" s="45" t="s">
         <v>51</v>
       </c>
@@ -10536,7 +12335,7 @@
       <c r="A31" t="s">
         <v>108</v>
       </c>
-      <c r="B31" s="104"/>
+      <c r="B31" s="105"/>
       <c r="C31" s="54" t="s">
         <v>69</v>
       </c>
@@ -10573,7 +12372,7 @@
       <c r="N31" s="55" t="s">
         <v>71</v>
       </c>
-      <c r="R31" s="104"/>
+      <c r="R31" s="105"/>
       <c r="S31" s="54" t="s">
         <v>69</v>
       </c>
@@ -10612,48 +12411,48 @@
       </c>
     </row>
     <row r="34" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B34" s="102" t="s">
+      <c r="B34" s="101" t="s">
         <v>114</v>
       </c>
-      <c r="C34" s="102"/>
-      <c r="D34" s="103" t="s">
+      <c r="C34" s="101"/>
+      <c r="D34" s="100" t="s">
         <v>100</v>
       </c>
-      <c r="E34" s="103"/>
-      <c r="F34" s="103"/>
-      <c r="G34" s="103"/>
-      <c r="H34" s="103"/>
-      <c r="I34" s="103"/>
-      <c r="J34" s="103"/>
-      <c r="K34" s="103"/>
-      <c r="L34" s="103"/>
-      <c r="M34" s="103"/>
-      <c r="N34" s="99" t="s">
+      <c r="E34" s="100"/>
+      <c r="F34" s="100"/>
+      <c r="G34" s="100"/>
+      <c r="H34" s="100"/>
+      <c r="I34" s="100"/>
+      <c r="J34" s="100"/>
+      <c r="K34" s="100"/>
+      <c r="L34" s="100"/>
+      <c r="M34" s="100"/>
+      <c r="N34" s="102" t="s">
         <v>105</v>
       </c>
-      <c r="R34" s="102" t="s">
+      <c r="R34" s="101" t="s">
         <v>119</v>
       </c>
-      <c r="S34" s="102"/>
-      <c r="T34" s="103" t="s">
+      <c r="S34" s="101"/>
+      <c r="T34" s="100" t="s">
         <v>100</v>
       </c>
-      <c r="U34" s="103"/>
-      <c r="V34" s="103"/>
-      <c r="W34" s="103"/>
-      <c r="X34" s="103"/>
-      <c r="Y34" s="103"/>
-      <c r="Z34" s="103"/>
-      <c r="AA34" s="103"/>
-      <c r="AB34" s="103"/>
-      <c r="AC34" s="103"/>
-      <c r="AD34" s="99" t="s">
+      <c r="U34" s="100"/>
+      <c r="V34" s="100"/>
+      <c r="W34" s="100"/>
+      <c r="X34" s="100"/>
+      <c r="Y34" s="100"/>
+      <c r="Z34" s="100"/>
+      <c r="AA34" s="100"/>
+      <c r="AB34" s="100"/>
+      <c r="AC34" s="100"/>
+      <c r="AD34" s="102" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="35" spans="1:30" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="102"/>
-      <c r="C35" s="102"/>
+      <c r="B35" s="101"/>
+      <c r="C35" s="101"/>
       <c r="D35" s="45">
         <v>1</v>
       </c>
@@ -10684,9 +12483,9 @@
       <c r="M35" s="45">
         <v>10</v>
       </c>
-      <c r="N35" s="99"/>
-      <c r="R35" s="102"/>
-      <c r="S35" s="102"/>
+      <c r="N35" s="102"/>
+      <c r="R35" s="101"/>
+      <c r="S35" s="101"/>
       <c r="T35" s="45">
         <v>1</v>
       </c>
@@ -10717,10 +12516,10 @@
       <c r="AC35" s="45">
         <v>10</v>
       </c>
-      <c r="AD35" s="99"/>
+      <c r="AD35" s="102"/>
     </row>
     <row r="36" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B36" s="104" t="s">
+      <c r="B36" s="105" t="s">
         <v>110</v>
       </c>
       <c r="C36" s="45" t="s">
@@ -10770,7 +12569,7 @@
         <f>AVERAGE(D36:M36)</f>
         <v>0.10200743494423789</v>
       </c>
-      <c r="R36" s="104" t="s">
+      <c r="R36" s="105" t="s">
         <v>110</v>
       </c>
       <c r="S36" s="45" t="s">
@@ -10812,7 +12611,7 @@
       </c>
     </row>
     <row r="37" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B37" s="104"/>
+      <c r="B37" s="105"/>
       <c r="C37" s="45" t="s">
         <v>2</v>
       </c>
@@ -10860,7 +12659,7 @@
         <f t="shared" ref="N37:N40" si="6">AVERAGE(D37:M37)</f>
         <v>0.16988847583643124</v>
       </c>
-      <c r="R37" s="104"/>
+      <c r="R37" s="105"/>
       <c r="S37" s="45" t="s">
         <v>2</v>
       </c>
@@ -10900,7 +12699,7 @@
       </c>
     </row>
     <row r="38" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B38" s="104"/>
+      <c r="B38" s="105"/>
       <c r="C38" s="45" t="s">
         <v>3</v>
       </c>
@@ -10948,7 +12747,7 @@
         <f t="shared" si="6"/>
         <v>0.37724907063197022</v>
       </c>
-      <c r="R38" s="104"/>
+      <c r="R38" s="105"/>
       <c r="S38" s="45" t="s">
         <v>3</v>
       </c>
@@ -10988,7 +12787,7 @@
       </c>
     </row>
     <row r="39" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B39" s="104"/>
+      <c r="B39" s="105"/>
       <c r="C39" s="45" t="s">
         <v>52</v>
       </c>
@@ -11036,7 +12835,7 @@
         <f t="shared" si="6"/>
         <v>0.45933085501858739</v>
       </c>
-      <c r="R39" s="104"/>
+      <c r="R39" s="105"/>
       <c r="S39" s="45" t="s">
         <v>52</v>
       </c>
@@ -11076,7 +12875,7 @@
       </c>
     </row>
     <row r="40" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B40" s="104"/>
+      <c r="B40" s="105"/>
       <c r="C40" s="45" t="s">
         <v>51</v>
       </c>
@@ -11124,7 +12923,7 @@
         <f t="shared" si="6"/>
         <v>0.54542750929368033</v>
       </c>
-      <c r="R40" s="104"/>
+      <c r="R40" s="105"/>
       <c r="S40" s="45" t="s">
         <v>51</v>
       </c>
@@ -11167,7 +12966,7 @@
       <c r="A41" t="s">
         <v>108</v>
       </c>
-      <c r="B41" s="104"/>
+      <c r="B41" s="105"/>
       <c r="C41" s="54" t="s">
         <v>69</v>
       </c>
@@ -11204,7 +13003,7 @@
       <c r="N41" s="55" t="s">
         <v>71</v>
       </c>
-      <c r="R41" s="104"/>
+      <c r="R41" s="105"/>
       <c r="S41" s="54" t="s">
         <v>69</v>
       </c>
@@ -11243,48 +13042,48 @@
       </c>
     </row>
     <row r="44" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B44" s="102" t="s">
+      <c r="B44" s="101" t="s">
         <v>124</v>
       </c>
-      <c r="C44" s="102"/>
-      <c r="D44" s="103" t="s">
+      <c r="C44" s="101"/>
+      <c r="D44" s="100" t="s">
         <v>100</v>
       </c>
-      <c r="E44" s="103"/>
-      <c r="F44" s="103"/>
-      <c r="G44" s="103"/>
-      <c r="H44" s="103"/>
-      <c r="I44" s="103"/>
-      <c r="J44" s="103"/>
-      <c r="K44" s="103"/>
-      <c r="L44" s="103"/>
-      <c r="M44" s="103"/>
-      <c r="N44" s="99" t="s">
+      <c r="E44" s="100"/>
+      <c r="F44" s="100"/>
+      <c r="G44" s="100"/>
+      <c r="H44" s="100"/>
+      <c r="I44" s="100"/>
+      <c r="J44" s="100"/>
+      <c r="K44" s="100"/>
+      <c r="L44" s="100"/>
+      <c r="M44" s="100"/>
+      <c r="N44" s="102" t="s">
         <v>105</v>
       </c>
-      <c r="R44" s="102" t="s">
+      <c r="R44" s="101" t="s">
         <v>125</v>
       </c>
-      <c r="S44" s="102"/>
-      <c r="T44" s="103" t="s">
+      <c r="S44" s="101"/>
+      <c r="T44" s="100" t="s">
         <v>100</v>
       </c>
-      <c r="U44" s="103"/>
-      <c r="V44" s="103"/>
-      <c r="W44" s="103"/>
-      <c r="X44" s="103"/>
-      <c r="Y44" s="103"/>
-      <c r="Z44" s="103"/>
-      <c r="AA44" s="103"/>
-      <c r="AB44" s="103"/>
-      <c r="AC44" s="103"/>
-      <c r="AD44" s="99" t="s">
+      <c r="U44" s="100"/>
+      <c r="V44" s="100"/>
+      <c r="W44" s="100"/>
+      <c r="X44" s="100"/>
+      <c r="Y44" s="100"/>
+      <c r="Z44" s="100"/>
+      <c r="AA44" s="100"/>
+      <c r="AB44" s="100"/>
+      <c r="AC44" s="100"/>
+      <c r="AD44" s="102" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="45" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="102"/>
-      <c r="C45" s="102"/>
+      <c r="B45" s="101"/>
+      <c r="C45" s="101"/>
       <c r="D45" s="61">
         <v>1</v>
       </c>
@@ -11315,9 +13114,9 @@
       <c r="M45" s="61">
         <v>10</v>
       </c>
-      <c r="N45" s="99"/>
-      <c r="R45" s="102"/>
-      <c r="S45" s="102"/>
+      <c r="N45" s="102"/>
+      <c r="R45" s="101"/>
+      <c r="S45" s="101"/>
       <c r="T45" s="61">
         <v>1</v>
       </c>
@@ -11348,10 +13147,10 @@
       <c r="AC45" s="61">
         <v>10</v>
       </c>
-      <c r="AD45" s="99"/>
+      <c r="AD45" s="102"/>
     </row>
     <row r="46" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B46" s="104" t="s">
+      <c r="B46" s="105" t="s">
         <v>110</v>
       </c>
       <c r="C46" s="61" t="s">
@@ -11401,7 +13200,7 @@
         <f>AVERAGE(D46:M46)</f>
         <v>5.0641711229946505E-2</v>
       </c>
-      <c r="R46" s="104" t="s">
+      <c r="R46" s="105" t="s">
         <v>110</v>
       </c>
       <c r="S46" s="61" t="s">
@@ -11443,7 +13242,7 @@
       </c>
     </row>
     <row r="47" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B47" s="104"/>
+      <c r="B47" s="105"/>
       <c r="C47" s="61" t="s">
         <v>2</v>
       </c>
@@ -11491,7 +13290,7 @@
         <f t="shared" ref="N47:N49" si="8">AVERAGE(D47:M47)</f>
         <v>0.11176470588235295</v>
       </c>
-      <c r="R47" s="104"/>
+      <c r="R47" s="105"/>
       <c r="S47" s="61" t="s">
         <v>2</v>
       </c>
@@ -11531,7 +13330,7 @@
       </c>
     </row>
     <row r="48" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B48" s="104"/>
+      <c r="B48" s="105"/>
       <c r="C48" s="61" t="s">
         <v>3</v>
       </c>
@@ -11579,7 +13378,7 @@
         <f t="shared" si="8"/>
         <v>0.20358288770053479</v>
       </c>
-      <c r="R48" s="104"/>
+      <c r="R48" s="105"/>
       <c r="S48" s="61" t="s">
         <v>3</v>
       </c>
@@ -11619,7 +13418,7 @@
       </c>
     </row>
     <row r="49" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B49" s="104"/>
+      <c r="B49" s="105"/>
       <c r="C49" s="61" t="s">
         <v>52</v>
       </c>
@@ -11667,7 +13466,7 @@
         <f t="shared" si="8"/>
         <v>0.27796791443850272</v>
       </c>
-      <c r="R49" s="104"/>
+      <c r="R49" s="105"/>
       <c r="S49" s="61" t="s">
         <v>52</v>
       </c>
@@ -11707,7 +13506,7 @@
       </c>
     </row>
     <row r="50" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B50" s="104"/>
+      <c r="B50" s="105"/>
       <c r="C50" s="54" t="s">
         <v>51</v>
       </c>
@@ -11744,7 +13543,7 @@
       <c r="N50" s="55" t="s">
         <v>71</v>
       </c>
-      <c r="R50" s="104"/>
+      <c r="R50" s="105"/>
       <c r="S50" s="54" t="s">
         <v>51</v>
       </c>
@@ -11783,7 +13582,7 @@
       </c>
     </row>
     <row r="51" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B51" s="104"/>
+      <c r="B51" s="105"/>
       <c r="C51" s="54" t="s">
         <v>69</v>
       </c>
@@ -11820,7 +13619,7 @@
       <c r="N51" s="55" t="s">
         <v>71</v>
       </c>
-      <c r="R51" s="104"/>
+      <c r="R51" s="105"/>
       <c r="S51" s="54" t="s">
         <v>69</v>
       </c>
@@ -11860,12 +13659,30 @@
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="AG4:AG5"/>
-    <mergeCell ref="AH4:AH5"/>
-    <mergeCell ref="AI4:AN4"/>
-    <mergeCell ref="AG14:AG15"/>
-    <mergeCell ref="AH14:AH15"/>
-    <mergeCell ref="AI14:AN14"/>
+    <mergeCell ref="T44:AC44"/>
+    <mergeCell ref="AD44:AD45"/>
+    <mergeCell ref="R46:R51"/>
+    <mergeCell ref="B44:C45"/>
+    <mergeCell ref="D44:M44"/>
+    <mergeCell ref="N44:N45"/>
+    <mergeCell ref="B46:B51"/>
+    <mergeCell ref="R44:S45"/>
+    <mergeCell ref="R4:S5"/>
+    <mergeCell ref="T4:AC4"/>
+    <mergeCell ref="AD4:AD5"/>
+    <mergeCell ref="R6:R11"/>
+    <mergeCell ref="B14:C15"/>
+    <mergeCell ref="D14:M14"/>
+    <mergeCell ref="N14:N15"/>
+    <mergeCell ref="B4:C5"/>
+    <mergeCell ref="D4:M4"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="B6:B11"/>
+    <mergeCell ref="N24:N25"/>
+    <mergeCell ref="B26:B31"/>
+    <mergeCell ref="B34:C35"/>
+    <mergeCell ref="D34:M34"/>
+    <mergeCell ref="N34:N35"/>
     <mergeCell ref="T34:AC34"/>
     <mergeCell ref="AD34:AD35"/>
     <mergeCell ref="R36:R41"/>
@@ -11882,30 +13699,12 @@
     <mergeCell ref="B16:B21"/>
     <mergeCell ref="B24:C25"/>
     <mergeCell ref="D24:M24"/>
-    <mergeCell ref="N24:N25"/>
-    <mergeCell ref="B26:B31"/>
-    <mergeCell ref="B34:C35"/>
-    <mergeCell ref="D34:M34"/>
-    <mergeCell ref="N34:N35"/>
-    <mergeCell ref="R4:S5"/>
-    <mergeCell ref="T4:AC4"/>
-    <mergeCell ref="AD4:AD5"/>
-    <mergeCell ref="R6:R11"/>
-    <mergeCell ref="B14:C15"/>
-    <mergeCell ref="D14:M14"/>
-    <mergeCell ref="N14:N15"/>
-    <mergeCell ref="B4:C5"/>
-    <mergeCell ref="D4:M4"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="B6:B11"/>
-    <mergeCell ref="T44:AC44"/>
-    <mergeCell ref="AD44:AD45"/>
-    <mergeCell ref="R46:R51"/>
-    <mergeCell ref="B44:C45"/>
-    <mergeCell ref="D44:M44"/>
-    <mergeCell ref="N44:N45"/>
-    <mergeCell ref="B46:B51"/>
-    <mergeCell ref="R44:S45"/>
+    <mergeCell ref="AG4:AG5"/>
+    <mergeCell ref="AH4:AH5"/>
+    <mergeCell ref="AI4:AN4"/>
+    <mergeCell ref="AG14:AG15"/>
+    <mergeCell ref="AH14:AH15"/>
+    <mergeCell ref="AI14:AN14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -11914,7 +13713,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFC5CAB5-F7BD-4C9D-9320-5671A06A5F0A}">
   <dimension ref="B4:X51"/>
   <sheetViews>
@@ -11925,43 +13724,43 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="4" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B4" s="102" t="s">
+      <c r="B4" s="101" t="s">
         <v>120</v>
       </c>
-      <c r="C4" s="102"/>
-      <c r="D4" s="103" t="s">
+      <c r="C4" s="101"/>
+      <c r="D4" s="100" t="s">
         <v>100</v>
       </c>
-      <c r="E4" s="103"/>
-      <c r="F4" s="103"/>
-      <c r="G4" s="103"/>
-      <c r="H4" s="103"/>
-      <c r="I4" s="103"/>
-      <c r="J4" s="103"/>
-      <c r="K4" s="103"/>
-      <c r="L4" s="103"/>
-      <c r="M4" s="103"/>
-      <c r="N4" s="99" t="s">
+      <c r="E4" s="100"/>
+      <c r="F4" s="100"/>
+      <c r="G4" s="100"/>
+      <c r="H4" s="100"/>
+      <c r="I4" s="100"/>
+      <c r="J4" s="100"/>
+      <c r="K4" s="100"/>
+      <c r="L4" s="100"/>
+      <c r="M4" s="100"/>
+      <c r="N4" s="102" t="s">
         <v>105</v>
       </c>
-      <c r="Q4" s="99" t="s">
+      <c r="Q4" s="102" t="s">
         <v>59</v>
       </c>
-      <c r="R4" s="103" t="s">
+      <c r="R4" s="100" t="s">
         <v>109</v>
       </c>
-      <c r="S4" s="103" t="s">
+      <c r="S4" s="100" t="s">
         <v>110</v>
       </c>
-      <c r="T4" s="103"/>
-      <c r="U4" s="103"/>
-      <c r="V4" s="103"/>
-      <c r="W4" s="103"/>
-      <c r="X4" s="103"/>
+      <c r="T4" s="100"/>
+      <c r="U4" s="100"/>
+      <c r="V4" s="100"/>
+      <c r="W4" s="100"/>
+      <c r="X4" s="100"/>
     </row>
     <row r="5" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="102"/>
-      <c r="C5" s="102"/>
+      <c r="B5" s="101"/>
+      <c r="C5" s="101"/>
       <c r="D5" s="56">
         <v>1</v>
       </c>
@@ -11992,9 +13791,9 @@
       <c r="M5" s="56">
         <v>10</v>
       </c>
-      <c r="N5" s="99"/>
-      <c r="Q5" s="99"/>
-      <c r="R5" s="103"/>
+      <c r="N5" s="102"/>
+      <c r="Q5" s="102"/>
+      <c r="R5" s="100"/>
       <c r="S5" s="60" t="s">
         <v>1</v>
       </c>
@@ -12015,7 +13814,7 @@
       </c>
     </row>
     <row r="6" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B6" s="104" t="s">
+      <c r="B6" s="105" t="s">
         <v>110</v>
       </c>
       <c r="C6" s="56" t="s">
@@ -12087,7 +13886,7 @@
       </c>
     </row>
     <row r="7" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B7" s="104"/>
+      <c r="B7" s="105"/>
       <c r="C7" s="56" t="s">
         <v>2</v>
       </c>
@@ -12157,7 +13956,7 @@
       </c>
     </row>
     <row r="8" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B8" s="104"/>
+      <c r="B8" s="105"/>
       <c r="C8" s="56" t="s">
         <v>3</v>
       </c>
@@ -12227,7 +14026,7 @@
       </c>
     </row>
     <row r="9" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B9" s="104"/>
+      <c r="B9" s="105"/>
       <c r="C9" s="56" t="s">
         <v>52</v>
       </c>
@@ -12297,7 +14096,7 @@
       </c>
     </row>
     <row r="10" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B10" s="104"/>
+      <c r="B10" s="105"/>
       <c r="C10" s="56" t="s">
         <v>51</v>
       </c>
@@ -12367,7 +14166,7 @@
       </c>
     </row>
     <row r="11" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B11" s="104"/>
+      <c r="B11" s="105"/>
       <c r="C11" s="56" t="s">
         <v>69</v>
       </c>
@@ -12407,29 +14206,29 @@
       </c>
     </row>
     <row r="14" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B14" s="102" t="s">
+      <c r="B14" s="101" t="s">
         <v>121</v>
       </c>
-      <c r="C14" s="102"/>
-      <c r="D14" s="103" t="s">
+      <c r="C14" s="101"/>
+      <c r="D14" s="100" t="s">
         <v>100</v>
       </c>
-      <c r="E14" s="103"/>
-      <c r="F14" s="103"/>
-      <c r="G14" s="103"/>
-      <c r="H14" s="103"/>
-      <c r="I14" s="103"/>
-      <c r="J14" s="103"/>
-      <c r="K14" s="103"/>
-      <c r="L14" s="103"/>
-      <c r="M14" s="103"/>
-      <c r="N14" s="99" t="s">
+      <c r="E14" s="100"/>
+      <c r="F14" s="100"/>
+      <c r="G14" s="100"/>
+      <c r="H14" s="100"/>
+      <c r="I14" s="100"/>
+      <c r="J14" s="100"/>
+      <c r="K14" s="100"/>
+      <c r="L14" s="100"/>
+      <c r="M14" s="100"/>
+      <c r="N14" s="102" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="15" spans="2:24" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="102"/>
-      <c r="C15" s="102"/>
+      <c r="B15" s="101"/>
+      <c r="C15" s="101"/>
       <c r="D15" s="56">
         <v>1</v>
       </c>
@@ -12460,10 +14259,10 @@
       <c r="M15" s="56">
         <v>10</v>
       </c>
-      <c r="N15" s="99"/>
+      <c r="N15" s="102"/>
     </row>
     <row r="16" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B16" s="104" t="s">
+      <c r="B16" s="105" t="s">
         <v>110</v>
       </c>
       <c r="C16" s="56" t="s">
@@ -12505,7 +14304,7 @@
       </c>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B17" s="104"/>
+      <c r="B17" s="105"/>
       <c r="C17" s="56" t="s">
         <v>2</v>
       </c>
@@ -12545,7 +14344,7 @@
       </c>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B18" s="104"/>
+      <c r="B18" s="105"/>
       <c r="C18" s="56" t="s">
         <v>3</v>
       </c>
@@ -12585,7 +14384,7 @@
       </c>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B19" s="104"/>
+      <c r="B19" s="105"/>
       <c r="C19" s="56" t="s">
         <v>52</v>
       </c>
@@ -12625,7 +14424,7 @@
       </c>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B20" s="104"/>
+      <c r="B20" s="105"/>
       <c r="C20" s="56" t="s">
         <v>51</v>
       </c>
@@ -12665,7 +14464,7 @@
       </c>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B21" s="104"/>
+      <c r="B21" s="105"/>
       <c r="C21" s="56" t="s">
         <v>69</v>
       </c>
@@ -12705,29 +14504,29 @@
       </c>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B24" s="102" t="s">
+      <c r="B24" s="101" t="s">
         <v>122</v>
       </c>
-      <c r="C24" s="102"/>
-      <c r="D24" s="103" t="s">
+      <c r="C24" s="101"/>
+      <c r="D24" s="100" t="s">
         <v>100</v>
       </c>
-      <c r="E24" s="103"/>
-      <c r="F24" s="103"/>
-      <c r="G24" s="103"/>
-      <c r="H24" s="103"/>
-      <c r="I24" s="103"/>
-      <c r="J24" s="103"/>
-      <c r="K24" s="103"/>
-      <c r="L24" s="103"/>
-      <c r="M24" s="103"/>
-      <c r="N24" s="99" t="s">
+      <c r="E24" s="100"/>
+      <c r="F24" s="100"/>
+      <c r="G24" s="100"/>
+      <c r="H24" s="100"/>
+      <c r="I24" s="100"/>
+      <c r="J24" s="100"/>
+      <c r="K24" s="100"/>
+      <c r="L24" s="100"/>
+      <c r="M24" s="100"/>
+      <c r="N24" s="102" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="25" spans="2:14" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="102"/>
-      <c r="C25" s="102"/>
+      <c r="B25" s="101"/>
+      <c r="C25" s="101"/>
       <c r="D25" s="56">
         <v>1</v>
       </c>
@@ -12758,10 +14557,10 @@
       <c r="M25" s="56">
         <v>10</v>
       </c>
-      <c r="N25" s="99"/>
+      <c r="N25" s="102"/>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B26" s="104" t="s">
+      <c r="B26" s="105" t="s">
         <v>110</v>
       </c>
       <c r="C26" s="56" t="s">
@@ -12803,7 +14602,7 @@
       </c>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B27" s="104"/>
+      <c r="B27" s="105"/>
       <c r="C27" s="56" t="s">
         <v>2</v>
       </c>
@@ -12843,7 +14642,7 @@
       </c>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B28" s="104"/>
+      <c r="B28" s="105"/>
       <c r="C28" s="56" t="s">
         <v>3</v>
       </c>
@@ -12883,7 +14682,7 @@
       </c>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B29" s="104"/>
+      <c r="B29" s="105"/>
       <c r="C29" s="56" t="s">
         <v>52</v>
       </c>
@@ -12923,7 +14722,7 @@
       </c>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B30" s="104"/>
+      <c r="B30" s="105"/>
       <c r="C30" s="56" t="s">
         <v>51</v>
       </c>
@@ -12963,7 +14762,7 @@
       </c>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B31" s="104"/>
+      <c r="B31" s="105"/>
       <c r="C31" s="54" t="s">
         <v>69</v>
       </c>
@@ -13002,29 +14801,29 @@
       </c>
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B34" s="102" t="s">
+      <c r="B34" s="101" t="s">
         <v>123</v>
       </c>
-      <c r="C34" s="102"/>
-      <c r="D34" s="103" t="s">
+      <c r="C34" s="101"/>
+      <c r="D34" s="100" t="s">
         <v>100</v>
       </c>
-      <c r="E34" s="103"/>
-      <c r="F34" s="103"/>
-      <c r="G34" s="103"/>
-      <c r="H34" s="103"/>
-      <c r="I34" s="103"/>
-      <c r="J34" s="103"/>
-      <c r="K34" s="103"/>
-      <c r="L34" s="103"/>
-      <c r="M34" s="103"/>
-      <c r="N34" s="99" t="s">
+      <c r="E34" s="100"/>
+      <c r="F34" s="100"/>
+      <c r="G34" s="100"/>
+      <c r="H34" s="100"/>
+      <c r="I34" s="100"/>
+      <c r="J34" s="100"/>
+      <c r="K34" s="100"/>
+      <c r="L34" s="100"/>
+      <c r="M34" s="100"/>
+      <c r="N34" s="102" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="35" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="102"/>
-      <c r="C35" s="102"/>
+      <c r="B35" s="101"/>
+      <c r="C35" s="101"/>
       <c r="D35" s="56">
         <v>1</v>
       </c>
@@ -13055,10 +14854,10 @@
       <c r="M35" s="56">
         <v>10</v>
       </c>
-      <c r="N35" s="99"/>
+      <c r="N35" s="102"/>
     </row>
     <row r="36" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B36" s="104" t="s">
+      <c r="B36" s="105" t="s">
         <v>110</v>
       </c>
       <c r="C36" s="56" t="s">
@@ -13100,7 +14899,7 @@
       </c>
     </row>
     <row r="37" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B37" s="104"/>
+      <c r="B37" s="105"/>
       <c r="C37" s="56" t="s">
         <v>2</v>
       </c>
@@ -13140,7 +14939,7 @@
       </c>
     </row>
     <row r="38" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B38" s="104"/>
+      <c r="B38" s="105"/>
       <c r="C38" s="56" t="s">
         <v>3</v>
       </c>
@@ -13180,7 +14979,7 @@
       </c>
     </row>
     <row r="39" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B39" s="104"/>
+      <c r="B39" s="105"/>
       <c r="C39" s="56" t="s">
         <v>52</v>
       </c>
@@ -13220,7 +15019,7 @@
       </c>
     </row>
     <row r="40" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B40" s="104"/>
+      <c r="B40" s="105"/>
       <c r="C40" s="56" t="s">
         <v>51</v>
       </c>
@@ -13260,7 +15059,7 @@
       </c>
     </row>
     <row r="41" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B41" s="104"/>
+      <c r="B41" s="105"/>
       <c r="C41" s="54" t="s">
         <v>69</v>
       </c>
@@ -13299,29 +15098,29 @@
       </c>
     </row>
     <row r="44" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B44" s="102" t="s">
+      <c r="B44" s="101" t="s">
         <v>126</v>
       </c>
-      <c r="C44" s="102"/>
-      <c r="D44" s="103" t="s">
+      <c r="C44" s="101"/>
+      <c r="D44" s="100" t="s">
         <v>100</v>
       </c>
-      <c r="E44" s="103"/>
-      <c r="F44" s="103"/>
-      <c r="G44" s="103"/>
-      <c r="H44" s="103"/>
-      <c r="I44" s="103"/>
-      <c r="J44" s="103"/>
-      <c r="K44" s="103"/>
-      <c r="L44" s="103"/>
-      <c r="M44" s="103"/>
-      <c r="N44" s="99" t="s">
+      <c r="E44" s="100"/>
+      <c r="F44" s="100"/>
+      <c r="G44" s="100"/>
+      <c r="H44" s="100"/>
+      <c r="I44" s="100"/>
+      <c r="J44" s="100"/>
+      <c r="K44" s="100"/>
+      <c r="L44" s="100"/>
+      <c r="M44" s="100"/>
+      <c r="N44" s="102" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="45" spans="2:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="102"/>
-      <c r="C45" s="102"/>
+      <c r="B45" s="101"/>
+      <c r="C45" s="101"/>
       <c r="D45" s="62">
         <v>1</v>
       </c>
@@ -13352,10 +15151,10 @@
       <c r="M45" s="62">
         <v>10</v>
       </c>
-      <c r="N45" s="99"/>
+      <c r="N45" s="102"/>
     </row>
     <row r="46" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B46" s="104" t="s">
+      <c r="B46" s="105" t="s">
         <v>110</v>
       </c>
       <c r="C46" s="62" t="s">
@@ -13397,7 +15196,7 @@
       </c>
     </row>
     <row r="47" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B47" s="104"/>
+      <c r="B47" s="105"/>
       <c r="C47" s="62" t="s">
         <v>2</v>
       </c>
@@ -13437,7 +15236,7 @@
       </c>
     </row>
     <row r="48" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B48" s="104"/>
+      <c r="B48" s="105"/>
       <c r="C48" s="62" t="s">
         <v>3</v>
       </c>
@@ -13477,7 +15276,7 @@
       </c>
     </row>
     <row r="49" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B49" s="104"/>
+      <c r="B49" s="105"/>
       <c r="C49" s="62" t="s">
         <v>52</v>
       </c>
@@ -13517,7 +15316,7 @@
       </c>
     </row>
     <row r="50" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B50" s="104"/>
+      <c r="B50" s="105"/>
       <c r="C50" s="54" t="s">
         <v>51</v>
       </c>
@@ -13556,7 +15355,7 @@
       </c>
     </row>
     <row r="51" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B51" s="104"/>
+      <c r="B51" s="105"/>
       <c r="C51" s="54" t="s">
         <v>69</v>
       </c>
@@ -13596,16 +15395,18 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="D34:M34"/>
+    <mergeCell ref="N34:N35"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:X4"/>
+    <mergeCell ref="B4:C5"/>
+    <mergeCell ref="D4:M4"/>
+    <mergeCell ref="N4:N5"/>
     <mergeCell ref="B44:C45"/>
     <mergeCell ref="D44:M44"/>
     <mergeCell ref="N44:N45"/>
     <mergeCell ref="B46:B51"/>
     <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:X4"/>
-    <mergeCell ref="B4:C5"/>
-    <mergeCell ref="D4:M4"/>
-    <mergeCell ref="N4:N5"/>
     <mergeCell ref="B6:B11"/>
     <mergeCell ref="B14:C15"/>
     <mergeCell ref="D14:M14"/>
@@ -13617,14 +15418,12 @@
     <mergeCell ref="N24:N25"/>
     <mergeCell ref="B26:B31"/>
     <mergeCell ref="B34:C35"/>
-    <mergeCell ref="D34:M34"/>
-    <mergeCell ref="N34:N35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B6:R38"/>
   <sheetViews>
@@ -13699,7 +15498,7 @@
       </c>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B8" s="107">
+      <c r="B8" s="116">
         <v>584</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -13720,7 +15519,7 @@
       <c r="H8" s="1">
         <v>8.0800000000000004E-3</v>
       </c>
-      <c r="L8" s="108">
+      <c r="L8" s="106">
         <v>584</v>
       </c>
       <c r="M8" s="1" t="s">
@@ -13743,7 +15542,7 @@
       </c>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B9" s="107"/>
+      <c r="B9" s="116"/>
       <c r="C9" s="1" t="s">
         <v>68</v>
       </c>
@@ -13762,7 +15561,7 @@
       <c r="H9" s="1">
         <v>4.5935999999999998E-2</v>
       </c>
-      <c r="L9" s="109"/>
+      <c r="L9" s="107"/>
       <c r="M9" s="1" t="s">
         <v>65</v>
       </c>
@@ -13788,7 +15587,7 @@
       </c>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B10" s="105">
+      <c r="B10" s="117">
         <v>980</v>
       </c>
       <c r="C10" s="16" t="s">
@@ -13809,7 +15608,7 @@
       <c r="H10" s="16">
         <v>1.2456E-2</v>
       </c>
-      <c r="L10" s="109"/>
+      <c r="L10" s="107"/>
       <c r="M10" s="1" t="s">
         <v>61</v>
       </c>
@@ -13830,7 +15629,7 @@
       </c>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B11" s="105"/>
+      <c r="B11" s="117"/>
       <c r="C11" s="16" t="s">
         <v>68</v>
       </c>
@@ -13849,7 +15648,7 @@
       <c r="H11" s="16">
         <v>6.3119999999999996E-2</v>
       </c>
-      <c r="L11" s="110"/>
+      <c r="L11" s="108"/>
       <c r="M11" s="1" t="s">
         <v>66</v>
       </c>
@@ -13875,7 +15674,7 @@
       </c>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B12" s="103">
+      <c r="B12" s="100">
         <v>1280</v>
       </c>
       <c r="C12" s="4" t="s">
@@ -13896,7 +15695,7 @@
       <c r="H12" s="4">
         <v>1.5299999999999999E-2</v>
       </c>
-      <c r="L12" s="111">
+      <c r="L12" s="109">
         <v>980</v>
       </c>
       <c r="M12" s="16" t="s">
@@ -13919,7 +15718,7 @@
       </c>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B13" s="103"/>
+      <c r="B13" s="100"/>
       <c r="C13" s="4" t="s">
         <v>68</v>
       </c>
@@ -13938,7 +15737,7 @@
       <c r="H13" s="4">
         <v>6.6844000000000001E-2</v>
       </c>
-      <c r="L13" s="112"/>
+      <c r="L13" s="110"/>
       <c r="M13" s="16" t="s">
         <v>66</v>
       </c>
@@ -13964,7 +15763,7 @@
       </c>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B14" s="106">
+      <c r="B14" s="115">
         <v>1345</v>
       </c>
       <c r="C14" s="7" t="s">
@@ -13985,7 +15784,7 @@
       <c r="H14" s="7">
         <v>1.5807999999999999E-2</v>
       </c>
-      <c r="L14" s="112"/>
+      <c r="L14" s="110"/>
       <c r="M14" s="16" t="s">
         <v>61</v>
       </c>
@@ -14006,7 +15805,7 @@
       </c>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B15" s="106"/>
+      <c r="B15" s="115"/>
       <c r="C15" s="7" t="s">
         <v>68</v>
       </c>
@@ -14025,7 +15824,7 @@
       <c r="H15" s="7">
         <v>6.7227999999999996E-2</v>
       </c>
-      <c r="L15" s="113"/>
+      <c r="L15" s="111"/>
       <c r="M15" s="16" t="s">
         <v>66</v>
       </c>
@@ -14051,7 +15850,7 @@
       </c>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="L16" s="114">
+      <c r="L16" s="112">
         <v>1280</v>
       </c>
       <c r="M16" s="4" t="s">
@@ -14074,7 +15873,7 @@
       </c>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="L17" s="115"/>
+      <c r="L17" s="113"/>
       <c r="M17" s="4" t="s">
         <v>65</v>
       </c>
@@ -14100,7 +15899,7 @@
       </c>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="L18" s="115"/>
+      <c r="L18" s="113"/>
       <c r="M18" s="4" t="s">
         <v>61</v>
       </c>
@@ -14121,7 +15920,7 @@
       </c>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="L19" s="116"/>
+      <c r="L19" s="114"/>
       <c r="M19" s="4" t="s">
         <v>65</v>
       </c>
@@ -14147,7 +15946,7 @@
       </c>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="L20" s="106">
+      <c r="L20" s="115">
         <v>1345</v>
       </c>
       <c r="M20" s="7" t="s">
@@ -14170,7 +15969,7 @@
       </c>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="L21" s="106"/>
+      <c r="L21" s="115"/>
       <c r="M21" s="7" t="s">
         <v>65</v>
       </c>
@@ -14196,7 +15995,7 @@
       </c>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="L22" s="106"/>
+      <c r="L22" s="115"/>
       <c r="M22" s="7" t="s">
         <v>61</v>
       </c>
@@ -14217,7 +16016,7 @@
       </c>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="L23" s="106"/>
+      <c r="L23" s="115"/>
       <c r="M23" s="7" t="s">
         <v>65</v>
       </c>
@@ -14271,7 +16070,7 @@
       </c>
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B31" s="107">
+      <c r="B31" s="116">
         <v>584</v>
       </c>
       <c r="C31" s="1" t="s">
@@ -14294,7 +16093,7 @@
       </c>
     </row>
     <row r="32" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B32" s="107"/>
+      <c r="B32" s="116"/>
       <c r="C32" s="1" t="s">
         <v>68</v>
       </c>
@@ -14315,7 +16114,7 @@
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B33" s="105">
+      <c r="B33" s="117">
         <v>980</v>
       </c>
       <c r="C33" s="16" t="s">
@@ -14338,7 +16137,7 @@
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B34" s="105"/>
+      <c r="B34" s="117"/>
       <c r="C34" s="16" t="s">
         <v>68</v>
       </c>
@@ -14359,7 +16158,7 @@
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B35" s="103">
+      <c r="B35" s="100">
         <v>1280</v>
       </c>
       <c r="C35" s="4" t="s">
@@ -14382,7 +16181,7 @@
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B36" s="103"/>
+      <c r="B36" s="100"/>
       <c r="C36" s="4" t="s">
         <v>68</v>
       </c>
@@ -14403,7 +16202,7 @@
       </c>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B37" s="106">
+      <c r="B37" s="115">
         <v>1345</v>
       </c>
       <c r="C37" s="7" t="s">
@@ -14426,7 +16225,7 @@
       </c>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B38" s="106"/>
+      <c r="B38" s="115"/>
       <c r="C38" s="7" t="s">
         <v>68</v>
       </c>
@@ -14448,11 +16247,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="L8:L11"/>
-    <mergeCell ref="L12:L15"/>
-    <mergeCell ref="L16:L19"/>
-    <mergeCell ref="L20:L23"/>
-    <mergeCell ref="B31:B32"/>
     <mergeCell ref="B33:B34"/>
     <mergeCell ref="B35:B36"/>
     <mergeCell ref="B37:B38"/>
@@ -14460,13 +16254,18 @@
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="B14:B15"/>
+    <mergeCell ref="L8:L11"/>
+    <mergeCell ref="L12:L15"/>
+    <mergeCell ref="L16:L19"/>
+    <mergeCell ref="L20:L23"/>
+    <mergeCell ref="B31:B32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A5:R19"/>
   <sheetViews>
@@ -14485,7 +16284,7 @@
   </cols>
   <sheetData>
     <row r="5" spans="1:18" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="117" t="s">
+      <c r="A5" s="118" t="s">
         <v>73</v>
       </c>
       <c r="B5" s="32" t="s">
@@ -14511,7 +16310,7 @@
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="117"/>
+      <c r="A6" s="118"/>
       <c r="B6" s="33">
         <v>584</v>
       </c>
@@ -14535,7 +16334,7 @@
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="117"/>
+      <c r="A7" s="118"/>
       <c r="B7" s="33">
         <v>980</v>
       </c>
@@ -14559,7 +16358,7 @@
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="117"/>
+      <c r="A8" s="118"/>
       <c r="B8" s="33">
         <v>1280</v>
       </c>
@@ -14583,7 +16382,7 @@
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="117"/>
+      <c r="A9" s="118"/>
       <c r="B9" s="33">
         <v>1435</v>
       </c>
@@ -14607,7 +16406,7 @@
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="117"/>
+      <c r="A10" s="118"/>
       <c r="B10" s="33">
         <v>1640</v>
       </c>
@@ -14631,7 +16430,7 @@
       </c>
     </row>
     <row r="14" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="117" t="s">
+      <c r="A14" s="118" t="s">
         <v>72</v>
       </c>
       <c r="B14" s="32" t="s">
@@ -14657,7 +16456,7 @@
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="117"/>
+      <c r="A15" s="118"/>
       <c r="B15" s="33">
         <v>584</v>
       </c>
@@ -14669,7 +16468,7 @@
       <c r="H15" s="1"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="117"/>
+      <c r="A16" s="118"/>
       <c r="B16" s="33">
         <v>980</v>
       </c>
@@ -14679,11 +16478,11 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="5"/>
-      <c r="K16" s="118" t="s">
+      <c r="K16" s="119" t="s">
         <v>74</v>
       </c>
-      <c r="L16" s="118"/>
-      <c r="M16" s="118"/>
+      <c r="L16" s="119"/>
+      <c r="M16" s="119"/>
       <c r="P16" s="11" t="s">
         <v>80</v>
       </c>
@@ -14695,7 +16494,7 @@
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="117"/>
+      <c r="A17" s="118"/>
       <c r="B17" s="33">
         <v>1280</v>
       </c>
@@ -14725,7 +16524,7 @@
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="117"/>
+      <c r="A18" s="118"/>
       <c r="B18" s="33">
         <v>1435</v>
       </c>
@@ -14755,7 +16554,7 @@
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="117"/>
+      <c r="A19" s="118"/>
       <c r="B19" s="33">
         <v>1640</v>
       </c>

--- a/Data Hasil Uji Coba/Uji Coba.xlsx
+++ b/Data Hasil Uji Coba/Uji Coba.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{2C10D9E1-5B2D-4D3F-8C75-2C1EE347C2C7}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{3E0EB85D-1D71-4412-AF36-D73001A05DA8}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Static Buffer" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="849" uniqueCount="135">
   <si>
     <t>0 x</t>
   </si>
@@ -445,6 +445,12 @@
   <si>
     <t>Jumlah Data Masuk dari End Device ke Router</t>
   </si>
+  <si>
+    <t>New</t>
+  </si>
+  <si>
+    <t>Old</t>
+  </si>
 </sst>
 </file>
 
@@ -753,7 +759,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -908,32 +914,35 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -971,25 +980,31 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1011,12 +1026,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="14" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1025,8 +1034,26 @@
     <xf numFmtId="164" fontId="0" fillId="14" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="14" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1055,29 +1082,14 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="14" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1125,7 +1137,10 @@
             <a:pPr>
               <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1133,9 +1148,26 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Perbandingan Akurasi Pengiriman Data ZigBee Pada Jarak Berbeda - beda</a:t>
+              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Perbandingan </a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="0" i="1" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Packet Delivery Ratio</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>  ZigBee pada Jarak Berbeda - beda</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1154,7 +1186,10 @@
           <a:pPr>
             <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -1170,7 +1205,7 @@
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
-        <c:grouping val="stacked"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -1205,13 +1240,18 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
                   <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000"/>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -1275,17 +1315,17 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.86799999999999999</c:v>
+                  <c:v>0.92700000000000005</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.69499999999999995</c:v>
+                  <c:v>0.84099999999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7F68-465A-B416-BB495E0A42FB}"/>
+              <c16:uniqueId val="{00000000-0664-42EF-9567-9967E61607A3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1322,13 +1362,18 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
                   <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000"/>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -1392,17 +1437,17 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.13200000000000001</c:v>
+                  <c:v>7.2999999999999954E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.30500000000000005</c:v>
+                  <c:v>0.15900000000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-7F68-465A-B416-BB495E0A42FB}"/>
+              <c16:uniqueId val="{00000001-0664-42EF-9567-9967E61607A3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1414,13 +1459,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:overlap val="100"/>
-        <c:axId val="413749840"/>
-        <c:axId val="413747872"/>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="528184168"/>
+        <c:axId val="528182856"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="413749840"/>
+        <c:axId val="528184168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1450,7 +1495,10 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1460,7 +1508,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="413747872"/>
+        <c:crossAx val="528182856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1468,7 +1516,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="413747872"/>
+        <c:axId val="528182856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1506,7 +1554,10 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1516,7 +1567,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="413749840"/>
+        <c:crossAx val="528184168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1545,7 +1596,10 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -1580,11 +1634,7 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:defRPr>
+        <a:defRPr/>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -1636,7 +1686,23 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Akurasi Pengiriman Data ZigBee</a:t>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="1" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Packet Delivery Ratio</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>ZigBee</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -1646,7 +1712,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.16623617023948559"/>
+          <c:x val="0.12795865827776312"/>
           <c:y val="4.1585436583641777E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -1737,10 +1803,10 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.86799999999999999</c:v>
+                  <c:v>0.92700000000000005</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.69499999999999995</c:v>
+                  <c:v>0.84099999999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1959,7 +2025,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="900" b="0" i="1" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -2100,7 +2166,7 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -2304,23 +2370,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -2425,8 +2490,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2558,20 +2623,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -3111,23 +3175,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>247649</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>128587</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>185737</xdr:rowOff>
+      <xdr:rowOff>80962</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>471487</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
+        <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A597C74-07D3-4816-B6C9-E70FC287D456}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3483,32 +3547,32 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="96" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="K2" s="72" t="s">
+      <c r="B2" s="96"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="96"/>
+      <c r="K2" s="96" t="s">
         <v>37</v>
       </c>
-      <c r="L2" s="72"/>
-      <c r="M2" s="72"/>
-      <c r="N2" s="72"/>
-      <c r="O2" s="72"/>
-      <c r="P2" s="72"/>
-      <c r="Q2" s="72"/>
-      <c r="R2" s="72"/>
+      <c r="L2" s="96"/>
+      <c r="M2" s="96"/>
+      <c r="N2" s="96"/>
+      <c r="O2" s="96"/>
+      <c r="P2" s="96"/>
+      <c r="Q2" s="96"/>
+      <c r="R2" s="96"/>
     </row>
     <row r="3" spans="1:18" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="73" t="s">
+      <c r="A3" s="94" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="74"/>
+      <c r="B3" s="95"/>
       <c r="C3" s="14"/>
       <c r="D3" s="15" t="s">
         <v>1</v>
@@ -3525,10 +3589,10 @@
       <c r="H3" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="73" t="s">
+      <c r="K3" s="94" t="s">
         <v>31</v>
       </c>
-      <c r="L3" s="74"/>
+      <c r="L3" s="95"/>
       <c r="M3" s="14"/>
       <c r="N3" s="15" t="s">
         <v>1</v>
@@ -3547,10 +3611,10 @@
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="75">
+      <c r="A4" s="76">
         <v>584</v>
       </c>
-      <c r="B4" s="76"/>
+      <c r="B4" s="77"/>
       <c r="C4" s="1" t="s">
         <v>30</v>
       </c>
@@ -3569,10 +3633,10 @@
       <c r="H4" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="75">
+      <c r="K4" s="76">
         <v>584</v>
       </c>
-      <c r="L4" s="76"/>
+      <c r="L4" s="77"/>
       <c r="M4" s="1" t="s">
         <v>30</v>
       </c>
@@ -3593,8 +3657,8 @@
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="77"/>
-      <c r="B5" s="78"/>
+      <c r="A5" s="78"/>
+      <c r="B5" s="79"/>
       <c r="C5" s="1" t="s">
         <v>21</v>
       </c>
@@ -3613,8 +3677,8 @@
       <c r="H5" s="1">
         <v>21</v>
       </c>
-      <c r="K5" s="77"/>
-      <c r="L5" s="78"/>
+      <c r="K5" s="78"/>
+      <c r="L5" s="79"/>
       <c r="M5" s="1" t="s">
         <v>21</v>
       </c>
@@ -3635,8 +3699,8 @@
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="77"/>
-      <c r="B6" s="78"/>
+      <c r="A6" s="78"/>
+      <c r="B6" s="79"/>
       <c r="C6" s="1" t="s">
         <v>33</v>
       </c>
@@ -3660,8 +3724,8 @@
         <f>($A$4-H5)/$A$4</f>
         <v>0.96404109589041098</v>
       </c>
-      <c r="K6" s="77"/>
-      <c r="L6" s="78"/>
+      <c r="K6" s="78"/>
+      <c r="L6" s="79"/>
       <c r="M6" s="1" t="s">
         <v>33</v>
       </c>
@@ -3687,8 +3751,8 @@
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="77"/>
-      <c r="B7" s="78"/>
+      <c r="A7" s="78"/>
+      <c r="B7" s="79"/>
       <c r="C7" s="1" t="s">
         <v>22</v>
       </c>
@@ -3707,8 +3771,8 @@
       <c r="H7" s="1">
         <v>427</v>
       </c>
-      <c r="K7" s="77"/>
-      <c r="L7" s="78"/>
+      <c r="K7" s="78"/>
+      <c r="L7" s="79"/>
       <c r="M7" s="1" t="s">
         <v>22</v>
       </c>
@@ -3729,8 +3793,8 @@
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="79"/>
-      <c r="B8" s="80"/>
+      <c r="A8" s="80"/>
+      <c r="B8" s="81"/>
       <c r="C8" s="1" t="s">
         <v>34</v>
       </c>
@@ -3754,8 +3818,8 @@
         <f>($A$4-H7)/$A$4</f>
         <v>0.26883561643835618</v>
       </c>
-      <c r="K8" s="79"/>
-      <c r="L8" s="80"/>
+      <c r="K8" s="80"/>
+      <c r="L8" s="81"/>
       <c r="M8" s="1" t="s">
         <v>34</v>
       </c>
@@ -3781,10 +3845,10 @@
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="81">
+      <c r="A9" s="82">
         <v>980</v>
       </c>
-      <c r="B9" s="82"/>
+      <c r="B9" s="83"/>
       <c r="C9" s="16" t="s">
         <v>30</v>
       </c>
@@ -3803,10 +3867,10 @@
       <c r="H9" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="K9" s="81">
+      <c r="K9" s="82">
         <v>980</v>
       </c>
-      <c r="L9" s="82"/>
+      <c r="L9" s="83"/>
       <c r="M9" s="16" t="s">
         <v>30</v>
       </c>
@@ -3827,8 +3891,8 @@
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="83"/>
-      <c r="B10" s="84"/>
+      <c r="A10" s="84"/>
+      <c r="B10" s="85"/>
       <c r="C10" s="16" t="s">
         <v>21</v>
       </c>
@@ -3847,8 +3911,8 @@
       <c r="H10" s="16">
         <v>33</v>
       </c>
-      <c r="K10" s="83"/>
-      <c r="L10" s="84"/>
+      <c r="K10" s="84"/>
+      <c r="L10" s="85"/>
       <c r="M10" s="16" t="s">
         <v>21</v>
       </c>
@@ -3869,8 +3933,8 @@
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="83"/>
-      <c r="B11" s="84"/>
+      <c r="A11" s="84"/>
+      <c r="B11" s="85"/>
       <c r="C11" s="16" t="s">
         <v>35</v>
       </c>
@@ -3894,8 +3958,8 @@
         <f>($A$9-H10)/$A$9</f>
         <v>0.96632653061224494</v>
       </c>
-      <c r="K11" s="83"/>
-      <c r="L11" s="84"/>
+      <c r="K11" s="84"/>
+      <c r="L11" s="85"/>
       <c r="M11" s="16" t="s">
         <v>35</v>
       </c>
@@ -3921,8 +3985,8 @@
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="83"/>
-      <c r="B12" s="84"/>
+      <c r="A12" s="84"/>
+      <c r="B12" s="85"/>
       <c r="C12" s="16" t="s">
         <v>22</v>
       </c>
@@ -3941,8 +4005,8 @@
       <c r="H12" s="16">
         <v>564</v>
       </c>
-      <c r="K12" s="83"/>
-      <c r="L12" s="84"/>
+      <c r="K12" s="84"/>
+      <c r="L12" s="85"/>
       <c r="M12" s="16" t="s">
         <v>22</v>
       </c>
@@ -3963,8 +4027,8 @@
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="85"/>
-      <c r="B13" s="86"/>
+      <c r="A13" s="86"/>
+      <c r="B13" s="87"/>
       <c r="C13" s="16" t="s">
         <v>34</v>
       </c>
@@ -3988,8 +4052,8 @@
         <f>($A$9-H12)/$A$9</f>
         <v>0.42448979591836733</v>
       </c>
-      <c r="K13" s="85"/>
-      <c r="L13" s="86"/>
+      <c r="K13" s="86"/>
+      <c r="L13" s="87"/>
       <c r="M13" s="16" t="s">
         <v>34</v>
       </c>
@@ -4015,10 +4079,10 @@
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="66">
+      <c r="A14" s="88">
         <v>1280</v>
       </c>
-      <c r="B14" s="67"/>
+      <c r="B14" s="89"/>
       <c r="C14" s="13" t="s">
         <v>30</v>
       </c>
@@ -4037,10 +4101,10 @@
       <c r="H14" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="66">
+      <c r="K14" s="88">
         <v>1280</v>
       </c>
-      <c r="L14" s="67"/>
+      <c r="L14" s="89"/>
       <c r="M14" s="13" t="s">
         <v>30</v>
       </c>
@@ -4061,8 +4125,8 @@
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="68"/>
-      <c r="B15" s="69"/>
+      <c r="A15" s="90"/>
+      <c r="B15" s="91"/>
       <c r="C15" s="4" t="s">
         <v>21</v>
       </c>
@@ -4079,8 +4143,8 @@
         <v>68</v>
       </c>
       <c r="H15" s="5"/>
-      <c r="K15" s="68"/>
-      <c r="L15" s="69"/>
+      <c r="K15" s="90"/>
+      <c r="L15" s="91"/>
       <c r="M15" s="4" t="s">
         <v>21</v>
       </c>
@@ -4101,8 +4165,8 @@
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="68"/>
-      <c r="B16" s="69"/>
+      <c r="A16" s="90"/>
+      <c r="B16" s="91"/>
       <c r="C16" s="4" t="s">
         <v>35</v>
       </c>
@@ -4126,8 +4190,8 @@
         <f>($A$14-H15)/$A$14</f>
         <v>1</v>
       </c>
-      <c r="K16" s="68"/>
-      <c r="L16" s="69"/>
+      <c r="K16" s="90"/>
+      <c r="L16" s="91"/>
       <c r="M16" s="4" t="s">
         <v>35</v>
       </c>
@@ -4153,8 +4217,8 @@
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="68"/>
-      <c r="B17" s="69"/>
+      <c r="A17" s="90"/>
+      <c r="B17" s="91"/>
       <c r="C17" s="4" t="s">
         <v>22</v>
       </c>
@@ -4171,8 +4235,8 @@
         <v>1120</v>
       </c>
       <c r="H17" s="5"/>
-      <c r="K17" s="68"/>
-      <c r="L17" s="69"/>
+      <c r="K17" s="90"/>
+      <c r="L17" s="91"/>
       <c r="M17" s="4" t="s">
         <v>22</v>
       </c>
@@ -4193,8 +4257,8 @@
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="70"/>
-      <c r="B18" s="71"/>
+      <c r="A18" s="92"/>
+      <c r="B18" s="93"/>
       <c r="C18" s="4" t="s">
         <v>34</v>
       </c>
@@ -4218,8 +4282,8 @@
         <f>($A$14-H17)/$A$14</f>
         <v>1</v>
       </c>
-      <c r="K18" s="70"/>
-      <c r="L18" s="71"/>
+      <c r="K18" s="92"/>
+      <c r="L18" s="93"/>
       <c r="M18" s="4" t="s">
         <v>34</v>
       </c>
@@ -4245,10 +4309,10 @@
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="87">
+      <c r="A19" s="69">
         <v>1345</v>
       </c>
-      <c r="B19" s="88"/>
+      <c r="B19" s="70"/>
       <c r="C19" s="7" t="s">
         <v>30</v>
       </c>
@@ -4267,10 +4331,10 @@
       <c r="H19" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="K19" s="87">
+      <c r="K19" s="69">
         <v>1345</v>
       </c>
-      <c r="L19" s="88"/>
+      <c r="L19" s="70"/>
       <c r="M19" s="7" t="s">
         <v>30</v>
       </c>
@@ -4291,8 +4355,8 @@
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="89"/>
-      <c r="B20" s="90"/>
+      <c r="A20" s="71"/>
+      <c r="B20" s="72"/>
       <c r="C20" s="7" t="s">
         <v>21</v>
       </c>
@@ -4309,8 +4373,8 @@
         <v>129</v>
       </c>
       <c r="H20" s="5"/>
-      <c r="K20" s="89"/>
-      <c r="L20" s="90"/>
+      <c r="K20" s="71"/>
+      <c r="L20" s="72"/>
       <c r="M20" s="7" t="s">
         <v>21</v>
       </c>
@@ -4331,8 +4395,8 @@
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21" s="89"/>
-      <c r="B21" s="90"/>
+      <c r="A21" s="71"/>
+      <c r="B21" s="72"/>
       <c r="C21" s="7" t="s">
         <v>35</v>
       </c>
@@ -4353,8 +4417,8 @@
         <v>0.90408921933085507</v>
       </c>
       <c r="H21" s="5"/>
-      <c r="K21" s="89"/>
-      <c r="L21" s="90"/>
+      <c r="K21" s="71"/>
+      <c r="L21" s="72"/>
       <c r="M21" s="7" t="s">
         <v>35</v>
       </c>
@@ -4380,8 +4444,8 @@
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A22" s="89"/>
-      <c r="B22" s="90"/>
+      <c r="A22" s="71"/>
+      <c r="B22" s="72"/>
       <c r="C22" s="7" t="s">
         <v>22</v>
       </c>
@@ -4398,8 +4462,8 @@
         <v>1182</v>
       </c>
       <c r="H22" s="5"/>
-      <c r="K22" s="89"/>
-      <c r="L22" s="90"/>
+      <c r="K22" s="71"/>
+      <c r="L22" s="72"/>
       <c r="M22" s="7" t="s">
         <v>22</v>
       </c>
@@ -4418,8 +4482,8 @@
       <c r="R22" s="5"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A23" s="91"/>
-      <c r="B23" s="92"/>
+      <c r="A23" s="73"/>
+      <c r="B23" s="74"/>
       <c r="C23" s="7" t="s">
         <v>34</v>
       </c>
@@ -4440,8 +4504,8 @@
         <v>0.12118959107806691</v>
       </c>
       <c r="H23" s="5"/>
-      <c r="K23" s="91"/>
-      <c r="L23" s="92"/>
+      <c r="K23" s="73"/>
+      <c r="L23" s="74"/>
       <c r="M23" s="7" t="s">
         <v>34</v>
       </c>
@@ -4464,10 +4528,10 @@
       <c r="R23" s="5"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="K24" s="93">
+      <c r="K24" s="75">
         <v>1640</v>
       </c>
-      <c r="L24" s="93"/>
+      <c r="L24" s="75"/>
       <c r="M24" s="24" t="s">
         <v>30</v>
       </c>
@@ -4488,10 +4552,10 @@
       </c>
     </row>
     <row r="28" spans="1:18" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="73" t="s">
+      <c r="A28" s="94" t="s">
         <v>31</v>
       </c>
-      <c r="B28" s="74"/>
+      <c r="B28" s="95"/>
       <c r="C28" s="14"/>
       <c r="D28" s="15" t="s">
         <v>1</v>
@@ -4508,10 +4572,10 @@
       <c r="H28" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="K28" s="73" t="s">
+      <c r="K28" s="94" t="s">
         <v>31</v>
       </c>
-      <c r="L28" s="74"/>
+      <c r="L28" s="95"/>
       <c r="M28" s="14"/>
       <c r="N28" s="15" t="s">
         <v>1</v>
@@ -4530,10 +4594,10 @@
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A29" s="75">
+      <c r="A29" s="76">
         <v>584</v>
       </c>
-      <c r="B29" s="76"/>
+      <c r="B29" s="77"/>
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -4553,10 +4617,10 @@
         <v>8.1119999999999994E-3</v>
       </c>
       <c r="J29" s="24"/>
-      <c r="K29" s="75">
+      <c r="K29" s="76">
         <v>584</v>
       </c>
-      <c r="L29" s="76"/>
+      <c r="L29" s="77"/>
       <c r="M29" s="1" t="s">
         <v>23</v>
       </c>
@@ -4577,8 +4641,8 @@
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A30" s="77"/>
-      <c r="B30" s="78"/>
+      <c r="A30" s="78"/>
+      <c r="B30" s="79"/>
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -4597,8 +4661,8 @@
       <c r="H30" s="1">
         <v>3.248E-3</v>
       </c>
-      <c r="K30" s="77"/>
-      <c r="L30" s="78"/>
+      <c r="K30" s="78"/>
+      <c r="L30" s="79"/>
       <c r="M30" s="1" t="s">
         <v>24</v>
       </c>
@@ -4619,8 +4683,8 @@
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A31" s="77"/>
-      <c r="B31" s="78"/>
+      <c r="A31" s="78"/>
+      <c r="B31" s="79"/>
       <c r="C31" s="19" t="s">
         <v>32</v>
       </c>
@@ -4644,8 +4708,8 @@
         <f t="shared" si="0"/>
         <v>1.1359999999999999E-2</v>
       </c>
-      <c r="K31" s="77"/>
-      <c r="L31" s="78"/>
+      <c r="K31" s="78"/>
+      <c r="L31" s="79"/>
       <c r="M31" s="19" t="s">
         <v>32</v>
       </c>
@@ -4671,8 +4735,8 @@
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A32" s="77"/>
-      <c r="B32" s="78"/>
+      <c r="A32" s="78"/>
+      <c r="B32" s="79"/>
       <c r="C32" s="1" t="s">
         <v>25</v>
       </c>
@@ -4692,8 +4756,8 @@
         <v>4.0691999999999999E-2</v>
       </c>
       <c r="J32" s="24"/>
-      <c r="K32" s="77"/>
-      <c r="L32" s="78"/>
+      <c r="K32" s="78"/>
+      <c r="L32" s="79"/>
       <c r="M32" s="1" t="s">
         <v>25</v>
       </c>
@@ -4714,8 +4778,8 @@
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A33" s="77"/>
-      <c r="B33" s="78"/>
+      <c r="A33" s="78"/>
+      <c r="B33" s="79"/>
       <c r="C33" s="1" t="s">
         <v>26</v>
       </c>
@@ -4734,8 +4798,8 @@
       <c r="H33" s="1">
         <v>1.7328E-2</v>
       </c>
-      <c r="K33" s="77"/>
-      <c r="L33" s="78"/>
+      <c r="K33" s="78"/>
+      <c r="L33" s="79"/>
       <c r="M33" s="1" t="s">
         <v>26</v>
       </c>
@@ -4756,8 +4820,8 @@
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A34" s="79"/>
-      <c r="B34" s="80"/>
+      <c r="A34" s="80"/>
+      <c r="B34" s="81"/>
       <c r="C34" s="19" t="s">
         <v>32</v>
       </c>
@@ -4781,8 +4845,8 @@
         <f t="shared" si="2"/>
         <v>5.8020000000000002E-2</v>
       </c>
-      <c r="K34" s="79"/>
-      <c r="L34" s="80"/>
+      <c r="K34" s="80"/>
+      <c r="L34" s="81"/>
       <c r="M34" s="19" t="s">
         <v>32</v>
       </c>
@@ -4808,10 +4872,10 @@
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A35" s="81">
+      <c r="A35" s="82">
         <v>980</v>
       </c>
-      <c r="B35" s="82"/>
+      <c r="B35" s="83"/>
       <c r="C35" s="16" t="s">
         <v>23</v>
       </c>
@@ -4831,10 +4895,10 @@
         <v>1.2716E-2</v>
       </c>
       <c r="J35" s="24"/>
-      <c r="K35" s="81">
+      <c r="K35" s="82">
         <v>980</v>
       </c>
-      <c r="L35" s="82"/>
+      <c r="L35" s="83"/>
       <c r="M35" s="16" t="s">
         <v>23</v>
       </c>
@@ -4855,8 +4919,8 @@
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A36" s="83"/>
-      <c r="B36" s="84"/>
+      <c r="A36" s="84"/>
+      <c r="B36" s="85"/>
       <c r="C36" s="16" t="s">
         <v>24</v>
       </c>
@@ -4875,8 +4939,8 @@
       <c r="H36" s="16">
         <v>5.1999999999999998E-3</v>
       </c>
-      <c r="K36" s="83"/>
-      <c r="L36" s="84"/>
+      <c r="K36" s="84"/>
+      <c r="L36" s="85"/>
       <c r="M36" s="16" t="s">
         <v>24</v>
       </c>
@@ -4897,8 +4961,8 @@
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A37" s="83"/>
-      <c r="B37" s="84"/>
+      <c r="A37" s="84"/>
+      <c r="B37" s="85"/>
       <c r="C37" s="19" t="s">
         <v>32</v>
       </c>
@@ -4922,8 +4986,8 @@
         <f t="shared" si="4"/>
         <v>1.7916000000000001E-2</v>
       </c>
-      <c r="K37" s="83"/>
-      <c r="L37" s="84"/>
+      <c r="K37" s="84"/>
+      <c r="L37" s="85"/>
       <c r="M37" s="19" t="s">
         <v>32</v>
       </c>
@@ -4949,8 +5013,8 @@
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A38" s="83"/>
-      <c r="B38" s="84"/>
+      <c r="A38" s="84"/>
+      <c r="B38" s="85"/>
       <c r="C38" s="16" t="s">
         <v>25</v>
       </c>
@@ -4970,8 +5034,8 @@
         <v>5.5975999999999998E-2</v>
       </c>
       <c r="J38" s="24"/>
-      <c r="K38" s="83"/>
-      <c r="L38" s="84"/>
+      <c r="K38" s="84"/>
+      <c r="L38" s="85"/>
       <c r="M38" s="16" t="s">
         <v>25</v>
       </c>
@@ -4992,8 +5056,8 @@
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A39" s="83"/>
-      <c r="B39" s="84"/>
+      <c r="A39" s="84"/>
+      <c r="B39" s="85"/>
       <c r="C39" s="16" t="s">
         <v>26</v>
       </c>
@@ -5012,8 +5076,8 @@
       <c r="H39" s="16">
         <v>2.3768000000000001E-2</v>
       </c>
-      <c r="K39" s="83"/>
-      <c r="L39" s="84"/>
+      <c r="K39" s="84"/>
+      <c r="L39" s="85"/>
       <c r="M39" s="16" t="s">
         <v>26</v>
       </c>
@@ -5034,8 +5098,8 @@
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A40" s="85"/>
-      <c r="B40" s="86"/>
+      <c r="A40" s="86"/>
+      <c r="B40" s="87"/>
       <c r="C40" s="19" t="s">
         <v>32</v>
       </c>
@@ -5059,8 +5123,8 @@
         <f t="shared" si="6"/>
         <v>7.9743999999999995E-2</v>
       </c>
-      <c r="K40" s="85"/>
-      <c r="L40" s="86"/>
+      <c r="K40" s="86"/>
+      <c r="L40" s="87"/>
       <c r="M40" s="19" t="s">
         <v>32</v>
       </c>
@@ -5086,10 +5150,10 @@
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A41" s="66">
+      <c r="A41" s="88">
         <v>1280</v>
       </c>
-      <c r="B41" s="67"/>
+      <c r="B41" s="89"/>
       <c r="C41" s="4" t="s">
         <v>23</v>
       </c>
@@ -5107,10 +5171,10 @@
       </c>
       <c r="H41" s="5"/>
       <c r="J41" s="24"/>
-      <c r="K41" s="66">
+      <c r="K41" s="88">
         <v>1280</v>
       </c>
-      <c r="L41" s="67"/>
+      <c r="L41" s="89"/>
       <c r="M41" s="4" t="s">
         <v>23</v>
       </c>
@@ -5131,8 +5195,8 @@
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A42" s="68"/>
-      <c r="B42" s="69"/>
+      <c r="A42" s="90"/>
+      <c r="B42" s="91"/>
       <c r="C42" s="4" t="s">
         <v>24</v>
       </c>
@@ -5149,8 +5213,8 @@
         <v>9.476E-3</v>
       </c>
       <c r="H42" s="5"/>
-      <c r="K42" s="68"/>
-      <c r="L42" s="69"/>
+      <c r="K42" s="90"/>
+      <c r="L42" s="91"/>
       <c r="M42" s="4" t="s">
         <v>24</v>
       </c>
@@ -5171,8 +5235,8 @@
       </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A43" s="68"/>
-      <c r="B43" s="69"/>
+      <c r="A43" s="90"/>
+      <c r="B43" s="91"/>
       <c r="C43" s="19" t="s">
         <v>32</v>
       </c>
@@ -5193,8 +5257,8 @@
         <v>2.7875999999999998E-2</v>
       </c>
       <c r="H43" s="5"/>
-      <c r="K43" s="68"/>
-      <c r="L43" s="69"/>
+      <c r="K43" s="90"/>
+      <c r="L43" s="91"/>
       <c r="M43" s="19" t="s">
         <v>32</v>
       </c>
@@ -5220,8 +5284,8 @@
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A44" s="68"/>
-      <c r="B44" s="69"/>
+      <c r="A44" s="90"/>
+      <c r="B44" s="91"/>
       <c r="C44" s="4" t="s">
         <v>25</v>
       </c>
@@ -5239,8 +5303,8 @@
       </c>
       <c r="H44" s="5"/>
       <c r="J44" s="24"/>
-      <c r="K44" s="68"/>
-      <c r="L44" s="69"/>
+      <c r="K44" s="90"/>
+      <c r="L44" s="91"/>
       <c r="M44" s="4" t="s">
         <v>25</v>
       </c>
@@ -5261,8 +5325,8 @@
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A45" s="68"/>
-      <c r="B45" s="69"/>
+      <c r="A45" s="90"/>
+      <c r="B45" s="91"/>
       <c r="C45" s="4" t="s">
         <v>26</v>
       </c>
@@ -5279,8 +5343,8 @@
         <v>4.3580000000000001E-2</v>
       </c>
       <c r="H45" s="5"/>
-      <c r="K45" s="68"/>
-      <c r="L45" s="69"/>
+      <c r="K45" s="90"/>
+      <c r="L45" s="91"/>
       <c r="M45" s="4" t="s">
         <v>26</v>
       </c>
@@ -5301,8 +5365,8 @@
       </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A46" s="70"/>
-      <c r="B46" s="71"/>
+      <c r="A46" s="92"/>
+      <c r="B46" s="93"/>
       <c r="C46" s="19" t="s">
         <v>32</v>
       </c>
@@ -5323,8 +5387,8 @@
         <v>0.146428</v>
       </c>
       <c r="H46" s="5"/>
-      <c r="K46" s="70"/>
-      <c r="L46" s="71"/>
+      <c r="K46" s="92"/>
+      <c r="L46" s="93"/>
       <c r="M46" s="19" t="s">
         <v>32</v>
       </c>
@@ -5350,10 +5414,10 @@
       </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A47" s="87">
+      <c r="A47" s="69">
         <v>1345</v>
       </c>
-      <c r="B47" s="88"/>
+      <c r="B47" s="70"/>
       <c r="C47" s="7" t="s">
         <v>23</v>
       </c>
@@ -5371,10 +5435,10 @@
       </c>
       <c r="H47" s="5"/>
       <c r="J47" s="24"/>
-      <c r="K47" s="87">
+      <c r="K47" s="69">
         <v>1345</v>
       </c>
-      <c r="L47" s="88"/>
+      <c r="L47" s="70"/>
       <c r="M47" s="7" t="s">
         <v>23</v>
       </c>
@@ -5395,8 +5459,8 @@
       </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A48" s="89"/>
-      <c r="B48" s="90"/>
+      <c r="A48" s="71"/>
+      <c r="B48" s="72"/>
       <c r="C48" s="7" t="s">
         <v>24</v>
       </c>
@@ -5413,8 +5477,8 @@
         <v>9.9319999999999999E-3</v>
       </c>
       <c r="H48" s="5"/>
-      <c r="K48" s="89"/>
-      <c r="L48" s="90"/>
+      <c r="K48" s="71"/>
+      <c r="L48" s="72"/>
       <c r="M48" s="7" t="s">
         <v>24</v>
       </c>
@@ -5433,8 +5497,8 @@
       <c r="R48" s="5"/>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A49" s="89"/>
-      <c r="B49" s="90"/>
+      <c r="A49" s="71"/>
+      <c r="B49" s="72"/>
       <c r="C49" s="19" t="s">
         <v>32</v>
       </c>
@@ -5455,8 +5519,8 @@
         <v>2.8931999999999999E-2</v>
       </c>
       <c r="H49" s="5"/>
-      <c r="K49" s="89"/>
-      <c r="L49" s="90"/>
+      <c r="K49" s="71"/>
+      <c r="L49" s="72"/>
       <c r="M49" s="19" t="s">
         <v>32</v>
       </c>
@@ -5479,8 +5543,8 @@
       <c r="R49" s="5"/>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A50" s="89"/>
-      <c r="B50" s="90"/>
+      <c r="A50" s="71"/>
+      <c r="B50" s="72"/>
       <c r="C50" s="7" t="s">
         <v>25</v>
       </c>
@@ -5498,8 +5562,8 @@
       </c>
       <c r="H50" s="5"/>
       <c r="J50" s="24"/>
-      <c r="K50" s="89"/>
-      <c r="L50" s="90"/>
+      <c r="K50" s="71"/>
+      <c r="L50" s="72"/>
       <c r="M50" s="7" t="s">
         <v>25</v>
       </c>
@@ -5518,8 +5582,8 @@
       <c r="R50" s="5"/>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A51" s="89"/>
-      <c r="B51" s="90"/>
+      <c r="A51" s="71"/>
+      <c r="B51" s="72"/>
       <c r="C51" s="7" t="s">
         <v>26</v>
       </c>
@@ -5536,8 +5600,8 @@
         <v>4.5887999999999998E-2</v>
       </c>
       <c r="H51" s="5"/>
-      <c r="K51" s="89"/>
-      <c r="L51" s="90"/>
+      <c r="K51" s="71"/>
+      <c r="L51" s="72"/>
       <c r="M51" s="7" t="s">
         <v>26</v>
       </c>
@@ -5556,8 +5620,8 @@
       <c r="R51" s="5"/>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A52" s="91"/>
-      <c r="B52" s="92"/>
+      <c r="A52" s="73"/>
+      <c r="B52" s="74"/>
       <c r="C52" s="19" t="s">
         <v>32</v>
       </c>
@@ -5578,8 +5642,8 @@
         <v>0.15465999999999999</v>
       </c>
       <c r="H52" s="5"/>
-      <c r="K52" s="91"/>
-      <c r="L52" s="92"/>
+      <c r="K52" s="73"/>
+      <c r="L52" s="74"/>
       <c r="M52" s="19" t="s">
         <v>32</v>
       </c>
@@ -5603,6 +5667,13 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="K41:L46"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="K2:R2"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="K4:L8"/>
+    <mergeCell ref="K9:L13"/>
+    <mergeCell ref="A3:B3"/>
     <mergeCell ref="K47:L52"/>
     <mergeCell ref="K24:L24"/>
     <mergeCell ref="A47:B52"/>
@@ -5619,13 +5690,6 @@
     <mergeCell ref="K28:L28"/>
     <mergeCell ref="K29:L34"/>
     <mergeCell ref="K35:L40"/>
-    <mergeCell ref="K41:L46"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="K2:R2"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="K4:L8"/>
-    <mergeCell ref="K9:L13"/>
-    <mergeCell ref="A3:B3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5663,32 +5727,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="96" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="72"/>
-      <c r="N1" s="72"/>
-      <c r="O1" s="72"/>
-      <c r="P1" s="72"/>
-      <c r="Q1" s="72"/>
-      <c r="R1" s="72"/>
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
+      <c r="L1" s="96"/>
+      <c r="M1" s="96"/>
+      <c r="N1" s="96"/>
+      <c r="O1" s="96"/>
+      <c r="P1" s="96"/>
+      <c r="Q1" s="96"/>
+      <c r="R1" s="96"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="94" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="74"/>
+      <c r="B2" s="95"/>
       <c r="C2" s="14"/>
       <c r="D2" s="15" t="s">
         <v>1</v>
@@ -5740,10 +5804,10 @@
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="75">
+      <c r="A3" s="76">
         <v>584</v>
       </c>
-      <c r="B3" s="76"/>
+      <c r="B3" s="77"/>
       <c r="C3" s="1" t="s">
         <v>30</v>
       </c>
@@ -5797,8 +5861,8 @@
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="77"/>
-      <c r="B4" s="78"/>
+      <c r="A4" s="78"/>
+      <c r="B4" s="79"/>
       <c r="C4" s="1" t="s">
         <v>21</v>
       </c>
@@ -5852,8 +5916,8 @@
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="77"/>
-      <c r="B5" s="78"/>
+      <c r="A5" s="78"/>
+      <c r="B5" s="79"/>
       <c r="C5" s="1" t="s">
         <v>33</v>
       </c>
@@ -5923,8 +5987,8 @@
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="77"/>
-      <c r="B6" s="78"/>
+      <c r="A6" s="78"/>
+      <c r="B6" s="79"/>
       <c r="C6" s="1" t="s">
         <v>22</v>
       </c>
@@ -5978,8 +6042,8 @@
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="79"/>
-      <c r="B7" s="80"/>
+      <c r="A7" s="80"/>
+      <c r="B7" s="81"/>
       <c r="C7" s="1" t="s">
         <v>34</v>
       </c>
@@ -6049,10 +6113,10 @@
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="81">
+      <c r="A8" s="82">
         <v>980</v>
       </c>
-      <c r="B8" s="82"/>
+      <c r="B8" s="83"/>
       <c r="C8" s="16" t="s">
         <v>30</v>
       </c>
@@ -6103,8 +6167,8 @@
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="83"/>
-      <c r="B9" s="84"/>
+      <c r="A9" s="84"/>
+      <c r="B9" s="85"/>
       <c r="C9" s="16" t="s">
         <v>21</v>
       </c>
@@ -6158,8 +6222,8 @@
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="83"/>
-      <c r="B10" s="84"/>
+      <c r="A10" s="84"/>
+      <c r="B10" s="85"/>
       <c r="C10" s="16" t="s">
         <v>35</v>
       </c>
@@ -6225,8 +6289,8 @@
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="83"/>
-      <c r="B11" s="84"/>
+      <c r="A11" s="84"/>
+      <c r="B11" s="85"/>
       <c r="C11" s="16" t="s">
         <v>22</v>
       </c>
@@ -6280,8 +6344,8 @@
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="85"/>
-      <c r="B12" s="86"/>
+      <c r="A12" s="86"/>
+      <c r="B12" s="87"/>
       <c r="C12" s="16" t="s">
         <v>34</v>
       </c>
@@ -6347,10 +6411,10 @@
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="66">
+      <c r="A13" s="88">
         <v>1280</v>
       </c>
-      <c r="B13" s="67"/>
+      <c r="B13" s="89"/>
       <c r="C13" s="13" t="s">
         <v>30</v>
       </c>
@@ -6401,8 +6465,8 @@
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="68"/>
-      <c r="B14" s="69"/>
+      <c r="A14" s="90"/>
+      <c r="B14" s="91"/>
       <c r="C14" s="4" t="s">
         <v>21</v>
       </c>
@@ -6456,8 +6520,8 @@
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="68"/>
-      <c r="B15" s="69"/>
+      <c r="A15" s="90"/>
+      <c r="B15" s="91"/>
       <c r="C15" s="4" t="s">
         <v>35</v>
       </c>
@@ -6523,8 +6587,8 @@
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="68"/>
-      <c r="B16" s="69"/>
+      <c r="A16" s="90"/>
+      <c r="B16" s="91"/>
       <c r="C16" s="4" t="s">
         <v>22</v>
       </c>
@@ -6578,8 +6642,8 @@
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A17" s="70"/>
-      <c r="B17" s="71"/>
+      <c r="A17" s="92"/>
+      <c r="B17" s="93"/>
       <c r="C17" s="4" t="s">
         <v>34</v>
       </c>
@@ -6645,10 +6709,10 @@
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A18" s="87">
+      <c r="A18" s="69">
         <v>1345</v>
       </c>
-      <c r="B18" s="88"/>
+      <c r="B18" s="70"/>
       <c r="C18" s="7" t="s">
         <v>30</v>
       </c>
@@ -6702,8 +6766,8 @@
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A19" s="89"/>
-      <c r="B19" s="90"/>
+      <c r="A19" s="71"/>
+      <c r="B19" s="72"/>
       <c r="C19" s="7" t="s">
         <v>21</v>
       </c>
@@ -6760,8 +6824,8 @@
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A20" s="89"/>
-      <c r="B20" s="90"/>
+      <c r="A20" s="71"/>
+      <c r="B20" s="72"/>
       <c r="C20" s="7" t="s">
         <v>35</v>
       </c>
@@ -6827,8 +6891,8 @@
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A21" s="89"/>
-      <c r="B21" s="90"/>
+      <c r="A21" s="71"/>
+      <c r="B21" s="72"/>
       <c r="C21" s="7" t="s">
         <v>22</v>
       </c>
@@ -6882,8 +6946,8 @@
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A22" s="91"/>
-      <c r="B22" s="92"/>
+      <c r="A22" s="73"/>
+      <c r="B22" s="74"/>
       <c r="C22" s="7" t="s">
         <v>34</v>
       </c>
@@ -6949,10 +7013,10 @@
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A23" s="94">
+      <c r="A23" s="97">
         <v>1640</v>
       </c>
-      <c r="B23" s="95"/>
+      <c r="B23" s="98"/>
       <c r="C23" s="39" t="s">
         <v>30</v>
       </c>
@@ -6983,8 +7047,8 @@
       <c r="R23" s="40"/>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A24" s="96"/>
-      <c r="B24" s="97"/>
+      <c r="A24" s="99"/>
+      <c r="B24" s="100"/>
       <c r="C24" s="39" t="s">
         <v>21</v>
       </c>
@@ -7016,8 +7080,8 @@
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A25" s="96"/>
-      <c r="B25" s="97"/>
+      <c r="A25" s="99"/>
+      <c r="B25" s="100"/>
       <c r="C25" s="39" t="s">
         <v>35</v>
       </c>
@@ -7080,8 +7144,8 @@
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A26" s="96"/>
-      <c r="B26" s="97"/>
+      <c r="A26" s="99"/>
+      <c r="B26" s="100"/>
       <c r="C26" s="39" t="s">
         <v>22</v>
       </c>
@@ -7113,8 +7177,8 @@
       </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A27" s="98"/>
-      <c r="B27" s="99"/>
+      <c r="A27" s="101"/>
+      <c r="B27" s="102"/>
       <c r="C27" s="39" t="s">
         <v>34</v>
       </c>
@@ -7188,10 +7252,10 @@
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A33" s="73" t="s">
+      <c r="A33" s="94" t="s">
         <v>31</v>
       </c>
-      <c r="B33" s="74"/>
+      <c r="B33" s="95"/>
       <c r="C33" s="14"/>
       <c r="D33" s="15" t="s">
         <v>1</v>
@@ -7240,10 +7304,10 @@
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A34" s="75">
+      <c r="A34" s="76">
         <v>584</v>
       </c>
-      <c r="B34" s="76"/>
+      <c r="B34" s="77"/>
       <c r="C34" s="1" t="s">
         <v>23</v>
       </c>
@@ -7294,8 +7358,8 @@
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A35" s="77"/>
-      <c r="B35" s="78"/>
+      <c r="A35" s="78"/>
+      <c r="B35" s="79"/>
       <c r="C35" s="1" t="s">
         <v>24</v>
       </c>
@@ -7346,8 +7410,8 @@
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A36" s="77"/>
-      <c r="B36" s="78"/>
+      <c r="A36" s="78"/>
+      <c r="B36" s="79"/>
       <c r="C36" s="19" t="s">
         <v>32</v>
       </c>
@@ -7413,8 +7477,8 @@
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A37" s="77"/>
-      <c r="B37" s="78"/>
+      <c r="A37" s="78"/>
+      <c r="B37" s="79"/>
       <c r="C37" s="1" t="s">
         <v>25</v>
       </c>
@@ -7465,8 +7529,8 @@
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A38" s="77"/>
-      <c r="B38" s="78"/>
+      <c r="A38" s="78"/>
+      <c r="B38" s="79"/>
       <c r="C38" s="1" t="s">
         <v>26</v>
       </c>
@@ -7517,8 +7581,8 @@
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A39" s="79"/>
-      <c r="B39" s="80"/>
+      <c r="A39" s="80"/>
+      <c r="B39" s="81"/>
       <c r="C39" s="19" t="s">
         <v>32</v>
       </c>
@@ -7584,10 +7648,10 @@
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A40" s="81">
+      <c r="A40" s="82">
         <v>980</v>
       </c>
-      <c r="B40" s="82"/>
+      <c r="B40" s="83"/>
       <c r="C40" s="16" t="s">
         <v>23</v>
       </c>
@@ -7638,8 +7702,8 @@
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A41" s="83"/>
-      <c r="B41" s="84"/>
+      <c r="A41" s="84"/>
+      <c r="B41" s="85"/>
       <c r="C41" s="16" t="s">
         <v>24</v>
       </c>
@@ -7690,8 +7754,8 @@
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A42" s="83"/>
-      <c r="B42" s="84"/>
+      <c r="A42" s="84"/>
+      <c r="B42" s="85"/>
       <c r="C42" s="19" t="s">
         <v>32</v>
       </c>
@@ -7757,8 +7821,8 @@
       </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A43" s="83"/>
-      <c r="B43" s="84"/>
+      <c r="A43" s="84"/>
+      <c r="B43" s="85"/>
       <c r="C43" s="16" t="s">
         <v>25</v>
       </c>
@@ -7809,8 +7873,8 @@
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A44" s="83"/>
-      <c r="B44" s="84"/>
+      <c r="A44" s="84"/>
+      <c r="B44" s="85"/>
       <c r="C44" s="16" t="s">
         <v>26</v>
       </c>
@@ -7861,8 +7925,8 @@
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A45" s="85"/>
-      <c r="B45" s="86"/>
+      <c r="A45" s="86"/>
+      <c r="B45" s="87"/>
       <c r="C45" s="19" t="s">
         <v>32</v>
       </c>
@@ -7928,10 +7992,10 @@
       </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A46" s="66">
+      <c r="A46" s="88">
         <v>1280</v>
       </c>
-      <c r="B46" s="67"/>
+      <c r="B46" s="89"/>
       <c r="C46" s="4" t="s">
         <v>23</v>
       </c>
@@ -7982,8 +8046,8 @@
       </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A47" s="68"/>
-      <c r="B47" s="69"/>
+      <c r="A47" s="90"/>
+      <c r="B47" s="91"/>
       <c r="C47" s="4" t="s">
         <v>24</v>
       </c>
@@ -8034,8 +8098,8 @@
       </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A48" s="68"/>
-      <c r="B48" s="69"/>
+      <c r="A48" s="90"/>
+      <c r="B48" s="91"/>
       <c r="C48" s="19" t="s">
         <v>32</v>
       </c>
@@ -8101,8 +8165,8 @@
       </c>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A49" s="68"/>
-      <c r="B49" s="69"/>
+      <c r="A49" s="90"/>
+      <c r="B49" s="91"/>
       <c r="C49" s="4" t="s">
         <v>25</v>
       </c>
@@ -8153,8 +8217,8 @@
       </c>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A50" s="68"/>
-      <c r="B50" s="69"/>
+      <c r="A50" s="90"/>
+      <c r="B50" s="91"/>
       <c r="C50" s="4" t="s">
         <v>26</v>
       </c>
@@ -8205,8 +8269,8 @@
       </c>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A51" s="70"/>
-      <c r="B51" s="71"/>
+      <c r="A51" s="92"/>
+      <c r="B51" s="93"/>
       <c r="C51" s="19" t="s">
         <v>32</v>
       </c>
@@ -8272,10 +8336,10 @@
       </c>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A52" s="87">
+      <c r="A52" s="69">
         <v>1345</v>
       </c>
-      <c r="B52" s="88"/>
+      <c r="B52" s="70"/>
       <c r="C52" s="7" t="s">
         <v>23</v>
       </c>
@@ -8326,8 +8390,8 @@
       </c>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A53" s="89"/>
-      <c r="B53" s="90"/>
+      <c r="A53" s="71"/>
+      <c r="B53" s="72"/>
       <c r="C53" s="7" t="s">
         <v>24</v>
       </c>
@@ -8378,8 +8442,8 @@
       </c>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A54" s="89"/>
-      <c r="B54" s="90"/>
+      <c r="A54" s="71"/>
+      <c r="B54" s="72"/>
       <c r="C54" s="19" t="s">
         <v>32</v>
       </c>
@@ -8445,8 +8509,8 @@
       </c>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A55" s="89"/>
-      <c r="B55" s="90"/>
+      <c r="A55" s="71"/>
+      <c r="B55" s="72"/>
       <c r="C55" s="7" t="s">
         <v>25</v>
       </c>
@@ -8497,8 +8561,8 @@
       </c>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A56" s="89"/>
-      <c r="B56" s="90"/>
+      <c r="A56" s="71"/>
+      <c r="B56" s="72"/>
       <c r="C56" s="7" t="s">
         <v>26</v>
       </c>
@@ -8549,8 +8613,8 @@
       </c>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A57" s="91"/>
-      <c r="B57" s="92"/>
+      <c r="A57" s="73"/>
+      <c r="B57" s="74"/>
       <c r="C57" s="19" t="s">
         <v>32</v>
       </c>
@@ -8639,17 +8703,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="C7:O36"/>
+  <dimension ref="C7:AG36"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="S35" sqref="S35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="11.5703125" customWidth="1"/>
     <col min="4" max="4" width="7.5703125" customWidth="1"/>
-    <col min="5" max="5" width="5.28515625" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" customWidth="1"/>
     <col min="6" max="6" width="4.7109375" customWidth="1"/>
     <col min="7" max="7" width="5.140625" customWidth="1"/>
     <col min="8" max="8" width="4.5703125" customWidth="1"/>
@@ -8662,7 +8726,7 @@
     <col min="15" max="15" width="7.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:33" x14ac:dyDescent="0.25">
       <c r="C7" s="43" t="s">
         <v>88</v>
       </c>
@@ -8703,7 +8767,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="8" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:33" x14ac:dyDescent="0.25">
       <c r="C8" s="35" t="s">
         <v>89</v>
       </c>
@@ -8746,7 +8810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:33" x14ac:dyDescent="0.25">
       <c r="C9" s="35" t="s">
         <v>90</v>
       </c>
@@ -8789,7 +8853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:33" x14ac:dyDescent="0.25">
       <c r="C10" s="35" t="s">
         <v>92</v>
       </c>
@@ -8832,7 +8896,7 @@
         <v>0.86829268292682926</v>
       </c>
     </row>
-    <row r="11" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:33" x14ac:dyDescent="0.25">
       <c r="C11" s="35" t="s">
         <v>93</v>
       </c>
@@ -8875,30 +8939,57 @@
         <v>0.69512195121951215</v>
       </c>
     </row>
-    <row r="15" spans="3:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="101" t="s">
+    <row r="14" spans="3:33" x14ac:dyDescent="0.25">
+      <c r="C14" s="124" t="s">
+        <v>134</v>
+      </c>
+      <c r="U14" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="15" spans="3:33" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C15" s="106" t="s">
         <v>95</v>
       </c>
-      <c r="D15" s="101"/>
-      <c r="E15" s="100" t="s">
+      <c r="D15" s="106"/>
+      <c r="E15" s="107" t="s">
         <v>100</v>
       </c>
-      <c r="F15" s="100"/>
-      <c r="G15" s="100"/>
-      <c r="H15" s="100"/>
-      <c r="I15" s="100"/>
-      <c r="J15" s="100"/>
-      <c r="K15" s="100"/>
-      <c r="L15" s="100"/>
-      <c r="M15" s="100"/>
-      <c r="N15" s="100"/>
-      <c r="O15" s="102" t="s">
+      <c r="F15" s="107"/>
+      <c r="G15" s="107"/>
+      <c r="H15" s="107"/>
+      <c r="I15" s="107"/>
+      <c r="J15" s="107"/>
+      <c r="K15" s="107"/>
+      <c r="L15" s="107"/>
+      <c r="M15" s="107"/>
+      <c r="N15" s="107"/>
+      <c r="O15" s="103" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="16" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C16" s="101"/>
-      <c r="D16" s="101"/>
+      <c r="U15" s="106" t="s">
+        <v>95</v>
+      </c>
+      <c r="V15" s="106"/>
+      <c r="W15" s="107" t="s">
+        <v>100</v>
+      </c>
+      <c r="X15" s="107"/>
+      <c r="Y15" s="107"/>
+      <c r="Z15" s="107"/>
+      <c r="AA15" s="107"/>
+      <c r="AB15" s="107"/>
+      <c r="AC15" s="107"/>
+      <c r="AD15" s="107"/>
+      <c r="AE15" s="107"/>
+      <c r="AF15" s="107"/>
+      <c r="AG15" s="103" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="16" spans="3:33" x14ac:dyDescent="0.25">
+      <c r="C16" s="106"/>
+      <c r="D16" s="106"/>
       <c r="E16" s="42">
         <v>1</v>
       </c>
@@ -8929,10 +9020,43 @@
       <c r="N16" s="42">
         <v>10</v>
       </c>
-      <c r="O16" s="102"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C17" s="102" t="s">
+      <c r="O16" s="103"/>
+      <c r="U16" s="106"/>
+      <c r="V16" s="106"/>
+      <c r="W16" s="66">
+        <v>1</v>
+      </c>
+      <c r="X16" s="66">
+        <v>2</v>
+      </c>
+      <c r="Y16" s="66">
+        <v>3</v>
+      </c>
+      <c r="Z16" s="66">
+        <v>4</v>
+      </c>
+      <c r="AA16" s="66">
+        <v>5</v>
+      </c>
+      <c r="AB16" s="66">
+        <v>6</v>
+      </c>
+      <c r="AC16" s="66">
+        <v>7</v>
+      </c>
+      <c r="AD16" s="66">
+        <v>8</v>
+      </c>
+      <c r="AE16" s="66">
+        <v>9</v>
+      </c>
+      <c r="AF16" s="66">
+        <v>10</v>
+      </c>
+      <c r="AG16" s="103"/>
+    </row>
+    <row r="17" spans="3:33" x14ac:dyDescent="0.25">
+      <c r="C17" s="103" t="s">
         <v>96</v>
       </c>
       <c r="D17" s="42" t="s">
@@ -8968,13 +9092,53 @@
       <c r="N17" s="43">
         <v>41</v>
       </c>
-      <c r="O17" s="103">
+      <c r="O17" s="104">
         <f>SUM(E17:N17)/410</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C18" s="102"/>
+      <c r="U17" s="103" t="s">
+        <v>96</v>
+      </c>
+      <c r="V17" s="66" t="s">
+        <v>97</v>
+      </c>
+      <c r="W17" s="43">
+        <v>41</v>
+      </c>
+      <c r="X17" s="43">
+        <v>41</v>
+      </c>
+      <c r="Y17" s="43">
+        <v>41</v>
+      </c>
+      <c r="Z17" s="43">
+        <v>41</v>
+      </c>
+      <c r="AA17" s="43">
+        <v>41</v>
+      </c>
+      <c r="AB17" s="43">
+        <v>41</v>
+      </c>
+      <c r="AC17" s="43">
+        <v>41</v>
+      </c>
+      <c r="AD17" s="43">
+        <v>41</v>
+      </c>
+      <c r="AE17" s="43">
+        <v>41</v>
+      </c>
+      <c r="AF17" s="43">
+        <v>41</v>
+      </c>
+      <c r="AG17" s="104">
+        <f>SUM(W17:AF17)/410</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="3:33" x14ac:dyDescent="0.25">
+      <c r="C18" s="103"/>
       <c r="D18" s="42" t="s">
         <v>98</v>
       </c>
@@ -9008,32 +9172,86 @@
       <c r="N18" s="43">
         <v>0</v>
       </c>
-      <c r="O18" s="104"/>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C21" s="101" t="s">
+      <c r="O18" s="105"/>
+      <c r="U18" s="103"/>
+      <c r="V18" s="66" t="s">
+        <v>98</v>
+      </c>
+      <c r="W18" s="43">
+        <v>0</v>
+      </c>
+      <c r="X18" s="43">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="43">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="43">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="43">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="43">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="43">
+        <v>0</v>
+      </c>
+      <c r="AD18" s="43">
+        <v>0</v>
+      </c>
+      <c r="AE18" s="43">
+        <v>0</v>
+      </c>
+      <c r="AF18" s="43">
+        <v>0</v>
+      </c>
+      <c r="AG18" s="105"/>
+    </row>
+    <row r="21" spans="3:33" x14ac:dyDescent="0.25">
+      <c r="C21" s="106" t="s">
         <v>101</v>
       </c>
-      <c r="D21" s="101"/>
-      <c r="E21" s="100" t="s">
+      <c r="D21" s="106"/>
+      <c r="E21" s="107" t="s">
         <v>100</v>
       </c>
-      <c r="F21" s="100"/>
-      <c r="G21" s="100"/>
-      <c r="H21" s="100"/>
-      <c r="I21" s="100"/>
-      <c r="J21" s="100"/>
-      <c r="K21" s="100"/>
-      <c r="L21" s="100"/>
-      <c r="M21" s="100"/>
-      <c r="N21" s="100"/>
-      <c r="O21" s="102" t="s">
+      <c r="F21" s="107"/>
+      <c r="G21" s="107"/>
+      <c r="H21" s="107"/>
+      <c r="I21" s="107"/>
+      <c r="J21" s="107"/>
+      <c r="K21" s="107"/>
+      <c r="L21" s="107"/>
+      <c r="M21" s="107"/>
+      <c r="N21" s="107"/>
+      <c r="O21" s="103" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C22" s="101"/>
-      <c r="D22" s="101"/>
+      <c r="U21" s="106" t="s">
+        <v>101</v>
+      </c>
+      <c r="V21" s="106"/>
+      <c r="W21" s="107" t="s">
+        <v>100</v>
+      </c>
+      <c r="X21" s="107"/>
+      <c r="Y21" s="107"/>
+      <c r="Z21" s="107"/>
+      <c r="AA21" s="107"/>
+      <c r="AB21" s="107"/>
+      <c r="AC21" s="107"/>
+      <c r="AD21" s="107"/>
+      <c r="AE21" s="107"/>
+      <c r="AF21" s="107"/>
+      <c r="AG21" s="103" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="22" spans="3:33" x14ac:dyDescent="0.25">
+      <c r="C22" s="106"/>
+      <c r="D22" s="106"/>
       <c r="E22" s="42">
         <v>1</v>
       </c>
@@ -9064,10 +9282,43 @@
       <c r="N22" s="42">
         <v>10</v>
       </c>
-      <c r="O22" s="102"/>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C23" s="102" t="s">
+      <c r="O22" s="103"/>
+      <c r="U22" s="106"/>
+      <c r="V22" s="106"/>
+      <c r="W22" s="66">
+        <v>1</v>
+      </c>
+      <c r="X22" s="66">
+        <v>2</v>
+      </c>
+      <c r="Y22" s="66">
+        <v>3</v>
+      </c>
+      <c r="Z22" s="66">
+        <v>4</v>
+      </c>
+      <c r="AA22" s="66">
+        <v>5</v>
+      </c>
+      <c r="AB22" s="66">
+        <v>6</v>
+      </c>
+      <c r="AC22" s="66">
+        <v>7</v>
+      </c>
+      <c r="AD22" s="66">
+        <v>8</v>
+      </c>
+      <c r="AE22" s="66">
+        <v>9</v>
+      </c>
+      <c r="AF22" s="66">
+        <v>10</v>
+      </c>
+      <c r="AG22" s="103"/>
+    </row>
+    <row r="23" spans="3:33" x14ac:dyDescent="0.25">
+      <c r="C23" s="103" t="s">
         <v>96</v>
       </c>
       <c r="D23" s="42" t="s">
@@ -9103,13 +9354,53 @@
       <c r="N23" s="35">
         <v>27</v>
       </c>
-      <c r="O23" s="103">
+      <c r="O23" s="104">
         <f>SUM(E23:N23)/410</f>
         <v>0.86829268292682926</v>
       </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C24" s="102"/>
+      <c r="U23" s="103" t="s">
+        <v>96</v>
+      </c>
+      <c r="V23" s="66" t="s">
+        <v>97</v>
+      </c>
+      <c r="W23" s="43">
+        <v>38</v>
+      </c>
+      <c r="X23" s="43">
+        <v>38</v>
+      </c>
+      <c r="Y23" s="43">
+        <v>35</v>
+      </c>
+      <c r="Z23" s="43">
+        <v>38</v>
+      </c>
+      <c r="AA23" s="43">
+        <v>39</v>
+      </c>
+      <c r="AB23" s="43">
+        <v>39</v>
+      </c>
+      <c r="AC23" s="43">
+        <v>38</v>
+      </c>
+      <c r="AD23" s="43">
+        <v>35</v>
+      </c>
+      <c r="AE23" s="43">
+        <v>40</v>
+      </c>
+      <c r="AF23" s="43">
+        <v>40</v>
+      </c>
+      <c r="AG23" s="104">
+        <f>SUM(W23:AF23)/410</f>
+        <v>0.92682926829268297</v>
+      </c>
+    </row>
+    <row r="24" spans="3:33" x14ac:dyDescent="0.25">
+      <c r="C24" s="103"/>
       <c r="D24" s="42" t="s">
         <v>98</v>
       </c>
@@ -9143,32 +9434,86 @@
       <c r="N24" s="43">
         <v>14</v>
       </c>
-      <c r="O24" s="104"/>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C27" s="101" t="s">
+      <c r="O24" s="105"/>
+      <c r="U24" s="103"/>
+      <c r="V24" s="66" t="s">
+        <v>98</v>
+      </c>
+      <c r="W24" s="43">
+        <v>3</v>
+      </c>
+      <c r="X24" s="43">
+        <v>3</v>
+      </c>
+      <c r="Y24" s="43">
+        <v>6</v>
+      </c>
+      <c r="Z24" s="43">
+        <v>3</v>
+      </c>
+      <c r="AA24" s="43">
+        <v>2</v>
+      </c>
+      <c r="AB24" s="43">
+        <v>2</v>
+      </c>
+      <c r="AC24" s="43">
+        <v>3</v>
+      </c>
+      <c r="AD24" s="43">
+        <v>6</v>
+      </c>
+      <c r="AE24" s="43">
+        <v>1</v>
+      </c>
+      <c r="AF24" s="43">
+        <v>1</v>
+      </c>
+      <c r="AG24" s="105"/>
+    </row>
+    <row r="27" spans="3:33" x14ac:dyDescent="0.25">
+      <c r="C27" s="106" t="s">
         <v>102</v>
       </c>
-      <c r="D27" s="101"/>
-      <c r="E27" s="100" t="s">
+      <c r="D27" s="106"/>
+      <c r="E27" s="107" t="s">
         <v>100</v>
       </c>
-      <c r="F27" s="100"/>
-      <c r="G27" s="100"/>
-      <c r="H27" s="100"/>
-      <c r="I27" s="100"/>
-      <c r="J27" s="100"/>
-      <c r="K27" s="100"/>
-      <c r="L27" s="100"/>
-      <c r="M27" s="100"/>
-      <c r="N27" s="100"/>
-      <c r="O27" s="102" t="s">
+      <c r="F27" s="107"/>
+      <c r="G27" s="107"/>
+      <c r="H27" s="107"/>
+      <c r="I27" s="107"/>
+      <c r="J27" s="107"/>
+      <c r="K27" s="107"/>
+      <c r="L27" s="107"/>
+      <c r="M27" s="107"/>
+      <c r="N27" s="107"/>
+      <c r="O27" s="103" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C28" s="101"/>
-      <c r="D28" s="101"/>
+      <c r="U27" s="106" t="s">
+        <v>102</v>
+      </c>
+      <c r="V27" s="106"/>
+      <c r="W27" s="107" t="s">
+        <v>100</v>
+      </c>
+      <c r="X27" s="107"/>
+      <c r="Y27" s="107"/>
+      <c r="Z27" s="107"/>
+      <c r="AA27" s="107"/>
+      <c r="AB27" s="107"/>
+      <c r="AC27" s="107"/>
+      <c r="AD27" s="107"/>
+      <c r="AE27" s="107"/>
+      <c r="AF27" s="107"/>
+      <c r="AG27" s="103" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="28" spans="3:33" x14ac:dyDescent="0.25">
+      <c r="C28" s="106"/>
+      <c r="D28" s="106"/>
       <c r="E28" s="42">
         <v>1</v>
       </c>
@@ -9199,10 +9544,43 @@
       <c r="N28" s="42">
         <v>10</v>
       </c>
-      <c r="O28" s="102"/>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C29" s="102" t="s">
+      <c r="O28" s="103"/>
+      <c r="U28" s="106"/>
+      <c r="V28" s="106"/>
+      <c r="W28" s="66">
+        <v>1</v>
+      </c>
+      <c r="X28" s="66">
+        <v>2</v>
+      </c>
+      <c r="Y28" s="66">
+        <v>3</v>
+      </c>
+      <c r="Z28" s="66">
+        <v>4</v>
+      </c>
+      <c r="AA28" s="66">
+        <v>5</v>
+      </c>
+      <c r="AB28" s="66">
+        <v>6</v>
+      </c>
+      <c r="AC28" s="66">
+        <v>7</v>
+      </c>
+      <c r="AD28" s="66">
+        <v>8</v>
+      </c>
+      <c r="AE28" s="66">
+        <v>9</v>
+      </c>
+      <c r="AF28" s="66">
+        <v>10</v>
+      </c>
+      <c r="AG28" s="103"/>
+    </row>
+    <row r="29" spans="3:33" x14ac:dyDescent="0.25">
+      <c r="C29" s="103" t="s">
         <v>96</v>
       </c>
       <c r="D29" s="42" t="s">
@@ -9238,13 +9616,53 @@
       <c r="N29" s="35">
         <v>29</v>
       </c>
-      <c r="O29" s="103">
+      <c r="O29" s="104">
         <f>SUM(E29:N29)/410</f>
         <v>0.69512195121951215</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C30" s="102"/>
+      <c r="U29" s="103" t="s">
+        <v>96</v>
+      </c>
+      <c r="V29" s="66" t="s">
+        <v>97</v>
+      </c>
+      <c r="W29" s="43">
+        <v>31</v>
+      </c>
+      <c r="X29" s="43">
+        <v>39</v>
+      </c>
+      <c r="Y29" s="43">
+        <v>39</v>
+      </c>
+      <c r="Z29" s="43">
+        <v>33</v>
+      </c>
+      <c r="AA29" s="43">
+        <v>35</v>
+      </c>
+      <c r="AB29" s="43">
+        <v>36</v>
+      </c>
+      <c r="AC29" s="43">
+        <v>36</v>
+      </c>
+      <c r="AD29" s="43">
+        <v>35</v>
+      </c>
+      <c r="AE29" s="43">
+        <v>31</v>
+      </c>
+      <c r="AF29" s="43">
+        <v>30</v>
+      </c>
+      <c r="AG29" s="104">
+        <f>SUM(W29:AF29)/410</f>
+        <v>0.84146341463414631</v>
+      </c>
+    </row>
+    <row r="30" spans="3:33" x14ac:dyDescent="0.25">
+      <c r="C30" s="103"/>
       <c r="D30" s="42" t="s">
         <v>98</v>
       </c>
@@ -9278,7 +9696,42 @@
       <c r="N30" s="43">
         <v>12</v>
       </c>
-      <c r="O30" s="104"/>
+      <c r="O30" s="105"/>
+      <c r="U30" s="103"/>
+      <c r="V30" s="66" t="s">
+        <v>98</v>
+      </c>
+      <c r="W30" s="43">
+        <v>10</v>
+      </c>
+      <c r="X30" s="43">
+        <v>2</v>
+      </c>
+      <c r="Y30" s="43">
+        <v>2</v>
+      </c>
+      <c r="Z30" s="43">
+        <v>8</v>
+      </c>
+      <c r="AA30" s="43">
+        <v>6</v>
+      </c>
+      <c r="AB30" s="43">
+        <v>5</v>
+      </c>
+      <c r="AC30" s="43">
+        <v>5</v>
+      </c>
+      <c r="AD30" s="43">
+        <v>6</v>
+      </c>
+      <c r="AE30" s="43">
+        <v>10</v>
+      </c>
+      <c r="AF30" s="43">
+        <v>11</v>
+      </c>
+      <c r="AG30" s="105"/>
     </row>
     <row r="33" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C33" s="46"/>
@@ -9306,11 +9759,11 @@
         <v>78</v>
       </c>
       <c r="D35" s="48">
-        <v>0.86799999999999999</v>
+        <v>0.92700000000000005</v>
       </c>
       <c r="E35" s="48">
         <f t="shared" ref="E35:E36" si="2">100%-D35</f>
-        <v>0.13200000000000001</v>
+        <v>7.2999999999999954E-2</v>
       </c>
     </row>
     <row r="36" spans="3:5" x14ac:dyDescent="0.25">
@@ -9318,15 +9771,35 @@
         <v>79</v>
       </c>
       <c r="D36" s="48">
-        <v>0.69499999999999995</v>
+        <v>0.84099999999999997</v>
       </c>
       <c r="E36" s="48">
         <f t="shared" si="2"/>
-        <v>0.30500000000000005</v>
+        <v>0.15900000000000003</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="30">
+    <mergeCell ref="U27:V28"/>
+    <mergeCell ref="W27:AF27"/>
+    <mergeCell ref="AG27:AG28"/>
+    <mergeCell ref="U29:U30"/>
+    <mergeCell ref="AG29:AG30"/>
+    <mergeCell ref="U21:V22"/>
+    <mergeCell ref="W21:AF21"/>
+    <mergeCell ref="AG21:AG22"/>
+    <mergeCell ref="U23:U24"/>
+    <mergeCell ref="AG23:AG24"/>
+    <mergeCell ref="U15:V16"/>
+    <mergeCell ref="W15:AF15"/>
+    <mergeCell ref="AG15:AG16"/>
+    <mergeCell ref="U17:U18"/>
+    <mergeCell ref="AG17:AG18"/>
+    <mergeCell ref="E15:N15"/>
+    <mergeCell ref="C15:D16"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="O17:O18"/>
     <mergeCell ref="C29:C30"/>
     <mergeCell ref="O29:O30"/>
     <mergeCell ref="C21:D22"/>
@@ -9337,11 +9810,6 @@
     <mergeCell ref="C27:D28"/>
     <mergeCell ref="E27:N27"/>
     <mergeCell ref="O27:O28"/>
-    <mergeCell ref="E15:N15"/>
-    <mergeCell ref="C15:D16"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="O17:O18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9353,8 +9821,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{863E2203-BBD3-4582-9488-5B7EA02887EE}">
   <dimension ref="B4:U25"/>
   <sheetViews>
-    <sheetView topLeftCell="C7" workbookViewId="0">
-      <selection activeCell="R24" sqref="R24"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="V24" sqref="V24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9368,32 +9836,32 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:21" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="101" t="s">
+      <c r="B4" s="106" t="s">
         <v>95</v>
       </c>
-      <c r="C4" s="101"/>
-      <c r="D4" s="100" t="s">
+      <c r="C4" s="106"/>
+      <c r="D4" s="107" t="s">
         <v>100</v>
       </c>
-      <c r="E4" s="100"/>
-      <c r="F4" s="100"/>
-      <c r="G4" s="100"/>
-      <c r="H4" s="100"/>
-      <c r="I4" s="100"/>
-      <c r="J4" s="100"/>
-      <c r="K4" s="100"/>
-      <c r="L4" s="100"/>
-      <c r="M4" s="100"/>
-      <c r="N4" s="102" t="s">
+      <c r="E4" s="107"/>
+      <c r="F4" s="107"/>
+      <c r="G4" s="107"/>
+      <c r="H4" s="107"/>
+      <c r="I4" s="107"/>
+      <c r="J4" s="107"/>
+      <c r="K4" s="107"/>
+      <c r="L4" s="107"/>
+      <c r="M4" s="107"/>
+      <c r="N4" s="103" t="s">
         <v>99</v>
       </c>
-      <c r="O4" s="100" t="s">
+      <c r="O4" s="107" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="5" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B5" s="101"/>
-      <c r="C5" s="101"/>
+      <c r="B5" s="106"/>
+      <c r="C5" s="106"/>
       <c r="D5" s="65">
         <v>1</v>
       </c>
@@ -9424,11 +9892,11 @@
       <c r="M5" s="65">
         <v>10</v>
       </c>
-      <c r="N5" s="102"/>
-      <c r="O5" s="100"/>
+      <c r="N5" s="103"/>
+      <c r="O5" s="107"/>
     </row>
     <row r="6" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="102" t="s">
+      <c r="B6" s="103" t="s">
         <v>132</v>
       </c>
       <c r="C6" s="65" t="s">
@@ -9464,27 +9932,27 @@
       <c r="M6" s="43">
         <v>41</v>
       </c>
-      <c r="N6" s="103">
+      <c r="N6" s="104">
         <f>SUM(D6:M6)/410</f>
         <v>1</v>
       </c>
-      <c r="O6" s="122">
+      <c r="O6" s="108">
         <f>(N6+N8)/2</f>
         <v>1</v>
       </c>
-      <c r="R6" s="120"/>
-      <c r="S6" s="120" t="s">
+      <c r="R6" s="67"/>
+      <c r="S6" s="67" t="s">
         <v>104</v>
       </c>
-      <c r="T6" s="120" t="s">
+      <c r="T6" s="67" t="s">
         <v>78</v>
       </c>
-      <c r="U6" s="120" t="s">
+      <c r="U6" s="67" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="7" spans="2:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="102"/>
+      <c r="B7" s="103"/>
       <c r="C7" s="65" t="s">
         <v>98</v>
       </c>
@@ -9518,23 +9986,23 @@
       <c r="M7" s="43">
         <v>0</v>
       </c>
-      <c r="N7" s="104"/>
-      <c r="O7" s="122"/>
-      <c r="R7" s="120" t="s">
+      <c r="N7" s="105"/>
+      <c r="O7" s="108"/>
+      <c r="R7" s="67" t="s">
         <v>130</v>
       </c>
-      <c r="S7" s="121">
+      <c r="S7" s="68">
         <v>1</v>
       </c>
-      <c r="T7" s="121">
-        <v>0.86799999999999999</v>
-      </c>
-      <c r="U7" s="121">
-        <v>0.69499999999999995</v>
+      <c r="T7" s="68">
+        <v>0.92700000000000005</v>
+      </c>
+      <c r="U7" s="68">
+        <v>0.84099999999999997</v>
       </c>
     </row>
     <row r="8" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B8" s="102" t="s">
+      <c r="B8" s="103" t="s">
         <v>128</v>
       </c>
       <c r="C8" s="65" t="s">
@@ -9570,26 +10038,26 @@
       <c r="M8" s="43">
         <v>41</v>
       </c>
-      <c r="N8" s="103">
+      <c r="N8" s="104">
         <f>SUM(D8:M8)/410</f>
         <v>1</v>
       </c>
-      <c r="O8" s="122"/>
-      <c r="R8" s="120" t="s">
+      <c r="O8" s="108"/>
+      <c r="R8" s="67" t="s">
         <v>131</v>
       </c>
-      <c r="S8" s="121">
+      <c r="S8" s="68">
         <v>1</v>
       </c>
-      <c r="T8" s="121">
+      <c r="T8" s="68">
         <v>0.90600000000000003</v>
       </c>
-      <c r="U8" s="121">
+      <c r="U8" s="68">
         <v>0.82599999999999996</v>
       </c>
     </row>
     <row r="9" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B9" s="102"/>
+      <c r="B9" s="103"/>
       <c r="C9" s="65" t="s">
         <v>98</v>
       </c>
@@ -9623,36 +10091,36 @@
       <c r="M9" s="43">
         <v>0</v>
       </c>
-      <c r="N9" s="104"/>
-      <c r="O9" s="122"/>
+      <c r="N9" s="105"/>
+      <c r="O9" s="108"/>
     </row>
     <row r="12" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B12" s="101" t="s">
+      <c r="B12" s="106" t="s">
         <v>101</v>
       </c>
-      <c r="C12" s="101"/>
-      <c r="D12" s="100" t="s">
+      <c r="C12" s="106"/>
+      <c r="D12" s="107" t="s">
         <v>100</v>
       </c>
-      <c r="E12" s="100"/>
-      <c r="F12" s="100"/>
-      <c r="G12" s="100"/>
-      <c r="H12" s="100"/>
-      <c r="I12" s="100"/>
-      <c r="J12" s="100"/>
-      <c r="K12" s="100"/>
-      <c r="L12" s="100"/>
-      <c r="M12" s="100"/>
-      <c r="N12" s="102" t="s">
+      <c r="E12" s="107"/>
+      <c r="F12" s="107"/>
+      <c r="G12" s="107"/>
+      <c r="H12" s="107"/>
+      <c r="I12" s="107"/>
+      <c r="J12" s="107"/>
+      <c r="K12" s="107"/>
+      <c r="L12" s="107"/>
+      <c r="M12" s="107"/>
+      <c r="N12" s="103" t="s">
         <v>99</v>
       </c>
-      <c r="O12" s="100" t="s">
+      <c r="O12" s="107" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="13" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B13" s="101"/>
-      <c r="C13" s="101"/>
+      <c r="B13" s="106"/>
+      <c r="C13" s="106"/>
       <c r="D13" s="65">
         <v>1</v>
       </c>
@@ -9683,11 +10151,11 @@
       <c r="M13" s="65">
         <v>10</v>
       </c>
-      <c r="N13" s="102"/>
-      <c r="O13" s="100"/>
+      <c r="N13" s="103"/>
+      <c r="O13" s="107"/>
     </row>
     <row r="14" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B14" s="102" t="s">
+      <c r="B14" s="103" t="s">
         <v>127</v>
       </c>
       <c r="C14" s="65" t="s">
@@ -9723,17 +10191,17 @@
       <c r="M14" s="43">
         <v>38</v>
       </c>
-      <c r="N14" s="103">
+      <c r="N14" s="104">
         <f>SUM(D14:M14)/410</f>
         <v>0.90731707317073174</v>
       </c>
-      <c r="O14" s="122">
+      <c r="O14" s="108">
         <f>(N14+N16)/2</f>
         <v>0.90609756097560978</v>
       </c>
     </row>
     <row r="15" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B15" s="102"/>
+      <c r="B15" s="103"/>
       <c r="C15" s="65" t="s">
         <v>98</v>
       </c>
@@ -9767,11 +10235,11 @@
       <c r="M15" s="43">
         <v>3</v>
       </c>
-      <c r="N15" s="104"/>
-      <c r="O15" s="122"/>
+      <c r="N15" s="105"/>
+      <c r="O15" s="108"/>
     </row>
     <row r="16" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B16" s="102" t="s">
+      <c r="B16" s="103" t="s">
         <v>128</v>
       </c>
       <c r="C16" s="65" t="s">
@@ -9807,14 +10275,14 @@
       <c r="M16" s="43">
         <v>37</v>
       </c>
-      <c r="N16" s="103">
+      <c r="N16" s="104">
         <f>SUM(D16:M16)/410</f>
         <v>0.90487804878048783</v>
       </c>
-      <c r="O16" s="122"/>
+      <c r="O16" s="108"/>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B17" s="102"/>
+      <c r="B17" s="103"/>
       <c r="C17" s="65" t="s">
         <v>98</v>
       </c>
@@ -9848,36 +10316,36 @@
       <c r="M17" s="43">
         <v>4</v>
       </c>
-      <c r="N17" s="104"/>
-      <c r="O17" s="122"/>
+      <c r="N17" s="105"/>
+      <c r="O17" s="108"/>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B20" s="101" t="s">
+      <c r="B20" s="106" t="s">
         <v>102</v>
       </c>
-      <c r="C20" s="101"/>
-      <c r="D20" s="100" t="s">
+      <c r="C20" s="106"/>
+      <c r="D20" s="107" t="s">
         <v>100</v>
       </c>
-      <c r="E20" s="100"/>
-      <c r="F20" s="100"/>
-      <c r="G20" s="100"/>
-      <c r="H20" s="100"/>
-      <c r="I20" s="100"/>
-      <c r="J20" s="100"/>
-      <c r="K20" s="100"/>
-      <c r="L20" s="100"/>
-      <c r="M20" s="100"/>
-      <c r="N20" s="102" t="s">
+      <c r="E20" s="107"/>
+      <c r="F20" s="107"/>
+      <c r="G20" s="107"/>
+      <c r="H20" s="107"/>
+      <c r="I20" s="107"/>
+      <c r="J20" s="107"/>
+      <c r="K20" s="107"/>
+      <c r="L20" s="107"/>
+      <c r="M20" s="107"/>
+      <c r="N20" s="103" t="s">
         <v>99</v>
       </c>
-      <c r="O20" s="100" t="s">
+      <c r="O20" s="107" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B21" s="101"/>
-      <c r="C21" s="101"/>
+      <c r="B21" s="106"/>
+      <c r="C21" s="106"/>
       <c r="D21" s="65">
         <v>1</v>
       </c>
@@ -9908,11 +10376,11 @@
       <c r="M21" s="65">
         <v>10</v>
       </c>
-      <c r="N21" s="102"/>
-      <c r="O21" s="100"/>
+      <c r="N21" s="103"/>
+      <c r="O21" s="107"/>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B22" s="102" t="s">
+      <c r="B22" s="103" t="s">
         <v>127</v>
       </c>
       <c r="C22" s="65" t="s">
@@ -9948,17 +10416,17 @@
       <c r="M22" s="43">
         <v>9</v>
       </c>
-      <c r="N22" s="103">
+      <c r="N22" s="104">
         <f>SUM(D22:M22)/410</f>
         <v>0.8365853658536585</v>
       </c>
-      <c r="O22" s="122">
+      <c r="O22" s="108">
         <f>(N22+N24)/2</f>
         <v>0.82560975609756093</v>
       </c>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B23" s="102"/>
+      <c r="B23" s="103"/>
       <c r="C23" s="65" t="s">
         <v>98</v>
       </c>
@@ -9992,11 +10460,11 @@
       <c r="M23" s="43">
         <v>32</v>
       </c>
-      <c r="N23" s="104"/>
-      <c r="O23" s="122"/>
+      <c r="N23" s="105"/>
+      <c r="O23" s="108"/>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B24" s="102" t="s">
+      <c r="B24" s="103" t="s">
         <v>128</v>
       </c>
       <c r="C24" s="65" t="s">
@@ -10032,14 +10500,14 @@
       <c r="M24" s="43">
         <v>9</v>
       </c>
-      <c r="N24" s="103">
+      <c r="N24" s="104">
         <f>SUM(D24:M24)/410</f>
         <v>0.81463414634146336</v>
       </c>
-      <c r="O24" s="122"/>
+      <c r="O24" s="108"/>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B25" s="102"/>
+      <c r="B25" s="103"/>
       <c r="C25" s="65" t="s">
         <v>98</v>
       </c>
@@ -10073,22 +10541,18 @@
       <c r="M25" s="43">
         <v>32</v>
       </c>
-      <c r="N25" s="104"/>
-      <c r="O25" s="122"/>
+      <c r="N25" s="105"/>
+      <c r="O25" s="108"/>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="O12:O13"/>
-    <mergeCell ref="O14:O17"/>
-    <mergeCell ref="O20:O21"/>
-    <mergeCell ref="O22:O25"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="O6:O9"/>
-    <mergeCell ref="B20:C21"/>
-    <mergeCell ref="D20:M20"/>
-    <mergeCell ref="N20:N21"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="N22:N23"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="B4:C5"/>
+    <mergeCell ref="D4:M4"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="N6:N7"/>
     <mergeCell ref="B24:B25"/>
     <mergeCell ref="N24:N25"/>
     <mergeCell ref="B12:C13"/>
@@ -10098,13 +10562,17 @@
     <mergeCell ref="N14:N15"/>
     <mergeCell ref="B16:B17"/>
     <mergeCell ref="N16:N17"/>
-    <mergeCell ref="B4:C5"/>
-    <mergeCell ref="D4:M4"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="B20:C21"/>
+    <mergeCell ref="D20:M20"/>
+    <mergeCell ref="N20:N21"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="N22:N23"/>
+    <mergeCell ref="O12:O13"/>
+    <mergeCell ref="O14:O17"/>
+    <mergeCell ref="O20:O21"/>
+    <mergeCell ref="O22:O25"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="O6:O9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -10115,7 +10583,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A4:AN51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="U38" sqref="U38"/>
     </sheetView>
   </sheetViews>
@@ -10133,62 +10601,62 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="101" t="s">
+      <c r="B4" s="106" t="s">
         <v>111</v>
       </c>
-      <c r="C4" s="101"/>
-      <c r="D4" s="100" t="s">
+      <c r="C4" s="106"/>
+      <c r="D4" s="107" t="s">
         <v>100</v>
       </c>
-      <c r="E4" s="100"/>
-      <c r="F4" s="100"/>
-      <c r="G4" s="100"/>
-      <c r="H4" s="100"/>
-      <c r="I4" s="100"/>
-      <c r="J4" s="100"/>
-      <c r="K4" s="100"/>
-      <c r="L4" s="100"/>
-      <c r="M4" s="100"/>
-      <c r="N4" s="102" t="s">
+      <c r="E4" s="107"/>
+      <c r="F4" s="107"/>
+      <c r="G4" s="107"/>
+      <c r="H4" s="107"/>
+      <c r="I4" s="107"/>
+      <c r="J4" s="107"/>
+      <c r="K4" s="107"/>
+      <c r="L4" s="107"/>
+      <c r="M4" s="107"/>
+      <c r="N4" s="103" t="s">
         <v>115</v>
       </c>
-      <c r="R4" s="101" t="s">
+      <c r="R4" s="106" t="s">
         <v>116</v>
       </c>
-      <c r="S4" s="101"/>
-      <c r="T4" s="100" t="s">
+      <c r="S4" s="106"/>
+      <c r="T4" s="107" t="s">
         <v>100</v>
       </c>
-      <c r="U4" s="100"/>
-      <c r="V4" s="100"/>
-      <c r="W4" s="100"/>
-      <c r="X4" s="100"/>
-      <c r="Y4" s="100"/>
-      <c r="Z4" s="100"/>
-      <c r="AA4" s="100"/>
-      <c r="AB4" s="100"/>
-      <c r="AC4" s="100"/>
-      <c r="AD4" s="102" t="s">
+      <c r="U4" s="107"/>
+      <c r="V4" s="107"/>
+      <c r="W4" s="107"/>
+      <c r="X4" s="107"/>
+      <c r="Y4" s="107"/>
+      <c r="Z4" s="107"/>
+      <c r="AA4" s="107"/>
+      <c r="AB4" s="107"/>
+      <c r="AC4" s="107"/>
+      <c r="AD4" s="103" t="s">
         <v>105</v>
       </c>
-      <c r="AG4" s="102" t="s">
+      <c r="AG4" s="103" t="s">
         <v>59</v>
       </c>
-      <c r="AH4" s="100" t="s">
+      <c r="AH4" s="107" t="s">
         <v>109</v>
       </c>
-      <c r="AI4" s="100" t="s">
+      <c r="AI4" s="107" t="s">
         <v>110</v>
       </c>
-      <c r="AJ4" s="100"/>
-      <c r="AK4" s="100"/>
-      <c r="AL4" s="100"/>
-      <c r="AM4" s="100"/>
-      <c r="AN4" s="100"/>
+      <c r="AJ4" s="107"/>
+      <c r="AK4" s="107"/>
+      <c r="AL4" s="107"/>
+      <c r="AM4" s="107"/>
+      <c r="AN4" s="107"/>
     </row>
     <row r="5" spans="2:40" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="101"/>
-      <c r="C5" s="101"/>
+      <c r="B5" s="106"/>
+      <c r="C5" s="106"/>
       <c r="D5" s="45">
         <v>1</v>
       </c>
@@ -10219,9 +10687,9 @@
       <c r="M5" s="45">
         <v>10</v>
       </c>
-      <c r="N5" s="102"/>
-      <c r="R5" s="101"/>
-      <c r="S5" s="101"/>
+      <c r="N5" s="103"/>
+      <c r="R5" s="106"/>
+      <c r="S5" s="106"/>
       <c r="T5" s="45">
         <v>1</v>
       </c>
@@ -10252,9 +10720,9 @@
       <c r="AC5" s="45">
         <v>10</v>
       </c>
-      <c r="AD5" s="102"/>
-      <c r="AG5" s="102"/>
-      <c r="AH5" s="100"/>
+      <c r="AD5" s="103"/>
+      <c r="AG5" s="103"/>
+      <c r="AH5" s="107"/>
       <c r="AI5" s="53" t="s">
         <v>1</v>
       </c>
@@ -10275,7 +10743,7 @@
       </c>
     </row>
     <row r="6" spans="2:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="105" t="s">
+      <c r="B6" s="109" t="s">
         <v>110</v>
       </c>
       <c r="C6" s="45" t="s">
@@ -10325,7 +10793,7 @@
         <f>AVERAGE(D6:M6)</f>
         <v>9.2636986301369864E-2</v>
       </c>
-      <c r="R6" s="105" t="s">
+      <c r="R6" s="109" t="s">
         <v>110</v>
       </c>
       <c r="S6" s="45" t="s">
@@ -10397,7 +10865,7 @@
       </c>
     </row>
     <row r="7" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B7" s="105"/>
+      <c r="B7" s="109"/>
       <c r="C7" s="45" t="s">
         <v>2</v>
       </c>
@@ -10445,7 +10913,7 @@
         <f t="shared" ref="N7:N11" si="0">AVERAGE(D7:M7)</f>
         <v>0.2441780821917808</v>
       </c>
-      <c r="R7" s="105"/>
+      <c r="R7" s="109"/>
       <c r="S7" s="45" t="s">
         <v>2</v>
       </c>
@@ -10515,7 +10983,7 @@
       </c>
     </row>
     <row r="8" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B8" s="105"/>
+      <c r="B8" s="109"/>
       <c r="C8" s="45" t="s">
         <v>3</v>
       </c>
@@ -10563,7 +11031,7 @@
         <f t="shared" si="0"/>
         <v>0.31849315068493156</v>
       </c>
-      <c r="R8" s="105"/>
+      <c r="R8" s="109"/>
       <c r="S8" s="45" t="s">
         <v>3</v>
       </c>
@@ -10633,7 +11101,7 @@
       </c>
     </row>
     <row r="9" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B9" s="105"/>
+      <c r="B9" s="109"/>
       <c r="C9" s="45" t="s">
         <v>52</v>
       </c>
@@ -10681,7 +11149,7 @@
         <f t="shared" si="0"/>
         <v>0.49383561643835616</v>
       </c>
-      <c r="R9" s="105"/>
+      <c r="R9" s="109"/>
       <c r="S9" s="45" t="s">
         <v>52</v>
       </c>
@@ -10751,7 +11219,7 @@
       </c>
     </row>
     <row r="10" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B10" s="105"/>
+      <c r="B10" s="109"/>
       <c r="C10" s="45" t="s">
         <v>51</v>
       </c>
@@ -10799,7 +11267,7 @@
         <f t="shared" si="0"/>
         <v>0.59845890410958913</v>
       </c>
-      <c r="R10" s="105"/>
+      <c r="R10" s="109"/>
       <c r="S10" s="45" t="s">
         <v>51</v>
       </c>
@@ -10869,7 +11337,7 @@
       </c>
     </row>
     <row r="11" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B11" s="105"/>
+      <c r="B11" s="109"/>
       <c r="C11" s="45" t="s">
         <v>69</v>
       </c>
@@ -10917,7 +11385,7 @@
         <f t="shared" si="0"/>
         <v>0.56746575342465744</v>
       </c>
-      <c r="R11" s="105"/>
+      <c r="R11" s="109"/>
       <c r="S11" s="45" t="s">
         <v>69</v>
       </c>
@@ -10957,62 +11425,62 @@
       </c>
     </row>
     <row r="14" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B14" s="101" t="s">
+      <c r="B14" s="106" t="s">
         <v>112</v>
       </c>
-      <c r="C14" s="101"/>
-      <c r="D14" s="100" t="s">
+      <c r="C14" s="106"/>
+      <c r="D14" s="107" t="s">
         <v>100</v>
       </c>
-      <c r="E14" s="100"/>
-      <c r="F14" s="100"/>
-      <c r="G14" s="100"/>
-      <c r="H14" s="100"/>
-      <c r="I14" s="100"/>
-      <c r="J14" s="100"/>
-      <c r="K14" s="100"/>
-      <c r="L14" s="100"/>
-      <c r="M14" s="100"/>
-      <c r="N14" s="102" t="s">
+      <c r="E14" s="107"/>
+      <c r="F14" s="107"/>
+      <c r="G14" s="107"/>
+      <c r="H14" s="107"/>
+      <c r="I14" s="107"/>
+      <c r="J14" s="107"/>
+      <c r="K14" s="107"/>
+      <c r="L14" s="107"/>
+      <c r="M14" s="107"/>
+      <c r="N14" s="103" t="s">
         <v>105</v>
       </c>
-      <c r="R14" s="101" t="s">
+      <c r="R14" s="106" t="s">
         <v>117</v>
       </c>
-      <c r="S14" s="101"/>
-      <c r="T14" s="100" t="s">
+      <c r="S14" s="106"/>
+      <c r="T14" s="107" t="s">
         <v>100</v>
       </c>
-      <c r="U14" s="100"/>
-      <c r="V14" s="100"/>
-      <c r="W14" s="100"/>
-      <c r="X14" s="100"/>
-      <c r="Y14" s="100"/>
-      <c r="Z14" s="100"/>
-      <c r="AA14" s="100"/>
-      <c r="AB14" s="100"/>
-      <c r="AC14" s="100"/>
-      <c r="AD14" s="102" t="s">
+      <c r="U14" s="107"/>
+      <c r="V14" s="107"/>
+      <c r="W14" s="107"/>
+      <c r="X14" s="107"/>
+      <c r="Y14" s="107"/>
+      <c r="Z14" s="107"/>
+      <c r="AA14" s="107"/>
+      <c r="AB14" s="107"/>
+      <c r="AC14" s="107"/>
+      <c r="AD14" s="103" t="s">
         <v>105</v>
       </c>
-      <c r="AG14" s="102" t="s">
+      <c r="AG14" s="103" t="s">
         <v>59</v>
       </c>
-      <c r="AH14" s="100" t="s">
+      <c r="AH14" s="107" t="s">
         <v>109</v>
       </c>
-      <c r="AI14" s="100" t="s">
+      <c r="AI14" s="107" t="s">
         <v>110</v>
       </c>
-      <c r="AJ14" s="100"/>
-      <c r="AK14" s="100"/>
-      <c r="AL14" s="100"/>
-      <c r="AM14" s="100"/>
-      <c r="AN14" s="100"/>
+      <c r="AJ14" s="107"/>
+      <c r="AK14" s="107"/>
+      <c r="AL14" s="107"/>
+      <c r="AM14" s="107"/>
+      <c r="AN14" s="107"/>
     </row>
     <row r="15" spans="2:40" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="101"/>
-      <c r="C15" s="101"/>
+      <c r="B15" s="106"/>
+      <c r="C15" s="106"/>
       <c r="D15" s="45">
         <v>1</v>
       </c>
@@ -11043,9 +11511,9 @@
       <c r="M15" s="45">
         <v>10</v>
       </c>
-      <c r="N15" s="102"/>
-      <c r="R15" s="101"/>
-      <c r="S15" s="101"/>
+      <c r="N15" s="103"/>
+      <c r="R15" s="106"/>
+      <c r="S15" s="106"/>
       <c r="T15" s="45">
         <v>1</v>
       </c>
@@ -11076,9 +11544,9 @@
       <c r="AC15" s="45">
         <v>10</v>
       </c>
-      <c r="AD15" s="102"/>
-      <c r="AG15" s="102"/>
-      <c r="AH15" s="100"/>
+      <c r="AD15" s="103"/>
+      <c r="AG15" s="103"/>
+      <c r="AH15" s="107"/>
       <c r="AI15" s="53" t="s">
         <v>1</v>
       </c>
@@ -11099,7 +11567,7 @@
       </c>
     </row>
     <row r="16" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B16" s="105" t="s">
+      <c r="B16" s="109" t="s">
         <v>110</v>
       </c>
       <c r="C16" s="45" t="s">
@@ -11149,7 +11617,7 @@
         <f>AVERAGE(D16:M16)</f>
         <v>9.5918367346938788E-2</v>
       </c>
-      <c r="R16" s="105" t="s">
+      <c r="R16" s="109" t="s">
         <v>110</v>
       </c>
       <c r="S16" s="45" t="s">
@@ -11221,7 +11689,7 @@
       </c>
     </row>
     <row r="17" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="B17" s="105"/>
+      <c r="B17" s="109"/>
       <c r="C17" s="45" t="s">
         <v>2</v>
       </c>
@@ -11269,7 +11737,7 @@
         <f t="shared" ref="N17:N21" si="2">AVERAGE(D17:M17)</f>
         <v>0.19918367346938778</v>
       </c>
-      <c r="R17" s="105"/>
+      <c r="R17" s="109"/>
       <c r="S17" s="45" t="s">
         <v>2</v>
       </c>
@@ -11339,7 +11807,7 @@
       </c>
     </row>
     <row r="18" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="B18" s="105"/>
+      <c r="B18" s="109"/>
       <c r="C18" s="45" t="s">
         <v>3</v>
       </c>
@@ -11387,7 +11855,7 @@
         <f t="shared" si="2"/>
         <v>0.32346938775510203</v>
       </c>
-      <c r="R18" s="105"/>
+      <c r="R18" s="109"/>
       <c r="S18" s="45" t="s">
         <v>3</v>
       </c>
@@ -11456,7 +11924,7 @@
       </c>
     </row>
     <row r="19" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="B19" s="105"/>
+      <c r="B19" s="109"/>
       <c r="C19" s="45" t="s">
         <v>52</v>
       </c>
@@ -11504,7 +11972,7 @@
         <f t="shared" si="2"/>
         <v>0.49091836734693883</v>
       </c>
-      <c r="R19" s="105"/>
+      <c r="R19" s="109"/>
       <c r="S19" s="45" t="s">
         <v>52</v>
       </c>
@@ -11574,7 +12042,7 @@
       </c>
     </row>
     <row r="20" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="B20" s="105"/>
+      <c r="B20" s="109"/>
       <c r="C20" s="45" t="s">
         <v>51</v>
       </c>
@@ -11622,7 +12090,7 @@
         <f t="shared" si="2"/>
         <v>0.54499999999999993</v>
       </c>
-      <c r="R20" s="105"/>
+      <c r="R20" s="109"/>
       <c r="S20" s="45" t="s">
         <v>51</v>
       </c>
@@ -11692,7 +12160,7 @@
       </c>
     </row>
     <row r="21" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="B21" s="105"/>
+      <c r="B21" s="109"/>
       <c r="C21" s="45" t="s">
         <v>69</v>
       </c>
@@ -11740,7 +12208,7 @@
         <f t="shared" si="2"/>
         <v>0.60499999999999998</v>
       </c>
-      <c r="R21" s="105"/>
+      <c r="R21" s="109"/>
       <c r="S21" s="45" t="s">
         <v>69</v>
       </c>
@@ -11780,48 +12248,48 @@
       </c>
     </row>
     <row r="24" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="B24" s="101" t="s">
+      <c r="B24" s="106" t="s">
         <v>113</v>
       </c>
-      <c r="C24" s="101"/>
-      <c r="D24" s="100" t="s">
+      <c r="C24" s="106"/>
+      <c r="D24" s="107" t="s">
         <v>100</v>
       </c>
-      <c r="E24" s="100"/>
-      <c r="F24" s="100"/>
-      <c r="G24" s="100"/>
-      <c r="H24" s="100"/>
-      <c r="I24" s="100"/>
-      <c r="J24" s="100"/>
-      <c r="K24" s="100"/>
-      <c r="L24" s="100"/>
-      <c r="M24" s="100"/>
-      <c r="N24" s="102" t="s">
+      <c r="E24" s="107"/>
+      <c r="F24" s="107"/>
+      <c r="G24" s="107"/>
+      <c r="H24" s="107"/>
+      <c r="I24" s="107"/>
+      <c r="J24" s="107"/>
+      <c r="K24" s="107"/>
+      <c r="L24" s="107"/>
+      <c r="M24" s="107"/>
+      <c r="N24" s="103" t="s">
         <v>105</v>
       </c>
-      <c r="R24" s="101" t="s">
+      <c r="R24" s="106" t="s">
         <v>118</v>
       </c>
-      <c r="S24" s="101"/>
-      <c r="T24" s="100" t="s">
+      <c r="S24" s="106"/>
+      <c r="T24" s="107" t="s">
         <v>100</v>
       </c>
-      <c r="U24" s="100"/>
-      <c r="V24" s="100"/>
-      <c r="W24" s="100"/>
-      <c r="X24" s="100"/>
-      <c r="Y24" s="100"/>
-      <c r="Z24" s="100"/>
-      <c r="AA24" s="100"/>
-      <c r="AB24" s="100"/>
-      <c r="AC24" s="100"/>
-      <c r="AD24" s="102" t="s">
+      <c r="U24" s="107"/>
+      <c r="V24" s="107"/>
+      <c r="W24" s="107"/>
+      <c r="X24" s="107"/>
+      <c r="Y24" s="107"/>
+      <c r="Z24" s="107"/>
+      <c r="AA24" s="107"/>
+      <c r="AB24" s="107"/>
+      <c r="AC24" s="107"/>
+      <c r="AD24" s="103" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="25" spans="1:40" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="101"/>
-      <c r="C25" s="101"/>
+      <c r="B25" s="106"/>
+      <c r="C25" s="106"/>
       <c r="D25" s="45">
         <v>1</v>
       </c>
@@ -11852,9 +12320,9 @@
       <c r="M25" s="45">
         <v>10</v>
       </c>
-      <c r="N25" s="102"/>
-      <c r="R25" s="101"/>
-      <c r="S25" s="101"/>
+      <c r="N25" s="103"/>
+      <c r="R25" s="106"/>
+      <c r="S25" s="106"/>
       <c r="T25" s="45">
         <v>1</v>
       </c>
@@ -11885,10 +12353,10 @@
       <c r="AC25" s="45">
         <v>10</v>
       </c>
-      <c r="AD25" s="102"/>
+      <c r="AD25" s="103"/>
     </row>
     <row r="26" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="B26" s="105" t="s">
+      <c r="B26" s="109" t="s">
         <v>110</v>
       </c>
       <c r="C26" s="45" t="s">
@@ -11938,7 +12406,7 @@
         <f>AVERAGE(D26:M26)</f>
         <v>0.10015624999999999</v>
       </c>
-      <c r="R26" s="105" t="s">
+      <c r="R26" s="109" t="s">
         <v>110</v>
       </c>
       <c r="S26" s="45" t="s">
@@ -11980,7 +12448,7 @@
       </c>
     </row>
     <row r="27" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="B27" s="105"/>
+      <c r="B27" s="109"/>
       <c r="C27" s="45" t="s">
         <v>2</v>
       </c>
@@ -12028,7 +12496,7 @@
         <f t="shared" ref="N27:N30" si="4">AVERAGE(D27:M27)</f>
         <v>0.16820312499999998</v>
       </c>
-      <c r="R27" s="105"/>
+      <c r="R27" s="109"/>
       <c r="S27" s="45" t="s">
         <v>2</v>
       </c>
@@ -12068,7 +12536,7 @@
       </c>
     </row>
     <row r="28" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="B28" s="105"/>
+      <c r="B28" s="109"/>
       <c r="C28" s="45" t="s">
         <v>3</v>
       </c>
@@ -12116,7 +12584,7 @@
         <f t="shared" si="4"/>
         <v>0.37398437499999998</v>
       </c>
-      <c r="R28" s="105"/>
+      <c r="R28" s="109"/>
       <c r="S28" s="45" t="s">
         <v>3</v>
       </c>
@@ -12156,7 +12624,7 @@
       </c>
     </row>
     <row r="29" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="B29" s="105"/>
+      <c r="B29" s="109"/>
       <c r="C29" s="45" t="s">
         <v>52</v>
       </c>
@@ -12204,7 +12672,7 @@
         <f t="shared" si="4"/>
         <v>0.45929687499999999</v>
       </c>
-      <c r="R29" s="105"/>
+      <c r="R29" s="109"/>
       <c r="S29" s="45" t="s">
         <v>52</v>
       </c>
@@ -12244,7 +12712,7 @@
       </c>
     </row>
     <row r="30" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="B30" s="105"/>
+      <c r="B30" s="109"/>
       <c r="C30" s="45" t="s">
         <v>51</v>
       </c>
@@ -12292,7 +12760,7 @@
         <f t="shared" si="4"/>
         <v>0.50226562500000005</v>
       </c>
-      <c r="R30" s="105"/>
+      <c r="R30" s="109"/>
       <c r="S30" s="45" t="s">
         <v>51</v>
       </c>
@@ -12335,7 +12803,7 @@
       <c r="A31" t="s">
         <v>108</v>
       </c>
-      <c r="B31" s="105"/>
+      <c r="B31" s="109"/>
       <c r="C31" s="54" t="s">
         <v>69</v>
       </c>
@@ -12372,7 +12840,7 @@
       <c r="N31" s="55" t="s">
         <v>71</v>
       </c>
-      <c r="R31" s="105"/>
+      <c r="R31" s="109"/>
       <c r="S31" s="54" t="s">
         <v>69</v>
       </c>
@@ -12411,48 +12879,48 @@
       </c>
     </row>
     <row r="34" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B34" s="101" t="s">
+      <c r="B34" s="106" t="s">
         <v>114</v>
       </c>
-      <c r="C34" s="101"/>
-      <c r="D34" s="100" t="s">
+      <c r="C34" s="106"/>
+      <c r="D34" s="107" t="s">
         <v>100</v>
       </c>
-      <c r="E34" s="100"/>
-      <c r="F34" s="100"/>
-      <c r="G34" s="100"/>
-      <c r="H34" s="100"/>
-      <c r="I34" s="100"/>
-      <c r="J34" s="100"/>
-      <c r="K34" s="100"/>
-      <c r="L34" s="100"/>
-      <c r="M34" s="100"/>
-      <c r="N34" s="102" t="s">
+      <c r="E34" s="107"/>
+      <c r="F34" s="107"/>
+      <c r="G34" s="107"/>
+      <c r="H34" s="107"/>
+      <c r="I34" s="107"/>
+      <c r="J34" s="107"/>
+      <c r="K34" s="107"/>
+      <c r="L34" s="107"/>
+      <c r="M34" s="107"/>
+      <c r="N34" s="103" t="s">
         <v>105</v>
       </c>
-      <c r="R34" s="101" t="s">
+      <c r="R34" s="106" t="s">
         <v>119</v>
       </c>
-      <c r="S34" s="101"/>
-      <c r="T34" s="100" t="s">
+      <c r="S34" s="106"/>
+      <c r="T34" s="107" t="s">
         <v>100</v>
       </c>
-      <c r="U34" s="100"/>
-      <c r="V34" s="100"/>
-      <c r="W34" s="100"/>
-      <c r="X34" s="100"/>
-      <c r="Y34" s="100"/>
-      <c r="Z34" s="100"/>
-      <c r="AA34" s="100"/>
-      <c r="AB34" s="100"/>
-      <c r="AC34" s="100"/>
-      <c r="AD34" s="102" t="s">
+      <c r="U34" s="107"/>
+      <c r="V34" s="107"/>
+      <c r="W34" s="107"/>
+      <c r="X34" s="107"/>
+      <c r="Y34" s="107"/>
+      <c r="Z34" s="107"/>
+      <c r="AA34" s="107"/>
+      <c r="AB34" s="107"/>
+      <c r="AC34" s="107"/>
+      <c r="AD34" s="103" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="35" spans="1:30" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="101"/>
-      <c r="C35" s="101"/>
+      <c r="B35" s="106"/>
+      <c r="C35" s="106"/>
       <c r="D35" s="45">
         <v>1</v>
       </c>
@@ -12483,9 +12951,9 @@
       <c r="M35" s="45">
         <v>10</v>
       </c>
-      <c r="N35" s="102"/>
-      <c r="R35" s="101"/>
-      <c r="S35" s="101"/>
+      <c r="N35" s="103"/>
+      <c r="R35" s="106"/>
+      <c r="S35" s="106"/>
       <c r="T35" s="45">
         <v>1</v>
       </c>
@@ -12516,10 +12984,10 @@
       <c r="AC35" s="45">
         <v>10</v>
       </c>
-      <c r="AD35" s="102"/>
+      <c r="AD35" s="103"/>
     </row>
     <row r="36" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B36" s="105" t="s">
+      <c r="B36" s="109" t="s">
         <v>110</v>
       </c>
       <c r="C36" s="45" t="s">
@@ -12569,7 +13037,7 @@
         <f>AVERAGE(D36:M36)</f>
         <v>0.10200743494423789</v>
       </c>
-      <c r="R36" s="105" t="s">
+      <c r="R36" s="109" t="s">
         <v>110</v>
       </c>
       <c r="S36" s="45" t="s">
@@ -12611,7 +13079,7 @@
       </c>
     </row>
     <row r="37" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B37" s="105"/>
+      <c r="B37" s="109"/>
       <c r="C37" s="45" t="s">
         <v>2</v>
       </c>
@@ -12659,7 +13127,7 @@
         <f t="shared" ref="N37:N40" si="6">AVERAGE(D37:M37)</f>
         <v>0.16988847583643124</v>
       </c>
-      <c r="R37" s="105"/>
+      <c r="R37" s="109"/>
       <c r="S37" s="45" t="s">
         <v>2</v>
       </c>
@@ -12699,7 +13167,7 @@
       </c>
     </row>
     <row r="38" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B38" s="105"/>
+      <c r="B38" s="109"/>
       <c r="C38" s="45" t="s">
         <v>3</v>
       </c>
@@ -12747,7 +13215,7 @@
         <f t="shared" si="6"/>
         <v>0.37724907063197022</v>
       </c>
-      <c r="R38" s="105"/>
+      <c r="R38" s="109"/>
       <c r="S38" s="45" t="s">
         <v>3</v>
       </c>
@@ -12787,7 +13255,7 @@
       </c>
     </row>
     <row r="39" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B39" s="105"/>
+      <c r="B39" s="109"/>
       <c r="C39" s="45" t="s">
         <v>52</v>
       </c>
@@ -12835,7 +13303,7 @@
         <f t="shared" si="6"/>
         <v>0.45933085501858739</v>
       </c>
-      <c r="R39" s="105"/>
+      <c r="R39" s="109"/>
       <c r="S39" s="45" t="s">
         <v>52</v>
       </c>
@@ -12875,7 +13343,7 @@
       </c>
     </row>
     <row r="40" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B40" s="105"/>
+      <c r="B40" s="109"/>
       <c r="C40" s="45" t="s">
         <v>51</v>
       </c>
@@ -12923,7 +13391,7 @@
         <f t="shared" si="6"/>
         <v>0.54542750929368033</v>
       </c>
-      <c r="R40" s="105"/>
+      <c r="R40" s="109"/>
       <c r="S40" s="45" t="s">
         <v>51</v>
       </c>
@@ -12966,7 +13434,7 @@
       <c r="A41" t="s">
         <v>108</v>
       </c>
-      <c r="B41" s="105"/>
+      <c r="B41" s="109"/>
       <c r="C41" s="54" t="s">
         <v>69</v>
       </c>
@@ -13003,7 +13471,7 @@
       <c r="N41" s="55" t="s">
         <v>71</v>
       </c>
-      <c r="R41" s="105"/>
+      <c r="R41" s="109"/>
       <c r="S41" s="54" t="s">
         <v>69</v>
       </c>
@@ -13042,48 +13510,48 @@
       </c>
     </row>
     <row r="44" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B44" s="101" t="s">
+      <c r="B44" s="106" t="s">
         <v>124</v>
       </c>
-      <c r="C44" s="101"/>
-      <c r="D44" s="100" t="s">
+      <c r="C44" s="106"/>
+      <c r="D44" s="107" t="s">
         <v>100</v>
       </c>
-      <c r="E44" s="100"/>
-      <c r="F44" s="100"/>
-      <c r="G44" s="100"/>
-      <c r="H44" s="100"/>
-      <c r="I44" s="100"/>
-      <c r="J44" s="100"/>
-      <c r="K44" s="100"/>
-      <c r="L44" s="100"/>
-      <c r="M44" s="100"/>
-      <c r="N44" s="102" t="s">
+      <c r="E44" s="107"/>
+      <c r="F44" s="107"/>
+      <c r="G44" s="107"/>
+      <c r="H44" s="107"/>
+      <c r="I44" s="107"/>
+      <c r="J44" s="107"/>
+      <c r="K44" s="107"/>
+      <c r="L44" s="107"/>
+      <c r="M44" s="107"/>
+      <c r="N44" s="103" t="s">
         <v>105</v>
       </c>
-      <c r="R44" s="101" t="s">
+      <c r="R44" s="106" t="s">
         <v>125</v>
       </c>
-      <c r="S44" s="101"/>
-      <c r="T44" s="100" t="s">
+      <c r="S44" s="106"/>
+      <c r="T44" s="107" t="s">
         <v>100</v>
       </c>
-      <c r="U44" s="100"/>
-      <c r="V44" s="100"/>
-      <c r="W44" s="100"/>
-      <c r="X44" s="100"/>
-      <c r="Y44" s="100"/>
-      <c r="Z44" s="100"/>
-      <c r="AA44" s="100"/>
-      <c r="AB44" s="100"/>
-      <c r="AC44" s="100"/>
-      <c r="AD44" s="102" t="s">
+      <c r="U44" s="107"/>
+      <c r="V44" s="107"/>
+      <c r="W44" s="107"/>
+      <c r="X44" s="107"/>
+      <c r="Y44" s="107"/>
+      <c r="Z44" s="107"/>
+      <c r="AA44" s="107"/>
+      <c r="AB44" s="107"/>
+      <c r="AC44" s="107"/>
+      <c r="AD44" s="103" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="45" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="101"/>
-      <c r="C45" s="101"/>
+      <c r="B45" s="106"/>
+      <c r="C45" s="106"/>
       <c r="D45" s="61">
         <v>1</v>
       </c>
@@ -13114,9 +13582,9 @@
       <c r="M45" s="61">
         <v>10</v>
       </c>
-      <c r="N45" s="102"/>
-      <c r="R45" s="101"/>
-      <c r="S45" s="101"/>
+      <c r="N45" s="103"/>
+      <c r="R45" s="106"/>
+      <c r="S45" s="106"/>
       <c r="T45" s="61">
         <v>1</v>
       </c>
@@ -13147,10 +13615,10 @@
       <c r="AC45" s="61">
         <v>10</v>
       </c>
-      <c r="AD45" s="102"/>
+      <c r="AD45" s="103"/>
     </row>
     <row r="46" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B46" s="105" t="s">
+      <c r="B46" s="109" t="s">
         <v>110</v>
       </c>
       <c r="C46" s="61" t="s">
@@ -13200,7 +13668,7 @@
         <f>AVERAGE(D46:M46)</f>
         <v>5.0641711229946505E-2</v>
       </c>
-      <c r="R46" s="105" t="s">
+      <c r="R46" s="109" t="s">
         <v>110</v>
       </c>
       <c r="S46" s="61" t="s">
@@ -13242,7 +13710,7 @@
       </c>
     </row>
     <row r="47" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B47" s="105"/>
+      <c r="B47" s="109"/>
       <c r="C47" s="61" t="s">
         <v>2</v>
       </c>
@@ -13290,7 +13758,7 @@
         <f t="shared" ref="N47:N49" si="8">AVERAGE(D47:M47)</f>
         <v>0.11176470588235295</v>
       </c>
-      <c r="R47" s="105"/>
+      <c r="R47" s="109"/>
       <c r="S47" s="61" t="s">
         <v>2</v>
       </c>
@@ -13330,7 +13798,7 @@
       </c>
     </row>
     <row r="48" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B48" s="105"/>
+      <c r="B48" s="109"/>
       <c r="C48" s="61" t="s">
         <v>3</v>
       </c>
@@ -13378,7 +13846,7 @@
         <f t="shared" si="8"/>
         <v>0.20358288770053479</v>
       </c>
-      <c r="R48" s="105"/>
+      <c r="R48" s="109"/>
       <c r="S48" s="61" t="s">
         <v>3</v>
       </c>
@@ -13418,7 +13886,7 @@
       </c>
     </row>
     <row r="49" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B49" s="105"/>
+      <c r="B49" s="109"/>
       <c r="C49" s="61" t="s">
         <v>52</v>
       </c>
@@ -13466,7 +13934,7 @@
         <f t="shared" si="8"/>
         <v>0.27796791443850272</v>
       </c>
-      <c r="R49" s="105"/>
+      <c r="R49" s="109"/>
       <c r="S49" s="61" t="s">
         <v>52</v>
       </c>
@@ -13506,7 +13974,7 @@
       </c>
     </row>
     <row r="50" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B50" s="105"/>
+      <c r="B50" s="109"/>
       <c r="C50" s="54" t="s">
         <v>51</v>
       </c>
@@ -13543,7 +14011,7 @@
       <c r="N50" s="55" t="s">
         <v>71</v>
       </c>
-      <c r="R50" s="105"/>
+      <c r="R50" s="109"/>
       <c r="S50" s="54" t="s">
         <v>51</v>
       </c>
@@ -13582,7 +14050,7 @@
       </c>
     </row>
     <row r="51" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B51" s="105"/>
+      <c r="B51" s="109"/>
       <c r="C51" s="54" t="s">
         <v>69</v>
       </c>
@@ -13619,7 +14087,7 @@
       <c r="N51" s="55" t="s">
         <v>71</v>
       </c>
-      <c r="R51" s="105"/>
+      <c r="R51" s="109"/>
       <c r="S51" s="54" t="s">
         <v>69</v>
       </c>
@@ -13659,30 +14127,12 @@
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="T44:AC44"/>
-    <mergeCell ref="AD44:AD45"/>
-    <mergeCell ref="R46:R51"/>
-    <mergeCell ref="B44:C45"/>
-    <mergeCell ref="D44:M44"/>
-    <mergeCell ref="N44:N45"/>
-    <mergeCell ref="B46:B51"/>
-    <mergeCell ref="R44:S45"/>
-    <mergeCell ref="R4:S5"/>
-    <mergeCell ref="T4:AC4"/>
-    <mergeCell ref="AD4:AD5"/>
-    <mergeCell ref="R6:R11"/>
-    <mergeCell ref="B14:C15"/>
-    <mergeCell ref="D14:M14"/>
-    <mergeCell ref="N14:N15"/>
-    <mergeCell ref="B4:C5"/>
-    <mergeCell ref="D4:M4"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="B6:B11"/>
-    <mergeCell ref="N24:N25"/>
-    <mergeCell ref="B26:B31"/>
-    <mergeCell ref="B34:C35"/>
-    <mergeCell ref="D34:M34"/>
-    <mergeCell ref="N34:N35"/>
+    <mergeCell ref="AG4:AG5"/>
+    <mergeCell ref="AH4:AH5"/>
+    <mergeCell ref="AI4:AN4"/>
+    <mergeCell ref="AG14:AG15"/>
+    <mergeCell ref="AH14:AH15"/>
+    <mergeCell ref="AI14:AN14"/>
     <mergeCell ref="T34:AC34"/>
     <mergeCell ref="AD34:AD35"/>
     <mergeCell ref="R36:R41"/>
@@ -13699,12 +14149,30 @@
     <mergeCell ref="B16:B21"/>
     <mergeCell ref="B24:C25"/>
     <mergeCell ref="D24:M24"/>
-    <mergeCell ref="AG4:AG5"/>
-    <mergeCell ref="AH4:AH5"/>
-    <mergeCell ref="AI4:AN4"/>
-    <mergeCell ref="AG14:AG15"/>
-    <mergeCell ref="AH14:AH15"/>
-    <mergeCell ref="AI14:AN14"/>
+    <mergeCell ref="N24:N25"/>
+    <mergeCell ref="B26:B31"/>
+    <mergeCell ref="B34:C35"/>
+    <mergeCell ref="D34:M34"/>
+    <mergeCell ref="N34:N35"/>
+    <mergeCell ref="R4:S5"/>
+    <mergeCell ref="T4:AC4"/>
+    <mergeCell ref="AD4:AD5"/>
+    <mergeCell ref="R6:R11"/>
+    <mergeCell ref="B14:C15"/>
+    <mergeCell ref="D14:M14"/>
+    <mergeCell ref="N14:N15"/>
+    <mergeCell ref="B4:C5"/>
+    <mergeCell ref="D4:M4"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="B6:B11"/>
+    <mergeCell ref="T44:AC44"/>
+    <mergeCell ref="AD44:AD45"/>
+    <mergeCell ref="R46:R51"/>
+    <mergeCell ref="B44:C45"/>
+    <mergeCell ref="D44:M44"/>
+    <mergeCell ref="N44:N45"/>
+    <mergeCell ref="B46:B51"/>
+    <mergeCell ref="R44:S45"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -13724,43 +14192,43 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="4" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B4" s="101" t="s">
+      <c r="B4" s="106" t="s">
         <v>120</v>
       </c>
-      <c r="C4" s="101"/>
-      <c r="D4" s="100" t="s">
+      <c r="C4" s="106"/>
+      <c r="D4" s="107" t="s">
         <v>100</v>
       </c>
-      <c r="E4" s="100"/>
-      <c r="F4" s="100"/>
-      <c r="G4" s="100"/>
-      <c r="H4" s="100"/>
-      <c r="I4" s="100"/>
-      <c r="J4" s="100"/>
-      <c r="K4" s="100"/>
-      <c r="L4" s="100"/>
-      <c r="M4" s="100"/>
-      <c r="N4" s="102" t="s">
+      <c r="E4" s="107"/>
+      <c r="F4" s="107"/>
+      <c r="G4" s="107"/>
+      <c r="H4" s="107"/>
+      <c r="I4" s="107"/>
+      <c r="J4" s="107"/>
+      <c r="K4" s="107"/>
+      <c r="L4" s="107"/>
+      <c r="M4" s="107"/>
+      <c r="N4" s="103" t="s">
         <v>105</v>
       </c>
-      <c r="Q4" s="102" t="s">
+      <c r="Q4" s="103" t="s">
         <v>59</v>
       </c>
-      <c r="R4" s="100" t="s">
+      <c r="R4" s="107" t="s">
         <v>109</v>
       </c>
-      <c r="S4" s="100" t="s">
+      <c r="S4" s="107" t="s">
         <v>110</v>
       </c>
-      <c r="T4" s="100"/>
-      <c r="U4" s="100"/>
-      <c r="V4" s="100"/>
-      <c r="W4" s="100"/>
-      <c r="X4" s="100"/>
+      <c r="T4" s="107"/>
+      <c r="U4" s="107"/>
+      <c r="V4" s="107"/>
+      <c r="W4" s="107"/>
+      <c r="X4" s="107"/>
     </row>
     <row r="5" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="101"/>
-      <c r="C5" s="101"/>
+      <c r="B5" s="106"/>
+      <c r="C5" s="106"/>
       <c r="D5" s="56">
         <v>1</v>
       </c>
@@ -13791,9 +14259,9 @@
       <c r="M5" s="56">
         <v>10</v>
       </c>
-      <c r="N5" s="102"/>
-      <c r="Q5" s="102"/>
-      <c r="R5" s="100"/>
+      <c r="N5" s="103"/>
+      <c r="Q5" s="103"/>
+      <c r="R5" s="107"/>
       <c r="S5" s="60" t="s">
         <v>1</v>
       </c>
@@ -13814,7 +14282,7 @@
       </c>
     </row>
     <row r="6" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B6" s="105" t="s">
+      <c r="B6" s="109" t="s">
         <v>110</v>
       </c>
       <c r="C6" s="56" t="s">
@@ -13886,7 +14354,7 @@
       </c>
     </row>
     <row r="7" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B7" s="105"/>
+      <c r="B7" s="109"/>
       <c r="C7" s="56" t="s">
         <v>2</v>
       </c>
@@ -13956,7 +14424,7 @@
       </c>
     </row>
     <row r="8" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B8" s="105"/>
+      <c r="B8" s="109"/>
       <c r="C8" s="56" t="s">
         <v>3</v>
       </c>
@@ -14026,7 +14494,7 @@
       </c>
     </row>
     <row r="9" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B9" s="105"/>
+      <c r="B9" s="109"/>
       <c r="C9" s="56" t="s">
         <v>52</v>
       </c>
@@ -14096,7 +14564,7 @@
       </c>
     </row>
     <row r="10" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B10" s="105"/>
+      <c r="B10" s="109"/>
       <c r="C10" s="56" t="s">
         <v>51</v>
       </c>
@@ -14166,7 +14634,7 @@
       </c>
     </row>
     <row r="11" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B11" s="105"/>
+      <c r="B11" s="109"/>
       <c r="C11" s="56" t="s">
         <v>69</v>
       </c>
@@ -14206,29 +14674,29 @@
       </c>
     </row>
     <row r="14" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B14" s="101" t="s">
+      <c r="B14" s="106" t="s">
         <v>121</v>
       </c>
-      <c r="C14" s="101"/>
-      <c r="D14" s="100" t="s">
+      <c r="C14" s="106"/>
+      <c r="D14" s="107" t="s">
         <v>100</v>
       </c>
-      <c r="E14" s="100"/>
-      <c r="F14" s="100"/>
-      <c r="G14" s="100"/>
-      <c r="H14" s="100"/>
-      <c r="I14" s="100"/>
-      <c r="J14" s="100"/>
-      <c r="K14" s="100"/>
-      <c r="L14" s="100"/>
-      <c r="M14" s="100"/>
-      <c r="N14" s="102" t="s">
+      <c r="E14" s="107"/>
+      <c r="F14" s="107"/>
+      <c r="G14" s="107"/>
+      <c r="H14" s="107"/>
+      <c r="I14" s="107"/>
+      <c r="J14" s="107"/>
+      <c r="K14" s="107"/>
+      <c r="L14" s="107"/>
+      <c r="M14" s="107"/>
+      <c r="N14" s="103" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="15" spans="2:24" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="101"/>
-      <c r="C15" s="101"/>
+      <c r="B15" s="106"/>
+      <c r="C15" s="106"/>
       <c r="D15" s="56">
         <v>1</v>
       </c>
@@ -14259,10 +14727,10 @@
       <c r="M15" s="56">
         <v>10</v>
       </c>
-      <c r="N15" s="102"/>
+      <c r="N15" s="103"/>
     </row>
     <row r="16" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B16" s="105" t="s">
+      <c r="B16" s="109" t="s">
         <v>110</v>
       </c>
       <c r="C16" s="56" t="s">
@@ -14304,7 +14772,7 @@
       </c>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B17" s="105"/>
+      <c r="B17" s="109"/>
       <c r="C17" s="56" t="s">
         <v>2</v>
       </c>
@@ -14344,7 +14812,7 @@
       </c>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B18" s="105"/>
+      <c r="B18" s="109"/>
       <c r="C18" s="56" t="s">
         <v>3</v>
       </c>
@@ -14384,7 +14852,7 @@
       </c>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B19" s="105"/>
+      <c r="B19" s="109"/>
       <c r="C19" s="56" t="s">
         <v>52</v>
       </c>
@@ -14424,7 +14892,7 @@
       </c>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B20" s="105"/>
+      <c r="B20" s="109"/>
       <c r="C20" s="56" t="s">
         <v>51</v>
       </c>
@@ -14464,7 +14932,7 @@
       </c>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B21" s="105"/>
+      <c r="B21" s="109"/>
       <c r="C21" s="56" t="s">
         <v>69</v>
       </c>
@@ -14504,29 +14972,29 @@
       </c>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B24" s="101" t="s">
+      <c r="B24" s="106" t="s">
         <v>122</v>
       </c>
-      <c r="C24" s="101"/>
-      <c r="D24" s="100" t="s">
+      <c r="C24" s="106"/>
+      <c r="D24" s="107" t="s">
         <v>100</v>
       </c>
-      <c r="E24" s="100"/>
-      <c r="F24" s="100"/>
-      <c r="G24" s="100"/>
-      <c r="H24" s="100"/>
-      <c r="I24" s="100"/>
-      <c r="J24" s="100"/>
-      <c r="K24" s="100"/>
-      <c r="L24" s="100"/>
-      <c r="M24" s="100"/>
-      <c r="N24" s="102" t="s">
+      <c r="E24" s="107"/>
+      <c r="F24" s="107"/>
+      <c r="G24" s="107"/>
+      <c r="H24" s="107"/>
+      <c r="I24" s="107"/>
+      <c r="J24" s="107"/>
+      <c r="K24" s="107"/>
+      <c r="L24" s="107"/>
+      <c r="M24" s="107"/>
+      <c r="N24" s="103" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="25" spans="2:14" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="101"/>
-      <c r="C25" s="101"/>
+      <c r="B25" s="106"/>
+      <c r="C25" s="106"/>
       <c r="D25" s="56">
         <v>1</v>
       </c>
@@ -14557,10 +15025,10 @@
       <c r="M25" s="56">
         <v>10</v>
       </c>
-      <c r="N25" s="102"/>
+      <c r="N25" s="103"/>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B26" s="105" t="s">
+      <c r="B26" s="109" t="s">
         <v>110</v>
       </c>
       <c r="C26" s="56" t="s">
@@ -14602,7 +15070,7 @@
       </c>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B27" s="105"/>
+      <c r="B27" s="109"/>
       <c r="C27" s="56" t="s">
         <v>2</v>
       </c>
@@ -14642,7 +15110,7 @@
       </c>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B28" s="105"/>
+      <c r="B28" s="109"/>
       <c r="C28" s="56" t="s">
         <v>3</v>
       </c>
@@ -14682,7 +15150,7 @@
       </c>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B29" s="105"/>
+      <c r="B29" s="109"/>
       <c r="C29" s="56" t="s">
         <v>52</v>
       </c>
@@ -14722,7 +15190,7 @@
       </c>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B30" s="105"/>
+      <c r="B30" s="109"/>
       <c r="C30" s="56" t="s">
         <v>51</v>
       </c>
@@ -14762,7 +15230,7 @@
       </c>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B31" s="105"/>
+      <c r="B31" s="109"/>
       <c r="C31" s="54" t="s">
         <v>69</v>
       </c>
@@ -14801,29 +15269,29 @@
       </c>
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B34" s="101" t="s">
+      <c r="B34" s="106" t="s">
         <v>123</v>
       </c>
-      <c r="C34" s="101"/>
-      <c r="D34" s="100" t="s">
+      <c r="C34" s="106"/>
+      <c r="D34" s="107" t="s">
         <v>100</v>
       </c>
-      <c r="E34" s="100"/>
-      <c r="F34" s="100"/>
-      <c r="G34" s="100"/>
-      <c r="H34" s="100"/>
-      <c r="I34" s="100"/>
-      <c r="J34" s="100"/>
-      <c r="K34" s="100"/>
-      <c r="L34" s="100"/>
-      <c r="M34" s="100"/>
-      <c r="N34" s="102" t="s">
+      <c r="E34" s="107"/>
+      <c r="F34" s="107"/>
+      <c r="G34" s="107"/>
+      <c r="H34" s="107"/>
+      <c r="I34" s="107"/>
+      <c r="J34" s="107"/>
+      <c r="K34" s="107"/>
+      <c r="L34" s="107"/>
+      <c r="M34" s="107"/>
+      <c r="N34" s="103" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="35" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="101"/>
-      <c r="C35" s="101"/>
+      <c r="B35" s="106"/>
+      <c r="C35" s="106"/>
       <c r="D35" s="56">
         <v>1</v>
       </c>
@@ -14854,10 +15322,10 @@
       <c r="M35" s="56">
         <v>10</v>
       </c>
-      <c r="N35" s="102"/>
+      <c r="N35" s="103"/>
     </row>
     <row r="36" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B36" s="105" t="s">
+      <c r="B36" s="109" t="s">
         <v>110</v>
       </c>
       <c r="C36" s="56" t="s">
@@ -14899,7 +15367,7 @@
       </c>
     </row>
     <row r="37" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B37" s="105"/>
+      <c r="B37" s="109"/>
       <c r="C37" s="56" t="s">
         <v>2</v>
       </c>
@@ -14939,7 +15407,7 @@
       </c>
     </row>
     <row r="38" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B38" s="105"/>
+      <c r="B38" s="109"/>
       <c r="C38" s="56" t="s">
         <v>3</v>
       </c>
@@ -14979,7 +15447,7 @@
       </c>
     </row>
     <row r="39" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B39" s="105"/>
+      <c r="B39" s="109"/>
       <c r="C39" s="56" t="s">
         <v>52</v>
       </c>
@@ -15019,7 +15487,7 @@
       </c>
     </row>
     <row r="40" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B40" s="105"/>
+      <c r="B40" s="109"/>
       <c r="C40" s="56" t="s">
         <v>51</v>
       </c>
@@ -15059,7 +15527,7 @@
       </c>
     </row>
     <row r="41" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B41" s="105"/>
+      <c r="B41" s="109"/>
       <c r="C41" s="54" t="s">
         <v>69</v>
       </c>
@@ -15098,29 +15566,29 @@
       </c>
     </row>
     <row r="44" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B44" s="101" t="s">
+      <c r="B44" s="106" t="s">
         <v>126</v>
       </c>
-      <c r="C44" s="101"/>
-      <c r="D44" s="100" t="s">
+      <c r="C44" s="106"/>
+      <c r="D44" s="107" t="s">
         <v>100</v>
       </c>
-      <c r="E44" s="100"/>
-      <c r="F44" s="100"/>
-      <c r="G44" s="100"/>
-      <c r="H44" s="100"/>
-      <c r="I44" s="100"/>
-      <c r="J44" s="100"/>
-      <c r="K44" s="100"/>
-      <c r="L44" s="100"/>
-      <c r="M44" s="100"/>
-      <c r="N44" s="102" t="s">
+      <c r="E44" s="107"/>
+      <c r="F44" s="107"/>
+      <c r="G44" s="107"/>
+      <c r="H44" s="107"/>
+      <c r="I44" s="107"/>
+      <c r="J44" s="107"/>
+      <c r="K44" s="107"/>
+      <c r="L44" s="107"/>
+      <c r="M44" s="107"/>
+      <c r="N44" s="103" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="45" spans="2:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="101"/>
-      <c r="C45" s="101"/>
+      <c r="B45" s="106"/>
+      <c r="C45" s="106"/>
       <c r="D45" s="62">
         <v>1</v>
       </c>
@@ -15151,10 +15619,10 @@
       <c r="M45" s="62">
         <v>10</v>
       </c>
-      <c r="N45" s="102"/>
+      <c r="N45" s="103"/>
     </row>
     <row r="46" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B46" s="105" t="s">
+      <c r="B46" s="109" t="s">
         <v>110</v>
       </c>
       <c r="C46" s="62" t="s">
@@ -15196,7 +15664,7 @@
       </c>
     </row>
     <row r="47" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B47" s="105"/>
+      <c r="B47" s="109"/>
       <c r="C47" s="62" t="s">
         <v>2</v>
       </c>
@@ -15236,7 +15704,7 @@
       </c>
     </row>
     <row r="48" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B48" s="105"/>
+      <c r="B48" s="109"/>
       <c r="C48" s="62" t="s">
         <v>3</v>
       </c>
@@ -15276,7 +15744,7 @@
       </c>
     </row>
     <row r="49" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B49" s="105"/>
+      <c r="B49" s="109"/>
       <c r="C49" s="62" t="s">
         <v>52</v>
       </c>
@@ -15316,7 +15784,7 @@
       </c>
     </row>
     <row r="50" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B50" s="105"/>
+      <c r="B50" s="109"/>
       <c r="C50" s="54" t="s">
         <v>51</v>
       </c>
@@ -15355,7 +15823,7 @@
       </c>
     </row>
     <row r="51" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B51" s="105"/>
+      <c r="B51" s="109"/>
       <c r="C51" s="54" t="s">
         <v>69</v>
       </c>
@@ -15395,13 +15863,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="D34:M34"/>
-    <mergeCell ref="N34:N35"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:X4"/>
-    <mergeCell ref="B4:C5"/>
-    <mergeCell ref="D4:M4"/>
-    <mergeCell ref="N4:N5"/>
     <mergeCell ref="B44:C45"/>
     <mergeCell ref="D44:M44"/>
     <mergeCell ref="N44:N45"/>
@@ -15418,6 +15879,13 @@
     <mergeCell ref="N24:N25"/>
     <mergeCell ref="B26:B31"/>
     <mergeCell ref="B34:C35"/>
+    <mergeCell ref="D34:M34"/>
+    <mergeCell ref="N34:N35"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:X4"/>
+    <mergeCell ref="B4:C5"/>
+    <mergeCell ref="D4:M4"/>
+    <mergeCell ref="N4:N5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -15498,7 +15966,7 @@
       </c>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B8" s="116">
+      <c r="B8" s="112">
         <v>584</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -15519,7 +15987,7 @@
       <c r="H8" s="1">
         <v>8.0800000000000004E-3</v>
       </c>
-      <c r="L8" s="106">
+      <c r="L8" s="113">
         <v>584</v>
       </c>
       <c r="M8" s="1" t="s">
@@ -15542,7 +16010,7 @@
       </c>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B9" s="116"/>
+      <c r="B9" s="112"/>
       <c r="C9" s="1" t="s">
         <v>68</v>
       </c>
@@ -15561,7 +16029,7 @@
       <c r="H9" s="1">
         <v>4.5935999999999998E-2</v>
       </c>
-      <c r="L9" s="107"/>
+      <c r="L9" s="114"/>
       <c r="M9" s="1" t="s">
         <v>65</v>
       </c>
@@ -15587,7 +16055,7 @@
       </c>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B10" s="117">
+      <c r="B10" s="110">
         <v>980</v>
       </c>
       <c r="C10" s="16" t="s">
@@ -15608,7 +16076,7 @@
       <c r="H10" s="16">
         <v>1.2456E-2</v>
       </c>
-      <c r="L10" s="107"/>
+      <c r="L10" s="114"/>
       <c r="M10" s="1" t="s">
         <v>61</v>
       </c>
@@ -15629,7 +16097,7 @@
       </c>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B11" s="117"/>
+      <c r="B11" s="110"/>
       <c r="C11" s="16" t="s">
         <v>68</v>
       </c>
@@ -15648,7 +16116,7 @@
       <c r="H11" s="16">
         <v>6.3119999999999996E-2</v>
       </c>
-      <c r="L11" s="108"/>
+      <c r="L11" s="115"/>
       <c r="M11" s="1" t="s">
         <v>66</v>
       </c>
@@ -15674,7 +16142,7 @@
       </c>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B12" s="100">
+      <c r="B12" s="107">
         <v>1280</v>
       </c>
       <c r="C12" s="4" t="s">
@@ -15695,7 +16163,7 @@
       <c r="H12" s="4">
         <v>1.5299999999999999E-2</v>
       </c>
-      <c r="L12" s="109">
+      <c r="L12" s="116">
         <v>980</v>
       </c>
       <c r="M12" s="16" t="s">
@@ -15718,7 +16186,7 @@
       </c>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B13" s="100"/>
+      <c r="B13" s="107"/>
       <c r="C13" s="4" t="s">
         <v>68</v>
       </c>
@@ -15737,7 +16205,7 @@
       <c r="H13" s="4">
         <v>6.6844000000000001E-2</v>
       </c>
-      <c r="L13" s="110"/>
+      <c r="L13" s="117"/>
       <c r="M13" s="16" t="s">
         <v>66</v>
       </c>
@@ -15763,7 +16231,7 @@
       </c>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B14" s="115">
+      <c r="B14" s="111">
         <v>1345</v>
       </c>
       <c r="C14" s="7" t="s">
@@ -15784,7 +16252,7 @@
       <c r="H14" s="7">
         <v>1.5807999999999999E-2</v>
       </c>
-      <c r="L14" s="110"/>
+      <c r="L14" s="117"/>
       <c r="M14" s="16" t="s">
         <v>61</v>
       </c>
@@ -15805,7 +16273,7 @@
       </c>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B15" s="115"/>
+      <c r="B15" s="111"/>
       <c r="C15" s="7" t="s">
         <v>68</v>
       </c>
@@ -15824,7 +16292,7 @@
       <c r="H15" s="7">
         <v>6.7227999999999996E-2</v>
       </c>
-      <c r="L15" s="111"/>
+      <c r="L15" s="118"/>
       <c r="M15" s="16" t="s">
         <v>66</v>
       </c>
@@ -15850,7 +16318,7 @@
       </c>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="L16" s="112">
+      <c r="L16" s="119">
         <v>1280</v>
       </c>
       <c r="M16" s="4" t="s">
@@ -15873,7 +16341,7 @@
       </c>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="L17" s="113"/>
+      <c r="L17" s="120"/>
       <c r="M17" s="4" t="s">
         <v>65</v>
       </c>
@@ -15899,7 +16367,7 @@
       </c>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="L18" s="113"/>
+      <c r="L18" s="120"/>
       <c r="M18" s="4" t="s">
         <v>61</v>
       </c>
@@ -15920,7 +16388,7 @@
       </c>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="L19" s="114"/>
+      <c r="L19" s="121"/>
       <c r="M19" s="4" t="s">
         <v>65</v>
       </c>
@@ -15946,7 +16414,7 @@
       </c>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="L20" s="115">
+      <c r="L20" s="111">
         <v>1345</v>
       </c>
       <c r="M20" s="7" t="s">
@@ -15969,7 +16437,7 @@
       </c>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="L21" s="115"/>
+      <c r="L21" s="111"/>
       <c r="M21" s="7" t="s">
         <v>65</v>
       </c>
@@ -15995,7 +16463,7 @@
       </c>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="L22" s="115"/>
+      <c r="L22" s="111"/>
       <c r="M22" s="7" t="s">
         <v>61</v>
       </c>
@@ -16016,7 +16484,7 @@
       </c>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="L23" s="115"/>
+      <c r="L23" s="111"/>
       <c r="M23" s="7" t="s">
         <v>65</v>
       </c>
@@ -16070,7 +16538,7 @@
       </c>
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B31" s="116">
+      <c r="B31" s="112">
         <v>584</v>
       </c>
       <c r="C31" s="1" t="s">
@@ -16093,7 +16561,7 @@
       </c>
     </row>
     <row r="32" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B32" s="116"/>
+      <c r="B32" s="112"/>
       <c r="C32" s="1" t="s">
         <v>68</v>
       </c>
@@ -16114,7 +16582,7 @@
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B33" s="117">
+      <c r="B33" s="110">
         <v>980</v>
       </c>
       <c r="C33" s="16" t="s">
@@ -16137,7 +16605,7 @@
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B34" s="117"/>
+      <c r="B34" s="110"/>
       <c r="C34" s="16" t="s">
         <v>68</v>
       </c>
@@ -16158,7 +16626,7 @@
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B35" s="100">
+      <c r="B35" s="107">
         <v>1280</v>
       </c>
       <c r="C35" s="4" t="s">
@@ -16181,7 +16649,7 @@
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B36" s="100"/>
+      <c r="B36" s="107"/>
       <c r="C36" s="4" t="s">
         <v>68</v>
       </c>
@@ -16202,7 +16670,7 @@
       </c>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B37" s="115">
+      <c r="B37" s="111">
         <v>1345</v>
       </c>
       <c r="C37" s="7" t="s">
@@ -16225,7 +16693,7 @@
       </c>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B38" s="115"/>
+      <c r="B38" s="111"/>
       <c r="C38" s="7" t="s">
         <v>68</v>
       </c>
@@ -16247,6 +16715,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="L8:L11"/>
+    <mergeCell ref="L12:L15"/>
+    <mergeCell ref="L16:L19"/>
+    <mergeCell ref="L20:L23"/>
+    <mergeCell ref="B31:B32"/>
     <mergeCell ref="B33:B34"/>
     <mergeCell ref="B35:B36"/>
     <mergeCell ref="B37:B38"/>
@@ -16254,11 +16727,6 @@
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="B14:B15"/>
-    <mergeCell ref="L8:L11"/>
-    <mergeCell ref="L12:L15"/>
-    <mergeCell ref="L16:L19"/>
-    <mergeCell ref="L20:L23"/>
-    <mergeCell ref="B31:B32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -16284,7 +16752,7 @@
   </cols>
   <sheetData>
     <row r="5" spans="1:18" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="118" t="s">
+      <c r="A5" s="122" t="s">
         <v>73</v>
       </c>
       <c r="B5" s="32" t="s">
@@ -16310,7 +16778,7 @@
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="118"/>
+      <c r="A6" s="122"/>
       <c r="B6" s="33">
         <v>584</v>
       </c>
@@ -16334,7 +16802,7 @@
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="118"/>
+      <c r="A7" s="122"/>
       <c r="B7" s="33">
         <v>980</v>
       </c>
@@ -16358,7 +16826,7 @@
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="118"/>
+      <c r="A8" s="122"/>
       <c r="B8" s="33">
         <v>1280</v>
       </c>
@@ -16382,7 +16850,7 @@
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="118"/>
+      <c r="A9" s="122"/>
       <c r="B9" s="33">
         <v>1435</v>
       </c>
@@ -16406,7 +16874,7 @@
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="118"/>
+      <c r="A10" s="122"/>
       <c r="B10" s="33">
         <v>1640</v>
       </c>
@@ -16430,7 +16898,7 @@
       </c>
     </row>
     <row r="14" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="118" t="s">
+      <c r="A14" s="122" t="s">
         <v>72</v>
       </c>
       <c r="B14" s="32" t="s">
@@ -16456,7 +16924,7 @@
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="118"/>
+      <c r="A15" s="122"/>
       <c r="B15" s="33">
         <v>584</v>
       </c>
@@ -16468,7 +16936,7 @@
       <c r="H15" s="1"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="118"/>
+      <c r="A16" s="122"/>
       <c r="B16" s="33">
         <v>980</v>
       </c>
@@ -16478,11 +16946,11 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="5"/>
-      <c r="K16" s="119" t="s">
+      <c r="K16" s="123" t="s">
         <v>74</v>
       </c>
-      <c r="L16" s="119"/>
-      <c r="M16" s="119"/>
+      <c r="L16" s="123"/>
+      <c r="M16" s="123"/>
       <c r="P16" s="11" t="s">
         <v>80</v>
       </c>
@@ -16494,7 +16962,7 @@
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="118"/>
+      <c r="A17" s="122"/>
       <c r="B17" s="33">
         <v>1280</v>
       </c>
@@ -16524,7 +16992,7 @@
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="118"/>
+      <c r="A18" s="122"/>
       <c r="B18" s="33">
         <v>1435</v>
       </c>
@@ -16554,7 +17022,7 @@
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="118"/>
+      <c r="A19" s="122"/>
       <c r="B19" s="33">
         <v>1640</v>
       </c>

--- a/Data Hasil Uji Coba/Uji Coba.xlsx
+++ b/Data Hasil Uji Coba/Uji Coba.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{3E0EB85D-1D71-4412-AF36-D73001A05DA8}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{2220D8BF-217E-4058-9FCE-F588D456DF5E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Static Buffer" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="849" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="915" uniqueCount="171">
   <si>
     <t>0 x</t>
   </si>
@@ -451,6 +451,114 @@
   <si>
     <t>Old</t>
   </si>
+  <si>
+    <t>584 karakter</t>
+  </si>
+  <si>
+    <t>980 karakter</t>
+  </si>
+  <si>
+    <t>1280 karakter</t>
+  </si>
+  <si>
+    <t>1345 karakter</t>
+  </si>
+  <si>
+    <t>1870 karakter</t>
+  </si>
+  <si>
+    <t>20 baris</t>
+  </si>
+  <si>
+    <t>40 baris</t>
+  </si>
+  <si>
+    <t>60 baris</t>
+  </si>
+  <si>
+    <t>80 baris</t>
+  </si>
+  <si>
+    <t>Membaca Data dari Kartu Memori</t>
+  </si>
+  <si>
+    <t>Kompresi Adaptive</t>
+  </si>
+  <si>
+    <t>Panjang data sebelum kompresi</t>
+  </si>
+  <si>
+    <t>Panjang data setelah kompresi</t>
+  </si>
+  <si>
+    <t>Konfigurasi  yang digunakan</t>
+  </si>
+  <si>
+    <t>590 karakter</t>
+  </si>
+  <si>
+    <t>HS (9,8)</t>
+  </si>
+  <si>
+    <t>430 karakter</t>
+  </si>
+  <si>
+    <t>616 karakter</t>
+  </si>
+  <si>
+    <t>333 karakter</t>
+  </si>
+  <si>
+    <t>1107 karakter</t>
+  </si>
+  <si>
+    <t>271 karakter</t>
+  </si>
+  <si>
+    <t>HS (8,7)</t>
+  </si>
+  <si>
+    <t>982 karakter</t>
+  </si>
+  <si>
+    <t>710 karakter</t>
+  </si>
+  <si>
+    <t>1304 karakter</t>
+  </si>
+  <si>
+    <t>772 karakter</t>
+  </si>
+  <si>
+    <t>1319 karakter</t>
+  </si>
+  <si>
+    <t>1006 karakter</t>
+  </si>
+  <si>
+    <t>253 karakter</t>
+  </si>
+  <si>
+    <t>249 karakter</t>
+  </si>
+  <si>
+    <t>1702 karakter</t>
+  </si>
+  <si>
+    <t>1310 karakter</t>
+  </si>
+  <si>
+    <t>HS (7,6)</t>
+  </si>
+  <si>
+    <t>1391 karakter</t>
+  </si>
+  <si>
+    <t>885 karakter</t>
+  </si>
+  <si>
+    <t>1345 karaker</t>
+  </si>
 </sst>
 </file>
 
@@ -759,7 +867,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="125">
+  <cellXfs count="136">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -923,26 +1031,56 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -980,31 +1118,25 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1025,6 +1157,12 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1034,25 +1172,22 @@
     <xf numFmtId="164" fontId="0" fillId="14" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="14" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="14" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1082,13 +1217,19 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3547,32 +3688,32 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="96" t="s">
+      <c r="A2" s="83" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="96"/>
-      <c r="C2" s="96"/>
-      <c r="D2" s="96"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="96"/>
-      <c r="G2" s="96"/>
-      <c r="H2" s="96"/>
-      <c r="K2" s="96" t="s">
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="83"/>
+      <c r="K2" s="83" t="s">
         <v>37</v>
       </c>
-      <c r="L2" s="96"/>
-      <c r="M2" s="96"/>
-      <c r="N2" s="96"/>
-      <c r="O2" s="96"/>
-      <c r="P2" s="96"/>
-      <c r="Q2" s="96"/>
-      <c r="R2" s="96"/>
+      <c r="L2" s="83"/>
+      <c r="M2" s="83"/>
+      <c r="N2" s="83"/>
+      <c r="O2" s="83"/>
+      <c r="P2" s="83"/>
+      <c r="Q2" s="83"/>
+      <c r="R2" s="83"/>
     </row>
     <row r="3" spans="1:18" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="94" t="s">
+      <c r="A3" s="84" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="95"/>
+      <c r="B3" s="85"/>
       <c r="C3" s="14"/>
       <c r="D3" s="15" t="s">
         <v>1</v>
@@ -3589,10 +3730,10 @@
       <c r="H3" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="94" t="s">
+      <c r="K3" s="84" t="s">
         <v>31</v>
       </c>
-      <c r="L3" s="95"/>
+      <c r="L3" s="85"/>
       <c r="M3" s="14"/>
       <c r="N3" s="15" t="s">
         <v>1</v>
@@ -3611,10 +3752,10 @@
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="76">
+      <c r="A4" s="86">
         <v>584</v>
       </c>
-      <c r="B4" s="77"/>
+      <c r="B4" s="87"/>
       <c r="C4" s="1" t="s">
         <v>30</v>
       </c>
@@ -3633,10 +3774,10 @@
       <c r="H4" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="76">
+      <c r="K4" s="86">
         <v>584</v>
       </c>
-      <c r="L4" s="77"/>
+      <c r="L4" s="87"/>
       <c r="M4" s="1" t="s">
         <v>30</v>
       </c>
@@ -3657,8 +3798,8 @@
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="78"/>
-      <c r="B5" s="79"/>
+      <c r="A5" s="88"/>
+      <c r="B5" s="89"/>
       <c r="C5" s="1" t="s">
         <v>21</v>
       </c>
@@ -3677,8 +3818,8 @@
       <c r="H5" s="1">
         <v>21</v>
       </c>
-      <c r="K5" s="78"/>
-      <c r="L5" s="79"/>
+      <c r="K5" s="88"/>
+      <c r="L5" s="89"/>
       <c r="M5" s="1" t="s">
         <v>21</v>
       </c>
@@ -3699,8 +3840,8 @@
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="78"/>
-      <c r="B6" s="79"/>
+      <c r="A6" s="88"/>
+      <c r="B6" s="89"/>
       <c r="C6" s="1" t="s">
         <v>33</v>
       </c>
@@ -3724,8 +3865,8 @@
         <f>($A$4-H5)/$A$4</f>
         <v>0.96404109589041098</v>
       </c>
-      <c r="K6" s="78"/>
-      <c r="L6" s="79"/>
+      <c r="K6" s="88"/>
+      <c r="L6" s="89"/>
       <c r="M6" s="1" t="s">
         <v>33</v>
       </c>
@@ -3751,8 +3892,8 @@
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="78"/>
-      <c r="B7" s="79"/>
+      <c r="A7" s="88"/>
+      <c r="B7" s="89"/>
       <c r="C7" s="1" t="s">
         <v>22</v>
       </c>
@@ -3771,8 +3912,8 @@
       <c r="H7" s="1">
         <v>427</v>
       </c>
-      <c r="K7" s="78"/>
-      <c r="L7" s="79"/>
+      <c r="K7" s="88"/>
+      <c r="L7" s="89"/>
       <c r="M7" s="1" t="s">
         <v>22</v>
       </c>
@@ -3793,8 +3934,8 @@
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="80"/>
-      <c r="B8" s="81"/>
+      <c r="A8" s="90"/>
+      <c r="B8" s="91"/>
       <c r="C8" s="1" t="s">
         <v>34</v>
       </c>
@@ -3818,8 +3959,8 @@
         <f>($A$4-H7)/$A$4</f>
         <v>0.26883561643835618</v>
       </c>
-      <c r="K8" s="80"/>
-      <c r="L8" s="81"/>
+      <c r="K8" s="90"/>
+      <c r="L8" s="91"/>
       <c r="M8" s="1" t="s">
         <v>34</v>
       </c>
@@ -3845,10 +3986,10 @@
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="82">
+      <c r="A9" s="92">
         <v>980</v>
       </c>
-      <c r="B9" s="83"/>
+      <c r="B9" s="93"/>
       <c r="C9" s="16" t="s">
         <v>30</v>
       </c>
@@ -3867,10 +4008,10 @@
       <c r="H9" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="K9" s="82">
+      <c r="K9" s="92">
         <v>980</v>
       </c>
-      <c r="L9" s="83"/>
+      <c r="L9" s="93"/>
       <c r="M9" s="16" t="s">
         <v>30</v>
       </c>
@@ -3891,8 +4032,8 @@
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="84"/>
-      <c r="B10" s="85"/>
+      <c r="A10" s="94"/>
+      <c r="B10" s="95"/>
       <c r="C10" s="16" t="s">
         <v>21</v>
       </c>
@@ -3911,8 +4052,8 @@
       <c r="H10" s="16">
         <v>33</v>
       </c>
-      <c r="K10" s="84"/>
-      <c r="L10" s="85"/>
+      <c r="K10" s="94"/>
+      <c r="L10" s="95"/>
       <c r="M10" s="16" t="s">
         <v>21</v>
       </c>
@@ -3933,8 +4074,8 @@
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="84"/>
-      <c r="B11" s="85"/>
+      <c r="A11" s="94"/>
+      <c r="B11" s="95"/>
       <c r="C11" s="16" t="s">
         <v>35</v>
       </c>
@@ -3958,8 +4099,8 @@
         <f>($A$9-H10)/$A$9</f>
         <v>0.96632653061224494</v>
       </c>
-      <c r="K11" s="84"/>
-      <c r="L11" s="85"/>
+      <c r="K11" s="94"/>
+      <c r="L11" s="95"/>
       <c r="M11" s="16" t="s">
         <v>35</v>
       </c>
@@ -3985,8 +4126,8 @@
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="84"/>
-      <c r="B12" s="85"/>
+      <c r="A12" s="94"/>
+      <c r="B12" s="95"/>
       <c r="C12" s="16" t="s">
         <v>22</v>
       </c>
@@ -4005,8 +4146,8 @@
       <c r="H12" s="16">
         <v>564</v>
       </c>
-      <c r="K12" s="84"/>
-      <c r="L12" s="85"/>
+      <c r="K12" s="94"/>
+      <c r="L12" s="95"/>
       <c r="M12" s="16" t="s">
         <v>22</v>
       </c>
@@ -4027,8 +4168,8 @@
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="86"/>
-      <c r="B13" s="87"/>
+      <c r="A13" s="96"/>
+      <c r="B13" s="97"/>
       <c r="C13" s="16" t="s">
         <v>34</v>
       </c>
@@ -4052,8 +4193,8 @@
         <f>($A$9-H12)/$A$9</f>
         <v>0.42448979591836733</v>
       </c>
-      <c r="K13" s="86"/>
-      <c r="L13" s="87"/>
+      <c r="K13" s="96"/>
+      <c r="L13" s="97"/>
       <c r="M13" s="16" t="s">
         <v>34</v>
       </c>
@@ -4079,10 +4220,10 @@
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="88">
+      <c r="A14" s="77">
         <v>1280</v>
       </c>
-      <c r="B14" s="89"/>
+      <c r="B14" s="78"/>
       <c r="C14" s="13" t="s">
         <v>30</v>
       </c>
@@ -4101,10 +4242,10 @@
       <c r="H14" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="88">
+      <c r="K14" s="77">
         <v>1280</v>
       </c>
-      <c r="L14" s="89"/>
+      <c r="L14" s="78"/>
       <c r="M14" s="13" t="s">
         <v>30</v>
       </c>
@@ -4125,8 +4266,8 @@
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="90"/>
-      <c r="B15" s="91"/>
+      <c r="A15" s="79"/>
+      <c r="B15" s="80"/>
       <c r="C15" s="4" t="s">
         <v>21</v>
       </c>
@@ -4143,8 +4284,8 @@
         <v>68</v>
       </c>
       <c r="H15" s="5"/>
-      <c r="K15" s="90"/>
-      <c r="L15" s="91"/>
+      <c r="K15" s="79"/>
+      <c r="L15" s="80"/>
       <c r="M15" s="4" t="s">
         <v>21</v>
       </c>
@@ -4165,8 +4306,8 @@
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="90"/>
-      <c r="B16" s="91"/>
+      <c r="A16" s="79"/>
+      <c r="B16" s="80"/>
       <c r="C16" s="4" t="s">
         <v>35</v>
       </c>
@@ -4190,8 +4331,8 @@
         <f>($A$14-H15)/$A$14</f>
         <v>1</v>
       </c>
-      <c r="K16" s="90"/>
-      <c r="L16" s="91"/>
+      <c r="K16" s="79"/>
+      <c r="L16" s="80"/>
       <c r="M16" s="4" t="s">
         <v>35</v>
       </c>
@@ -4217,8 +4358,8 @@
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="90"/>
-      <c r="B17" s="91"/>
+      <c r="A17" s="79"/>
+      <c r="B17" s="80"/>
       <c r="C17" s="4" t="s">
         <v>22</v>
       </c>
@@ -4235,8 +4376,8 @@
         <v>1120</v>
       </c>
       <c r="H17" s="5"/>
-      <c r="K17" s="90"/>
-      <c r="L17" s="91"/>
+      <c r="K17" s="79"/>
+      <c r="L17" s="80"/>
       <c r="M17" s="4" t="s">
         <v>22</v>
       </c>
@@ -4257,8 +4398,8 @@
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="92"/>
-      <c r="B18" s="93"/>
+      <c r="A18" s="81"/>
+      <c r="B18" s="82"/>
       <c r="C18" s="4" t="s">
         <v>34</v>
       </c>
@@ -4282,8 +4423,8 @@
         <f>($A$14-H17)/$A$14</f>
         <v>1</v>
       </c>
-      <c r="K18" s="92"/>
-      <c r="L18" s="93"/>
+      <c r="K18" s="81"/>
+      <c r="L18" s="82"/>
       <c r="M18" s="4" t="s">
         <v>34</v>
       </c>
@@ -4309,10 +4450,10 @@
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="69">
+      <c r="A19" s="98">
         <v>1345</v>
       </c>
-      <c r="B19" s="70"/>
+      <c r="B19" s="99"/>
       <c r="C19" s="7" t="s">
         <v>30</v>
       </c>
@@ -4331,10 +4472,10 @@
       <c r="H19" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="K19" s="69">
+      <c r="K19" s="98">
         <v>1345</v>
       </c>
-      <c r="L19" s="70"/>
+      <c r="L19" s="99"/>
       <c r="M19" s="7" t="s">
         <v>30</v>
       </c>
@@ -4355,8 +4496,8 @@
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="71"/>
-      <c r="B20" s="72"/>
+      <c r="A20" s="100"/>
+      <c r="B20" s="101"/>
       <c r="C20" s="7" t="s">
         <v>21</v>
       </c>
@@ -4373,8 +4514,8 @@
         <v>129</v>
       </c>
       <c r="H20" s="5"/>
-      <c r="K20" s="71"/>
-      <c r="L20" s="72"/>
+      <c r="K20" s="100"/>
+      <c r="L20" s="101"/>
       <c r="M20" s="7" t="s">
         <v>21</v>
       </c>
@@ -4395,8 +4536,8 @@
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21" s="71"/>
-      <c r="B21" s="72"/>
+      <c r="A21" s="100"/>
+      <c r="B21" s="101"/>
       <c r="C21" s="7" t="s">
         <v>35</v>
       </c>
@@ -4417,8 +4558,8 @@
         <v>0.90408921933085507</v>
       </c>
       <c r="H21" s="5"/>
-      <c r="K21" s="71"/>
-      <c r="L21" s="72"/>
+      <c r="K21" s="100"/>
+      <c r="L21" s="101"/>
       <c r="M21" s="7" t="s">
         <v>35</v>
       </c>
@@ -4444,8 +4585,8 @@
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A22" s="71"/>
-      <c r="B22" s="72"/>
+      <c r="A22" s="100"/>
+      <c r="B22" s="101"/>
       <c r="C22" s="7" t="s">
         <v>22</v>
       </c>
@@ -4462,8 +4603,8 @@
         <v>1182</v>
       </c>
       <c r="H22" s="5"/>
-      <c r="K22" s="71"/>
-      <c r="L22" s="72"/>
+      <c r="K22" s="100"/>
+      <c r="L22" s="101"/>
       <c r="M22" s="7" t="s">
         <v>22</v>
       </c>
@@ -4482,8 +4623,8 @@
       <c r="R22" s="5"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A23" s="73"/>
-      <c r="B23" s="74"/>
+      <c r="A23" s="102"/>
+      <c r="B23" s="103"/>
       <c r="C23" s="7" t="s">
         <v>34</v>
       </c>
@@ -4504,8 +4645,8 @@
         <v>0.12118959107806691</v>
       </c>
       <c r="H23" s="5"/>
-      <c r="K23" s="73"/>
-      <c r="L23" s="74"/>
+      <c r="K23" s="102"/>
+      <c r="L23" s="103"/>
       <c r="M23" s="7" t="s">
         <v>34</v>
       </c>
@@ -4528,10 +4669,10 @@
       <c r="R23" s="5"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="K24" s="75">
+      <c r="K24" s="104">
         <v>1640</v>
       </c>
-      <c r="L24" s="75"/>
+      <c r="L24" s="104"/>
       <c r="M24" s="24" t="s">
         <v>30</v>
       </c>
@@ -4552,10 +4693,10 @@
       </c>
     </row>
     <row r="28" spans="1:18" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="94" t="s">
+      <c r="A28" s="84" t="s">
         <v>31</v>
       </c>
-      <c r="B28" s="95"/>
+      <c r="B28" s="85"/>
       <c r="C28" s="14"/>
       <c r="D28" s="15" t="s">
         <v>1</v>
@@ -4572,10 +4713,10 @@
       <c r="H28" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="K28" s="94" t="s">
+      <c r="K28" s="84" t="s">
         <v>31</v>
       </c>
-      <c r="L28" s="95"/>
+      <c r="L28" s="85"/>
       <c r="M28" s="14"/>
       <c r="N28" s="15" t="s">
         <v>1</v>
@@ -4594,10 +4735,10 @@
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A29" s="76">
+      <c r="A29" s="86">
         <v>584</v>
       </c>
-      <c r="B29" s="77"/>
+      <c r="B29" s="87"/>
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -4617,10 +4758,10 @@
         <v>8.1119999999999994E-3</v>
       </c>
       <c r="J29" s="24"/>
-      <c r="K29" s="76">
+      <c r="K29" s="86">
         <v>584</v>
       </c>
-      <c r="L29" s="77"/>
+      <c r="L29" s="87"/>
       <c r="M29" s="1" t="s">
         <v>23</v>
       </c>
@@ -4641,8 +4782,8 @@
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A30" s="78"/>
-      <c r="B30" s="79"/>
+      <c r="A30" s="88"/>
+      <c r="B30" s="89"/>
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -4661,8 +4802,8 @@
       <c r="H30" s="1">
         <v>3.248E-3</v>
       </c>
-      <c r="K30" s="78"/>
-      <c r="L30" s="79"/>
+      <c r="K30" s="88"/>
+      <c r="L30" s="89"/>
       <c r="M30" s="1" t="s">
         <v>24</v>
       </c>
@@ -4683,8 +4824,8 @@
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A31" s="78"/>
-      <c r="B31" s="79"/>
+      <c r="A31" s="88"/>
+      <c r="B31" s="89"/>
       <c r="C31" s="19" t="s">
         <v>32</v>
       </c>
@@ -4708,8 +4849,8 @@
         <f t="shared" si="0"/>
         <v>1.1359999999999999E-2</v>
       </c>
-      <c r="K31" s="78"/>
-      <c r="L31" s="79"/>
+      <c r="K31" s="88"/>
+      <c r="L31" s="89"/>
       <c r="M31" s="19" t="s">
         <v>32</v>
       </c>
@@ -4735,8 +4876,8 @@
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A32" s="78"/>
-      <c r="B32" s="79"/>
+      <c r="A32" s="88"/>
+      <c r="B32" s="89"/>
       <c r="C32" s="1" t="s">
         <v>25</v>
       </c>
@@ -4756,8 +4897,8 @@
         <v>4.0691999999999999E-2</v>
       </c>
       <c r="J32" s="24"/>
-      <c r="K32" s="78"/>
-      <c r="L32" s="79"/>
+      <c r="K32" s="88"/>
+      <c r="L32" s="89"/>
       <c r="M32" s="1" t="s">
         <v>25</v>
       </c>
@@ -4778,8 +4919,8 @@
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A33" s="78"/>
-      <c r="B33" s="79"/>
+      <c r="A33" s="88"/>
+      <c r="B33" s="89"/>
       <c r="C33" s="1" t="s">
         <v>26</v>
       </c>
@@ -4798,8 +4939,8 @@
       <c r="H33" s="1">
         <v>1.7328E-2</v>
       </c>
-      <c r="K33" s="78"/>
-      <c r="L33" s="79"/>
+      <c r="K33" s="88"/>
+      <c r="L33" s="89"/>
       <c r="M33" s="1" t="s">
         <v>26</v>
       </c>
@@ -4820,8 +4961,8 @@
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A34" s="80"/>
-      <c r="B34" s="81"/>
+      <c r="A34" s="90"/>
+      <c r="B34" s="91"/>
       <c r="C34" s="19" t="s">
         <v>32</v>
       </c>
@@ -4845,8 +4986,8 @@
         <f t="shared" si="2"/>
         <v>5.8020000000000002E-2</v>
       </c>
-      <c r="K34" s="80"/>
-      <c r="L34" s="81"/>
+      <c r="K34" s="90"/>
+      <c r="L34" s="91"/>
       <c r="M34" s="19" t="s">
         <v>32</v>
       </c>
@@ -4872,10 +5013,10 @@
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A35" s="82">
+      <c r="A35" s="92">
         <v>980</v>
       </c>
-      <c r="B35" s="83"/>
+      <c r="B35" s="93"/>
       <c r="C35" s="16" t="s">
         <v>23</v>
       </c>
@@ -4895,10 +5036,10 @@
         <v>1.2716E-2</v>
       </c>
       <c r="J35" s="24"/>
-      <c r="K35" s="82">
+      <c r="K35" s="92">
         <v>980</v>
       </c>
-      <c r="L35" s="83"/>
+      <c r="L35" s="93"/>
       <c r="M35" s="16" t="s">
         <v>23</v>
       </c>
@@ -4919,8 +5060,8 @@
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A36" s="84"/>
-      <c r="B36" s="85"/>
+      <c r="A36" s="94"/>
+      <c r="B36" s="95"/>
       <c r="C36" s="16" t="s">
         <v>24</v>
       </c>
@@ -4939,8 +5080,8 @@
       <c r="H36" s="16">
         <v>5.1999999999999998E-3</v>
       </c>
-      <c r="K36" s="84"/>
-      <c r="L36" s="85"/>
+      <c r="K36" s="94"/>
+      <c r="L36" s="95"/>
       <c r="M36" s="16" t="s">
         <v>24</v>
       </c>
@@ -4961,8 +5102,8 @@
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A37" s="84"/>
-      <c r="B37" s="85"/>
+      <c r="A37" s="94"/>
+      <c r="B37" s="95"/>
       <c r="C37" s="19" t="s">
         <v>32</v>
       </c>
@@ -4986,8 +5127,8 @@
         <f t="shared" si="4"/>
         <v>1.7916000000000001E-2</v>
       </c>
-      <c r="K37" s="84"/>
-      <c r="L37" s="85"/>
+      <c r="K37" s="94"/>
+      <c r="L37" s="95"/>
       <c r="M37" s="19" t="s">
         <v>32</v>
       </c>
@@ -5013,8 +5154,8 @@
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A38" s="84"/>
-      <c r="B38" s="85"/>
+      <c r="A38" s="94"/>
+      <c r="B38" s="95"/>
       <c r="C38" s="16" t="s">
         <v>25</v>
       </c>
@@ -5034,8 +5175,8 @@
         <v>5.5975999999999998E-2</v>
       </c>
       <c r="J38" s="24"/>
-      <c r="K38" s="84"/>
-      <c r="L38" s="85"/>
+      <c r="K38" s="94"/>
+      <c r="L38" s="95"/>
       <c r="M38" s="16" t="s">
         <v>25</v>
       </c>
@@ -5056,8 +5197,8 @@
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A39" s="84"/>
-      <c r="B39" s="85"/>
+      <c r="A39" s="94"/>
+      <c r="B39" s="95"/>
       <c r="C39" s="16" t="s">
         <v>26</v>
       </c>
@@ -5076,8 +5217,8 @@
       <c r="H39" s="16">
         <v>2.3768000000000001E-2</v>
       </c>
-      <c r="K39" s="84"/>
-      <c r="L39" s="85"/>
+      <c r="K39" s="94"/>
+      <c r="L39" s="95"/>
       <c r="M39" s="16" t="s">
         <v>26</v>
       </c>
@@ -5098,8 +5239,8 @@
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A40" s="86"/>
-      <c r="B40" s="87"/>
+      <c r="A40" s="96"/>
+      <c r="B40" s="97"/>
       <c r="C40" s="19" t="s">
         <v>32</v>
       </c>
@@ -5123,8 +5264,8 @@
         <f t="shared" si="6"/>
         <v>7.9743999999999995E-2</v>
       </c>
-      <c r="K40" s="86"/>
-      <c r="L40" s="87"/>
+      <c r="K40" s="96"/>
+      <c r="L40" s="97"/>
       <c r="M40" s="19" t="s">
         <v>32</v>
       </c>
@@ -5150,10 +5291,10 @@
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A41" s="88">
+      <c r="A41" s="77">
         <v>1280</v>
       </c>
-      <c r="B41" s="89"/>
+      <c r="B41" s="78"/>
       <c r="C41" s="4" t="s">
         <v>23</v>
       </c>
@@ -5171,10 +5312,10 @@
       </c>
       <c r="H41" s="5"/>
       <c r="J41" s="24"/>
-      <c r="K41" s="88">
+      <c r="K41" s="77">
         <v>1280</v>
       </c>
-      <c r="L41" s="89"/>
+      <c r="L41" s="78"/>
       <c r="M41" s="4" t="s">
         <v>23</v>
       </c>
@@ -5195,8 +5336,8 @@
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A42" s="90"/>
-      <c r="B42" s="91"/>
+      <c r="A42" s="79"/>
+      <c r="B42" s="80"/>
       <c r="C42" s="4" t="s">
         <v>24</v>
       </c>
@@ -5213,8 +5354,8 @@
         <v>9.476E-3</v>
       </c>
       <c r="H42" s="5"/>
-      <c r="K42" s="90"/>
-      <c r="L42" s="91"/>
+      <c r="K42" s="79"/>
+      <c r="L42" s="80"/>
       <c r="M42" s="4" t="s">
         <v>24</v>
       </c>
@@ -5235,8 +5376,8 @@
       </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A43" s="90"/>
-      <c r="B43" s="91"/>
+      <c r="A43" s="79"/>
+      <c r="B43" s="80"/>
       <c r="C43" s="19" t="s">
         <v>32</v>
       </c>
@@ -5257,8 +5398,8 @@
         <v>2.7875999999999998E-2</v>
       </c>
       <c r="H43" s="5"/>
-      <c r="K43" s="90"/>
-      <c r="L43" s="91"/>
+      <c r="K43" s="79"/>
+      <c r="L43" s="80"/>
       <c r="M43" s="19" t="s">
         <v>32</v>
       </c>
@@ -5284,8 +5425,8 @@
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A44" s="90"/>
-      <c r="B44" s="91"/>
+      <c r="A44" s="79"/>
+      <c r="B44" s="80"/>
       <c r="C44" s="4" t="s">
         <v>25</v>
       </c>
@@ -5303,8 +5444,8 @@
       </c>
       <c r="H44" s="5"/>
       <c r="J44" s="24"/>
-      <c r="K44" s="90"/>
-      <c r="L44" s="91"/>
+      <c r="K44" s="79"/>
+      <c r="L44" s="80"/>
       <c r="M44" s="4" t="s">
         <v>25</v>
       </c>
@@ -5325,8 +5466,8 @@
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A45" s="90"/>
-      <c r="B45" s="91"/>
+      <c r="A45" s="79"/>
+      <c r="B45" s="80"/>
       <c r="C45" s="4" t="s">
         <v>26</v>
       </c>
@@ -5343,8 +5484,8 @@
         <v>4.3580000000000001E-2</v>
       </c>
       <c r="H45" s="5"/>
-      <c r="K45" s="90"/>
-      <c r="L45" s="91"/>
+      <c r="K45" s="79"/>
+      <c r="L45" s="80"/>
       <c r="M45" s="4" t="s">
         <v>26</v>
       </c>
@@ -5365,8 +5506,8 @@
       </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A46" s="92"/>
-      <c r="B46" s="93"/>
+      <c r="A46" s="81"/>
+      <c r="B46" s="82"/>
       <c r="C46" s="19" t="s">
         <v>32</v>
       </c>
@@ -5387,8 +5528,8 @@
         <v>0.146428</v>
       </c>
       <c r="H46" s="5"/>
-      <c r="K46" s="92"/>
-      <c r="L46" s="93"/>
+      <c r="K46" s="81"/>
+      <c r="L46" s="82"/>
       <c r="M46" s="19" t="s">
         <v>32</v>
       </c>
@@ -5414,10 +5555,10 @@
       </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A47" s="69">
+      <c r="A47" s="98">
         <v>1345</v>
       </c>
-      <c r="B47" s="70"/>
+      <c r="B47" s="99"/>
       <c r="C47" s="7" t="s">
         <v>23</v>
       </c>
@@ -5435,10 +5576,10 @@
       </c>
       <c r="H47" s="5"/>
       <c r="J47" s="24"/>
-      <c r="K47" s="69">
+      <c r="K47" s="98">
         <v>1345</v>
       </c>
-      <c r="L47" s="70"/>
+      <c r="L47" s="99"/>
       <c r="M47" s="7" t="s">
         <v>23</v>
       </c>
@@ -5459,8 +5600,8 @@
       </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A48" s="71"/>
-      <c r="B48" s="72"/>
+      <c r="A48" s="100"/>
+      <c r="B48" s="101"/>
       <c r="C48" s="7" t="s">
         <v>24</v>
       </c>
@@ -5477,8 +5618,8 @@
         <v>9.9319999999999999E-3</v>
       </c>
       <c r="H48" s="5"/>
-      <c r="K48" s="71"/>
-      <c r="L48" s="72"/>
+      <c r="K48" s="100"/>
+      <c r="L48" s="101"/>
       <c r="M48" s="7" t="s">
         <v>24</v>
       </c>
@@ -5497,8 +5638,8 @@
       <c r="R48" s="5"/>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A49" s="71"/>
-      <c r="B49" s="72"/>
+      <c r="A49" s="100"/>
+      <c r="B49" s="101"/>
       <c r="C49" s="19" t="s">
         <v>32</v>
       </c>
@@ -5519,8 +5660,8 @@
         <v>2.8931999999999999E-2</v>
       </c>
       <c r="H49" s="5"/>
-      <c r="K49" s="71"/>
-      <c r="L49" s="72"/>
+      <c r="K49" s="100"/>
+      <c r="L49" s="101"/>
       <c r="M49" s="19" t="s">
         <v>32</v>
       </c>
@@ -5543,8 +5684,8 @@
       <c r="R49" s="5"/>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A50" s="71"/>
-      <c r="B50" s="72"/>
+      <c r="A50" s="100"/>
+      <c r="B50" s="101"/>
       <c r="C50" s="7" t="s">
         <v>25</v>
       </c>
@@ -5562,8 +5703,8 @@
       </c>
       <c r="H50" s="5"/>
       <c r="J50" s="24"/>
-      <c r="K50" s="71"/>
-      <c r="L50" s="72"/>
+      <c r="K50" s="100"/>
+      <c r="L50" s="101"/>
       <c r="M50" s="7" t="s">
         <v>25</v>
       </c>
@@ -5582,8 +5723,8 @@
       <c r="R50" s="5"/>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A51" s="71"/>
-      <c r="B51" s="72"/>
+      <c r="A51" s="100"/>
+      <c r="B51" s="101"/>
       <c r="C51" s="7" t="s">
         <v>26</v>
       </c>
@@ -5600,8 +5741,8 @@
         <v>4.5887999999999998E-2</v>
       </c>
       <c r="H51" s="5"/>
-      <c r="K51" s="71"/>
-      <c r="L51" s="72"/>
+      <c r="K51" s="100"/>
+      <c r="L51" s="101"/>
       <c r="M51" s="7" t="s">
         <v>26</v>
       </c>
@@ -5620,8 +5761,8 @@
       <c r="R51" s="5"/>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A52" s="73"/>
-      <c r="B52" s="74"/>
+      <c r="A52" s="102"/>
+      <c r="B52" s="103"/>
       <c r="C52" s="19" t="s">
         <v>32</v>
       </c>
@@ -5642,8 +5783,8 @@
         <v>0.15465999999999999</v>
       </c>
       <c r="H52" s="5"/>
-      <c r="K52" s="73"/>
-      <c r="L52" s="74"/>
+      <c r="K52" s="102"/>
+      <c r="L52" s="103"/>
       <c r="M52" s="19" t="s">
         <v>32</v>
       </c>
@@ -5667,13 +5808,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="K41:L46"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="K2:R2"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="K4:L8"/>
-    <mergeCell ref="K9:L13"/>
-    <mergeCell ref="A3:B3"/>
     <mergeCell ref="K47:L52"/>
     <mergeCell ref="K24:L24"/>
     <mergeCell ref="A47:B52"/>
@@ -5690,6 +5824,13 @@
     <mergeCell ref="K28:L28"/>
     <mergeCell ref="K29:L34"/>
     <mergeCell ref="K35:L40"/>
+    <mergeCell ref="K41:L46"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="K2:R2"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="K4:L8"/>
+    <mergeCell ref="K9:L13"/>
+    <mergeCell ref="A3:B3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5727,32 +5868,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="83" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
-      <c r="J1" s="96"/>
-      <c r="K1" s="96"/>
-      <c r="L1" s="96"/>
-      <c r="M1" s="96"/>
-      <c r="N1" s="96"/>
-      <c r="O1" s="96"/>
-      <c r="P1" s="96"/>
-      <c r="Q1" s="96"/>
-      <c r="R1" s="96"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
+      <c r="L1" s="83"/>
+      <c r="M1" s="83"/>
+      <c r="N1" s="83"/>
+      <c r="O1" s="83"/>
+      <c r="P1" s="83"/>
+      <c r="Q1" s="83"/>
+      <c r="R1" s="83"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="94" t="s">
+      <c r="A2" s="84" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="95"/>
+      <c r="B2" s="85"/>
       <c r="C2" s="14"/>
       <c r="D2" s="15" t="s">
         <v>1</v>
@@ -5804,10 +5945,10 @@
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="76">
+      <c r="A3" s="86">
         <v>584</v>
       </c>
-      <c r="B3" s="77"/>
+      <c r="B3" s="87"/>
       <c r="C3" s="1" t="s">
         <v>30</v>
       </c>
@@ -5861,8 +6002,8 @@
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="78"/>
-      <c r="B4" s="79"/>
+      <c r="A4" s="88"/>
+      <c r="B4" s="89"/>
       <c r="C4" s="1" t="s">
         <v>21</v>
       </c>
@@ -5916,8 +6057,8 @@
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="78"/>
-      <c r="B5" s="79"/>
+      <c r="A5" s="88"/>
+      <c r="B5" s="89"/>
       <c r="C5" s="1" t="s">
         <v>33</v>
       </c>
@@ -5987,8 +6128,8 @@
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="78"/>
-      <c r="B6" s="79"/>
+      <c r="A6" s="88"/>
+      <c r="B6" s="89"/>
       <c r="C6" s="1" t="s">
         <v>22</v>
       </c>
@@ -6042,8 +6183,8 @@
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="80"/>
-      <c r="B7" s="81"/>
+      <c r="A7" s="90"/>
+      <c r="B7" s="91"/>
       <c r="C7" s="1" t="s">
         <v>34</v>
       </c>
@@ -6113,10 +6254,10 @@
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="82">
+      <c r="A8" s="92">
         <v>980</v>
       </c>
-      <c r="B8" s="83"/>
+      <c r="B8" s="93"/>
       <c r="C8" s="16" t="s">
         <v>30</v>
       </c>
@@ -6167,8 +6308,8 @@
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="84"/>
-      <c r="B9" s="85"/>
+      <c r="A9" s="94"/>
+      <c r="B9" s="95"/>
       <c r="C9" s="16" t="s">
         <v>21</v>
       </c>
@@ -6222,8 +6363,8 @@
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="84"/>
-      <c r="B10" s="85"/>
+      <c r="A10" s="94"/>
+      <c r="B10" s="95"/>
       <c r="C10" s="16" t="s">
         <v>35</v>
       </c>
@@ -6289,8 +6430,8 @@
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="84"/>
-      <c r="B11" s="85"/>
+      <c r="A11" s="94"/>
+      <c r="B11" s="95"/>
       <c r="C11" s="16" t="s">
         <v>22</v>
       </c>
@@ -6344,8 +6485,8 @@
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="86"/>
-      <c r="B12" s="87"/>
+      <c r="A12" s="96"/>
+      <c r="B12" s="97"/>
       <c r="C12" s="16" t="s">
         <v>34</v>
       </c>
@@ -6411,10 +6552,10 @@
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="88">
+      <c r="A13" s="77">
         <v>1280</v>
       </c>
-      <c r="B13" s="89"/>
+      <c r="B13" s="78"/>
       <c r="C13" s="13" t="s">
         <v>30</v>
       </c>
@@ -6465,8 +6606,8 @@
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="90"/>
-      <c r="B14" s="91"/>
+      <c r="A14" s="79"/>
+      <c r="B14" s="80"/>
       <c r="C14" s="4" t="s">
         <v>21</v>
       </c>
@@ -6520,8 +6661,8 @@
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="90"/>
-      <c r="B15" s="91"/>
+      <c r="A15" s="79"/>
+      <c r="B15" s="80"/>
       <c r="C15" s="4" t="s">
         <v>35</v>
       </c>
@@ -6587,8 +6728,8 @@
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="90"/>
-      <c r="B16" s="91"/>
+      <c r="A16" s="79"/>
+      <c r="B16" s="80"/>
       <c r="C16" s="4" t="s">
         <v>22</v>
       </c>
@@ -6642,8 +6783,8 @@
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A17" s="92"/>
-      <c r="B17" s="93"/>
+      <c r="A17" s="81"/>
+      <c r="B17" s="82"/>
       <c r="C17" s="4" t="s">
         <v>34</v>
       </c>
@@ -6709,10 +6850,10 @@
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A18" s="69">
+      <c r="A18" s="98">
         <v>1345</v>
       </c>
-      <c r="B18" s="70"/>
+      <c r="B18" s="99"/>
       <c r="C18" s="7" t="s">
         <v>30</v>
       </c>
@@ -6766,8 +6907,8 @@
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A19" s="71"/>
-      <c r="B19" s="72"/>
+      <c r="A19" s="100"/>
+      <c r="B19" s="101"/>
       <c r="C19" s="7" t="s">
         <v>21</v>
       </c>
@@ -6824,8 +6965,8 @@
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A20" s="71"/>
-      <c r="B20" s="72"/>
+      <c r="A20" s="100"/>
+      <c r="B20" s="101"/>
       <c r="C20" s="7" t="s">
         <v>35</v>
       </c>
@@ -6891,8 +7032,8 @@
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A21" s="71"/>
-      <c r="B21" s="72"/>
+      <c r="A21" s="100"/>
+      <c r="B21" s="101"/>
       <c r="C21" s="7" t="s">
         <v>22</v>
       </c>
@@ -6946,8 +7087,8 @@
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A22" s="73"/>
-      <c r="B22" s="74"/>
+      <c r="A22" s="102"/>
+      <c r="B22" s="103"/>
       <c r="C22" s="7" t="s">
         <v>34</v>
       </c>
@@ -7013,10 +7154,10 @@
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A23" s="97">
+      <c r="A23" s="105">
         <v>1640</v>
       </c>
-      <c r="B23" s="98"/>
+      <c r="B23" s="106"/>
       <c r="C23" s="39" t="s">
         <v>30</v>
       </c>
@@ -7047,8 +7188,8 @@
       <c r="R23" s="40"/>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A24" s="99"/>
-      <c r="B24" s="100"/>
+      <c r="A24" s="107"/>
+      <c r="B24" s="108"/>
       <c r="C24" s="39" t="s">
         <v>21</v>
       </c>
@@ -7080,8 +7221,8 @@
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A25" s="99"/>
-      <c r="B25" s="100"/>
+      <c r="A25" s="107"/>
+      <c r="B25" s="108"/>
       <c r="C25" s="39" t="s">
         <v>35</v>
       </c>
@@ -7144,8 +7285,8 @@
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A26" s="99"/>
-      <c r="B26" s="100"/>
+      <c r="A26" s="107"/>
+      <c r="B26" s="108"/>
       <c r="C26" s="39" t="s">
         <v>22</v>
       </c>
@@ -7177,8 +7318,8 @@
       </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A27" s="101"/>
-      <c r="B27" s="102"/>
+      <c r="A27" s="109"/>
+      <c r="B27" s="110"/>
       <c r="C27" s="39" t="s">
         <v>34</v>
       </c>
@@ -7252,10 +7393,10 @@
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A33" s="94" t="s">
+      <c r="A33" s="84" t="s">
         <v>31</v>
       </c>
-      <c r="B33" s="95"/>
+      <c r="B33" s="85"/>
       <c r="C33" s="14"/>
       <c r="D33" s="15" t="s">
         <v>1</v>
@@ -7304,10 +7445,10 @@
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A34" s="76">
+      <c r="A34" s="86">
         <v>584</v>
       </c>
-      <c r="B34" s="77"/>
+      <c r="B34" s="87"/>
       <c r="C34" s="1" t="s">
         <v>23</v>
       </c>
@@ -7358,8 +7499,8 @@
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A35" s="78"/>
-      <c r="B35" s="79"/>
+      <c r="A35" s="88"/>
+      <c r="B35" s="89"/>
       <c r="C35" s="1" t="s">
         <v>24</v>
       </c>
@@ -7410,8 +7551,8 @@
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A36" s="78"/>
-      <c r="B36" s="79"/>
+      <c r="A36" s="88"/>
+      <c r="B36" s="89"/>
       <c r="C36" s="19" t="s">
         <v>32</v>
       </c>
@@ -7477,8 +7618,8 @@
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A37" s="78"/>
-      <c r="B37" s="79"/>
+      <c r="A37" s="88"/>
+      <c r="B37" s="89"/>
       <c r="C37" s="1" t="s">
         <v>25</v>
       </c>
@@ -7529,8 +7670,8 @@
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A38" s="78"/>
-      <c r="B38" s="79"/>
+      <c r="A38" s="88"/>
+      <c r="B38" s="89"/>
       <c r="C38" s="1" t="s">
         <v>26</v>
       </c>
@@ -7581,8 +7722,8 @@
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A39" s="80"/>
-      <c r="B39" s="81"/>
+      <c r="A39" s="90"/>
+      <c r="B39" s="91"/>
       <c r="C39" s="19" t="s">
         <v>32</v>
       </c>
@@ -7648,10 +7789,10 @@
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A40" s="82">
+      <c r="A40" s="92">
         <v>980</v>
       </c>
-      <c r="B40" s="83"/>
+      <c r="B40" s="93"/>
       <c r="C40" s="16" t="s">
         <v>23</v>
       </c>
@@ -7702,8 +7843,8 @@
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A41" s="84"/>
-      <c r="B41" s="85"/>
+      <c r="A41" s="94"/>
+      <c r="B41" s="95"/>
       <c r="C41" s="16" t="s">
         <v>24</v>
       </c>
@@ -7754,8 +7895,8 @@
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A42" s="84"/>
-      <c r="B42" s="85"/>
+      <c r="A42" s="94"/>
+      <c r="B42" s="95"/>
       <c r="C42" s="19" t="s">
         <v>32</v>
       </c>
@@ -7821,8 +7962,8 @@
       </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A43" s="84"/>
-      <c r="B43" s="85"/>
+      <c r="A43" s="94"/>
+      <c r="B43" s="95"/>
       <c r="C43" s="16" t="s">
         <v>25</v>
       </c>
@@ -7873,8 +8014,8 @@
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A44" s="84"/>
-      <c r="B44" s="85"/>
+      <c r="A44" s="94"/>
+      <c r="B44" s="95"/>
       <c r="C44" s="16" t="s">
         <v>26</v>
       </c>
@@ -7925,8 +8066,8 @@
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A45" s="86"/>
-      <c r="B45" s="87"/>
+      <c r="A45" s="96"/>
+      <c r="B45" s="97"/>
       <c r="C45" s="19" t="s">
         <v>32</v>
       </c>
@@ -7992,10 +8133,10 @@
       </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A46" s="88">
+      <c r="A46" s="77">
         <v>1280</v>
       </c>
-      <c r="B46" s="89"/>
+      <c r="B46" s="78"/>
       <c r="C46" s="4" t="s">
         <v>23</v>
       </c>
@@ -8046,8 +8187,8 @@
       </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A47" s="90"/>
-      <c r="B47" s="91"/>
+      <c r="A47" s="79"/>
+      <c r="B47" s="80"/>
       <c r="C47" s="4" t="s">
         <v>24</v>
       </c>
@@ -8098,8 +8239,8 @@
       </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A48" s="90"/>
-      <c r="B48" s="91"/>
+      <c r="A48" s="79"/>
+      <c r="B48" s="80"/>
       <c r="C48" s="19" t="s">
         <v>32</v>
       </c>
@@ -8165,8 +8306,8 @@
       </c>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A49" s="90"/>
-      <c r="B49" s="91"/>
+      <c r="A49" s="79"/>
+      <c r="B49" s="80"/>
       <c r="C49" s="4" t="s">
         <v>25</v>
       </c>
@@ -8217,8 +8358,8 @@
       </c>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A50" s="90"/>
-      <c r="B50" s="91"/>
+      <c r="A50" s="79"/>
+      <c r="B50" s="80"/>
       <c r="C50" s="4" t="s">
         <v>26</v>
       </c>
@@ -8269,8 +8410,8 @@
       </c>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A51" s="92"/>
-      <c r="B51" s="93"/>
+      <c r="A51" s="81"/>
+      <c r="B51" s="82"/>
       <c r="C51" s="19" t="s">
         <v>32</v>
       </c>
@@ -8336,10 +8477,10 @@
       </c>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A52" s="69">
+      <c r="A52" s="98">
         <v>1345</v>
       </c>
-      <c r="B52" s="70"/>
+      <c r="B52" s="99"/>
       <c r="C52" s="7" t="s">
         <v>23</v>
       </c>
@@ -8390,8 +8531,8 @@
       </c>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A53" s="71"/>
-      <c r="B53" s="72"/>
+      <c r="A53" s="100"/>
+      <c r="B53" s="101"/>
       <c r="C53" s="7" t="s">
         <v>24</v>
       </c>
@@ -8442,8 +8583,8 @@
       </c>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A54" s="71"/>
-      <c r="B54" s="72"/>
+      <c r="A54" s="100"/>
+      <c r="B54" s="101"/>
       <c r="C54" s="19" t="s">
         <v>32</v>
       </c>
@@ -8509,8 +8650,8 @@
       </c>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A55" s="71"/>
-      <c r="B55" s="72"/>
+      <c r="A55" s="100"/>
+      <c r="B55" s="101"/>
       <c r="C55" s="7" t="s">
         <v>25</v>
       </c>
@@ -8561,8 +8702,8 @@
       </c>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A56" s="71"/>
-      <c r="B56" s="72"/>
+      <c r="A56" s="100"/>
+      <c r="B56" s="101"/>
       <c r="C56" s="7" t="s">
         <v>26</v>
       </c>
@@ -8613,8 +8754,8 @@
       </c>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A57" s="73"/>
-      <c r="B57" s="74"/>
+      <c r="A57" s="102"/>
+      <c r="B57" s="103"/>
       <c r="C57" s="19" t="s">
         <v>32</v>
       </c>
@@ -8705,7 +8846,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="C7:AG36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="S35" sqref="S35"/>
     </sheetView>
   </sheetViews>
@@ -8940,7 +9081,7 @@
       </c>
     </row>
     <row r="14" spans="3:33" x14ac:dyDescent="0.25">
-      <c r="C14" s="124" t="s">
+      <c r="C14" s="69" t="s">
         <v>134</v>
       </c>
       <c r="U14" t="s">
@@ -8948,48 +9089,48 @@
       </c>
     </row>
     <row r="15" spans="3:33" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="106" t="s">
+      <c r="C15" s="111" t="s">
         <v>95</v>
       </c>
-      <c r="D15" s="106"/>
-      <c r="E15" s="107" t="s">
+      <c r="D15" s="111"/>
+      <c r="E15" s="112" t="s">
         <v>100</v>
       </c>
-      <c r="F15" s="107"/>
-      <c r="G15" s="107"/>
-      <c r="H15" s="107"/>
-      <c r="I15" s="107"/>
-      <c r="J15" s="107"/>
-      <c r="K15" s="107"/>
-      <c r="L15" s="107"/>
-      <c r="M15" s="107"/>
-      <c r="N15" s="107"/>
-      <c r="O15" s="103" t="s">
+      <c r="F15" s="112"/>
+      <c r="G15" s="112"/>
+      <c r="H15" s="112"/>
+      <c r="I15" s="112"/>
+      <c r="J15" s="112"/>
+      <c r="K15" s="112"/>
+      <c r="L15" s="112"/>
+      <c r="M15" s="112"/>
+      <c r="N15" s="112"/>
+      <c r="O15" s="113" t="s">
         <v>99</v>
       </c>
-      <c r="U15" s="106" t="s">
+      <c r="U15" s="111" t="s">
         <v>95</v>
       </c>
-      <c r="V15" s="106"/>
-      <c r="W15" s="107" t="s">
+      <c r="V15" s="111"/>
+      <c r="W15" s="112" t="s">
         <v>100</v>
       </c>
-      <c r="X15" s="107"/>
-      <c r="Y15" s="107"/>
-      <c r="Z15" s="107"/>
-      <c r="AA15" s="107"/>
-      <c r="AB15" s="107"/>
-      <c r="AC15" s="107"/>
-      <c r="AD15" s="107"/>
-      <c r="AE15" s="107"/>
-      <c r="AF15" s="107"/>
-      <c r="AG15" s="103" t="s">
+      <c r="X15" s="112"/>
+      <c r="Y15" s="112"/>
+      <c r="Z15" s="112"/>
+      <c r="AA15" s="112"/>
+      <c r="AB15" s="112"/>
+      <c r="AC15" s="112"/>
+      <c r="AD15" s="112"/>
+      <c r="AE15" s="112"/>
+      <c r="AF15" s="112"/>
+      <c r="AG15" s="113" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="16" spans="3:33" x14ac:dyDescent="0.25">
-      <c r="C16" s="106"/>
-      <c r="D16" s="106"/>
+      <c r="C16" s="111"/>
+      <c r="D16" s="111"/>
       <c r="E16" s="42">
         <v>1</v>
       </c>
@@ -9020,9 +9161,9 @@
       <c r="N16" s="42">
         <v>10</v>
       </c>
-      <c r="O16" s="103"/>
-      <c r="U16" s="106"/>
-      <c r="V16" s="106"/>
+      <c r="O16" s="113"/>
+      <c r="U16" s="111"/>
+      <c r="V16" s="111"/>
       <c r="W16" s="66">
         <v>1</v>
       </c>
@@ -9053,10 +9194,10 @@
       <c r="AF16" s="66">
         <v>10</v>
       </c>
-      <c r="AG16" s="103"/>
+      <c r="AG16" s="113"/>
     </row>
     <row r="17" spans="3:33" x14ac:dyDescent="0.25">
-      <c r="C17" s="103" t="s">
+      <c r="C17" s="113" t="s">
         <v>96</v>
       </c>
       <c r="D17" s="42" t="s">
@@ -9092,11 +9233,11 @@
       <c r="N17" s="43">
         <v>41</v>
       </c>
-      <c r="O17" s="104">
+      <c r="O17" s="114">
         <f>SUM(E17:N17)/410</f>
         <v>1</v>
       </c>
-      <c r="U17" s="103" t="s">
+      <c r="U17" s="113" t="s">
         <v>96</v>
       </c>
       <c r="V17" s="66" t="s">
@@ -9132,13 +9273,13 @@
       <c r="AF17" s="43">
         <v>41</v>
       </c>
-      <c r="AG17" s="104">
+      <c r="AG17" s="114">
         <f>SUM(W17:AF17)/410</f>
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="3:33" x14ac:dyDescent="0.25">
-      <c r="C18" s="103"/>
+      <c r="C18" s="113"/>
       <c r="D18" s="42" t="s">
         <v>98</v>
       </c>
@@ -9172,8 +9313,8 @@
       <c r="N18" s="43">
         <v>0</v>
       </c>
-      <c r="O18" s="105"/>
-      <c r="U18" s="103"/>
+      <c r="O18" s="115"/>
+      <c r="U18" s="113"/>
       <c r="V18" s="66" t="s">
         <v>98</v>
       </c>
@@ -9207,51 +9348,51 @@
       <c r="AF18" s="43">
         <v>0</v>
       </c>
-      <c r="AG18" s="105"/>
+      <c r="AG18" s="115"/>
     </row>
     <row r="21" spans="3:33" x14ac:dyDescent="0.25">
-      <c r="C21" s="106" t="s">
+      <c r="C21" s="111" t="s">
         <v>101</v>
       </c>
-      <c r="D21" s="106"/>
-      <c r="E21" s="107" t="s">
+      <c r="D21" s="111"/>
+      <c r="E21" s="112" t="s">
         <v>100</v>
       </c>
-      <c r="F21" s="107"/>
-      <c r="G21" s="107"/>
-      <c r="H21" s="107"/>
-      <c r="I21" s="107"/>
-      <c r="J21" s="107"/>
-      <c r="K21" s="107"/>
-      <c r="L21" s="107"/>
-      <c r="M21" s="107"/>
-      <c r="N21" s="107"/>
-      <c r="O21" s="103" t="s">
+      <c r="F21" s="112"/>
+      <c r="G21" s="112"/>
+      <c r="H21" s="112"/>
+      <c r="I21" s="112"/>
+      <c r="J21" s="112"/>
+      <c r="K21" s="112"/>
+      <c r="L21" s="112"/>
+      <c r="M21" s="112"/>
+      <c r="N21" s="112"/>
+      <c r="O21" s="113" t="s">
         <v>99</v>
       </c>
-      <c r="U21" s="106" t="s">
+      <c r="U21" s="111" t="s">
         <v>101</v>
       </c>
-      <c r="V21" s="106"/>
-      <c r="W21" s="107" t="s">
+      <c r="V21" s="111"/>
+      <c r="W21" s="112" t="s">
         <v>100</v>
       </c>
-      <c r="X21" s="107"/>
-      <c r="Y21" s="107"/>
-      <c r="Z21" s="107"/>
-      <c r="AA21" s="107"/>
-      <c r="AB21" s="107"/>
-      <c r="AC21" s="107"/>
-      <c r="AD21" s="107"/>
-      <c r="AE21" s="107"/>
-      <c r="AF21" s="107"/>
-      <c r="AG21" s="103" t="s">
+      <c r="X21" s="112"/>
+      <c r="Y21" s="112"/>
+      <c r="Z21" s="112"/>
+      <c r="AA21" s="112"/>
+      <c r="AB21" s="112"/>
+      <c r="AC21" s="112"/>
+      <c r="AD21" s="112"/>
+      <c r="AE21" s="112"/>
+      <c r="AF21" s="112"/>
+      <c r="AG21" s="113" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="22" spans="3:33" x14ac:dyDescent="0.25">
-      <c r="C22" s="106"/>
-      <c r="D22" s="106"/>
+      <c r="C22" s="111"/>
+      <c r="D22" s="111"/>
       <c r="E22" s="42">
         <v>1</v>
       </c>
@@ -9282,9 +9423,9 @@
       <c r="N22" s="42">
         <v>10</v>
       </c>
-      <c r="O22" s="103"/>
-      <c r="U22" s="106"/>
-      <c r="V22" s="106"/>
+      <c r="O22" s="113"/>
+      <c r="U22" s="111"/>
+      <c r="V22" s="111"/>
       <c r="W22" s="66">
         <v>1</v>
       </c>
@@ -9315,10 +9456,10 @@
       <c r="AF22" s="66">
         <v>10</v>
       </c>
-      <c r="AG22" s="103"/>
+      <c r="AG22" s="113"/>
     </row>
     <row r="23" spans="3:33" x14ac:dyDescent="0.25">
-      <c r="C23" s="103" t="s">
+      <c r="C23" s="113" t="s">
         <v>96</v>
       </c>
       <c r="D23" s="42" t="s">
@@ -9354,11 +9495,11 @@
       <c r="N23" s="35">
         <v>27</v>
       </c>
-      <c r="O23" s="104">
+      <c r="O23" s="114">
         <f>SUM(E23:N23)/410</f>
         <v>0.86829268292682926</v>
       </c>
-      <c r="U23" s="103" t="s">
+      <c r="U23" s="113" t="s">
         <v>96</v>
       </c>
       <c r="V23" s="66" t="s">
@@ -9394,13 +9535,13 @@
       <c r="AF23" s="43">
         <v>40</v>
       </c>
-      <c r="AG23" s="104">
+      <c r="AG23" s="114">
         <f>SUM(W23:AF23)/410</f>
         <v>0.92682926829268297</v>
       </c>
     </row>
     <row r="24" spans="3:33" x14ac:dyDescent="0.25">
-      <c r="C24" s="103"/>
+      <c r="C24" s="113"/>
       <c r="D24" s="42" t="s">
         <v>98</v>
       </c>
@@ -9434,8 +9575,8 @@
       <c r="N24" s="43">
         <v>14</v>
       </c>
-      <c r="O24" s="105"/>
-      <c r="U24" s="103"/>
+      <c r="O24" s="115"/>
+      <c r="U24" s="113"/>
       <c r="V24" s="66" t="s">
         <v>98</v>
       </c>
@@ -9469,51 +9610,51 @@
       <c r="AF24" s="43">
         <v>1</v>
       </c>
-      <c r="AG24" s="105"/>
+      <c r="AG24" s="115"/>
     </row>
     <row r="27" spans="3:33" x14ac:dyDescent="0.25">
-      <c r="C27" s="106" t="s">
+      <c r="C27" s="111" t="s">
         <v>102</v>
       </c>
-      <c r="D27" s="106"/>
-      <c r="E27" s="107" t="s">
+      <c r="D27" s="111"/>
+      <c r="E27" s="112" t="s">
         <v>100</v>
       </c>
-      <c r="F27" s="107"/>
-      <c r="G27" s="107"/>
-      <c r="H27" s="107"/>
-      <c r="I27" s="107"/>
-      <c r="J27" s="107"/>
-      <c r="K27" s="107"/>
-      <c r="L27" s="107"/>
-      <c r="M27" s="107"/>
-      <c r="N27" s="107"/>
-      <c r="O27" s="103" t="s">
+      <c r="F27" s="112"/>
+      <c r="G27" s="112"/>
+      <c r="H27" s="112"/>
+      <c r="I27" s="112"/>
+      <c r="J27" s="112"/>
+      <c r="K27" s="112"/>
+      <c r="L27" s="112"/>
+      <c r="M27" s="112"/>
+      <c r="N27" s="112"/>
+      <c r="O27" s="113" t="s">
         <v>99</v>
       </c>
-      <c r="U27" s="106" t="s">
+      <c r="U27" s="111" t="s">
         <v>102</v>
       </c>
-      <c r="V27" s="106"/>
-      <c r="W27" s="107" t="s">
+      <c r="V27" s="111"/>
+      <c r="W27" s="112" t="s">
         <v>100</v>
       </c>
-      <c r="X27" s="107"/>
-      <c r="Y27" s="107"/>
-      <c r="Z27" s="107"/>
-      <c r="AA27" s="107"/>
-      <c r="AB27" s="107"/>
-      <c r="AC27" s="107"/>
-      <c r="AD27" s="107"/>
-      <c r="AE27" s="107"/>
-      <c r="AF27" s="107"/>
-      <c r="AG27" s="103" t="s">
+      <c r="X27" s="112"/>
+      <c r="Y27" s="112"/>
+      <c r="Z27" s="112"/>
+      <c r="AA27" s="112"/>
+      <c r="AB27" s="112"/>
+      <c r="AC27" s="112"/>
+      <c r="AD27" s="112"/>
+      <c r="AE27" s="112"/>
+      <c r="AF27" s="112"/>
+      <c r="AG27" s="113" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="28" spans="3:33" x14ac:dyDescent="0.25">
-      <c r="C28" s="106"/>
-      <c r="D28" s="106"/>
+      <c r="C28" s="111"/>
+      <c r="D28" s="111"/>
       <c r="E28" s="42">
         <v>1</v>
       </c>
@@ -9544,9 +9685,9 @@
       <c r="N28" s="42">
         <v>10</v>
       </c>
-      <c r="O28" s="103"/>
-      <c r="U28" s="106"/>
-      <c r="V28" s="106"/>
+      <c r="O28" s="113"/>
+      <c r="U28" s="111"/>
+      <c r="V28" s="111"/>
       <c r="W28" s="66">
         <v>1</v>
       </c>
@@ -9577,10 +9718,10 @@
       <c r="AF28" s="66">
         <v>10</v>
       </c>
-      <c r="AG28" s="103"/>
+      <c r="AG28" s="113"/>
     </row>
     <row r="29" spans="3:33" x14ac:dyDescent="0.25">
-      <c r="C29" s="103" t="s">
+      <c r="C29" s="113" t="s">
         <v>96</v>
       </c>
       <c r="D29" s="42" t="s">
@@ -9616,11 +9757,11 @@
       <c r="N29" s="35">
         <v>29</v>
       </c>
-      <c r="O29" s="104">
+      <c r="O29" s="114">
         <f>SUM(E29:N29)/410</f>
         <v>0.69512195121951215</v>
       </c>
-      <c r="U29" s="103" t="s">
+      <c r="U29" s="113" t="s">
         <v>96</v>
       </c>
       <c r="V29" s="66" t="s">
@@ -9656,13 +9797,13 @@
       <c r="AF29" s="43">
         <v>30</v>
       </c>
-      <c r="AG29" s="104">
+      <c r="AG29" s="114">
         <f>SUM(W29:AF29)/410</f>
         <v>0.84146341463414631</v>
       </c>
     </row>
     <row r="30" spans="3:33" x14ac:dyDescent="0.25">
-      <c r="C30" s="103"/>
+      <c r="C30" s="113"/>
       <c r="D30" s="42" t="s">
         <v>98</v>
       </c>
@@ -9696,8 +9837,8 @@
       <c r="N30" s="43">
         <v>12</v>
       </c>
-      <c r="O30" s="105"/>
-      <c r="U30" s="103"/>
+      <c r="O30" s="115"/>
+      <c r="U30" s="113"/>
       <c r="V30" s="66" t="s">
         <v>98</v>
       </c>
@@ -9731,7 +9872,7 @@
       <c r="AF30" s="43">
         <v>11</v>
       </c>
-      <c r="AG30" s="105"/>
+      <c r="AG30" s="115"/>
     </row>
     <row r="33" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C33" s="46"/>
@@ -9780,26 +9921,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="U27:V28"/>
-    <mergeCell ref="W27:AF27"/>
-    <mergeCell ref="AG27:AG28"/>
-    <mergeCell ref="U29:U30"/>
-    <mergeCell ref="AG29:AG30"/>
-    <mergeCell ref="U21:V22"/>
-    <mergeCell ref="W21:AF21"/>
-    <mergeCell ref="AG21:AG22"/>
-    <mergeCell ref="U23:U24"/>
-    <mergeCell ref="AG23:AG24"/>
-    <mergeCell ref="U15:V16"/>
-    <mergeCell ref="W15:AF15"/>
-    <mergeCell ref="AG15:AG16"/>
-    <mergeCell ref="U17:U18"/>
-    <mergeCell ref="AG17:AG18"/>
-    <mergeCell ref="E15:N15"/>
-    <mergeCell ref="C15:D16"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="O17:O18"/>
     <mergeCell ref="C29:C30"/>
     <mergeCell ref="O29:O30"/>
     <mergeCell ref="C21:D22"/>
@@ -9810,6 +9931,26 @@
     <mergeCell ref="C27:D28"/>
     <mergeCell ref="E27:N27"/>
     <mergeCell ref="O27:O28"/>
+    <mergeCell ref="E15:N15"/>
+    <mergeCell ref="C15:D16"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="U15:V16"/>
+    <mergeCell ref="W15:AF15"/>
+    <mergeCell ref="AG15:AG16"/>
+    <mergeCell ref="U17:U18"/>
+    <mergeCell ref="AG17:AG18"/>
+    <mergeCell ref="U21:V22"/>
+    <mergeCell ref="W21:AF21"/>
+    <mergeCell ref="AG21:AG22"/>
+    <mergeCell ref="U23:U24"/>
+    <mergeCell ref="AG23:AG24"/>
+    <mergeCell ref="U27:V28"/>
+    <mergeCell ref="W27:AF27"/>
+    <mergeCell ref="AG27:AG28"/>
+    <mergeCell ref="U29:U30"/>
+    <mergeCell ref="AG29:AG30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9821,8 +9962,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{863E2203-BBD3-4582-9488-5B7EA02887EE}">
   <dimension ref="B4:U25"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="V24" sqref="V24"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9836,32 +9977,32 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:21" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="106" t="s">
+      <c r="B4" s="111" t="s">
         <v>95</v>
       </c>
-      <c r="C4" s="106"/>
-      <c r="D4" s="107" t="s">
+      <c r="C4" s="111"/>
+      <c r="D4" s="112" t="s">
         <v>100</v>
       </c>
-      <c r="E4" s="107"/>
-      <c r="F4" s="107"/>
-      <c r="G4" s="107"/>
-      <c r="H4" s="107"/>
-      <c r="I4" s="107"/>
-      <c r="J4" s="107"/>
-      <c r="K4" s="107"/>
-      <c r="L4" s="107"/>
-      <c r="M4" s="107"/>
-      <c r="N4" s="103" t="s">
+      <c r="E4" s="112"/>
+      <c r="F4" s="112"/>
+      <c r="G4" s="112"/>
+      <c r="H4" s="112"/>
+      <c r="I4" s="112"/>
+      <c r="J4" s="112"/>
+      <c r="K4" s="112"/>
+      <c r="L4" s="112"/>
+      <c r="M4" s="112"/>
+      <c r="N4" s="113" t="s">
         <v>99</v>
       </c>
-      <c r="O4" s="107" t="s">
+      <c r="O4" s="112" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="5" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B5" s="106"/>
-      <c r="C5" s="106"/>
+      <c r="B5" s="111"/>
+      <c r="C5" s="111"/>
       <c r="D5" s="65">
         <v>1</v>
       </c>
@@ -9892,11 +10033,11 @@
       <c r="M5" s="65">
         <v>10</v>
       </c>
-      <c r="N5" s="103"/>
-      <c r="O5" s="107"/>
+      <c r="N5" s="113"/>
+      <c r="O5" s="112"/>
     </row>
     <row r="6" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="103" t="s">
+      <c r="B6" s="113" t="s">
         <v>132</v>
       </c>
       <c r="C6" s="65" t="s">
@@ -9932,11 +10073,11 @@
       <c r="M6" s="43">
         <v>41</v>
       </c>
-      <c r="N6" s="104">
+      <c r="N6" s="114">
         <f>SUM(D6:M6)/410</f>
         <v>1</v>
       </c>
-      <c r="O6" s="108">
+      <c r="O6" s="116">
         <f>(N6+N8)/2</f>
         <v>1</v>
       </c>
@@ -9952,7 +10093,7 @@
       </c>
     </row>
     <row r="7" spans="2:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="103"/>
+      <c r="B7" s="113"/>
       <c r="C7" s="65" t="s">
         <v>98</v>
       </c>
@@ -9986,8 +10127,8 @@
       <c r="M7" s="43">
         <v>0</v>
       </c>
-      <c r="N7" s="105"/>
-      <c r="O7" s="108"/>
+      <c r="N7" s="115"/>
+      <c r="O7" s="116"/>
       <c r="R7" s="67" t="s">
         <v>130</v>
       </c>
@@ -10002,7 +10143,7 @@
       </c>
     </row>
     <row r="8" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B8" s="103" t="s">
+      <c r="B8" s="113" t="s">
         <v>128</v>
       </c>
       <c r="C8" s="65" t="s">
@@ -10038,11 +10179,11 @@
       <c r="M8" s="43">
         <v>41</v>
       </c>
-      <c r="N8" s="104">
+      <c r="N8" s="114">
         <f>SUM(D8:M8)/410</f>
         <v>1</v>
       </c>
-      <c r="O8" s="108"/>
+      <c r="O8" s="116"/>
       <c r="R8" s="67" t="s">
         <v>131</v>
       </c>
@@ -10057,7 +10198,7 @@
       </c>
     </row>
     <row r="9" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B9" s="103"/>
+      <c r="B9" s="113"/>
       <c r="C9" s="65" t="s">
         <v>98</v>
       </c>
@@ -10091,36 +10232,36 @@
       <c r="M9" s="43">
         <v>0</v>
       </c>
-      <c r="N9" s="105"/>
-      <c r="O9" s="108"/>
+      <c r="N9" s="115"/>
+      <c r="O9" s="116"/>
     </row>
     <row r="12" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B12" s="106" t="s">
+      <c r="B12" s="111" t="s">
         <v>101</v>
       </c>
-      <c r="C12" s="106"/>
-      <c r="D12" s="107" t="s">
+      <c r="C12" s="111"/>
+      <c r="D12" s="112" t="s">
         <v>100</v>
       </c>
-      <c r="E12" s="107"/>
-      <c r="F12" s="107"/>
-      <c r="G12" s="107"/>
-      <c r="H12" s="107"/>
-      <c r="I12" s="107"/>
-      <c r="J12" s="107"/>
-      <c r="K12" s="107"/>
-      <c r="L12" s="107"/>
-      <c r="M12" s="107"/>
-      <c r="N12" s="103" t="s">
+      <c r="E12" s="112"/>
+      <c r="F12" s="112"/>
+      <c r="G12" s="112"/>
+      <c r="H12" s="112"/>
+      <c r="I12" s="112"/>
+      <c r="J12" s="112"/>
+      <c r="K12" s="112"/>
+      <c r="L12" s="112"/>
+      <c r="M12" s="112"/>
+      <c r="N12" s="113" t="s">
         <v>99</v>
       </c>
-      <c r="O12" s="107" t="s">
+      <c r="O12" s="112" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="13" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B13" s="106"/>
-      <c r="C13" s="106"/>
+      <c r="B13" s="111"/>
+      <c r="C13" s="111"/>
       <c r="D13" s="65">
         <v>1</v>
       </c>
@@ -10151,11 +10292,11 @@
       <c r="M13" s="65">
         <v>10</v>
       </c>
-      <c r="N13" s="103"/>
-      <c r="O13" s="107"/>
+      <c r="N13" s="113"/>
+      <c r="O13" s="112"/>
     </row>
     <row r="14" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B14" s="103" t="s">
+      <c r="B14" s="113" t="s">
         <v>127</v>
       </c>
       <c r="C14" s="65" t="s">
@@ -10191,17 +10332,17 @@
       <c r="M14" s="43">
         <v>38</v>
       </c>
-      <c r="N14" s="104">
+      <c r="N14" s="114">
         <f>SUM(D14:M14)/410</f>
         <v>0.90731707317073174</v>
       </c>
-      <c r="O14" s="108">
+      <c r="O14" s="116">
         <f>(N14+N16)/2</f>
         <v>0.90609756097560978</v>
       </c>
     </row>
     <row r="15" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B15" s="103"/>
+      <c r="B15" s="113"/>
       <c r="C15" s="65" t="s">
         <v>98</v>
       </c>
@@ -10235,11 +10376,11 @@
       <c r="M15" s="43">
         <v>3</v>
       </c>
-      <c r="N15" s="105"/>
-      <c r="O15" s="108"/>
+      <c r="N15" s="115"/>
+      <c r="O15" s="116"/>
     </row>
     <row r="16" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B16" s="103" t="s">
+      <c r="B16" s="113" t="s">
         <v>128</v>
       </c>
       <c r="C16" s="65" t="s">
@@ -10275,14 +10416,14 @@
       <c r="M16" s="43">
         <v>37</v>
       </c>
-      <c r="N16" s="104">
+      <c r="N16" s="114">
         <f>SUM(D16:M16)/410</f>
         <v>0.90487804878048783</v>
       </c>
-      <c r="O16" s="108"/>
+      <c r="O16" s="116"/>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B17" s="103"/>
+      <c r="B17" s="113"/>
       <c r="C17" s="65" t="s">
         <v>98</v>
       </c>
@@ -10316,36 +10457,36 @@
       <c r="M17" s="43">
         <v>4</v>
       </c>
-      <c r="N17" s="105"/>
-      <c r="O17" s="108"/>
+      <c r="N17" s="115"/>
+      <c r="O17" s="116"/>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B20" s="106" t="s">
+      <c r="B20" s="111" t="s">
         <v>102</v>
       </c>
-      <c r="C20" s="106"/>
-      <c r="D20" s="107" t="s">
+      <c r="C20" s="111"/>
+      <c r="D20" s="112" t="s">
         <v>100</v>
       </c>
-      <c r="E20" s="107"/>
-      <c r="F20" s="107"/>
-      <c r="G20" s="107"/>
-      <c r="H20" s="107"/>
-      <c r="I20" s="107"/>
-      <c r="J20" s="107"/>
-      <c r="K20" s="107"/>
-      <c r="L20" s="107"/>
-      <c r="M20" s="107"/>
-      <c r="N20" s="103" t="s">
+      <c r="E20" s="112"/>
+      <c r="F20" s="112"/>
+      <c r="G20" s="112"/>
+      <c r="H20" s="112"/>
+      <c r="I20" s="112"/>
+      <c r="J20" s="112"/>
+      <c r="K20" s="112"/>
+      <c r="L20" s="112"/>
+      <c r="M20" s="112"/>
+      <c r="N20" s="113" t="s">
         <v>99</v>
       </c>
-      <c r="O20" s="107" t="s">
+      <c r="O20" s="112" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B21" s="106"/>
-      <c r="C21" s="106"/>
+      <c r="B21" s="111"/>
+      <c r="C21" s="111"/>
       <c r="D21" s="65">
         <v>1</v>
       </c>
@@ -10376,11 +10517,11 @@
       <c r="M21" s="65">
         <v>10</v>
       </c>
-      <c r="N21" s="103"/>
-      <c r="O21" s="107"/>
+      <c r="N21" s="113"/>
+      <c r="O21" s="112"/>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B22" s="103" t="s">
+      <c r="B22" s="113" t="s">
         <v>127</v>
       </c>
       <c r="C22" s="65" t="s">
@@ -10416,17 +10557,17 @@
       <c r="M22" s="43">
         <v>9</v>
       </c>
-      <c r="N22" s="104">
+      <c r="N22" s="114">
         <f>SUM(D22:M22)/410</f>
         <v>0.8365853658536585</v>
       </c>
-      <c r="O22" s="108">
+      <c r="O22" s="116">
         <f>(N22+N24)/2</f>
         <v>0.82560975609756093</v>
       </c>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B23" s="103"/>
+      <c r="B23" s="113"/>
       <c r="C23" s="65" t="s">
         <v>98</v>
       </c>
@@ -10460,11 +10601,11 @@
       <c r="M23" s="43">
         <v>32</v>
       </c>
-      <c r="N23" s="105"/>
-      <c r="O23" s="108"/>
+      <c r="N23" s="115"/>
+      <c r="O23" s="116"/>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B24" s="103" t="s">
+      <c r="B24" s="113" t="s">
         <v>128</v>
       </c>
       <c r="C24" s="65" t="s">
@@ -10500,14 +10641,14 @@
       <c r="M24" s="43">
         <v>9</v>
       </c>
-      <c r="N24" s="104">
+      <c r="N24" s="114">
         <f>SUM(D24:M24)/410</f>
         <v>0.81463414634146336</v>
       </c>
-      <c r="O24" s="108"/>
+      <c r="O24" s="116"/>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B25" s="103"/>
+      <c r="B25" s="113"/>
       <c r="C25" s="65" t="s">
         <v>98</v>
       </c>
@@ -10541,18 +10682,17 @@
       <c r="M25" s="43">
         <v>32</v>
       </c>
-      <c r="N25" s="105"/>
-      <c r="O25" s="108"/>
+      <c r="N25" s="115"/>
+      <c r="O25" s="116"/>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="B4:C5"/>
-    <mergeCell ref="D4:M4"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="O12:O13"/>
+    <mergeCell ref="O14:O17"/>
+    <mergeCell ref="O20:O21"/>
+    <mergeCell ref="O22:O25"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="O6:O9"/>
     <mergeCell ref="B24:B25"/>
     <mergeCell ref="N24:N25"/>
     <mergeCell ref="B12:C13"/>
@@ -10567,12 +10707,13 @@
     <mergeCell ref="N20:N21"/>
     <mergeCell ref="B22:B23"/>
     <mergeCell ref="N22:N23"/>
-    <mergeCell ref="O12:O13"/>
-    <mergeCell ref="O14:O17"/>
-    <mergeCell ref="O20:O21"/>
-    <mergeCell ref="O22:O25"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="O6:O9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="B4:C5"/>
+    <mergeCell ref="D4:M4"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="N6:N7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -10581,10 +10722,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A4:AN51"/>
+  <dimension ref="A4:BB61"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="U38" sqref="U38"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10592,71 +10733,88 @@
     <col min="2" max="2" width="12" customWidth="1"/>
     <col min="18" max="18" width="9.85546875" customWidth="1"/>
     <col min="33" max="33" width="9" customWidth="1"/>
-    <col min="34" max="34" width="9.7109375" customWidth="1"/>
-    <col min="35" max="35" width="8.28515625" customWidth="1"/>
-    <col min="36" max="37" width="8.5703125" customWidth="1"/>
-    <col min="38" max="38" width="8.42578125" customWidth="1"/>
-    <col min="39" max="39" width="8.28515625" customWidth="1"/>
-    <col min="40" max="40" width="8.5703125" customWidth="1"/>
+    <col min="34" max="34" width="34.140625" customWidth="1"/>
+    <col min="35" max="35" width="14.140625" customWidth="1"/>
+    <col min="36" max="36" width="13.85546875" customWidth="1"/>
+    <col min="37" max="37" width="14.85546875" customWidth="1"/>
+    <col min="38" max="39" width="13.42578125" customWidth="1"/>
+    <col min="40" max="40" width="13.7109375" customWidth="1"/>
+    <col min="41" max="41" width="14.5703125" customWidth="1"/>
+    <col min="42" max="42" width="13.85546875" customWidth="1"/>
+    <col min="43" max="43" width="7.5703125" customWidth="1"/>
+    <col min="44" max="44" width="32.5703125" customWidth="1"/>
+    <col min="45" max="45" width="30.42578125" customWidth="1"/>
+    <col min="46" max="46" width="29.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="106" t="s">
+    <row r="4" spans="2:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="111" t="s">
         <v>111</v>
       </c>
-      <c r="C4" s="106"/>
-      <c r="D4" s="107" t="s">
+      <c r="C4" s="111"/>
+      <c r="D4" s="112" t="s">
         <v>100</v>
       </c>
-      <c r="E4" s="107"/>
-      <c r="F4" s="107"/>
-      <c r="G4" s="107"/>
-      <c r="H4" s="107"/>
-      <c r="I4" s="107"/>
-      <c r="J4" s="107"/>
-      <c r="K4" s="107"/>
-      <c r="L4" s="107"/>
-      <c r="M4" s="107"/>
-      <c r="N4" s="103" t="s">
+      <c r="E4" s="112"/>
+      <c r="F4" s="112"/>
+      <c r="G4" s="112"/>
+      <c r="H4" s="112"/>
+      <c r="I4" s="112"/>
+      <c r="J4" s="112"/>
+      <c r="K4" s="112"/>
+      <c r="L4" s="112"/>
+      <c r="M4" s="112"/>
+      <c r="N4" s="113" t="s">
         <v>115</v>
       </c>
-      <c r="R4" s="106" t="s">
+      <c r="R4" s="111" t="s">
         <v>116</v>
       </c>
-      <c r="S4" s="106"/>
-      <c r="T4" s="107" t="s">
+      <c r="S4" s="111"/>
+      <c r="T4" s="112" t="s">
         <v>100</v>
       </c>
-      <c r="U4" s="107"/>
-      <c r="V4" s="107"/>
-      <c r="W4" s="107"/>
-      <c r="X4" s="107"/>
-      <c r="Y4" s="107"/>
-      <c r="Z4" s="107"/>
-      <c r="AA4" s="107"/>
-      <c r="AB4" s="107"/>
-      <c r="AC4" s="107"/>
-      <c r="AD4" s="103" t="s">
+      <c r="U4" s="112"/>
+      <c r="V4" s="112"/>
+      <c r="W4" s="112"/>
+      <c r="X4" s="112"/>
+      <c r="Y4" s="112"/>
+      <c r="Z4" s="112"/>
+      <c r="AA4" s="112"/>
+      <c r="AB4" s="112"/>
+      <c r="AC4" s="112"/>
+      <c r="AD4" s="113" t="s">
         <v>105</v>
       </c>
-      <c r="AG4" s="103" t="s">
+      <c r="AG4" s="113" t="s">
         <v>59</v>
       </c>
-      <c r="AH4" s="107" t="s">
+      <c r="AH4" s="112" t="s">
         <v>109</v>
       </c>
-      <c r="AI4" s="107" t="s">
+      <c r="AI4" s="112" t="s">
         <v>110</v>
       </c>
-      <c r="AJ4" s="107"/>
-      <c r="AK4" s="107"/>
-      <c r="AL4" s="107"/>
-      <c r="AM4" s="107"/>
-      <c r="AN4" s="107"/>
-    </row>
-    <row r="5" spans="2:40" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="106"/>
-      <c r="C5" s="106"/>
+      <c r="AJ4" s="112"/>
+      <c r="AK4" s="112"/>
+      <c r="AL4" s="112"/>
+      <c r="AM4" s="112"/>
+      <c r="AN4" s="112"/>
+      <c r="AR4" s="76"/>
+      <c r="AS4" s="76"/>
+      <c r="AT4" s="76"/>
+      <c r="AU4" s="76"/>
+      <c r="AV4" s="76"/>
+      <c r="AW4" s="76"/>
+      <c r="AX4" s="76"/>
+      <c r="AY4" s="76"/>
+      <c r="AZ4" s="76"/>
+      <c r="BA4" s="76"/>
+      <c r="BB4" s="47"/>
+    </row>
+    <row r="5" spans="2:54" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="111"/>
+      <c r="C5" s="111"/>
       <c r="D5" s="45">
         <v>1</v>
       </c>
@@ -10687,9 +10845,9 @@
       <c r="M5" s="45">
         <v>10</v>
       </c>
-      <c r="N5" s="103"/>
-      <c r="R5" s="106"/>
-      <c r="S5" s="106"/>
+      <c r="N5" s="113"/>
+      <c r="R5" s="111"/>
+      <c r="S5" s="111"/>
       <c r="T5" s="45">
         <v>1</v>
       </c>
@@ -10720,9 +10878,9 @@
       <c r="AC5" s="45">
         <v>10</v>
       </c>
-      <c r="AD5" s="103"/>
-      <c r="AG5" s="103"/>
-      <c r="AH5" s="107"/>
+      <c r="AD5" s="113"/>
+      <c r="AG5" s="113"/>
+      <c r="AH5" s="112"/>
       <c r="AI5" s="53" t="s">
         <v>1</v>
       </c>
@@ -10741,9 +10899,30 @@
       <c r="AN5" s="53" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="6" spans="2:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="109" t="s">
+      <c r="AP5" s="111" t="s">
+        <v>145</v>
+      </c>
+      <c r="AQ5" s="111"/>
+      <c r="AR5" s="70" t="s">
+        <v>146</v>
+      </c>
+      <c r="AS5" s="70" t="s">
+        <v>147</v>
+      </c>
+      <c r="AT5" s="70" t="s">
+        <v>148</v>
+      </c>
+      <c r="AU5" s="74"/>
+      <c r="AV5" s="74"/>
+      <c r="AW5" s="74"/>
+      <c r="AX5" s="74"/>
+      <c r="AY5" s="74"/>
+      <c r="AZ5" s="74"/>
+      <c r="BA5" s="74"/>
+      <c r="BB5" s="47"/>
+    </row>
+    <row r="6" spans="2:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="119" t="s">
         <v>110</v>
       </c>
       <c r="C6" s="45" t="s">
@@ -10793,7 +10972,7 @@
         <f>AVERAGE(D6:M6)</f>
         <v>9.2636986301369864E-2</v>
       </c>
-      <c r="R6" s="109" t="s">
+      <c r="R6" s="119" t="s">
         <v>110</v>
       </c>
       <c r="S6" s="45" t="s">
@@ -10863,9 +11042,32 @@
         <f>AD11</f>
         <v>3.0045600000000006E-2</v>
       </c>
-    </row>
-    <row r="7" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B7" s="109"/>
+      <c r="AP6" s="118" t="s">
+        <v>100</v>
+      </c>
+      <c r="AQ6" s="70">
+        <v>1</v>
+      </c>
+      <c r="AR6" s="51" t="s">
+        <v>149</v>
+      </c>
+      <c r="AS6" s="51" t="s">
+        <v>151</v>
+      </c>
+      <c r="AT6" s="51" t="s">
+        <v>150</v>
+      </c>
+      <c r="AU6" s="75"/>
+      <c r="AV6" s="75"/>
+      <c r="AW6" s="75"/>
+      <c r="AX6" s="75"/>
+      <c r="AY6" s="75"/>
+      <c r="AZ6" s="75"/>
+      <c r="BA6" s="75"/>
+      <c r="BB6" s="47"/>
+    </row>
+    <row r="7" spans="2:54" x14ac:dyDescent="0.25">
+      <c r="B7" s="119"/>
       <c r="C7" s="45" t="s">
         <v>2</v>
       </c>
@@ -10913,7 +11115,7 @@
         <f t="shared" ref="N7:N11" si="0">AVERAGE(D7:M7)</f>
         <v>0.2441780821917808</v>
       </c>
-      <c r="R7" s="109"/>
+      <c r="R7" s="119"/>
       <c r="S7" s="45" t="s">
         <v>2</v>
       </c>
@@ -10981,9 +11183,30 @@
         <f>AD21</f>
         <v>4.9896800000000005E-2</v>
       </c>
-    </row>
-    <row r="8" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B8" s="109"/>
+      <c r="AP7" s="118"/>
+      <c r="AQ7" s="70">
+        <v>2</v>
+      </c>
+      <c r="AR7" s="51" t="s">
+        <v>152</v>
+      </c>
+      <c r="AS7" s="51" t="s">
+        <v>153</v>
+      </c>
+      <c r="AT7" s="51" t="s">
+        <v>150</v>
+      </c>
+      <c r="AU7" s="75"/>
+      <c r="AV7" s="75"/>
+      <c r="AW7" s="75"/>
+      <c r="AX7" s="75"/>
+      <c r="AY7" s="75"/>
+      <c r="AZ7" s="75"/>
+      <c r="BA7" s="75"/>
+      <c r="BB7" s="47"/>
+    </row>
+    <row r="8" spans="2:54" x14ac:dyDescent="0.25">
+      <c r="B8" s="119"/>
       <c r="C8" s="45" t="s">
         <v>3</v>
       </c>
@@ -11031,7 +11254,7 @@
         <f t="shared" si="0"/>
         <v>0.31849315068493156</v>
       </c>
-      <c r="R8" s="109"/>
+      <c r="R8" s="119"/>
       <c r="S8" s="45" t="s">
         <v>3</v>
       </c>
@@ -11099,9 +11322,30 @@
         <f>AD31</f>
         <v>gagal</v>
       </c>
-    </row>
-    <row r="9" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B9" s="109"/>
+      <c r="AP8" s="118"/>
+      <c r="AQ8" s="70">
+        <v>3</v>
+      </c>
+      <c r="AR8" s="51" t="s">
+        <v>154</v>
+      </c>
+      <c r="AS8" s="51" t="s">
+        <v>155</v>
+      </c>
+      <c r="AT8" s="51" t="s">
+        <v>156</v>
+      </c>
+      <c r="AU8" s="75"/>
+      <c r="AV8" s="75"/>
+      <c r="AW8" s="75"/>
+      <c r="AX8" s="75"/>
+      <c r="AY8" s="75"/>
+      <c r="AZ8" s="75"/>
+      <c r="BA8" s="75"/>
+      <c r="BB8" s="47"/>
+    </row>
+    <row r="9" spans="2:54" x14ac:dyDescent="0.25">
+      <c r="B9" s="119"/>
       <c r="C9" s="45" t="s">
         <v>52</v>
       </c>
@@ -11149,7 +11393,7 @@
         <f t="shared" si="0"/>
         <v>0.49383561643835616</v>
       </c>
-      <c r="R9" s="109"/>
+      <c r="R9" s="119"/>
       <c r="S9" s="45" t="s">
         <v>52</v>
       </c>
@@ -11217,9 +11461,30 @@
         <f>AD41</f>
         <v>gagal</v>
       </c>
-    </row>
-    <row r="10" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B10" s="109"/>
+      <c r="AP9" s="118"/>
+      <c r="AQ9" s="71">
+        <v>4</v>
+      </c>
+      <c r="AR9" s="70" t="s">
+        <v>157</v>
+      </c>
+      <c r="AS9" s="70" t="s">
+        <v>158</v>
+      </c>
+      <c r="AT9" s="51" t="s">
+        <v>156</v>
+      </c>
+      <c r="AU9" s="47"/>
+      <c r="AV9" s="47"/>
+      <c r="AW9" s="47"/>
+      <c r="AX9" s="47"/>
+      <c r="AY9" s="47"/>
+      <c r="AZ9" s="47"/>
+      <c r="BA9" s="47"/>
+      <c r="BB9" s="47"/>
+    </row>
+    <row r="10" spans="2:54" x14ac:dyDescent="0.25">
+      <c r="B10" s="119"/>
       <c r="C10" s="45" t="s">
         <v>51</v>
       </c>
@@ -11267,7 +11532,7 @@
         <f t="shared" si="0"/>
         <v>0.59845890410958913</v>
       </c>
-      <c r="R10" s="109"/>
+      <c r="R10" s="119"/>
       <c r="S10" s="45" t="s">
         <v>51</v>
       </c>
@@ -11335,9 +11600,22 @@
         <f>AD51</f>
         <v>gagal</v>
       </c>
-    </row>
-    <row r="11" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B11" s="109"/>
+      <c r="AP10" s="118"/>
+      <c r="AQ10" s="71">
+        <v>5</v>
+      </c>
+      <c r="AR10" s="70" t="s">
+        <v>159</v>
+      </c>
+      <c r="AS10" s="70" t="s">
+        <v>160</v>
+      </c>
+      <c r="AT10" s="51" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="11" spans="2:54" x14ac:dyDescent="0.25">
+      <c r="B11" s="119"/>
       <c r="C11" s="45" t="s">
         <v>69</v>
       </c>
@@ -11385,7 +11663,7 @@
         <f t="shared" si="0"/>
         <v>0.56746575342465744</v>
       </c>
-      <c r="R11" s="109"/>
+      <c r="R11" s="119"/>
       <c r="S11" s="45" t="s">
         <v>69</v>
       </c>
@@ -11423,64 +11701,120 @@
         <f t="shared" si="1"/>
         <v>3.0045600000000006E-2</v>
       </c>
-    </row>
-    <row r="14" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B14" s="106" t="s">
+      <c r="AP11" s="118"/>
+      <c r="AQ11" s="71">
+        <v>6</v>
+      </c>
+      <c r="AR11" s="70" t="s">
+        <v>161</v>
+      </c>
+      <c r="AS11" s="70" t="s">
+        <v>162</v>
+      </c>
+      <c r="AT11" s="51" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="12" spans="2:54" x14ac:dyDescent="0.25">
+      <c r="AP12" s="118"/>
+      <c r="AQ12" s="71">
+        <v>7</v>
+      </c>
+      <c r="AR12" s="70" t="s">
+        <v>170</v>
+      </c>
+      <c r="AS12" s="70" t="s">
+        <v>163</v>
+      </c>
+      <c r="AT12" s="51" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="13" spans="2:54" x14ac:dyDescent="0.25">
+      <c r="AP13" s="118"/>
+      <c r="AQ13" s="71">
+        <v>8</v>
+      </c>
+      <c r="AR13" s="70" t="s">
+        <v>170</v>
+      </c>
+      <c r="AS13" s="70" t="s">
+        <v>164</v>
+      </c>
+      <c r="AT13" s="51" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="14" spans="2:54" x14ac:dyDescent="0.25">
+      <c r="B14" s="111" t="s">
         <v>112</v>
       </c>
-      <c r="C14" s="106"/>
-      <c r="D14" s="107" t="s">
+      <c r="C14" s="111"/>
+      <c r="D14" s="112" t="s">
         <v>100</v>
       </c>
-      <c r="E14" s="107"/>
-      <c r="F14" s="107"/>
-      <c r="G14" s="107"/>
-      <c r="H14" s="107"/>
-      <c r="I14" s="107"/>
-      <c r="J14" s="107"/>
-      <c r="K14" s="107"/>
-      <c r="L14" s="107"/>
-      <c r="M14" s="107"/>
-      <c r="N14" s="103" t="s">
+      <c r="E14" s="112"/>
+      <c r="F14" s="112"/>
+      <c r="G14" s="112"/>
+      <c r="H14" s="112"/>
+      <c r="I14" s="112"/>
+      <c r="J14" s="112"/>
+      <c r="K14" s="112"/>
+      <c r="L14" s="112"/>
+      <c r="M14" s="112"/>
+      <c r="N14" s="113" t="s">
         <v>105</v>
       </c>
-      <c r="R14" s="106" t="s">
+      <c r="R14" s="111" t="s">
         <v>117</v>
       </c>
-      <c r="S14" s="106"/>
-      <c r="T14" s="107" t="s">
+      <c r="S14" s="111"/>
+      <c r="T14" s="112" t="s">
         <v>100</v>
       </c>
-      <c r="U14" s="107"/>
-      <c r="V14" s="107"/>
-      <c r="W14" s="107"/>
-      <c r="X14" s="107"/>
-      <c r="Y14" s="107"/>
-      <c r="Z14" s="107"/>
-      <c r="AA14" s="107"/>
-      <c r="AB14" s="107"/>
-      <c r="AC14" s="107"/>
-      <c r="AD14" s="103" t="s">
+      <c r="U14" s="112"/>
+      <c r="V14" s="112"/>
+      <c r="W14" s="112"/>
+      <c r="X14" s="112"/>
+      <c r="Y14" s="112"/>
+      <c r="Z14" s="112"/>
+      <c r="AA14" s="112"/>
+      <c r="AB14" s="112"/>
+      <c r="AC14" s="112"/>
+      <c r="AD14" s="113" t="s">
         <v>105</v>
       </c>
-      <c r="AG14" s="103" t="s">
+      <c r="AG14" s="113" t="s">
         <v>59</v>
       </c>
-      <c r="AH14" s="107" t="s">
+      <c r="AH14" s="112" t="s">
         <v>109</v>
       </c>
-      <c r="AI14" s="107" t="s">
+      <c r="AI14" s="112" t="s">
         <v>110</v>
       </c>
-      <c r="AJ14" s="107"/>
-      <c r="AK14" s="107"/>
-      <c r="AL14" s="107"/>
-      <c r="AM14" s="107"/>
-      <c r="AN14" s="107"/>
-    </row>
-    <row r="15" spans="2:40" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="106"/>
-      <c r="C15" s="106"/>
+      <c r="AJ14" s="112"/>
+      <c r="AK14" s="112"/>
+      <c r="AL14" s="112"/>
+      <c r="AM14" s="112"/>
+      <c r="AN14" s="112"/>
+      <c r="AP14" s="118"/>
+      <c r="AQ14" s="71">
+        <v>9</v>
+      </c>
+      <c r="AR14" s="70" t="s">
+        <v>165</v>
+      </c>
+      <c r="AS14" s="70" t="s">
+        <v>166</v>
+      </c>
+      <c r="AT14" s="51" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="15" spans="2:54" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="111"/>
+      <c r="C15" s="111"/>
       <c r="D15" s="45">
         <v>1</v>
       </c>
@@ -11511,9 +11845,9 @@
       <c r="M15" s="45">
         <v>10</v>
       </c>
-      <c r="N15" s="103"/>
-      <c r="R15" s="106"/>
-      <c r="S15" s="106"/>
+      <c r="N15" s="113"/>
+      <c r="R15" s="111"/>
+      <c r="S15" s="111"/>
       <c r="T15" s="45">
         <v>1</v>
       </c>
@@ -11544,9 +11878,9 @@
       <c r="AC15" s="45">
         <v>10</v>
       </c>
-      <c r="AD15" s="103"/>
-      <c r="AG15" s="103"/>
-      <c r="AH15" s="107"/>
+      <c r="AD15" s="113"/>
+      <c r="AG15" s="113"/>
+      <c r="AH15" s="112"/>
       <c r="AI15" s="53" t="s">
         <v>1</v>
       </c>
@@ -11565,9 +11899,22 @@
       <c r="AN15" s="53" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="16" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B16" s="109" t="s">
+      <c r="AP15" s="118"/>
+      <c r="AQ15" s="71">
+        <v>10</v>
+      </c>
+      <c r="AR15" s="70" t="s">
+        <v>168</v>
+      </c>
+      <c r="AS15" s="70" t="s">
+        <v>169</v>
+      </c>
+      <c r="AT15" s="51" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="16" spans="2:54" x14ac:dyDescent="0.25">
+      <c r="B16" s="119" t="s">
         <v>110</v>
       </c>
       <c r="C16" s="45" t="s">
@@ -11617,7 +11964,7 @@
         <f>AVERAGE(D16:M16)</f>
         <v>9.5918367346938788E-2</v>
       </c>
-      <c r="R16" s="109" t="s">
+      <c r="R16" s="119" t="s">
         <v>110</v>
       </c>
       <c r="S16" s="45" t="s">
@@ -11689,7 +12036,7 @@
       </c>
     </row>
     <row r="17" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="B17" s="109"/>
+      <c r="B17" s="119"/>
       <c r="C17" s="45" t="s">
         <v>2</v>
       </c>
@@ -11737,7 +12084,7 @@
         <f t="shared" ref="N17:N21" si="2">AVERAGE(D17:M17)</f>
         <v>0.19918367346938778</v>
       </c>
-      <c r="R17" s="109"/>
+      <c r="R17" s="119"/>
       <c r="S17" s="45" t="s">
         <v>2</v>
       </c>
@@ -11807,7 +12154,7 @@
       </c>
     </row>
     <row r="18" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="B18" s="109"/>
+      <c r="B18" s="119"/>
       <c r="C18" s="45" t="s">
         <v>3</v>
       </c>
@@ -11855,7 +12202,7 @@
         <f t="shared" si="2"/>
         <v>0.32346938775510203</v>
       </c>
-      <c r="R18" s="109"/>
+      <c r="R18" s="119"/>
       <c r="S18" s="45" t="s">
         <v>3</v>
       </c>
@@ -11924,7 +12271,7 @@
       </c>
     </row>
     <row r="19" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="B19" s="109"/>
+      <c r="B19" s="119"/>
       <c r="C19" s="45" t="s">
         <v>52</v>
       </c>
@@ -11972,7 +12319,7 @@
         <f t="shared" si="2"/>
         <v>0.49091836734693883</v>
       </c>
-      <c r="R19" s="109"/>
+      <c r="R19" s="119"/>
       <c r="S19" s="45" t="s">
         <v>52</v>
       </c>
@@ -12042,7 +12389,7 @@
       </c>
     </row>
     <row r="20" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="B20" s="109"/>
+      <c r="B20" s="119"/>
       <c r="C20" s="45" t="s">
         <v>51</v>
       </c>
@@ -12090,7 +12437,7 @@
         <f t="shared" si="2"/>
         <v>0.54499999999999993</v>
       </c>
-      <c r="R20" s="109"/>
+      <c r="R20" s="119"/>
       <c r="S20" s="45" t="s">
         <v>51</v>
       </c>
@@ -12160,7 +12507,7 @@
       </c>
     </row>
     <row r="21" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="B21" s="109"/>
+      <c r="B21" s="119"/>
       <c r="C21" s="45" t="s">
         <v>69</v>
       </c>
@@ -12208,7 +12555,7 @@
         <f t="shared" si="2"/>
         <v>0.60499999999999998</v>
       </c>
-      <c r="R21" s="109"/>
+      <c r="R21" s="119"/>
       <c r="S21" s="45" t="s">
         <v>69</v>
       </c>
@@ -12248,48 +12595,48 @@
       </c>
     </row>
     <row r="24" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="B24" s="106" t="s">
+      <c r="B24" s="111" t="s">
         <v>113</v>
       </c>
-      <c r="C24" s="106"/>
-      <c r="D24" s="107" t="s">
+      <c r="C24" s="111"/>
+      <c r="D24" s="112" t="s">
         <v>100</v>
       </c>
-      <c r="E24" s="107"/>
-      <c r="F24" s="107"/>
-      <c r="G24" s="107"/>
-      <c r="H24" s="107"/>
-      <c r="I24" s="107"/>
-      <c r="J24" s="107"/>
-      <c r="K24" s="107"/>
-      <c r="L24" s="107"/>
-      <c r="M24" s="107"/>
-      <c r="N24" s="103" t="s">
+      <c r="E24" s="112"/>
+      <c r="F24" s="112"/>
+      <c r="G24" s="112"/>
+      <c r="H24" s="112"/>
+      <c r="I24" s="112"/>
+      <c r="J24" s="112"/>
+      <c r="K24" s="112"/>
+      <c r="L24" s="112"/>
+      <c r="M24" s="112"/>
+      <c r="N24" s="113" t="s">
         <v>105</v>
       </c>
-      <c r="R24" s="106" t="s">
+      <c r="R24" s="111" t="s">
         <v>118</v>
       </c>
-      <c r="S24" s="106"/>
-      <c r="T24" s="107" t="s">
+      <c r="S24" s="111"/>
+      <c r="T24" s="112" t="s">
         <v>100</v>
       </c>
-      <c r="U24" s="107"/>
-      <c r="V24" s="107"/>
-      <c r="W24" s="107"/>
-      <c r="X24" s="107"/>
-      <c r="Y24" s="107"/>
-      <c r="Z24" s="107"/>
-      <c r="AA24" s="107"/>
-      <c r="AB24" s="107"/>
-      <c r="AC24" s="107"/>
-      <c r="AD24" s="103" t="s">
+      <c r="U24" s="112"/>
+      <c r="V24" s="112"/>
+      <c r="W24" s="112"/>
+      <c r="X24" s="112"/>
+      <c r="Y24" s="112"/>
+      <c r="Z24" s="112"/>
+      <c r="AA24" s="112"/>
+      <c r="AB24" s="112"/>
+      <c r="AC24" s="112"/>
+      <c r="AD24" s="113" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="25" spans="1:40" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="106"/>
-      <c r="C25" s="106"/>
+      <c r="B25" s="111"/>
+      <c r="C25" s="111"/>
       <c r="D25" s="45">
         <v>1</v>
       </c>
@@ -12320,9 +12667,9 @@
       <c r="M25" s="45">
         <v>10</v>
       </c>
-      <c r="N25" s="103"/>
-      <c r="R25" s="106"/>
-      <c r="S25" s="106"/>
+      <c r="N25" s="113"/>
+      <c r="R25" s="111"/>
+      <c r="S25" s="111"/>
       <c r="T25" s="45">
         <v>1</v>
       </c>
@@ -12353,10 +12700,10 @@
       <c r="AC25" s="45">
         <v>10</v>
       </c>
-      <c r="AD25" s="103"/>
+      <c r="AD25" s="113"/>
     </row>
     <row r="26" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="B26" s="109" t="s">
+      <c r="B26" s="119" t="s">
         <v>110</v>
       </c>
       <c r="C26" s="45" t="s">
@@ -12406,7 +12753,7 @@
         <f>AVERAGE(D26:M26)</f>
         <v>0.10015624999999999</v>
       </c>
-      <c r="R26" s="109" t="s">
+      <c r="R26" s="119" t="s">
         <v>110</v>
       </c>
       <c r="S26" s="45" t="s">
@@ -12448,7 +12795,7 @@
       </c>
     </row>
     <row r="27" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="B27" s="109"/>
+      <c r="B27" s="119"/>
       <c r="C27" s="45" t="s">
         <v>2</v>
       </c>
@@ -12496,7 +12843,7 @@
         <f t="shared" ref="N27:N30" si="4">AVERAGE(D27:M27)</f>
         <v>0.16820312499999998</v>
       </c>
-      <c r="R27" s="109"/>
+      <c r="R27" s="119"/>
       <c r="S27" s="45" t="s">
         <v>2</v>
       </c>
@@ -12536,7 +12883,7 @@
       </c>
     </row>
     <row r="28" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="B28" s="109"/>
+      <c r="B28" s="119"/>
       <c r="C28" s="45" t="s">
         <v>3</v>
       </c>
@@ -12584,7 +12931,7 @@
         <f t="shared" si="4"/>
         <v>0.37398437499999998</v>
       </c>
-      <c r="R28" s="109"/>
+      <c r="R28" s="119"/>
       <c r="S28" s="45" t="s">
         <v>3</v>
       </c>
@@ -12624,7 +12971,7 @@
       </c>
     </row>
     <row r="29" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="B29" s="109"/>
+      <c r="B29" s="119"/>
       <c r="C29" s="45" t="s">
         <v>52</v>
       </c>
@@ -12672,7 +13019,7 @@
         <f t="shared" si="4"/>
         <v>0.45929687499999999</v>
       </c>
-      <c r="R29" s="109"/>
+      <c r="R29" s="119"/>
       <c r="S29" s="45" t="s">
         <v>52</v>
       </c>
@@ -12712,7 +13059,7 @@
       </c>
     </row>
     <row r="30" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="B30" s="109"/>
+      <c r="B30" s="119"/>
       <c r="C30" s="45" t="s">
         <v>51</v>
       </c>
@@ -12760,7 +13107,7 @@
         <f t="shared" si="4"/>
         <v>0.50226562500000005</v>
       </c>
-      <c r="R30" s="109"/>
+      <c r="R30" s="119"/>
       <c r="S30" s="45" t="s">
         <v>51</v>
       </c>
@@ -12803,7 +13150,7 @@
       <c r="A31" t="s">
         <v>108</v>
       </c>
-      <c r="B31" s="109"/>
+      <c r="B31" s="119"/>
       <c r="C31" s="54" t="s">
         <v>69</v>
       </c>
@@ -12840,7 +13187,7 @@
       <c r="N31" s="55" t="s">
         <v>71</v>
       </c>
-      <c r="R31" s="109"/>
+      <c r="R31" s="119"/>
       <c r="S31" s="54" t="s">
         <v>69</v>
       </c>
@@ -12878,49 +13225,49 @@
         <v>71</v>
       </c>
     </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B34" s="106" t="s">
+    <row r="34" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="B34" s="111" t="s">
         <v>114</v>
       </c>
-      <c r="C34" s="106"/>
-      <c r="D34" s="107" t="s">
+      <c r="C34" s="111"/>
+      <c r="D34" s="112" t="s">
         <v>100</v>
       </c>
-      <c r="E34" s="107"/>
-      <c r="F34" s="107"/>
-      <c r="G34" s="107"/>
-      <c r="H34" s="107"/>
-      <c r="I34" s="107"/>
-      <c r="J34" s="107"/>
-      <c r="K34" s="107"/>
-      <c r="L34" s="107"/>
-      <c r="M34" s="107"/>
-      <c r="N34" s="103" t="s">
+      <c r="E34" s="112"/>
+      <c r="F34" s="112"/>
+      <c r="G34" s="112"/>
+      <c r="H34" s="112"/>
+      <c r="I34" s="112"/>
+      <c r="J34" s="112"/>
+      <c r="K34" s="112"/>
+      <c r="L34" s="112"/>
+      <c r="M34" s="112"/>
+      <c r="N34" s="113" t="s">
         <v>105</v>
       </c>
-      <c r="R34" s="106" t="s">
+      <c r="R34" s="111" t="s">
         <v>119</v>
       </c>
-      <c r="S34" s="106"/>
-      <c r="T34" s="107" t="s">
+      <c r="S34" s="111"/>
+      <c r="T34" s="112" t="s">
         <v>100</v>
       </c>
-      <c r="U34" s="107"/>
-      <c r="V34" s="107"/>
-      <c r="W34" s="107"/>
-      <c r="X34" s="107"/>
-      <c r="Y34" s="107"/>
-      <c r="Z34" s="107"/>
-      <c r="AA34" s="107"/>
-      <c r="AB34" s="107"/>
-      <c r="AC34" s="107"/>
-      <c r="AD34" s="103" t="s">
+      <c r="U34" s="112"/>
+      <c r="V34" s="112"/>
+      <c r="W34" s="112"/>
+      <c r="X34" s="112"/>
+      <c r="Y34" s="112"/>
+      <c r="Z34" s="112"/>
+      <c r="AA34" s="112"/>
+      <c r="AB34" s="112"/>
+      <c r="AC34" s="112"/>
+      <c r="AD34" s="113" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="35" spans="1:30" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="106"/>
-      <c r="C35" s="106"/>
+    <row r="35" spans="1:45" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="111"/>
+      <c r="C35" s="111"/>
       <c r="D35" s="45">
         <v>1</v>
       </c>
@@ -12951,9 +13298,9 @@
       <c r="M35" s="45">
         <v>10</v>
       </c>
-      <c r="N35" s="103"/>
-      <c r="R35" s="106"/>
-      <c r="S35" s="106"/>
+      <c r="N35" s="113"/>
+      <c r="R35" s="111"/>
+      <c r="S35" s="111"/>
       <c r="T35" s="45">
         <v>1</v>
       </c>
@@ -12984,10 +13331,10 @@
       <c r="AC35" s="45">
         <v>10</v>
       </c>
-      <c r="AD35" s="103"/>
-    </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B36" s="109" t="s">
+      <c r="AD35" s="113"/>
+    </row>
+    <row r="36" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="B36" s="119" t="s">
         <v>110</v>
       </c>
       <c r="C36" s="45" t="s">
@@ -13037,7 +13384,7 @@
         <f>AVERAGE(D36:M36)</f>
         <v>0.10200743494423789</v>
       </c>
-      <c r="R36" s="109" t="s">
+      <c r="R36" s="119" t="s">
         <v>110</v>
       </c>
       <c r="S36" s="45" t="s">
@@ -13078,8 +13425,8 @@
         <v>0.1336464</v>
       </c>
     </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B37" s="109"/>
+    <row r="37" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="B37" s="119"/>
       <c r="C37" s="45" t="s">
         <v>2</v>
       </c>
@@ -13127,7 +13474,7 @@
         <f t="shared" ref="N37:N40" si="6">AVERAGE(D37:M37)</f>
         <v>0.16988847583643124</v>
       </c>
-      <c r="R37" s="109"/>
+      <c r="R37" s="119"/>
       <c r="S37" s="45" t="s">
         <v>2</v>
       </c>
@@ -13166,8 +13513,8 @@
         <v>0.11642079999999999</v>
       </c>
     </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B38" s="109"/>
+    <row r="38" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="B38" s="119"/>
       <c r="C38" s="45" t="s">
         <v>3</v>
       </c>
@@ -13215,7 +13562,7 @@
         <f t="shared" si="6"/>
         <v>0.37724907063197022</v>
       </c>
-      <c r="R38" s="109"/>
+      <c r="R38" s="119"/>
       <c r="S38" s="45" t="s">
         <v>3</v>
       </c>
@@ -13254,8 +13601,8 @@
         <v>9.1741199999999995E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B39" s="109"/>
+    <row r="39" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="B39" s="119"/>
       <c r="C39" s="45" t="s">
         <v>52</v>
       </c>
@@ -13303,7 +13650,7 @@
         <f t="shared" si="6"/>
         <v>0.45933085501858739</v>
       </c>
-      <c r="R39" s="109"/>
+      <c r="R39" s="119"/>
       <c r="S39" s="45" t="s">
         <v>52</v>
       </c>
@@ -13342,8 +13689,8 @@
         <v>8.16828E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B40" s="109"/>
+    <row r="40" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="B40" s="119"/>
       <c r="C40" s="45" t="s">
         <v>51</v>
       </c>
@@ -13391,7 +13738,7 @@
         <f t="shared" si="6"/>
         <v>0.54542750929368033</v>
       </c>
-      <c r="R40" s="109"/>
+      <c r="R40" s="119"/>
       <c r="S40" s="45" t="s">
         <v>51</v>
       </c>
@@ -13430,11 +13777,11 @@
         <v>8.2377599999999995E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>108</v>
       </c>
-      <c r="B41" s="109"/>
+      <c r="B41" s="119"/>
       <c r="C41" s="54" t="s">
         <v>69</v>
       </c>
@@ -13471,7 +13818,7 @@
       <c r="N41" s="55" t="s">
         <v>71</v>
       </c>
-      <c r="R41" s="109"/>
+      <c r="R41" s="119"/>
       <c r="S41" s="54" t="s">
         <v>69</v>
       </c>
@@ -13509,49 +13856,51 @@
         <v>71</v>
       </c>
     </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B44" s="106" t="s">
+    <row r="44" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="111" t="s">
         <v>124</v>
       </c>
-      <c r="C44" s="106"/>
-      <c r="D44" s="107" t="s">
+      <c r="C44" s="111"/>
+      <c r="D44" s="112" t="s">
         <v>100</v>
       </c>
-      <c r="E44" s="107"/>
-      <c r="F44" s="107"/>
-      <c r="G44" s="107"/>
-      <c r="H44" s="107"/>
-      <c r="I44" s="107"/>
-      <c r="J44" s="107"/>
-      <c r="K44" s="107"/>
-      <c r="L44" s="107"/>
-      <c r="M44" s="107"/>
-      <c r="N44" s="103" t="s">
+      <c r="E44" s="112"/>
+      <c r="F44" s="112"/>
+      <c r="G44" s="112"/>
+      <c r="H44" s="112"/>
+      <c r="I44" s="112"/>
+      <c r="J44" s="112"/>
+      <c r="K44" s="112"/>
+      <c r="L44" s="112"/>
+      <c r="M44" s="112"/>
+      <c r="N44" s="113" t="s">
         <v>105</v>
       </c>
-      <c r="R44" s="106" t="s">
+      <c r="R44" s="111" t="s">
         <v>125</v>
       </c>
-      <c r="S44" s="106"/>
-      <c r="T44" s="107" t="s">
+      <c r="S44" s="111"/>
+      <c r="T44" s="112" t="s">
         <v>100</v>
       </c>
-      <c r="U44" s="107"/>
-      <c r="V44" s="107"/>
-      <c r="W44" s="107"/>
-      <c r="X44" s="107"/>
-      <c r="Y44" s="107"/>
-      <c r="Z44" s="107"/>
-      <c r="AA44" s="107"/>
-      <c r="AB44" s="107"/>
-      <c r="AC44" s="107"/>
-      <c r="AD44" s="103" t="s">
+      <c r="U44" s="112"/>
+      <c r="V44" s="112"/>
+      <c r="W44" s="112"/>
+      <c r="X44" s="112"/>
+      <c r="Y44" s="112"/>
+      <c r="Z44" s="112"/>
+      <c r="AA44" s="112"/>
+      <c r="AB44" s="112"/>
+      <c r="AC44" s="112"/>
+      <c r="AD44" s="113" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="45" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="106"/>
-      <c r="C45" s="106"/>
+      <c r="AG44" s="72"/>
+      <c r="AS44" s="117"/>
+    </row>
+    <row r="45" spans="1:45" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="111"/>
+      <c r="C45" s="111"/>
       <c r="D45" s="61">
         <v>1</v>
       </c>
@@ -13582,9 +13931,9 @@
       <c r="M45" s="61">
         <v>10</v>
       </c>
-      <c r="N45" s="103"/>
-      <c r="R45" s="106"/>
-      <c r="S45" s="106"/>
+      <c r="N45" s="113"/>
+      <c r="R45" s="111"/>
+      <c r="S45" s="111"/>
       <c r="T45" s="61">
         <v>1</v>
       </c>
@@ -13615,10 +13964,12 @@
       <c r="AC45" s="61">
         <v>10</v>
       </c>
-      <c r="AD45" s="103"/>
-    </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B46" s="109" t="s">
+      <c r="AD45" s="113"/>
+      <c r="AG45" s="72"/>
+      <c r="AS45" s="117"/>
+    </row>
+    <row r="46" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="119" t="s">
         <v>110</v>
       </c>
       <c r="C46" s="61" t="s">
@@ -13668,7 +14019,7 @@
         <f>AVERAGE(D46:M46)</f>
         <v>5.0641711229946505E-2</v>
       </c>
-      <c r="R46" s="109" t="s">
+      <c r="R46" s="119" t="s">
         <v>110</v>
       </c>
       <c r="S46" s="61" t="s">
@@ -13708,9 +14059,11 @@
         <f>AVERAGE(T46:AC46)</f>
         <v>0.19123519999999999</v>
       </c>
-    </row>
-    <row r="47" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B47" s="109"/>
+      <c r="AG46" s="73"/>
+      <c r="AS46" s="75"/>
+    </row>
+    <row r="47" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="B47" s="119"/>
       <c r="C47" s="61" t="s">
         <v>2</v>
       </c>
@@ -13758,7 +14111,7 @@
         <f t="shared" ref="N47:N49" si="8">AVERAGE(D47:M47)</f>
         <v>0.11176470588235295</v>
       </c>
-      <c r="R47" s="109"/>
+      <c r="R47" s="119"/>
       <c r="S47" s="61" t="s">
         <v>2</v>
       </c>
@@ -13796,9 +14149,11 @@
         <f t="shared" ref="AD47:AD49" si="9">AVERAGE(T47:AC47)</f>
         <v>0.1675944</v>
       </c>
-    </row>
-    <row r="48" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B48" s="109"/>
+      <c r="AG47" s="73"/>
+      <c r="AS47" s="75"/>
+    </row>
+    <row r="48" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="B48" s="119"/>
       <c r="C48" s="61" t="s">
         <v>3</v>
       </c>
@@ -13846,7 +14201,7 @@
         <f t="shared" si="8"/>
         <v>0.20358288770053479</v>
       </c>
-      <c r="R48" s="109"/>
+      <c r="R48" s="119"/>
       <c r="S48" s="61" t="s">
         <v>3</v>
       </c>
@@ -13884,9 +14239,11 @@
         <f t="shared" si="9"/>
         <v>0.14966200000000002</v>
       </c>
-    </row>
-    <row r="49" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B49" s="109"/>
+      <c r="AG48" s="73"/>
+      <c r="AS48" s="75"/>
+    </row>
+    <row r="49" spans="2:45" x14ac:dyDescent="0.25">
+      <c r="B49" s="119"/>
       <c r="C49" s="61" t="s">
         <v>52</v>
       </c>
@@ -13934,7 +14291,7 @@
         <f t="shared" si="8"/>
         <v>0.27796791443850272</v>
       </c>
-      <c r="R49" s="109"/>
+      <c r="R49" s="119"/>
       <c r="S49" s="61" t="s">
         <v>52</v>
       </c>
@@ -13972,9 +14329,22 @@
         <f t="shared" si="9"/>
         <v>0.14012160000000001</v>
       </c>
-    </row>
-    <row r="50" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B50" s="109"/>
+      <c r="AG49" s="73"/>
+      <c r="AH49" s="74"/>
+      <c r="AI49" s="75"/>
+      <c r="AJ49" s="75"/>
+      <c r="AK49" s="75"/>
+      <c r="AL49" s="75"/>
+      <c r="AM49" s="75"/>
+      <c r="AN49" s="75"/>
+      <c r="AO49" s="75"/>
+      <c r="AP49" s="75"/>
+      <c r="AQ49" s="75"/>
+      <c r="AR49" s="75"/>
+      <c r="AS49" s="75"/>
+    </row>
+    <row r="50" spans="2:45" x14ac:dyDescent="0.25">
+      <c r="B50" s="119"/>
       <c r="C50" s="54" t="s">
         <v>51</v>
       </c>
@@ -14011,7 +14381,7 @@
       <c r="N50" s="55" t="s">
         <v>71</v>
       </c>
-      <c r="R50" s="109"/>
+      <c r="R50" s="119"/>
       <c r="S50" s="54" t="s">
         <v>51</v>
       </c>
@@ -14048,9 +14418,22 @@
       <c r="AD50" s="63" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="51" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B51" s="109"/>
+      <c r="AG50" s="73"/>
+      <c r="AH50" s="74"/>
+      <c r="AI50" s="75"/>
+      <c r="AJ50" s="75"/>
+      <c r="AK50" s="75"/>
+      <c r="AL50" s="75"/>
+      <c r="AM50" s="75"/>
+      <c r="AN50" s="75"/>
+      <c r="AO50" s="75"/>
+      <c r="AP50" s="75"/>
+      <c r="AQ50" s="75"/>
+      <c r="AR50" s="75"/>
+      <c r="AS50" s="75"/>
+    </row>
+    <row r="51" spans="2:45" x14ac:dyDescent="0.25">
+      <c r="B51" s="119"/>
       <c r="C51" s="54" t="s">
         <v>69</v>
       </c>
@@ -14087,7 +14470,7 @@
       <c r="N51" s="55" t="s">
         <v>71</v>
       </c>
-      <c r="R51" s="109"/>
+      <c r="R51" s="119"/>
       <c r="S51" s="54" t="s">
         <v>69</v>
       </c>
@@ -14124,15 +14507,168 @@
       <c r="AD51" s="63" t="s">
         <v>71</v>
       </c>
+      <c r="AG51" s="73"/>
+      <c r="AH51" s="74"/>
+      <c r="AI51" s="75"/>
+      <c r="AJ51" s="75"/>
+      <c r="AK51" s="75"/>
+      <c r="AL51" s="75"/>
+      <c r="AM51" s="75"/>
+      <c r="AN51" s="75"/>
+      <c r="AO51" s="75"/>
+      <c r="AP51" s="75"/>
+      <c r="AQ51" s="75"/>
+      <c r="AR51" s="75"/>
+      <c r="AS51" s="75"/>
+    </row>
+    <row r="56" spans="2:45" x14ac:dyDescent="0.25">
+      <c r="AG56" s="121" t="s">
+        <v>144</v>
+      </c>
+      <c r="AH56" s="121"/>
+      <c r="AI56" s="121" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ56" s="121"/>
+      <c r="AK56" s="121"/>
+      <c r="AL56" s="121"/>
+      <c r="AM56" s="121"/>
+    </row>
+    <row r="57" spans="2:45" x14ac:dyDescent="0.25">
+      <c r="AG57" s="121"/>
+      <c r="AH57" s="121"/>
+      <c r="AI57" s="43" t="s">
+        <v>135</v>
+      </c>
+      <c r="AJ57" s="43" t="s">
+        <v>136</v>
+      </c>
+      <c r="AK57" s="43" t="s">
+        <v>137</v>
+      </c>
+      <c r="AL57" s="43" t="s">
+        <v>138</v>
+      </c>
+      <c r="AM57" s="43" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="58" spans="2:45" x14ac:dyDescent="0.25">
+      <c r="AG58" s="121" t="s">
+        <v>140</v>
+      </c>
+      <c r="AH58" s="121"/>
+      <c r="AI58" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ58" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK58" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="AL58" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM58" s="43" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="59" spans="2:45" x14ac:dyDescent="0.25">
+      <c r="AG59" s="120" t="s">
+        <v>141</v>
+      </c>
+      <c r="AH59" s="120"/>
+      <c r="AI59" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ59" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK59" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="AL59" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM59" s="43" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="60" spans="2:45" x14ac:dyDescent="0.25">
+      <c r="AG60" s="120" t="s">
+        <v>142</v>
+      </c>
+      <c r="AH60" s="120"/>
+      <c r="AI60" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ60" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK60" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="AL60" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM60" s="43" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="61" spans="2:45" x14ac:dyDescent="0.25">
+      <c r="AG61" s="120" t="s">
+        <v>143</v>
+      </c>
+      <c r="AH61" s="120"/>
+      <c r="AI61" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ61" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK61" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="AL61" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM61" s="43" t="s">
+        <v>70</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="46">
-    <mergeCell ref="AG4:AG5"/>
-    <mergeCell ref="AH4:AH5"/>
-    <mergeCell ref="AI4:AN4"/>
-    <mergeCell ref="AG14:AG15"/>
-    <mergeCell ref="AH14:AH15"/>
-    <mergeCell ref="AI14:AN14"/>
+  <mergeCells count="55">
+    <mergeCell ref="AG61:AH61"/>
+    <mergeCell ref="AG56:AH57"/>
+    <mergeCell ref="AG58:AH58"/>
+    <mergeCell ref="AI56:AM56"/>
+    <mergeCell ref="AG59:AH59"/>
+    <mergeCell ref="AG60:AH60"/>
+    <mergeCell ref="T44:AC44"/>
+    <mergeCell ref="AD44:AD45"/>
+    <mergeCell ref="R46:R51"/>
+    <mergeCell ref="B44:C45"/>
+    <mergeCell ref="D44:M44"/>
+    <mergeCell ref="N44:N45"/>
+    <mergeCell ref="B46:B51"/>
+    <mergeCell ref="R44:S45"/>
+    <mergeCell ref="R4:S5"/>
+    <mergeCell ref="T4:AC4"/>
+    <mergeCell ref="AD4:AD5"/>
+    <mergeCell ref="R6:R11"/>
+    <mergeCell ref="B14:C15"/>
+    <mergeCell ref="D14:M14"/>
+    <mergeCell ref="N14:N15"/>
+    <mergeCell ref="B4:C5"/>
+    <mergeCell ref="D4:M4"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="B6:B11"/>
+    <mergeCell ref="N24:N25"/>
+    <mergeCell ref="B26:B31"/>
+    <mergeCell ref="B34:C35"/>
+    <mergeCell ref="D34:M34"/>
+    <mergeCell ref="N34:N35"/>
     <mergeCell ref="T34:AC34"/>
     <mergeCell ref="AD34:AD35"/>
     <mergeCell ref="R36:R41"/>
@@ -14149,30 +14685,15 @@
     <mergeCell ref="B16:B21"/>
     <mergeCell ref="B24:C25"/>
     <mergeCell ref="D24:M24"/>
-    <mergeCell ref="N24:N25"/>
-    <mergeCell ref="B26:B31"/>
-    <mergeCell ref="B34:C35"/>
-    <mergeCell ref="D34:M34"/>
-    <mergeCell ref="N34:N35"/>
-    <mergeCell ref="R4:S5"/>
-    <mergeCell ref="T4:AC4"/>
-    <mergeCell ref="AD4:AD5"/>
-    <mergeCell ref="R6:R11"/>
-    <mergeCell ref="B14:C15"/>
-    <mergeCell ref="D14:M14"/>
-    <mergeCell ref="N14:N15"/>
-    <mergeCell ref="B4:C5"/>
-    <mergeCell ref="D4:M4"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="B6:B11"/>
-    <mergeCell ref="T44:AC44"/>
-    <mergeCell ref="AD44:AD45"/>
-    <mergeCell ref="R46:R51"/>
-    <mergeCell ref="B44:C45"/>
-    <mergeCell ref="D44:M44"/>
-    <mergeCell ref="N44:N45"/>
-    <mergeCell ref="B46:B51"/>
-    <mergeCell ref="R44:S45"/>
+    <mergeCell ref="AS44:AS45"/>
+    <mergeCell ref="AP6:AP15"/>
+    <mergeCell ref="AP5:AQ5"/>
+    <mergeCell ref="AG4:AG5"/>
+    <mergeCell ref="AH4:AH5"/>
+    <mergeCell ref="AI4:AN4"/>
+    <mergeCell ref="AG14:AG15"/>
+    <mergeCell ref="AH14:AH15"/>
+    <mergeCell ref="AI14:AN14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -14192,43 +14713,43 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="4" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B4" s="106" t="s">
+      <c r="B4" s="111" t="s">
         <v>120</v>
       </c>
-      <c r="C4" s="106"/>
-      <c r="D4" s="107" t="s">
+      <c r="C4" s="111"/>
+      <c r="D4" s="112" t="s">
         <v>100</v>
       </c>
-      <c r="E4" s="107"/>
-      <c r="F4" s="107"/>
-      <c r="G4" s="107"/>
-      <c r="H4" s="107"/>
-      <c r="I4" s="107"/>
-      <c r="J4" s="107"/>
-      <c r="K4" s="107"/>
-      <c r="L4" s="107"/>
-      <c r="M4" s="107"/>
-      <c r="N4" s="103" t="s">
+      <c r="E4" s="112"/>
+      <c r="F4" s="112"/>
+      <c r="G4" s="112"/>
+      <c r="H4" s="112"/>
+      <c r="I4" s="112"/>
+      <c r="J4" s="112"/>
+      <c r="K4" s="112"/>
+      <c r="L4" s="112"/>
+      <c r="M4" s="112"/>
+      <c r="N4" s="113" t="s">
         <v>105</v>
       </c>
-      <c r="Q4" s="103" t="s">
+      <c r="Q4" s="113" t="s">
         <v>59</v>
       </c>
-      <c r="R4" s="107" t="s">
+      <c r="R4" s="112" t="s">
         <v>109</v>
       </c>
-      <c r="S4" s="107" t="s">
+      <c r="S4" s="112" t="s">
         <v>110</v>
       </c>
-      <c r="T4" s="107"/>
-      <c r="U4" s="107"/>
-      <c r="V4" s="107"/>
-      <c r="W4" s="107"/>
-      <c r="X4" s="107"/>
+      <c r="T4" s="112"/>
+      <c r="U4" s="112"/>
+      <c r="V4" s="112"/>
+      <c r="W4" s="112"/>
+      <c r="X4" s="112"/>
     </row>
     <row r="5" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="106"/>
-      <c r="C5" s="106"/>
+      <c r="B5" s="111"/>
+      <c r="C5" s="111"/>
       <c r="D5" s="56">
         <v>1</v>
       </c>
@@ -14259,9 +14780,9 @@
       <c r="M5" s="56">
         <v>10</v>
       </c>
-      <c r="N5" s="103"/>
-      <c r="Q5" s="103"/>
-      <c r="R5" s="107"/>
+      <c r="N5" s="113"/>
+      <c r="Q5" s="113"/>
+      <c r="R5" s="112"/>
       <c r="S5" s="60" t="s">
         <v>1</v>
       </c>
@@ -14282,7 +14803,7 @@
       </c>
     </row>
     <row r="6" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B6" s="109" t="s">
+      <c r="B6" s="119" t="s">
         <v>110</v>
       </c>
       <c r="C6" s="56" t="s">
@@ -14354,7 +14875,7 @@
       </c>
     </row>
     <row r="7" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B7" s="109"/>
+      <c r="B7" s="119"/>
       <c r="C7" s="56" t="s">
         <v>2</v>
       </c>
@@ -14424,7 +14945,7 @@
       </c>
     </row>
     <row r="8" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B8" s="109"/>
+      <c r="B8" s="119"/>
       <c r="C8" s="56" t="s">
         <v>3</v>
       </c>
@@ -14494,7 +15015,7 @@
       </c>
     </row>
     <row r="9" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B9" s="109"/>
+      <c r="B9" s="119"/>
       <c r="C9" s="56" t="s">
         <v>52</v>
       </c>
@@ -14564,7 +15085,7 @@
       </c>
     </row>
     <row r="10" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B10" s="109"/>
+      <c r="B10" s="119"/>
       <c r="C10" s="56" t="s">
         <v>51</v>
       </c>
@@ -14634,7 +15155,7 @@
       </c>
     </row>
     <row r="11" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B11" s="109"/>
+      <c r="B11" s="119"/>
       <c r="C11" s="56" t="s">
         <v>69</v>
       </c>
@@ -14674,29 +15195,29 @@
       </c>
     </row>
     <row r="14" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B14" s="106" t="s">
+      <c r="B14" s="111" t="s">
         <v>121</v>
       </c>
-      <c r="C14" s="106"/>
-      <c r="D14" s="107" t="s">
+      <c r="C14" s="111"/>
+      <c r="D14" s="112" t="s">
         <v>100</v>
       </c>
-      <c r="E14" s="107"/>
-      <c r="F14" s="107"/>
-      <c r="G14" s="107"/>
-      <c r="H14" s="107"/>
-      <c r="I14" s="107"/>
-      <c r="J14" s="107"/>
-      <c r="K14" s="107"/>
-      <c r="L14" s="107"/>
-      <c r="M14" s="107"/>
-      <c r="N14" s="103" t="s">
+      <c r="E14" s="112"/>
+      <c r="F14" s="112"/>
+      <c r="G14" s="112"/>
+      <c r="H14" s="112"/>
+      <c r="I14" s="112"/>
+      <c r="J14" s="112"/>
+      <c r="K14" s="112"/>
+      <c r="L14" s="112"/>
+      <c r="M14" s="112"/>
+      <c r="N14" s="113" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="15" spans="2:24" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="106"/>
-      <c r="C15" s="106"/>
+      <c r="B15" s="111"/>
+      <c r="C15" s="111"/>
       <c r="D15" s="56">
         <v>1</v>
       </c>
@@ -14727,10 +15248,10 @@
       <c r="M15" s="56">
         <v>10</v>
       </c>
-      <c r="N15" s="103"/>
+      <c r="N15" s="113"/>
     </row>
     <row r="16" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B16" s="109" t="s">
+      <c r="B16" s="119" t="s">
         <v>110</v>
       </c>
       <c r="C16" s="56" t="s">
@@ -14772,7 +15293,7 @@
       </c>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B17" s="109"/>
+      <c r="B17" s="119"/>
       <c r="C17" s="56" t="s">
         <v>2</v>
       </c>
@@ -14812,7 +15333,7 @@
       </c>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B18" s="109"/>
+      <c r="B18" s="119"/>
       <c r="C18" s="56" t="s">
         <v>3</v>
       </c>
@@ -14852,7 +15373,7 @@
       </c>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B19" s="109"/>
+      <c r="B19" s="119"/>
       <c r="C19" s="56" t="s">
         <v>52</v>
       </c>
@@ -14892,7 +15413,7 @@
       </c>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B20" s="109"/>
+      <c r="B20" s="119"/>
       <c r="C20" s="56" t="s">
         <v>51</v>
       </c>
@@ -14932,7 +15453,7 @@
       </c>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B21" s="109"/>
+      <c r="B21" s="119"/>
       <c r="C21" s="56" t="s">
         <v>69</v>
       </c>
@@ -14972,29 +15493,29 @@
       </c>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B24" s="106" t="s">
+      <c r="B24" s="111" t="s">
         <v>122</v>
       </c>
-      <c r="C24" s="106"/>
-      <c r="D24" s="107" t="s">
+      <c r="C24" s="111"/>
+      <c r="D24" s="112" t="s">
         <v>100</v>
       </c>
-      <c r="E24" s="107"/>
-      <c r="F24" s="107"/>
-      <c r="G24" s="107"/>
-      <c r="H24" s="107"/>
-      <c r="I24" s="107"/>
-      <c r="J24" s="107"/>
-      <c r="K24" s="107"/>
-      <c r="L24" s="107"/>
-      <c r="M24" s="107"/>
-      <c r="N24" s="103" t="s">
+      <c r="E24" s="112"/>
+      <c r="F24" s="112"/>
+      <c r="G24" s="112"/>
+      <c r="H24" s="112"/>
+      <c r="I24" s="112"/>
+      <c r="J24" s="112"/>
+      <c r="K24" s="112"/>
+      <c r="L24" s="112"/>
+      <c r="M24" s="112"/>
+      <c r="N24" s="113" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="25" spans="2:14" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="106"/>
-      <c r="C25" s="106"/>
+      <c r="B25" s="111"/>
+      <c r="C25" s="111"/>
       <c r="D25" s="56">
         <v>1</v>
       </c>
@@ -15025,10 +15546,10 @@
       <c r="M25" s="56">
         <v>10</v>
       </c>
-      <c r="N25" s="103"/>
+      <c r="N25" s="113"/>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B26" s="109" t="s">
+      <c r="B26" s="119" t="s">
         <v>110</v>
       </c>
       <c r="C26" s="56" t="s">
@@ -15070,7 +15591,7 @@
       </c>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B27" s="109"/>
+      <c r="B27" s="119"/>
       <c r="C27" s="56" t="s">
         <v>2</v>
       </c>
@@ -15110,7 +15631,7 @@
       </c>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B28" s="109"/>
+      <c r="B28" s="119"/>
       <c r="C28" s="56" t="s">
         <v>3</v>
       </c>
@@ -15150,7 +15671,7 @@
       </c>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B29" s="109"/>
+      <c r="B29" s="119"/>
       <c r="C29" s="56" t="s">
         <v>52</v>
       </c>
@@ -15190,7 +15711,7 @@
       </c>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B30" s="109"/>
+      <c r="B30" s="119"/>
       <c r="C30" s="56" t="s">
         <v>51</v>
       </c>
@@ -15230,7 +15751,7 @@
       </c>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B31" s="109"/>
+      <c r="B31" s="119"/>
       <c r="C31" s="54" t="s">
         <v>69</v>
       </c>
@@ -15269,29 +15790,29 @@
       </c>
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B34" s="106" t="s">
+      <c r="B34" s="111" t="s">
         <v>123</v>
       </c>
-      <c r="C34" s="106"/>
-      <c r="D34" s="107" t="s">
+      <c r="C34" s="111"/>
+      <c r="D34" s="112" t="s">
         <v>100</v>
       </c>
-      <c r="E34" s="107"/>
-      <c r="F34" s="107"/>
-      <c r="G34" s="107"/>
-      <c r="H34" s="107"/>
-      <c r="I34" s="107"/>
-      <c r="J34" s="107"/>
-      <c r="K34" s="107"/>
-      <c r="L34" s="107"/>
-      <c r="M34" s="107"/>
-      <c r="N34" s="103" t="s">
+      <c r="E34" s="112"/>
+      <c r="F34" s="112"/>
+      <c r="G34" s="112"/>
+      <c r="H34" s="112"/>
+      <c r="I34" s="112"/>
+      <c r="J34" s="112"/>
+      <c r="K34" s="112"/>
+      <c r="L34" s="112"/>
+      <c r="M34" s="112"/>
+      <c r="N34" s="113" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="35" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="106"/>
-      <c r="C35" s="106"/>
+      <c r="B35" s="111"/>
+      <c r="C35" s="111"/>
       <c r="D35" s="56">
         <v>1</v>
       </c>
@@ -15322,10 +15843,10 @@
       <c r="M35" s="56">
         <v>10</v>
       </c>
-      <c r="N35" s="103"/>
+      <c r="N35" s="113"/>
     </row>
     <row r="36" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B36" s="109" t="s">
+      <c r="B36" s="119" t="s">
         <v>110</v>
       </c>
       <c r="C36" s="56" t="s">
@@ -15367,7 +15888,7 @@
       </c>
     </row>
     <row r="37" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B37" s="109"/>
+      <c r="B37" s="119"/>
       <c r="C37" s="56" t="s">
         <v>2</v>
       </c>
@@ -15407,7 +15928,7 @@
       </c>
     </row>
     <row r="38" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B38" s="109"/>
+      <c r="B38" s="119"/>
       <c r="C38" s="56" t="s">
         <v>3</v>
       </c>
@@ -15447,7 +15968,7 @@
       </c>
     </row>
     <row r="39" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B39" s="109"/>
+      <c r="B39" s="119"/>
       <c r="C39" s="56" t="s">
         <v>52</v>
       </c>
@@ -15487,7 +16008,7 @@
       </c>
     </row>
     <row r="40" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B40" s="109"/>
+      <c r="B40" s="119"/>
       <c r="C40" s="56" t="s">
         <v>51</v>
       </c>
@@ -15527,7 +16048,7 @@
       </c>
     </row>
     <row r="41" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B41" s="109"/>
+      <c r="B41" s="119"/>
       <c r="C41" s="54" t="s">
         <v>69</v>
       </c>
@@ -15566,29 +16087,29 @@
       </c>
     </row>
     <row r="44" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B44" s="106" t="s">
+      <c r="B44" s="111" t="s">
         <v>126</v>
       </c>
-      <c r="C44" s="106"/>
-      <c r="D44" s="107" t="s">
+      <c r="C44" s="111"/>
+      <c r="D44" s="112" t="s">
         <v>100</v>
       </c>
-      <c r="E44" s="107"/>
-      <c r="F44" s="107"/>
-      <c r="G44" s="107"/>
-      <c r="H44" s="107"/>
-      <c r="I44" s="107"/>
-      <c r="J44" s="107"/>
-      <c r="K44" s="107"/>
-      <c r="L44" s="107"/>
-      <c r="M44" s="107"/>
-      <c r="N44" s="103" t="s">
+      <c r="E44" s="112"/>
+      <c r="F44" s="112"/>
+      <c r="G44" s="112"/>
+      <c r="H44" s="112"/>
+      <c r="I44" s="112"/>
+      <c r="J44" s="112"/>
+      <c r="K44" s="112"/>
+      <c r="L44" s="112"/>
+      <c r="M44" s="112"/>
+      <c r="N44" s="113" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="45" spans="2:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="106"/>
-      <c r="C45" s="106"/>
+      <c r="B45" s="111"/>
+      <c r="C45" s="111"/>
       <c r="D45" s="62">
         <v>1</v>
       </c>
@@ -15619,10 +16140,10 @@
       <c r="M45" s="62">
         <v>10</v>
       </c>
-      <c r="N45" s="103"/>
+      <c r="N45" s="113"/>
     </row>
     <row r="46" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B46" s="109" t="s">
+      <c r="B46" s="119" t="s">
         <v>110</v>
       </c>
       <c r="C46" s="62" t="s">
@@ -15664,7 +16185,7 @@
       </c>
     </row>
     <row r="47" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B47" s="109"/>
+      <c r="B47" s="119"/>
       <c r="C47" s="62" t="s">
         <v>2</v>
       </c>
@@ -15704,7 +16225,7 @@
       </c>
     </row>
     <row r="48" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B48" s="109"/>
+      <c r="B48" s="119"/>
       <c r="C48" s="62" t="s">
         <v>3</v>
       </c>
@@ -15744,7 +16265,7 @@
       </c>
     </row>
     <row r="49" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B49" s="109"/>
+      <c r="B49" s="119"/>
       <c r="C49" s="62" t="s">
         <v>52</v>
       </c>
@@ -15784,7 +16305,7 @@
       </c>
     </row>
     <row r="50" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B50" s="109"/>
+      <c r="B50" s="119"/>
       <c r="C50" s="54" t="s">
         <v>51</v>
       </c>
@@ -15823,7 +16344,7 @@
       </c>
     </row>
     <row r="51" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B51" s="109"/>
+      <c r="B51" s="119"/>
       <c r="C51" s="54" t="s">
         <v>69</v>
       </c>
@@ -15863,6 +16384,13 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="D34:M34"/>
+    <mergeCell ref="N34:N35"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:X4"/>
+    <mergeCell ref="B4:C5"/>
+    <mergeCell ref="D4:M4"/>
+    <mergeCell ref="N4:N5"/>
     <mergeCell ref="B44:C45"/>
     <mergeCell ref="D44:M44"/>
     <mergeCell ref="N44:N45"/>
@@ -15879,13 +16407,6 @@
     <mergeCell ref="N24:N25"/>
     <mergeCell ref="B26:B31"/>
     <mergeCell ref="B34:C35"/>
-    <mergeCell ref="D34:M34"/>
-    <mergeCell ref="N34:N35"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:X4"/>
-    <mergeCell ref="B4:C5"/>
-    <mergeCell ref="D4:M4"/>
-    <mergeCell ref="N4:N5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -15895,8 +16416,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B6:R38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D30" sqref="D30:H30"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="U7" sqref="U7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15966,7 +16487,7 @@
       </c>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B8" s="112">
+      <c r="B8" s="132">
         <v>584</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -15987,7 +16508,7 @@
       <c r="H8" s="1">
         <v>8.0800000000000004E-3</v>
       </c>
-      <c r="L8" s="113">
+      <c r="L8" s="122">
         <v>584</v>
       </c>
       <c r="M8" s="1" t="s">
@@ -16010,7 +16531,7 @@
       </c>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B9" s="112"/>
+      <c r="B9" s="132"/>
       <c r="C9" s="1" t="s">
         <v>68</v>
       </c>
@@ -16029,7 +16550,7 @@
       <c r="H9" s="1">
         <v>4.5935999999999998E-2</v>
       </c>
-      <c r="L9" s="114"/>
+      <c r="L9" s="123"/>
       <c r="M9" s="1" t="s">
         <v>65</v>
       </c>
@@ -16055,7 +16576,7 @@
       </c>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B10" s="110">
+      <c r="B10" s="133">
         <v>980</v>
       </c>
       <c r="C10" s="16" t="s">
@@ -16076,7 +16597,7 @@
       <c r="H10" s="16">
         <v>1.2456E-2</v>
       </c>
-      <c r="L10" s="114"/>
+      <c r="L10" s="123"/>
       <c r="M10" s="1" t="s">
         <v>61</v>
       </c>
@@ -16097,7 +16618,7 @@
       </c>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B11" s="110"/>
+      <c r="B11" s="133"/>
       <c r="C11" s="16" t="s">
         <v>68</v>
       </c>
@@ -16116,7 +16637,7 @@
       <c r="H11" s="16">
         <v>6.3119999999999996E-2</v>
       </c>
-      <c r="L11" s="115"/>
+      <c r="L11" s="124"/>
       <c r="M11" s="1" t="s">
         <v>66</v>
       </c>
@@ -16142,7 +16663,7 @@
       </c>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B12" s="107">
+      <c r="B12" s="112">
         <v>1280</v>
       </c>
       <c r="C12" s="4" t="s">
@@ -16163,7 +16684,7 @@
       <c r="H12" s="4">
         <v>1.5299999999999999E-2</v>
       </c>
-      <c r="L12" s="116">
+      <c r="L12" s="125">
         <v>980</v>
       </c>
       <c r="M12" s="16" t="s">
@@ -16186,7 +16707,7 @@
       </c>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B13" s="107"/>
+      <c r="B13" s="112"/>
       <c r="C13" s="4" t="s">
         <v>68</v>
       </c>
@@ -16205,7 +16726,7 @@
       <c r="H13" s="4">
         <v>6.6844000000000001E-2</v>
       </c>
-      <c r="L13" s="117"/>
+      <c r="L13" s="126"/>
       <c r="M13" s="16" t="s">
         <v>66</v>
       </c>
@@ -16231,7 +16752,7 @@
       </c>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B14" s="111">
+      <c r="B14" s="131">
         <v>1345</v>
       </c>
       <c r="C14" s="7" t="s">
@@ -16252,7 +16773,7 @@
       <c r="H14" s="7">
         <v>1.5807999999999999E-2</v>
       </c>
-      <c r="L14" s="117"/>
+      <c r="L14" s="126"/>
       <c r="M14" s="16" t="s">
         <v>61</v>
       </c>
@@ -16273,7 +16794,7 @@
       </c>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B15" s="111"/>
+      <c r="B15" s="131"/>
       <c r="C15" s="7" t="s">
         <v>68</v>
       </c>
@@ -16292,7 +16813,7 @@
       <c r="H15" s="7">
         <v>6.7227999999999996E-2</v>
       </c>
-      <c r="L15" s="118"/>
+      <c r="L15" s="127"/>
       <c r="M15" s="16" t="s">
         <v>66</v>
       </c>
@@ -16318,7 +16839,7 @@
       </c>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="L16" s="119">
+      <c r="L16" s="128">
         <v>1280</v>
       </c>
       <c r="M16" s="4" t="s">
@@ -16341,7 +16862,7 @@
       </c>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="L17" s="120"/>
+      <c r="L17" s="129"/>
       <c r="M17" s="4" t="s">
         <v>65</v>
       </c>
@@ -16367,7 +16888,7 @@
       </c>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="L18" s="120"/>
+      <c r="L18" s="129"/>
       <c r="M18" s="4" t="s">
         <v>61</v>
       </c>
@@ -16388,7 +16909,7 @@
       </c>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="L19" s="121"/>
+      <c r="L19" s="130"/>
       <c r="M19" s="4" t="s">
         <v>65</v>
       </c>
@@ -16414,7 +16935,7 @@
       </c>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="L20" s="111">
+      <c r="L20" s="131">
         <v>1345</v>
       </c>
       <c r="M20" s="7" t="s">
@@ -16437,7 +16958,7 @@
       </c>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="L21" s="111"/>
+      <c r="L21" s="131"/>
       <c r="M21" s="7" t="s">
         <v>65</v>
       </c>
@@ -16463,7 +16984,7 @@
       </c>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="L22" s="111"/>
+      <c r="L22" s="131"/>
       <c r="M22" s="7" t="s">
         <v>61</v>
       </c>
@@ -16484,7 +17005,7 @@
       </c>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="L23" s="111"/>
+      <c r="L23" s="131"/>
       <c r="M23" s="7" t="s">
         <v>65</v>
       </c>
@@ -16538,7 +17059,7 @@
       </c>
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B31" s="112">
+      <c r="B31" s="132">
         <v>584</v>
       </c>
       <c r="C31" s="1" t="s">
@@ -16561,7 +17082,7 @@
       </c>
     </row>
     <row r="32" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B32" s="112"/>
+      <c r="B32" s="132"/>
       <c r="C32" s="1" t="s">
         <v>68</v>
       </c>
@@ -16582,7 +17103,7 @@
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B33" s="110">
+      <c r="B33" s="133">
         <v>980</v>
       </c>
       <c r="C33" s="16" t="s">
@@ -16605,7 +17126,7 @@
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B34" s="110"/>
+      <c r="B34" s="133"/>
       <c r="C34" s="16" t="s">
         <v>68</v>
       </c>
@@ -16626,7 +17147,7 @@
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B35" s="107">
+      <c r="B35" s="112">
         <v>1280</v>
       </c>
       <c r="C35" s="4" t="s">
@@ -16649,7 +17170,7 @@
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B36" s="107"/>
+      <c r="B36" s="112"/>
       <c r="C36" s="4" t="s">
         <v>68</v>
       </c>
@@ -16670,7 +17191,7 @@
       </c>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B37" s="111">
+      <c r="B37" s="131">
         <v>1345</v>
       </c>
       <c r="C37" s="7" t="s">
@@ -16693,7 +17214,7 @@
       </c>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B38" s="111"/>
+      <c r="B38" s="131"/>
       <c r="C38" s="7" t="s">
         <v>68</v>
       </c>
@@ -16715,11 +17236,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="L8:L11"/>
-    <mergeCell ref="L12:L15"/>
-    <mergeCell ref="L16:L19"/>
-    <mergeCell ref="L20:L23"/>
-    <mergeCell ref="B31:B32"/>
     <mergeCell ref="B33:B34"/>
     <mergeCell ref="B35:B36"/>
     <mergeCell ref="B37:B38"/>
@@ -16727,6 +17243,11 @@
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="B14:B15"/>
+    <mergeCell ref="L8:L11"/>
+    <mergeCell ref="L12:L15"/>
+    <mergeCell ref="L16:L19"/>
+    <mergeCell ref="L20:L23"/>
+    <mergeCell ref="B31:B32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -16752,7 +17273,7 @@
   </cols>
   <sheetData>
     <row r="5" spans="1:18" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="122" t="s">
+      <c r="A5" s="134" t="s">
         <v>73</v>
       </c>
       <c r="B5" s="32" t="s">
@@ -16778,7 +17299,7 @@
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="122"/>
+      <c r="A6" s="134"/>
       <c r="B6" s="33">
         <v>584</v>
       </c>
@@ -16802,7 +17323,7 @@
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="122"/>
+      <c r="A7" s="134"/>
       <c r="B7" s="33">
         <v>980</v>
       </c>
@@ -16826,7 +17347,7 @@
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="122"/>
+      <c r="A8" s="134"/>
       <c r="B8" s="33">
         <v>1280</v>
       </c>
@@ -16850,7 +17371,7 @@
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="122"/>
+      <c r="A9" s="134"/>
       <c r="B9" s="33">
         <v>1435</v>
       </c>
@@ -16874,7 +17395,7 @@
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="122"/>
+      <c r="A10" s="134"/>
       <c r="B10" s="33">
         <v>1640</v>
       </c>
@@ -16898,7 +17419,7 @@
       </c>
     </row>
     <row r="14" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="122" t="s">
+      <c r="A14" s="134" t="s">
         <v>72</v>
       </c>
       <c r="B14" s="32" t="s">
@@ -16924,7 +17445,7 @@
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="122"/>
+      <c r="A15" s="134"/>
       <c r="B15" s="33">
         <v>584</v>
       </c>
@@ -16936,7 +17457,7 @@
       <c r="H15" s="1"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="122"/>
+      <c r="A16" s="134"/>
       <c r="B16" s="33">
         <v>980</v>
       </c>
@@ -16946,11 +17467,11 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="5"/>
-      <c r="K16" s="123" t="s">
+      <c r="K16" s="135" t="s">
         <v>74</v>
       </c>
-      <c r="L16" s="123"/>
-      <c r="M16" s="123"/>
+      <c r="L16" s="135"/>
+      <c r="M16" s="135"/>
       <c r="P16" s="11" t="s">
         <v>80</v>
       </c>
@@ -16962,7 +17483,7 @@
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="122"/>
+      <c r="A17" s="134"/>
       <c r="B17" s="33">
         <v>1280</v>
       </c>
@@ -16992,7 +17513,7 @@
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="122"/>
+      <c r="A18" s="134"/>
       <c r="B18" s="33">
         <v>1435</v>
       </c>
@@ -17022,7 +17543,7 @@
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="122"/>
+      <c r="A19" s="134"/>
       <c r="B19" s="33">
         <v>1640</v>
       </c>

--- a/Data Hasil Uji Coba/Uji Coba.xlsx
+++ b/Data Hasil Uji Coba/Uji Coba.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{2220D8BF-217E-4058-9FCE-F588D456DF5E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{D1345571-090F-4A79-B327-E219DF105440}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Static Buffer" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="915" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="926" uniqueCount="171">
   <si>
     <t>0 x</t>
   </si>
@@ -867,7 +867,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="136">
+  <cellXfs count="137">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1055,32 +1055,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1118,25 +1115,31 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1157,12 +1160,6 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1172,8 +1169,23 @@
     <xf numFmtId="164" fontId="0" fillId="14" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="14" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1181,13 +1193,13 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1215,15 +1227,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3688,32 +3691,32 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="83" t="s">
+      <c r="A2" s="105" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83"/>
-      <c r="G2" s="83"/>
-      <c r="H2" s="83"/>
-      <c r="K2" s="83" t="s">
+      <c r="B2" s="105"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="105"/>
+      <c r="G2" s="105"/>
+      <c r="H2" s="105"/>
+      <c r="K2" s="105" t="s">
         <v>37</v>
       </c>
-      <c r="L2" s="83"/>
-      <c r="M2" s="83"/>
-      <c r="N2" s="83"/>
-      <c r="O2" s="83"/>
-      <c r="P2" s="83"/>
-      <c r="Q2" s="83"/>
-      <c r="R2" s="83"/>
+      <c r="L2" s="105"/>
+      <c r="M2" s="105"/>
+      <c r="N2" s="105"/>
+      <c r="O2" s="105"/>
+      <c r="P2" s="105"/>
+      <c r="Q2" s="105"/>
+      <c r="R2" s="105"/>
     </row>
     <row r="3" spans="1:18" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="103" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="85"/>
+      <c r="B3" s="104"/>
       <c r="C3" s="14"/>
       <c r="D3" s="15" t="s">
         <v>1</v>
@@ -3730,10 +3733,10 @@
       <c r="H3" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="84" t="s">
+      <c r="K3" s="103" t="s">
         <v>31</v>
       </c>
-      <c r="L3" s="85"/>
+      <c r="L3" s="104"/>
       <c r="M3" s="14"/>
       <c r="N3" s="15" t="s">
         <v>1</v>
@@ -3752,10 +3755,10 @@
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="86">
+      <c r="A4" s="85">
         <v>584</v>
       </c>
-      <c r="B4" s="87"/>
+      <c r="B4" s="86"/>
       <c r="C4" s="1" t="s">
         <v>30</v>
       </c>
@@ -3774,10 +3777,10 @@
       <c r="H4" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="86">
+      <c r="K4" s="85">
         <v>584</v>
       </c>
-      <c r="L4" s="87"/>
+      <c r="L4" s="86"/>
       <c r="M4" s="1" t="s">
         <v>30</v>
       </c>
@@ -3798,8 +3801,8 @@
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="88"/>
-      <c r="B5" s="89"/>
+      <c r="A5" s="87"/>
+      <c r="B5" s="88"/>
       <c r="C5" s="1" t="s">
         <v>21</v>
       </c>
@@ -3818,8 +3821,8 @@
       <c r="H5" s="1">
         <v>21</v>
       </c>
-      <c r="K5" s="88"/>
-      <c r="L5" s="89"/>
+      <c r="K5" s="87"/>
+      <c r="L5" s="88"/>
       <c r="M5" s="1" t="s">
         <v>21</v>
       </c>
@@ -3840,8 +3843,8 @@
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="88"/>
-      <c r="B6" s="89"/>
+      <c r="A6" s="87"/>
+      <c r="B6" s="88"/>
       <c r="C6" s="1" t="s">
         <v>33</v>
       </c>
@@ -3865,8 +3868,8 @@
         <f>($A$4-H5)/$A$4</f>
         <v>0.96404109589041098</v>
       </c>
-      <c r="K6" s="88"/>
-      <c r="L6" s="89"/>
+      <c r="K6" s="87"/>
+      <c r="L6" s="88"/>
       <c r="M6" s="1" t="s">
         <v>33</v>
       </c>
@@ -3892,8 +3895,8 @@
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="88"/>
-      <c r="B7" s="89"/>
+      <c r="A7" s="87"/>
+      <c r="B7" s="88"/>
       <c r="C7" s="1" t="s">
         <v>22</v>
       </c>
@@ -3912,8 +3915,8 @@
       <c r="H7" s="1">
         <v>427</v>
       </c>
-      <c r="K7" s="88"/>
-      <c r="L7" s="89"/>
+      <c r="K7" s="87"/>
+      <c r="L7" s="88"/>
       <c r="M7" s="1" t="s">
         <v>22</v>
       </c>
@@ -3934,8 +3937,8 @@
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="90"/>
-      <c r="B8" s="91"/>
+      <c r="A8" s="89"/>
+      <c r="B8" s="90"/>
       <c r="C8" s="1" t="s">
         <v>34</v>
       </c>
@@ -3959,8 +3962,8 @@
         <f>($A$4-H7)/$A$4</f>
         <v>0.26883561643835618</v>
       </c>
-      <c r="K8" s="90"/>
-      <c r="L8" s="91"/>
+      <c r="K8" s="89"/>
+      <c r="L8" s="90"/>
       <c r="M8" s="1" t="s">
         <v>34</v>
       </c>
@@ -3986,10 +3989,10 @@
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="92">
+      <c r="A9" s="91">
         <v>980</v>
       </c>
-      <c r="B9" s="93"/>
+      <c r="B9" s="92"/>
       <c r="C9" s="16" t="s">
         <v>30</v>
       </c>
@@ -4008,10 +4011,10 @@
       <c r="H9" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="K9" s="92">
+      <c r="K9" s="91">
         <v>980</v>
       </c>
-      <c r="L9" s="93"/>
+      <c r="L9" s="92"/>
       <c r="M9" s="16" t="s">
         <v>30</v>
       </c>
@@ -4032,8 +4035,8 @@
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="94"/>
-      <c r="B10" s="95"/>
+      <c r="A10" s="93"/>
+      <c r="B10" s="94"/>
       <c r="C10" s="16" t="s">
         <v>21</v>
       </c>
@@ -4052,8 +4055,8 @@
       <c r="H10" s="16">
         <v>33</v>
       </c>
-      <c r="K10" s="94"/>
-      <c r="L10" s="95"/>
+      <c r="K10" s="93"/>
+      <c r="L10" s="94"/>
       <c r="M10" s="16" t="s">
         <v>21</v>
       </c>
@@ -4074,8 +4077,8 @@
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="94"/>
-      <c r="B11" s="95"/>
+      <c r="A11" s="93"/>
+      <c r="B11" s="94"/>
       <c r="C11" s="16" t="s">
         <v>35</v>
       </c>
@@ -4099,8 +4102,8 @@
         <f>($A$9-H10)/$A$9</f>
         <v>0.96632653061224494</v>
       </c>
-      <c r="K11" s="94"/>
-      <c r="L11" s="95"/>
+      <c r="K11" s="93"/>
+      <c r="L11" s="94"/>
       <c r="M11" s="16" t="s">
         <v>35</v>
       </c>
@@ -4126,8 +4129,8 @@
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="94"/>
-      <c r="B12" s="95"/>
+      <c r="A12" s="93"/>
+      <c r="B12" s="94"/>
       <c r="C12" s="16" t="s">
         <v>22</v>
       </c>
@@ -4146,8 +4149,8 @@
       <c r="H12" s="16">
         <v>564</v>
       </c>
-      <c r="K12" s="94"/>
-      <c r="L12" s="95"/>
+      <c r="K12" s="93"/>
+      <c r="L12" s="94"/>
       <c r="M12" s="16" t="s">
         <v>22</v>
       </c>
@@ -4168,8 +4171,8 @@
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="96"/>
-      <c r="B13" s="97"/>
+      <c r="A13" s="95"/>
+      <c r="B13" s="96"/>
       <c r="C13" s="16" t="s">
         <v>34</v>
       </c>
@@ -4193,8 +4196,8 @@
         <f>($A$9-H12)/$A$9</f>
         <v>0.42448979591836733</v>
       </c>
-      <c r="K13" s="96"/>
-      <c r="L13" s="97"/>
+      <c r="K13" s="95"/>
+      <c r="L13" s="96"/>
       <c r="M13" s="16" t="s">
         <v>34</v>
       </c>
@@ -4220,10 +4223,10 @@
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="77">
+      <c r="A14" s="97">
         <v>1280</v>
       </c>
-      <c r="B14" s="78"/>
+      <c r="B14" s="98"/>
       <c r="C14" s="13" t="s">
         <v>30</v>
       </c>
@@ -4242,10 +4245,10 @@
       <c r="H14" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="77">
+      <c r="K14" s="97">
         <v>1280</v>
       </c>
-      <c r="L14" s="78"/>
+      <c r="L14" s="98"/>
       <c r="M14" s="13" t="s">
         <v>30</v>
       </c>
@@ -4266,8 +4269,8 @@
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="79"/>
-      <c r="B15" s="80"/>
+      <c r="A15" s="99"/>
+      <c r="B15" s="100"/>
       <c r="C15" s="4" t="s">
         <v>21</v>
       </c>
@@ -4284,8 +4287,8 @@
         <v>68</v>
       </c>
       <c r="H15" s="5"/>
-      <c r="K15" s="79"/>
-      <c r="L15" s="80"/>
+      <c r="K15" s="99"/>
+      <c r="L15" s="100"/>
       <c r="M15" s="4" t="s">
         <v>21</v>
       </c>
@@ -4306,8 +4309,8 @@
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="79"/>
-      <c r="B16" s="80"/>
+      <c r="A16" s="99"/>
+      <c r="B16" s="100"/>
       <c r="C16" s="4" t="s">
         <v>35</v>
       </c>
@@ -4331,8 +4334,8 @@
         <f>($A$14-H15)/$A$14</f>
         <v>1</v>
       </c>
-      <c r="K16" s="79"/>
-      <c r="L16" s="80"/>
+      <c r="K16" s="99"/>
+      <c r="L16" s="100"/>
       <c r="M16" s="4" t="s">
         <v>35</v>
       </c>
@@ -4358,8 +4361,8 @@
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="79"/>
-      <c r="B17" s="80"/>
+      <c r="A17" s="99"/>
+      <c r="B17" s="100"/>
       <c r="C17" s="4" t="s">
         <v>22</v>
       </c>
@@ -4376,8 +4379,8 @@
         <v>1120</v>
       </c>
       <c r="H17" s="5"/>
-      <c r="K17" s="79"/>
-      <c r="L17" s="80"/>
+      <c r="K17" s="99"/>
+      <c r="L17" s="100"/>
       <c r="M17" s="4" t="s">
         <v>22</v>
       </c>
@@ -4398,8 +4401,8 @@
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="81"/>
-      <c r="B18" s="82"/>
+      <c r="A18" s="101"/>
+      <c r="B18" s="102"/>
       <c r="C18" s="4" t="s">
         <v>34</v>
       </c>
@@ -4423,8 +4426,8 @@
         <f>($A$14-H17)/$A$14</f>
         <v>1</v>
       </c>
-      <c r="K18" s="81"/>
-      <c r="L18" s="82"/>
+      <c r="K18" s="101"/>
+      <c r="L18" s="102"/>
       <c r="M18" s="4" t="s">
         <v>34</v>
       </c>
@@ -4450,10 +4453,10 @@
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="98">
+      <c r="A19" s="78">
         <v>1345</v>
       </c>
-      <c r="B19" s="99"/>
+      <c r="B19" s="79"/>
       <c r="C19" s="7" t="s">
         <v>30</v>
       </c>
@@ -4472,10 +4475,10 @@
       <c r="H19" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="K19" s="98">
+      <c r="K19" s="78">
         <v>1345</v>
       </c>
-      <c r="L19" s="99"/>
+      <c r="L19" s="79"/>
       <c r="M19" s="7" t="s">
         <v>30</v>
       </c>
@@ -4496,8 +4499,8 @@
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="100"/>
-      <c r="B20" s="101"/>
+      <c r="A20" s="80"/>
+      <c r="B20" s="81"/>
       <c r="C20" s="7" t="s">
         <v>21</v>
       </c>
@@ -4514,8 +4517,8 @@
         <v>129</v>
       </c>
       <c r="H20" s="5"/>
-      <c r="K20" s="100"/>
-      <c r="L20" s="101"/>
+      <c r="K20" s="80"/>
+      <c r="L20" s="81"/>
       <c r="M20" s="7" t="s">
         <v>21</v>
       </c>
@@ -4536,8 +4539,8 @@
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21" s="100"/>
-      <c r="B21" s="101"/>
+      <c r="A21" s="80"/>
+      <c r="B21" s="81"/>
       <c r="C21" s="7" t="s">
         <v>35</v>
       </c>
@@ -4558,8 +4561,8 @@
         <v>0.90408921933085507</v>
       </c>
       <c r="H21" s="5"/>
-      <c r="K21" s="100"/>
-      <c r="L21" s="101"/>
+      <c r="K21" s="80"/>
+      <c r="L21" s="81"/>
       <c r="M21" s="7" t="s">
         <v>35</v>
       </c>
@@ -4585,8 +4588,8 @@
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A22" s="100"/>
-      <c r="B22" s="101"/>
+      <c r="A22" s="80"/>
+      <c r="B22" s="81"/>
       <c r="C22" s="7" t="s">
         <v>22</v>
       </c>
@@ -4603,8 +4606,8 @@
         <v>1182</v>
       </c>
       <c r="H22" s="5"/>
-      <c r="K22" s="100"/>
-      <c r="L22" s="101"/>
+      <c r="K22" s="80"/>
+      <c r="L22" s="81"/>
       <c r="M22" s="7" t="s">
         <v>22</v>
       </c>
@@ -4623,8 +4626,8 @@
       <c r="R22" s="5"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A23" s="102"/>
-      <c r="B23" s="103"/>
+      <c r="A23" s="82"/>
+      <c r="B23" s="83"/>
       <c r="C23" s="7" t="s">
         <v>34</v>
       </c>
@@ -4645,8 +4648,8 @@
         <v>0.12118959107806691</v>
       </c>
       <c r="H23" s="5"/>
-      <c r="K23" s="102"/>
-      <c r="L23" s="103"/>
+      <c r="K23" s="82"/>
+      <c r="L23" s="83"/>
       <c r="M23" s="7" t="s">
         <v>34</v>
       </c>
@@ -4669,10 +4672,10 @@
       <c r="R23" s="5"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="K24" s="104">
+      <c r="K24" s="84">
         <v>1640</v>
       </c>
-      <c r="L24" s="104"/>
+      <c r="L24" s="84"/>
       <c r="M24" s="24" t="s">
         <v>30</v>
       </c>
@@ -4693,10 +4696,10 @@
       </c>
     </row>
     <row r="28" spans="1:18" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="84" t="s">
+      <c r="A28" s="103" t="s">
         <v>31</v>
       </c>
-      <c r="B28" s="85"/>
+      <c r="B28" s="104"/>
       <c r="C28" s="14"/>
       <c r="D28" s="15" t="s">
         <v>1</v>
@@ -4713,10 +4716,10 @@
       <c r="H28" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="K28" s="84" t="s">
+      <c r="K28" s="103" t="s">
         <v>31</v>
       </c>
-      <c r="L28" s="85"/>
+      <c r="L28" s="104"/>
       <c r="M28" s="14"/>
       <c r="N28" s="15" t="s">
         <v>1</v>
@@ -4735,10 +4738,10 @@
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A29" s="86">
+      <c r="A29" s="85">
         <v>584</v>
       </c>
-      <c r="B29" s="87"/>
+      <c r="B29" s="86"/>
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -4758,10 +4761,10 @@
         <v>8.1119999999999994E-3</v>
       </c>
       <c r="J29" s="24"/>
-      <c r="K29" s="86">
+      <c r="K29" s="85">
         <v>584</v>
       </c>
-      <c r="L29" s="87"/>
+      <c r="L29" s="86"/>
       <c r="M29" s="1" t="s">
         <v>23</v>
       </c>
@@ -4782,8 +4785,8 @@
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A30" s="88"/>
-      <c r="B30" s="89"/>
+      <c r="A30" s="87"/>
+      <c r="B30" s="88"/>
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -4802,8 +4805,8 @@
       <c r="H30" s="1">
         <v>3.248E-3</v>
       </c>
-      <c r="K30" s="88"/>
-      <c r="L30" s="89"/>
+      <c r="K30" s="87"/>
+      <c r="L30" s="88"/>
       <c r="M30" s="1" t="s">
         <v>24</v>
       </c>
@@ -4824,8 +4827,8 @@
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A31" s="88"/>
-      <c r="B31" s="89"/>
+      <c r="A31" s="87"/>
+      <c r="B31" s="88"/>
       <c r="C31" s="19" t="s">
         <v>32</v>
       </c>
@@ -4849,8 +4852,8 @@
         <f t="shared" si="0"/>
         <v>1.1359999999999999E-2</v>
       </c>
-      <c r="K31" s="88"/>
-      <c r="L31" s="89"/>
+      <c r="K31" s="87"/>
+      <c r="L31" s="88"/>
       <c r="M31" s="19" t="s">
         <v>32</v>
       </c>
@@ -4876,8 +4879,8 @@
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A32" s="88"/>
-      <c r="B32" s="89"/>
+      <c r="A32" s="87"/>
+      <c r="B32" s="88"/>
       <c r="C32" s="1" t="s">
         <v>25</v>
       </c>
@@ -4897,8 +4900,8 @@
         <v>4.0691999999999999E-2</v>
       </c>
       <c r="J32" s="24"/>
-      <c r="K32" s="88"/>
-      <c r="L32" s="89"/>
+      <c r="K32" s="87"/>
+      <c r="L32" s="88"/>
       <c r="M32" s="1" t="s">
         <v>25</v>
       </c>
@@ -4919,8 +4922,8 @@
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A33" s="88"/>
-      <c r="B33" s="89"/>
+      <c r="A33" s="87"/>
+      <c r="B33" s="88"/>
       <c r="C33" s="1" t="s">
         <v>26</v>
       </c>
@@ -4939,8 +4942,8 @@
       <c r="H33" s="1">
         <v>1.7328E-2</v>
       </c>
-      <c r="K33" s="88"/>
-      <c r="L33" s="89"/>
+      <c r="K33" s="87"/>
+      <c r="L33" s="88"/>
       <c r="M33" s="1" t="s">
         <v>26</v>
       </c>
@@ -4961,8 +4964,8 @@
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A34" s="90"/>
-      <c r="B34" s="91"/>
+      <c r="A34" s="89"/>
+      <c r="B34" s="90"/>
       <c r="C34" s="19" t="s">
         <v>32</v>
       </c>
@@ -4986,8 +4989,8 @@
         <f t="shared" si="2"/>
         <v>5.8020000000000002E-2</v>
       </c>
-      <c r="K34" s="90"/>
-      <c r="L34" s="91"/>
+      <c r="K34" s="89"/>
+      <c r="L34" s="90"/>
       <c r="M34" s="19" t="s">
         <v>32</v>
       </c>
@@ -5013,10 +5016,10 @@
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A35" s="92">
+      <c r="A35" s="91">
         <v>980</v>
       </c>
-      <c r="B35" s="93"/>
+      <c r="B35" s="92"/>
       <c r="C35" s="16" t="s">
         <v>23</v>
       </c>
@@ -5036,10 +5039,10 @@
         <v>1.2716E-2</v>
       </c>
       <c r="J35" s="24"/>
-      <c r="K35" s="92">
+      <c r="K35" s="91">
         <v>980</v>
       </c>
-      <c r="L35" s="93"/>
+      <c r="L35" s="92"/>
       <c r="M35" s="16" t="s">
         <v>23</v>
       </c>
@@ -5060,8 +5063,8 @@
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A36" s="94"/>
-      <c r="B36" s="95"/>
+      <c r="A36" s="93"/>
+      <c r="B36" s="94"/>
       <c r="C36" s="16" t="s">
         <v>24</v>
       </c>
@@ -5080,8 +5083,8 @@
       <c r="H36" s="16">
         <v>5.1999999999999998E-3</v>
       </c>
-      <c r="K36" s="94"/>
-      <c r="L36" s="95"/>
+      <c r="K36" s="93"/>
+      <c r="L36" s="94"/>
       <c r="M36" s="16" t="s">
         <v>24</v>
       </c>
@@ -5102,8 +5105,8 @@
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A37" s="94"/>
-      <c r="B37" s="95"/>
+      <c r="A37" s="93"/>
+      <c r="B37" s="94"/>
       <c r="C37" s="19" t="s">
         <v>32</v>
       </c>
@@ -5127,8 +5130,8 @@
         <f t="shared" si="4"/>
         <v>1.7916000000000001E-2</v>
       </c>
-      <c r="K37" s="94"/>
-      <c r="L37" s="95"/>
+      <c r="K37" s="93"/>
+      <c r="L37" s="94"/>
       <c r="M37" s="19" t="s">
         <v>32</v>
       </c>
@@ -5154,8 +5157,8 @@
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A38" s="94"/>
-      <c r="B38" s="95"/>
+      <c r="A38" s="93"/>
+      <c r="B38" s="94"/>
       <c r="C38" s="16" t="s">
         <v>25</v>
       </c>
@@ -5175,8 +5178,8 @@
         <v>5.5975999999999998E-2</v>
       </c>
       <c r="J38" s="24"/>
-      <c r="K38" s="94"/>
-      <c r="L38" s="95"/>
+      <c r="K38" s="93"/>
+      <c r="L38" s="94"/>
       <c r="M38" s="16" t="s">
         <v>25</v>
       </c>
@@ -5197,8 +5200,8 @@
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A39" s="94"/>
-      <c r="B39" s="95"/>
+      <c r="A39" s="93"/>
+      <c r="B39" s="94"/>
       <c r="C39" s="16" t="s">
         <v>26</v>
       </c>
@@ -5217,8 +5220,8 @@
       <c r="H39" s="16">
         <v>2.3768000000000001E-2</v>
       </c>
-      <c r="K39" s="94"/>
-      <c r="L39" s="95"/>
+      <c r="K39" s="93"/>
+      <c r="L39" s="94"/>
       <c r="M39" s="16" t="s">
         <v>26</v>
       </c>
@@ -5239,8 +5242,8 @@
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A40" s="96"/>
-      <c r="B40" s="97"/>
+      <c r="A40" s="95"/>
+      <c r="B40" s="96"/>
       <c r="C40" s="19" t="s">
         <v>32</v>
       </c>
@@ -5264,8 +5267,8 @@
         <f t="shared" si="6"/>
         <v>7.9743999999999995E-2</v>
       </c>
-      <c r="K40" s="96"/>
-      <c r="L40" s="97"/>
+      <c r="K40" s="95"/>
+      <c r="L40" s="96"/>
       <c r="M40" s="19" t="s">
         <v>32</v>
       </c>
@@ -5291,10 +5294,10 @@
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A41" s="77">
+      <c r="A41" s="97">
         <v>1280</v>
       </c>
-      <c r="B41" s="78"/>
+      <c r="B41" s="98"/>
       <c r="C41" s="4" t="s">
         <v>23</v>
       </c>
@@ -5312,10 +5315,10 @@
       </c>
       <c r="H41" s="5"/>
       <c r="J41" s="24"/>
-      <c r="K41" s="77">
+      <c r="K41" s="97">
         <v>1280</v>
       </c>
-      <c r="L41" s="78"/>
+      <c r="L41" s="98"/>
       <c r="M41" s="4" t="s">
         <v>23</v>
       </c>
@@ -5336,8 +5339,8 @@
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A42" s="79"/>
-      <c r="B42" s="80"/>
+      <c r="A42" s="99"/>
+      <c r="B42" s="100"/>
       <c r="C42" s="4" t="s">
         <v>24</v>
       </c>
@@ -5354,8 +5357,8 @@
         <v>9.476E-3</v>
       </c>
       <c r="H42" s="5"/>
-      <c r="K42" s="79"/>
-      <c r="L42" s="80"/>
+      <c r="K42" s="99"/>
+      <c r="L42" s="100"/>
       <c r="M42" s="4" t="s">
         <v>24</v>
       </c>
@@ -5376,8 +5379,8 @@
       </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A43" s="79"/>
-      <c r="B43" s="80"/>
+      <c r="A43" s="99"/>
+      <c r="B43" s="100"/>
       <c r="C43" s="19" t="s">
         <v>32</v>
       </c>
@@ -5398,8 +5401,8 @@
         <v>2.7875999999999998E-2</v>
       </c>
       <c r="H43" s="5"/>
-      <c r="K43" s="79"/>
-      <c r="L43" s="80"/>
+      <c r="K43" s="99"/>
+      <c r="L43" s="100"/>
       <c r="M43" s="19" t="s">
         <v>32</v>
       </c>
@@ -5425,8 +5428,8 @@
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A44" s="79"/>
-      <c r="B44" s="80"/>
+      <c r="A44" s="99"/>
+      <c r="B44" s="100"/>
       <c r="C44" s="4" t="s">
         <v>25</v>
       </c>
@@ -5444,8 +5447,8 @@
       </c>
       <c r="H44" s="5"/>
       <c r="J44" s="24"/>
-      <c r="K44" s="79"/>
-      <c r="L44" s="80"/>
+      <c r="K44" s="99"/>
+      <c r="L44" s="100"/>
       <c r="M44" s="4" t="s">
         <v>25</v>
       </c>
@@ -5466,8 +5469,8 @@
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A45" s="79"/>
-      <c r="B45" s="80"/>
+      <c r="A45" s="99"/>
+      <c r="B45" s="100"/>
       <c r="C45" s="4" t="s">
         <v>26</v>
       </c>
@@ -5484,8 +5487,8 @@
         <v>4.3580000000000001E-2</v>
       </c>
       <c r="H45" s="5"/>
-      <c r="K45" s="79"/>
-      <c r="L45" s="80"/>
+      <c r="K45" s="99"/>
+      <c r="L45" s="100"/>
       <c r="M45" s="4" t="s">
         <v>26</v>
       </c>
@@ -5506,8 +5509,8 @@
       </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A46" s="81"/>
-      <c r="B46" s="82"/>
+      <c r="A46" s="101"/>
+      <c r="B46" s="102"/>
       <c r="C46" s="19" t="s">
         <v>32</v>
       </c>
@@ -5528,8 +5531,8 @@
         <v>0.146428</v>
       </c>
       <c r="H46" s="5"/>
-      <c r="K46" s="81"/>
-      <c r="L46" s="82"/>
+      <c r="K46" s="101"/>
+      <c r="L46" s="102"/>
       <c r="M46" s="19" t="s">
         <v>32</v>
       </c>
@@ -5555,10 +5558,10 @@
       </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A47" s="98">
+      <c r="A47" s="78">
         <v>1345</v>
       </c>
-      <c r="B47" s="99"/>
+      <c r="B47" s="79"/>
       <c r="C47" s="7" t="s">
         <v>23</v>
       </c>
@@ -5576,10 +5579,10 @@
       </c>
       <c r="H47" s="5"/>
       <c r="J47" s="24"/>
-      <c r="K47" s="98">
+      <c r="K47" s="78">
         <v>1345</v>
       </c>
-      <c r="L47" s="99"/>
+      <c r="L47" s="79"/>
       <c r="M47" s="7" t="s">
         <v>23</v>
       </c>
@@ -5600,8 +5603,8 @@
       </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A48" s="100"/>
-      <c r="B48" s="101"/>
+      <c r="A48" s="80"/>
+      <c r="B48" s="81"/>
       <c r="C48" s="7" t="s">
         <v>24</v>
       </c>
@@ -5618,8 +5621,8 @@
         <v>9.9319999999999999E-3</v>
       </c>
       <c r="H48" s="5"/>
-      <c r="K48" s="100"/>
-      <c r="L48" s="101"/>
+      <c r="K48" s="80"/>
+      <c r="L48" s="81"/>
       <c r="M48" s="7" t="s">
         <v>24</v>
       </c>
@@ -5638,8 +5641,8 @@
       <c r="R48" s="5"/>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A49" s="100"/>
-      <c r="B49" s="101"/>
+      <c r="A49" s="80"/>
+      <c r="B49" s="81"/>
       <c r="C49" s="19" t="s">
         <v>32</v>
       </c>
@@ -5660,8 +5663,8 @@
         <v>2.8931999999999999E-2</v>
       </c>
       <c r="H49" s="5"/>
-      <c r="K49" s="100"/>
-      <c r="L49" s="101"/>
+      <c r="K49" s="80"/>
+      <c r="L49" s="81"/>
       <c r="M49" s="19" t="s">
         <v>32</v>
       </c>
@@ -5684,8 +5687,8 @@
       <c r="R49" s="5"/>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A50" s="100"/>
-      <c r="B50" s="101"/>
+      <c r="A50" s="80"/>
+      <c r="B50" s="81"/>
       <c r="C50" s="7" t="s">
         <v>25</v>
       </c>
@@ -5703,8 +5706,8 @@
       </c>
       <c r="H50" s="5"/>
       <c r="J50" s="24"/>
-      <c r="K50" s="100"/>
-      <c r="L50" s="101"/>
+      <c r="K50" s="80"/>
+      <c r="L50" s="81"/>
       <c r="M50" s="7" t="s">
         <v>25</v>
       </c>
@@ -5723,8 +5726,8 @@
       <c r="R50" s="5"/>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A51" s="100"/>
-      <c r="B51" s="101"/>
+      <c r="A51" s="80"/>
+      <c r="B51" s="81"/>
       <c r="C51" s="7" t="s">
         <v>26</v>
       </c>
@@ -5741,8 +5744,8 @@
         <v>4.5887999999999998E-2</v>
       </c>
       <c r="H51" s="5"/>
-      <c r="K51" s="100"/>
-      <c r="L51" s="101"/>
+      <c r="K51" s="80"/>
+      <c r="L51" s="81"/>
       <c r="M51" s="7" t="s">
         <v>26</v>
       </c>
@@ -5761,8 +5764,8 @@
       <c r="R51" s="5"/>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A52" s="102"/>
-      <c r="B52" s="103"/>
+      <c r="A52" s="82"/>
+      <c r="B52" s="83"/>
       <c r="C52" s="19" t="s">
         <v>32</v>
       </c>
@@ -5783,8 +5786,8 @@
         <v>0.15465999999999999</v>
       </c>
       <c r="H52" s="5"/>
-      <c r="K52" s="102"/>
-      <c r="L52" s="103"/>
+      <c r="K52" s="82"/>
+      <c r="L52" s="83"/>
       <c r="M52" s="19" t="s">
         <v>32</v>
       </c>
@@ -5808,6 +5811,13 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="K41:L46"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="K2:R2"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="K4:L8"/>
+    <mergeCell ref="K9:L13"/>
+    <mergeCell ref="A3:B3"/>
     <mergeCell ref="K47:L52"/>
     <mergeCell ref="K24:L24"/>
     <mergeCell ref="A47:B52"/>
@@ -5824,13 +5834,6 @@
     <mergeCell ref="K28:L28"/>
     <mergeCell ref="K29:L34"/>
     <mergeCell ref="K35:L40"/>
-    <mergeCell ref="K41:L46"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="K2:R2"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="K4:L8"/>
-    <mergeCell ref="K9:L13"/>
-    <mergeCell ref="A3:B3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5868,32 +5871,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="105" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="83"/>
-      <c r="N1" s="83"/>
-      <c r="O1" s="83"/>
-      <c r="P1" s="83"/>
-      <c r="Q1" s="83"/>
-      <c r="R1" s="83"/>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
+      <c r="G1" s="105"/>
+      <c r="H1" s="105"/>
+      <c r="I1" s="105"/>
+      <c r="J1" s="105"/>
+      <c r="K1" s="105"/>
+      <c r="L1" s="105"/>
+      <c r="M1" s="105"/>
+      <c r="N1" s="105"/>
+      <c r="O1" s="105"/>
+      <c r="P1" s="105"/>
+      <c r="Q1" s="105"/>
+      <c r="R1" s="105"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="103" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="85"/>
+      <c r="B2" s="104"/>
       <c r="C2" s="14"/>
       <c r="D2" s="15" t="s">
         <v>1</v>
@@ -5945,10 +5948,10 @@
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="86">
+      <c r="A3" s="85">
         <v>584</v>
       </c>
-      <c r="B3" s="87"/>
+      <c r="B3" s="86"/>
       <c r="C3" s="1" t="s">
         <v>30</v>
       </c>
@@ -6002,8 +6005,8 @@
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="88"/>
-      <c r="B4" s="89"/>
+      <c r="A4" s="87"/>
+      <c r="B4" s="88"/>
       <c r="C4" s="1" t="s">
         <v>21</v>
       </c>
@@ -6057,8 +6060,8 @@
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="88"/>
-      <c r="B5" s="89"/>
+      <c r="A5" s="87"/>
+      <c r="B5" s="88"/>
       <c r="C5" s="1" t="s">
         <v>33</v>
       </c>
@@ -6128,8 +6131,8 @@
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="88"/>
-      <c r="B6" s="89"/>
+      <c r="A6" s="87"/>
+      <c r="B6" s="88"/>
       <c r="C6" s="1" t="s">
         <v>22</v>
       </c>
@@ -6183,8 +6186,8 @@
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="90"/>
-      <c r="B7" s="91"/>
+      <c r="A7" s="89"/>
+      <c r="B7" s="90"/>
       <c r="C7" s="1" t="s">
         <v>34</v>
       </c>
@@ -6254,10 +6257,10 @@
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="92">
+      <c r="A8" s="91">
         <v>980</v>
       </c>
-      <c r="B8" s="93"/>
+      <c r="B8" s="92"/>
       <c r="C8" s="16" t="s">
         <v>30</v>
       </c>
@@ -6308,8 +6311,8 @@
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="94"/>
-      <c r="B9" s="95"/>
+      <c r="A9" s="93"/>
+      <c r="B9" s="94"/>
       <c r="C9" s="16" t="s">
         <v>21</v>
       </c>
@@ -6363,8 +6366,8 @@
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="94"/>
-      <c r="B10" s="95"/>
+      <c r="A10" s="93"/>
+      <c r="B10" s="94"/>
       <c r="C10" s="16" t="s">
         <v>35</v>
       </c>
@@ -6430,8 +6433,8 @@
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="94"/>
-      <c r="B11" s="95"/>
+      <c r="A11" s="93"/>
+      <c r="B11" s="94"/>
       <c r="C11" s="16" t="s">
         <v>22</v>
       </c>
@@ -6485,8 +6488,8 @@
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="96"/>
-      <c r="B12" s="97"/>
+      <c r="A12" s="95"/>
+      <c r="B12" s="96"/>
       <c r="C12" s="16" t="s">
         <v>34</v>
       </c>
@@ -6552,10 +6555,10 @@
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="77">
+      <c r="A13" s="97">
         <v>1280</v>
       </c>
-      <c r="B13" s="78"/>
+      <c r="B13" s="98"/>
       <c r="C13" s="13" t="s">
         <v>30</v>
       </c>
@@ -6606,8 +6609,8 @@
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="79"/>
-      <c r="B14" s="80"/>
+      <c r="A14" s="99"/>
+      <c r="B14" s="100"/>
       <c r="C14" s="4" t="s">
         <v>21</v>
       </c>
@@ -6661,8 +6664,8 @@
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="79"/>
-      <c r="B15" s="80"/>
+      <c r="A15" s="99"/>
+      <c r="B15" s="100"/>
       <c r="C15" s="4" t="s">
         <v>35</v>
       </c>
@@ -6728,8 +6731,8 @@
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="79"/>
-      <c r="B16" s="80"/>
+      <c r="A16" s="99"/>
+      <c r="B16" s="100"/>
       <c r="C16" s="4" t="s">
         <v>22</v>
       </c>
@@ -6783,8 +6786,8 @@
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A17" s="81"/>
-      <c r="B17" s="82"/>
+      <c r="A17" s="101"/>
+      <c r="B17" s="102"/>
       <c r="C17" s="4" t="s">
         <v>34</v>
       </c>
@@ -6850,10 +6853,10 @@
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A18" s="98">
+      <c r="A18" s="78">
         <v>1345</v>
       </c>
-      <c r="B18" s="99"/>
+      <c r="B18" s="79"/>
       <c r="C18" s="7" t="s">
         <v>30</v>
       </c>
@@ -6907,8 +6910,8 @@
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A19" s="100"/>
-      <c r="B19" s="101"/>
+      <c r="A19" s="80"/>
+      <c r="B19" s="81"/>
       <c r="C19" s="7" t="s">
         <v>21</v>
       </c>
@@ -6965,8 +6968,8 @@
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A20" s="100"/>
-      <c r="B20" s="101"/>
+      <c r="A20" s="80"/>
+      <c r="B20" s="81"/>
       <c r="C20" s="7" t="s">
         <v>35</v>
       </c>
@@ -7032,8 +7035,8 @@
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A21" s="100"/>
-      <c r="B21" s="101"/>
+      <c r="A21" s="80"/>
+      <c r="B21" s="81"/>
       <c r="C21" s="7" t="s">
         <v>22</v>
       </c>
@@ -7087,8 +7090,8 @@
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A22" s="102"/>
-      <c r="B22" s="103"/>
+      <c r="A22" s="82"/>
+      <c r="B22" s="83"/>
       <c r="C22" s="7" t="s">
         <v>34</v>
       </c>
@@ -7154,10 +7157,10 @@
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A23" s="105">
+      <c r="A23" s="106">
         <v>1640</v>
       </c>
-      <c r="B23" s="106"/>
+      <c r="B23" s="107"/>
       <c r="C23" s="39" t="s">
         <v>30</v>
       </c>
@@ -7188,8 +7191,8 @@
       <c r="R23" s="40"/>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A24" s="107"/>
-      <c r="B24" s="108"/>
+      <c r="A24" s="108"/>
+      <c r="B24" s="109"/>
       <c r="C24" s="39" t="s">
         <v>21</v>
       </c>
@@ -7221,8 +7224,8 @@
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A25" s="107"/>
-      <c r="B25" s="108"/>
+      <c r="A25" s="108"/>
+      <c r="B25" s="109"/>
       <c r="C25" s="39" t="s">
         <v>35</v>
       </c>
@@ -7285,8 +7288,8 @@
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A26" s="107"/>
-      <c r="B26" s="108"/>
+      <c r="A26" s="108"/>
+      <c r="B26" s="109"/>
       <c r="C26" s="39" t="s">
         <v>22</v>
       </c>
@@ -7318,8 +7321,8 @@
       </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A27" s="109"/>
-      <c r="B27" s="110"/>
+      <c r="A27" s="110"/>
+      <c r="B27" s="111"/>
       <c r="C27" s="39" t="s">
         <v>34</v>
       </c>
@@ -7393,10 +7396,10 @@
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A33" s="84" t="s">
+      <c r="A33" s="103" t="s">
         <v>31</v>
       </c>
-      <c r="B33" s="85"/>
+      <c r="B33" s="104"/>
       <c r="C33" s="14"/>
       <c r="D33" s="15" t="s">
         <v>1</v>
@@ -7445,10 +7448,10 @@
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A34" s="86">
+      <c r="A34" s="85">
         <v>584</v>
       </c>
-      <c r="B34" s="87"/>
+      <c r="B34" s="86"/>
       <c r="C34" s="1" t="s">
         <v>23</v>
       </c>
@@ -7499,8 +7502,8 @@
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A35" s="88"/>
-      <c r="B35" s="89"/>
+      <c r="A35" s="87"/>
+      <c r="B35" s="88"/>
       <c r="C35" s="1" t="s">
         <v>24</v>
       </c>
@@ -7551,8 +7554,8 @@
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A36" s="88"/>
-      <c r="B36" s="89"/>
+      <c r="A36" s="87"/>
+      <c r="B36" s="88"/>
       <c r="C36" s="19" t="s">
         <v>32</v>
       </c>
@@ -7618,8 +7621,8 @@
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A37" s="88"/>
-      <c r="B37" s="89"/>
+      <c r="A37" s="87"/>
+      <c r="B37" s="88"/>
       <c r="C37" s="1" t="s">
         <v>25</v>
       </c>
@@ -7670,8 +7673,8 @@
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A38" s="88"/>
-      <c r="B38" s="89"/>
+      <c r="A38" s="87"/>
+      <c r="B38" s="88"/>
       <c r="C38" s="1" t="s">
         <v>26</v>
       </c>
@@ -7722,8 +7725,8 @@
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A39" s="90"/>
-      <c r="B39" s="91"/>
+      <c r="A39" s="89"/>
+      <c r="B39" s="90"/>
       <c r="C39" s="19" t="s">
         <v>32</v>
       </c>
@@ -7789,10 +7792,10 @@
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A40" s="92">
+      <c r="A40" s="91">
         <v>980</v>
       </c>
-      <c r="B40" s="93"/>
+      <c r="B40" s="92"/>
       <c r="C40" s="16" t="s">
         <v>23</v>
       </c>
@@ -7843,8 +7846,8 @@
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A41" s="94"/>
-      <c r="B41" s="95"/>
+      <c r="A41" s="93"/>
+      <c r="B41" s="94"/>
       <c r="C41" s="16" t="s">
         <v>24</v>
       </c>
@@ -7895,8 +7898,8 @@
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A42" s="94"/>
-      <c r="B42" s="95"/>
+      <c r="A42" s="93"/>
+      <c r="B42" s="94"/>
       <c r="C42" s="19" t="s">
         <v>32</v>
       </c>
@@ -7962,8 +7965,8 @@
       </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A43" s="94"/>
-      <c r="B43" s="95"/>
+      <c r="A43" s="93"/>
+      <c r="B43" s="94"/>
       <c r="C43" s="16" t="s">
         <v>25</v>
       </c>
@@ -8014,8 +8017,8 @@
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A44" s="94"/>
-      <c r="B44" s="95"/>
+      <c r="A44" s="93"/>
+      <c r="B44" s="94"/>
       <c r="C44" s="16" t="s">
         <v>26</v>
       </c>
@@ -8066,8 +8069,8 @@
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A45" s="96"/>
-      <c r="B45" s="97"/>
+      <c r="A45" s="95"/>
+      <c r="B45" s="96"/>
       <c r="C45" s="19" t="s">
         <v>32</v>
       </c>
@@ -8133,10 +8136,10 @@
       </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A46" s="77">
+      <c r="A46" s="97">
         <v>1280</v>
       </c>
-      <c r="B46" s="78"/>
+      <c r="B46" s="98"/>
       <c r="C46" s="4" t="s">
         <v>23</v>
       </c>
@@ -8187,8 +8190,8 @@
       </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A47" s="79"/>
-      <c r="B47" s="80"/>
+      <c r="A47" s="99"/>
+      <c r="B47" s="100"/>
       <c r="C47" s="4" t="s">
         <v>24</v>
       </c>
@@ -8239,8 +8242,8 @@
       </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A48" s="79"/>
-      <c r="B48" s="80"/>
+      <c r="A48" s="99"/>
+      <c r="B48" s="100"/>
       <c r="C48" s="19" t="s">
         <v>32</v>
       </c>
@@ -8306,8 +8309,8 @@
       </c>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A49" s="79"/>
-      <c r="B49" s="80"/>
+      <c r="A49" s="99"/>
+      <c r="B49" s="100"/>
       <c r="C49" s="4" t="s">
         <v>25</v>
       </c>
@@ -8358,8 +8361,8 @@
       </c>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A50" s="79"/>
-      <c r="B50" s="80"/>
+      <c r="A50" s="99"/>
+      <c r="B50" s="100"/>
       <c r="C50" s="4" t="s">
         <v>26</v>
       </c>
@@ -8410,8 +8413,8 @@
       </c>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A51" s="81"/>
-      <c r="B51" s="82"/>
+      <c r="A51" s="101"/>
+      <c r="B51" s="102"/>
       <c r="C51" s="19" t="s">
         <v>32</v>
       </c>
@@ -8477,10 +8480,10 @@
       </c>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A52" s="98">
+      <c r="A52" s="78">
         <v>1345</v>
       </c>
-      <c r="B52" s="99"/>
+      <c r="B52" s="79"/>
       <c r="C52" s="7" t="s">
         <v>23</v>
       </c>
@@ -8531,8 +8534,8 @@
       </c>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A53" s="100"/>
-      <c r="B53" s="101"/>
+      <c r="A53" s="80"/>
+      <c r="B53" s="81"/>
       <c r="C53" s="7" t="s">
         <v>24</v>
       </c>
@@ -8583,8 +8586,8 @@
       </c>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A54" s="100"/>
-      <c r="B54" s="101"/>
+      <c r="A54" s="80"/>
+      <c r="B54" s="81"/>
       <c r="C54" s="19" t="s">
         <v>32</v>
       </c>
@@ -8650,8 +8653,8 @@
       </c>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A55" s="100"/>
-      <c r="B55" s="101"/>
+      <c r="A55" s="80"/>
+      <c r="B55" s="81"/>
       <c r="C55" s="7" t="s">
         <v>25</v>
       </c>
@@ -8702,8 +8705,8 @@
       </c>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A56" s="100"/>
-      <c r="B56" s="101"/>
+      <c r="A56" s="80"/>
+      <c r="B56" s="81"/>
       <c r="C56" s="7" t="s">
         <v>26</v>
       </c>
@@ -8754,8 +8757,8 @@
       </c>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A57" s="102"/>
-      <c r="B57" s="103"/>
+      <c r="A57" s="82"/>
+      <c r="B57" s="83"/>
       <c r="C57" s="19" t="s">
         <v>32</v>
       </c>
@@ -9089,48 +9092,48 @@
       </c>
     </row>
     <row r="15" spans="3:33" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="111" t="s">
+      <c r="C15" s="115" t="s">
         <v>95</v>
       </c>
-      <c r="D15" s="111"/>
-      <c r="E15" s="112" t="s">
+      <c r="D15" s="115"/>
+      <c r="E15" s="116" t="s">
         <v>100</v>
       </c>
-      <c r="F15" s="112"/>
-      <c r="G15" s="112"/>
-      <c r="H15" s="112"/>
-      <c r="I15" s="112"/>
-      <c r="J15" s="112"/>
-      <c r="K15" s="112"/>
-      <c r="L15" s="112"/>
-      <c r="M15" s="112"/>
-      <c r="N15" s="112"/>
-      <c r="O15" s="113" t="s">
+      <c r="F15" s="116"/>
+      <c r="G15" s="116"/>
+      <c r="H15" s="116"/>
+      <c r="I15" s="116"/>
+      <c r="J15" s="116"/>
+      <c r="K15" s="116"/>
+      <c r="L15" s="116"/>
+      <c r="M15" s="116"/>
+      <c r="N15" s="116"/>
+      <c r="O15" s="112" t="s">
         <v>99</v>
       </c>
-      <c r="U15" s="111" t="s">
+      <c r="U15" s="115" t="s">
         <v>95</v>
       </c>
-      <c r="V15" s="111"/>
-      <c r="W15" s="112" t="s">
+      <c r="V15" s="115"/>
+      <c r="W15" s="116" t="s">
         <v>100</v>
       </c>
-      <c r="X15" s="112"/>
-      <c r="Y15" s="112"/>
-      <c r="Z15" s="112"/>
-      <c r="AA15" s="112"/>
-      <c r="AB15" s="112"/>
-      <c r="AC15" s="112"/>
-      <c r="AD15" s="112"/>
-      <c r="AE15" s="112"/>
-      <c r="AF15" s="112"/>
-      <c r="AG15" s="113" t="s">
+      <c r="X15" s="116"/>
+      <c r="Y15" s="116"/>
+      <c r="Z15" s="116"/>
+      <c r="AA15" s="116"/>
+      <c r="AB15" s="116"/>
+      <c r="AC15" s="116"/>
+      <c r="AD15" s="116"/>
+      <c r="AE15" s="116"/>
+      <c r="AF15" s="116"/>
+      <c r="AG15" s="112" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="16" spans="3:33" x14ac:dyDescent="0.25">
-      <c r="C16" s="111"/>
-      <c r="D16" s="111"/>
+      <c r="C16" s="115"/>
+      <c r="D16" s="115"/>
       <c r="E16" s="42">
         <v>1</v>
       </c>
@@ -9161,9 +9164,9 @@
       <c r="N16" s="42">
         <v>10</v>
       </c>
-      <c r="O16" s="113"/>
-      <c r="U16" s="111"/>
-      <c r="V16" s="111"/>
+      <c r="O16" s="112"/>
+      <c r="U16" s="115"/>
+      <c r="V16" s="115"/>
       <c r="W16" s="66">
         <v>1</v>
       </c>
@@ -9194,10 +9197,10 @@
       <c r="AF16" s="66">
         <v>10</v>
       </c>
-      <c r="AG16" s="113"/>
+      <c r="AG16" s="112"/>
     </row>
     <row r="17" spans="3:33" x14ac:dyDescent="0.25">
-      <c r="C17" s="113" t="s">
+      <c r="C17" s="112" t="s">
         <v>96</v>
       </c>
       <c r="D17" s="42" t="s">
@@ -9233,11 +9236,11 @@
       <c r="N17" s="43">
         <v>41</v>
       </c>
-      <c r="O17" s="114">
+      <c r="O17" s="113">
         <f>SUM(E17:N17)/410</f>
         <v>1</v>
       </c>
-      <c r="U17" s="113" t="s">
+      <c r="U17" s="112" t="s">
         <v>96</v>
       </c>
       <c r="V17" s="66" t="s">
@@ -9273,13 +9276,13 @@
       <c r="AF17" s="43">
         <v>41</v>
       </c>
-      <c r="AG17" s="114">
+      <c r="AG17" s="113">
         <f>SUM(W17:AF17)/410</f>
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="3:33" x14ac:dyDescent="0.25">
-      <c r="C18" s="113"/>
+      <c r="C18" s="112"/>
       <c r="D18" s="42" t="s">
         <v>98</v>
       </c>
@@ -9313,8 +9316,8 @@
       <c r="N18" s="43">
         <v>0</v>
       </c>
-      <c r="O18" s="115"/>
-      <c r="U18" s="113"/>
+      <c r="O18" s="114"/>
+      <c r="U18" s="112"/>
       <c r="V18" s="66" t="s">
         <v>98</v>
       </c>
@@ -9348,51 +9351,51 @@
       <c r="AF18" s="43">
         <v>0</v>
       </c>
-      <c r="AG18" s="115"/>
+      <c r="AG18" s="114"/>
     </row>
     <row r="21" spans="3:33" x14ac:dyDescent="0.25">
-      <c r="C21" s="111" t="s">
+      <c r="C21" s="115" t="s">
         <v>101</v>
       </c>
-      <c r="D21" s="111"/>
-      <c r="E21" s="112" t="s">
+      <c r="D21" s="115"/>
+      <c r="E21" s="116" t="s">
         <v>100</v>
       </c>
-      <c r="F21" s="112"/>
-      <c r="G21" s="112"/>
-      <c r="H21" s="112"/>
-      <c r="I21" s="112"/>
-      <c r="J21" s="112"/>
-      <c r="K21" s="112"/>
-      <c r="L21" s="112"/>
-      <c r="M21" s="112"/>
-      <c r="N21" s="112"/>
-      <c r="O21" s="113" t="s">
+      <c r="F21" s="116"/>
+      <c r="G21" s="116"/>
+      <c r="H21" s="116"/>
+      <c r="I21" s="116"/>
+      <c r="J21" s="116"/>
+      <c r="K21" s="116"/>
+      <c r="L21" s="116"/>
+      <c r="M21" s="116"/>
+      <c r="N21" s="116"/>
+      <c r="O21" s="112" t="s">
         <v>99</v>
       </c>
-      <c r="U21" s="111" t="s">
+      <c r="U21" s="115" t="s">
         <v>101</v>
       </c>
-      <c r="V21" s="111"/>
-      <c r="W21" s="112" t="s">
+      <c r="V21" s="115"/>
+      <c r="W21" s="116" t="s">
         <v>100</v>
       </c>
-      <c r="X21" s="112"/>
-      <c r="Y21" s="112"/>
-      <c r="Z21" s="112"/>
-      <c r="AA21" s="112"/>
-      <c r="AB21" s="112"/>
-      <c r="AC21" s="112"/>
-      <c r="AD21" s="112"/>
-      <c r="AE21" s="112"/>
-      <c r="AF21" s="112"/>
-      <c r="AG21" s="113" t="s">
+      <c r="X21" s="116"/>
+      <c r="Y21" s="116"/>
+      <c r="Z21" s="116"/>
+      <c r="AA21" s="116"/>
+      <c r="AB21" s="116"/>
+      <c r="AC21" s="116"/>
+      <c r="AD21" s="116"/>
+      <c r="AE21" s="116"/>
+      <c r="AF21" s="116"/>
+      <c r="AG21" s="112" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="22" spans="3:33" x14ac:dyDescent="0.25">
-      <c r="C22" s="111"/>
-      <c r="D22" s="111"/>
+      <c r="C22" s="115"/>
+      <c r="D22" s="115"/>
       <c r="E22" s="42">
         <v>1</v>
       </c>
@@ -9423,9 +9426,9 @@
       <c r="N22" s="42">
         <v>10</v>
       </c>
-      <c r="O22" s="113"/>
-      <c r="U22" s="111"/>
-      <c r="V22" s="111"/>
+      <c r="O22" s="112"/>
+      <c r="U22" s="115"/>
+      <c r="V22" s="115"/>
       <c r="W22" s="66">
         <v>1</v>
       </c>
@@ -9456,10 +9459,10 @@
       <c r="AF22" s="66">
         <v>10</v>
       </c>
-      <c r="AG22" s="113"/>
+      <c r="AG22" s="112"/>
     </row>
     <row r="23" spans="3:33" x14ac:dyDescent="0.25">
-      <c r="C23" s="113" t="s">
+      <c r="C23" s="112" t="s">
         <v>96</v>
       </c>
       <c r="D23" s="42" t="s">
@@ -9495,11 +9498,11 @@
       <c r="N23" s="35">
         <v>27</v>
       </c>
-      <c r="O23" s="114">
+      <c r="O23" s="113">
         <f>SUM(E23:N23)/410</f>
         <v>0.86829268292682926</v>
       </c>
-      <c r="U23" s="113" t="s">
+      <c r="U23" s="112" t="s">
         <v>96</v>
       </c>
       <c r="V23" s="66" t="s">
@@ -9535,13 +9538,13 @@
       <c r="AF23" s="43">
         <v>40</v>
       </c>
-      <c r="AG23" s="114">
+      <c r="AG23" s="113">
         <f>SUM(W23:AF23)/410</f>
         <v>0.92682926829268297</v>
       </c>
     </row>
     <row r="24" spans="3:33" x14ac:dyDescent="0.25">
-      <c r="C24" s="113"/>
+      <c r="C24" s="112"/>
       <c r="D24" s="42" t="s">
         <v>98</v>
       </c>
@@ -9575,8 +9578,8 @@
       <c r="N24" s="43">
         <v>14</v>
       </c>
-      <c r="O24" s="115"/>
-      <c r="U24" s="113"/>
+      <c r="O24" s="114"/>
+      <c r="U24" s="112"/>
       <c r="V24" s="66" t="s">
         <v>98</v>
       </c>
@@ -9610,51 +9613,51 @@
       <c r="AF24" s="43">
         <v>1</v>
       </c>
-      <c r="AG24" s="115"/>
+      <c r="AG24" s="114"/>
     </row>
     <row r="27" spans="3:33" x14ac:dyDescent="0.25">
-      <c r="C27" s="111" t="s">
+      <c r="C27" s="115" t="s">
         <v>102</v>
       </c>
-      <c r="D27" s="111"/>
-      <c r="E27" s="112" t="s">
+      <c r="D27" s="115"/>
+      <c r="E27" s="116" t="s">
         <v>100</v>
       </c>
-      <c r="F27" s="112"/>
-      <c r="G27" s="112"/>
-      <c r="H27" s="112"/>
-      <c r="I27" s="112"/>
-      <c r="J27" s="112"/>
-      <c r="K27" s="112"/>
-      <c r="L27" s="112"/>
-      <c r="M27" s="112"/>
-      <c r="N27" s="112"/>
-      <c r="O27" s="113" t="s">
+      <c r="F27" s="116"/>
+      <c r="G27" s="116"/>
+      <c r="H27" s="116"/>
+      <c r="I27" s="116"/>
+      <c r="J27" s="116"/>
+      <c r="K27" s="116"/>
+      <c r="L27" s="116"/>
+      <c r="M27" s="116"/>
+      <c r="N27" s="116"/>
+      <c r="O27" s="112" t="s">
         <v>99</v>
       </c>
-      <c r="U27" s="111" t="s">
+      <c r="U27" s="115" t="s">
         <v>102</v>
       </c>
-      <c r="V27" s="111"/>
-      <c r="W27" s="112" t="s">
+      <c r="V27" s="115"/>
+      <c r="W27" s="116" t="s">
         <v>100</v>
       </c>
-      <c r="X27" s="112"/>
-      <c r="Y27" s="112"/>
-      <c r="Z27" s="112"/>
-      <c r="AA27" s="112"/>
-      <c r="AB27" s="112"/>
-      <c r="AC27" s="112"/>
-      <c r="AD27" s="112"/>
-      <c r="AE27" s="112"/>
-      <c r="AF27" s="112"/>
-      <c r="AG27" s="113" t="s">
+      <c r="X27" s="116"/>
+      <c r="Y27" s="116"/>
+      <c r="Z27" s="116"/>
+      <c r="AA27" s="116"/>
+      <c r="AB27" s="116"/>
+      <c r="AC27" s="116"/>
+      <c r="AD27" s="116"/>
+      <c r="AE27" s="116"/>
+      <c r="AF27" s="116"/>
+      <c r="AG27" s="112" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="28" spans="3:33" x14ac:dyDescent="0.25">
-      <c r="C28" s="111"/>
-      <c r="D28" s="111"/>
+      <c r="C28" s="115"/>
+      <c r="D28" s="115"/>
       <c r="E28" s="42">
         <v>1</v>
       </c>
@@ -9685,9 +9688,9 @@
       <c r="N28" s="42">
         <v>10</v>
       </c>
-      <c r="O28" s="113"/>
-      <c r="U28" s="111"/>
-      <c r="V28" s="111"/>
+      <c r="O28" s="112"/>
+      <c r="U28" s="115"/>
+      <c r="V28" s="115"/>
       <c r="W28" s="66">
         <v>1</v>
       </c>
@@ -9718,10 +9721,10 @@
       <c r="AF28" s="66">
         <v>10</v>
       </c>
-      <c r="AG28" s="113"/>
+      <c r="AG28" s="112"/>
     </row>
     <row r="29" spans="3:33" x14ac:dyDescent="0.25">
-      <c r="C29" s="113" t="s">
+      <c r="C29" s="112" t="s">
         <v>96</v>
       </c>
       <c r="D29" s="42" t="s">
@@ -9757,11 +9760,11 @@
       <c r="N29" s="35">
         <v>29</v>
       </c>
-      <c r="O29" s="114">
+      <c r="O29" s="113">
         <f>SUM(E29:N29)/410</f>
         <v>0.69512195121951215</v>
       </c>
-      <c r="U29" s="113" t="s">
+      <c r="U29" s="112" t="s">
         <v>96</v>
       </c>
       <c r="V29" s="66" t="s">
@@ -9797,13 +9800,13 @@
       <c r="AF29" s="43">
         <v>30</v>
       </c>
-      <c r="AG29" s="114">
+      <c r="AG29" s="113">
         <f>SUM(W29:AF29)/410</f>
         <v>0.84146341463414631</v>
       </c>
     </row>
     <row r="30" spans="3:33" x14ac:dyDescent="0.25">
-      <c r="C30" s="113"/>
+      <c r="C30" s="112"/>
       <c r="D30" s="42" t="s">
         <v>98</v>
       </c>
@@ -9837,8 +9840,8 @@
       <c r="N30" s="43">
         <v>12</v>
       </c>
-      <c r="O30" s="115"/>
-      <c r="U30" s="113"/>
+      <c r="O30" s="114"/>
+      <c r="U30" s="112"/>
       <c r="V30" s="66" t="s">
         <v>98</v>
       </c>
@@ -9872,7 +9875,7 @@
       <c r="AF30" s="43">
         <v>11</v>
       </c>
-      <c r="AG30" s="115"/>
+      <c r="AG30" s="114"/>
     </row>
     <row r="33" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C33" s="46"/>
@@ -9921,6 +9924,26 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="U27:V28"/>
+    <mergeCell ref="W27:AF27"/>
+    <mergeCell ref="AG27:AG28"/>
+    <mergeCell ref="U29:U30"/>
+    <mergeCell ref="AG29:AG30"/>
+    <mergeCell ref="U21:V22"/>
+    <mergeCell ref="W21:AF21"/>
+    <mergeCell ref="AG21:AG22"/>
+    <mergeCell ref="U23:U24"/>
+    <mergeCell ref="AG23:AG24"/>
+    <mergeCell ref="U15:V16"/>
+    <mergeCell ref="W15:AF15"/>
+    <mergeCell ref="AG15:AG16"/>
+    <mergeCell ref="U17:U18"/>
+    <mergeCell ref="AG17:AG18"/>
+    <mergeCell ref="E15:N15"/>
+    <mergeCell ref="C15:D16"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="O17:O18"/>
     <mergeCell ref="C29:C30"/>
     <mergeCell ref="O29:O30"/>
     <mergeCell ref="C21:D22"/>
@@ -9931,26 +9954,6 @@
     <mergeCell ref="C27:D28"/>
     <mergeCell ref="E27:N27"/>
     <mergeCell ref="O27:O28"/>
-    <mergeCell ref="E15:N15"/>
-    <mergeCell ref="C15:D16"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="U15:V16"/>
-    <mergeCell ref="W15:AF15"/>
-    <mergeCell ref="AG15:AG16"/>
-    <mergeCell ref="U17:U18"/>
-    <mergeCell ref="AG17:AG18"/>
-    <mergeCell ref="U21:V22"/>
-    <mergeCell ref="W21:AF21"/>
-    <mergeCell ref="AG21:AG22"/>
-    <mergeCell ref="U23:U24"/>
-    <mergeCell ref="AG23:AG24"/>
-    <mergeCell ref="U27:V28"/>
-    <mergeCell ref="W27:AF27"/>
-    <mergeCell ref="AG27:AG28"/>
-    <mergeCell ref="U29:U30"/>
-    <mergeCell ref="AG29:AG30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9962,7 +9965,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{863E2203-BBD3-4582-9488-5B7EA02887EE}">
   <dimension ref="B4:U25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
@@ -9977,32 +9980,32 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:21" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="111" t="s">
+      <c r="B4" s="115" t="s">
         <v>95</v>
       </c>
-      <c r="C4" s="111"/>
-      <c r="D4" s="112" t="s">
+      <c r="C4" s="115"/>
+      <c r="D4" s="116" t="s">
         <v>100</v>
       </c>
-      <c r="E4" s="112"/>
-      <c r="F4" s="112"/>
-      <c r="G4" s="112"/>
-      <c r="H4" s="112"/>
-      <c r="I4" s="112"/>
-      <c r="J4" s="112"/>
-      <c r="K4" s="112"/>
-      <c r="L4" s="112"/>
-      <c r="M4" s="112"/>
-      <c r="N4" s="113" t="s">
+      <c r="E4" s="116"/>
+      <c r="F4" s="116"/>
+      <c r="G4" s="116"/>
+      <c r="H4" s="116"/>
+      <c r="I4" s="116"/>
+      <c r="J4" s="116"/>
+      <c r="K4" s="116"/>
+      <c r="L4" s="116"/>
+      <c r="M4" s="116"/>
+      <c r="N4" s="112" t="s">
         <v>99</v>
       </c>
-      <c r="O4" s="112" t="s">
+      <c r="O4" s="116" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="5" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B5" s="111"/>
-      <c r="C5" s="111"/>
+      <c r="B5" s="115"/>
+      <c r="C5" s="115"/>
       <c r="D5" s="65">
         <v>1</v>
       </c>
@@ -10033,11 +10036,11 @@
       <c r="M5" s="65">
         <v>10</v>
       </c>
-      <c r="N5" s="113"/>
-      <c r="O5" s="112"/>
+      <c r="N5" s="112"/>
+      <c r="O5" s="116"/>
     </row>
     <row r="6" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="113" t="s">
+      <c r="B6" s="112" t="s">
         <v>132</v>
       </c>
       <c r="C6" s="65" t="s">
@@ -10073,11 +10076,11 @@
       <c r="M6" s="43">
         <v>41</v>
       </c>
-      <c r="N6" s="114">
+      <c r="N6" s="113">
         <f>SUM(D6:M6)/410</f>
         <v>1</v>
       </c>
-      <c r="O6" s="116">
+      <c r="O6" s="117">
         <f>(N6+N8)/2</f>
         <v>1</v>
       </c>
@@ -10093,7 +10096,7 @@
       </c>
     </row>
     <row r="7" spans="2:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="113"/>
+      <c r="B7" s="112"/>
       <c r="C7" s="65" t="s">
         <v>98</v>
       </c>
@@ -10127,8 +10130,8 @@
       <c r="M7" s="43">
         <v>0</v>
       </c>
-      <c r="N7" s="115"/>
-      <c r="O7" s="116"/>
+      <c r="N7" s="114"/>
+      <c r="O7" s="117"/>
       <c r="R7" s="67" t="s">
         <v>130</v>
       </c>
@@ -10143,7 +10146,7 @@
       </c>
     </row>
     <row r="8" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B8" s="113" t="s">
+      <c r="B8" s="112" t="s">
         <v>128</v>
       </c>
       <c r="C8" s="65" t="s">
@@ -10179,11 +10182,11 @@
       <c r="M8" s="43">
         <v>41</v>
       </c>
-      <c r="N8" s="114">
+      <c r="N8" s="113">
         <f>SUM(D8:M8)/410</f>
         <v>1</v>
       </c>
-      <c r="O8" s="116"/>
+      <c r="O8" s="117"/>
       <c r="R8" s="67" t="s">
         <v>131</v>
       </c>
@@ -10198,7 +10201,7 @@
       </c>
     </row>
     <row r="9" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B9" s="113"/>
+      <c r="B9" s="112"/>
       <c r="C9" s="65" t="s">
         <v>98</v>
       </c>
@@ -10232,36 +10235,36 @@
       <c r="M9" s="43">
         <v>0</v>
       </c>
-      <c r="N9" s="115"/>
-      <c r="O9" s="116"/>
+      <c r="N9" s="114"/>
+      <c r="O9" s="117"/>
     </row>
     <row r="12" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B12" s="111" t="s">
+      <c r="B12" s="115" t="s">
         <v>101</v>
       </c>
-      <c r="C12" s="111"/>
-      <c r="D12" s="112" t="s">
+      <c r="C12" s="115"/>
+      <c r="D12" s="116" t="s">
         <v>100</v>
       </c>
-      <c r="E12" s="112"/>
-      <c r="F12" s="112"/>
-      <c r="G12" s="112"/>
-      <c r="H12" s="112"/>
-      <c r="I12" s="112"/>
-      <c r="J12" s="112"/>
-      <c r="K12" s="112"/>
-      <c r="L12" s="112"/>
-      <c r="M12" s="112"/>
-      <c r="N12" s="113" t="s">
+      <c r="E12" s="116"/>
+      <c r="F12" s="116"/>
+      <c r="G12" s="116"/>
+      <c r="H12" s="116"/>
+      <c r="I12" s="116"/>
+      <c r="J12" s="116"/>
+      <c r="K12" s="116"/>
+      <c r="L12" s="116"/>
+      <c r="M12" s="116"/>
+      <c r="N12" s="112" t="s">
         <v>99</v>
       </c>
-      <c r="O12" s="112" t="s">
+      <c r="O12" s="116" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="13" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B13" s="111"/>
-      <c r="C13" s="111"/>
+      <c r="B13" s="115"/>
+      <c r="C13" s="115"/>
       <c r="D13" s="65">
         <v>1</v>
       </c>
@@ -10292,11 +10295,11 @@
       <c r="M13" s="65">
         <v>10</v>
       </c>
-      <c r="N13" s="113"/>
-      <c r="O13" s="112"/>
+      <c r="N13" s="112"/>
+      <c r="O13" s="116"/>
     </row>
     <row r="14" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B14" s="113" t="s">
+      <c r="B14" s="112" t="s">
         <v>127</v>
       </c>
       <c r="C14" s="65" t="s">
@@ -10332,17 +10335,17 @@
       <c r="M14" s="43">
         <v>38</v>
       </c>
-      <c r="N14" s="114">
+      <c r="N14" s="113">
         <f>SUM(D14:M14)/410</f>
         <v>0.90731707317073174</v>
       </c>
-      <c r="O14" s="116">
+      <c r="O14" s="117">
         <f>(N14+N16)/2</f>
         <v>0.90609756097560978</v>
       </c>
     </row>
     <row r="15" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B15" s="113"/>
+      <c r="B15" s="112"/>
       <c r="C15" s="65" t="s">
         <v>98</v>
       </c>
@@ -10376,11 +10379,11 @@
       <c r="M15" s="43">
         <v>3</v>
       </c>
-      <c r="N15" s="115"/>
-      <c r="O15" s="116"/>
+      <c r="N15" s="114"/>
+      <c r="O15" s="117"/>
     </row>
     <row r="16" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B16" s="113" t="s">
+      <c r="B16" s="112" t="s">
         <v>128</v>
       </c>
       <c r="C16" s="65" t="s">
@@ -10416,14 +10419,14 @@
       <c r="M16" s="43">
         <v>37</v>
       </c>
-      <c r="N16" s="114">
+      <c r="N16" s="113">
         <f>SUM(D16:M16)/410</f>
         <v>0.90487804878048783</v>
       </c>
-      <c r="O16" s="116"/>
+      <c r="O16" s="117"/>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B17" s="113"/>
+      <c r="B17" s="112"/>
       <c r="C17" s="65" t="s">
         <v>98</v>
       </c>
@@ -10457,36 +10460,36 @@
       <c r="M17" s="43">
         <v>4</v>
       </c>
-      <c r="N17" s="115"/>
-      <c r="O17" s="116"/>
+      <c r="N17" s="114"/>
+      <c r="O17" s="117"/>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B20" s="111" t="s">
+      <c r="B20" s="115" t="s">
         <v>102</v>
       </c>
-      <c r="C20" s="111"/>
-      <c r="D20" s="112" t="s">
+      <c r="C20" s="115"/>
+      <c r="D20" s="116" t="s">
         <v>100</v>
       </c>
-      <c r="E20" s="112"/>
-      <c r="F20" s="112"/>
-      <c r="G20" s="112"/>
-      <c r="H20" s="112"/>
-      <c r="I20" s="112"/>
-      <c r="J20" s="112"/>
-      <c r="K20" s="112"/>
-      <c r="L20" s="112"/>
-      <c r="M20" s="112"/>
-      <c r="N20" s="113" t="s">
+      <c r="E20" s="116"/>
+      <c r="F20" s="116"/>
+      <c r="G20" s="116"/>
+      <c r="H20" s="116"/>
+      <c r="I20" s="116"/>
+      <c r="J20" s="116"/>
+      <c r="K20" s="116"/>
+      <c r="L20" s="116"/>
+      <c r="M20" s="116"/>
+      <c r="N20" s="112" t="s">
         <v>99</v>
       </c>
-      <c r="O20" s="112" t="s">
+      <c r="O20" s="116" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B21" s="111"/>
-      <c r="C21" s="111"/>
+      <c r="B21" s="115"/>
+      <c r="C21" s="115"/>
       <c r="D21" s="65">
         <v>1</v>
       </c>
@@ -10517,11 +10520,11 @@
       <c r="M21" s="65">
         <v>10</v>
       </c>
-      <c r="N21" s="113"/>
-      <c r="O21" s="112"/>
+      <c r="N21" s="112"/>
+      <c r="O21" s="116"/>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B22" s="113" t="s">
+      <c r="B22" s="112" t="s">
         <v>127</v>
       </c>
       <c r="C22" s="65" t="s">
@@ -10557,17 +10560,17 @@
       <c r="M22" s="43">
         <v>9</v>
       </c>
-      <c r="N22" s="114">
+      <c r="N22" s="113">
         <f>SUM(D22:M22)/410</f>
         <v>0.8365853658536585</v>
       </c>
-      <c r="O22" s="116">
+      <c r="O22" s="117">
         <f>(N22+N24)/2</f>
         <v>0.82560975609756093</v>
       </c>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B23" s="113"/>
+      <c r="B23" s="112"/>
       <c r="C23" s="65" t="s">
         <v>98</v>
       </c>
@@ -10601,11 +10604,11 @@
       <c r="M23" s="43">
         <v>32</v>
       </c>
-      <c r="N23" s="115"/>
-      <c r="O23" s="116"/>
+      <c r="N23" s="114"/>
+      <c r="O23" s="117"/>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B24" s="113" t="s">
+      <c r="B24" s="112" t="s">
         <v>128</v>
       </c>
       <c r="C24" s="65" t="s">
@@ -10641,14 +10644,14 @@
       <c r="M24" s="43">
         <v>9</v>
       </c>
-      <c r="N24" s="114">
+      <c r="N24" s="113">
         <f>SUM(D24:M24)/410</f>
         <v>0.81463414634146336</v>
       </c>
-      <c r="O24" s="116"/>
+      <c r="O24" s="117"/>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B25" s="113"/>
+      <c r="B25" s="112"/>
       <c r="C25" s="65" t="s">
         <v>98</v>
       </c>
@@ -10682,17 +10685,18 @@
       <c r="M25" s="43">
         <v>32</v>
       </c>
-      <c r="N25" s="115"/>
-      <c r="O25" s="116"/>
+      <c r="N25" s="114"/>
+      <c r="O25" s="117"/>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="O12:O13"/>
-    <mergeCell ref="O14:O17"/>
-    <mergeCell ref="O20:O21"/>
-    <mergeCell ref="O22:O25"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="O6:O9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="B4:C5"/>
+    <mergeCell ref="D4:M4"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="N6:N7"/>
     <mergeCell ref="B24:B25"/>
     <mergeCell ref="N24:N25"/>
     <mergeCell ref="B12:C13"/>
@@ -10707,13 +10711,12 @@
     <mergeCell ref="N20:N21"/>
     <mergeCell ref="B22:B23"/>
     <mergeCell ref="N22:N23"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="B4:C5"/>
-    <mergeCell ref="D4:M4"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="O12:O13"/>
+    <mergeCell ref="O14:O17"/>
+    <mergeCell ref="O20:O21"/>
+    <mergeCell ref="O22:O25"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="O6:O9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -10724,8 +10727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A4:BB61"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="AJ1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AS23" sqref="AS23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10748,58 +10751,58 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="111" t="s">
+      <c r="B4" s="115" t="s">
         <v>111</v>
       </c>
-      <c r="C4" s="111"/>
-      <c r="D4" s="112" t="s">
+      <c r="C4" s="115"/>
+      <c r="D4" s="116" t="s">
         <v>100</v>
       </c>
-      <c r="E4" s="112"/>
-      <c r="F4" s="112"/>
-      <c r="G4" s="112"/>
-      <c r="H4" s="112"/>
-      <c r="I4" s="112"/>
-      <c r="J4" s="112"/>
-      <c r="K4" s="112"/>
-      <c r="L4" s="112"/>
-      <c r="M4" s="112"/>
-      <c r="N4" s="113" t="s">
+      <c r="E4" s="116"/>
+      <c r="F4" s="116"/>
+      <c r="G4" s="116"/>
+      <c r="H4" s="116"/>
+      <c r="I4" s="116"/>
+      <c r="J4" s="116"/>
+      <c r="K4" s="116"/>
+      <c r="L4" s="116"/>
+      <c r="M4" s="116"/>
+      <c r="N4" s="112" t="s">
         <v>115</v>
       </c>
-      <c r="R4" s="111" t="s">
+      <c r="R4" s="115" t="s">
         <v>116</v>
       </c>
-      <c r="S4" s="111"/>
-      <c r="T4" s="112" t="s">
+      <c r="S4" s="115"/>
+      <c r="T4" s="116" t="s">
         <v>100</v>
       </c>
-      <c r="U4" s="112"/>
-      <c r="V4" s="112"/>
-      <c r="W4" s="112"/>
-      <c r="X4" s="112"/>
-      <c r="Y4" s="112"/>
-      <c r="Z4" s="112"/>
-      <c r="AA4" s="112"/>
-      <c r="AB4" s="112"/>
-      <c r="AC4" s="112"/>
-      <c r="AD4" s="113" t="s">
+      <c r="U4" s="116"/>
+      <c r="V4" s="116"/>
+      <c r="W4" s="116"/>
+      <c r="X4" s="116"/>
+      <c r="Y4" s="116"/>
+      <c r="Z4" s="116"/>
+      <c r="AA4" s="116"/>
+      <c r="AB4" s="116"/>
+      <c r="AC4" s="116"/>
+      <c r="AD4" s="112" t="s">
         <v>105</v>
       </c>
-      <c r="AG4" s="113" t="s">
+      <c r="AG4" s="112" t="s">
         <v>59</v>
       </c>
-      <c r="AH4" s="112" t="s">
+      <c r="AH4" s="116" t="s">
         <v>109</v>
       </c>
-      <c r="AI4" s="112" t="s">
+      <c r="AI4" s="116" t="s">
         <v>110</v>
       </c>
-      <c r="AJ4" s="112"/>
-      <c r="AK4" s="112"/>
-      <c r="AL4" s="112"/>
-      <c r="AM4" s="112"/>
-      <c r="AN4" s="112"/>
+      <c r="AJ4" s="116"/>
+      <c r="AK4" s="116"/>
+      <c r="AL4" s="116"/>
+      <c r="AM4" s="116"/>
+      <c r="AN4" s="116"/>
       <c r="AR4" s="76"/>
       <c r="AS4" s="76"/>
       <c r="AT4" s="76"/>
@@ -10813,8 +10816,8 @@
       <c r="BB4" s="47"/>
     </row>
     <row r="5" spans="2:54" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="111"/>
-      <c r="C5" s="111"/>
+      <c r="B5" s="115"/>
+      <c r="C5" s="115"/>
       <c r="D5" s="45">
         <v>1</v>
       </c>
@@ -10845,9 +10848,9 @@
       <c r="M5" s="45">
         <v>10</v>
       </c>
-      <c r="N5" s="113"/>
-      <c r="R5" s="111"/>
-      <c r="S5" s="111"/>
+      <c r="N5" s="112"/>
+      <c r="R5" s="115"/>
+      <c r="S5" s="115"/>
       <c r="T5" s="45">
         <v>1</v>
       </c>
@@ -10878,9 +10881,9 @@
       <c r="AC5" s="45">
         <v>10</v>
       </c>
-      <c r="AD5" s="113"/>
-      <c r="AG5" s="113"/>
-      <c r="AH5" s="112"/>
+      <c r="AD5" s="112"/>
+      <c r="AG5" s="112"/>
+      <c r="AH5" s="116"/>
       <c r="AI5" s="53" t="s">
         <v>1</v>
       </c>
@@ -10899,18 +10902,18 @@
       <c r="AN5" s="53" t="s">
         <v>69</v>
       </c>
-      <c r="AP5" s="111" t="s">
+      <c r="AP5" s="115" t="s">
         <v>145</v>
       </c>
-      <c r="AQ5" s="111"/>
-      <c r="AR5" s="70" t="s">
+      <c r="AQ5" s="115"/>
+      <c r="AR5" s="77" t="s">
+        <v>148</v>
+      </c>
+      <c r="AS5" s="77" t="s">
         <v>146</v>
       </c>
-      <c r="AS5" s="70" t="s">
+      <c r="AT5" s="77" t="s">
         <v>147</v>
-      </c>
-      <c r="AT5" s="70" t="s">
-        <v>148</v>
       </c>
       <c r="AU5" s="74"/>
       <c r="AV5" s="74"/>
@@ -10922,7 +10925,7 @@
       <c r="BB5" s="47"/>
     </row>
     <row r="6" spans="2:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="119" t="s">
+      <c r="B6" s="120" t="s">
         <v>110</v>
       </c>
       <c r="C6" s="45" t="s">
@@ -10972,7 +10975,7 @@
         <f>AVERAGE(D6:M6)</f>
         <v>9.2636986301369864E-2</v>
       </c>
-      <c r="R6" s="119" t="s">
+      <c r="R6" s="120" t="s">
         <v>110</v>
       </c>
       <c r="S6" s="45" t="s">
@@ -11042,20 +11045,20 @@
         <f>AD11</f>
         <v>3.0045600000000006E-2</v>
       </c>
-      <c r="AP6" s="118" t="s">
+      <c r="AP6" s="122" t="s">
         <v>100</v>
       </c>
       <c r="AQ6" s="70">
         <v>1</v>
       </c>
       <c r="AR6" s="51" t="s">
+        <v>150</v>
+      </c>
+      <c r="AS6" s="51" t="s">
         <v>149</v>
       </c>
-      <c r="AS6" s="51" t="s">
+      <c r="AT6" s="51" t="s">
         <v>151</v>
-      </c>
-      <c r="AT6" s="51" t="s">
-        <v>150</v>
       </c>
       <c r="AU6" s="75"/>
       <c r="AV6" s="75"/>
@@ -11067,7 +11070,7 @@
       <c r="BB6" s="47"/>
     </row>
     <row r="7" spans="2:54" x14ac:dyDescent="0.25">
-      <c r="B7" s="119"/>
+      <c r="B7" s="120"/>
       <c r="C7" s="45" t="s">
         <v>2</v>
       </c>
@@ -11115,7 +11118,7 @@
         <f t="shared" ref="N7:N11" si="0">AVERAGE(D7:M7)</f>
         <v>0.2441780821917808</v>
       </c>
-      <c r="R7" s="119"/>
+      <c r="R7" s="120"/>
       <c r="S7" s="45" t="s">
         <v>2</v>
       </c>
@@ -11183,18 +11186,18 @@
         <f>AD21</f>
         <v>4.9896800000000005E-2</v>
       </c>
-      <c r="AP7" s="118"/>
+      <c r="AP7" s="122"/>
       <c r="AQ7" s="70">
         <v>2</v>
       </c>
       <c r="AR7" s="51" t="s">
+        <v>150</v>
+      </c>
+      <c r="AS7" s="51" t="s">
         <v>152</v>
       </c>
-      <c r="AS7" s="51" t="s">
+      <c r="AT7" s="51" t="s">
         <v>153</v>
-      </c>
-      <c r="AT7" s="51" t="s">
-        <v>150</v>
       </c>
       <c r="AU7" s="75"/>
       <c r="AV7" s="75"/>
@@ -11206,7 +11209,7 @@
       <c r="BB7" s="47"/>
     </row>
     <row r="8" spans="2:54" x14ac:dyDescent="0.25">
-      <c r="B8" s="119"/>
+      <c r="B8" s="120"/>
       <c r="C8" s="45" t="s">
         <v>3</v>
       </c>
@@ -11254,7 +11257,7 @@
         <f t="shared" si="0"/>
         <v>0.31849315068493156</v>
       </c>
-      <c r="R8" s="119"/>
+      <c r="R8" s="120"/>
       <c r="S8" s="45" t="s">
         <v>3</v>
       </c>
@@ -11322,18 +11325,18 @@
         <f>AD31</f>
         <v>gagal</v>
       </c>
-      <c r="AP8" s="118"/>
+      <c r="AP8" s="122"/>
       <c r="AQ8" s="70">
         <v>3</v>
       </c>
       <c r="AR8" s="51" t="s">
+        <v>156</v>
+      </c>
+      <c r="AS8" s="51" t="s">
         <v>154</v>
       </c>
-      <c r="AS8" s="51" t="s">
+      <c r="AT8" s="51" t="s">
         <v>155</v>
-      </c>
-      <c r="AT8" s="51" t="s">
-        <v>156</v>
       </c>
       <c r="AU8" s="75"/>
       <c r="AV8" s="75"/>
@@ -11345,7 +11348,7 @@
       <c r="BB8" s="47"/>
     </row>
     <row r="9" spans="2:54" x14ac:dyDescent="0.25">
-      <c r="B9" s="119"/>
+      <c r="B9" s="120"/>
       <c r="C9" s="45" t="s">
         <v>52</v>
       </c>
@@ -11393,7 +11396,7 @@
         <f t="shared" si="0"/>
         <v>0.49383561643835616</v>
       </c>
-      <c r="R9" s="119"/>
+      <c r="R9" s="120"/>
       <c r="S9" s="45" t="s">
         <v>52</v>
       </c>
@@ -11461,18 +11464,18 @@
         <f>AD41</f>
         <v>gagal</v>
       </c>
-      <c r="AP9" s="118"/>
+      <c r="AP9" s="122"/>
       <c r="AQ9" s="71">
         <v>4</v>
       </c>
-      <c r="AR9" s="70" t="s">
+      <c r="AR9" s="51" t="s">
+        <v>156</v>
+      </c>
+      <c r="AS9" s="77" t="s">
         <v>157</v>
       </c>
-      <c r="AS9" s="70" t="s">
+      <c r="AT9" s="77" t="s">
         <v>158</v>
-      </c>
-      <c r="AT9" s="51" t="s">
-        <v>156</v>
       </c>
       <c r="AU9" s="47"/>
       <c r="AV9" s="47"/>
@@ -11484,7 +11487,7 @@
       <c r="BB9" s="47"/>
     </row>
     <row r="10" spans="2:54" x14ac:dyDescent="0.25">
-      <c r="B10" s="119"/>
+      <c r="B10" s="120"/>
       <c r="C10" s="45" t="s">
         <v>51</v>
       </c>
@@ -11532,7 +11535,7 @@
         <f t="shared" si="0"/>
         <v>0.59845890410958913</v>
       </c>
-      <c r="R10" s="119"/>
+      <c r="R10" s="120"/>
       <c r="S10" s="45" t="s">
         <v>51</v>
       </c>
@@ -11600,22 +11603,22 @@
         <f>AD51</f>
         <v>gagal</v>
       </c>
-      <c r="AP10" s="118"/>
+      <c r="AP10" s="122"/>
       <c r="AQ10" s="71">
         <v>5</v>
       </c>
-      <c r="AR10" s="70" t="s">
+      <c r="AR10" s="51" t="s">
+        <v>156</v>
+      </c>
+      <c r="AS10" s="77" t="s">
         <v>159</v>
       </c>
-      <c r="AS10" s="70" t="s">
+      <c r="AT10" s="77" t="s">
         <v>160</v>
       </c>
-      <c r="AT10" s="51" t="s">
-        <v>156</v>
-      </c>
     </row>
     <row r="11" spans="2:54" x14ac:dyDescent="0.25">
-      <c r="B11" s="119"/>
+      <c r="B11" s="120"/>
       <c r="C11" s="45" t="s">
         <v>69</v>
       </c>
@@ -11663,7 +11666,7 @@
         <f t="shared" si="0"/>
         <v>0.56746575342465744</v>
       </c>
-      <c r="R11" s="119"/>
+      <c r="R11" s="120"/>
       <c r="S11" s="45" t="s">
         <v>69</v>
       </c>
@@ -11701,120 +11704,120 @@
         <f t="shared" si="1"/>
         <v>3.0045600000000006E-2</v>
       </c>
-      <c r="AP11" s="118"/>
+      <c r="AP11" s="122"/>
       <c r="AQ11" s="71">
         <v>6</v>
       </c>
-      <c r="AR11" s="70" t="s">
+      <c r="AR11" s="51" t="s">
+        <v>156</v>
+      </c>
+      <c r="AS11" s="77" t="s">
         <v>161</v>
       </c>
-      <c r="AS11" s="70" t="s">
+      <c r="AT11" s="77" t="s">
         <v>162</v>
       </c>
-      <c r="AT11" s="51" t="s">
-        <v>156</v>
-      </c>
     </row>
     <row r="12" spans="2:54" x14ac:dyDescent="0.25">
-      <c r="AP12" s="118"/>
+      <c r="AP12" s="122"/>
       <c r="AQ12" s="71">
         <v>7</v>
       </c>
-      <c r="AR12" s="70" t="s">
+      <c r="AR12" s="51" t="s">
+        <v>156</v>
+      </c>
+      <c r="AS12" s="77" t="s">
         <v>170</v>
       </c>
-      <c r="AS12" s="70" t="s">
+      <c r="AT12" s="77" t="s">
         <v>163</v>
       </c>
-      <c r="AT12" s="51" t="s">
-        <v>156</v>
-      </c>
     </row>
     <row r="13" spans="2:54" x14ac:dyDescent="0.25">
-      <c r="AP13" s="118"/>
+      <c r="AP13" s="122"/>
       <c r="AQ13" s="71">
         <v>8</v>
       </c>
-      <c r="AR13" s="70" t="s">
+      <c r="AR13" s="51" t="s">
+        <v>156</v>
+      </c>
+      <c r="AS13" s="77" t="s">
         <v>170</v>
       </c>
-      <c r="AS13" s="70" t="s">
+      <c r="AT13" s="77" t="s">
         <v>164</v>
       </c>
-      <c r="AT13" s="51" t="s">
-        <v>156</v>
-      </c>
     </row>
     <row r="14" spans="2:54" x14ac:dyDescent="0.25">
-      <c r="B14" s="111" t="s">
+      <c r="B14" s="115" t="s">
         <v>112</v>
       </c>
-      <c r="C14" s="111"/>
-      <c r="D14" s="112" t="s">
+      <c r="C14" s="115"/>
+      <c r="D14" s="116" t="s">
         <v>100</v>
       </c>
-      <c r="E14" s="112"/>
-      <c r="F14" s="112"/>
-      <c r="G14" s="112"/>
-      <c r="H14" s="112"/>
-      <c r="I14" s="112"/>
-      <c r="J14" s="112"/>
-      <c r="K14" s="112"/>
-      <c r="L14" s="112"/>
-      <c r="M14" s="112"/>
-      <c r="N14" s="113" t="s">
+      <c r="E14" s="116"/>
+      <c r="F14" s="116"/>
+      <c r="G14" s="116"/>
+      <c r="H14" s="116"/>
+      <c r="I14" s="116"/>
+      <c r="J14" s="116"/>
+      <c r="K14" s="116"/>
+      <c r="L14" s="116"/>
+      <c r="M14" s="116"/>
+      <c r="N14" s="112" t="s">
         <v>105</v>
       </c>
-      <c r="R14" s="111" t="s">
+      <c r="R14" s="115" t="s">
         <v>117</v>
       </c>
-      <c r="S14" s="111"/>
-      <c r="T14" s="112" t="s">
+      <c r="S14" s="115"/>
+      <c r="T14" s="116" t="s">
         <v>100</v>
       </c>
-      <c r="U14" s="112"/>
-      <c r="V14" s="112"/>
-      <c r="W14" s="112"/>
-      <c r="X14" s="112"/>
-      <c r="Y14" s="112"/>
-      <c r="Z14" s="112"/>
-      <c r="AA14" s="112"/>
-      <c r="AB14" s="112"/>
-      <c r="AC14" s="112"/>
-      <c r="AD14" s="113" t="s">
+      <c r="U14" s="116"/>
+      <c r="V14" s="116"/>
+      <c r="W14" s="116"/>
+      <c r="X14" s="116"/>
+      <c r="Y14" s="116"/>
+      <c r="Z14" s="116"/>
+      <c r="AA14" s="116"/>
+      <c r="AB14" s="116"/>
+      <c r="AC14" s="116"/>
+      <c r="AD14" s="112" t="s">
         <v>105</v>
       </c>
-      <c r="AG14" s="113" t="s">
+      <c r="AG14" s="112" t="s">
         <v>59</v>
       </c>
-      <c r="AH14" s="112" t="s">
+      <c r="AH14" s="116" t="s">
         <v>109</v>
       </c>
-      <c r="AI14" s="112" t="s">
+      <c r="AI14" s="116" t="s">
         <v>110</v>
       </c>
-      <c r="AJ14" s="112"/>
-      <c r="AK14" s="112"/>
-      <c r="AL14" s="112"/>
-      <c r="AM14" s="112"/>
-      <c r="AN14" s="112"/>
-      <c r="AP14" s="118"/>
+      <c r="AJ14" s="116"/>
+      <c r="AK14" s="116"/>
+      <c r="AL14" s="116"/>
+      <c r="AM14" s="116"/>
+      <c r="AN14" s="116"/>
+      <c r="AP14" s="122"/>
       <c r="AQ14" s="71">
         <v>9</v>
       </c>
-      <c r="AR14" s="70" t="s">
+      <c r="AR14" s="51" t="s">
+        <v>167</v>
+      </c>
+      <c r="AS14" s="77" t="s">
         <v>165</v>
       </c>
-      <c r="AS14" s="70" t="s">
+      <c r="AT14" s="77" t="s">
         <v>166</v>
       </c>
-      <c r="AT14" s="51" t="s">
-        <v>167</v>
-      </c>
     </row>
     <row r="15" spans="2:54" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="111"/>
-      <c r="C15" s="111"/>
+      <c r="B15" s="115"/>
+      <c r="C15" s="115"/>
       <c r="D15" s="45">
         <v>1</v>
       </c>
@@ -11845,9 +11848,9 @@
       <c r="M15" s="45">
         <v>10</v>
       </c>
-      <c r="N15" s="113"/>
-      <c r="R15" s="111"/>
-      <c r="S15" s="111"/>
+      <c r="N15" s="112"/>
+      <c r="R15" s="115"/>
+      <c r="S15" s="115"/>
       <c r="T15" s="45">
         <v>1</v>
       </c>
@@ -11878,9 +11881,9 @@
       <c r="AC15" s="45">
         <v>10</v>
       </c>
-      <c r="AD15" s="113"/>
-      <c r="AG15" s="113"/>
-      <c r="AH15" s="112"/>
+      <c r="AD15" s="112"/>
+      <c r="AG15" s="112"/>
+      <c r="AH15" s="116"/>
       <c r="AI15" s="53" t="s">
         <v>1</v>
       </c>
@@ -11899,22 +11902,22 @@
       <c r="AN15" s="53" t="s">
         <v>69</v>
       </c>
-      <c r="AP15" s="118"/>
+      <c r="AP15" s="122"/>
       <c r="AQ15" s="71">
         <v>10</v>
       </c>
-      <c r="AR15" s="70" t="s">
+      <c r="AR15" s="51" t="s">
+        <v>167</v>
+      </c>
+      <c r="AS15" s="77" t="s">
         <v>168</v>
       </c>
-      <c r="AS15" s="70" t="s">
+      <c r="AT15" s="77" t="s">
         <v>169</v>
       </c>
-      <c r="AT15" s="51" t="s">
-        <v>167</v>
-      </c>
     </row>
     <row r="16" spans="2:54" x14ac:dyDescent="0.25">
-      <c r="B16" s="119" t="s">
+      <c r="B16" s="120" t="s">
         <v>110</v>
       </c>
       <c r="C16" s="45" t="s">
@@ -11964,7 +11967,7 @@
         <f>AVERAGE(D16:M16)</f>
         <v>9.5918367346938788E-2</v>
       </c>
-      <c r="R16" s="119" t="s">
+      <c r="R16" s="120" t="s">
         <v>110</v>
       </c>
       <c r="S16" s="45" t="s">
@@ -12035,8 +12038,8 @@
         <v>0.56746575342465744</v>
       </c>
     </row>
-    <row r="17" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="B17" s="119"/>
+    <row r="17" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="B17" s="120"/>
       <c r="C17" s="45" t="s">
         <v>2</v>
       </c>
@@ -12084,7 +12087,7 @@
         <f t="shared" ref="N17:N21" si="2">AVERAGE(D17:M17)</f>
         <v>0.19918367346938778</v>
       </c>
-      <c r="R17" s="119"/>
+      <c r="R17" s="120"/>
       <c r="S17" s="45" t="s">
         <v>2</v>
       </c>
@@ -12153,8 +12156,8 @@
         <v>0.60499999999999998</v>
       </c>
     </row>
-    <row r="18" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="B18" s="119"/>
+    <row r="18" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="B18" s="120"/>
       <c r="C18" s="45" t="s">
         <v>3</v>
       </c>
@@ -12202,7 +12205,7 @@
         <f t="shared" si="2"/>
         <v>0.32346938775510203</v>
       </c>
-      <c r="R18" s="119"/>
+      <c r="R18" s="120"/>
       <c r="S18" s="45" t="s">
         <v>3</v>
       </c>
@@ -12270,8 +12273,8 @@
         <v>71</v>
       </c>
     </row>
-    <row r="19" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="B19" s="119"/>
+    <row r="19" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="B19" s="120"/>
       <c r="C19" s="45" t="s">
         <v>52</v>
       </c>
@@ -12319,7 +12322,7 @@
         <f t="shared" si="2"/>
         <v>0.49091836734693883</v>
       </c>
-      <c r="R19" s="119"/>
+      <c r="R19" s="120"/>
       <c r="S19" s="45" t="s">
         <v>52</v>
       </c>
@@ -12388,8 +12391,8 @@
         <v>gagal</v>
       </c>
     </row>
-    <row r="20" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="B20" s="119"/>
+    <row r="20" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="B20" s="120"/>
       <c r="C20" s="45" t="s">
         <v>51</v>
       </c>
@@ -12437,7 +12440,7 @@
         <f t="shared" si="2"/>
         <v>0.54499999999999993</v>
       </c>
-      <c r="R20" s="119"/>
+      <c r="R20" s="120"/>
       <c r="S20" s="45" t="s">
         <v>51</v>
       </c>
@@ -12505,9 +12508,12 @@
         <f>N51</f>
         <v>gagal</v>
       </c>
-    </row>
-    <row r="21" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="B21" s="119"/>
+      <c r="AR20" s="77" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="21" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="B21" s="120"/>
       <c r="C21" s="45" t="s">
         <v>69</v>
       </c>
@@ -12555,7 +12561,7 @@
         <f t="shared" si="2"/>
         <v>0.60499999999999998</v>
       </c>
-      <c r="R21" s="119"/>
+      <c r="R21" s="120"/>
       <c r="S21" s="45" t="s">
         <v>69</v>
       </c>
@@ -12593,50 +12599,66 @@
         <f t="shared" si="3"/>
         <v>4.9896800000000005E-2</v>
       </c>
-    </row>
-    <row r="24" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="B24" s="111" t="s">
+      <c r="AR21" s="51" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="22" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AR22" s="51" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="23" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AR23" s="51" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="24" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="B24" s="115" t="s">
         <v>113</v>
       </c>
-      <c r="C24" s="111"/>
-      <c r="D24" s="112" t="s">
+      <c r="C24" s="115"/>
+      <c r="D24" s="116" t="s">
         <v>100</v>
       </c>
-      <c r="E24" s="112"/>
-      <c r="F24" s="112"/>
-      <c r="G24" s="112"/>
-      <c r="H24" s="112"/>
-      <c r="I24" s="112"/>
-      <c r="J24" s="112"/>
-      <c r="K24" s="112"/>
-      <c r="L24" s="112"/>
-      <c r="M24" s="112"/>
-      <c r="N24" s="113" t="s">
+      <c r="E24" s="116"/>
+      <c r="F24" s="116"/>
+      <c r="G24" s="116"/>
+      <c r="H24" s="116"/>
+      <c r="I24" s="116"/>
+      <c r="J24" s="116"/>
+      <c r="K24" s="116"/>
+      <c r="L24" s="116"/>
+      <c r="M24" s="116"/>
+      <c r="N24" s="112" t="s">
         <v>105</v>
       </c>
-      <c r="R24" s="111" t="s">
+      <c r="R24" s="115" t="s">
         <v>118</v>
       </c>
-      <c r="S24" s="111"/>
-      <c r="T24" s="112" t="s">
+      <c r="S24" s="115"/>
+      <c r="T24" s="116" t="s">
         <v>100</v>
       </c>
-      <c r="U24" s="112"/>
-      <c r="V24" s="112"/>
-      <c r="W24" s="112"/>
-      <c r="X24" s="112"/>
-      <c r="Y24" s="112"/>
-      <c r="Z24" s="112"/>
-      <c r="AA24" s="112"/>
-      <c r="AB24" s="112"/>
-      <c r="AC24" s="112"/>
-      <c r="AD24" s="113" t="s">
+      <c r="U24" s="116"/>
+      <c r="V24" s="116"/>
+      <c r="W24" s="116"/>
+      <c r="X24" s="116"/>
+      <c r="Y24" s="116"/>
+      <c r="Z24" s="116"/>
+      <c r="AA24" s="116"/>
+      <c r="AB24" s="116"/>
+      <c r="AC24" s="116"/>
+      <c r="AD24" s="112" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="25" spans="1:40" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="111"/>
-      <c r="C25" s="111"/>
+      <c r="AR24" s="77" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="25" spans="1:44" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="115"/>
+      <c r="C25" s="115"/>
       <c r="D25" s="45">
         <v>1</v>
       </c>
@@ -12667,9 +12689,9 @@
       <c r="M25" s="45">
         <v>10</v>
       </c>
-      <c r="N25" s="113"/>
-      <c r="R25" s="111"/>
-      <c r="S25" s="111"/>
+      <c r="N25" s="112"/>
+      <c r="R25" s="115"/>
+      <c r="S25" s="115"/>
       <c r="T25" s="45">
         <v>1</v>
       </c>
@@ -12700,10 +12722,13 @@
       <c r="AC25" s="45">
         <v>10</v>
       </c>
-      <c r="AD25" s="113"/>
-    </row>
-    <row r="26" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="B26" s="119" t="s">
+      <c r="AD25" s="112"/>
+      <c r="AR25" s="77" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="26" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="B26" s="120" t="s">
         <v>110</v>
       </c>
       <c r="C26" s="45" t="s">
@@ -12753,7 +12778,7 @@
         <f>AVERAGE(D26:M26)</f>
         <v>0.10015624999999999</v>
       </c>
-      <c r="R26" s="119" t="s">
+      <c r="R26" s="120" t="s">
         <v>110</v>
       </c>
       <c r="S26" s="45" t="s">
@@ -12793,9 +12818,12 @@
         <f>AVERAGE(T26:AC26)</f>
         <v>0.12733359999999999</v>
       </c>
-    </row>
-    <row r="27" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="B27" s="119"/>
+      <c r="AR26" s="77" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="27" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="B27" s="120"/>
       <c r="C27" s="45" t="s">
         <v>2</v>
       </c>
@@ -12843,7 +12871,7 @@
         <f t="shared" ref="N27:N30" si="4">AVERAGE(D27:M27)</f>
         <v>0.16820312499999998</v>
       </c>
-      <c r="R27" s="119"/>
+      <c r="R27" s="120"/>
       <c r="S27" s="45" t="s">
         <v>2</v>
       </c>
@@ -12881,9 +12909,12 @@
         <f t="shared" ref="AD27:AD30" si="5">AVERAGE(T27:AC27)</f>
         <v>0.11091480000000001</v>
       </c>
-    </row>
-    <row r="28" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="B28" s="119"/>
+      <c r="AR27" s="77" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="28" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="B28" s="120"/>
       <c r="C28" s="45" t="s">
         <v>3</v>
       </c>
@@ -12931,7 +12962,7 @@
         <f t="shared" si="4"/>
         <v>0.37398437499999998</v>
       </c>
-      <c r="R28" s="119"/>
+      <c r="R28" s="120"/>
       <c r="S28" s="45" t="s">
         <v>3</v>
       </c>
@@ -12969,9 +13000,12 @@
         <f t="shared" si="5"/>
         <v>8.7704799999999999E-2</v>
       </c>
-    </row>
-    <row r="29" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="B29" s="119"/>
+      <c r="AR28" s="77" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="29" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="B29" s="120"/>
       <c r="C29" s="45" t="s">
         <v>52</v>
       </c>
@@ -13019,7 +13053,7 @@
         <f t="shared" si="4"/>
         <v>0.45929687499999999</v>
       </c>
-      <c r="R29" s="119"/>
+      <c r="R29" s="120"/>
       <c r="S29" s="45" t="s">
         <v>52</v>
       </c>
@@ -13057,9 +13091,12 @@
         <f t="shared" si="5"/>
         <v>7.7805600000000003E-2</v>
       </c>
-    </row>
-    <row r="30" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="B30" s="119"/>
+      <c r="AR29" s="77" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="30" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="B30" s="120"/>
       <c r="C30" s="45" t="s">
         <v>51</v>
       </c>
@@ -13107,7 +13144,7 @@
         <f t="shared" si="4"/>
         <v>0.50226562500000005</v>
       </c>
-      <c r="R30" s="119"/>
+      <c r="R30" s="120"/>
       <c r="S30" s="45" t="s">
         <v>51</v>
       </c>
@@ -13145,12 +13182,15 @@
         <f t="shared" si="5"/>
         <v>7.8400400000000009E-2</v>
       </c>
-    </row>
-    <row r="31" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AR30" s="77" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="31" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>108</v>
       </c>
-      <c r="B31" s="119"/>
+      <c r="B31" s="120"/>
       <c r="C31" s="54" t="s">
         <v>69</v>
       </c>
@@ -13187,7 +13227,7 @@
       <c r="N31" s="55" t="s">
         <v>71</v>
       </c>
-      <c r="R31" s="119"/>
+      <c r="R31" s="120"/>
       <c r="S31" s="54" t="s">
         <v>69</v>
       </c>
@@ -13226,48 +13266,48 @@
       </c>
     </row>
     <row r="34" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="B34" s="111" t="s">
+      <c r="B34" s="115" t="s">
         <v>114</v>
       </c>
-      <c r="C34" s="111"/>
-      <c r="D34" s="112" t="s">
+      <c r="C34" s="115"/>
+      <c r="D34" s="116" t="s">
         <v>100</v>
       </c>
-      <c r="E34" s="112"/>
-      <c r="F34" s="112"/>
-      <c r="G34" s="112"/>
-      <c r="H34" s="112"/>
-      <c r="I34" s="112"/>
-      <c r="J34" s="112"/>
-      <c r="K34" s="112"/>
-      <c r="L34" s="112"/>
-      <c r="M34" s="112"/>
-      <c r="N34" s="113" t="s">
+      <c r="E34" s="116"/>
+      <c r="F34" s="116"/>
+      <c r="G34" s="116"/>
+      <c r="H34" s="116"/>
+      <c r="I34" s="116"/>
+      <c r="J34" s="116"/>
+      <c r="K34" s="116"/>
+      <c r="L34" s="116"/>
+      <c r="M34" s="116"/>
+      <c r="N34" s="112" t="s">
         <v>105</v>
       </c>
-      <c r="R34" s="111" t="s">
+      <c r="R34" s="115" t="s">
         <v>119</v>
       </c>
-      <c r="S34" s="111"/>
-      <c r="T34" s="112" t="s">
+      <c r="S34" s="115"/>
+      <c r="T34" s="116" t="s">
         <v>100</v>
       </c>
-      <c r="U34" s="112"/>
-      <c r="V34" s="112"/>
-      <c r="W34" s="112"/>
-      <c r="X34" s="112"/>
-      <c r="Y34" s="112"/>
-      <c r="Z34" s="112"/>
-      <c r="AA34" s="112"/>
-      <c r="AB34" s="112"/>
-      <c r="AC34" s="112"/>
-      <c r="AD34" s="113" t="s">
+      <c r="U34" s="116"/>
+      <c r="V34" s="116"/>
+      <c r="W34" s="116"/>
+      <c r="X34" s="116"/>
+      <c r="Y34" s="116"/>
+      <c r="Z34" s="116"/>
+      <c r="AA34" s="116"/>
+      <c r="AB34" s="116"/>
+      <c r="AC34" s="116"/>
+      <c r="AD34" s="112" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="35" spans="1:45" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="111"/>
-      <c r="C35" s="111"/>
+      <c r="B35" s="115"/>
+      <c r="C35" s="115"/>
       <c r="D35" s="45">
         <v>1</v>
       </c>
@@ -13298,9 +13338,9 @@
       <c r="M35" s="45">
         <v>10</v>
       </c>
-      <c r="N35" s="113"/>
-      <c r="R35" s="111"/>
-      <c r="S35" s="111"/>
+      <c r="N35" s="112"/>
+      <c r="R35" s="115"/>
+      <c r="S35" s="115"/>
       <c r="T35" s="45">
         <v>1</v>
       </c>
@@ -13331,10 +13371,10 @@
       <c r="AC35" s="45">
         <v>10</v>
       </c>
-      <c r="AD35" s="113"/>
+      <c r="AD35" s="112"/>
     </row>
     <row r="36" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="B36" s="119" t="s">
+      <c r="B36" s="120" t="s">
         <v>110</v>
       </c>
       <c r="C36" s="45" t="s">
@@ -13384,7 +13424,7 @@
         <f>AVERAGE(D36:M36)</f>
         <v>0.10200743494423789</v>
       </c>
-      <c r="R36" s="119" t="s">
+      <c r="R36" s="120" t="s">
         <v>110</v>
       </c>
       <c r="S36" s="45" t="s">
@@ -13426,7 +13466,7 @@
       </c>
     </row>
     <row r="37" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="B37" s="119"/>
+      <c r="B37" s="120"/>
       <c r="C37" s="45" t="s">
         <v>2</v>
       </c>
@@ -13474,7 +13514,7 @@
         <f t="shared" ref="N37:N40" si="6">AVERAGE(D37:M37)</f>
         <v>0.16988847583643124</v>
       </c>
-      <c r="R37" s="119"/>
+      <c r="R37" s="120"/>
       <c r="S37" s="45" t="s">
         <v>2</v>
       </c>
@@ -13514,7 +13554,7 @@
       </c>
     </row>
     <row r="38" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="B38" s="119"/>
+      <c r="B38" s="120"/>
       <c r="C38" s="45" t="s">
         <v>3</v>
       </c>
@@ -13562,7 +13602,7 @@
         <f t="shared" si="6"/>
         <v>0.37724907063197022</v>
       </c>
-      <c r="R38" s="119"/>
+      <c r="R38" s="120"/>
       <c r="S38" s="45" t="s">
         <v>3</v>
       </c>
@@ -13602,7 +13642,7 @@
       </c>
     </row>
     <row r="39" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="B39" s="119"/>
+      <c r="B39" s="120"/>
       <c r="C39" s="45" t="s">
         <v>52</v>
       </c>
@@ -13650,7 +13690,7 @@
         <f t="shared" si="6"/>
         <v>0.45933085501858739</v>
       </c>
-      <c r="R39" s="119"/>
+      <c r="R39" s="120"/>
       <c r="S39" s="45" t="s">
         <v>52</v>
       </c>
@@ -13690,7 +13730,7 @@
       </c>
     </row>
     <row r="40" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="B40" s="119"/>
+      <c r="B40" s="120"/>
       <c r="C40" s="45" t="s">
         <v>51</v>
       </c>
@@ -13738,7 +13778,7 @@
         <f t="shared" si="6"/>
         <v>0.54542750929368033</v>
       </c>
-      <c r="R40" s="119"/>
+      <c r="R40" s="120"/>
       <c r="S40" s="45" t="s">
         <v>51</v>
       </c>
@@ -13781,7 +13821,7 @@
       <c r="A41" t="s">
         <v>108</v>
       </c>
-      <c r="B41" s="119"/>
+      <c r="B41" s="120"/>
       <c r="C41" s="54" t="s">
         <v>69</v>
       </c>
@@ -13818,7 +13858,7 @@
       <c r="N41" s="55" t="s">
         <v>71</v>
       </c>
-      <c r="R41" s="119"/>
+      <c r="R41" s="120"/>
       <c r="S41" s="54" t="s">
         <v>69</v>
       </c>
@@ -13857,50 +13897,50 @@
       </c>
     </row>
     <row r="44" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="111" t="s">
+      <c r="B44" s="115" t="s">
         <v>124</v>
       </c>
-      <c r="C44" s="111"/>
-      <c r="D44" s="112" t="s">
+      <c r="C44" s="115"/>
+      <c r="D44" s="116" t="s">
         <v>100</v>
       </c>
-      <c r="E44" s="112"/>
-      <c r="F44" s="112"/>
-      <c r="G44" s="112"/>
-      <c r="H44" s="112"/>
-      <c r="I44" s="112"/>
-      <c r="J44" s="112"/>
-      <c r="K44" s="112"/>
-      <c r="L44" s="112"/>
-      <c r="M44" s="112"/>
-      <c r="N44" s="113" t="s">
+      <c r="E44" s="116"/>
+      <c r="F44" s="116"/>
+      <c r="G44" s="116"/>
+      <c r="H44" s="116"/>
+      <c r="I44" s="116"/>
+      <c r="J44" s="116"/>
+      <c r="K44" s="116"/>
+      <c r="L44" s="116"/>
+      <c r="M44" s="116"/>
+      <c r="N44" s="112" t="s">
         <v>105</v>
       </c>
-      <c r="R44" s="111" t="s">
+      <c r="R44" s="115" t="s">
         <v>125</v>
       </c>
-      <c r="S44" s="111"/>
-      <c r="T44" s="112" t="s">
+      <c r="S44" s="115"/>
+      <c r="T44" s="116" t="s">
         <v>100</v>
       </c>
-      <c r="U44" s="112"/>
-      <c r="V44" s="112"/>
-      <c r="W44" s="112"/>
-      <c r="X44" s="112"/>
-      <c r="Y44" s="112"/>
-      <c r="Z44" s="112"/>
-      <c r="AA44" s="112"/>
-      <c r="AB44" s="112"/>
-      <c r="AC44" s="112"/>
-      <c r="AD44" s="113" t="s">
+      <c r="U44" s="116"/>
+      <c r="V44" s="116"/>
+      <c r="W44" s="116"/>
+      <c r="X44" s="116"/>
+      <c r="Y44" s="116"/>
+      <c r="Z44" s="116"/>
+      <c r="AA44" s="116"/>
+      <c r="AB44" s="116"/>
+      <c r="AC44" s="116"/>
+      <c r="AD44" s="112" t="s">
         <v>105</v>
       </c>
       <c r="AG44" s="72"/>
-      <c r="AS44" s="117"/>
+      <c r="AS44" s="121"/>
     </row>
     <row r="45" spans="1:45" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="111"/>
-      <c r="C45" s="111"/>
+      <c r="B45" s="115"/>
+      <c r="C45" s="115"/>
       <c r="D45" s="61">
         <v>1</v>
       </c>
@@ -13931,9 +13971,9 @@
       <c r="M45" s="61">
         <v>10</v>
       </c>
-      <c r="N45" s="113"/>
-      <c r="R45" s="111"/>
-      <c r="S45" s="111"/>
+      <c r="N45" s="112"/>
+      <c r="R45" s="115"/>
+      <c r="S45" s="115"/>
       <c r="T45" s="61">
         <v>1</v>
       </c>
@@ -13964,12 +14004,12 @@
       <c r="AC45" s="61">
         <v>10</v>
       </c>
-      <c r="AD45" s="113"/>
+      <c r="AD45" s="112"/>
       <c r="AG45" s="72"/>
-      <c r="AS45" s="117"/>
+      <c r="AS45" s="121"/>
     </row>
     <row r="46" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="119" t="s">
+      <c r="B46" s="120" t="s">
         <v>110</v>
       </c>
       <c r="C46" s="61" t="s">
@@ -14019,7 +14059,7 @@
         <f>AVERAGE(D46:M46)</f>
         <v>5.0641711229946505E-2</v>
       </c>
-      <c r="R46" s="119" t="s">
+      <c r="R46" s="120" t="s">
         <v>110</v>
       </c>
       <c r="S46" s="61" t="s">
@@ -14063,7 +14103,7 @@
       <c r="AS46" s="75"/>
     </row>
     <row r="47" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="B47" s="119"/>
+      <c r="B47" s="120"/>
       <c r="C47" s="61" t="s">
         <v>2</v>
       </c>
@@ -14111,7 +14151,7 @@
         <f t="shared" ref="N47:N49" si="8">AVERAGE(D47:M47)</f>
         <v>0.11176470588235295</v>
       </c>
-      <c r="R47" s="119"/>
+      <c r="R47" s="120"/>
       <c r="S47" s="61" t="s">
         <v>2</v>
       </c>
@@ -14153,7 +14193,7 @@
       <c r="AS47" s="75"/>
     </row>
     <row r="48" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="B48" s="119"/>
+      <c r="B48" s="120"/>
       <c r="C48" s="61" t="s">
         <v>3</v>
       </c>
@@ -14201,7 +14241,7 @@
         <f t="shared" si="8"/>
         <v>0.20358288770053479</v>
       </c>
-      <c r="R48" s="119"/>
+      <c r="R48" s="120"/>
       <c r="S48" s="61" t="s">
         <v>3</v>
       </c>
@@ -14243,7 +14283,7 @@
       <c r="AS48" s="75"/>
     </row>
     <row r="49" spans="2:45" x14ac:dyDescent="0.25">
-      <c r="B49" s="119"/>
+      <c r="B49" s="120"/>
       <c r="C49" s="61" t="s">
         <v>52</v>
       </c>
@@ -14291,7 +14331,7 @@
         <f t="shared" si="8"/>
         <v>0.27796791443850272</v>
       </c>
-      <c r="R49" s="119"/>
+      <c r="R49" s="120"/>
       <c r="S49" s="61" t="s">
         <v>52</v>
       </c>
@@ -14344,7 +14384,7 @@
       <c r="AS49" s="75"/>
     </row>
     <row r="50" spans="2:45" x14ac:dyDescent="0.25">
-      <c r="B50" s="119"/>
+      <c r="B50" s="120"/>
       <c r="C50" s="54" t="s">
         <v>51</v>
       </c>
@@ -14381,7 +14421,7 @@
       <c r="N50" s="55" t="s">
         <v>71</v>
       </c>
-      <c r="R50" s="119"/>
+      <c r="R50" s="120"/>
       <c r="S50" s="54" t="s">
         <v>51</v>
       </c>
@@ -14433,7 +14473,7 @@
       <c r="AS50" s="75"/>
     </row>
     <row r="51" spans="2:45" x14ac:dyDescent="0.25">
-      <c r="B51" s="119"/>
+      <c r="B51" s="120"/>
       <c r="C51" s="54" t="s">
         <v>69</v>
       </c>
@@ -14470,7 +14510,7 @@
       <c r="N51" s="55" t="s">
         <v>71</v>
       </c>
-      <c r="R51" s="119"/>
+      <c r="R51" s="120"/>
       <c r="S51" s="54" t="s">
         <v>69</v>
       </c>
@@ -14522,21 +14562,21 @@
       <c r="AS51" s="75"/>
     </row>
     <row r="56" spans="2:45" x14ac:dyDescent="0.25">
-      <c r="AG56" s="121" t="s">
+      <c r="AG56" s="119" t="s">
         <v>144</v>
       </c>
-      <c r="AH56" s="121"/>
-      <c r="AI56" s="121" t="s">
+      <c r="AH56" s="119"/>
+      <c r="AI56" s="119" t="s">
         <v>59</v>
       </c>
-      <c r="AJ56" s="121"/>
-      <c r="AK56" s="121"/>
-      <c r="AL56" s="121"/>
-      <c r="AM56" s="121"/>
+      <c r="AJ56" s="119"/>
+      <c r="AK56" s="119"/>
+      <c r="AL56" s="119"/>
+      <c r="AM56" s="119"/>
     </row>
     <row r="57" spans="2:45" x14ac:dyDescent="0.25">
-      <c r="AG57" s="121"/>
-      <c r="AH57" s="121"/>
+      <c r="AG57" s="119"/>
+      <c r="AH57" s="119"/>
       <c r="AI57" s="43" t="s">
         <v>135</v>
       </c>
@@ -14554,10 +14594,10 @@
       </c>
     </row>
     <row r="58" spans="2:45" x14ac:dyDescent="0.25">
-      <c r="AG58" s="121" t="s">
+      <c r="AG58" s="119" t="s">
         <v>140</v>
       </c>
-      <c r="AH58" s="121"/>
+      <c r="AH58" s="119"/>
       <c r="AI58" s="43" t="s">
         <v>70</v>
       </c>
@@ -14575,10 +14615,10 @@
       </c>
     </row>
     <row r="59" spans="2:45" x14ac:dyDescent="0.25">
-      <c r="AG59" s="120" t="s">
+      <c r="AG59" s="118" t="s">
         <v>141</v>
       </c>
-      <c r="AH59" s="120"/>
+      <c r="AH59" s="118"/>
       <c r="AI59" s="43" t="s">
         <v>70</v>
       </c>
@@ -14596,10 +14636,10 @@
       </c>
     </row>
     <row r="60" spans="2:45" x14ac:dyDescent="0.25">
-      <c r="AG60" s="120" t="s">
+      <c r="AG60" s="118" t="s">
         <v>142</v>
       </c>
-      <c r="AH60" s="120"/>
+      <c r="AH60" s="118"/>
       <c r="AI60" s="43" t="s">
         <v>70</v>
       </c>
@@ -14617,10 +14657,10 @@
       </c>
     </row>
     <row r="61" spans="2:45" x14ac:dyDescent="0.25">
-      <c r="AG61" s="120" t="s">
+      <c r="AG61" s="118" t="s">
         <v>143</v>
       </c>
-      <c r="AH61" s="120"/>
+      <c r="AH61" s="118"/>
       <c r="AI61" s="43" t="s">
         <v>70</v>
       </c>
@@ -14639,36 +14679,15 @@
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="AG61:AH61"/>
-    <mergeCell ref="AG56:AH57"/>
-    <mergeCell ref="AG58:AH58"/>
-    <mergeCell ref="AI56:AM56"/>
-    <mergeCell ref="AG59:AH59"/>
-    <mergeCell ref="AG60:AH60"/>
-    <mergeCell ref="T44:AC44"/>
-    <mergeCell ref="AD44:AD45"/>
-    <mergeCell ref="R46:R51"/>
-    <mergeCell ref="B44:C45"/>
-    <mergeCell ref="D44:M44"/>
-    <mergeCell ref="N44:N45"/>
-    <mergeCell ref="B46:B51"/>
-    <mergeCell ref="R44:S45"/>
-    <mergeCell ref="R4:S5"/>
-    <mergeCell ref="T4:AC4"/>
-    <mergeCell ref="AD4:AD5"/>
-    <mergeCell ref="R6:R11"/>
-    <mergeCell ref="B14:C15"/>
-    <mergeCell ref="D14:M14"/>
-    <mergeCell ref="N14:N15"/>
-    <mergeCell ref="B4:C5"/>
-    <mergeCell ref="D4:M4"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="B6:B11"/>
-    <mergeCell ref="N24:N25"/>
-    <mergeCell ref="B26:B31"/>
-    <mergeCell ref="B34:C35"/>
-    <mergeCell ref="D34:M34"/>
-    <mergeCell ref="N34:N35"/>
+    <mergeCell ref="AS44:AS45"/>
+    <mergeCell ref="AP6:AP15"/>
+    <mergeCell ref="AP5:AQ5"/>
+    <mergeCell ref="AG4:AG5"/>
+    <mergeCell ref="AH4:AH5"/>
+    <mergeCell ref="AI4:AN4"/>
+    <mergeCell ref="AG14:AG15"/>
+    <mergeCell ref="AH14:AH15"/>
+    <mergeCell ref="AI14:AN14"/>
     <mergeCell ref="T34:AC34"/>
     <mergeCell ref="AD34:AD35"/>
     <mergeCell ref="R36:R41"/>
@@ -14685,15 +14704,36 @@
     <mergeCell ref="B16:B21"/>
     <mergeCell ref="B24:C25"/>
     <mergeCell ref="D24:M24"/>
-    <mergeCell ref="AS44:AS45"/>
-    <mergeCell ref="AP6:AP15"/>
-    <mergeCell ref="AP5:AQ5"/>
-    <mergeCell ref="AG4:AG5"/>
-    <mergeCell ref="AH4:AH5"/>
-    <mergeCell ref="AI4:AN4"/>
-    <mergeCell ref="AG14:AG15"/>
-    <mergeCell ref="AH14:AH15"/>
-    <mergeCell ref="AI14:AN14"/>
+    <mergeCell ref="N24:N25"/>
+    <mergeCell ref="B26:B31"/>
+    <mergeCell ref="B34:C35"/>
+    <mergeCell ref="D34:M34"/>
+    <mergeCell ref="N34:N35"/>
+    <mergeCell ref="R4:S5"/>
+    <mergeCell ref="T4:AC4"/>
+    <mergeCell ref="AD4:AD5"/>
+    <mergeCell ref="R6:R11"/>
+    <mergeCell ref="B14:C15"/>
+    <mergeCell ref="D14:M14"/>
+    <mergeCell ref="N14:N15"/>
+    <mergeCell ref="B4:C5"/>
+    <mergeCell ref="D4:M4"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="B6:B11"/>
+    <mergeCell ref="T44:AC44"/>
+    <mergeCell ref="AD44:AD45"/>
+    <mergeCell ref="R46:R51"/>
+    <mergeCell ref="B44:C45"/>
+    <mergeCell ref="D44:M44"/>
+    <mergeCell ref="N44:N45"/>
+    <mergeCell ref="B46:B51"/>
+    <mergeCell ref="R44:S45"/>
+    <mergeCell ref="AG61:AH61"/>
+    <mergeCell ref="AG56:AH57"/>
+    <mergeCell ref="AG58:AH58"/>
+    <mergeCell ref="AI56:AM56"/>
+    <mergeCell ref="AG59:AH59"/>
+    <mergeCell ref="AG60:AH60"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -14713,43 +14753,43 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="4" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B4" s="111" t="s">
+      <c r="B4" s="115" t="s">
         <v>120</v>
       </c>
-      <c r="C4" s="111"/>
-      <c r="D4" s="112" t="s">
+      <c r="C4" s="115"/>
+      <c r="D4" s="116" t="s">
         <v>100</v>
       </c>
-      <c r="E4" s="112"/>
-      <c r="F4" s="112"/>
-      <c r="G4" s="112"/>
-      <c r="H4" s="112"/>
-      <c r="I4" s="112"/>
-      <c r="J4" s="112"/>
-      <c r="K4" s="112"/>
-      <c r="L4" s="112"/>
-      <c r="M4" s="112"/>
-      <c r="N4" s="113" t="s">
+      <c r="E4" s="116"/>
+      <c r="F4" s="116"/>
+      <c r="G4" s="116"/>
+      <c r="H4" s="116"/>
+      <c r="I4" s="116"/>
+      <c r="J4" s="116"/>
+      <c r="K4" s="116"/>
+      <c r="L4" s="116"/>
+      <c r="M4" s="116"/>
+      <c r="N4" s="112" t="s">
         <v>105</v>
       </c>
-      <c r="Q4" s="113" t="s">
+      <c r="Q4" s="112" t="s">
         <v>59</v>
       </c>
-      <c r="R4" s="112" t="s">
+      <c r="R4" s="116" t="s">
         <v>109</v>
       </c>
-      <c r="S4" s="112" t="s">
+      <c r="S4" s="116" t="s">
         <v>110</v>
       </c>
-      <c r="T4" s="112"/>
-      <c r="U4" s="112"/>
-      <c r="V4" s="112"/>
-      <c r="W4" s="112"/>
-      <c r="X4" s="112"/>
+      <c r="T4" s="116"/>
+      <c r="U4" s="116"/>
+      <c r="V4" s="116"/>
+      <c r="W4" s="116"/>
+      <c r="X4" s="116"/>
     </row>
     <row r="5" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="111"/>
-      <c r="C5" s="111"/>
+      <c r="B5" s="115"/>
+      <c r="C5" s="115"/>
       <c r="D5" s="56">
         <v>1</v>
       </c>
@@ -14780,9 +14820,9 @@
       <c r="M5" s="56">
         <v>10</v>
       </c>
-      <c r="N5" s="113"/>
-      <c r="Q5" s="113"/>
-      <c r="R5" s="112"/>
+      <c r="N5" s="112"/>
+      <c r="Q5" s="112"/>
+      <c r="R5" s="116"/>
       <c r="S5" s="60" t="s">
         <v>1</v>
       </c>
@@ -14803,7 +14843,7 @@
       </c>
     </row>
     <row r="6" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B6" s="119" t="s">
+      <c r="B6" s="120" t="s">
         <v>110</v>
       </c>
       <c r="C6" s="56" t="s">
@@ -14875,7 +14915,7 @@
       </c>
     </row>
     <row r="7" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B7" s="119"/>
+      <c r="B7" s="120"/>
       <c r="C7" s="56" t="s">
         <v>2</v>
       </c>
@@ -14945,7 +14985,7 @@
       </c>
     </row>
     <row r="8" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B8" s="119"/>
+      <c r="B8" s="120"/>
       <c r="C8" s="56" t="s">
         <v>3</v>
       </c>
@@ -15015,7 +15055,7 @@
       </c>
     </row>
     <row r="9" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B9" s="119"/>
+      <c r="B9" s="120"/>
       <c r="C9" s="56" t="s">
         <v>52</v>
       </c>
@@ -15085,7 +15125,7 @@
       </c>
     </row>
     <row r="10" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B10" s="119"/>
+      <c r="B10" s="120"/>
       <c r="C10" s="56" t="s">
         <v>51</v>
       </c>
@@ -15155,7 +15195,7 @@
       </c>
     </row>
     <row r="11" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B11" s="119"/>
+      <c r="B11" s="120"/>
       <c r="C11" s="56" t="s">
         <v>69</v>
       </c>
@@ -15195,29 +15235,29 @@
       </c>
     </row>
     <row r="14" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B14" s="111" t="s">
+      <c r="B14" s="115" t="s">
         <v>121</v>
       </c>
-      <c r="C14" s="111"/>
-      <c r="D14" s="112" t="s">
+      <c r="C14" s="115"/>
+      <c r="D14" s="116" t="s">
         <v>100</v>
       </c>
-      <c r="E14" s="112"/>
-      <c r="F14" s="112"/>
-      <c r="G14" s="112"/>
-      <c r="H14" s="112"/>
-      <c r="I14" s="112"/>
-      <c r="J14" s="112"/>
-      <c r="K14" s="112"/>
-      <c r="L14" s="112"/>
-      <c r="M14" s="112"/>
-      <c r="N14" s="113" t="s">
+      <c r="E14" s="116"/>
+      <c r="F14" s="116"/>
+      <c r="G14" s="116"/>
+      <c r="H14" s="116"/>
+      <c r="I14" s="116"/>
+      <c r="J14" s="116"/>
+      <c r="K14" s="116"/>
+      <c r="L14" s="116"/>
+      <c r="M14" s="116"/>
+      <c r="N14" s="112" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="15" spans="2:24" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="111"/>
-      <c r="C15" s="111"/>
+      <c r="B15" s="115"/>
+      <c r="C15" s="115"/>
       <c r="D15" s="56">
         <v>1</v>
       </c>
@@ -15248,10 +15288,10 @@
       <c r="M15" s="56">
         <v>10</v>
       </c>
-      <c r="N15" s="113"/>
+      <c r="N15" s="112"/>
     </row>
     <row r="16" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B16" s="119" t="s">
+      <c r="B16" s="120" t="s">
         <v>110</v>
       </c>
       <c r="C16" s="56" t="s">
@@ -15293,7 +15333,7 @@
       </c>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B17" s="119"/>
+      <c r="B17" s="120"/>
       <c r="C17" s="56" t="s">
         <v>2</v>
       </c>
@@ -15333,7 +15373,7 @@
       </c>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B18" s="119"/>
+      <c r="B18" s="120"/>
       <c r="C18" s="56" t="s">
         <v>3</v>
       </c>
@@ -15373,7 +15413,7 @@
       </c>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B19" s="119"/>
+      <c r="B19" s="120"/>
       <c r="C19" s="56" t="s">
         <v>52</v>
       </c>
@@ -15413,7 +15453,7 @@
       </c>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B20" s="119"/>
+      <c r="B20" s="120"/>
       <c r="C20" s="56" t="s">
         <v>51</v>
       </c>
@@ -15453,7 +15493,7 @@
       </c>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B21" s="119"/>
+      <c r="B21" s="120"/>
       <c r="C21" s="56" t="s">
         <v>69</v>
       </c>
@@ -15493,29 +15533,29 @@
       </c>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B24" s="111" t="s">
+      <c r="B24" s="115" t="s">
         <v>122</v>
       </c>
-      <c r="C24" s="111"/>
-      <c r="D24" s="112" t="s">
+      <c r="C24" s="115"/>
+      <c r="D24" s="116" t="s">
         <v>100</v>
       </c>
-      <c r="E24" s="112"/>
-      <c r="F24" s="112"/>
-      <c r="G24" s="112"/>
-      <c r="H24" s="112"/>
-      <c r="I24" s="112"/>
-      <c r="J24" s="112"/>
-      <c r="K24" s="112"/>
-      <c r="L24" s="112"/>
-      <c r="M24" s="112"/>
-      <c r="N24" s="113" t="s">
+      <c r="E24" s="116"/>
+      <c r="F24" s="116"/>
+      <c r="G24" s="116"/>
+      <c r="H24" s="116"/>
+      <c r="I24" s="116"/>
+      <c r="J24" s="116"/>
+      <c r="K24" s="116"/>
+      <c r="L24" s="116"/>
+      <c r="M24" s="116"/>
+      <c r="N24" s="112" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="25" spans="2:14" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="111"/>
-      <c r="C25" s="111"/>
+      <c r="B25" s="115"/>
+      <c r="C25" s="115"/>
       <c r="D25" s="56">
         <v>1</v>
       </c>
@@ -15546,10 +15586,10 @@
       <c r="M25" s="56">
         <v>10</v>
       </c>
-      <c r="N25" s="113"/>
+      <c r="N25" s="112"/>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B26" s="119" t="s">
+      <c r="B26" s="120" t="s">
         <v>110</v>
       </c>
       <c r="C26" s="56" t="s">
@@ -15591,7 +15631,7 @@
       </c>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B27" s="119"/>
+      <c r="B27" s="120"/>
       <c r="C27" s="56" t="s">
         <v>2</v>
       </c>
@@ -15631,7 +15671,7 @@
       </c>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B28" s="119"/>
+      <c r="B28" s="120"/>
       <c r="C28" s="56" t="s">
         <v>3</v>
       </c>
@@ -15671,7 +15711,7 @@
       </c>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B29" s="119"/>
+      <c r="B29" s="120"/>
       <c r="C29" s="56" t="s">
         <v>52</v>
       </c>
@@ -15711,7 +15751,7 @@
       </c>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B30" s="119"/>
+      <c r="B30" s="120"/>
       <c r="C30" s="56" t="s">
         <v>51</v>
       </c>
@@ -15751,7 +15791,7 @@
       </c>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B31" s="119"/>
+      <c r="B31" s="120"/>
       <c r="C31" s="54" t="s">
         <v>69</v>
       </c>
@@ -15790,29 +15830,29 @@
       </c>
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B34" s="111" t="s">
+      <c r="B34" s="115" t="s">
         <v>123</v>
       </c>
-      <c r="C34" s="111"/>
-      <c r="D34" s="112" t="s">
+      <c r="C34" s="115"/>
+      <c r="D34" s="116" t="s">
         <v>100</v>
       </c>
-      <c r="E34" s="112"/>
-      <c r="F34" s="112"/>
-      <c r="G34" s="112"/>
-      <c r="H34" s="112"/>
-      <c r="I34" s="112"/>
-      <c r="J34" s="112"/>
-      <c r="K34" s="112"/>
-      <c r="L34" s="112"/>
-      <c r="M34" s="112"/>
-      <c r="N34" s="113" t="s">
+      <c r="E34" s="116"/>
+      <c r="F34" s="116"/>
+      <c r="G34" s="116"/>
+      <c r="H34" s="116"/>
+      <c r="I34" s="116"/>
+      <c r="J34" s="116"/>
+      <c r="K34" s="116"/>
+      <c r="L34" s="116"/>
+      <c r="M34" s="116"/>
+      <c r="N34" s="112" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="35" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="111"/>
-      <c r="C35" s="111"/>
+      <c r="B35" s="115"/>
+      <c r="C35" s="115"/>
       <c r="D35" s="56">
         <v>1</v>
       </c>
@@ -15843,10 +15883,10 @@
       <c r="M35" s="56">
         <v>10</v>
       </c>
-      <c r="N35" s="113"/>
+      <c r="N35" s="112"/>
     </row>
     <row r="36" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B36" s="119" t="s">
+      <c r="B36" s="120" t="s">
         <v>110</v>
       </c>
       <c r="C36" s="56" t="s">
@@ -15888,7 +15928,7 @@
       </c>
     </row>
     <row r="37" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B37" s="119"/>
+      <c r="B37" s="120"/>
       <c r="C37" s="56" t="s">
         <v>2</v>
       </c>
@@ -15928,7 +15968,7 @@
       </c>
     </row>
     <row r="38" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B38" s="119"/>
+      <c r="B38" s="120"/>
       <c r="C38" s="56" t="s">
         <v>3</v>
       </c>
@@ -15968,7 +16008,7 @@
       </c>
     </row>
     <row r="39" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B39" s="119"/>
+      <c r="B39" s="120"/>
       <c r="C39" s="56" t="s">
         <v>52</v>
       </c>
@@ -16008,7 +16048,7 @@
       </c>
     </row>
     <row r="40" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B40" s="119"/>
+      <c r="B40" s="120"/>
       <c r="C40" s="56" t="s">
         <v>51</v>
       </c>
@@ -16048,7 +16088,7 @@
       </c>
     </row>
     <row r="41" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B41" s="119"/>
+      <c r="B41" s="120"/>
       <c r="C41" s="54" t="s">
         <v>69</v>
       </c>
@@ -16087,29 +16127,29 @@
       </c>
     </row>
     <row r="44" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B44" s="111" t="s">
+      <c r="B44" s="115" t="s">
         <v>126</v>
       </c>
-      <c r="C44" s="111"/>
-      <c r="D44" s="112" t="s">
+      <c r="C44" s="115"/>
+      <c r="D44" s="116" t="s">
         <v>100</v>
       </c>
-      <c r="E44" s="112"/>
-      <c r="F44" s="112"/>
-      <c r="G44" s="112"/>
-      <c r="H44" s="112"/>
-      <c r="I44" s="112"/>
-      <c r="J44" s="112"/>
-      <c r="K44" s="112"/>
-      <c r="L44" s="112"/>
-      <c r="M44" s="112"/>
-      <c r="N44" s="113" t="s">
+      <c r="E44" s="116"/>
+      <c r="F44" s="116"/>
+      <c r="G44" s="116"/>
+      <c r="H44" s="116"/>
+      <c r="I44" s="116"/>
+      <c r="J44" s="116"/>
+      <c r="K44" s="116"/>
+      <c r="L44" s="116"/>
+      <c r="M44" s="116"/>
+      <c r="N44" s="112" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="45" spans="2:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="111"/>
-      <c r="C45" s="111"/>
+      <c r="B45" s="115"/>
+      <c r="C45" s="115"/>
       <c r="D45" s="62">
         <v>1</v>
       </c>
@@ -16140,10 +16180,10 @@
       <c r="M45" s="62">
         <v>10</v>
       </c>
-      <c r="N45" s="113"/>
+      <c r="N45" s="112"/>
     </row>
     <row r="46" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B46" s="119" t="s">
+      <c r="B46" s="120" t="s">
         <v>110</v>
       </c>
       <c r="C46" s="62" t="s">
@@ -16185,7 +16225,7 @@
       </c>
     </row>
     <row r="47" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B47" s="119"/>
+      <c r="B47" s="120"/>
       <c r="C47" s="62" t="s">
         <v>2</v>
       </c>
@@ -16225,7 +16265,7 @@
       </c>
     </row>
     <row r="48" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B48" s="119"/>
+      <c r="B48" s="120"/>
       <c r="C48" s="62" t="s">
         <v>3</v>
       </c>
@@ -16265,7 +16305,7 @@
       </c>
     </row>
     <row r="49" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B49" s="119"/>
+      <c r="B49" s="120"/>
       <c r="C49" s="62" t="s">
         <v>52</v>
       </c>
@@ -16305,7 +16345,7 @@
       </c>
     </row>
     <row r="50" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B50" s="119"/>
+      <c r="B50" s="120"/>
       <c r="C50" s="54" t="s">
         <v>51</v>
       </c>
@@ -16344,7 +16384,7 @@
       </c>
     </row>
     <row r="51" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B51" s="119"/>
+      <c r="B51" s="120"/>
       <c r="C51" s="54" t="s">
         <v>69</v>
       </c>
@@ -16384,13 +16424,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="D34:M34"/>
-    <mergeCell ref="N34:N35"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:X4"/>
-    <mergeCell ref="B4:C5"/>
-    <mergeCell ref="D4:M4"/>
-    <mergeCell ref="N4:N5"/>
     <mergeCell ref="B44:C45"/>
     <mergeCell ref="D44:M44"/>
     <mergeCell ref="N44:N45"/>
@@ -16407,6 +16440,13 @@
     <mergeCell ref="N24:N25"/>
     <mergeCell ref="B26:B31"/>
     <mergeCell ref="B34:C35"/>
+    <mergeCell ref="D34:M34"/>
+    <mergeCell ref="N34:N35"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:X4"/>
+    <mergeCell ref="B4:C5"/>
+    <mergeCell ref="D4:M4"/>
+    <mergeCell ref="N4:N5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -16416,7 +16456,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B6:R38"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="U7" sqref="U7"/>
     </sheetView>
   </sheetViews>
@@ -16487,7 +16527,7 @@
       </c>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B8" s="132">
+      <c r="B8" s="125">
         <v>584</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -16508,7 +16548,7 @@
       <c r="H8" s="1">
         <v>8.0800000000000004E-3</v>
       </c>
-      <c r="L8" s="122">
+      <c r="L8" s="126">
         <v>584</v>
       </c>
       <c r="M8" s="1" t="s">
@@ -16531,7 +16571,7 @@
       </c>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B9" s="132"/>
+      <c r="B9" s="125"/>
       <c r="C9" s="1" t="s">
         <v>68</v>
       </c>
@@ -16550,7 +16590,7 @@
       <c r="H9" s="1">
         <v>4.5935999999999998E-2</v>
       </c>
-      <c r="L9" s="123"/>
+      <c r="L9" s="127"/>
       <c r="M9" s="1" t="s">
         <v>65</v>
       </c>
@@ -16576,7 +16616,7 @@
       </c>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B10" s="133">
+      <c r="B10" s="123">
         <v>980</v>
       </c>
       <c r="C10" s="16" t="s">
@@ -16597,7 +16637,7 @@
       <c r="H10" s="16">
         <v>1.2456E-2</v>
       </c>
-      <c r="L10" s="123"/>
+      <c r="L10" s="127"/>
       <c r="M10" s="1" t="s">
         <v>61</v>
       </c>
@@ -16618,7 +16658,7 @@
       </c>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B11" s="133"/>
+      <c r="B11" s="123"/>
       <c r="C11" s="16" t="s">
         <v>68</v>
       </c>
@@ -16637,7 +16677,7 @@
       <c r="H11" s="16">
         <v>6.3119999999999996E-2</v>
       </c>
-      <c r="L11" s="124"/>
+      <c r="L11" s="128"/>
       <c r="M11" s="1" t="s">
         <v>66</v>
       </c>
@@ -16663,7 +16703,7 @@
       </c>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B12" s="112">
+      <c r="B12" s="116">
         <v>1280</v>
       </c>
       <c r="C12" s="4" t="s">
@@ -16684,7 +16724,7 @@
       <c r="H12" s="4">
         <v>1.5299999999999999E-2</v>
       </c>
-      <c r="L12" s="125">
+      <c r="L12" s="129">
         <v>980</v>
       </c>
       <c r="M12" s="16" t="s">
@@ -16707,7 +16747,7 @@
       </c>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B13" s="112"/>
+      <c r="B13" s="116"/>
       <c r="C13" s="4" t="s">
         <v>68</v>
       </c>
@@ -16726,7 +16766,7 @@
       <c r="H13" s="4">
         <v>6.6844000000000001E-2</v>
       </c>
-      <c r="L13" s="126"/>
+      <c r="L13" s="130"/>
       <c r="M13" s="16" t="s">
         <v>66</v>
       </c>
@@ -16752,7 +16792,7 @@
       </c>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B14" s="131">
+      <c r="B14" s="124">
         <v>1345</v>
       </c>
       <c r="C14" s="7" t="s">
@@ -16773,7 +16813,7 @@
       <c r="H14" s="7">
         <v>1.5807999999999999E-2</v>
       </c>
-      <c r="L14" s="126"/>
+      <c r="L14" s="130"/>
       <c r="M14" s="16" t="s">
         <v>61</v>
       </c>
@@ -16794,7 +16834,7 @@
       </c>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B15" s="131"/>
+      <c r="B15" s="124"/>
       <c r="C15" s="7" t="s">
         <v>68</v>
       </c>
@@ -16813,7 +16853,7 @@
       <c r="H15" s="7">
         <v>6.7227999999999996E-2</v>
       </c>
-      <c r="L15" s="127"/>
+      <c r="L15" s="131"/>
       <c r="M15" s="16" t="s">
         <v>66</v>
       </c>
@@ -16839,7 +16879,7 @@
       </c>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="L16" s="128">
+      <c r="L16" s="132">
         <v>1280</v>
       </c>
       <c r="M16" s="4" t="s">
@@ -16862,7 +16902,7 @@
       </c>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="L17" s="129"/>
+      <c r="L17" s="133"/>
       <c r="M17" s="4" t="s">
         <v>65</v>
       </c>
@@ -16888,7 +16928,7 @@
       </c>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="L18" s="129"/>
+      <c r="L18" s="133"/>
       <c r="M18" s="4" t="s">
         <v>61</v>
       </c>
@@ -16909,7 +16949,7 @@
       </c>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="L19" s="130"/>
+      <c r="L19" s="134"/>
       <c r="M19" s="4" t="s">
         <v>65</v>
       </c>
@@ -16935,7 +16975,7 @@
       </c>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="L20" s="131">
+      <c r="L20" s="124">
         <v>1345</v>
       </c>
       <c r="M20" s="7" t="s">
@@ -16958,7 +16998,7 @@
       </c>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="L21" s="131"/>
+      <c r="L21" s="124"/>
       <c r="M21" s="7" t="s">
         <v>65</v>
       </c>
@@ -16984,7 +17024,7 @@
       </c>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="L22" s="131"/>
+      <c r="L22" s="124"/>
       <c r="M22" s="7" t="s">
         <v>61</v>
       </c>
@@ -17005,7 +17045,7 @@
       </c>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="L23" s="131"/>
+      <c r="L23" s="124"/>
       <c r="M23" s="7" t="s">
         <v>65</v>
       </c>
@@ -17059,7 +17099,7 @@
       </c>
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B31" s="132">
+      <c r="B31" s="125">
         <v>584</v>
       </c>
       <c r="C31" s="1" t="s">
@@ -17082,7 +17122,7 @@
       </c>
     </row>
     <row r="32" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B32" s="132"/>
+      <c r="B32" s="125"/>
       <c r="C32" s="1" t="s">
         <v>68</v>
       </c>
@@ -17103,7 +17143,7 @@
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B33" s="133">
+      <c r="B33" s="123">
         <v>980</v>
       </c>
       <c r="C33" s="16" t="s">
@@ -17126,7 +17166,7 @@
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B34" s="133"/>
+      <c r="B34" s="123"/>
       <c r="C34" s="16" t="s">
         <v>68</v>
       </c>
@@ -17147,7 +17187,7 @@
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B35" s="112">
+      <c r="B35" s="116">
         <v>1280</v>
       </c>
       <c r="C35" s="4" t="s">
@@ -17170,7 +17210,7 @@
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B36" s="112"/>
+      <c r="B36" s="116"/>
       <c r="C36" s="4" t="s">
         <v>68</v>
       </c>
@@ -17191,7 +17231,7 @@
       </c>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B37" s="131">
+      <c r="B37" s="124">
         <v>1345</v>
       </c>
       <c r="C37" s="7" t="s">
@@ -17214,7 +17254,7 @@
       </c>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B38" s="131"/>
+      <c r="B38" s="124"/>
       <c r="C38" s="7" t="s">
         <v>68</v>
       </c>
@@ -17236,6 +17276,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="L8:L11"/>
+    <mergeCell ref="L12:L15"/>
+    <mergeCell ref="L16:L19"/>
+    <mergeCell ref="L20:L23"/>
+    <mergeCell ref="B31:B32"/>
     <mergeCell ref="B33:B34"/>
     <mergeCell ref="B35:B36"/>
     <mergeCell ref="B37:B38"/>
@@ -17243,11 +17288,6 @@
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="B14:B15"/>
-    <mergeCell ref="L8:L11"/>
-    <mergeCell ref="L12:L15"/>
-    <mergeCell ref="L16:L19"/>
-    <mergeCell ref="L20:L23"/>
-    <mergeCell ref="B31:B32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -17258,7 +17298,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A5:R19"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
@@ -17273,7 +17313,7 @@
   </cols>
   <sheetData>
     <row r="5" spans="1:18" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="134" t="s">
+      <c r="A5" s="135" t="s">
         <v>73</v>
       </c>
       <c r="B5" s="32" t="s">
@@ -17299,7 +17339,7 @@
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="134"/>
+      <c r="A6" s="135"/>
       <c r="B6" s="33">
         <v>584</v>
       </c>
@@ -17323,7 +17363,7 @@
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="134"/>
+      <c r="A7" s="135"/>
       <c r="B7" s="33">
         <v>980</v>
       </c>
@@ -17347,7 +17387,7 @@
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="134"/>
+      <c r="A8" s="135"/>
       <c r="B8" s="33">
         <v>1280</v>
       </c>
@@ -17371,7 +17411,7 @@
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="134"/>
+      <c r="A9" s="135"/>
       <c r="B9" s="33">
         <v>1435</v>
       </c>
@@ -17395,7 +17435,7 @@
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="134"/>
+      <c r="A10" s="135"/>
       <c r="B10" s="33">
         <v>1640</v>
       </c>
@@ -17419,7 +17459,7 @@
       </c>
     </row>
     <row r="14" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="134" t="s">
+      <c r="A14" s="135" t="s">
         <v>72</v>
       </c>
       <c r="B14" s="32" t="s">
@@ -17445,7 +17485,7 @@
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="134"/>
+      <c r="A15" s="135"/>
       <c r="B15" s="33">
         <v>584</v>
       </c>
@@ -17457,7 +17497,7 @@
       <c r="H15" s="1"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="134"/>
+      <c r="A16" s="135"/>
       <c r="B16" s="33">
         <v>980</v>
       </c>
@@ -17467,11 +17507,11 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="5"/>
-      <c r="K16" s="135" t="s">
+      <c r="K16" s="136" t="s">
         <v>74</v>
       </c>
-      <c r="L16" s="135"/>
-      <c r="M16" s="135"/>
+      <c r="L16" s="136"/>
+      <c r="M16" s="136"/>
       <c r="P16" s="11" t="s">
         <v>80</v>
       </c>
@@ -17483,7 +17523,7 @@
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="134"/>
+      <c r="A17" s="135"/>
       <c r="B17" s="33">
         <v>1280</v>
       </c>
@@ -17513,7 +17553,7 @@
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="134"/>
+      <c r="A18" s="135"/>
       <c r="B18" s="33">
         <v>1435</v>
       </c>
@@ -17543,7 +17583,7 @@
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="134"/>
+      <c r="A19" s="135"/>
       <c r="B19" s="33">
         <v>1640</v>
       </c>

--- a/Data Hasil Uji Coba/Uji Coba.xlsx
+++ b/Data Hasil Uji Coba/Uji Coba.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{D1345571-090F-4A79-B327-E219DF105440}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{0D0E1C21-8F02-44C2-ABDE-457FD07B0EE9}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Static Buffer" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="926" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="939" uniqueCount="174">
   <si>
     <t>0 x</t>
   </si>
@@ -559,6 +559,15 @@
   <si>
     <t>1345 karaker</t>
   </si>
+  <si>
+    <t>HS (4,3)</t>
+  </si>
+  <si>
+    <t>HS (5,4)</t>
+  </si>
+  <si>
+    <t>HS (6,5)</t>
+  </si>
 </sst>
 </file>
 
@@ -867,7 +876,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="137">
+  <cellXfs count="141">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1058,26 +1067,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1115,31 +1136,25 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1160,6 +1175,12 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1169,23 +1190,8 @@
     <xf numFmtId="164" fontId="0" fillId="14" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="14" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1193,13 +1199,13 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1229,11 +1235,26 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1294,23 +1315,34 @@
             <a:r>
               <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
                 <a:effectLst/>
+                <a:latin typeface="+mj-lt"/>
               </a:rPr>
               <a:t>Perbandingan </a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" sz="1800" b="0" i="1" baseline="0">
                 <a:effectLst/>
+                <a:latin typeface="+mj-lt"/>
               </a:rPr>
               <a:t>Packet Delivery Ratio</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
                 <a:effectLst/>
+                <a:latin typeface="+mj-lt"/>
               </a:rPr>
-              <a:t>  ZigBee pada Jarak Berbeda - beda</a:t>
+              <a:t>  ZigBee pada Jaringan </a:t>
             </a:r>
-            <a:endParaRPr lang="en-US">
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="0" i="1" baseline="0">
+                <a:effectLst/>
+                <a:latin typeface="+mj-lt"/>
+              </a:rPr>
+              <a:t>Single Hop</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" b="0" i="1">
               <a:effectLst/>
+              <a:latin typeface="+mj-lt"/>
             </a:endParaRPr>
           </a:p>
         </c:rich>
@@ -1615,6 +1647,69 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Jarak</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.49883425624723349"/>
+              <c:y val="0.78508965946676335"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1680,6 +1775,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Persentase</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0.0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1856,8 +2006,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.12795865827776312"/>
-          <c:y val="4.1585436583641777E-2"/>
+          <c:x val="0.24772213670084289"/>
+          <c:y val="4.1585499055008329E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1920,6 +2070,64 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>'Akurasi Multi hop'!$S$6:$U$6</c:f>
@@ -1985,6 +2193,64 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>'Akurasi Multi hop'!$S$6:$U$6</c:f>
@@ -2027,8 +2293,9 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -2046,6 +2313,61 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Jarak</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2111,6 +2433,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Persentase</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0.0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2229,6 +2606,1619 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>Efektifitas Kompresi Data</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Efektifitas!$AY$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>584 karakter</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Efektifitas!$AZ$15:$BE$15</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>HS (4,3)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>HS (5,4)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>HS (6,5)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>HS (7,6)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>HS (8,7)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>HS (9,8)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Efektifitas!$AZ$16:$BE$16</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>9.2636986301369864E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2441780821917808</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.31849315068493156</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.49383561643835616</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.59845890410958913</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.56746575342465744</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-11D3-4E71-9E64-F3C717FFB81F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Efektifitas!$AY$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>980 karakter</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Efektifitas!$AZ$15:$BE$15</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>HS (4,3)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>HS (5,4)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>HS (6,5)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>HS (7,6)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>HS (8,7)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>HS (9,8)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Efektifitas!$AZ$17:$BE$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>9.5918367346938788E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.19918367346938778</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.32346938775510203</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.49091836734693883</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.54499999999999993</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.60499999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-11D3-4E71-9E64-F3C717FFB81F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Efektifitas!$AY$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1280 karakter</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Efektifitas!$AZ$15:$BE$15</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>HS (4,3)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>HS (5,4)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>HS (6,5)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>HS (7,6)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>HS (8,7)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>HS (9,8)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Efektifitas!$AZ$18:$BE$18</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.10015624999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.16820312499999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.37398437499999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.45929687499999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.50226562500000005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-11D3-4E71-9E64-F3C717FFB81F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Efektifitas!$AY$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1345 karakter</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Efektifitas!$AZ$15:$BE$15</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>HS (4,3)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>HS (5,4)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>HS (6,5)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>HS (7,6)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>HS (8,7)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>HS (9,8)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Efektifitas!$AZ$19:$BE$19</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.10200743494423789</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.16988847583643124</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.37724907063197022</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.45933085501858739</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.54542750929368033</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-11D3-4E71-9E64-F3C717FFB81F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Efektifitas!$AY$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1870 karakter</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Efektifitas!$AZ$15:$BE$15</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>HS (4,3)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>HS (5,4)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>HS (6,5)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>HS (7,6)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>HS (8,7)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>HS (9,8)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Efektifitas!$AZ$20:$BE$20</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5.0641711229946505E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.11176470588235295</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.20358288770053479</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.27796791443850272</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-11D3-4E71-9E64-F3C717FFB81F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="407348752"/>
+        <c:axId val="407349080"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="407348752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Konfigurasi</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> E</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>ncoder</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="407349080"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="407349080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Persentase</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Efektifitas</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="407348752"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Waktu Kompresi Data</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Efektifitas!$AY$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>584 karakter</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Efektifitas!$AZ$25:$BE$25</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>HS (4,3)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>HS (5,4)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>HS (6,5)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>HS (7,6)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>HS (8,7)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>HS (9,8)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Efektifitas!$AZ$26:$BE$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5.8035200000000009E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.6922399999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.1415600000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.2311600000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.9476800000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.0045600000000006E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3348-4E38-BC65-DC02286C93AB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Efektifitas!$AY$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>980 karakter</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Efektifitas!$AZ$25:$BE$25</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>HS (4,3)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>HS (5,4)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>HS (6,5)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>HS (7,6)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>HS (8,7)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>HS (9,8)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Efektifitas!$AZ$27:$BE$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>9.6875600000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.1484000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.8795999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.4722799999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.2898399999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.9896800000000005E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3348-4E38-BC65-DC02286C93AB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Efektifitas!$AY$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1280 karakter</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Efektifitas!$AZ$25:$BE$25</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>HS (4,3)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>HS (5,4)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>HS (6,5)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>HS (7,6)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>HS (8,7)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>HS (9,8)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Efektifitas!$AZ$28:$BE$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.12733359999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.11091480000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.7704799999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.7805600000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.8400400000000009E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-3348-4E38-BC65-DC02286C93AB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Efektifitas!$AY$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1345 karakter</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Efektifitas!$AZ$25:$BE$25</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>HS (4,3)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>HS (5,4)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>HS (6,5)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>HS (7,6)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>HS (8,7)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>HS (9,8)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Efektifitas!$AZ$29:$BE$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.1336464</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.11642079999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.1741199999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.16828E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.2377599999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-3348-4E38-BC65-DC02286C93AB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Efektifitas!$AY$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1870 karakter</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Efektifitas!$AZ$25:$BE$25</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>HS (4,3)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>HS (5,4)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>HS (6,5)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>HS (7,6)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>HS (8,7)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>HS (9,8)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Efektifitas!$AZ$30:$BE$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.19123519999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1675944</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.14966200000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.14012160000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-3348-4E38-BC65-DC02286C93AB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="558355808"/>
+        <c:axId val="558356136"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="558355808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Konfigurasi</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Encoder</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="558356136"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="558356136"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Waktu yang Dibutuhkan</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="558355808"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2270,6 +4260,86 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -3315,20 +5385,1026 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>128587</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>180974</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>80962</xdr:rowOff>
+      <xdr:rowOff>80961</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>471487</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>157162</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3360,16 +6436,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>176212</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>424543</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>40140</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>379054</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>40822</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3389,6 +6465,83 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>306159</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>2720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>326570</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>149678</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B60DEA01-95DB-46F3-82B8-A83C65CA10DE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>244928</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>356508</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>258536</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>108857</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1F854C3-0B00-4619-8E02-F9088E70A420}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3691,32 +6844,32 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="105" t="s">
+      <c r="A2" s="86" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="105"/>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="105"/>
-      <c r="F2" s="105"/>
-      <c r="G2" s="105"/>
-      <c r="H2" s="105"/>
-      <c r="K2" s="105" t="s">
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
+      <c r="K2" s="86" t="s">
         <v>37</v>
       </c>
-      <c r="L2" s="105"/>
-      <c r="M2" s="105"/>
-      <c r="N2" s="105"/>
-      <c r="O2" s="105"/>
-      <c r="P2" s="105"/>
-      <c r="Q2" s="105"/>
-      <c r="R2" s="105"/>
+      <c r="L2" s="86"/>
+      <c r="M2" s="86"/>
+      <c r="N2" s="86"/>
+      <c r="O2" s="86"/>
+      <c r="P2" s="86"/>
+      <c r="Q2" s="86"/>
+      <c r="R2" s="86"/>
     </row>
     <row r="3" spans="1:18" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="103" t="s">
+      <c r="A3" s="87" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="104"/>
+      <c r="B3" s="88"/>
       <c r="C3" s="14"/>
       <c r="D3" s="15" t="s">
         <v>1</v>
@@ -3733,10 +6886,10 @@
       <c r="H3" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="103" t="s">
+      <c r="K3" s="87" t="s">
         <v>31</v>
       </c>
-      <c r="L3" s="104"/>
+      <c r="L3" s="88"/>
       <c r="M3" s="14"/>
       <c r="N3" s="15" t="s">
         <v>1</v>
@@ -3755,10 +6908,10 @@
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="85">
+      <c r="A4" s="89">
         <v>584</v>
       </c>
-      <c r="B4" s="86"/>
+      <c r="B4" s="90"/>
       <c r="C4" s="1" t="s">
         <v>30</v>
       </c>
@@ -3777,10 +6930,10 @@
       <c r="H4" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="85">
+      <c r="K4" s="89">
         <v>584</v>
       </c>
-      <c r="L4" s="86"/>
+      <c r="L4" s="90"/>
       <c r="M4" s="1" t="s">
         <v>30</v>
       </c>
@@ -3801,8 +6954,8 @@
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="87"/>
-      <c r="B5" s="88"/>
+      <c r="A5" s="91"/>
+      <c r="B5" s="92"/>
       <c r="C5" s="1" t="s">
         <v>21</v>
       </c>
@@ -3821,8 +6974,8 @@
       <c r="H5" s="1">
         <v>21</v>
       </c>
-      <c r="K5" s="87"/>
-      <c r="L5" s="88"/>
+      <c r="K5" s="91"/>
+      <c r="L5" s="92"/>
       <c r="M5" s="1" t="s">
         <v>21</v>
       </c>
@@ -3843,8 +6996,8 @@
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="87"/>
-      <c r="B6" s="88"/>
+      <c r="A6" s="91"/>
+      <c r="B6" s="92"/>
       <c r="C6" s="1" t="s">
         <v>33</v>
       </c>
@@ -3868,8 +7021,8 @@
         <f>($A$4-H5)/$A$4</f>
         <v>0.96404109589041098</v>
       </c>
-      <c r="K6" s="87"/>
-      <c r="L6" s="88"/>
+      <c r="K6" s="91"/>
+      <c r="L6" s="92"/>
       <c r="M6" s="1" t="s">
         <v>33</v>
       </c>
@@ -3895,8 +7048,8 @@
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="87"/>
-      <c r="B7" s="88"/>
+      <c r="A7" s="91"/>
+      <c r="B7" s="92"/>
       <c r="C7" s="1" t="s">
         <v>22</v>
       </c>
@@ -3915,8 +7068,8 @@
       <c r="H7" s="1">
         <v>427</v>
       </c>
-      <c r="K7" s="87"/>
-      <c r="L7" s="88"/>
+      <c r="K7" s="91"/>
+      <c r="L7" s="92"/>
       <c r="M7" s="1" t="s">
         <v>22</v>
       </c>
@@ -3937,8 +7090,8 @@
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="89"/>
-      <c r="B8" s="90"/>
+      <c r="A8" s="93"/>
+      <c r="B8" s="94"/>
       <c r="C8" s="1" t="s">
         <v>34</v>
       </c>
@@ -3962,8 +7115,8 @@
         <f>($A$4-H7)/$A$4</f>
         <v>0.26883561643835618</v>
       </c>
-      <c r="K8" s="89"/>
-      <c r="L8" s="90"/>
+      <c r="K8" s="93"/>
+      <c r="L8" s="94"/>
       <c r="M8" s="1" t="s">
         <v>34</v>
       </c>
@@ -3989,10 +7142,10 @@
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="91">
+      <c r="A9" s="95">
         <v>980</v>
       </c>
-      <c r="B9" s="92"/>
+      <c r="B9" s="96"/>
       <c r="C9" s="16" t="s">
         <v>30</v>
       </c>
@@ -4011,10 +7164,10 @@
       <c r="H9" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="K9" s="91">
+      <c r="K9" s="95">
         <v>980</v>
       </c>
-      <c r="L9" s="92"/>
+      <c r="L9" s="96"/>
       <c r="M9" s="16" t="s">
         <v>30</v>
       </c>
@@ -4035,8 +7188,8 @@
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="93"/>
-      <c r="B10" s="94"/>
+      <c r="A10" s="97"/>
+      <c r="B10" s="98"/>
       <c r="C10" s="16" t="s">
         <v>21</v>
       </c>
@@ -4055,8 +7208,8 @@
       <c r="H10" s="16">
         <v>33</v>
       </c>
-      <c r="K10" s="93"/>
-      <c r="L10" s="94"/>
+      <c r="K10" s="97"/>
+      <c r="L10" s="98"/>
       <c r="M10" s="16" t="s">
         <v>21</v>
       </c>
@@ -4077,8 +7230,8 @@
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="93"/>
-      <c r="B11" s="94"/>
+      <c r="A11" s="97"/>
+      <c r="B11" s="98"/>
       <c r="C11" s="16" t="s">
         <v>35</v>
       </c>
@@ -4102,8 +7255,8 @@
         <f>($A$9-H10)/$A$9</f>
         <v>0.96632653061224494</v>
       </c>
-      <c r="K11" s="93"/>
-      <c r="L11" s="94"/>
+      <c r="K11" s="97"/>
+      <c r="L11" s="98"/>
       <c r="M11" s="16" t="s">
         <v>35</v>
       </c>
@@ -4129,8 +7282,8 @@
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="93"/>
-      <c r="B12" s="94"/>
+      <c r="A12" s="97"/>
+      <c r="B12" s="98"/>
       <c r="C12" s="16" t="s">
         <v>22</v>
       </c>
@@ -4149,8 +7302,8 @@
       <c r="H12" s="16">
         <v>564</v>
       </c>
-      <c r="K12" s="93"/>
-      <c r="L12" s="94"/>
+      <c r="K12" s="97"/>
+      <c r="L12" s="98"/>
       <c r="M12" s="16" t="s">
         <v>22</v>
       </c>
@@ -4171,8 +7324,8 @@
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="95"/>
-      <c r="B13" s="96"/>
+      <c r="A13" s="99"/>
+      <c r="B13" s="100"/>
       <c r="C13" s="16" t="s">
         <v>34</v>
       </c>
@@ -4196,8 +7349,8 @@
         <f>($A$9-H12)/$A$9</f>
         <v>0.42448979591836733</v>
       </c>
-      <c r="K13" s="95"/>
-      <c r="L13" s="96"/>
+      <c r="K13" s="99"/>
+      <c r="L13" s="100"/>
       <c r="M13" s="16" t="s">
         <v>34</v>
       </c>
@@ -4223,10 +7376,10 @@
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="97">
+      <c r="A14" s="80">
         <v>1280</v>
       </c>
-      <c r="B14" s="98"/>
+      <c r="B14" s="81"/>
       <c r="C14" s="13" t="s">
         <v>30</v>
       </c>
@@ -4245,10 +7398,10 @@
       <c r="H14" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="97">
+      <c r="K14" s="80">
         <v>1280</v>
       </c>
-      <c r="L14" s="98"/>
+      <c r="L14" s="81"/>
       <c r="M14" s="13" t="s">
         <v>30</v>
       </c>
@@ -4269,8 +7422,8 @@
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="99"/>
-      <c r="B15" s="100"/>
+      <c r="A15" s="82"/>
+      <c r="B15" s="83"/>
       <c r="C15" s="4" t="s">
         <v>21</v>
       </c>
@@ -4287,8 +7440,8 @@
         <v>68</v>
       </c>
       <c r="H15" s="5"/>
-      <c r="K15" s="99"/>
-      <c r="L15" s="100"/>
+      <c r="K15" s="82"/>
+      <c r="L15" s="83"/>
       <c r="M15" s="4" t="s">
         <v>21</v>
       </c>
@@ -4309,8 +7462,8 @@
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="99"/>
-      <c r="B16" s="100"/>
+      <c r="A16" s="82"/>
+      <c r="B16" s="83"/>
       <c r="C16" s="4" t="s">
         <v>35</v>
       </c>
@@ -4334,8 +7487,8 @@
         <f>($A$14-H15)/$A$14</f>
         <v>1</v>
       </c>
-      <c r="K16" s="99"/>
-      <c r="L16" s="100"/>
+      <c r="K16" s="82"/>
+      <c r="L16" s="83"/>
       <c r="M16" s="4" t="s">
         <v>35</v>
       </c>
@@ -4361,8 +7514,8 @@
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="99"/>
-      <c r="B17" s="100"/>
+      <c r="A17" s="82"/>
+      <c r="B17" s="83"/>
       <c r="C17" s="4" t="s">
         <v>22</v>
       </c>
@@ -4379,8 +7532,8 @@
         <v>1120</v>
       </c>
       <c r="H17" s="5"/>
-      <c r="K17" s="99"/>
-      <c r="L17" s="100"/>
+      <c r="K17" s="82"/>
+      <c r="L17" s="83"/>
       <c r="M17" s="4" t="s">
         <v>22</v>
       </c>
@@ -4401,8 +7554,8 @@
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="101"/>
-      <c r="B18" s="102"/>
+      <c r="A18" s="84"/>
+      <c r="B18" s="85"/>
       <c r="C18" s="4" t="s">
         <v>34</v>
       </c>
@@ -4426,8 +7579,8 @@
         <f>($A$14-H17)/$A$14</f>
         <v>1</v>
       </c>
-      <c r="K18" s="101"/>
-      <c r="L18" s="102"/>
+      <c r="K18" s="84"/>
+      <c r="L18" s="85"/>
       <c r="M18" s="4" t="s">
         <v>34</v>
       </c>
@@ -4453,10 +7606,10 @@
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="78">
+      <c r="A19" s="101">
         <v>1345</v>
       </c>
-      <c r="B19" s="79"/>
+      <c r="B19" s="102"/>
       <c r="C19" s="7" t="s">
         <v>30</v>
       </c>
@@ -4475,10 +7628,10 @@
       <c r="H19" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="K19" s="78">
+      <c r="K19" s="101">
         <v>1345</v>
       </c>
-      <c r="L19" s="79"/>
+      <c r="L19" s="102"/>
       <c r="M19" s="7" t="s">
         <v>30</v>
       </c>
@@ -4499,8 +7652,8 @@
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="80"/>
-      <c r="B20" s="81"/>
+      <c r="A20" s="103"/>
+      <c r="B20" s="104"/>
       <c r="C20" s="7" t="s">
         <v>21</v>
       </c>
@@ -4517,8 +7670,8 @@
         <v>129</v>
       </c>
       <c r="H20" s="5"/>
-      <c r="K20" s="80"/>
-      <c r="L20" s="81"/>
+      <c r="K20" s="103"/>
+      <c r="L20" s="104"/>
       <c r="M20" s="7" t="s">
         <v>21</v>
       </c>
@@ -4539,8 +7692,8 @@
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21" s="80"/>
-      <c r="B21" s="81"/>
+      <c r="A21" s="103"/>
+      <c r="B21" s="104"/>
       <c r="C21" s="7" t="s">
         <v>35</v>
       </c>
@@ -4561,8 +7714,8 @@
         <v>0.90408921933085507</v>
       </c>
       <c r="H21" s="5"/>
-      <c r="K21" s="80"/>
-      <c r="L21" s="81"/>
+      <c r="K21" s="103"/>
+      <c r="L21" s="104"/>
       <c r="M21" s="7" t="s">
         <v>35</v>
       </c>
@@ -4588,8 +7741,8 @@
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A22" s="80"/>
-      <c r="B22" s="81"/>
+      <c r="A22" s="103"/>
+      <c r="B22" s="104"/>
       <c r="C22" s="7" t="s">
         <v>22</v>
       </c>
@@ -4606,8 +7759,8 @@
         <v>1182</v>
       </c>
       <c r="H22" s="5"/>
-      <c r="K22" s="80"/>
-      <c r="L22" s="81"/>
+      <c r="K22" s="103"/>
+      <c r="L22" s="104"/>
       <c r="M22" s="7" t="s">
         <v>22</v>
       </c>
@@ -4626,8 +7779,8 @@
       <c r="R22" s="5"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A23" s="82"/>
-      <c r="B23" s="83"/>
+      <c r="A23" s="105"/>
+      <c r="B23" s="106"/>
       <c r="C23" s="7" t="s">
         <v>34</v>
       </c>
@@ -4648,8 +7801,8 @@
         <v>0.12118959107806691</v>
       </c>
       <c r="H23" s="5"/>
-      <c r="K23" s="82"/>
-      <c r="L23" s="83"/>
+      <c r="K23" s="105"/>
+      <c r="L23" s="106"/>
       <c r="M23" s="7" t="s">
         <v>34</v>
       </c>
@@ -4672,10 +7825,10 @@
       <c r="R23" s="5"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="K24" s="84">
+      <c r="K24" s="107">
         <v>1640</v>
       </c>
-      <c r="L24" s="84"/>
+      <c r="L24" s="107"/>
       <c r="M24" s="24" t="s">
         <v>30</v>
       </c>
@@ -4696,10 +7849,10 @@
       </c>
     </row>
     <row r="28" spans="1:18" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="103" t="s">
+      <c r="A28" s="87" t="s">
         <v>31</v>
       </c>
-      <c r="B28" s="104"/>
+      <c r="B28" s="88"/>
       <c r="C28" s="14"/>
       <c r="D28" s="15" t="s">
         <v>1</v>
@@ -4716,10 +7869,10 @@
       <c r="H28" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="K28" s="103" t="s">
+      <c r="K28" s="87" t="s">
         <v>31</v>
       </c>
-      <c r="L28" s="104"/>
+      <c r="L28" s="88"/>
       <c r="M28" s="14"/>
       <c r="N28" s="15" t="s">
         <v>1</v>
@@ -4738,10 +7891,10 @@
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A29" s="85">
+      <c r="A29" s="89">
         <v>584</v>
       </c>
-      <c r="B29" s="86"/>
+      <c r="B29" s="90"/>
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -4761,10 +7914,10 @@
         <v>8.1119999999999994E-3</v>
       </c>
       <c r="J29" s="24"/>
-      <c r="K29" s="85">
+      <c r="K29" s="89">
         <v>584</v>
       </c>
-      <c r="L29" s="86"/>
+      <c r="L29" s="90"/>
       <c r="M29" s="1" t="s">
         <v>23</v>
       </c>
@@ -4785,8 +7938,8 @@
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A30" s="87"/>
-      <c r="B30" s="88"/>
+      <c r="A30" s="91"/>
+      <c r="B30" s="92"/>
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -4805,8 +7958,8 @@
       <c r="H30" s="1">
         <v>3.248E-3</v>
       </c>
-      <c r="K30" s="87"/>
-      <c r="L30" s="88"/>
+      <c r="K30" s="91"/>
+      <c r="L30" s="92"/>
       <c r="M30" s="1" t="s">
         <v>24</v>
       </c>
@@ -4827,8 +7980,8 @@
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A31" s="87"/>
-      <c r="B31" s="88"/>
+      <c r="A31" s="91"/>
+      <c r="B31" s="92"/>
       <c r="C31" s="19" t="s">
         <v>32</v>
       </c>
@@ -4852,8 +8005,8 @@
         <f t="shared" si="0"/>
         <v>1.1359999999999999E-2</v>
       </c>
-      <c r="K31" s="87"/>
-      <c r="L31" s="88"/>
+      <c r="K31" s="91"/>
+      <c r="L31" s="92"/>
       <c r="M31" s="19" t="s">
         <v>32</v>
       </c>
@@ -4879,8 +8032,8 @@
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A32" s="87"/>
-      <c r="B32" s="88"/>
+      <c r="A32" s="91"/>
+      <c r="B32" s="92"/>
       <c r="C32" s="1" t="s">
         <v>25</v>
       </c>
@@ -4900,8 +8053,8 @@
         <v>4.0691999999999999E-2</v>
       </c>
       <c r="J32" s="24"/>
-      <c r="K32" s="87"/>
-      <c r="L32" s="88"/>
+      <c r="K32" s="91"/>
+      <c r="L32" s="92"/>
       <c r="M32" s="1" t="s">
         <v>25</v>
       </c>
@@ -4922,8 +8075,8 @@
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A33" s="87"/>
-      <c r="B33" s="88"/>
+      <c r="A33" s="91"/>
+      <c r="B33" s="92"/>
       <c r="C33" s="1" t="s">
         <v>26</v>
       </c>
@@ -4942,8 +8095,8 @@
       <c r="H33" s="1">
         <v>1.7328E-2</v>
       </c>
-      <c r="K33" s="87"/>
-      <c r="L33" s="88"/>
+      <c r="K33" s="91"/>
+      <c r="L33" s="92"/>
       <c r="M33" s="1" t="s">
         <v>26</v>
       </c>
@@ -4964,8 +8117,8 @@
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A34" s="89"/>
-      <c r="B34" s="90"/>
+      <c r="A34" s="93"/>
+      <c r="B34" s="94"/>
       <c r="C34" s="19" t="s">
         <v>32</v>
       </c>
@@ -4989,8 +8142,8 @@
         <f t="shared" si="2"/>
         <v>5.8020000000000002E-2</v>
       </c>
-      <c r="K34" s="89"/>
-      <c r="L34" s="90"/>
+      <c r="K34" s="93"/>
+      <c r="L34" s="94"/>
       <c r="M34" s="19" t="s">
         <v>32</v>
       </c>
@@ -5016,10 +8169,10 @@
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A35" s="91">
+      <c r="A35" s="95">
         <v>980</v>
       </c>
-      <c r="B35" s="92"/>
+      <c r="B35" s="96"/>
       <c r="C35" s="16" t="s">
         <v>23</v>
       </c>
@@ -5039,10 +8192,10 @@
         <v>1.2716E-2</v>
       </c>
       <c r="J35" s="24"/>
-      <c r="K35" s="91">
+      <c r="K35" s="95">
         <v>980</v>
       </c>
-      <c r="L35" s="92"/>
+      <c r="L35" s="96"/>
       <c r="M35" s="16" t="s">
         <v>23</v>
       </c>
@@ -5063,8 +8216,8 @@
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A36" s="93"/>
-      <c r="B36" s="94"/>
+      <c r="A36" s="97"/>
+      <c r="B36" s="98"/>
       <c r="C36" s="16" t="s">
         <v>24</v>
       </c>
@@ -5083,8 +8236,8 @@
       <c r="H36" s="16">
         <v>5.1999999999999998E-3</v>
       </c>
-      <c r="K36" s="93"/>
-      <c r="L36" s="94"/>
+      <c r="K36" s="97"/>
+      <c r="L36" s="98"/>
       <c r="M36" s="16" t="s">
         <v>24</v>
       </c>
@@ -5105,8 +8258,8 @@
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A37" s="93"/>
-      <c r="B37" s="94"/>
+      <c r="A37" s="97"/>
+      <c r="B37" s="98"/>
       <c r="C37" s="19" t="s">
         <v>32</v>
       </c>
@@ -5130,8 +8283,8 @@
         <f t="shared" si="4"/>
         <v>1.7916000000000001E-2</v>
       </c>
-      <c r="K37" s="93"/>
-      <c r="L37" s="94"/>
+      <c r="K37" s="97"/>
+      <c r="L37" s="98"/>
       <c r="M37" s="19" t="s">
         <v>32</v>
       </c>
@@ -5157,8 +8310,8 @@
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A38" s="93"/>
-      <c r="B38" s="94"/>
+      <c r="A38" s="97"/>
+      <c r="B38" s="98"/>
       <c r="C38" s="16" t="s">
         <v>25</v>
       </c>
@@ -5178,8 +8331,8 @@
         <v>5.5975999999999998E-2</v>
       </c>
       <c r="J38" s="24"/>
-      <c r="K38" s="93"/>
-      <c r="L38" s="94"/>
+      <c r="K38" s="97"/>
+      <c r="L38" s="98"/>
       <c r="M38" s="16" t="s">
         <v>25</v>
       </c>
@@ -5200,8 +8353,8 @@
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A39" s="93"/>
-      <c r="B39" s="94"/>
+      <c r="A39" s="97"/>
+      <c r="B39" s="98"/>
       <c r="C39" s="16" t="s">
         <v>26</v>
       </c>
@@ -5220,8 +8373,8 @@
       <c r="H39" s="16">
         <v>2.3768000000000001E-2</v>
       </c>
-      <c r="K39" s="93"/>
-      <c r="L39" s="94"/>
+      <c r="K39" s="97"/>
+      <c r="L39" s="98"/>
       <c r="M39" s="16" t="s">
         <v>26</v>
       </c>
@@ -5242,8 +8395,8 @@
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A40" s="95"/>
-      <c r="B40" s="96"/>
+      <c r="A40" s="99"/>
+      <c r="B40" s="100"/>
       <c r="C40" s="19" t="s">
         <v>32</v>
       </c>
@@ -5267,8 +8420,8 @@
         <f t="shared" si="6"/>
         <v>7.9743999999999995E-2</v>
       </c>
-      <c r="K40" s="95"/>
-      <c r="L40" s="96"/>
+      <c r="K40" s="99"/>
+      <c r="L40" s="100"/>
       <c r="M40" s="19" t="s">
         <v>32</v>
       </c>
@@ -5294,10 +8447,10 @@
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A41" s="97">
+      <c r="A41" s="80">
         <v>1280</v>
       </c>
-      <c r="B41" s="98"/>
+      <c r="B41" s="81"/>
       <c r="C41" s="4" t="s">
         <v>23</v>
       </c>
@@ -5315,10 +8468,10 @@
       </c>
       <c r="H41" s="5"/>
       <c r="J41" s="24"/>
-      <c r="K41" s="97">
+      <c r="K41" s="80">
         <v>1280</v>
       </c>
-      <c r="L41" s="98"/>
+      <c r="L41" s="81"/>
       <c r="M41" s="4" t="s">
         <v>23</v>
       </c>
@@ -5339,8 +8492,8 @@
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A42" s="99"/>
-      <c r="B42" s="100"/>
+      <c r="A42" s="82"/>
+      <c r="B42" s="83"/>
       <c r="C42" s="4" t="s">
         <v>24</v>
       </c>
@@ -5357,8 +8510,8 @@
         <v>9.476E-3</v>
       </c>
       <c r="H42" s="5"/>
-      <c r="K42" s="99"/>
-      <c r="L42" s="100"/>
+      <c r="K42" s="82"/>
+      <c r="L42" s="83"/>
       <c r="M42" s="4" t="s">
         <v>24</v>
       </c>
@@ -5379,8 +8532,8 @@
       </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A43" s="99"/>
-      <c r="B43" s="100"/>
+      <c r="A43" s="82"/>
+      <c r="B43" s="83"/>
       <c r="C43" s="19" t="s">
         <v>32</v>
       </c>
@@ -5401,8 +8554,8 @@
         <v>2.7875999999999998E-2</v>
       </c>
       <c r="H43" s="5"/>
-      <c r="K43" s="99"/>
-      <c r="L43" s="100"/>
+      <c r="K43" s="82"/>
+      <c r="L43" s="83"/>
       <c r="M43" s="19" t="s">
         <v>32</v>
       </c>
@@ -5428,8 +8581,8 @@
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A44" s="99"/>
-      <c r="B44" s="100"/>
+      <c r="A44" s="82"/>
+      <c r="B44" s="83"/>
       <c r="C44" s="4" t="s">
         <v>25</v>
       </c>
@@ -5447,8 +8600,8 @@
       </c>
       <c r="H44" s="5"/>
       <c r="J44" s="24"/>
-      <c r="K44" s="99"/>
-      <c r="L44" s="100"/>
+      <c r="K44" s="82"/>
+      <c r="L44" s="83"/>
       <c r="M44" s="4" t="s">
         <v>25</v>
       </c>
@@ -5469,8 +8622,8 @@
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A45" s="99"/>
-      <c r="B45" s="100"/>
+      <c r="A45" s="82"/>
+      <c r="B45" s="83"/>
       <c r="C45" s="4" t="s">
         <v>26</v>
       </c>
@@ -5487,8 +8640,8 @@
         <v>4.3580000000000001E-2</v>
       </c>
       <c r="H45" s="5"/>
-      <c r="K45" s="99"/>
-      <c r="L45" s="100"/>
+      <c r="K45" s="82"/>
+      <c r="L45" s="83"/>
       <c r="M45" s="4" t="s">
         <v>26</v>
       </c>
@@ -5509,8 +8662,8 @@
       </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A46" s="101"/>
-      <c r="B46" s="102"/>
+      <c r="A46" s="84"/>
+      <c r="B46" s="85"/>
       <c r="C46" s="19" t="s">
         <v>32</v>
       </c>
@@ -5531,8 +8684,8 @@
         <v>0.146428</v>
       </c>
       <c r="H46" s="5"/>
-      <c r="K46" s="101"/>
-      <c r="L46" s="102"/>
+      <c r="K46" s="84"/>
+      <c r="L46" s="85"/>
       <c r="M46" s="19" t="s">
         <v>32</v>
       </c>
@@ -5558,10 +8711,10 @@
       </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A47" s="78">
+      <c r="A47" s="101">
         <v>1345</v>
       </c>
-      <c r="B47" s="79"/>
+      <c r="B47" s="102"/>
       <c r="C47" s="7" t="s">
         <v>23</v>
       </c>
@@ -5579,10 +8732,10 @@
       </c>
       <c r="H47" s="5"/>
       <c r="J47" s="24"/>
-      <c r="K47" s="78">
+      <c r="K47" s="101">
         <v>1345</v>
       </c>
-      <c r="L47" s="79"/>
+      <c r="L47" s="102"/>
       <c r="M47" s="7" t="s">
         <v>23</v>
       </c>
@@ -5603,8 +8756,8 @@
       </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A48" s="80"/>
-      <c r="B48" s="81"/>
+      <c r="A48" s="103"/>
+      <c r="B48" s="104"/>
       <c r="C48" s="7" t="s">
         <v>24</v>
       </c>
@@ -5621,8 +8774,8 @@
         <v>9.9319999999999999E-3</v>
       </c>
       <c r="H48" s="5"/>
-      <c r="K48" s="80"/>
-      <c r="L48" s="81"/>
+      <c r="K48" s="103"/>
+      <c r="L48" s="104"/>
       <c r="M48" s="7" t="s">
         <v>24</v>
       </c>
@@ -5641,8 +8794,8 @@
       <c r="R48" s="5"/>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A49" s="80"/>
-      <c r="B49" s="81"/>
+      <c r="A49" s="103"/>
+      <c r="B49" s="104"/>
       <c r="C49" s="19" t="s">
         <v>32</v>
       </c>
@@ -5663,8 +8816,8 @@
         <v>2.8931999999999999E-2</v>
       </c>
       <c r="H49" s="5"/>
-      <c r="K49" s="80"/>
-      <c r="L49" s="81"/>
+      <c r="K49" s="103"/>
+      <c r="L49" s="104"/>
       <c r="M49" s="19" t="s">
         <v>32</v>
       </c>
@@ -5687,8 +8840,8 @@
       <c r="R49" s="5"/>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A50" s="80"/>
-      <c r="B50" s="81"/>
+      <c r="A50" s="103"/>
+      <c r="B50" s="104"/>
       <c r="C50" s="7" t="s">
         <v>25</v>
       </c>
@@ -5706,8 +8859,8 @@
       </c>
       <c r="H50" s="5"/>
       <c r="J50" s="24"/>
-      <c r="K50" s="80"/>
-      <c r="L50" s="81"/>
+      <c r="K50" s="103"/>
+      <c r="L50" s="104"/>
       <c r="M50" s="7" t="s">
         <v>25</v>
       </c>
@@ -5726,8 +8879,8 @@
       <c r="R50" s="5"/>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A51" s="80"/>
-      <c r="B51" s="81"/>
+      <c r="A51" s="103"/>
+      <c r="B51" s="104"/>
       <c r="C51" s="7" t="s">
         <v>26</v>
       </c>
@@ -5744,8 +8897,8 @@
         <v>4.5887999999999998E-2</v>
       </c>
       <c r="H51" s="5"/>
-      <c r="K51" s="80"/>
-      <c r="L51" s="81"/>
+      <c r="K51" s="103"/>
+      <c r="L51" s="104"/>
       <c r="M51" s="7" t="s">
         <v>26</v>
       </c>
@@ -5764,8 +8917,8 @@
       <c r="R51" s="5"/>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A52" s="82"/>
-      <c r="B52" s="83"/>
+      <c r="A52" s="105"/>
+      <c r="B52" s="106"/>
       <c r="C52" s="19" t="s">
         <v>32</v>
       </c>
@@ -5786,8 +8939,8 @@
         <v>0.15465999999999999</v>
       </c>
       <c r="H52" s="5"/>
-      <c r="K52" s="82"/>
-      <c r="L52" s="83"/>
+      <c r="K52" s="105"/>
+      <c r="L52" s="106"/>
       <c r="M52" s="19" t="s">
         <v>32</v>
       </c>
@@ -5811,13 +8964,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="K41:L46"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="K2:R2"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="K4:L8"/>
-    <mergeCell ref="K9:L13"/>
-    <mergeCell ref="A3:B3"/>
     <mergeCell ref="K47:L52"/>
     <mergeCell ref="K24:L24"/>
     <mergeCell ref="A47:B52"/>
@@ -5834,6 +8980,13 @@
     <mergeCell ref="K28:L28"/>
     <mergeCell ref="K29:L34"/>
     <mergeCell ref="K35:L40"/>
+    <mergeCell ref="K41:L46"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="K2:R2"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="K4:L8"/>
+    <mergeCell ref="K9:L13"/>
+    <mergeCell ref="A3:B3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5871,32 +9024,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="105" t="s">
+      <c r="A1" s="86" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="105"/>
-      <c r="F1" s="105"/>
-      <c r="G1" s="105"/>
-      <c r="H1" s="105"/>
-      <c r="I1" s="105"/>
-      <c r="J1" s="105"/>
-      <c r="K1" s="105"/>
-      <c r="L1" s="105"/>
-      <c r="M1" s="105"/>
-      <c r="N1" s="105"/>
-      <c r="O1" s="105"/>
-      <c r="P1" s="105"/>
-      <c r="Q1" s="105"/>
-      <c r="R1" s="105"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="86"/>
+      <c r="N1" s="86"/>
+      <c r="O1" s="86"/>
+      <c r="P1" s="86"/>
+      <c r="Q1" s="86"/>
+      <c r="R1" s="86"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="103" t="s">
+      <c r="A2" s="87" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="104"/>
+      <c r="B2" s="88"/>
       <c r="C2" s="14"/>
       <c r="D2" s="15" t="s">
         <v>1</v>
@@ -5948,10 +9101,10 @@
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="85">
+      <c r="A3" s="89">
         <v>584</v>
       </c>
-      <c r="B3" s="86"/>
+      <c r="B3" s="90"/>
       <c r="C3" s="1" t="s">
         <v>30</v>
       </c>
@@ -6005,8 +9158,8 @@
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="87"/>
-      <c r="B4" s="88"/>
+      <c r="A4" s="91"/>
+      <c r="B4" s="92"/>
       <c r="C4" s="1" t="s">
         <v>21</v>
       </c>
@@ -6060,8 +9213,8 @@
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="87"/>
-      <c r="B5" s="88"/>
+      <c r="A5" s="91"/>
+      <c r="B5" s="92"/>
       <c r="C5" s="1" t="s">
         <v>33</v>
       </c>
@@ -6131,8 +9284,8 @@
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="87"/>
-      <c r="B6" s="88"/>
+      <c r="A6" s="91"/>
+      <c r="B6" s="92"/>
       <c r="C6" s="1" t="s">
         <v>22</v>
       </c>
@@ -6186,8 +9339,8 @@
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="89"/>
-      <c r="B7" s="90"/>
+      <c r="A7" s="93"/>
+      <c r="B7" s="94"/>
       <c r="C7" s="1" t="s">
         <v>34</v>
       </c>
@@ -6257,10 +9410,10 @@
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="91">
+      <c r="A8" s="95">
         <v>980</v>
       </c>
-      <c r="B8" s="92"/>
+      <c r="B8" s="96"/>
       <c r="C8" s="16" t="s">
         <v>30</v>
       </c>
@@ -6311,8 +9464,8 @@
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="93"/>
-      <c r="B9" s="94"/>
+      <c r="A9" s="97"/>
+      <c r="B9" s="98"/>
       <c r="C9" s="16" t="s">
         <v>21</v>
       </c>
@@ -6366,8 +9519,8 @@
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="93"/>
-      <c r="B10" s="94"/>
+      <c r="A10" s="97"/>
+      <c r="B10" s="98"/>
       <c r="C10" s="16" t="s">
         <v>35</v>
       </c>
@@ -6433,8 +9586,8 @@
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="93"/>
-      <c r="B11" s="94"/>
+      <c r="A11" s="97"/>
+      <c r="B11" s="98"/>
       <c r="C11" s="16" t="s">
         <v>22</v>
       </c>
@@ -6488,8 +9641,8 @@
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="95"/>
-      <c r="B12" s="96"/>
+      <c r="A12" s="99"/>
+      <c r="B12" s="100"/>
       <c r="C12" s="16" t="s">
         <v>34</v>
       </c>
@@ -6555,10 +9708,10 @@
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="97">
+      <c r="A13" s="80">
         <v>1280</v>
       </c>
-      <c r="B13" s="98"/>
+      <c r="B13" s="81"/>
       <c r="C13" s="13" t="s">
         <v>30</v>
       </c>
@@ -6609,8 +9762,8 @@
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="99"/>
-      <c r="B14" s="100"/>
+      <c r="A14" s="82"/>
+      <c r="B14" s="83"/>
       <c r="C14" s="4" t="s">
         <v>21</v>
       </c>
@@ -6664,8 +9817,8 @@
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="99"/>
-      <c r="B15" s="100"/>
+      <c r="A15" s="82"/>
+      <c r="B15" s="83"/>
       <c r="C15" s="4" t="s">
         <v>35</v>
       </c>
@@ -6731,8 +9884,8 @@
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="99"/>
-      <c r="B16" s="100"/>
+      <c r="A16" s="82"/>
+      <c r="B16" s="83"/>
       <c r="C16" s="4" t="s">
         <v>22</v>
       </c>
@@ -6786,8 +9939,8 @@
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A17" s="101"/>
-      <c r="B17" s="102"/>
+      <c r="A17" s="84"/>
+      <c r="B17" s="85"/>
       <c r="C17" s="4" t="s">
         <v>34</v>
       </c>
@@ -6853,10 +10006,10 @@
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A18" s="78">
+      <c r="A18" s="101">
         <v>1345</v>
       </c>
-      <c r="B18" s="79"/>
+      <c r="B18" s="102"/>
       <c r="C18" s="7" t="s">
         <v>30</v>
       </c>
@@ -6910,8 +10063,8 @@
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A19" s="80"/>
-      <c r="B19" s="81"/>
+      <c r="A19" s="103"/>
+      <c r="B19" s="104"/>
       <c r="C19" s="7" t="s">
         <v>21</v>
       </c>
@@ -6968,8 +10121,8 @@
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A20" s="80"/>
-      <c r="B20" s="81"/>
+      <c r="A20" s="103"/>
+      <c r="B20" s="104"/>
       <c r="C20" s="7" t="s">
         <v>35</v>
       </c>
@@ -7035,8 +10188,8 @@
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A21" s="80"/>
-      <c r="B21" s="81"/>
+      <c r="A21" s="103"/>
+      <c r="B21" s="104"/>
       <c r="C21" s="7" t="s">
         <v>22</v>
       </c>
@@ -7090,8 +10243,8 @@
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A22" s="82"/>
-      <c r="B22" s="83"/>
+      <c r="A22" s="105"/>
+      <c r="B22" s="106"/>
       <c r="C22" s="7" t="s">
         <v>34</v>
       </c>
@@ -7157,10 +10310,10 @@
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A23" s="106">
+      <c r="A23" s="108">
         <v>1640</v>
       </c>
-      <c r="B23" s="107"/>
+      <c r="B23" s="109"/>
       <c r="C23" s="39" t="s">
         <v>30</v>
       </c>
@@ -7191,8 +10344,8 @@
       <c r="R23" s="40"/>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A24" s="108"/>
-      <c r="B24" s="109"/>
+      <c r="A24" s="110"/>
+      <c r="B24" s="111"/>
       <c r="C24" s="39" t="s">
         <v>21</v>
       </c>
@@ -7224,8 +10377,8 @@
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A25" s="108"/>
-      <c r="B25" s="109"/>
+      <c r="A25" s="110"/>
+      <c r="B25" s="111"/>
       <c r="C25" s="39" t="s">
         <v>35</v>
       </c>
@@ -7288,8 +10441,8 @@
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A26" s="108"/>
-      <c r="B26" s="109"/>
+      <c r="A26" s="110"/>
+      <c r="B26" s="111"/>
       <c r="C26" s="39" t="s">
         <v>22</v>
       </c>
@@ -7321,8 +10474,8 @@
       </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A27" s="110"/>
-      <c r="B27" s="111"/>
+      <c r="A27" s="112"/>
+      <c r="B27" s="113"/>
       <c r="C27" s="39" t="s">
         <v>34</v>
       </c>
@@ -7396,10 +10549,10 @@
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A33" s="103" t="s">
+      <c r="A33" s="87" t="s">
         <v>31</v>
       </c>
-      <c r="B33" s="104"/>
+      <c r="B33" s="88"/>
       <c r="C33" s="14"/>
       <c r="D33" s="15" t="s">
         <v>1</v>
@@ -7448,10 +10601,10 @@
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A34" s="85">
+      <c r="A34" s="89">
         <v>584</v>
       </c>
-      <c r="B34" s="86"/>
+      <c r="B34" s="90"/>
       <c r="C34" s="1" t="s">
         <v>23</v>
       </c>
@@ -7502,8 +10655,8 @@
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A35" s="87"/>
-      <c r="B35" s="88"/>
+      <c r="A35" s="91"/>
+      <c r="B35" s="92"/>
       <c r="C35" s="1" t="s">
         <v>24</v>
       </c>
@@ -7554,8 +10707,8 @@
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A36" s="87"/>
-      <c r="B36" s="88"/>
+      <c r="A36" s="91"/>
+      <c r="B36" s="92"/>
       <c r="C36" s="19" t="s">
         <v>32</v>
       </c>
@@ -7621,8 +10774,8 @@
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A37" s="87"/>
-      <c r="B37" s="88"/>
+      <c r="A37" s="91"/>
+      <c r="B37" s="92"/>
       <c r="C37" s="1" t="s">
         <v>25</v>
       </c>
@@ -7673,8 +10826,8 @@
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A38" s="87"/>
-      <c r="B38" s="88"/>
+      <c r="A38" s="91"/>
+      <c r="B38" s="92"/>
       <c r="C38" s="1" t="s">
         <v>26</v>
       </c>
@@ -7725,8 +10878,8 @@
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A39" s="89"/>
-      <c r="B39" s="90"/>
+      <c r="A39" s="93"/>
+      <c r="B39" s="94"/>
       <c r="C39" s="19" t="s">
         <v>32</v>
       </c>
@@ -7792,10 +10945,10 @@
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A40" s="91">
+      <c r="A40" s="95">
         <v>980</v>
       </c>
-      <c r="B40" s="92"/>
+      <c r="B40" s="96"/>
       <c r="C40" s="16" t="s">
         <v>23</v>
       </c>
@@ -7846,8 +10999,8 @@
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A41" s="93"/>
-      <c r="B41" s="94"/>
+      <c r="A41" s="97"/>
+      <c r="B41" s="98"/>
       <c r="C41" s="16" t="s">
         <v>24</v>
       </c>
@@ -7898,8 +11051,8 @@
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A42" s="93"/>
-      <c r="B42" s="94"/>
+      <c r="A42" s="97"/>
+      <c r="B42" s="98"/>
       <c r="C42" s="19" t="s">
         <v>32</v>
       </c>
@@ -7965,8 +11118,8 @@
       </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A43" s="93"/>
-      <c r="B43" s="94"/>
+      <c r="A43" s="97"/>
+      <c r="B43" s="98"/>
       <c r="C43" s="16" t="s">
         <v>25</v>
       </c>
@@ -8017,8 +11170,8 @@
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A44" s="93"/>
-      <c r="B44" s="94"/>
+      <c r="A44" s="97"/>
+      <c r="B44" s="98"/>
       <c r="C44" s="16" t="s">
         <v>26</v>
       </c>
@@ -8069,8 +11222,8 @@
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A45" s="95"/>
-      <c r="B45" s="96"/>
+      <c r="A45" s="99"/>
+      <c r="B45" s="100"/>
       <c r="C45" s="19" t="s">
         <v>32</v>
       </c>
@@ -8136,10 +11289,10 @@
       </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A46" s="97">
+      <c r="A46" s="80">
         <v>1280</v>
       </c>
-      <c r="B46" s="98"/>
+      <c r="B46" s="81"/>
       <c r="C46" s="4" t="s">
         <v>23</v>
       </c>
@@ -8190,8 +11343,8 @@
       </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A47" s="99"/>
-      <c r="B47" s="100"/>
+      <c r="A47" s="82"/>
+      <c r="B47" s="83"/>
       <c r="C47" s="4" t="s">
         <v>24</v>
       </c>
@@ -8242,8 +11395,8 @@
       </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A48" s="99"/>
-      <c r="B48" s="100"/>
+      <c r="A48" s="82"/>
+      <c r="B48" s="83"/>
       <c r="C48" s="19" t="s">
         <v>32</v>
       </c>
@@ -8309,8 +11462,8 @@
       </c>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A49" s="99"/>
-      <c r="B49" s="100"/>
+      <c r="A49" s="82"/>
+      <c r="B49" s="83"/>
       <c r="C49" s="4" t="s">
         <v>25</v>
       </c>
@@ -8361,8 +11514,8 @@
       </c>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A50" s="99"/>
-      <c r="B50" s="100"/>
+      <c r="A50" s="82"/>
+      <c r="B50" s="83"/>
       <c r="C50" s="4" t="s">
         <v>26</v>
       </c>
@@ -8413,8 +11566,8 @@
       </c>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A51" s="101"/>
-      <c r="B51" s="102"/>
+      <c r="A51" s="84"/>
+      <c r="B51" s="85"/>
       <c r="C51" s="19" t="s">
         <v>32</v>
       </c>
@@ -8480,10 +11633,10 @@
       </c>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A52" s="78">
+      <c r="A52" s="101">
         <v>1345</v>
       </c>
-      <c r="B52" s="79"/>
+      <c r="B52" s="102"/>
       <c r="C52" s="7" t="s">
         <v>23</v>
       </c>
@@ -8534,8 +11687,8 @@
       </c>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A53" s="80"/>
-      <c r="B53" s="81"/>
+      <c r="A53" s="103"/>
+      <c r="B53" s="104"/>
       <c r="C53" s="7" t="s">
         <v>24</v>
       </c>
@@ -8586,8 +11739,8 @@
       </c>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A54" s="80"/>
-      <c r="B54" s="81"/>
+      <c r="A54" s="103"/>
+      <c r="B54" s="104"/>
       <c r="C54" s="19" t="s">
         <v>32</v>
       </c>
@@ -8653,8 +11806,8 @@
       </c>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A55" s="80"/>
-      <c r="B55" s="81"/>
+      <c r="A55" s="103"/>
+      <c r="B55" s="104"/>
       <c r="C55" s="7" t="s">
         <v>25</v>
       </c>
@@ -8705,8 +11858,8 @@
       </c>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A56" s="80"/>
-      <c r="B56" s="81"/>
+      <c r="A56" s="103"/>
+      <c r="B56" s="104"/>
       <c r="C56" s="7" t="s">
         <v>26</v>
       </c>
@@ -8757,8 +11910,8 @@
       </c>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A57" s="82"/>
-      <c r="B57" s="83"/>
+      <c r="A57" s="105"/>
+      <c r="B57" s="106"/>
       <c r="C57" s="19" t="s">
         <v>32</v>
       </c>
@@ -8849,8 +12002,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="C7:AG36"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="S35" sqref="S35"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="S33" sqref="S33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9092,48 +12245,48 @@
       </c>
     </row>
     <row r="15" spans="3:33" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="115" t="s">
+      <c r="C15" s="114" t="s">
         <v>95</v>
       </c>
-      <c r="D15" s="115"/>
-      <c r="E15" s="116" t="s">
+      <c r="D15" s="114"/>
+      <c r="E15" s="115" t="s">
         <v>100</v>
       </c>
-      <c r="F15" s="116"/>
-      <c r="G15" s="116"/>
-      <c r="H15" s="116"/>
-      <c r="I15" s="116"/>
-      <c r="J15" s="116"/>
-      <c r="K15" s="116"/>
-      <c r="L15" s="116"/>
-      <c r="M15" s="116"/>
-      <c r="N15" s="116"/>
-      <c r="O15" s="112" t="s">
+      <c r="F15" s="115"/>
+      <c r="G15" s="115"/>
+      <c r="H15" s="115"/>
+      <c r="I15" s="115"/>
+      <c r="J15" s="115"/>
+      <c r="K15" s="115"/>
+      <c r="L15" s="115"/>
+      <c r="M15" s="115"/>
+      <c r="N15" s="115"/>
+      <c r="O15" s="116" t="s">
         <v>99</v>
       </c>
-      <c r="U15" s="115" t="s">
+      <c r="U15" s="114" t="s">
         <v>95</v>
       </c>
-      <c r="V15" s="115"/>
-      <c r="W15" s="116" t="s">
+      <c r="V15" s="114"/>
+      <c r="W15" s="115" t="s">
         <v>100</v>
       </c>
-      <c r="X15" s="116"/>
-      <c r="Y15" s="116"/>
-      <c r="Z15" s="116"/>
-      <c r="AA15" s="116"/>
-      <c r="AB15" s="116"/>
-      <c r="AC15" s="116"/>
-      <c r="AD15" s="116"/>
-      <c r="AE15" s="116"/>
-      <c r="AF15" s="116"/>
-      <c r="AG15" s="112" t="s">
+      <c r="X15" s="115"/>
+      <c r="Y15" s="115"/>
+      <c r="Z15" s="115"/>
+      <c r="AA15" s="115"/>
+      <c r="AB15" s="115"/>
+      <c r="AC15" s="115"/>
+      <c r="AD15" s="115"/>
+      <c r="AE15" s="115"/>
+      <c r="AF15" s="115"/>
+      <c r="AG15" s="116" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="16" spans="3:33" x14ac:dyDescent="0.25">
-      <c r="C16" s="115"/>
-      <c r="D16" s="115"/>
+      <c r="C16" s="114"/>
+      <c r="D16" s="114"/>
       <c r="E16" s="42">
         <v>1</v>
       </c>
@@ -9164,9 +12317,9 @@
       <c r="N16" s="42">
         <v>10</v>
       </c>
-      <c r="O16" s="112"/>
-      <c r="U16" s="115"/>
-      <c r="V16" s="115"/>
+      <c r="O16" s="116"/>
+      <c r="U16" s="114"/>
+      <c r="V16" s="114"/>
       <c r="W16" s="66">
         <v>1</v>
       </c>
@@ -9197,10 +12350,10 @@
       <c r="AF16" s="66">
         <v>10</v>
       </c>
-      <c r="AG16" s="112"/>
+      <c r="AG16" s="116"/>
     </row>
     <row r="17" spans="3:33" x14ac:dyDescent="0.25">
-      <c r="C17" s="112" t="s">
+      <c r="C17" s="116" t="s">
         <v>96</v>
       </c>
       <c r="D17" s="42" t="s">
@@ -9236,11 +12389,11 @@
       <c r="N17" s="43">
         <v>41</v>
       </c>
-      <c r="O17" s="113">
+      <c r="O17" s="117">
         <f>SUM(E17:N17)/410</f>
         <v>1</v>
       </c>
-      <c r="U17" s="112" t="s">
+      <c r="U17" s="116" t="s">
         <v>96</v>
       </c>
       <c r="V17" s="66" t="s">
@@ -9276,13 +12429,13 @@
       <c r="AF17" s="43">
         <v>41</v>
       </c>
-      <c r="AG17" s="113">
+      <c r="AG17" s="117">
         <f>SUM(W17:AF17)/410</f>
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="3:33" x14ac:dyDescent="0.25">
-      <c r="C18" s="112"/>
+      <c r="C18" s="116"/>
       <c r="D18" s="42" t="s">
         <v>98</v>
       </c>
@@ -9316,8 +12469,8 @@
       <c r="N18" s="43">
         <v>0</v>
       </c>
-      <c r="O18" s="114"/>
-      <c r="U18" s="112"/>
+      <c r="O18" s="118"/>
+      <c r="U18" s="116"/>
       <c r="V18" s="66" t="s">
         <v>98</v>
       </c>
@@ -9351,51 +12504,51 @@
       <c r="AF18" s="43">
         <v>0</v>
       </c>
-      <c r="AG18" s="114"/>
+      <c r="AG18" s="118"/>
     </row>
     <row r="21" spans="3:33" x14ac:dyDescent="0.25">
-      <c r="C21" s="115" t="s">
+      <c r="C21" s="114" t="s">
         <v>101</v>
       </c>
-      <c r="D21" s="115"/>
-      <c r="E21" s="116" t="s">
+      <c r="D21" s="114"/>
+      <c r="E21" s="115" t="s">
         <v>100</v>
       </c>
-      <c r="F21" s="116"/>
-      <c r="G21" s="116"/>
-      <c r="H21" s="116"/>
-      <c r="I21" s="116"/>
-      <c r="J21" s="116"/>
-      <c r="K21" s="116"/>
-      <c r="L21" s="116"/>
-      <c r="M21" s="116"/>
-      <c r="N21" s="116"/>
-      <c r="O21" s="112" t="s">
+      <c r="F21" s="115"/>
+      <c r="G21" s="115"/>
+      <c r="H21" s="115"/>
+      <c r="I21" s="115"/>
+      <c r="J21" s="115"/>
+      <c r="K21" s="115"/>
+      <c r="L21" s="115"/>
+      <c r="M21" s="115"/>
+      <c r="N21" s="115"/>
+      <c r="O21" s="116" t="s">
         <v>99</v>
       </c>
-      <c r="U21" s="115" t="s">
+      <c r="U21" s="114" t="s">
         <v>101</v>
       </c>
-      <c r="V21" s="115"/>
-      <c r="W21" s="116" t="s">
+      <c r="V21" s="114"/>
+      <c r="W21" s="115" t="s">
         <v>100</v>
       </c>
-      <c r="X21" s="116"/>
-      <c r="Y21" s="116"/>
-      <c r="Z21" s="116"/>
-      <c r="AA21" s="116"/>
-      <c r="AB21" s="116"/>
-      <c r="AC21" s="116"/>
-      <c r="AD21" s="116"/>
-      <c r="AE21" s="116"/>
-      <c r="AF21" s="116"/>
-      <c r="AG21" s="112" t="s">
+      <c r="X21" s="115"/>
+      <c r="Y21" s="115"/>
+      <c r="Z21" s="115"/>
+      <c r="AA21" s="115"/>
+      <c r="AB21" s="115"/>
+      <c r="AC21" s="115"/>
+      <c r="AD21" s="115"/>
+      <c r="AE21" s="115"/>
+      <c r="AF21" s="115"/>
+      <c r="AG21" s="116" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="22" spans="3:33" x14ac:dyDescent="0.25">
-      <c r="C22" s="115"/>
-      <c r="D22" s="115"/>
+      <c r="C22" s="114"/>
+      <c r="D22" s="114"/>
       <c r="E22" s="42">
         <v>1</v>
       </c>
@@ -9426,9 +12579,9 @@
       <c r="N22" s="42">
         <v>10</v>
       </c>
-      <c r="O22" s="112"/>
-      <c r="U22" s="115"/>
-      <c r="V22" s="115"/>
+      <c r="O22" s="116"/>
+      <c r="U22" s="114"/>
+      <c r="V22" s="114"/>
       <c r="W22" s="66">
         <v>1</v>
       </c>
@@ -9459,10 +12612,10 @@
       <c r="AF22" s="66">
         <v>10</v>
       </c>
-      <c r="AG22" s="112"/>
+      <c r="AG22" s="116"/>
     </row>
     <row r="23" spans="3:33" x14ac:dyDescent="0.25">
-      <c r="C23" s="112" t="s">
+      <c r="C23" s="116" t="s">
         <v>96</v>
       </c>
       <c r="D23" s="42" t="s">
@@ -9498,11 +12651,11 @@
       <c r="N23" s="35">
         <v>27</v>
       </c>
-      <c r="O23" s="113">
+      <c r="O23" s="117">
         <f>SUM(E23:N23)/410</f>
         <v>0.86829268292682926</v>
       </c>
-      <c r="U23" s="112" t="s">
+      <c r="U23" s="116" t="s">
         <v>96</v>
       </c>
       <c r="V23" s="66" t="s">
@@ -9538,13 +12691,13 @@
       <c r="AF23" s="43">
         <v>40</v>
       </c>
-      <c r="AG23" s="113">
+      <c r="AG23" s="117">
         <f>SUM(W23:AF23)/410</f>
         <v>0.92682926829268297</v>
       </c>
     </row>
     <row r="24" spans="3:33" x14ac:dyDescent="0.25">
-      <c r="C24" s="112"/>
+      <c r="C24" s="116"/>
       <c r="D24" s="42" t="s">
         <v>98</v>
       </c>
@@ -9578,8 +12731,8 @@
       <c r="N24" s="43">
         <v>14</v>
       </c>
-      <c r="O24" s="114"/>
-      <c r="U24" s="112"/>
+      <c r="O24" s="118"/>
+      <c r="U24" s="116"/>
       <c r="V24" s="66" t="s">
         <v>98</v>
       </c>
@@ -9613,51 +12766,51 @@
       <c r="AF24" s="43">
         <v>1</v>
       </c>
-      <c r="AG24" s="114"/>
+      <c r="AG24" s="118"/>
     </row>
     <row r="27" spans="3:33" x14ac:dyDescent="0.25">
-      <c r="C27" s="115" t="s">
+      <c r="C27" s="114" t="s">
         <v>102</v>
       </c>
-      <c r="D27" s="115"/>
-      <c r="E27" s="116" t="s">
+      <c r="D27" s="114"/>
+      <c r="E27" s="115" t="s">
         <v>100</v>
       </c>
-      <c r="F27" s="116"/>
-      <c r="G27" s="116"/>
-      <c r="H27" s="116"/>
-      <c r="I27" s="116"/>
-      <c r="J27" s="116"/>
-      <c r="K27" s="116"/>
-      <c r="L27" s="116"/>
-      <c r="M27" s="116"/>
-      <c r="N27" s="116"/>
-      <c r="O27" s="112" t="s">
+      <c r="F27" s="115"/>
+      <c r="G27" s="115"/>
+      <c r="H27" s="115"/>
+      <c r="I27" s="115"/>
+      <c r="J27" s="115"/>
+      <c r="K27" s="115"/>
+      <c r="L27" s="115"/>
+      <c r="M27" s="115"/>
+      <c r="N27" s="115"/>
+      <c r="O27" s="116" t="s">
         <v>99</v>
       </c>
-      <c r="U27" s="115" t="s">
+      <c r="U27" s="114" t="s">
         <v>102</v>
       </c>
-      <c r="V27" s="115"/>
-      <c r="W27" s="116" t="s">
+      <c r="V27" s="114"/>
+      <c r="W27" s="115" t="s">
         <v>100</v>
       </c>
-      <c r="X27" s="116"/>
-      <c r="Y27" s="116"/>
-      <c r="Z27" s="116"/>
-      <c r="AA27" s="116"/>
-      <c r="AB27" s="116"/>
-      <c r="AC27" s="116"/>
-      <c r="AD27" s="116"/>
-      <c r="AE27" s="116"/>
-      <c r="AF27" s="116"/>
-      <c r="AG27" s="112" t="s">
+      <c r="X27" s="115"/>
+      <c r="Y27" s="115"/>
+      <c r="Z27" s="115"/>
+      <c r="AA27" s="115"/>
+      <c r="AB27" s="115"/>
+      <c r="AC27" s="115"/>
+      <c r="AD27" s="115"/>
+      <c r="AE27" s="115"/>
+      <c r="AF27" s="115"/>
+      <c r="AG27" s="116" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="28" spans="3:33" x14ac:dyDescent="0.25">
-      <c r="C28" s="115"/>
-      <c r="D28" s="115"/>
+      <c r="C28" s="114"/>
+      <c r="D28" s="114"/>
       <c r="E28" s="42">
         <v>1</v>
       </c>
@@ -9688,9 +12841,9 @@
       <c r="N28" s="42">
         <v>10</v>
       </c>
-      <c r="O28" s="112"/>
-      <c r="U28" s="115"/>
-      <c r="V28" s="115"/>
+      <c r="O28" s="116"/>
+      <c r="U28" s="114"/>
+      <c r="V28" s="114"/>
       <c r="W28" s="66">
         <v>1</v>
       </c>
@@ -9721,10 +12874,10 @@
       <c r="AF28" s="66">
         <v>10</v>
       </c>
-      <c r="AG28" s="112"/>
+      <c r="AG28" s="116"/>
     </row>
     <row r="29" spans="3:33" x14ac:dyDescent="0.25">
-      <c r="C29" s="112" t="s">
+      <c r="C29" s="116" t="s">
         <v>96</v>
       </c>
       <c r="D29" s="42" t="s">
@@ -9760,11 +12913,11 @@
       <c r="N29" s="35">
         <v>29</v>
       </c>
-      <c r="O29" s="113">
+      <c r="O29" s="117">
         <f>SUM(E29:N29)/410</f>
         <v>0.69512195121951215</v>
       </c>
-      <c r="U29" s="112" t="s">
+      <c r="U29" s="116" t="s">
         <v>96</v>
       </c>
       <c r="V29" s="66" t="s">
@@ -9800,13 +12953,13 @@
       <c r="AF29" s="43">
         <v>30</v>
       </c>
-      <c r="AG29" s="113">
+      <c r="AG29" s="117">
         <f>SUM(W29:AF29)/410</f>
         <v>0.84146341463414631</v>
       </c>
     </row>
     <row r="30" spans="3:33" x14ac:dyDescent="0.25">
-      <c r="C30" s="112"/>
+      <c r="C30" s="116"/>
       <c r="D30" s="42" t="s">
         <v>98</v>
       </c>
@@ -9840,8 +12993,8 @@
       <c r="N30" s="43">
         <v>12</v>
       </c>
-      <c r="O30" s="114"/>
-      <c r="U30" s="112"/>
+      <c r="O30" s="118"/>
+      <c r="U30" s="116"/>
       <c r="V30" s="66" t="s">
         <v>98</v>
       </c>
@@ -9875,7 +13028,7 @@
       <c r="AF30" s="43">
         <v>11</v>
       </c>
-      <c r="AG30" s="114"/>
+      <c r="AG30" s="118"/>
     </row>
     <row r="33" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C33" s="46"/>
@@ -9924,26 +13077,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="U27:V28"/>
-    <mergeCell ref="W27:AF27"/>
-    <mergeCell ref="AG27:AG28"/>
-    <mergeCell ref="U29:U30"/>
-    <mergeCell ref="AG29:AG30"/>
-    <mergeCell ref="U21:V22"/>
-    <mergeCell ref="W21:AF21"/>
-    <mergeCell ref="AG21:AG22"/>
-    <mergeCell ref="U23:U24"/>
-    <mergeCell ref="AG23:AG24"/>
-    <mergeCell ref="U15:V16"/>
-    <mergeCell ref="W15:AF15"/>
-    <mergeCell ref="AG15:AG16"/>
-    <mergeCell ref="U17:U18"/>
-    <mergeCell ref="AG17:AG18"/>
-    <mergeCell ref="E15:N15"/>
-    <mergeCell ref="C15:D16"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="O17:O18"/>
     <mergeCell ref="C29:C30"/>
     <mergeCell ref="O29:O30"/>
     <mergeCell ref="C21:D22"/>
@@ -9954,6 +13087,26 @@
     <mergeCell ref="C27:D28"/>
     <mergeCell ref="E27:N27"/>
     <mergeCell ref="O27:O28"/>
+    <mergeCell ref="E15:N15"/>
+    <mergeCell ref="C15:D16"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="U15:V16"/>
+    <mergeCell ref="W15:AF15"/>
+    <mergeCell ref="AG15:AG16"/>
+    <mergeCell ref="U17:U18"/>
+    <mergeCell ref="AG17:AG18"/>
+    <mergeCell ref="U21:V22"/>
+    <mergeCell ref="W21:AF21"/>
+    <mergeCell ref="AG21:AG22"/>
+    <mergeCell ref="U23:U24"/>
+    <mergeCell ref="AG23:AG24"/>
+    <mergeCell ref="U27:V28"/>
+    <mergeCell ref="W27:AF27"/>
+    <mergeCell ref="AG27:AG28"/>
+    <mergeCell ref="U29:U30"/>
+    <mergeCell ref="AG29:AG30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9965,8 +13118,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{863E2203-BBD3-4582-9488-5B7EA02887EE}">
   <dimension ref="B4:U25"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+    <sheetView topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Y7" sqref="Y7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9980,32 +13133,32 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:21" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="115" t="s">
+      <c r="B4" s="114" t="s">
         <v>95</v>
       </c>
-      <c r="C4" s="115"/>
-      <c r="D4" s="116" t="s">
+      <c r="C4" s="114"/>
+      <c r="D4" s="115" t="s">
         <v>100</v>
       </c>
-      <c r="E4" s="116"/>
-      <c r="F4" s="116"/>
-      <c r="G4" s="116"/>
-      <c r="H4" s="116"/>
-      <c r="I4" s="116"/>
-      <c r="J4" s="116"/>
-      <c r="K4" s="116"/>
-      <c r="L4" s="116"/>
-      <c r="M4" s="116"/>
-      <c r="N4" s="112" t="s">
+      <c r="E4" s="115"/>
+      <c r="F4" s="115"/>
+      <c r="G4" s="115"/>
+      <c r="H4" s="115"/>
+      <c r="I4" s="115"/>
+      <c r="J4" s="115"/>
+      <c r="K4" s="115"/>
+      <c r="L4" s="115"/>
+      <c r="M4" s="115"/>
+      <c r="N4" s="116" t="s">
         <v>99</v>
       </c>
-      <c r="O4" s="116" t="s">
+      <c r="O4" s="115" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="5" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B5" s="115"/>
-      <c r="C5" s="115"/>
+      <c r="B5" s="114"/>
+      <c r="C5" s="114"/>
       <c r="D5" s="65">
         <v>1</v>
       </c>
@@ -10036,11 +13189,11 @@
       <c r="M5" s="65">
         <v>10</v>
       </c>
-      <c r="N5" s="112"/>
-      <c r="O5" s="116"/>
+      <c r="N5" s="116"/>
+      <c r="O5" s="115"/>
     </row>
     <row r="6" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="112" t="s">
+      <c r="B6" s="116" t="s">
         <v>132</v>
       </c>
       <c r="C6" s="65" t="s">
@@ -10076,11 +13229,11 @@
       <c r="M6" s="43">
         <v>41</v>
       </c>
-      <c r="N6" s="113">
+      <c r="N6" s="117">
         <f>SUM(D6:M6)/410</f>
         <v>1</v>
       </c>
-      <c r="O6" s="117">
+      <c r="O6" s="119">
         <f>(N6+N8)/2</f>
         <v>1</v>
       </c>
@@ -10096,7 +13249,7 @@
       </c>
     </row>
     <row r="7" spans="2:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="112"/>
+      <c r="B7" s="116"/>
       <c r="C7" s="65" t="s">
         <v>98</v>
       </c>
@@ -10130,8 +13283,8 @@
       <c r="M7" s="43">
         <v>0</v>
       </c>
-      <c r="N7" s="114"/>
-      <c r="O7" s="117"/>
+      <c r="N7" s="118"/>
+      <c r="O7" s="119"/>
       <c r="R7" s="67" t="s">
         <v>130</v>
       </c>
@@ -10146,7 +13299,7 @@
       </c>
     </row>
     <row r="8" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B8" s="112" t="s">
+      <c r="B8" s="116" t="s">
         <v>128</v>
       </c>
       <c r="C8" s="65" t="s">
@@ -10182,11 +13335,11 @@
       <c r="M8" s="43">
         <v>41</v>
       </c>
-      <c r="N8" s="113">
+      <c r="N8" s="117">
         <f>SUM(D8:M8)/410</f>
         <v>1</v>
       </c>
-      <c r="O8" s="117"/>
+      <c r="O8" s="119"/>
       <c r="R8" s="67" t="s">
         <v>131</v>
       </c>
@@ -10201,7 +13354,7 @@
       </c>
     </row>
     <row r="9" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B9" s="112"/>
+      <c r="B9" s="116"/>
       <c r="C9" s="65" t="s">
         <v>98</v>
       </c>
@@ -10235,36 +13388,36 @@
       <c r="M9" s="43">
         <v>0</v>
       </c>
-      <c r="N9" s="114"/>
-      <c r="O9" s="117"/>
+      <c r="N9" s="118"/>
+      <c r="O9" s="119"/>
     </row>
     <row r="12" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B12" s="115" t="s">
+      <c r="B12" s="114" t="s">
         <v>101</v>
       </c>
-      <c r="C12" s="115"/>
-      <c r="D12" s="116" t="s">
+      <c r="C12" s="114"/>
+      <c r="D12" s="115" t="s">
         <v>100</v>
       </c>
-      <c r="E12" s="116"/>
-      <c r="F12" s="116"/>
-      <c r="G12" s="116"/>
-      <c r="H12" s="116"/>
-      <c r="I12" s="116"/>
-      <c r="J12" s="116"/>
-      <c r="K12" s="116"/>
-      <c r="L12" s="116"/>
-      <c r="M12" s="116"/>
-      <c r="N12" s="112" t="s">
+      <c r="E12" s="115"/>
+      <c r="F12" s="115"/>
+      <c r="G12" s="115"/>
+      <c r="H12" s="115"/>
+      <c r="I12" s="115"/>
+      <c r="J12" s="115"/>
+      <c r="K12" s="115"/>
+      <c r="L12" s="115"/>
+      <c r="M12" s="115"/>
+      <c r="N12" s="116" t="s">
         <v>99</v>
       </c>
-      <c r="O12" s="116" t="s">
+      <c r="O12" s="115" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="13" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B13" s="115"/>
-      <c r="C13" s="115"/>
+      <c r="B13" s="114"/>
+      <c r="C13" s="114"/>
       <c r="D13" s="65">
         <v>1</v>
       </c>
@@ -10295,11 +13448,11 @@
       <c r="M13" s="65">
         <v>10</v>
       </c>
-      <c r="N13" s="112"/>
-      <c r="O13" s="116"/>
+      <c r="N13" s="116"/>
+      <c r="O13" s="115"/>
     </row>
     <row r="14" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B14" s="112" t="s">
+      <c r="B14" s="116" t="s">
         <v>127</v>
       </c>
       <c r="C14" s="65" t="s">
@@ -10335,17 +13488,17 @@
       <c r="M14" s="43">
         <v>38</v>
       </c>
-      <c r="N14" s="113">
+      <c r="N14" s="117">
         <f>SUM(D14:M14)/410</f>
         <v>0.90731707317073174</v>
       </c>
-      <c r="O14" s="117">
+      <c r="O14" s="119">
         <f>(N14+N16)/2</f>
         <v>0.90609756097560978</v>
       </c>
     </row>
     <row r="15" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B15" s="112"/>
+      <c r="B15" s="116"/>
       <c r="C15" s="65" t="s">
         <v>98</v>
       </c>
@@ -10379,11 +13532,11 @@
       <c r="M15" s="43">
         <v>3</v>
       </c>
-      <c r="N15" s="114"/>
-      <c r="O15" s="117"/>
+      <c r="N15" s="118"/>
+      <c r="O15" s="119"/>
     </row>
     <row r="16" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B16" s="112" t="s">
+      <c r="B16" s="116" t="s">
         <v>128</v>
       </c>
       <c r="C16" s="65" t="s">
@@ -10419,14 +13572,14 @@
       <c r="M16" s="43">
         <v>37</v>
       </c>
-      <c r="N16" s="113">
+      <c r="N16" s="117">
         <f>SUM(D16:M16)/410</f>
         <v>0.90487804878048783</v>
       </c>
-      <c r="O16" s="117"/>
+      <c r="O16" s="119"/>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B17" s="112"/>
+      <c r="B17" s="116"/>
       <c r="C17" s="65" t="s">
         <v>98</v>
       </c>
@@ -10460,36 +13613,36 @@
       <c r="M17" s="43">
         <v>4</v>
       </c>
-      <c r="N17" s="114"/>
-      <c r="O17" s="117"/>
+      <c r="N17" s="118"/>
+      <c r="O17" s="119"/>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B20" s="115" t="s">
+      <c r="B20" s="114" t="s">
         <v>102</v>
       </c>
-      <c r="C20" s="115"/>
-      <c r="D20" s="116" t="s">
+      <c r="C20" s="114"/>
+      <c r="D20" s="115" t="s">
         <v>100</v>
       </c>
-      <c r="E20" s="116"/>
-      <c r="F20" s="116"/>
-      <c r="G20" s="116"/>
-      <c r="H20" s="116"/>
-      <c r="I20" s="116"/>
-      <c r="J20" s="116"/>
-      <c r="K20" s="116"/>
-      <c r="L20" s="116"/>
-      <c r="M20" s="116"/>
-      <c r="N20" s="112" t="s">
+      <c r="E20" s="115"/>
+      <c r="F20" s="115"/>
+      <c r="G20" s="115"/>
+      <c r="H20" s="115"/>
+      <c r="I20" s="115"/>
+      <c r="J20" s="115"/>
+      <c r="K20" s="115"/>
+      <c r="L20" s="115"/>
+      <c r="M20" s="115"/>
+      <c r="N20" s="116" t="s">
         <v>99</v>
       </c>
-      <c r="O20" s="116" t="s">
+      <c r="O20" s="115" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B21" s="115"/>
-      <c r="C21" s="115"/>
+      <c r="B21" s="114"/>
+      <c r="C21" s="114"/>
       <c r="D21" s="65">
         <v>1</v>
       </c>
@@ -10520,11 +13673,11 @@
       <c r="M21" s="65">
         <v>10</v>
       </c>
-      <c r="N21" s="112"/>
-      <c r="O21" s="116"/>
+      <c r="N21" s="116"/>
+      <c r="O21" s="115"/>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B22" s="112" t="s">
+      <c r="B22" s="116" t="s">
         <v>127</v>
       </c>
       <c r="C22" s="65" t="s">
@@ -10560,17 +13713,17 @@
       <c r="M22" s="43">
         <v>9</v>
       </c>
-      <c r="N22" s="113">
+      <c r="N22" s="117">
         <f>SUM(D22:M22)/410</f>
         <v>0.8365853658536585</v>
       </c>
-      <c r="O22" s="117">
+      <c r="O22" s="119">
         <f>(N22+N24)/2</f>
         <v>0.82560975609756093</v>
       </c>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B23" s="112"/>
+      <c r="B23" s="116"/>
       <c r="C23" s="65" t="s">
         <v>98</v>
       </c>
@@ -10604,11 +13757,11 @@
       <c r="M23" s="43">
         <v>32</v>
       </c>
-      <c r="N23" s="114"/>
-      <c r="O23" s="117"/>
+      <c r="N23" s="118"/>
+      <c r="O23" s="119"/>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B24" s="112" t="s">
+      <c r="B24" s="116" t="s">
         <v>128</v>
       </c>
       <c r="C24" s="65" t="s">
@@ -10644,14 +13797,14 @@
       <c r="M24" s="43">
         <v>9</v>
       </c>
-      <c r="N24" s="113">
+      <c r="N24" s="117">
         <f>SUM(D24:M24)/410</f>
         <v>0.81463414634146336</v>
       </c>
-      <c r="O24" s="117"/>
+      <c r="O24" s="119"/>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B25" s="112"/>
+      <c r="B25" s="116"/>
       <c r="C25" s="65" t="s">
         <v>98</v>
       </c>
@@ -10685,18 +13838,17 @@
       <c r="M25" s="43">
         <v>32</v>
       </c>
-      <c r="N25" s="114"/>
-      <c r="O25" s="117"/>
+      <c r="N25" s="118"/>
+      <c r="O25" s="119"/>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="B4:C5"/>
-    <mergeCell ref="D4:M4"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="O12:O13"/>
+    <mergeCell ref="O14:O17"/>
+    <mergeCell ref="O20:O21"/>
+    <mergeCell ref="O22:O25"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="O6:O9"/>
     <mergeCell ref="B24:B25"/>
     <mergeCell ref="N24:N25"/>
     <mergeCell ref="B12:C13"/>
@@ -10711,12 +13863,13 @@
     <mergeCell ref="N20:N21"/>
     <mergeCell ref="B22:B23"/>
     <mergeCell ref="N22:N23"/>
-    <mergeCell ref="O12:O13"/>
-    <mergeCell ref="O14:O17"/>
-    <mergeCell ref="O20:O21"/>
-    <mergeCell ref="O22:O25"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="O6:O9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="B4:C5"/>
+    <mergeCell ref="D4:M4"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="N6:N7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -10725,10 +13878,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A4:BB61"/>
+  <dimension ref="A4:BE61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AJ1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AS23" sqref="AS23"/>
+    <sheetView tabSelected="1" topLeftCell="AR25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="BD35" sqref="BD35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10748,61 +13901,63 @@
     <col min="44" max="44" width="32.5703125" customWidth="1"/>
     <col min="45" max="45" width="30.42578125" customWidth="1"/>
     <col min="46" max="46" width="29.5703125" customWidth="1"/>
+    <col min="50" max="50" width="9.140625" customWidth="1"/>
+    <col min="51" max="51" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="115" t="s">
+    <row r="4" spans="2:57" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="114" t="s">
         <v>111</v>
       </c>
-      <c r="C4" s="115"/>
-      <c r="D4" s="116" t="s">
+      <c r="C4" s="114"/>
+      <c r="D4" s="115" t="s">
         <v>100</v>
       </c>
-      <c r="E4" s="116"/>
-      <c r="F4" s="116"/>
-      <c r="G4" s="116"/>
-      <c r="H4" s="116"/>
-      <c r="I4" s="116"/>
-      <c r="J4" s="116"/>
-      <c r="K4" s="116"/>
-      <c r="L4" s="116"/>
-      <c r="M4" s="116"/>
-      <c r="N4" s="112" t="s">
+      <c r="E4" s="115"/>
+      <c r="F4" s="115"/>
+      <c r="G4" s="115"/>
+      <c r="H4" s="115"/>
+      <c r="I4" s="115"/>
+      <c r="J4" s="115"/>
+      <c r="K4" s="115"/>
+      <c r="L4" s="115"/>
+      <c r="M4" s="115"/>
+      <c r="N4" s="116" t="s">
         <v>115</v>
       </c>
-      <c r="R4" s="115" t="s">
+      <c r="R4" s="114" t="s">
         <v>116</v>
       </c>
-      <c r="S4" s="115"/>
-      <c r="T4" s="116" t="s">
+      <c r="S4" s="114"/>
+      <c r="T4" s="115" t="s">
         <v>100</v>
       </c>
-      <c r="U4" s="116"/>
-      <c r="V4" s="116"/>
-      <c r="W4" s="116"/>
-      <c r="X4" s="116"/>
-      <c r="Y4" s="116"/>
-      <c r="Z4" s="116"/>
-      <c r="AA4" s="116"/>
-      <c r="AB4" s="116"/>
-      <c r="AC4" s="116"/>
-      <c r="AD4" s="112" t="s">
+      <c r="U4" s="115"/>
+      <c r="V4" s="115"/>
+      <c r="W4" s="115"/>
+      <c r="X4" s="115"/>
+      <c r="Y4" s="115"/>
+      <c r="Z4" s="115"/>
+      <c r="AA4" s="115"/>
+      <c r="AB4" s="115"/>
+      <c r="AC4" s="115"/>
+      <c r="AD4" s="116" t="s">
         <v>105</v>
       </c>
-      <c r="AG4" s="112" t="s">
+      <c r="AG4" s="116" t="s">
         <v>59</v>
       </c>
-      <c r="AH4" s="116" t="s">
+      <c r="AH4" s="115" t="s">
         <v>109</v>
       </c>
-      <c r="AI4" s="116" t="s">
+      <c r="AI4" s="115" t="s">
         <v>110</v>
       </c>
-      <c r="AJ4" s="116"/>
-      <c r="AK4" s="116"/>
-      <c r="AL4" s="116"/>
-      <c r="AM4" s="116"/>
-      <c r="AN4" s="116"/>
+      <c r="AJ4" s="115"/>
+      <c r="AK4" s="115"/>
+      <c r="AL4" s="115"/>
+      <c r="AM4" s="115"/>
+      <c r="AN4" s="115"/>
       <c r="AR4" s="76"/>
       <c r="AS4" s="76"/>
       <c r="AT4" s="76"/>
@@ -10815,9 +13970,9 @@
       <c r="BA4" s="76"/>
       <c r="BB4" s="47"/>
     </row>
-    <row r="5" spans="2:54" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="115"/>
-      <c r="C5" s="115"/>
+    <row r="5" spans="2:57" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="114"/>
+      <c r="C5" s="114"/>
       <c r="D5" s="45">
         <v>1</v>
       </c>
@@ -10848,9 +14003,9 @@
       <c r="M5" s="45">
         <v>10</v>
       </c>
-      <c r="N5" s="112"/>
-      <c r="R5" s="115"/>
-      <c r="S5" s="115"/>
+      <c r="N5" s="116"/>
+      <c r="R5" s="114"/>
+      <c r="S5" s="114"/>
       <c r="T5" s="45">
         <v>1</v>
       </c>
@@ -10881,9 +14036,9 @@
       <c r="AC5" s="45">
         <v>10</v>
       </c>
-      <c r="AD5" s="112"/>
-      <c r="AG5" s="112"/>
-      <c r="AH5" s="116"/>
+      <c r="AD5" s="116"/>
+      <c r="AG5" s="116"/>
+      <c r="AH5" s="115"/>
       <c r="AI5" s="53" t="s">
         <v>1</v>
       </c>
@@ -10902,10 +14057,10 @@
       <c r="AN5" s="53" t="s">
         <v>69</v>
       </c>
-      <c r="AP5" s="115" t="s">
+      <c r="AP5" s="114" t="s">
         <v>145</v>
       </c>
-      <c r="AQ5" s="115"/>
+      <c r="AQ5" s="114"/>
       <c r="AR5" s="77" t="s">
         <v>148</v>
       </c>
@@ -10924,8 +14079,8 @@
       <c r="BA5" s="74"/>
       <c r="BB5" s="47"/>
     </row>
-    <row r="6" spans="2:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="120" t="s">
+    <row r="6" spans="2:57" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="122" t="s">
         <v>110</v>
       </c>
       <c r="C6" s="45" t="s">
@@ -10975,7 +14130,7 @@
         <f>AVERAGE(D6:M6)</f>
         <v>9.2636986301369864E-2</v>
       </c>
-      <c r="R6" s="120" t="s">
+      <c r="R6" s="122" t="s">
         <v>110</v>
       </c>
       <c r="S6" s="45" t="s">
@@ -11045,7 +14200,7 @@
         <f>AD11</f>
         <v>3.0045600000000006E-2</v>
       </c>
-      <c r="AP6" s="122" t="s">
+      <c r="AP6" s="121" t="s">
         <v>100</v>
       </c>
       <c r="AQ6" s="70">
@@ -11069,8 +14224,8 @@
       <c r="BA6" s="75"/>
       <c r="BB6" s="47"/>
     </row>
-    <row r="7" spans="2:54" x14ac:dyDescent="0.25">
-      <c r="B7" s="120"/>
+    <row r="7" spans="2:57" x14ac:dyDescent="0.25">
+      <c r="B7" s="122"/>
       <c r="C7" s="45" t="s">
         <v>2</v>
       </c>
@@ -11118,7 +14273,7 @@
         <f t="shared" ref="N7:N11" si="0">AVERAGE(D7:M7)</f>
         <v>0.2441780821917808</v>
       </c>
-      <c r="R7" s="120"/>
+      <c r="R7" s="122"/>
       <c r="S7" s="45" t="s">
         <v>2</v>
       </c>
@@ -11186,7 +14341,7 @@
         <f>AD21</f>
         <v>4.9896800000000005E-2</v>
       </c>
-      <c r="AP7" s="122"/>
+      <c r="AP7" s="121"/>
       <c r="AQ7" s="70">
         <v>2</v>
       </c>
@@ -11208,8 +14363,8 @@
       <c r="BA7" s="75"/>
       <c r="BB7" s="47"/>
     </row>
-    <row r="8" spans="2:54" x14ac:dyDescent="0.25">
-      <c r="B8" s="120"/>
+    <row r="8" spans="2:57" x14ac:dyDescent="0.25">
+      <c r="B8" s="122"/>
       <c r="C8" s="45" t="s">
         <v>3</v>
       </c>
@@ -11257,7 +14412,7 @@
         <f t="shared" si="0"/>
         <v>0.31849315068493156</v>
       </c>
-      <c r="R8" s="120"/>
+      <c r="R8" s="122"/>
       <c r="S8" s="45" t="s">
         <v>3</v>
       </c>
@@ -11325,7 +14480,7 @@
         <f>AD31</f>
         <v>gagal</v>
       </c>
-      <c r="AP8" s="122"/>
+      <c r="AP8" s="121"/>
       <c r="AQ8" s="70">
         <v>3</v>
       </c>
@@ -11347,8 +14502,8 @@
       <c r="BA8" s="75"/>
       <c r="BB8" s="47"/>
     </row>
-    <row r="9" spans="2:54" x14ac:dyDescent="0.25">
-      <c r="B9" s="120"/>
+    <row r="9" spans="2:57" x14ac:dyDescent="0.25">
+      <c r="B9" s="122"/>
       <c r="C9" s="45" t="s">
         <v>52</v>
       </c>
@@ -11396,7 +14551,7 @@
         <f t="shared" si="0"/>
         <v>0.49383561643835616</v>
       </c>
-      <c r="R9" s="120"/>
+      <c r="R9" s="122"/>
       <c r="S9" s="45" t="s">
         <v>52</v>
       </c>
@@ -11464,7 +14619,7 @@
         <f>AD41</f>
         <v>gagal</v>
       </c>
-      <c r="AP9" s="122"/>
+      <c r="AP9" s="121"/>
       <c r="AQ9" s="71">
         <v>4</v>
       </c>
@@ -11486,8 +14641,8 @@
       <c r="BA9" s="47"/>
       <c r="BB9" s="47"/>
     </row>
-    <row r="10" spans="2:54" x14ac:dyDescent="0.25">
-      <c r="B10" s="120"/>
+    <row r="10" spans="2:57" x14ac:dyDescent="0.25">
+      <c r="B10" s="122"/>
       <c r="C10" s="45" t="s">
         <v>51</v>
       </c>
@@ -11535,7 +14690,7 @@
         <f t="shared" si="0"/>
         <v>0.59845890410958913</v>
       </c>
-      <c r="R10" s="120"/>
+      <c r="R10" s="122"/>
       <c r="S10" s="45" t="s">
         <v>51</v>
       </c>
@@ -11603,7 +14758,7 @@
         <f>AD51</f>
         <v>gagal</v>
       </c>
-      <c r="AP10" s="122"/>
+      <c r="AP10" s="121"/>
       <c r="AQ10" s="71">
         <v>5</v>
       </c>
@@ -11617,8 +14772,8 @@
         <v>160</v>
       </c>
     </row>
-    <row r="11" spans="2:54" x14ac:dyDescent="0.25">
-      <c r="B11" s="120"/>
+    <row r="11" spans="2:57" x14ac:dyDescent="0.25">
+      <c r="B11" s="122"/>
       <c r="C11" s="45" t="s">
         <v>69</v>
       </c>
@@ -11666,7 +14821,7 @@
         <f t="shared" si="0"/>
         <v>0.56746575342465744</v>
       </c>
-      <c r="R11" s="120"/>
+      <c r="R11" s="122"/>
       <c r="S11" s="45" t="s">
         <v>69</v>
       </c>
@@ -11704,7 +14859,7 @@
         <f t="shared" si="1"/>
         <v>3.0045600000000006E-2</v>
       </c>
-      <c r="AP11" s="122"/>
+      <c r="AP11" s="121"/>
       <c r="AQ11" s="71">
         <v>6</v>
       </c>
@@ -11718,8 +14873,8 @@
         <v>162</v>
       </c>
     </row>
-    <row r="12" spans="2:54" x14ac:dyDescent="0.25">
-      <c r="AP12" s="122"/>
+    <row r="12" spans="2:57" x14ac:dyDescent="0.25">
+      <c r="AP12" s="121"/>
       <c r="AQ12" s="71">
         <v>7</v>
       </c>
@@ -11733,8 +14888,8 @@
         <v>163</v>
       </c>
     </row>
-    <row r="13" spans="2:54" x14ac:dyDescent="0.25">
-      <c r="AP13" s="122"/>
+    <row r="13" spans="2:57" x14ac:dyDescent="0.25">
+      <c r="AP13" s="121"/>
       <c r="AQ13" s="71">
         <v>8</v>
       </c>
@@ -11748,60 +14903,60 @@
         <v>164</v>
       </c>
     </row>
-    <row r="14" spans="2:54" x14ac:dyDescent="0.25">
-      <c r="B14" s="115" t="s">
+    <row r="14" spans="2:57" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="114" t="s">
         <v>112</v>
       </c>
-      <c r="C14" s="115"/>
-      <c r="D14" s="116" t="s">
+      <c r="C14" s="114"/>
+      <c r="D14" s="115" t="s">
         <v>100</v>
       </c>
-      <c r="E14" s="116"/>
-      <c r="F14" s="116"/>
-      <c r="G14" s="116"/>
-      <c r="H14" s="116"/>
-      <c r="I14" s="116"/>
-      <c r="J14" s="116"/>
-      <c r="K14" s="116"/>
-      <c r="L14" s="116"/>
-      <c r="M14" s="116"/>
-      <c r="N14" s="112" t="s">
+      <c r="E14" s="115"/>
+      <c r="F14" s="115"/>
+      <c r="G14" s="115"/>
+      <c r="H14" s="115"/>
+      <c r="I14" s="115"/>
+      <c r="J14" s="115"/>
+      <c r="K14" s="115"/>
+      <c r="L14" s="115"/>
+      <c r="M14" s="115"/>
+      <c r="N14" s="116" t="s">
         <v>105</v>
       </c>
-      <c r="R14" s="115" t="s">
+      <c r="R14" s="114" t="s">
         <v>117</v>
       </c>
-      <c r="S14" s="115"/>
-      <c r="T14" s="116" t="s">
+      <c r="S14" s="114"/>
+      <c r="T14" s="115" t="s">
         <v>100</v>
       </c>
-      <c r="U14" s="116"/>
-      <c r="V14" s="116"/>
-      <c r="W14" s="116"/>
-      <c r="X14" s="116"/>
-      <c r="Y14" s="116"/>
-      <c r="Z14" s="116"/>
-      <c r="AA14" s="116"/>
-      <c r="AB14" s="116"/>
-      <c r="AC14" s="116"/>
-      <c r="AD14" s="112" t="s">
+      <c r="U14" s="115"/>
+      <c r="V14" s="115"/>
+      <c r="W14" s="115"/>
+      <c r="X14" s="115"/>
+      <c r="Y14" s="115"/>
+      <c r="Z14" s="115"/>
+      <c r="AA14" s="115"/>
+      <c r="AB14" s="115"/>
+      <c r="AC14" s="115"/>
+      <c r="AD14" s="116" t="s">
         <v>105</v>
       </c>
-      <c r="AG14" s="112" t="s">
+      <c r="AG14" s="116" t="s">
         <v>59</v>
       </c>
-      <c r="AH14" s="116" t="s">
+      <c r="AH14" s="115" t="s">
         <v>109</v>
       </c>
-      <c r="AI14" s="116" t="s">
+      <c r="AI14" s="115" t="s">
         <v>110</v>
       </c>
-      <c r="AJ14" s="116"/>
-      <c r="AK14" s="116"/>
-      <c r="AL14" s="116"/>
-      <c r="AM14" s="116"/>
-      <c r="AN14" s="116"/>
-      <c r="AP14" s="122"/>
+      <c r="AJ14" s="115"/>
+      <c r="AK14" s="115"/>
+      <c r="AL14" s="115"/>
+      <c r="AM14" s="115"/>
+      <c r="AN14" s="115"/>
+      <c r="AP14" s="121"/>
       <c r="AQ14" s="71">
         <v>9</v>
       </c>
@@ -11814,10 +14969,17 @@
       <c r="AT14" s="77" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="15" spans="2:54" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="115"/>
-      <c r="C15" s="115"/>
+      <c r="AY14" s="139"/>
+      <c r="AZ14" s="115"/>
+      <c r="BA14" s="115"/>
+      <c r="BB14" s="115"/>
+      <c r="BC14" s="115"/>
+      <c r="BD14" s="115"/>
+      <c r="BE14" s="115"/>
+    </row>
+    <row r="15" spans="2:57" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="114"/>
+      <c r="C15" s="114"/>
       <c r="D15" s="45">
         <v>1</v>
       </c>
@@ -11848,9 +15010,9 @@
       <c r="M15" s="45">
         <v>10</v>
       </c>
-      <c r="N15" s="112"/>
-      <c r="R15" s="115"/>
-      <c r="S15" s="115"/>
+      <c r="N15" s="116"/>
+      <c r="R15" s="114"/>
+      <c r="S15" s="114"/>
       <c r="T15" s="45">
         <v>1</v>
       </c>
@@ -11881,9 +15043,9 @@
       <c r="AC15" s="45">
         <v>10</v>
       </c>
-      <c r="AD15" s="112"/>
-      <c r="AG15" s="112"/>
-      <c r="AH15" s="116"/>
+      <c r="AD15" s="116"/>
+      <c r="AG15" s="116"/>
+      <c r="AH15" s="115"/>
       <c r="AI15" s="53" t="s">
         <v>1</v>
       </c>
@@ -11902,7 +15064,7 @@
       <c r="AN15" s="53" t="s">
         <v>69</v>
       </c>
-      <c r="AP15" s="122"/>
+      <c r="AP15" s="121"/>
       <c r="AQ15" s="71">
         <v>10</v>
       </c>
@@ -11915,9 +15077,29 @@
       <c r="AT15" s="77" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="16" spans="2:54" x14ac:dyDescent="0.25">
-      <c r="B16" s="120" t="s">
+      <c r="AX15" s="140"/>
+      <c r="AY15" s="78"/>
+      <c r="AZ15" s="79" t="s">
+        <v>171</v>
+      </c>
+      <c r="BA15" s="79" t="s">
+        <v>172</v>
+      </c>
+      <c r="BB15" s="79" t="s">
+        <v>173</v>
+      </c>
+      <c r="BC15" s="79" t="s">
+        <v>167</v>
+      </c>
+      <c r="BD15" s="79" t="s">
+        <v>156</v>
+      </c>
+      <c r="BE15" s="79" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="16" spans="2:57" x14ac:dyDescent="0.25">
+      <c r="B16" s="122" t="s">
         <v>110</v>
       </c>
       <c r="C16" s="45" t="s">
@@ -11967,7 +15149,7 @@
         <f>AVERAGE(D16:M16)</f>
         <v>9.5918367346938788E-2</v>
       </c>
-      <c r="R16" s="120" t="s">
+      <c r="R16" s="122" t="s">
         <v>110</v>
       </c>
       <c r="S16" s="45" t="s">
@@ -12037,9 +15219,36 @@
         <f>N11</f>
         <v>0.56746575342465744</v>
       </c>
-    </row>
-    <row r="17" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="B17" s="120"/>
+      <c r="AY16" s="79" t="s">
+        <v>135</v>
+      </c>
+      <c r="AZ16" s="59">
+        <f>AI16</f>
+        <v>9.2636986301369864E-2</v>
+      </c>
+      <c r="BA16" s="59">
+        <f t="shared" ref="BA16:BE16" si="2">AJ16</f>
+        <v>0.2441780821917808</v>
+      </c>
+      <c r="BB16" s="59">
+        <f t="shared" si="2"/>
+        <v>0.31849315068493156</v>
+      </c>
+      <c r="BC16" s="59">
+        <f t="shared" si="2"/>
+        <v>0.49383561643835616</v>
+      </c>
+      <c r="BD16" s="59">
+        <f t="shared" si="2"/>
+        <v>0.59845890410958913</v>
+      </c>
+      <c r="BE16" s="59">
+        <f t="shared" si="2"/>
+        <v>0.56746575342465744</v>
+      </c>
+    </row>
+    <row r="17" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="B17" s="122"/>
       <c r="C17" s="45" t="s">
         <v>2</v>
       </c>
@@ -12084,10 +15293,10 @@
         <v>0.1244897959183674</v>
       </c>
       <c r="N17" s="50">
-        <f t="shared" ref="N17:N21" si="2">AVERAGE(D17:M17)</f>
+        <f t="shared" ref="N17:N21" si="3">AVERAGE(D17:M17)</f>
         <v>0.19918367346938778</v>
       </c>
-      <c r="R17" s="120"/>
+      <c r="R17" s="122"/>
       <c r="S17" s="45" t="s">
         <v>2</v>
       </c>
@@ -12122,7 +15331,7 @@
         <v>8.8275999999999993E-2</v>
       </c>
       <c r="AD17" s="52">
-        <f t="shared" ref="AD17:AD21" si="3">AVERAGE(T17:AC17)</f>
+        <f t="shared" ref="AD17:AD21" si="4">AVERAGE(T17:AC17)</f>
         <v>8.1484000000000001E-2</v>
       </c>
       <c r="AG17" s="61">
@@ -12155,9 +15364,36 @@
         <f>N21</f>
         <v>0.60499999999999998</v>
       </c>
-    </row>
-    <row r="18" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="B18" s="120"/>
+      <c r="AY17" s="79" t="s">
+        <v>136</v>
+      </c>
+      <c r="AZ17" s="59">
+        <f t="shared" ref="AZ17:AZ20" si="5">AI17</f>
+        <v>9.5918367346938788E-2</v>
+      </c>
+      <c r="BA17" s="59">
+        <f t="shared" ref="BA17:BA20" si="6">AJ17</f>
+        <v>0.19918367346938778</v>
+      </c>
+      <c r="BB17" s="59">
+        <f t="shared" ref="BB17:BB20" si="7">AK17</f>
+        <v>0.32346938775510203</v>
+      </c>
+      <c r="BC17" s="59">
+        <f t="shared" ref="BC17:BC20" si="8">AL17</f>
+        <v>0.49091836734693883</v>
+      </c>
+      <c r="BD17" s="59">
+        <f t="shared" ref="BD17:BD20" si="9">AM17</f>
+        <v>0.54499999999999993</v>
+      </c>
+      <c r="BE17" s="59">
+        <f t="shared" ref="BE17:BE20" si="10">AN17</f>
+        <v>0.60499999999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="B18" s="122"/>
       <c r="C18" s="45" t="s">
         <v>3</v>
       </c>
@@ -12202,10 +15438,10 @@
         <v>0.29285714285714282</v>
       </c>
       <c r="N18" s="50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.32346938775510203</v>
       </c>
-      <c r="R18" s="120"/>
+      <c r="R18" s="122"/>
       <c r="S18" s="45" t="s">
         <v>3</v>
       </c>
@@ -12240,7 +15476,7 @@
         <v>7.3092000000000004E-2</v>
       </c>
       <c r="AD18" s="52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6.8795999999999996E-2</v>
       </c>
       <c r="AG18" s="61">
@@ -12272,9 +15508,35 @@
       <c r="AN18" s="54" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="19" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="B19" s="120"/>
+      <c r="AY18" s="79" t="s">
+        <v>137</v>
+      </c>
+      <c r="AZ18" s="59">
+        <f t="shared" si="5"/>
+        <v>0.10015624999999999</v>
+      </c>
+      <c r="BA18" s="59">
+        <f t="shared" si="6"/>
+        <v>0.16820312499999998</v>
+      </c>
+      <c r="BB18" s="59">
+        <f t="shared" si="7"/>
+        <v>0.37398437499999998</v>
+      </c>
+      <c r="BC18" s="59">
+        <f t="shared" si="8"/>
+        <v>0.45929687499999999</v>
+      </c>
+      <c r="BD18" s="59">
+        <f t="shared" si="9"/>
+        <v>0.50226562500000005</v>
+      </c>
+      <c r="BE18" s="59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="B19" s="122"/>
       <c r="C19" s="45" t="s">
         <v>52</v>
       </c>
@@ -12319,10 +15581,10 @@
         <v>0.37653061224489792</v>
       </c>
       <c r="N19" s="50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.49091836734693883</v>
       </c>
-      <c r="R19" s="120"/>
+      <c r="R19" s="122"/>
       <c r="S19" s="45" t="s">
         <v>52</v>
       </c>
@@ -12357,7 +15619,7 @@
         <v>6.6516000000000006E-2</v>
       </c>
       <c r="AD19" s="52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.4722799999999995E-2</v>
       </c>
       <c r="AG19" s="61">
@@ -12390,9 +15652,35 @@
         <f>AD51</f>
         <v>gagal</v>
       </c>
-    </row>
-    <row r="20" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="B20" s="120"/>
+      <c r="AY19" s="79" t="s">
+        <v>138</v>
+      </c>
+      <c r="AZ19" s="59">
+        <f t="shared" si="5"/>
+        <v>0.10200743494423789</v>
+      </c>
+      <c r="BA19" s="59">
+        <f t="shared" si="6"/>
+        <v>0.16988847583643124</v>
+      </c>
+      <c r="BB19" s="59">
+        <f t="shared" si="7"/>
+        <v>0.37724907063197022</v>
+      </c>
+      <c r="BC19" s="59">
+        <f t="shared" si="8"/>
+        <v>0.45933085501858739</v>
+      </c>
+      <c r="BD19" s="59">
+        <f t="shared" si="9"/>
+        <v>0.54542750929368033</v>
+      </c>
+      <c r="BE19" s="59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="B20" s="122"/>
       <c r="C20" s="45" t="s">
         <v>51</v>
       </c>
@@ -12437,10 +15725,10 @@
         <v>0.37244897959183676</v>
       </c>
       <c r="N20" s="50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.54499999999999993</v>
       </c>
-      <c r="R20" s="120"/>
+      <c r="R20" s="122"/>
       <c r="S20" s="45" t="s">
         <v>51</v>
       </c>
@@ -12475,7 +15763,7 @@
         <v>7.2172E-2</v>
       </c>
       <c r="AD20" s="52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.2898399999999998E-2</v>
       </c>
       <c r="AG20" s="61">
@@ -12508,12 +15796,35 @@
         <f>N51</f>
         <v>gagal</v>
       </c>
-      <c r="AR20" s="77" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="21" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="B21" s="120"/>
+      <c r="AR20" s="77"/>
+      <c r="AY20" s="79" t="s">
+        <v>139</v>
+      </c>
+      <c r="AZ20" s="59">
+        <f t="shared" si="5"/>
+        <v>5.0641711229946505E-2</v>
+      </c>
+      <c r="BA20" s="59">
+        <f t="shared" si="6"/>
+        <v>0.11176470588235295</v>
+      </c>
+      <c r="BB20" s="59">
+        <f t="shared" si="7"/>
+        <v>0.20358288770053479</v>
+      </c>
+      <c r="BC20" s="59">
+        <f t="shared" si="8"/>
+        <v>0.27796791443850272</v>
+      </c>
+      <c r="BD20" s="59">
+        <v>0</v>
+      </c>
+      <c r="BE20" s="59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="B21" s="122"/>
       <c r="C21" s="45" t="s">
         <v>69</v>
       </c>
@@ -12558,10 +15869,10 @@
         <v>0.39081632653061227</v>
       </c>
       <c r="N21" s="50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.60499999999999998</v>
       </c>
-      <c r="R21" s="120"/>
+      <c r="R21" s="122"/>
       <c r="S21" s="45" t="s">
         <v>69</v>
       </c>
@@ -12596,69 +15907,72 @@
         <v>7.7815999999999996E-2</v>
       </c>
       <c r="AD21" s="52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.9896800000000005E-2</v>
       </c>
-      <c r="AR21" s="51" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="22" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="AR22" s="51" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="23" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="AR23" s="51" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="24" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="B24" s="115" t="s">
+      <c r="AR21" s="51"/>
+    </row>
+    <row r="22" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="AR22" s="51"/>
+    </row>
+    <row r="23" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="AR23" s="51"/>
+    </row>
+    <row r="24" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="B24" s="114" t="s">
         <v>113</v>
       </c>
-      <c r="C24" s="115"/>
-      <c r="D24" s="116" t="s">
+      <c r="C24" s="114"/>
+      <c r="D24" s="115" t="s">
         <v>100</v>
       </c>
-      <c r="E24" s="116"/>
-      <c r="F24" s="116"/>
-      <c r="G24" s="116"/>
-      <c r="H24" s="116"/>
-      <c r="I24" s="116"/>
-      <c r="J24" s="116"/>
-      <c r="K24" s="116"/>
-      <c r="L24" s="116"/>
-      <c r="M24" s="116"/>
-      <c r="N24" s="112" t="s">
+      <c r="E24" s="115"/>
+      <c r="F24" s="115"/>
+      <c r="G24" s="115"/>
+      <c r="H24" s="115"/>
+      <c r="I24" s="115"/>
+      <c r="J24" s="115"/>
+      <c r="K24" s="115"/>
+      <c r="L24" s="115"/>
+      <c r="M24" s="115"/>
+      <c r="N24" s="116" t="s">
         <v>105</v>
       </c>
-      <c r="R24" s="115" t="s">
+      <c r="R24" s="114" t="s">
         <v>118</v>
       </c>
-      <c r="S24" s="115"/>
-      <c r="T24" s="116" t="s">
+      <c r="S24" s="114"/>
+      <c r="T24" s="115" t="s">
         <v>100</v>
       </c>
-      <c r="U24" s="116"/>
-      <c r="V24" s="116"/>
-      <c r="W24" s="116"/>
-      <c r="X24" s="116"/>
-      <c r="Y24" s="116"/>
-      <c r="Z24" s="116"/>
-      <c r="AA24" s="116"/>
-      <c r="AB24" s="116"/>
-      <c r="AC24" s="116"/>
-      <c r="AD24" s="112" t="s">
+      <c r="U24" s="115"/>
+      <c r="V24" s="115"/>
+      <c r="W24" s="115"/>
+      <c r="X24" s="115"/>
+      <c r="Y24" s="115"/>
+      <c r="Z24" s="115"/>
+      <c r="AA24" s="115"/>
+      <c r="AB24" s="115"/>
+      <c r="AC24" s="115"/>
+      <c r="AD24" s="116" t="s">
         <v>105</v>
       </c>
-      <c r="AR24" s="77" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="25" spans="1:44" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="115"/>
-      <c r="C25" s="115"/>
+      <c r="AR24" s="77"/>
+      <c r="AY24" s="140" t="s">
+        <v>59</v>
+      </c>
+      <c r="AZ24" s="115" t="s">
+        <v>110</v>
+      </c>
+      <c r="BA24" s="115"/>
+      <c r="BB24" s="115"/>
+      <c r="BC24" s="115"/>
+      <c r="BD24" s="115"/>
+      <c r="BE24" s="115"/>
+    </row>
+    <row r="25" spans="1:57" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="114"/>
+      <c r="C25" s="114"/>
       <c r="D25" s="45">
         <v>1</v>
       </c>
@@ -12689,9 +16003,9 @@
       <c r="M25" s="45">
         <v>10</v>
       </c>
-      <c r="N25" s="112"/>
-      <c r="R25" s="115"/>
-      <c r="S25" s="115"/>
+      <c r="N25" s="116"/>
+      <c r="R25" s="114"/>
+      <c r="S25" s="114"/>
       <c r="T25" s="45">
         <v>1</v>
       </c>
@@ -12722,13 +16036,30 @@
       <c r="AC25" s="45">
         <v>10</v>
       </c>
-      <c r="AD25" s="112"/>
-      <c r="AR25" s="77" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="26" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="B26" s="120" t="s">
+      <c r="AD25" s="116"/>
+      <c r="AR25" s="77"/>
+      <c r="AY25" s="140"/>
+      <c r="AZ25" s="79" t="s">
+        <v>171</v>
+      </c>
+      <c r="BA25" s="79" t="s">
+        <v>172</v>
+      </c>
+      <c r="BB25" s="79" t="s">
+        <v>173</v>
+      </c>
+      <c r="BC25" s="79" t="s">
+        <v>167</v>
+      </c>
+      <c r="BD25" s="79" t="s">
+        <v>156</v>
+      </c>
+      <c r="BE25" s="79" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="26" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="B26" s="122" t="s">
         <v>110</v>
       </c>
       <c r="C26" s="45" t="s">
@@ -12778,7 +16109,7 @@
         <f>AVERAGE(D26:M26)</f>
         <v>0.10015624999999999</v>
       </c>
-      <c r="R26" s="120" t="s">
+      <c r="R26" s="122" t="s">
         <v>110</v>
       </c>
       <c r="S26" s="45" t="s">
@@ -12818,12 +16149,37 @@
         <f>AVERAGE(T26:AC26)</f>
         <v>0.12733359999999999</v>
       </c>
-      <c r="AR26" s="77" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="27" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="B27" s="120"/>
+      <c r="AR26" s="77"/>
+      <c r="AY26" s="79" t="s">
+        <v>135</v>
+      </c>
+      <c r="AZ26" s="58">
+        <f>AI6</f>
+        <v>5.8035200000000009E-2</v>
+      </c>
+      <c r="BA26" s="58">
+        <f t="shared" ref="BA26:BE26" si="11">AJ6</f>
+        <v>4.6922399999999996E-2</v>
+      </c>
+      <c r="BB26" s="58">
+        <f t="shared" si="11"/>
+        <v>4.1415600000000004E-2</v>
+      </c>
+      <c r="BC26" s="58">
+        <f t="shared" si="11"/>
+        <v>3.2311600000000003E-2</v>
+      </c>
+      <c r="BD26" s="58">
+        <f t="shared" si="11"/>
+        <v>2.9476800000000004E-2</v>
+      </c>
+      <c r="BE26" s="58">
+        <f t="shared" si="11"/>
+        <v>3.0045600000000006E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="B27" s="122"/>
       <c r="C27" s="45" t="s">
         <v>2</v>
       </c>
@@ -12868,10 +16224,10 @@
         <v>0.28125</v>
       </c>
       <c r="N27" s="50">
-        <f t="shared" ref="N27:N30" si="4">AVERAGE(D27:M27)</f>
+        <f t="shared" ref="N27:N30" si="12">AVERAGE(D27:M27)</f>
         <v>0.16820312499999998</v>
       </c>
-      <c r="R27" s="120"/>
+      <c r="R27" s="122"/>
       <c r="S27" s="45" t="s">
         <v>2</v>
       </c>
@@ -12906,15 +16262,40 @@
         <v>0.104836</v>
       </c>
       <c r="AD27" s="52">
-        <f t="shared" ref="AD27:AD30" si="5">AVERAGE(T27:AC27)</f>
+        <f t="shared" ref="AD27:AD30" si="13">AVERAGE(T27:AC27)</f>
         <v>0.11091480000000001</v>
       </c>
-      <c r="AR27" s="77" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="28" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="B28" s="120"/>
+      <c r="AR27" s="77"/>
+      <c r="AY27" s="79" t="s">
+        <v>136</v>
+      </c>
+      <c r="AZ27" s="58">
+        <f t="shared" ref="AZ27:AZ30" si="14">AI7</f>
+        <v>9.6875600000000006E-2</v>
+      </c>
+      <c r="BA27" s="58">
+        <f t="shared" ref="BA27:BA30" si="15">AJ7</f>
+        <v>8.1484000000000001E-2</v>
+      </c>
+      <c r="BB27" s="58">
+        <f t="shared" ref="BB27:BB30" si="16">AK7</f>
+        <v>6.8795999999999996E-2</v>
+      </c>
+      <c r="BC27" s="58">
+        <f t="shared" ref="BC27:BC30" si="17">AL7</f>
+        <v>5.4722799999999995E-2</v>
+      </c>
+      <c r="BD27" s="58">
+        <f t="shared" ref="BD27:BD30" si="18">AM7</f>
+        <v>5.2898399999999998E-2</v>
+      </c>
+      <c r="BE27" s="58">
+        <f t="shared" ref="BE27:BE30" si="19">AN7</f>
+        <v>4.9896800000000005E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="B28" s="122"/>
       <c r="C28" s="45" t="s">
         <v>3</v>
       </c>
@@ -12959,10 +16340,10 @@
         <v>0.31406250000000002</v>
       </c>
       <c r="N28" s="50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>0.37398437499999998</v>
       </c>
-      <c r="R28" s="120"/>
+      <c r="R28" s="122"/>
       <c r="S28" s="45" t="s">
         <v>3</v>
       </c>
@@ -12997,15 +16378,39 @@
         <v>9.6820000000000003E-2</v>
       </c>
       <c r="AD28" s="52">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>8.7704799999999999E-2</v>
       </c>
-      <c r="AR28" s="77" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="29" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="B29" s="120"/>
+      <c r="AR28" s="77"/>
+      <c r="AY28" s="79" t="s">
+        <v>137</v>
+      </c>
+      <c r="AZ28" s="58">
+        <f t="shared" si="14"/>
+        <v>0.12733359999999999</v>
+      </c>
+      <c r="BA28" s="58">
+        <f t="shared" si="15"/>
+        <v>0.11091480000000001</v>
+      </c>
+      <c r="BB28" s="58">
+        <f t="shared" si="16"/>
+        <v>8.7704799999999999E-2</v>
+      </c>
+      <c r="BC28" s="58">
+        <f t="shared" si="17"/>
+        <v>7.7805600000000003E-2</v>
+      </c>
+      <c r="BD28" s="58">
+        <f t="shared" si="18"/>
+        <v>7.8400400000000009E-2</v>
+      </c>
+      <c r="BE28" s="58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="B29" s="122"/>
       <c r="C29" s="45" t="s">
         <v>52</v>
       </c>
@@ -13050,10 +16455,10 @@
         <v>0.34296875000000004</v>
       </c>
       <c r="N29" s="50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>0.45929687499999999</v>
       </c>
-      <c r="R29" s="120"/>
+      <c r="R29" s="122"/>
       <c r="S29" s="45" t="s">
         <v>52</v>
       </c>
@@ -13088,15 +16493,39 @@
         <v>9.1188000000000005E-2</v>
       </c>
       <c r="AD29" s="52">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>7.7805600000000003E-2</v>
       </c>
-      <c r="AR29" s="77" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="30" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="B30" s="120"/>
+      <c r="AR29" s="77"/>
+      <c r="AY29" s="79" t="s">
+        <v>138</v>
+      </c>
+      <c r="AZ29" s="58">
+        <f t="shared" si="14"/>
+        <v>0.1336464</v>
+      </c>
+      <c r="BA29" s="58">
+        <f t="shared" si="15"/>
+        <v>0.11642079999999999</v>
+      </c>
+      <c r="BB29" s="58">
+        <f t="shared" si="16"/>
+        <v>9.1741199999999995E-2</v>
+      </c>
+      <c r="BC29" s="58">
+        <f t="shared" si="17"/>
+        <v>8.16828E-2</v>
+      </c>
+      <c r="BD29" s="58">
+        <f t="shared" si="18"/>
+        <v>8.2377599999999995E-2</v>
+      </c>
+      <c r="BE29" s="58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="B30" s="122"/>
       <c r="C30" s="45" t="s">
         <v>51</v>
       </c>
@@ -13141,10 +16570,10 @@
         <v>0.30937499999999996</v>
       </c>
       <c r="N30" s="50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>0.50226562500000005</v>
       </c>
-      <c r="R30" s="120"/>
+      <c r="R30" s="122"/>
       <c r="S30" s="45" t="s">
         <v>51</v>
       </c>
@@ -13179,18 +16608,41 @@
         <v>0.101328</v>
       </c>
       <c r="AD30" s="52">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>7.8400400000000009E-2</v>
       </c>
-      <c r="AR30" s="77" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="31" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AR30" s="77"/>
+      <c r="AY30" s="79" t="s">
+        <v>139</v>
+      </c>
+      <c r="AZ30" s="58">
+        <f t="shared" si="14"/>
+        <v>0.19123519999999999</v>
+      </c>
+      <c r="BA30" s="58">
+        <f t="shared" si="15"/>
+        <v>0.1675944</v>
+      </c>
+      <c r="BB30" s="58">
+        <f t="shared" si="16"/>
+        <v>0.14966200000000002</v>
+      </c>
+      <c r="BC30" s="58">
+        <f t="shared" si="17"/>
+        <v>0.14012160000000001</v>
+      </c>
+      <c r="BD30" s="58">
+        <v>0</v>
+      </c>
+      <c r="BE30" s="58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>108</v>
       </c>
-      <c r="B31" s="120"/>
+      <c r="B31" s="122"/>
       <c r="C31" s="54" t="s">
         <v>69</v>
       </c>
@@ -13227,7 +16679,7 @@
       <c r="N31" s="55" t="s">
         <v>71</v>
       </c>
-      <c r="R31" s="120"/>
+      <c r="R31" s="122"/>
       <c r="S31" s="54" t="s">
         <v>69</v>
       </c>
@@ -13266,48 +16718,48 @@
       </c>
     </row>
     <row r="34" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="B34" s="115" t="s">
+      <c r="B34" s="114" t="s">
         <v>114</v>
       </c>
-      <c r="C34" s="115"/>
-      <c r="D34" s="116" t="s">
+      <c r="C34" s="114"/>
+      <c r="D34" s="115" t="s">
         <v>100</v>
       </c>
-      <c r="E34" s="116"/>
-      <c r="F34" s="116"/>
-      <c r="G34" s="116"/>
-      <c r="H34" s="116"/>
-      <c r="I34" s="116"/>
-      <c r="J34" s="116"/>
-      <c r="K34" s="116"/>
-      <c r="L34" s="116"/>
-      <c r="M34" s="116"/>
-      <c r="N34" s="112" t="s">
+      <c r="E34" s="115"/>
+      <c r="F34" s="115"/>
+      <c r="G34" s="115"/>
+      <c r="H34" s="115"/>
+      <c r="I34" s="115"/>
+      <c r="J34" s="115"/>
+      <c r="K34" s="115"/>
+      <c r="L34" s="115"/>
+      <c r="M34" s="115"/>
+      <c r="N34" s="116" t="s">
         <v>105</v>
       </c>
-      <c r="R34" s="115" t="s">
+      <c r="R34" s="114" t="s">
         <v>119</v>
       </c>
-      <c r="S34" s="115"/>
-      <c r="T34" s="116" t="s">
+      <c r="S34" s="114"/>
+      <c r="T34" s="115" t="s">
         <v>100</v>
       </c>
-      <c r="U34" s="116"/>
-      <c r="V34" s="116"/>
-      <c r="W34" s="116"/>
-      <c r="X34" s="116"/>
-      <c r="Y34" s="116"/>
-      <c r="Z34" s="116"/>
-      <c r="AA34" s="116"/>
-      <c r="AB34" s="116"/>
-      <c r="AC34" s="116"/>
-      <c r="AD34" s="112" t="s">
+      <c r="U34" s="115"/>
+      <c r="V34" s="115"/>
+      <c r="W34" s="115"/>
+      <c r="X34" s="115"/>
+      <c r="Y34" s="115"/>
+      <c r="Z34" s="115"/>
+      <c r="AA34" s="115"/>
+      <c r="AB34" s="115"/>
+      <c r="AC34" s="115"/>
+      <c r="AD34" s="116" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="35" spans="1:45" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="115"/>
-      <c r="C35" s="115"/>
+      <c r="B35" s="114"/>
+      <c r="C35" s="114"/>
       <c r="D35" s="45">
         <v>1</v>
       </c>
@@ -13338,9 +16790,9 @@
       <c r="M35" s="45">
         <v>10</v>
       </c>
-      <c r="N35" s="112"/>
-      <c r="R35" s="115"/>
-      <c r="S35" s="115"/>
+      <c r="N35" s="116"/>
+      <c r="R35" s="114"/>
+      <c r="S35" s="114"/>
       <c r="T35" s="45">
         <v>1</v>
       </c>
@@ -13371,10 +16823,10 @@
       <c r="AC35" s="45">
         <v>10</v>
       </c>
-      <c r="AD35" s="112"/>
+      <c r="AD35" s="116"/>
     </row>
     <row r="36" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="B36" s="120" t="s">
+      <c r="B36" s="122" t="s">
         <v>110</v>
       </c>
       <c r="C36" s="45" t="s">
@@ -13424,7 +16876,7 @@
         <f>AVERAGE(D36:M36)</f>
         <v>0.10200743494423789</v>
       </c>
-      <c r="R36" s="120" t="s">
+      <c r="R36" s="122" t="s">
         <v>110</v>
       </c>
       <c r="S36" s="45" t="s">
@@ -13466,7 +16918,7 @@
       </c>
     </row>
     <row r="37" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="B37" s="120"/>
+      <c r="B37" s="122"/>
       <c r="C37" s="45" t="s">
         <v>2</v>
       </c>
@@ -13511,10 +16963,10 @@
         <v>0.28996282527881045</v>
       </c>
       <c r="N37" s="50">
-        <f t="shared" ref="N37:N40" si="6">AVERAGE(D37:M37)</f>
+        <f t="shared" ref="N37:N40" si="20">AVERAGE(D37:M37)</f>
         <v>0.16988847583643124</v>
       </c>
-      <c r="R37" s="120"/>
+      <c r="R37" s="122"/>
       <c r="S37" s="45" t="s">
         <v>2</v>
       </c>
@@ -13549,12 +17001,12 @@
         <v>0.10981200000000001</v>
       </c>
       <c r="AD37" s="52">
-        <f t="shared" ref="AD37:AD40" si="7">AVERAGE(T37:AC37)</f>
+        <f t="shared" ref="AD37:AD40" si="21">AVERAGE(T37:AC37)</f>
         <v>0.11642079999999999</v>
       </c>
     </row>
     <row r="38" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="B38" s="120"/>
+      <c r="B38" s="122"/>
       <c r="C38" s="45" t="s">
         <v>3</v>
       </c>
@@ -13599,10 +17051,10 @@
         <v>0.3197026022304833</v>
       </c>
       <c r="N38" s="50">
-        <f t="shared" si="6"/>
+        <f t="shared" si="20"/>
         <v>0.37724907063197022</v>
       </c>
-      <c r="R38" s="120"/>
+      <c r="R38" s="122"/>
       <c r="S38" s="45" t="s">
         <v>3</v>
       </c>
@@ -13637,12 +17089,12 @@
         <v>0.10173599999999999</v>
       </c>
       <c r="AD38" s="52">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>9.1741199999999995E-2</v>
       </c>
     </row>
     <row r="39" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="B39" s="120"/>
+      <c r="B39" s="122"/>
       <c r="C39" s="45" t="s">
         <v>52</v>
       </c>
@@ -13687,10 +17139,10 @@
         <v>0.34795539033457246</v>
       </c>
       <c r="N39" s="50">
-        <f t="shared" si="6"/>
+        <f t="shared" si="20"/>
         <v>0.45933085501858739</v>
       </c>
-      <c r="R39" s="120"/>
+      <c r="R39" s="122"/>
       <c r="S39" s="45" t="s">
         <v>52</v>
       </c>
@@ -13725,12 +17177,12 @@
         <v>9.6271999999999996E-2</v>
       </c>
       <c r="AD39" s="52">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>8.16828E-2</v>
       </c>
     </row>
     <row r="40" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="B40" s="120"/>
+      <c r="B40" s="122"/>
       <c r="C40" s="45" t="s">
         <v>51</v>
       </c>
@@ -13775,10 +17227,10 @@
         <v>0.31226765799256506</v>
       </c>
       <c r="N40" s="50">
-        <f t="shared" si="6"/>
+        <f t="shared" si="20"/>
         <v>0.54542750929368033</v>
       </c>
-      <c r="R40" s="120"/>
+      <c r="R40" s="122"/>
       <c r="S40" s="45" t="s">
         <v>51</v>
       </c>
@@ -13813,7 +17265,7 @@
         <v>0.10668800000000001</v>
       </c>
       <c r="AD40" s="52">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>8.2377599999999995E-2</v>
       </c>
     </row>
@@ -13821,7 +17273,7 @@
       <c r="A41" t="s">
         <v>108</v>
       </c>
-      <c r="B41" s="120"/>
+      <c r="B41" s="122"/>
       <c r="C41" s="54" t="s">
         <v>69</v>
       </c>
@@ -13858,7 +17310,7 @@
       <c r="N41" s="55" t="s">
         <v>71</v>
       </c>
-      <c r="R41" s="120"/>
+      <c r="R41" s="122"/>
       <c r="S41" s="54" t="s">
         <v>69</v>
       </c>
@@ -13897,50 +17349,50 @@
       </c>
     </row>
     <row r="44" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="115" t="s">
+      <c r="B44" s="114" t="s">
         <v>124</v>
       </c>
-      <c r="C44" s="115"/>
-      <c r="D44" s="116" t="s">
+      <c r="C44" s="114"/>
+      <c r="D44" s="115" t="s">
         <v>100</v>
       </c>
-      <c r="E44" s="116"/>
-      <c r="F44" s="116"/>
-      <c r="G44" s="116"/>
-      <c r="H44" s="116"/>
-      <c r="I44" s="116"/>
-      <c r="J44" s="116"/>
-      <c r="K44" s="116"/>
-      <c r="L44" s="116"/>
-      <c r="M44" s="116"/>
-      <c r="N44" s="112" t="s">
+      <c r="E44" s="115"/>
+      <c r="F44" s="115"/>
+      <c r="G44" s="115"/>
+      <c r="H44" s="115"/>
+      <c r="I44" s="115"/>
+      <c r="J44" s="115"/>
+      <c r="K44" s="115"/>
+      <c r="L44" s="115"/>
+      <c r="M44" s="115"/>
+      <c r="N44" s="116" t="s">
         <v>105</v>
       </c>
-      <c r="R44" s="115" t="s">
+      <c r="R44" s="114" t="s">
         <v>125</v>
       </c>
-      <c r="S44" s="115"/>
-      <c r="T44" s="116" t="s">
+      <c r="S44" s="114"/>
+      <c r="T44" s="115" t="s">
         <v>100</v>
       </c>
-      <c r="U44" s="116"/>
-      <c r="V44" s="116"/>
-      <c r="W44" s="116"/>
-      <c r="X44" s="116"/>
-      <c r="Y44" s="116"/>
-      <c r="Z44" s="116"/>
-      <c r="AA44" s="116"/>
-      <c r="AB44" s="116"/>
-      <c r="AC44" s="116"/>
-      <c r="AD44" s="112" t="s">
+      <c r="U44" s="115"/>
+      <c r="V44" s="115"/>
+      <c r="W44" s="115"/>
+      <c r="X44" s="115"/>
+      <c r="Y44" s="115"/>
+      <c r="Z44" s="115"/>
+      <c r="AA44" s="115"/>
+      <c r="AB44" s="115"/>
+      <c r="AC44" s="115"/>
+      <c r="AD44" s="116" t="s">
         <v>105</v>
       </c>
       <c r="AG44" s="72"/>
-      <c r="AS44" s="121"/>
+      <c r="AS44" s="120"/>
     </row>
     <row r="45" spans="1:45" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="115"/>
-      <c r="C45" s="115"/>
+      <c r="B45" s="114"/>
+      <c r="C45" s="114"/>
       <c r="D45" s="61">
         <v>1</v>
       </c>
@@ -13971,9 +17423,9 @@
       <c r="M45" s="61">
         <v>10</v>
       </c>
-      <c r="N45" s="112"/>
-      <c r="R45" s="115"/>
-      <c r="S45" s="115"/>
+      <c r="N45" s="116"/>
+      <c r="R45" s="114"/>
+      <c r="S45" s="114"/>
       <c r="T45" s="61">
         <v>1</v>
       </c>
@@ -14004,12 +17456,12 @@
       <c r="AC45" s="61">
         <v>10</v>
       </c>
-      <c r="AD45" s="112"/>
+      <c r="AD45" s="116"/>
       <c r="AG45" s="72"/>
-      <c r="AS45" s="121"/>
+      <c r="AS45" s="120"/>
     </row>
     <row r="46" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="120" t="s">
+      <c r="B46" s="122" t="s">
         <v>110</v>
       </c>
       <c r="C46" s="61" t="s">
@@ -14059,7 +17511,7 @@
         <f>AVERAGE(D46:M46)</f>
         <v>5.0641711229946505E-2</v>
       </c>
-      <c r="R46" s="120" t="s">
+      <c r="R46" s="122" t="s">
         <v>110</v>
       </c>
       <c r="S46" s="61" t="s">
@@ -14103,7 +17555,7 @@
       <c r="AS46" s="75"/>
     </row>
     <row r="47" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="B47" s="120"/>
+      <c r="B47" s="122"/>
       <c r="C47" s="61" t="s">
         <v>2</v>
       </c>
@@ -14148,10 +17600,10 @@
         <v>2.8877005347593632E-2</v>
       </c>
       <c r="N47" s="50">
-        <f t="shared" ref="N47:N49" si="8">AVERAGE(D47:M47)</f>
+        <f t="shared" ref="N47:N49" si="22">AVERAGE(D47:M47)</f>
         <v>0.11176470588235295</v>
       </c>
-      <c r="R47" s="120"/>
+      <c r="R47" s="122"/>
       <c r="S47" s="61" t="s">
         <v>2</v>
       </c>
@@ -14186,14 +17638,14 @@
         <v>0.17946400000000001</v>
       </c>
       <c r="AD47" s="52">
-        <f t="shared" ref="AD47:AD49" si="9">AVERAGE(T47:AC47)</f>
+        <f t="shared" ref="AD47:AD49" si="23">AVERAGE(T47:AC47)</f>
         <v>0.1675944</v>
       </c>
       <c r="AG47" s="73"/>
       <c r="AS47" s="75"/>
     </row>
     <row r="48" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="B48" s="120"/>
+      <c r="B48" s="122"/>
       <c r="C48" s="61" t="s">
         <v>3</v>
       </c>
@@ -14238,10 +17690,10 @@
         <v>0.13315508021390376</v>
       </c>
       <c r="N48" s="50">
-        <f t="shared" si="8"/>
+        <f t="shared" si="22"/>
         <v>0.20358288770053479</v>
       </c>
-      <c r="R48" s="120"/>
+      <c r="R48" s="122"/>
       <c r="S48" s="61" t="s">
         <v>3</v>
       </c>
@@ -14276,14 +17728,14 @@
         <v>0.1603</v>
       </c>
       <c r="AD48" s="52">
-        <f t="shared" si="9"/>
+        <f t="shared" si="23"/>
         <v>0.14966200000000002</v>
       </c>
       <c r="AG48" s="73"/>
       <c r="AS48" s="75"/>
     </row>
     <row r="49" spans="2:45" x14ac:dyDescent="0.25">
-      <c r="B49" s="120"/>
+      <c r="B49" s="122"/>
       <c r="C49" s="61" t="s">
         <v>52</v>
       </c>
@@ -14328,10 +17780,10 @@
         <v>0.19625668449197864</v>
       </c>
       <c r="N49" s="50">
-        <f t="shared" si="8"/>
+        <f t="shared" si="22"/>
         <v>0.27796791443850272</v>
       </c>
-      <c r="R49" s="120"/>
+      <c r="R49" s="122"/>
       <c r="S49" s="61" t="s">
         <v>52</v>
       </c>
@@ -14366,7 +17818,7 @@
         <v>0.151396</v>
       </c>
       <c r="AD49" s="52">
-        <f t="shared" si="9"/>
+        <f t="shared" si="23"/>
         <v>0.14012160000000001</v>
       </c>
       <c r="AG49" s="73"/>
@@ -14384,7 +17836,7 @@
       <c r="AS49" s="75"/>
     </row>
     <row r="50" spans="2:45" x14ac:dyDescent="0.25">
-      <c r="B50" s="120"/>
+      <c r="B50" s="122"/>
       <c r="C50" s="54" t="s">
         <v>51</v>
       </c>
@@ -14421,7 +17873,7 @@
       <c r="N50" s="55" t="s">
         <v>71</v>
       </c>
-      <c r="R50" s="120"/>
+      <c r="R50" s="122"/>
       <c r="S50" s="54" t="s">
         <v>51</v>
       </c>
@@ -14473,7 +17925,7 @@
       <c r="AS50" s="75"/>
     </row>
     <row r="51" spans="2:45" x14ac:dyDescent="0.25">
-      <c r="B51" s="120"/>
+      <c r="B51" s="122"/>
       <c r="C51" s="54" t="s">
         <v>69</v>
       </c>
@@ -14510,7 +17962,7 @@
       <c r="N51" s="55" t="s">
         <v>71</v>
       </c>
-      <c r="R51" s="120"/>
+      <c r="R51" s="122"/>
       <c r="S51" s="54" t="s">
         <v>69</v>
       </c>
@@ -14562,21 +18014,21 @@
       <c r="AS51" s="75"/>
     </row>
     <row r="56" spans="2:45" x14ac:dyDescent="0.25">
-      <c r="AG56" s="119" t="s">
+      <c r="AG56" s="124" t="s">
         <v>144</v>
       </c>
-      <c r="AH56" s="119"/>
-      <c r="AI56" s="119" t="s">
+      <c r="AH56" s="124"/>
+      <c r="AI56" s="124" t="s">
         <v>59</v>
       </c>
-      <c r="AJ56" s="119"/>
-      <c r="AK56" s="119"/>
-      <c r="AL56" s="119"/>
-      <c r="AM56" s="119"/>
+      <c r="AJ56" s="124"/>
+      <c r="AK56" s="124"/>
+      <c r="AL56" s="124"/>
+      <c r="AM56" s="124"/>
     </row>
     <row r="57" spans="2:45" x14ac:dyDescent="0.25">
-      <c r="AG57" s="119"/>
-      <c r="AH57" s="119"/>
+      <c r="AG57" s="124"/>
+      <c r="AH57" s="124"/>
       <c r="AI57" s="43" t="s">
         <v>135</v>
       </c>
@@ -14594,10 +18046,10 @@
       </c>
     </row>
     <row r="58" spans="2:45" x14ac:dyDescent="0.25">
-      <c r="AG58" s="119" t="s">
+      <c r="AG58" s="124" t="s">
         <v>140</v>
       </c>
-      <c r="AH58" s="119"/>
+      <c r="AH58" s="124"/>
       <c r="AI58" s="43" t="s">
         <v>70</v>
       </c>
@@ -14615,10 +18067,10 @@
       </c>
     </row>
     <row r="59" spans="2:45" x14ac:dyDescent="0.25">
-      <c r="AG59" s="118" t="s">
+      <c r="AG59" s="123" t="s">
         <v>141</v>
       </c>
-      <c r="AH59" s="118"/>
+      <c r="AH59" s="123"/>
       <c r="AI59" s="43" t="s">
         <v>70</v>
       </c>
@@ -14636,10 +18088,10 @@
       </c>
     </row>
     <row r="60" spans="2:45" x14ac:dyDescent="0.25">
-      <c r="AG60" s="118" t="s">
+      <c r="AG60" s="123" t="s">
         <v>142</v>
       </c>
-      <c r="AH60" s="118"/>
+      <c r="AH60" s="123"/>
       <c r="AI60" s="43" t="s">
         <v>70</v>
       </c>
@@ -14657,10 +18109,10 @@
       </c>
     </row>
     <row r="61" spans="2:45" x14ac:dyDescent="0.25">
-      <c r="AG61" s="118" t="s">
+      <c r="AG61" s="123" t="s">
         <v>143</v>
       </c>
-      <c r="AH61" s="118"/>
+      <c r="AH61" s="123"/>
       <c r="AI61" s="43" t="s">
         <v>70</v>
       </c>
@@ -14678,16 +18130,39 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="55">
-    <mergeCell ref="AS44:AS45"/>
-    <mergeCell ref="AP6:AP15"/>
-    <mergeCell ref="AP5:AQ5"/>
-    <mergeCell ref="AG4:AG5"/>
-    <mergeCell ref="AH4:AH5"/>
-    <mergeCell ref="AI4:AN4"/>
-    <mergeCell ref="AG14:AG15"/>
-    <mergeCell ref="AH14:AH15"/>
-    <mergeCell ref="AI14:AN14"/>
+  <mergeCells count="57">
+    <mergeCell ref="AZ14:BE14"/>
+    <mergeCell ref="AZ24:BE24"/>
+    <mergeCell ref="AG61:AH61"/>
+    <mergeCell ref="AG56:AH57"/>
+    <mergeCell ref="AG58:AH58"/>
+    <mergeCell ref="AI56:AM56"/>
+    <mergeCell ref="AG59:AH59"/>
+    <mergeCell ref="AG60:AH60"/>
+    <mergeCell ref="T44:AC44"/>
+    <mergeCell ref="AD44:AD45"/>
+    <mergeCell ref="R46:R51"/>
+    <mergeCell ref="B44:C45"/>
+    <mergeCell ref="D44:M44"/>
+    <mergeCell ref="N44:N45"/>
+    <mergeCell ref="B46:B51"/>
+    <mergeCell ref="R44:S45"/>
+    <mergeCell ref="R4:S5"/>
+    <mergeCell ref="T4:AC4"/>
+    <mergeCell ref="AD4:AD5"/>
+    <mergeCell ref="R6:R11"/>
+    <mergeCell ref="B14:C15"/>
+    <mergeCell ref="D14:M14"/>
+    <mergeCell ref="N14:N15"/>
+    <mergeCell ref="B4:C5"/>
+    <mergeCell ref="D4:M4"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="B6:B11"/>
+    <mergeCell ref="N24:N25"/>
+    <mergeCell ref="B26:B31"/>
+    <mergeCell ref="B34:C35"/>
+    <mergeCell ref="D34:M34"/>
+    <mergeCell ref="N34:N35"/>
     <mergeCell ref="T34:AC34"/>
     <mergeCell ref="AD34:AD35"/>
     <mergeCell ref="R36:R41"/>
@@ -14704,41 +18179,21 @@
     <mergeCell ref="B16:B21"/>
     <mergeCell ref="B24:C25"/>
     <mergeCell ref="D24:M24"/>
-    <mergeCell ref="N24:N25"/>
-    <mergeCell ref="B26:B31"/>
-    <mergeCell ref="B34:C35"/>
-    <mergeCell ref="D34:M34"/>
-    <mergeCell ref="N34:N35"/>
-    <mergeCell ref="R4:S5"/>
-    <mergeCell ref="T4:AC4"/>
-    <mergeCell ref="AD4:AD5"/>
-    <mergeCell ref="R6:R11"/>
-    <mergeCell ref="B14:C15"/>
-    <mergeCell ref="D14:M14"/>
-    <mergeCell ref="N14:N15"/>
-    <mergeCell ref="B4:C5"/>
-    <mergeCell ref="D4:M4"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="B6:B11"/>
-    <mergeCell ref="T44:AC44"/>
-    <mergeCell ref="AD44:AD45"/>
-    <mergeCell ref="R46:R51"/>
-    <mergeCell ref="B44:C45"/>
-    <mergeCell ref="D44:M44"/>
-    <mergeCell ref="N44:N45"/>
-    <mergeCell ref="B46:B51"/>
-    <mergeCell ref="R44:S45"/>
-    <mergeCell ref="AG61:AH61"/>
-    <mergeCell ref="AG56:AH57"/>
-    <mergeCell ref="AG58:AH58"/>
-    <mergeCell ref="AI56:AM56"/>
-    <mergeCell ref="AG59:AH59"/>
-    <mergeCell ref="AG60:AH60"/>
+    <mergeCell ref="AS44:AS45"/>
+    <mergeCell ref="AP6:AP15"/>
+    <mergeCell ref="AP5:AQ5"/>
+    <mergeCell ref="AG4:AG5"/>
+    <mergeCell ref="AH4:AH5"/>
+    <mergeCell ref="AI4:AN4"/>
+    <mergeCell ref="AG14:AG15"/>
+    <mergeCell ref="AH14:AH15"/>
+    <mergeCell ref="AI14:AN14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
     <ignoredError sqref="E6:E7 D7" formula="1"/>
   </ignoredErrors>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -14753,43 +18208,43 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="4" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B4" s="115" t="s">
+      <c r="B4" s="114" t="s">
         <v>120</v>
       </c>
-      <c r="C4" s="115"/>
-      <c r="D4" s="116" t="s">
+      <c r="C4" s="114"/>
+      <c r="D4" s="115" t="s">
         <v>100</v>
       </c>
-      <c r="E4" s="116"/>
-      <c r="F4" s="116"/>
-      <c r="G4" s="116"/>
-      <c r="H4" s="116"/>
-      <c r="I4" s="116"/>
-      <c r="J4" s="116"/>
-      <c r="K4" s="116"/>
-      <c r="L4" s="116"/>
-      <c r="M4" s="116"/>
-      <c r="N4" s="112" t="s">
+      <c r="E4" s="115"/>
+      <c r="F4" s="115"/>
+      <c r="G4" s="115"/>
+      <c r="H4" s="115"/>
+      <c r="I4" s="115"/>
+      <c r="J4" s="115"/>
+      <c r="K4" s="115"/>
+      <c r="L4" s="115"/>
+      <c r="M4" s="115"/>
+      <c r="N4" s="116" t="s">
         <v>105</v>
       </c>
-      <c r="Q4" s="112" t="s">
+      <c r="Q4" s="116" t="s">
         <v>59</v>
       </c>
-      <c r="R4" s="116" t="s">
+      <c r="R4" s="115" t="s">
         <v>109</v>
       </c>
-      <c r="S4" s="116" t="s">
+      <c r="S4" s="115" t="s">
         <v>110</v>
       </c>
-      <c r="T4" s="116"/>
-      <c r="U4" s="116"/>
-      <c r="V4" s="116"/>
-      <c r="W4" s="116"/>
-      <c r="X4" s="116"/>
+      <c r="T4" s="115"/>
+      <c r="U4" s="115"/>
+      <c r="V4" s="115"/>
+      <c r="W4" s="115"/>
+      <c r="X4" s="115"/>
     </row>
     <row r="5" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="115"/>
-      <c r="C5" s="115"/>
+      <c r="B5" s="114"/>
+      <c r="C5" s="114"/>
       <c r="D5" s="56">
         <v>1</v>
       </c>
@@ -14820,9 +18275,9 @@
       <c r="M5" s="56">
         <v>10</v>
       </c>
-      <c r="N5" s="112"/>
-      <c r="Q5" s="112"/>
-      <c r="R5" s="116"/>
+      <c r="N5" s="116"/>
+      <c r="Q5" s="116"/>
+      <c r="R5" s="115"/>
       <c r="S5" s="60" t="s">
         <v>1</v>
       </c>
@@ -14843,7 +18298,7 @@
       </c>
     </row>
     <row r="6" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B6" s="120" t="s">
+      <c r="B6" s="122" t="s">
         <v>110</v>
       </c>
       <c r="C6" s="56" t="s">
@@ -14915,7 +18370,7 @@
       </c>
     </row>
     <row r="7" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B7" s="120"/>
+      <c r="B7" s="122"/>
       <c r="C7" s="56" t="s">
         <v>2</v>
       </c>
@@ -14985,7 +18440,7 @@
       </c>
     </row>
     <row r="8" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B8" s="120"/>
+      <c r="B8" s="122"/>
       <c r="C8" s="56" t="s">
         <v>3</v>
       </c>
@@ -15055,7 +18510,7 @@
       </c>
     </row>
     <row r="9" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B9" s="120"/>
+      <c r="B9" s="122"/>
       <c r="C9" s="56" t="s">
         <v>52</v>
       </c>
@@ -15125,7 +18580,7 @@
       </c>
     </row>
     <row r="10" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B10" s="120"/>
+      <c r="B10" s="122"/>
       <c r="C10" s="56" t="s">
         <v>51</v>
       </c>
@@ -15195,7 +18650,7 @@
       </c>
     </row>
     <row r="11" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B11" s="120"/>
+      <c r="B11" s="122"/>
       <c r="C11" s="56" t="s">
         <v>69</v>
       </c>
@@ -15235,29 +18690,29 @@
       </c>
     </row>
     <row r="14" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B14" s="115" t="s">
+      <c r="B14" s="114" t="s">
         <v>121</v>
       </c>
-      <c r="C14" s="115"/>
-      <c r="D14" s="116" t="s">
+      <c r="C14" s="114"/>
+      <c r="D14" s="115" t="s">
         <v>100</v>
       </c>
-      <c r="E14" s="116"/>
-      <c r="F14" s="116"/>
-      <c r="G14" s="116"/>
-      <c r="H14" s="116"/>
-      <c r="I14" s="116"/>
-      <c r="J14" s="116"/>
-      <c r="K14" s="116"/>
-      <c r="L14" s="116"/>
-      <c r="M14" s="116"/>
-      <c r="N14" s="112" t="s">
+      <c r="E14" s="115"/>
+      <c r="F14" s="115"/>
+      <c r="G14" s="115"/>
+      <c r="H14" s="115"/>
+      <c r="I14" s="115"/>
+      <c r="J14" s="115"/>
+      <c r="K14" s="115"/>
+      <c r="L14" s="115"/>
+      <c r="M14" s="115"/>
+      <c r="N14" s="116" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="15" spans="2:24" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="115"/>
-      <c r="C15" s="115"/>
+      <c r="B15" s="114"/>
+      <c r="C15" s="114"/>
       <c r="D15" s="56">
         <v>1</v>
       </c>
@@ -15288,10 +18743,10 @@
       <c r="M15" s="56">
         <v>10</v>
       </c>
-      <c r="N15" s="112"/>
+      <c r="N15" s="116"/>
     </row>
     <row r="16" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B16" s="120" t="s">
+      <c r="B16" s="122" t="s">
         <v>110</v>
       </c>
       <c r="C16" s="56" t="s">
@@ -15333,7 +18788,7 @@
       </c>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B17" s="120"/>
+      <c r="B17" s="122"/>
       <c r="C17" s="56" t="s">
         <v>2</v>
       </c>
@@ -15373,7 +18828,7 @@
       </c>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B18" s="120"/>
+      <c r="B18" s="122"/>
       <c r="C18" s="56" t="s">
         <v>3</v>
       </c>
@@ -15413,7 +18868,7 @@
       </c>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B19" s="120"/>
+      <c r="B19" s="122"/>
       <c r="C19" s="56" t="s">
         <v>52</v>
       </c>
@@ -15453,7 +18908,7 @@
       </c>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B20" s="120"/>
+      <c r="B20" s="122"/>
       <c r="C20" s="56" t="s">
         <v>51</v>
       </c>
@@ -15493,7 +18948,7 @@
       </c>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B21" s="120"/>
+      <c r="B21" s="122"/>
       <c r="C21" s="56" t="s">
         <v>69</v>
       </c>
@@ -15533,29 +18988,29 @@
       </c>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B24" s="115" t="s">
+      <c r="B24" s="114" t="s">
         <v>122</v>
       </c>
-      <c r="C24" s="115"/>
-      <c r="D24" s="116" t="s">
+      <c r="C24" s="114"/>
+      <c r="D24" s="115" t="s">
         <v>100</v>
       </c>
-      <c r="E24" s="116"/>
-      <c r="F24" s="116"/>
-      <c r="G24" s="116"/>
-      <c r="H24" s="116"/>
-      <c r="I24" s="116"/>
-      <c r="J24" s="116"/>
-      <c r="K24" s="116"/>
-      <c r="L24" s="116"/>
-      <c r="M24" s="116"/>
-      <c r="N24" s="112" t="s">
+      <c r="E24" s="115"/>
+      <c r="F24" s="115"/>
+      <c r="G24" s="115"/>
+      <c r="H24" s="115"/>
+      <c r="I24" s="115"/>
+      <c r="J24" s="115"/>
+      <c r="K24" s="115"/>
+      <c r="L24" s="115"/>
+      <c r="M24" s="115"/>
+      <c r="N24" s="116" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="25" spans="2:14" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="115"/>
-      <c r="C25" s="115"/>
+      <c r="B25" s="114"/>
+      <c r="C25" s="114"/>
       <c r="D25" s="56">
         <v>1</v>
       </c>
@@ -15586,10 +19041,10 @@
       <c r="M25" s="56">
         <v>10</v>
       </c>
-      <c r="N25" s="112"/>
+      <c r="N25" s="116"/>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B26" s="120" t="s">
+      <c r="B26" s="122" t="s">
         <v>110</v>
       </c>
       <c r="C26" s="56" t="s">
@@ -15631,7 +19086,7 @@
       </c>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B27" s="120"/>
+      <c r="B27" s="122"/>
       <c r="C27" s="56" t="s">
         <v>2</v>
       </c>
@@ -15671,7 +19126,7 @@
       </c>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B28" s="120"/>
+      <c r="B28" s="122"/>
       <c r="C28" s="56" t="s">
         <v>3</v>
       </c>
@@ -15711,7 +19166,7 @@
       </c>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B29" s="120"/>
+      <c r="B29" s="122"/>
       <c r="C29" s="56" t="s">
         <v>52</v>
       </c>
@@ -15751,7 +19206,7 @@
       </c>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B30" s="120"/>
+      <c r="B30" s="122"/>
       <c r="C30" s="56" t="s">
         <v>51</v>
       </c>
@@ -15791,7 +19246,7 @@
       </c>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B31" s="120"/>
+      <c r="B31" s="122"/>
       <c r="C31" s="54" t="s">
         <v>69</v>
       </c>
@@ -15830,29 +19285,29 @@
       </c>
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B34" s="115" t="s">
+      <c r="B34" s="114" t="s">
         <v>123</v>
       </c>
-      <c r="C34" s="115"/>
-      <c r="D34" s="116" t="s">
+      <c r="C34" s="114"/>
+      <c r="D34" s="115" t="s">
         <v>100</v>
       </c>
-      <c r="E34" s="116"/>
-      <c r="F34" s="116"/>
-      <c r="G34" s="116"/>
-      <c r="H34" s="116"/>
-      <c r="I34" s="116"/>
-      <c r="J34" s="116"/>
-      <c r="K34" s="116"/>
-      <c r="L34" s="116"/>
-      <c r="M34" s="116"/>
-      <c r="N34" s="112" t="s">
+      <c r="E34" s="115"/>
+      <c r="F34" s="115"/>
+      <c r="G34" s="115"/>
+      <c r="H34" s="115"/>
+      <c r="I34" s="115"/>
+      <c r="J34" s="115"/>
+      <c r="K34" s="115"/>
+      <c r="L34" s="115"/>
+      <c r="M34" s="115"/>
+      <c r="N34" s="116" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="35" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="115"/>
-      <c r="C35" s="115"/>
+      <c r="B35" s="114"/>
+      <c r="C35" s="114"/>
       <c r="D35" s="56">
         <v>1</v>
       </c>
@@ -15883,10 +19338,10 @@
       <c r="M35" s="56">
         <v>10</v>
       </c>
-      <c r="N35" s="112"/>
+      <c r="N35" s="116"/>
     </row>
     <row r="36" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B36" s="120" t="s">
+      <c r="B36" s="122" t="s">
         <v>110</v>
       </c>
       <c r="C36" s="56" t="s">
@@ -15928,7 +19383,7 @@
       </c>
     </row>
     <row r="37" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B37" s="120"/>
+      <c r="B37" s="122"/>
       <c r="C37" s="56" t="s">
         <v>2</v>
       </c>
@@ -15968,7 +19423,7 @@
       </c>
     </row>
     <row r="38" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B38" s="120"/>
+      <c r="B38" s="122"/>
       <c r="C38" s="56" t="s">
         <v>3</v>
       </c>
@@ -16008,7 +19463,7 @@
       </c>
     </row>
     <row r="39" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B39" s="120"/>
+      <c r="B39" s="122"/>
       <c r="C39" s="56" t="s">
         <v>52</v>
       </c>
@@ -16048,7 +19503,7 @@
       </c>
     </row>
     <row r="40" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B40" s="120"/>
+      <c r="B40" s="122"/>
       <c r="C40" s="56" t="s">
         <v>51</v>
       </c>
@@ -16088,7 +19543,7 @@
       </c>
     </row>
     <row r="41" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B41" s="120"/>
+      <c r="B41" s="122"/>
       <c r="C41" s="54" t="s">
         <v>69</v>
       </c>
@@ -16127,29 +19582,29 @@
       </c>
     </row>
     <row r="44" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B44" s="115" t="s">
+      <c r="B44" s="114" t="s">
         <v>126</v>
       </c>
-      <c r="C44" s="115"/>
-      <c r="D44" s="116" t="s">
+      <c r="C44" s="114"/>
+      <c r="D44" s="115" t="s">
         <v>100</v>
       </c>
-      <c r="E44" s="116"/>
-      <c r="F44" s="116"/>
-      <c r="G44" s="116"/>
-      <c r="H44" s="116"/>
-      <c r="I44" s="116"/>
-      <c r="J44" s="116"/>
-      <c r="K44" s="116"/>
-      <c r="L44" s="116"/>
-      <c r="M44" s="116"/>
-      <c r="N44" s="112" t="s">
+      <c r="E44" s="115"/>
+      <c r="F44" s="115"/>
+      <c r="G44" s="115"/>
+      <c r="H44" s="115"/>
+      <c r="I44" s="115"/>
+      <c r="J44" s="115"/>
+      <c r="K44" s="115"/>
+      <c r="L44" s="115"/>
+      <c r="M44" s="115"/>
+      <c r="N44" s="116" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="45" spans="2:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="115"/>
-      <c r="C45" s="115"/>
+      <c r="B45" s="114"/>
+      <c r="C45" s="114"/>
       <c r="D45" s="62">
         <v>1</v>
       </c>
@@ -16180,10 +19635,10 @@
       <c r="M45" s="62">
         <v>10</v>
       </c>
-      <c r="N45" s="112"/>
+      <c r="N45" s="116"/>
     </row>
     <row r="46" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B46" s="120" t="s">
+      <c r="B46" s="122" t="s">
         <v>110</v>
       </c>
       <c r="C46" s="62" t="s">
@@ -16225,7 +19680,7 @@
       </c>
     </row>
     <row r="47" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B47" s="120"/>
+      <c r="B47" s="122"/>
       <c r="C47" s="62" t="s">
         <v>2</v>
       </c>
@@ -16265,7 +19720,7 @@
       </c>
     </row>
     <row r="48" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B48" s="120"/>
+      <c r="B48" s="122"/>
       <c r="C48" s="62" t="s">
         <v>3</v>
       </c>
@@ -16305,7 +19760,7 @@
       </c>
     </row>
     <row r="49" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B49" s="120"/>
+      <c r="B49" s="122"/>
       <c r="C49" s="62" t="s">
         <v>52</v>
       </c>
@@ -16345,7 +19800,7 @@
       </c>
     </row>
     <row r="50" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B50" s="120"/>
+      <c r="B50" s="122"/>
       <c r="C50" s="54" t="s">
         <v>51</v>
       </c>
@@ -16384,7 +19839,7 @@
       </c>
     </row>
     <row r="51" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B51" s="120"/>
+      <c r="B51" s="122"/>
       <c r="C51" s="54" t="s">
         <v>69</v>
       </c>
@@ -16424,6 +19879,13 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="D34:M34"/>
+    <mergeCell ref="N34:N35"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:X4"/>
+    <mergeCell ref="B4:C5"/>
+    <mergeCell ref="D4:M4"/>
+    <mergeCell ref="N4:N5"/>
     <mergeCell ref="B44:C45"/>
     <mergeCell ref="D44:M44"/>
     <mergeCell ref="N44:N45"/>
@@ -16440,13 +19902,6 @@
     <mergeCell ref="N24:N25"/>
     <mergeCell ref="B26:B31"/>
     <mergeCell ref="B34:C35"/>
-    <mergeCell ref="D34:M34"/>
-    <mergeCell ref="N34:N35"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:X4"/>
-    <mergeCell ref="B4:C5"/>
-    <mergeCell ref="D4:M4"/>
-    <mergeCell ref="N4:N5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -16527,7 +19982,7 @@
       </c>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B8" s="125">
+      <c r="B8" s="135">
         <v>584</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -16548,7 +20003,7 @@
       <c r="H8" s="1">
         <v>8.0800000000000004E-3</v>
       </c>
-      <c r="L8" s="126">
+      <c r="L8" s="125">
         <v>584</v>
       </c>
       <c r="M8" s="1" t="s">
@@ -16571,7 +20026,7 @@
       </c>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B9" s="125"/>
+      <c r="B9" s="135"/>
       <c r="C9" s="1" t="s">
         <v>68</v>
       </c>
@@ -16590,7 +20045,7 @@
       <c r="H9" s="1">
         <v>4.5935999999999998E-2</v>
       </c>
-      <c r="L9" s="127"/>
+      <c r="L9" s="126"/>
       <c r="M9" s="1" t="s">
         <v>65</v>
       </c>
@@ -16616,7 +20071,7 @@
       </c>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B10" s="123">
+      <c r="B10" s="136">
         <v>980</v>
       </c>
       <c r="C10" s="16" t="s">
@@ -16637,7 +20092,7 @@
       <c r="H10" s="16">
         <v>1.2456E-2</v>
       </c>
-      <c r="L10" s="127"/>
+      <c r="L10" s="126"/>
       <c r="M10" s="1" t="s">
         <v>61</v>
       </c>
@@ -16658,7 +20113,7 @@
       </c>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B11" s="123"/>
+      <c r="B11" s="136"/>
       <c r="C11" s="16" t="s">
         <v>68</v>
       </c>
@@ -16677,7 +20132,7 @@
       <c r="H11" s="16">
         <v>6.3119999999999996E-2</v>
       </c>
-      <c r="L11" s="128"/>
+      <c r="L11" s="127"/>
       <c r="M11" s="1" t="s">
         <v>66</v>
       </c>
@@ -16703,7 +20158,7 @@
       </c>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B12" s="116">
+      <c r="B12" s="115">
         <v>1280</v>
       </c>
       <c r="C12" s="4" t="s">
@@ -16724,7 +20179,7 @@
       <c r="H12" s="4">
         <v>1.5299999999999999E-2</v>
       </c>
-      <c r="L12" s="129">
+      <c r="L12" s="128">
         <v>980</v>
       </c>
       <c r="M12" s="16" t="s">
@@ -16747,7 +20202,7 @@
       </c>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B13" s="116"/>
+      <c r="B13" s="115"/>
       <c r="C13" s="4" t="s">
         <v>68</v>
       </c>
@@ -16766,7 +20221,7 @@
       <c r="H13" s="4">
         <v>6.6844000000000001E-2</v>
       </c>
-      <c r="L13" s="130"/>
+      <c r="L13" s="129"/>
       <c r="M13" s="16" t="s">
         <v>66</v>
       </c>
@@ -16792,7 +20247,7 @@
       </c>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B14" s="124">
+      <c r="B14" s="134">
         <v>1345</v>
       </c>
       <c r="C14" s="7" t="s">
@@ -16813,7 +20268,7 @@
       <c r="H14" s="7">
         <v>1.5807999999999999E-2</v>
       </c>
-      <c r="L14" s="130"/>
+      <c r="L14" s="129"/>
       <c r="M14" s="16" t="s">
         <v>61</v>
       </c>
@@ -16834,7 +20289,7 @@
       </c>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B15" s="124"/>
+      <c r="B15" s="134"/>
       <c r="C15" s="7" t="s">
         <v>68</v>
       </c>
@@ -16853,7 +20308,7 @@
       <c r="H15" s="7">
         <v>6.7227999999999996E-2</v>
       </c>
-      <c r="L15" s="131"/>
+      <c r="L15" s="130"/>
       <c r="M15" s="16" t="s">
         <v>66</v>
       </c>
@@ -16879,7 +20334,7 @@
       </c>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="L16" s="132">
+      <c r="L16" s="131">
         <v>1280</v>
       </c>
       <c r="M16" s="4" t="s">
@@ -16902,7 +20357,7 @@
       </c>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="L17" s="133"/>
+      <c r="L17" s="132"/>
       <c r="M17" s="4" t="s">
         <v>65</v>
       </c>
@@ -16928,7 +20383,7 @@
       </c>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="L18" s="133"/>
+      <c r="L18" s="132"/>
       <c r="M18" s="4" t="s">
         <v>61</v>
       </c>
@@ -16949,7 +20404,7 @@
       </c>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="L19" s="134"/>
+      <c r="L19" s="133"/>
       <c r="M19" s="4" t="s">
         <v>65</v>
       </c>
@@ -16975,7 +20430,7 @@
       </c>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="L20" s="124">
+      <c r="L20" s="134">
         <v>1345</v>
       </c>
       <c r="M20" s="7" t="s">
@@ -16998,7 +20453,7 @@
       </c>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="L21" s="124"/>
+      <c r="L21" s="134"/>
       <c r="M21" s="7" t="s">
         <v>65</v>
       </c>
@@ -17024,7 +20479,7 @@
       </c>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="L22" s="124"/>
+      <c r="L22" s="134"/>
       <c r="M22" s="7" t="s">
         <v>61</v>
       </c>
@@ -17045,7 +20500,7 @@
       </c>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="L23" s="124"/>
+      <c r="L23" s="134"/>
       <c r="M23" s="7" t="s">
         <v>65</v>
       </c>
@@ -17099,7 +20554,7 @@
       </c>
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B31" s="125">
+      <c r="B31" s="135">
         <v>584</v>
       </c>
       <c r="C31" s="1" t="s">
@@ -17122,7 +20577,7 @@
       </c>
     </row>
     <row r="32" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B32" s="125"/>
+      <c r="B32" s="135"/>
       <c r="C32" s="1" t="s">
         <v>68</v>
       </c>
@@ -17143,7 +20598,7 @@
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B33" s="123">
+      <c r="B33" s="136">
         <v>980</v>
       </c>
       <c r="C33" s="16" t="s">
@@ -17166,7 +20621,7 @@
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B34" s="123"/>
+      <c r="B34" s="136"/>
       <c r="C34" s="16" t="s">
         <v>68</v>
       </c>
@@ -17187,7 +20642,7 @@
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B35" s="116">
+      <c r="B35" s="115">
         <v>1280</v>
       </c>
       <c r="C35" s="4" t="s">
@@ -17210,7 +20665,7 @@
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B36" s="116"/>
+      <c r="B36" s="115"/>
       <c r="C36" s="4" t="s">
         <v>68</v>
       </c>
@@ -17231,7 +20686,7 @@
       </c>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B37" s="124">
+      <c r="B37" s="134">
         <v>1345</v>
       </c>
       <c r="C37" s="7" t="s">
@@ -17254,7 +20709,7 @@
       </c>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B38" s="124"/>
+      <c r="B38" s="134"/>
       <c r="C38" s="7" t="s">
         <v>68</v>
       </c>
@@ -17276,11 +20731,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="L8:L11"/>
-    <mergeCell ref="L12:L15"/>
-    <mergeCell ref="L16:L19"/>
-    <mergeCell ref="L20:L23"/>
-    <mergeCell ref="B31:B32"/>
     <mergeCell ref="B33:B34"/>
     <mergeCell ref="B35:B36"/>
     <mergeCell ref="B37:B38"/>
@@ -17288,6 +20738,11 @@
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="B14:B15"/>
+    <mergeCell ref="L8:L11"/>
+    <mergeCell ref="L12:L15"/>
+    <mergeCell ref="L16:L19"/>
+    <mergeCell ref="L20:L23"/>
+    <mergeCell ref="B31:B32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -17313,7 +20768,7 @@
   </cols>
   <sheetData>
     <row r="5" spans="1:18" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="135" t="s">
+      <c r="A5" s="137" t="s">
         <v>73</v>
       </c>
       <c r="B5" s="32" t="s">
@@ -17339,7 +20794,7 @@
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="135"/>
+      <c r="A6" s="137"/>
       <c r="B6" s="33">
         <v>584</v>
       </c>
@@ -17363,7 +20818,7 @@
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="135"/>
+      <c r="A7" s="137"/>
       <c r="B7" s="33">
         <v>980</v>
       </c>
@@ -17387,7 +20842,7 @@
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="135"/>
+      <c r="A8" s="137"/>
       <c r="B8" s="33">
         <v>1280</v>
       </c>
@@ -17411,7 +20866,7 @@
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="135"/>
+      <c r="A9" s="137"/>
       <c r="B9" s="33">
         <v>1435</v>
       </c>
@@ -17435,7 +20890,7 @@
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="135"/>
+      <c r="A10" s="137"/>
       <c r="B10" s="33">
         <v>1640</v>
       </c>
@@ -17459,7 +20914,7 @@
       </c>
     </row>
     <row r="14" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="135" t="s">
+      <c r="A14" s="137" t="s">
         <v>72</v>
       </c>
       <c r="B14" s="32" t="s">
@@ -17485,7 +20940,7 @@
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="135"/>
+      <c r="A15" s="137"/>
       <c r="B15" s="33">
         <v>584</v>
       </c>
@@ -17497,7 +20952,7 @@
       <c r="H15" s="1"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="135"/>
+      <c r="A16" s="137"/>
       <c r="B16" s="33">
         <v>980</v>
       </c>
@@ -17507,11 +20962,11 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="5"/>
-      <c r="K16" s="136" t="s">
+      <c r="K16" s="138" t="s">
         <v>74</v>
       </c>
-      <c r="L16" s="136"/>
-      <c r="M16" s="136"/>
+      <c r="L16" s="138"/>
+      <c r="M16" s="138"/>
       <c r="P16" s="11" t="s">
         <v>80</v>
       </c>
@@ -17523,7 +20978,7 @@
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="135"/>
+      <c r="A17" s="137"/>
       <c r="B17" s="33">
         <v>1280</v>
       </c>
@@ -17553,7 +21008,7 @@
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="135"/>
+      <c r="A18" s="137"/>
       <c r="B18" s="33">
         <v>1435</v>
       </c>
@@ -17583,7 +21038,7 @@
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="135"/>
+      <c r="A19" s="137"/>
       <c r="B19" s="33">
         <v>1640</v>
       </c>

--- a/Data Hasil Uji Coba/Uji Coba.xlsx
+++ b/Data Hasil Uji Coba/Uji Coba.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{0D0E1C21-8F02-44C2-ABDE-457FD07B0EE9}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{33F2CA37-9468-48F1-9E0B-E96257FD266D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Static Buffer" sheetId="1" r:id="rId1"/>
@@ -1073,32 +1073,32 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1136,25 +1136,31 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1175,12 +1181,6 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1190,8 +1190,23 @@
     <xf numFmtId="164" fontId="0" fillId="14" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="14" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1199,13 +1214,13 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1235,26 +1250,11 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1303,8 +1303,8 @@
               <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                    <a:lumMod val="85000"/>
+                    <a:lumOff val="15000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -1313,34 +1313,64 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="85000"/>
+                    <a:lumOff val="15000"/>
+                  </a:schemeClr>
+                </a:solidFill>
                 <a:effectLst/>
                 <a:latin typeface="+mj-lt"/>
               </a:rPr>
               <a:t>Perbandingan </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" sz="1800" b="0" i="1" baseline="0">
+              <a:rPr lang="en-US" sz="1800" b="1" i="1" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="85000"/>
+                    <a:lumOff val="15000"/>
+                  </a:schemeClr>
+                </a:solidFill>
                 <a:effectLst/>
                 <a:latin typeface="+mj-lt"/>
               </a:rPr>
               <a:t>Packet Delivery Ratio</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="85000"/>
+                    <a:lumOff val="15000"/>
+                  </a:schemeClr>
+                </a:solidFill>
                 <a:effectLst/>
                 <a:latin typeface="+mj-lt"/>
               </a:rPr>
               <a:t>  ZigBee pada Jaringan </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" sz="1800" b="0" i="1" baseline="0">
+              <a:rPr lang="en-US" sz="1800" b="1" i="1" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="85000"/>
+                    <a:lumOff val="15000"/>
+                  </a:schemeClr>
+                </a:solidFill>
                 <a:effectLst/>
                 <a:latin typeface="+mj-lt"/>
               </a:rPr>
               <a:t>Single Hop</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US" b="0" i="1">
+            <a:endParaRPr lang="en-US" b="1" i="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mj-lt"/>
             </a:endParaRPr>
@@ -1363,8 +1393,8 @@
             <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -1422,11 +1452,11 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
+                        <a:lumMod val="85000"/>
+                        <a:lumOff val="15000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -1544,7 +1574,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -1654,11 +1684,11 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
+                        <a:lumMod val="85000"/>
+                        <a:lumOff val="15000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -1667,7 +1697,14 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" b="1">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="85000"/>
+                        <a:lumOff val="15000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t>Jarak</a:t>
                 </a:r>
               </a:p>
@@ -1694,11 +1731,11 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
+                      <a:lumMod val="85000"/>
+                      <a:lumOff val="15000"/>
                     </a:schemeClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
@@ -1732,11 +1769,11 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                    <a:lumMod val="85000"/>
+                    <a:lumOff val="15000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -1782,11 +1819,11 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
+                        <a:lumMod val="85000"/>
+                        <a:lumOff val="15000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -1795,7 +1832,14 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" b="1">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="85000"/>
+                        <a:lumOff val="15000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t>Persentase</a:t>
                 </a:r>
               </a:p>
@@ -1814,11 +1858,11 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
+                      <a:lumMod val="85000"/>
+                      <a:lumOff val="15000"/>
                     </a:schemeClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
@@ -1830,7 +1874,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.0%" sourceLinked="1"/>
+        <c:numFmt formatCode="0%" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1846,16 +1890,16 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                    <a:lumMod val="85000"/>
+                    <a:lumOff val="15000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
@@ -1888,11 +1932,11 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -1962,43 +2006,89 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                    <a:lumMod val="85000"/>
+                    <a:lumOff val="15000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="+mj-lt"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
+              <a:rPr lang="en-US" sz="1800" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="85000"/>
+                    <a:lumOff val="15000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mj-lt"/>
+              </a:rPr>
               <a:t>Perbandingan</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
+              <a:rPr lang="en-US" sz="1800" b="1" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="85000"/>
+                    <a:lumOff val="15000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mj-lt"/>
+              </a:rPr>
               <a:t> </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" sz="1400" b="0" i="1" u="none" strike="noStrike" baseline="0">
+              <a:rPr lang="en-US" sz="1800" b="1" i="1" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="85000"/>
+                    <a:lumOff val="15000"/>
+                  </a:schemeClr>
+                </a:solidFill>
                 <a:effectLst/>
+                <a:latin typeface="+mj-lt"/>
               </a:rPr>
               <a:t>Packet Delivery Ratio</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="85000"/>
+                    <a:lumOff val="15000"/>
+                  </a:schemeClr>
+                </a:solidFill>
                 <a:effectLst/>
+                <a:latin typeface="+mj-lt"/>
               </a:rPr>
               <a:t> </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
+              <a:rPr lang="en-US" sz="1800" b="1" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="85000"/>
+                    <a:lumOff val="15000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mj-lt"/>
+              </a:rPr>
               <a:t>ZigBee</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-US" sz="1800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -2006,8 +2096,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.24772213670084289"/>
-          <c:y val="4.1585499055008329E-2"/>
+          <c:x val="0.15587344635943989"/>
+          <c:y val="2.9823270195993921E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -2023,14 +2113,14 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="+mj-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
@@ -2085,11 +2175,11 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
+                        <a:lumMod val="85000"/>
+                        <a:lumOff val="15000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -2208,11 +2298,11 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
+                        <a:lumMod val="85000"/>
+                        <a:lumOff val="15000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -2320,11 +2410,11 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
+                        <a:lumMod val="85000"/>
+                        <a:lumOff val="15000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -2333,7 +2423,14 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" sz="1000" b="1">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="85000"/>
+                        <a:lumOff val="15000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t>Jarak</a:t>
                 </a:r>
               </a:p>
@@ -2352,11 +2449,11 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
+                      <a:lumMod val="85000"/>
+                      <a:lumOff val="15000"/>
                     </a:schemeClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
@@ -2390,11 +2487,11 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                    <a:lumMod val="85000"/>
+                    <a:lumOff val="15000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -2440,11 +2537,11 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
+                        <a:lumMod val="85000"/>
+                        <a:lumOff val="15000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -2453,7 +2550,14 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" b="1">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="85000"/>
+                        <a:lumOff val="15000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t>Persentase</a:t>
                 </a:r>
               </a:p>
@@ -2472,11 +2576,11 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
+                      <a:lumMod val="85000"/>
+                      <a:lumOff val="15000"/>
                     </a:schemeClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
@@ -2488,7 +2592,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.0%" sourceLinked="1"/>
+        <c:numFmt formatCode="0%" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2504,11 +2608,11 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                    <a:lumMod val="85000"/>
+                    <a:lumOff val="15000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -2546,11 +2650,11 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="1" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1000" b="1" i="1" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -2627,23 +2731,39 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                    <a:lumMod val="85000"/>
+                    <a:lumOff val="15000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="+mj-lt"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
+              <a:rPr lang="en-US" sz="1800" b="1" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="85000"/>
+                    <a:lumOff val="15000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mj-lt"/>
+              </a:rPr>
               <a:t>Efektifitas Kompresi Data</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-US" sz="1800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -2660,14 +2780,14 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="+mj-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
@@ -3125,11 +3245,11 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
+                        <a:lumMod val="85000"/>
+                        <a:lumOff val="15000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -3138,15 +3258,36 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" b="1">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="85000"/>
+                        <a:lumOff val="15000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t>Konfigurasi</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:rPr lang="en-US" b="1" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="85000"/>
+                        <a:lumOff val="15000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t> E</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" b="1">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="85000"/>
+                        <a:lumOff val="15000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t>ncoder</a:t>
                 </a:r>
               </a:p>
@@ -3165,11 +3306,11 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
+                      <a:lumMod val="85000"/>
+                      <a:lumOff val="15000"/>
                     </a:schemeClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
@@ -3203,11 +3344,11 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                    <a:lumMod val="85000"/>
+                    <a:lumOff val="15000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -3253,11 +3394,11 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
+                        <a:lumMod val="85000"/>
+                        <a:lumOff val="15000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -3266,14 +3407,35 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" b="1">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="85000"/>
+                        <a:lumOff val="15000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t>Persentase</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:rPr lang="en-US" b="1" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="85000"/>
+                        <a:lumOff val="15000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t> Efektifitas</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="en-US" b="1">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="85000"/>
+                      <a:lumOff val="15000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
@@ -3290,11 +3452,11 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
+                      <a:lumMod val="85000"/>
+                      <a:lumOff val="15000"/>
                     </a:schemeClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
@@ -3306,7 +3468,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.0%" sourceLinked="1"/>
+        <c:numFmt formatCode="0%" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3322,11 +3484,11 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                    <a:lumMod val="85000"/>
+                    <a:lumOff val="15000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -3364,11 +3526,11 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -3438,20 +3600,28 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="+mj-lt"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
+              <a:rPr lang="en-US" sz="1800" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="85000"/>
+                    <a:lumOff val="15000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mj-lt"/>
+              </a:rPr>
               <a:t>Waktu Kompresi Data</a:t>
             </a:r>
           </a:p>
@@ -3470,14 +3640,14 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="+mj-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
@@ -3935,11 +4105,11 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
+                        <a:lumMod val="85000"/>
+                        <a:lumOff val="15000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -3948,14 +4118,35 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" b="1">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="85000"/>
+                        <a:lumOff val="15000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t>Konfigurasi</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:rPr lang="en-US" b="1" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="85000"/>
+                        <a:lumOff val="15000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t> Encoder</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="en-US" b="1">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="85000"/>
+                      <a:lumOff val="15000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
@@ -3972,11 +4163,11 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
+                      <a:lumMod val="85000"/>
+                      <a:lumOff val="15000"/>
                     </a:schemeClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
@@ -4010,11 +4201,11 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                    <a:lumMod val="85000"/>
+                    <a:lumOff val="15000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -4060,11 +4251,11 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
+                        <a:lumMod val="85000"/>
+                        <a:lumOff val="15000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -4073,8 +4264,15 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Waktu yang Dibutuhkan</a:t>
+                  <a:rPr lang="en-US" b="1">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="85000"/>
+                        <a:lumOff val="15000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Waktu yang Dibutuhkan (detik)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -4092,11 +4290,11 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
+                      <a:lumMod val="85000"/>
+                      <a:lumOff val="15000"/>
                     </a:schemeClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
@@ -4124,11 +4322,11 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                    <a:lumMod val="85000"/>
+                    <a:lumOff val="15000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -4166,11 +4364,11 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -6395,16 +6593,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>180974</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>80961</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>23811</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>7482</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>123824</xdr:rowOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>598714</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>174171</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6436,16 +6634,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>424543</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>40140</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>27242</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>81908</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>379054</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>40822</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>275145</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>82590</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6477,16 +6675,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>44</xdr:col>
-      <xdr:colOff>306159</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>2720</xdr:rowOff>
+      <xdr:col>58</xdr:col>
+      <xdr:colOff>523874</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>29935</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>49</xdr:col>
-      <xdr:colOff>326570</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>149678</xdr:rowOff>
+      <xdr:col>68</xdr:col>
+      <xdr:colOff>258534</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>179917</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6513,16 +6711,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>44</xdr:col>
-      <xdr:colOff>244928</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>356508</xdr:rowOff>
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>10205</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>7068</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>49</xdr:col>
-      <xdr:colOff>258536</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>108857</xdr:rowOff>
+      <xdr:col>68</xdr:col>
+      <xdr:colOff>345281</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>179917</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6844,32 +7042,32 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="86" t="s">
+      <c r="A2" s="109" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
-      <c r="K2" s="86" t="s">
+      <c r="B2" s="109"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="109"/>
+      <c r="F2" s="109"/>
+      <c r="G2" s="109"/>
+      <c r="H2" s="109"/>
+      <c r="K2" s="109" t="s">
         <v>37</v>
       </c>
-      <c r="L2" s="86"/>
-      <c r="M2" s="86"/>
-      <c r="N2" s="86"/>
-      <c r="O2" s="86"/>
-      <c r="P2" s="86"/>
-      <c r="Q2" s="86"/>
-      <c r="R2" s="86"/>
+      <c r="L2" s="109"/>
+      <c r="M2" s="109"/>
+      <c r="N2" s="109"/>
+      <c r="O2" s="109"/>
+      <c r="P2" s="109"/>
+      <c r="Q2" s="109"/>
+      <c r="R2" s="109"/>
     </row>
     <row r="3" spans="1:18" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="87" t="s">
+      <c r="A3" s="107" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="88"/>
+      <c r="B3" s="108"/>
       <c r="C3" s="14"/>
       <c r="D3" s="15" t="s">
         <v>1</v>
@@ -6886,10 +7084,10 @@
       <c r="H3" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="87" t="s">
+      <c r="K3" s="107" t="s">
         <v>31</v>
       </c>
-      <c r="L3" s="88"/>
+      <c r="L3" s="108"/>
       <c r="M3" s="14"/>
       <c r="N3" s="15" t="s">
         <v>1</v>
@@ -7376,10 +7574,10 @@
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="80">
+      <c r="A14" s="101">
         <v>1280</v>
       </c>
-      <c r="B14" s="81"/>
+      <c r="B14" s="102"/>
       <c r="C14" s="13" t="s">
         <v>30</v>
       </c>
@@ -7398,10 +7596,10 @@
       <c r="H14" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="80">
+      <c r="K14" s="101">
         <v>1280</v>
       </c>
-      <c r="L14" s="81"/>
+      <c r="L14" s="102"/>
       <c r="M14" s="13" t="s">
         <v>30</v>
       </c>
@@ -7422,8 +7620,8 @@
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="82"/>
-      <c r="B15" s="83"/>
+      <c r="A15" s="103"/>
+      <c r="B15" s="104"/>
       <c r="C15" s="4" t="s">
         <v>21</v>
       </c>
@@ -7440,8 +7638,8 @@
         <v>68</v>
       </c>
       <c r="H15" s="5"/>
-      <c r="K15" s="82"/>
-      <c r="L15" s="83"/>
+      <c r="K15" s="103"/>
+      <c r="L15" s="104"/>
       <c r="M15" s="4" t="s">
         <v>21</v>
       </c>
@@ -7462,8 +7660,8 @@
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="82"/>
-      <c r="B16" s="83"/>
+      <c r="A16" s="103"/>
+      <c r="B16" s="104"/>
       <c r="C16" s="4" t="s">
         <v>35</v>
       </c>
@@ -7487,8 +7685,8 @@
         <f>($A$14-H15)/$A$14</f>
         <v>1</v>
       </c>
-      <c r="K16" s="82"/>
-      <c r="L16" s="83"/>
+      <c r="K16" s="103"/>
+      <c r="L16" s="104"/>
       <c r="M16" s="4" t="s">
         <v>35</v>
       </c>
@@ -7514,8 +7712,8 @@
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="82"/>
-      <c r="B17" s="83"/>
+      <c r="A17" s="103"/>
+      <c r="B17" s="104"/>
       <c r="C17" s="4" t="s">
         <v>22</v>
       </c>
@@ -7532,8 +7730,8 @@
         <v>1120</v>
       </c>
       <c r="H17" s="5"/>
-      <c r="K17" s="82"/>
-      <c r="L17" s="83"/>
+      <c r="K17" s="103"/>
+      <c r="L17" s="104"/>
       <c r="M17" s="4" t="s">
         <v>22</v>
       </c>
@@ -7554,8 +7752,8 @@
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="84"/>
-      <c r="B18" s="85"/>
+      <c r="A18" s="105"/>
+      <c r="B18" s="106"/>
       <c r="C18" s="4" t="s">
         <v>34</v>
       </c>
@@ -7579,8 +7777,8 @@
         <f>($A$14-H17)/$A$14</f>
         <v>1</v>
       </c>
-      <c r="K18" s="84"/>
-      <c r="L18" s="85"/>
+      <c r="K18" s="105"/>
+      <c r="L18" s="106"/>
       <c r="M18" s="4" t="s">
         <v>34</v>
       </c>
@@ -7606,10 +7804,10 @@
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="101">
+      <c r="A19" s="82">
         <v>1345</v>
       </c>
-      <c r="B19" s="102"/>
+      <c r="B19" s="83"/>
       <c r="C19" s="7" t="s">
         <v>30</v>
       </c>
@@ -7628,10 +7826,10 @@
       <c r="H19" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="K19" s="101">
+      <c r="K19" s="82">
         <v>1345</v>
       </c>
-      <c r="L19" s="102"/>
+      <c r="L19" s="83"/>
       <c r="M19" s="7" t="s">
         <v>30</v>
       </c>
@@ -7652,8 +7850,8 @@
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="103"/>
-      <c r="B20" s="104"/>
+      <c r="A20" s="84"/>
+      <c r="B20" s="85"/>
       <c r="C20" s="7" t="s">
         <v>21</v>
       </c>
@@ -7670,8 +7868,8 @@
         <v>129</v>
       </c>
       <c r="H20" s="5"/>
-      <c r="K20" s="103"/>
-      <c r="L20" s="104"/>
+      <c r="K20" s="84"/>
+      <c r="L20" s="85"/>
       <c r="M20" s="7" t="s">
         <v>21</v>
       </c>
@@ -7692,8 +7890,8 @@
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21" s="103"/>
-      <c r="B21" s="104"/>
+      <c r="A21" s="84"/>
+      <c r="B21" s="85"/>
       <c r="C21" s="7" t="s">
         <v>35</v>
       </c>
@@ -7714,8 +7912,8 @@
         <v>0.90408921933085507</v>
       </c>
       <c r="H21" s="5"/>
-      <c r="K21" s="103"/>
-      <c r="L21" s="104"/>
+      <c r="K21" s="84"/>
+      <c r="L21" s="85"/>
       <c r="M21" s="7" t="s">
         <v>35</v>
       </c>
@@ -7741,8 +7939,8 @@
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A22" s="103"/>
-      <c r="B22" s="104"/>
+      <c r="A22" s="84"/>
+      <c r="B22" s="85"/>
       <c r="C22" s="7" t="s">
         <v>22</v>
       </c>
@@ -7759,8 +7957,8 @@
         <v>1182</v>
       </c>
       <c r="H22" s="5"/>
-      <c r="K22" s="103"/>
-      <c r="L22" s="104"/>
+      <c r="K22" s="84"/>
+      <c r="L22" s="85"/>
       <c r="M22" s="7" t="s">
         <v>22</v>
       </c>
@@ -7779,8 +7977,8 @@
       <c r="R22" s="5"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A23" s="105"/>
-      <c r="B23" s="106"/>
+      <c r="A23" s="86"/>
+      <c r="B23" s="87"/>
       <c r="C23" s="7" t="s">
         <v>34</v>
       </c>
@@ -7801,8 +7999,8 @@
         <v>0.12118959107806691</v>
       </c>
       <c r="H23" s="5"/>
-      <c r="K23" s="105"/>
-      <c r="L23" s="106"/>
+      <c r="K23" s="86"/>
+      <c r="L23" s="87"/>
       <c r="M23" s="7" t="s">
         <v>34</v>
       </c>
@@ -7825,10 +8023,10 @@
       <c r="R23" s="5"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="K24" s="107">
+      <c r="K24" s="88">
         <v>1640</v>
       </c>
-      <c r="L24" s="107"/>
+      <c r="L24" s="88"/>
       <c r="M24" s="24" t="s">
         <v>30</v>
       </c>
@@ -7849,10 +8047,10 @@
       </c>
     </row>
     <row r="28" spans="1:18" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="87" t="s">
+      <c r="A28" s="107" t="s">
         <v>31</v>
       </c>
-      <c r="B28" s="88"/>
+      <c r="B28" s="108"/>
       <c r="C28" s="14"/>
       <c r="D28" s="15" t="s">
         <v>1</v>
@@ -7869,10 +8067,10 @@
       <c r="H28" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="K28" s="87" t="s">
+      <c r="K28" s="107" t="s">
         <v>31</v>
       </c>
-      <c r="L28" s="88"/>
+      <c r="L28" s="108"/>
       <c r="M28" s="14"/>
       <c r="N28" s="15" t="s">
         <v>1</v>
@@ -8447,10 +8645,10 @@
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A41" s="80">
+      <c r="A41" s="101">
         <v>1280</v>
       </c>
-      <c r="B41" s="81"/>
+      <c r="B41" s="102"/>
       <c r="C41" s="4" t="s">
         <v>23</v>
       </c>
@@ -8468,10 +8666,10 @@
       </c>
       <c r="H41" s="5"/>
       <c r="J41" s="24"/>
-      <c r="K41" s="80">
+      <c r="K41" s="101">
         <v>1280</v>
       </c>
-      <c r="L41" s="81"/>
+      <c r="L41" s="102"/>
       <c r="M41" s="4" t="s">
         <v>23</v>
       </c>
@@ -8492,8 +8690,8 @@
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A42" s="82"/>
-      <c r="B42" s="83"/>
+      <c r="A42" s="103"/>
+      <c r="B42" s="104"/>
       <c r="C42" s="4" t="s">
         <v>24</v>
       </c>
@@ -8510,8 +8708,8 @@
         <v>9.476E-3</v>
       </c>
       <c r="H42" s="5"/>
-      <c r="K42" s="82"/>
-      <c r="L42" s="83"/>
+      <c r="K42" s="103"/>
+      <c r="L42" s="104"/>
       <c r="M42" s="4" t="s">
         <v>24</v>
       </c>
@@ -8532,8 +8730,8 @@
       </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A43" s="82"/>
-      <c r="B43" s="83"/>
+      <c r="A43" s="103"/>
+      <c r="B43" s="104"/>
       <c r="C43" s="19" t="s">
         <v>32</v>
       </c>
@@ -8554,8 +8752,8 @@
         <v>2.7875999999999998E-2</v>
       </c>
       <c r="H43" s="5"/>
-      <c r="K43" s="82"/>
-      <c r="L43" s="83"/>
+      <c r="K43" s="103"/>
+      <c r="L43" s="104"/>
       <c r="M43" s="19" t="s">
         <v>32</v>
       </c>
@@ -8581,8 +8779,8 @@
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A44" s="82"/>
-      <c r="B44" s="83"/>
+      <c r="A44" s="103"/>
+      <c r="B44" s="104"/>
       <c r="C44" s="4" t="s">
         <v>25</v>
       </c>
@@ -8600,8 +8798,8 @@
       </c>
       <c r="H44" s="5"/>
       <c r="J44" s="24"/>
-      <c r="K44" s="82"/>
-      <c r="L44" s="83"/>
+      <c r="K44" s="103"/>
+      <c r="L44" s="104"/>
       <c r="M44" s="4" t="s">
         <v>25</v>
       </c>
@@ -8622,8 +8820,8 @@
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A45" s="82"/>
-      <c r="B45" s="83"/>
+      <c r="A45" s="103"/>
+      <c r="B45" s="104"/>
       <c r="C45" s="4" t="s">
         <v>26</v>
       </c>
@@ -8640,8 +8838,8 @@
         <v>4.3580000000000001E-2</v>
       </c>
       <c r="H45" s="5"/>
-      <c r="K45" s="82"/>
-      <c r="L45" s="83"/>
+      <c r="K45" s="103"/>
+      <c r="L45" s="104"/>
       <c r="M45" s="4" t="s">
         <v>26</v>
       </c>
@@ -8662,8 +8860,8 @@
       </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A46" s="84"/>
-      <c r="B46" s="85"/>
+      <c r="A46" s="105"/>
+      <c r="B46" s="106"/>
       <c r="C46" s="19" t="s">
         <v>32</v>
       </c>
@@ -8684,8 +8882,8 @@
         <v>0.146428</v>
       </c>
       <c r="H46" s="5"/>
-      <c r="K46" s="84"/>
-      <c r="L46" s="85"/>
+      <c r="K46" s="105"/>
+      <c r="L46" s="106"/>
       <c r="M46" s="19" t="s">
         <v>32</v>
       </c>
@@ -8711,10 +8909,10 @@
       </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A47" s="101">
+      <c r="A47" s="82">
         <v>1345</v>
       </c>
-      <c r="B47" s="102"/>
+      <c r="B47" s="83"/>
       <c r="C47" s="7" t="s">
         <v>23</v>
       </c>
@@ -8732,10 +8930,10 @@
       </c>
       <c r="H47" s="5"/>
       <c r="J47" s="24"/>
-      <c r="K47" s="101">
+      <c r="K47" s="82">
         <v>1345</v>
       </c>
-      <c r="L47" s="102"/>
+      <c r="L47" s="83"/>
       <c r="M47" s="7" t="s">
         <v>23</v>
       </c>
@@ -8756,8 +8954,8 @@
       </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A48" s="103"/>
-      <c r="B48" s="104"/>
+      <c r="A48" s="84"/>
+      <c r="B48" s="85"/>
       <c r="C48" s="7" t="s">
         <v>24</v>
       </c>
@@ -8774,8 +8972,8 @@
         <v>9.9319999999999999E-3</v>
       </c>
       <c r="H48" s="5"/>
-      <c r="K48" s="103"/>
-      <c r="L48" s="104"/>
+      <c r="K48" s="84"/>
+      <c r="L48" s="85"/>
       <c r="M48" s="7" t="s">
         <v>24</v>
       </c>
@@ -8794,8 +8992,8 @@
       <c r="R48" s="5"/>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A49" s="103"/>
-      <c r="B49" s="104"/>
+      <c r="A49" s="84"/>
+      <c r="B49" s="85"/>
       <c r="C49" s="19" t="s">
         <v>32</v>
       </c>
@@ -8816,8 +9014,8 @@
         <v>2.8931999999999999E-2</v>
       </c>
       <c r="H49" s="5"/>
-      <c r="K49" s="103"/>
-      <c r="L49" s="104"/>
+      <c r="K49" s="84"/>
+      <c r="L49" s="85"/>
       <c r="M49" s="19" t="s">
         <v>32</v>
       </c>
@@ -8840,8 +9038,8 @@
       <c r="R49" s="5"/>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A50" s="103"/>
-      <c r="B50" s="104"/>
+      <c r="A50" s="84"/>
+      <c r="B50" s="85"/>
       <c r="C50" s="7" t="s">
         <v>25</v>
       </c>
@@ -8859,8 +9057,8 @@
       </c>
       <c r="H50" s="5"/>
       <c r="J50" s="24"/>
-      <c r="K50" s="103"/>
-      <c r="L50" s="104"/>
+      <c r="K50" s="84"/>
+      <c r="L50" s="85"/>
       <c r="M50" s="7" t="s">
         <v>25</v>
       </c>
@@ -8879,8 +9077,8 @@
       <c r="R50" s="5"/>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A51" s="103"/>
-      <c r="B51" s="104"/>
+      <c r="A51" s="84"/>
+      <c r="B51" s="85"/>
       <c r="C51" s="7" t="s">
         <v>26</v>
       </c>
@@ -8897,8 +9095,8 @@
         <v>4.5887999999999998E-2</v>
       </c>
       <c r="H51" s="5"/>
-      <c r="K51" s="103"/>
-      <c r="L51" s="104"/>
+      <c r="K51" s="84"/>
+      <c r="L51" s="85"/>
       <c r="M51" s="7" t="s">
         <v>26</v>
       </c>
@@ -8917,8 +9115,8 @@
       <c r="R51" s="5"/>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A52" s="105"/>
-      <c r="B52" s="106"/>
+      <c r="A52" s="86"/>
+      <c r="B52" s="87"/>
       <c r="C52" s="19" t="s">
         <v>32</v>
       </c>
@@ -8939,8 +9137,8 @@
         <v>0.15465999999999999</v>
       </c>
       <c r="H52" s="5"/>
-      <c r="K52" s="105"/>
-      <c r="L52" s="106"/>
+      <c r="K52" s="86"/>
+      <c r="L52" s="87"/>
       <c r="M52" s="19" t="s">
         <v>32</v>
       </c>
@@ -8964,6 +9162,13 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="K41:L46"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="K2:R2"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="K4:L8"/>
+    <mergeCell ref="K9:L13"/>
+    <mergeCell ref="A3:B3"/>
     <mergeCell ref="K47:L52"/>
     <mergeCell ref="K24:L24"/>
     <mergeCell ref="A47:B52"/>
@@ -8980,13 +9185,6 @@
     <mergeCell ref="K28:L28"/>
     <mergeCell ref="K29:L34"/>
     <mergeCell ref="K35:L40"/>
-    <mergeCell ref="K41:L46"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="K2:R2"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="K4:L8"/>
-    <mergeCell ref="K9:L13"/>
-    <mergeCell ref="A3:B3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8997,7 +9195,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:U59"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
       <selection activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
@@ -9024,32 +9222,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="109" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="86"/>
-      <c r="J1" s="86"/>
-      <c r="K1" s="86"/>
-      <c r="L1" s="86"/>
-      <c r="M1" s="86"/>
-      <c r="N1" s="86"/>
-      <c r="O1" s="86"/>
-      <c r="P1" s="86"/>
-      <c r="Q1" s="86"/>
-      <c r="R1" s="86"/>
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
+      <c r="H1" s="109"/>
+      <c r="I1" s="109"/>
+      <c r="J1" s="109"/>
+      <c r="K1" s="109"/>
+      <c r="L1" s="109"/>
+      <c r="M1" s="109"/>
+      <c r="N1" s="109"/>
+      <c r="O1" s="109"/>
+      <c r="P1" s="109"/>
+      <c r="Q1" s="109"/>
+      <c r="R1" s="109"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="87" t="s">
+      <c r="A2" s="107" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="88"/>
+      <c r="B2" s="108"/>
       <c r="C2" s="14"/>
       <c r="D2" s="15" t="s">
         <v>1</v>
@@ -9708,10 +9906,10 @@
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="80">
+      <c r="A13" s="101">
         <v>1280</v>
       </c>
-      <c r="B13" s="81"/>
+      <c r="B13" s="102"/>
       <c r="C13" s="13" t="s">
         <v>30</v>
       </c>
@@ -9762,8 +9960,8 @@
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="82"/>
-      <c r="B14" s="83"/>
+      <c r="A14" s="103"/>
+      <c r="B14" s="104"/>
       <c r="C14" s="4" t="s">
         <v>21</v>
       </c>
@@ -9817,8 +10015,8 @@
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="82"/>
-      <c r="B15" s="83"/>
+      <c r="A15" s="103"/>
+      <c r="B15" s="104"/>
       <c r="C15" s="4" t="s">
         <v>35</v>
       </c>
@@ -9884,8 +10082,8 @@
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="82"/>
-      <c r="B16" s="83"/>
+      <c r="A16" s="103"/>
+      <c r="B16" s="104"/>
       <c r="C16" s="4" t="s">
         <v>22</v>
       </c>
@@ -9939,8 +10137,8 @@
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A17" s="84"/>
-      <c r="B17" s="85"/>
+      <c r="A17" s="105"/>
+      <c r="B17" s="106"/>
       <c r="C17" s="4" t="s">
         <v>34</v>
       </c>
@@ -10006,10 +10204,10 @@
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A18" s="101">
+      <c r="A18" s="82">
         <v>1345</v>
       </c>
-      <c r="B18" s="102"/>
+      <c r="B18" s="83"/>
       <c r="C18" s="7" t="s">
         <v>30</v>
       </c>
@@ -10063,8 +10261,8 @@
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A19" s="103"/>
-      <c r="B19" s="104"/>
+      <c r="A19" s="84"/>
+      <c r="B19" s="85"/>
       <c r="C19" s="7" t="s">
         <v>21</v>
       </c>
@@ -10121,8 +10319,8 @@
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A20" s="103"/>
-      <c r="B20" s="104"/>
+      <c r="A20" s="84"/>
+      <c r="B20" s="85"/>
       <c r="C20" s="7" t="s">
         <v>35</v>
       </c>
@@ -10188,8 +10386,8 @@
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A21" s="103"/>
-      <c r="B21" s="104"/>
+      <c r="A21" s="84"/>
+      <c r="B21" s="85"/>
       <c r="C21" s="7" t="s">
         <v>22</v>
       </c>
@@ -10243,8 +10441,8 @@
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A22" s="105"/>
-      <c r="B22" s="106"/>
+      <c r="A22" s="86"/>
+      <c r="B22" s="87"/>
       <c r="C22" s="7" t="s">
         <v>34</v>
       </c>
@@ -10310,10 +10508,10 @@
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A23" s="108">
+      <c r="A23" s="110">
         <v>1640</v>
       </c>
-      <c r="B23" s="109"/>
+      <c r="B23" s="111"/>
       <c r="C23" s="39" t="s">
         <v>30</v>
       </c>
@@ -10344,8 +10542,8 @@
       <c r="R23" s="40"/>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A24" s="110"/>
-      <c r="B24" s="111"/>
+      <c r="A24" s="112"/>
+      <c r="B24" s="113"/>
       <c r="C24" s="39" t="s">
         <v>21</v>
       </c>
@@ -10377,8 +10575,8 @@
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A25" s="110"/>
-      <c r="B25" s="111"/>
+      <c r="A25" s="112"/>
+      <c r="B25" s="113"/>
       <c r="C25" s="39" t="s">
         <v>35</v>
       </c>
@@ -10441,8 +10639,8 @@
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A26" s="110"/>
-      <c r="B26" s="111"/>
+      <c r="A26" s="112"/>
+      <c r="B26" s="113"/>
       <c r="C26" s="39" t="s">
         <v>22</v>
       </c>
@@ -10474,8 +10672,8 @@
       </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A27" s="112"/>
-      <c r="B27" s="113"/>
+      <c r="A27" s="114"/>
+      <c r="B27" s="115"/>
       <c r="C27" s="39" t="s">
         <v>34</v>
       </c>
@@ -10549,10 +10747,10 @@
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A33" s="87" t="s">
+      <c r="A33" s="107" t="s">
         <v>31</v>
       </c>
-      <c r="B33" s="88"/>
+      <c r="B33" s="108"/>
       <c r="C33" s="14"/>
       <c r="D33" s="15" t="s">
         <v>1</v>
@@ -11289,10 +11487,10 @@
       </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A46" s="80">
+      <c r="A46" s="101">
         <v>1280</v>
       </c>
-      <c r="B46" s="81"/>
+      <c r="B46" s="102"/>
       <c r="C46" s="4" t="s">
         <v>23</v>
       </c>
@@ -11343,8 +11541,8 @@
       </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A47" s="82"/>
-      <c r="B47" s="83"/>
+      <c r="A47" s="103"/>
+      <c r="B47" s="104"/>
       <c r="C47" s="4" t="s">
         <v>24</v>
       </c>
@@ -11395,8 +11593,8 @@
       </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A48" s="82"/>
-      <c r="B48" s="83"/>
+      <c r="A48" s="103"/>
+      <c r="B48" s="104"/>
       <c r="C48" s="19" t="s">
         <v>32</v>
       </c>
@@ -11462,8 +11660,8 @@
       </c>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A49" s="82"/>
-      <c r="B49" s="83"/>
+      <c r="A49" s="103"/>
+      <c r="B49" s="104"/>
       <c r="C49" s="4" t="s">
         <v>25</v>
       </c>
@@ -11514,8 +11712,8 @@
       </c>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A50" s="82"/>
-      <c r="B50" s="83"/>
+      <c r="A50" s="103"/>
+      <c r="B50" s="104"/>
       <c r="C50" s="4" t="s">
         <v>26</v>
       </c>
@@ -11566,8 +11764,8 @@
       </c>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A51" s="84"/>
-      <c r="B51" s="85"/>
+      <c r="A51" s="105"/>
+      <c r="B51" s="106"/>
       <c r="C51" s="19" t="s">
         <v>32</v>
       </c>
@@ -11633,10 +11831,10 @@
       </c>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A52" s="101">
+      <c r="A52" s="82">
         <v>1345</v>
       </c>
-      <c r="B52" s="102"/>
+      <c r="B52" s="83"/>
       <c r="C52" s="7" t="s">
         <v>23</v>
       </c>
@@ -11687,8 +11885,8 @@
       </c>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A53" s="103"/>
-      <c r="B53" s="104"/>
+      <c r="A53" s="84"/>
+      <c r="B53" s="85"/>
       <c r="C53" s="7" t="s">
         <v>24</v>
       </c>
@@ -11739,8 +11937,8 @@
       </c>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A54" s="103"/>
-      <c r="B54" s="104"/>
+      <c r="A54" s="84"/>
+      <c r="B54" s="85"/>
       <c r="C54" s="19" t="s">
         <v>32</v>
       </c>
@@ -11806,8 +12004,8 @@
       </c>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A55" s="103"/>
-      <c r="B55" s="104"/>
+      <c r="A55" s="84"/>
+      <c r="B55" s="85"/>
       <c r="C55" s="7" t="s">
         <v>25</v>
       </c>
@@ -11858,8 +12056,8 @@
       </c>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A56" s="103"/>
-      <c r="B56" s="104"/>
+      <c r="A56" s="84"/>
+      <c r="B56" s="85"/>
       <c r="C56" s="7" t="s">
         <v>26</v>
       </c>
@@ -11910,8 +12108,8 @@
       </c>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A57" s="105"/>
-      <c r="B57" s="106"/>
+      <c r="A57" s="86"/>
+      <c r="B57" s="87"/>
       <c r="C57" s="19" t="s">
         <v>32</v>
       </c>
@@ -12002,8 +12200,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="C7:AG36"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="S33" sqref="S33"/>
+    <sheetView topLeftCell="R33" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="X42" sqref="X42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12245,48 +12443,48 @@
       </c>
     </row>
     <row r="15" spans="3:33" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="114" t="s">
+      <c r="C15" s="119" t="s">
         <v>95</v>
       </c>
-      <c r="D15" s="114"/>
-      <c r="E15" s="115" t="s">
+      <c r="D15" s="119"/>
+      <c r="E15" s="120" t="s">
         <v>100</v>
       </c>
-      <c r="F15" s="115"/>
-      <c r="G15" s="115"/>
-      <c r="H15" s="115"/>
-      <c r="I15" s="115"/>
-      <c r="J15" s="115"/>
-      <c r="K15" s="115"/>
-      <c r="L15" s="115"/>
-      <c r="M15" s="115"/>
-      <c r="N15" s="115"/>
+      <c r="F15" s="120"/>
+      <c r="G15" s="120"/>
+      <c r="H15" s="120"/>
+      <c r="I15" s="120"/>
+      <c r="J15" s="120"/>
+      <c r="K15" s="120"/>
+      <c r="L15" s="120"/>
+      <c r="M15" s="120"/>
+      <c r="N15" s="120"/>
       <c r="O15" s="116" t="s">
         <v>99</v>
       </c>
-      <c r="U15" s="114" t="s">
+      <c r="U15" s="119" t="s">
         <v>95</v>
       </c>
-      <c r="V15" s="114"/>
-      <c r="W15" s="115" t="s">
+      <c r="V15" s="119"/>
+      <c r="W15" s="120" t="s">
         <v>100</v>
       </c>
-      <c r="X15" s="115"/>
-      <c r="Y15" s="115"/>
-      <c r="Z15" s="115"/>
-      <c r="AA15" s="115"/>
-      <c r="AB15" s="115"/>
-      <c r="AC15" s="115"/>
-      <c r="AD15" s="115"/>
-      <c r="AE15" s="115"/>
-      <c r="AF15" s="115"/>
+      <c r="X15" s="120"/>
+      <c r="Y15" s="120"/>
+      <c r="Z15" s="120"/>
+      <c r="AA15" s="120"/>
+      <c r="AB15" s="120"/>
+      <c r="AC15" s="120"/>
+      <c r="AD15" s="120"/>
+      <c r="AE15" s="120"/>
+      <c r="AF15" s="120"/>
       <c r="AG15" s="116" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="16" spans="3:33" x14ac:dyDescent="0.25">
-      <c r="C16" s="114"/>
-      <c r="D16" s="114"/>
+      <c r="C16" s="119"/>
+      <c r="D16" s="119"/>
       <c r="E16" s="42">
         <v>1</v>
       </c>
@@ -12318,8 +12516,8 @@
         <v>10</v>
       </c>
       <c r="O16" s="116"/>
-      <c r="U16" s="114"/>
-      <c r="V16" s="114"/>
+      <c r="U16" s="119"/>
+      <c r="V16" s="119"/>
       <c r="W16" s="66">
         <v>1</v>
       </c>
@@ -12507,48 +12705,48 @@
       <c r="AG18" s="118"/>
     </row>
     <row r="21" spans="3:33" x14ac:dyDescent="0.25">
-      <c r="C21" s="114" t="s">
+      <c r="C21" s="119" t="s">
         <v>101</v>
       </c>
-      <c r="D21" s="114"/>
-      <c r="E21" s="115" t="s">
+      <c r="D21" s="119"/>
+      <c r="E21" s="120" t="s">
         <v>100</v>
       </c>
-      <c r="F21" s="115"/>
-      <c r="G21" s="115"/>
-      <c r="H21" s="115"/>
-      <c r="I21" s="115"/>
-      <c r="J21" s="115"/>
-      <c r="K21" s="115"/>
-      <c r="L21" s="115"/>
-      <c r="M21" s="115"/>
-      <c r="N21" s="115"/>
+      <c r="F21" s="120"/>
+      <c r="G21" s="120"/>
+      <c r="H21" s="120"/>
+      <c r="I21" s="120"/>
+      <c r="J21" s="120"/>
+      <c r="K21" s="120"/>
+      <c r="L21" s="120"/>
+      <c r="M21" s="120"/>
+      <c r="N21" s="120"/>
       <c r="O21" s="116" t="s">
         <v>99</v>
       </c>
-      <c r="U21" s="114" t="s">
+      <c r="U21" s="119" t="s">
         <v>101</v>
       </c>
-      <c r="V21" s="114"/>
-      <c r="W21" s="115" t="s">
+      <c r="V21" s="119"/>
+      <c r="W21" s="120" t="s">
         <v>100</v>
       </c>
-      <c r="X21" s="115"/>
-      <c r="Y21" s="115"/>
-      <c r="Z21" s="115"/>
-      <c r="AA21" s="115"/>
-      <c r="AB21" s="115"/>
-      <c r="AC21" s="115"/>
-      <c r="AD21" s="115"/>
-      <c r="AE21" s="115"/>
-      <c r="AF21" s="115"/>
+      <c r="X21" s="120"/>
+      <c r="Y21" s="120"/>
+      <c r="Z21" s="120"/>
+      <c r="AA21" s="120"/>
+      <c r="AB21" s="120"/>
+      <c r="AC21" s="120"/>
+      <c r="AD21" s="120"/>
+      <c r="AE21" s="120"/>
+      <c r="AF21" s="120"/>
       <c r="AG21" s="116" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="22" spans="3:33" x14ac:dyDescent="0.25">
-      <c r="C22" s="114"/>
-      <c r="D22" s="114"/>
+      <c r="C22" s="119"/>
+      <c r="D22" s="119"/>
       <c r="E22" s="42">
         <v>1</v>
       </c>
@@ -12580,8 +12778,8 @@
         <v>10</v>
       </c>
       <c r="O22" s="116"/>
-      <c r="U22" s="114"/>
-      <c r="V22" s="114"/>
+      <c r="U22" s="119"/>
+      <c r="V22" s="119"/>
       <c r="W22" s="66">
         <v>1</v>
       </c>
@@ -12769,48 +12967,48 @@
       <c r="AG24" s="118"/>
     </row>
     <row r="27" spans="3:33" x14ac:dyDescent="0.25">
-      <c r="C27" s="114" t="s">
+      <c r="C27" s="119" t="s">
         <v>102</v>
       </c>
-      <c r="D27" s="114"/>
-      <c r="E27" s="115" t="s">
+      <c r="D27" s="119"/>
+      <c r="E27" s="120" t="s">
         <v>100</v>
       </c>
-      <c r="F27" s="115"/>
-      <c r="G27" s="115"/>
-      <c r="H27" s="115"/>
-      <c r="I27" s="115"/>
-      <c r="J27" s="115"/>
-      <c r="K27" s="115"/>
-      <c r="L27" s="115"/>
-      <c r="M27" s="115"/>
-      <c r="N27" s="115"/>
+      <c r="F27" s="120"/>
+      <c r="G27" s="120"/>
+      <c r="H27" s="120"/>
+      <c r="I27" s="120"/>
+      <c r="J27" s="120"/>
+      <c r="K27" s="120"/>
+      <c r="L27" s="120"/>
+      <c r="M27" s="120"/>
+      <c r="N27" s="120"/>
       <c r="O27" s="116" t="s">
         <v>99</v>
       </c>
-      <c r="U27" s="114" t="s">
+      <c r="U27" s="119" t="s">
         <v>102</v>
       </c>
-      <c r="V27" s="114"/>
-      <c r="W27" s="115" t="s">
+      <c r="V27" s="119"/>
+      <c r="W27" s="120" t="s">
         <v>100</v>
       </c>
-      <c r="X27" s="115"/>
-      <c r="Y27" s="115"/>
-      <c r="Z27" s="115"/>
-      <c r="AA27" s="115"/>
-      <c r="AB27" s="115"/>
-      <c r="AC27" s="115"/>
-      <c r="AD27" s="115"/>
-      <c r="AE27" s="115"/>
-      <c r="AF27" s="115"/>
+      <c r="X27" s="120"/>
+      <c r="Y27" s="120"/>
+      <c r="Z27" s="120"/>
+      <c r="AA27" s="120"/>
+      <c r="AB27" s="120"/>
+      <c r="AC27" s="120"/>
+      <c r="AD27" s="120"/>
+      <c r="AE27" s="120"/>
+      <c r="AF27" s="120"/>
       <c r="AG27" s="116" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="28" spans="3:33" x14ac:dyDescent="0.25">
-      <c r="C28" s="114"/>
-      <c r="D28" s="114"/>
+      <c r="C28" s="119"/>
+      <c r="D28" s="119"/>
       <c r="E28" s="42">
         <v>1</v>
       </c>
@@ -12842,8 +13040,8 @@
         <v>10</v>
       </c>
       <c r="O28" s="116"/>
-      <c r="U28" s="114"/>
-      <c r="V28" s="114"/>
+      <c r="U28" s="119"/>
+      <c r="V28" s="119"/>
       <c r="W28" s="66">
         <v>1</v>
       </c>
@@ -13077,6 +13275,26 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="U27:V28"/>
+    <mergeCell ref="W27:AF27"/>
+    <mergeCell ref="AG27:AG28"/>
+    <mergeCell ref="U29:U30"/>
+    <mergeCell ref="AG29:AG30"/>
+    <mergeCell ref="U21:V22"/>
+    <mergeCell ref="W21:AF21"/>
+    <mergeCell ref="AG21:AG22"/>
+    <mergeCell ref="U23:U24"/>
+    <mergeCell ref="AG23:AG24"/>
+    <mergeCell ref="U15:V16"/>
+    <mergeCell ref="W15:AF15"/>
+    <mergeCell ref="AG15:AG16"/>
+    <mergeCell ref="U17:U18"/>
+    <mergeCell ref="AG17:AG18"/>
+    <mergeCell ref="E15:N15"/>
+    <mergeCell ref="C15:D16"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="O17:O18"/>
     <mergeCell ref="C29:C30"/>
     <mergeCell ref="O29:O30"/>
     <mergeCell ref="C21:D22"/>
@@ -13087,26 +13305,6 @@
     <mergeCell ref="C27:D28"/>
     <mergeCell ref="E27:N27"/>
     <mergeCell ref="O27:O28"/>
-    <mergeCell ref="E15:N15"/>
-    <mergeCell ref="C15:D16"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="U15:V16"/>
-    <mergeCell ref="W15:AF15"/>
-    <mergeCell ref="AG15:AG16"/>
-    <mergeCell ref="U17:U18"/>
-    <mergeCell ref="AG17:AG18"/>
-    <mergeCell ref="U21:V22"/>
-    <mergeCell ref="W21:AF21"/>
-    <mergeCell ref="AG21:AG22"/>
-    <mergeCell ref="U23:U24"/>
-    <mergeCell ref="AG23:AG24"/>
-    <mergeCell ref="U27:V28"/>
-    <mergeCell ref="W27:AF27"/>
-    <mergeCell ref="AG27:AG28"/>
-    <mergeCell ref="U29:U30"/>
-    <mergeCell ref="AG29:AG30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -13118,8 +13316,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{863E2203-BBD3-4582-9488-5B7EA02887EE}">
   <dimension ref="B4:U25"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Y7" sqref="Y7"/>
+    <sheetView topLeftCell="B1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="Z29" sqref="Z29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13133,32 +13331,32 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:21" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="114" t="s">
+      <c r="B4" s="119" t="s">
         <v>95</v>
       </c>
-      <c r="C4" s="114"/>
-      <c r="D4" s="115" t="s">
+      <c r="C4" s="119"/>
+      <c r="D4" s="120" t="s">
         <v>100</v>
       </c>
-      <c r="E4" s="115"/>
-      <c r="F4" s="115"/>
-      <c r="G4" s="115"/>
-      <c r="H4" s="115"/>
-      <c r="I4" s="115"/>
-      <c r="J4" s="115"/>
-      <c r="K4" s="115"/>
-      <c r="L4" s="115"/>
-      <c r="M4" s="115"/>
+      <c r="E4" s="120"/>
+      <c r="F4" s="120"/>
+      <c r="G4" s="120"/>
+      <c r="H4" s="120"/>
+      <c r="I4" s="120"/>
+      <c r="J4" s="120"/>
+      <c r="K4" s="120"/>
+      <c r="L4" s="120"/>
+      <c r="M4" s="120"/>
       <c r="N4" s="116" t="s">
         <v>99</v>
       </c>
-      <c r="O4" s="115" t="s">
+      <c r="O4" s="120" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="5" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B5" s="114"/>
-      <c r="C5" s="114"/>
+      <c r="B5" s="119"/>
+      <c r="C5" s="119"/>
       <c r="D5" s="65">
         <v>1</v>
       </c>
@@ -13190,7 +13388,7 @@
         <v>10</v>
       </c>
       <c r="N5" s="116"/>
-      <c r="O5" s="115"/>
+      <c r="O5" s="120"/>
     </row>
     <row r="6" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="116" t="s">
@@ -13233,7 +13431,7 @@
         <f>SUM(D6:M6)/410</f>
         <v>1</v>
       </c>
-      <c r="O6" s="119">
+      <c r="O6" s="121">
         <f>(N6+N8)/2</f>
         <v>1</v>
       </c>
@@ -13284,7 +13482,7 @@
         <v>0</v>
       </c>
       <c r="N7" s="118"/>
-      <c r="O7" s="119"/>
+      <c r="O7" s="121"/>
       <c r="R7" s="67" t="s">
         <v>130</v>
       </c>
@@ -13339,7 +13537,7 @@
         <f>SUM(D8:M8)/410</f>
         <v>1</v>
       </c>
-      <c r="O8" s="119"/>
+      <c r="O8" s="121"/>
       <c r="R8" s="67" t="s">
         <v>131</v>
       </c>
@@ -13389,35 +13587,35 @@
         <v>0</v>
       </c>
       <c r="N9" s="118"/>
-      <c r="O9" s="119"/>
+      <c r="O9" s="121"/>
     </row>
     <row r="12" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B12" s="114" t="s">
+      <c r="B12" s="119" t="s">
         <v>101</v>
       </c>
-      <c r="C12" s="114"/>
-      <c r="D12" s="115" t="s">
+      <c r="C12" s="119"/>
+      <c r="D12" s="120" t="s">
         <v>100</v>
       </c>
-      <c r="E12" s="115"/>
-      <c r="F12" s="115"/>
-      <c r="G12" s="115"/>
-      <c r="H12" s="115"/>
-      <c r="I12" s="115"/>
-      <c r="J12" s="115"/>
-      <c r="K12" s="115"/>
-      <c r="L12" s="115"/>
-      <c r="M12" s="115"/>
+      <c r="E12" s="120"/>
+      <c r="F12" s="120"/>
+      <c r="G12" s="120"/>
+      <c r="H12" s="120"/>
+      <c r="I12" s="120"/>
+      <c r="J12" s="120"/>
+      <c r="K12" s="120"/>
+      <c r="L12" s="120"/>
+      <c r="M12" s="120"/>
       <c r="N12" s="116" t="s">
         <v>99</v>
       </c>
-      <c r="O12" s="115" t="s">
+      <c r="O12" s="120" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="13" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B13" s="114"/>
-      <c r="C13" s="114"/>
+      <c r="B13" s="119"/>
+      <c r="C13" s="119"/>
       <c r="D13" s="65">
         <v>1</v>
       </c>
@@ -13449,7 +13647,7 @@
         <v>10</v>
       </c>
       <c r="N13" s="116"/>
-      <c r="O13" s="115"/>
+      <c r="O13" s="120"/>
     </row>
     <row r="14" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B14" s="116" t="s">
@@ -13492,7 +13690,7 @@
         <f>SUM(D14:M14)/410</f>
         <v>0.90731707317073174</v>
       </c>
-      <c r="O14" s="119">
+      <c r="O14" s="121">
         <f>(N14+N16)/2</f>
         <v>0.90609756097560978</v>
       </c>
@@ -13533,7 +13731,7 @@
         <v>3</v>
       </c>
       <c r="N15" s="118"/>
-      <c r="O15" s="119"/>
+      <c r="O15" s="121"/>
     </row>
     <row r="16" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B16" s="116" t="s">
@@ -13576,7 +13774,7 @@
         <f>SUM(D16:M16)/410</f>
         <v>0.90487804878048783</v>
       </c>
-      <c r="O16" s="119"/>
+      <c r="O16" s="121"/>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B17" s="116"/>
@@ -13614,35 +13812,35 @@
         <v>4</v>
       </c>
       <c r="N17" s="118"/>
-      <c r="O17" s="119"/>
+      <c r="O17" s="121"/>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B20" s="114" t="s">
+      <c r="B20" s="119" t="s">
         <v>102</v>
       </c>
-      <c r="C20" s="114"/>
-      <c r="D20" s="115" t="s">
+      <c r="C20" s="119"/>
+      <c r="D20" s="120" t="s">
         <v>100</v>
       </c>
-      <c r="E20" s="115"/>
-      <c r="F20" s="115"/>
-      <c r="G20" s="115"/>
-      <c r="H20" s="115"/>
-      <c r="I20" s="115"/>
-      <c r="J20" s="115"/>
-      <c r="K20" s="115"/>
-      <c r="L20" s="115"/>
-      <c r="M20" s="115"/>
+      <c r="E20" s="120"/>
+      <c r="F20" s="120"/>
+      <c r="G20" s="120"/>
+      <c r="H20" s="120"/>
+      <c r="I20" s="120"/>
+      <c r="J20" s="120"/>
+      <c r="K20" s="120"/>
+      <c r="L20" s="120"/>
+      <c r="M20" s="120"/>
       <c r="N20" s="116" t="s">
         <v>99</v>
       </c>
-      <c r="O20" s="115" t="s">
+      <c r="O20" s="120" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B21" s="114"/>
-      <c r="C21" s="114"/>
+      <c r="B21" s="119"/>
+      <c r="C21" s="119"/>
       <c r="D21" s="65">
         <v>1</v>
       </c>
@@ -13674,7 +13872,7 @@
         <v>10</v>
       </c>
       <c r="N21" s="116"/>
-      <c r="O21" s="115"/>
+      <c r="O21" s="120"/>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B22" s="116" t="s">
@@ -13717,7 +13915,7 @@
         <f>SUM(D22:M22)/410</f>
         <v>0.8365853658536585</v>
       </c>
-      <c r="O22" s="119">
+      <c r="O22" s="121">
         <f>(N22+N24)/2</f>
         <v>0.82560975609756093</v>
       </c>
@@ -13758,7 +13956,7 @@
         <v>32</v>
       </c>
       <c r="N23" s="118"/>
-      <c r="O23" s="119"/>
+      <c r="O23" s="121"/>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B24" s="116" t="s">
@@ -13801,7 +13999,7 @@
         <f>SUM(D24:M24)/410</f>
         <v>0.81463414634146336</v>
       </c>
-      <c r="O24" s="119"/>
+      <c r="O24" s="121"/>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B25" s="116"/>
@@ -13839,16 +14037,17 @@
         <v>32</v>
       </c>
       <c r="N25" s="118"/>
-      <c r="O25" s="119"/>
+      <c r="O25" s="121"/>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="O12:O13"/>
-    <mergeCell ref="O14:O17"/>
-    <mergeCell ref="O20:O21"/>
-    <mergeCell ref="O22:O25"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="O6:O9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="B4:C5"/>
+    <mergeCell ref="D4:M4"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="N6:N7"/>
     <mergeCell ref="B24:B25"/>
     <mergeCell ref="N24:N25"/>
     <mergeCell ref="B12:C13"/>
@@ -13863,13 +14062,12 @@
     <mergeCell ref="N20:N21"/>
     <mergeCell ref="B22:B23"/>
     <mergeCell ref="N22:N23"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="B4:C5"/>
-    <mergeCell ref="D4:M4"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="O12:O13"/>
+    <mergeCell ref="O14:O17"/>
+    <mergeCell ref="O20:O21"/>
+    <mergeCell ref="O22:O25"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="O6:O9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -13880,8 +14078,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A4:BE61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AR25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="BD35" sqref="BD35"/>
+    <sheetView tabSelected="1" topLeftCell="BA13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="BM19" sqref="BM19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13906,58 +14104,58 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:57" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="114" t="s">
+      <c r="B4" s="119" t="s">
         <v>111</v>
       </c>
-      <c r="C4" s="114"/>
-      <c r="D4" s="115" t="s">
+      <c r="C4" s="119"/>
+      <c r="D4" s="120" t="s">
         <v>100</v>
       </c>
-      <c r="E4" s="115"/>
-      <c r="F4" s="115"/>
-      <c r="G4" s="115"/>
-      <c r="H4" s="115"/>
-      <c r="I4" s="115"/>
-      <c r="J4" s="115"/>
-      <c r="K4" s="115"/>
-      <c r="L4" s="115"/>
-      <c r="M4" s="115"/>
+      <c r="E4" s="120"/>
+      <c r="F4" s="120"/>
+      <c r="G4" s="120"/>
+      <c r="H4" s="120"/>
+      <c r="I4" s="120"/>
+      <c r="J4" s="120"/>
+      <c r="K4" s="120"/>
+      <c r="L4" s="120"/>
+      <c r="M4" s="120"/>
       <c r="N4" s="116" t="s">
         <v>115</v>
       </c>
-      <c r="R4" s="114" t="s">
+      <c r="R4" s="119" t="s">
         <v>116</v>
       </c>
-      <c r="S4" s="114"/>
-      <c r="T4" s="115" t="s">
+      <c r="S4" s="119"/>
+      <c r="T4" s="120" t="s">
         <v>100</v>
       </c>
-      <c r="U4" s="115"/>
-      <c r="V4" s="115"/>
-      <c r="W4" s="115"/>
-      <c r="X4" s="115"/>
-      <c r="Y4" s="115"/>
-      <c r="Z4" s="115"/>
-      <c r="AA4" s="115"/>
-      <c r="AB4" s="115"/>
-      <c r="AC4" s="115"/>
+      <c r="U4" s="120"/>
+      <c r="V4" s="120"/>
+      <c r="W4" s="120"/>
+      <c r="X4" s="120"/>
+      <c r="Y4" s="120"/>
+      <c r="Z4" s="120"/>
+      <c r="AA4" s="120"/>
+      <c r="AB4" s="120"/>
+      <c r="AC4" s="120"/>
       <c r="AD4" s="116" t="s">
         <v>105</v>
       </c>
       <c r="AG4" s="116" t="s">
         <v>59</v>
       </c>
-      <c r="AH4" s="115" t="s">
+      <c r="AH4" s="120" t="s">
         <v>109</v>
       </c>
-      <c r="AI4" s="115" t="s">
+      <c r="AI4" s="120" t="s">
         <v>110</v>
       </c>
-      <c r="AJ4" s="115"/>
-      <c r="AK4" s="115"/>
-      <c r="AL4" s="115"/>
-      <c r="AM4" s="115"/>
-      <c r="AN4" s="115"/>
+      <c r="AJ4" s="120"/>
+      <c r="AK4" s="120"/>
+      <c r="AL4" s="120"/>
+      <c r="AM4" s="120"/>
+      <c r="AN4" s="120"/>
       <c r="AR4" s="76"/>
       <c r="AS4" s="76"/>
       <c r="AT4" s="76"/>
@@ -13971,8 +14169,8 @@
       <c r="BB4" s="47"/>
     </row>
     <row r="5" spans="2:57" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="114"/>
-      <c r="C5" s="114"/>
+      <c r="B5" s="119"/>
+      <c r="C5" s="119"/>
       <c r="D5" s="45">
         <v>1</v>
       </c>
@@ -14004,8 +14202,8 @@
         <v>10</v>
       </c>
       <c r="N5" s="116"/>
-      <c r="R5" s="114"/>
-      <c r="S5" s="114"/>
+      <c r="R5" s="119"/>
+      <c r="S5" s="119"/>
       <c r="T5" s="45">
         <v>1</v>
       </c>
@@ -14038,7 +14236,7 @@
       </c>
       <c r="AD5" s="116"/>
       <c r="AG5" s="116"/>
-      <c r="AH5" s="115"/>
+      <c r="AH5" s="120"/>
       <c r="AI5" s="53" t="s">
         <v>1</v>
       </c>
@@ -14057,10 +14255,10 @@
       <c r="AN5" s="53" t="s">
         <v>69</v>
       </c>
-      <c r="AP5" s="114" t="s">
+      <c r="AP5" s="119" t="s">
         <v>145</v>
       </c>
-      <c r="AQ5" s="114"/>
+      <c r="AQ5" s="119"/>
       <c r="AR5" s="77" t="s">
         <v>148</v>
       </c>
@@ -14080,7 +14278,7 @@
       <c r="BB5" s="47"/>
     </row>
     <row r="6" spans="2:57" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="122" t="s">
+      <c r="B6" s="124" t="s">
         <v>110</v>
       </c>
       <c r="C6" s="45" t="s">
@@ -14130,7 +14328,7 @@
         <f>AVERAGE(D6:M6)</f>
         <v>9.2636986301369864E-2</v>
       </c>
-      <c r="R6" s="122" t="s">
+      <c r="R6" s="124" t="s">
         <v>110</v>
       </c>
       <c r="S6" s="45" t="s">
@@ -14200,7 +14398,7 @@
         <f>AD11</f>
         <v>3.0045600000000006E-2</v>
       </c>
-      <c r="AP6" s="121" t="s">
+      <c r="AP6" s="126" t="s">
         <v>100</v>
       </c>
       <c r="AQ6" s="70">
@@ -14225,7 +14423,7 @@
       <c r="BB6" s="47"/>
     </row>
     <row r="7" spans="2:57" x14ac:dyDescent="0.25">
-      <c r="B7" s="122"/>
+      <c r="B7" s="124"/>
       <c r="C7" s="45" t="s">
         <v>2</v>
       </c>
@@ -14273,7 +14471,7 @@
         <f t="shared" ref="N7:N11" si="0">AVERAGE(D7:M7)</f>
         <v>0.2441780821917808</v>
       </c>
-      <c r="R7" s="122"/>
+      <c r="R7" s="124"/>
       <c r="S7" s="45" t="s">
         <v>2</v>
       </c>
@@ -14341,7 +14539,7 @@
         <f>AD21</f>
         <v>4.9896800000000005E-2</v>
       </c>
-      <c r="AP7" s="121"/>
+      <c r="AP7" s="126"/>
       <c r="AQ7" s="70">
         <v>2</v>
       </c>
@@ -14364,7 +14562,7 @@
       <c r="BB7" s="47"/>
     </row>
     <row r="8" spans="2:57" x14ac:dyDescent="0.25">
-      <c r="B8" s="122"/>
+      <c r="B8" s="124"/>
       <c r="C8" s="45" t="s">
         <v>3</v>
       </c>
@@ -14412,7 +14610,7 @@
         <f t="shared" si="0"/>
         <v>0.31849315068493156</v>
       </c>
-      <c r="R8" s="122"/>
+      <c r="R8" s="124"/>
       <c r="S8" s="45" t="s">
         <v>3</v>
       </c>
@@ -14480,7 +14678,7 @@
         <f>AD31</f>
         <v>gagal</v>
       </c>
-      <c r="AP8" s="121"/>
+      <c r="AP8" s="126"/>
       <c r="AQ8" s="70">
         <v>3</v>
       </c>
@@ -14503,7 +14701,7 @@
       <c r="BB8" s="47"/>
     </row>
     <row r="9" spans="2:57" x14ac:dyDescent="0.25">
-      <c r="B9" s="122"/>
+      <c r="B9" s="124"/>
       <c r="C9" s="45" t="s">
         <v>52</v>
       </c>
@@ -14551,7 +14749,7 @@
         <f t="shared" si="0"/>
         <v>0.49383561643835616</v>
       </c>
-      <c r="R9" s="122"/>
+      <c r="R9" s="124"/>
       <c r="S9" s="45" t="s">
         <v>52</v>
       </c>
@@ -14619,7 +14817,7 @@
         <f>AD41</f>
         <v>gagal</v>
       </c>
-      <c r="AP9" s="121"/>
+      <c r="AP9" s="126"/>
       <c r="AQ9" s="71">
         <v>4</v>
       </c>
@@ -14642,7 +14840,7 @@
       <c r="BB9" s="47"/>
     </row>
     <row r="10" spans="2:57" x14ac:dyDescent="0.25">
-      <c r="B10" s="122"/>
+      <c r="B10" s="124"/>
       <c r="C10" s="45" t="s">
         <v>51</v>
       </c>
@@ -14690,7 +14888,7 @@
         <f t="shared" si="0"/>
         <v>0.59845890410958913</v>
       </c>
-      <c r="R10" s="122"/>
+      <c r="R10" s="124"/>
       <c r="S10" s="45" t="s">
         <v>51</v>
       </c>
@@ -14758,7 +14956,7 @@
         <f>AD51</f>
         <v>gagal</v>
       </c>
-      <c r="AP10" s="121"/>
+      <c r="AP10" s="126"/>
       <c r="AQ10" s="71">
         <v>5</v>
       </c>
@@ -14773,7 +14971,7 @@
       </c>
     </row>
     <row r="11" spans="2:57" x14ac:dyDescent="0.25">
-      <c r="B11" s="122"/>
+      <c r="B11" s="124"/>
       <c r="C11" s="45" t="s">
         <v>69</v>
       </c>
@@ -14821,7 +15019,7 @@
         <f t="shared" si="0"/>
         <v>0.56746575342465744</v>
       </c>
-      <c r="R11" s="122"/>
+      <c r="R11" s="124"/>
       <c r="S11" s="45" t="s">
         <v>69</v>
       </c>
@@ -14859,7 +15057,7 @@
         <f t="shared" si="1"/>
         <v>3.0045600000000006E-2</v>
       </c>
-      <c r="AP11" s="121"/>
+      <c r="AP11" s="126"/>
       <c r="AQ11" s="71">
         <v>6</v>
       </c>
@@ -14874,7 +15072,7 @@
       </c>
     </row>
     <row r="12" spans="2:57" x14ac:dyDescent="0.25">
-      <c r="AP12" s="121"/>
+      <c r="AP12" s="126"/>
       <c r="AQ12" s="71">
         <v>7</v>
       </c>
@@ -14889,7 +15087,7 @@
       </c>
     </row>
     <row r="13" spans="2:57" x14ac:dyDescent="0.25">
-      <c r="AP13" s="121"/>
+      <c r="AP13" s="126"/>
       <c r="AQ13" s="71">
         <v>8</v>
       </c>
@@ -14904,59 +15102,59 @@
       </c>
     </row>
     <row r="14" spans="2:57" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="114" t="s">
+      <c r="B14" s="119" t="s">
         <v>112</v>
       </c>
-      <c r="C14" s="114"/>
-      <c r="D14" s="115" t="s">
+      <c r="C14" s="119"/>
+      <c r="D14" s="120" t="s">
         <v>100</v>
       </c>
-      <c r="E14" s="115"/>
-      <c r="F14" s="115"/>
-      <c r="G14" s="115"/>
-      <c r="H14" s="115"/>
-      <c r="I14" s="115"/>
-      <c r="J14" s="115"/>
-      <c r="K14" s="115"/>
-      <c r="L14" s="115"/>
-      <c r="M14" s="115"/>
+      <c r="E14" s="120"/>
+      <c r="F14" s="120"/>
+      <c r="G14" s="120"/>
+      <c r="H14" s="120"/>
+      <c r="I14" s="120"/>
+      <c r="J14" s="120"/>
+      <c r="K14" s="120"/>
+      <c r="L14" s="120"/>
+      <c r="M14" s="120"/>
       <c r="N14" s="116" t="s">
         <v>105</v>
       </c>
-      <c r="R14" s="114" t="s">
+      <c r="R14" s="119" t="s">
         <v>117</v>
       </c>
-      <c r="S14" s="114"/>
-      <c r="T14" s="115" t="s">
+      <c r="S14" s="119"/>
+      <c r="T14" s="120" t="s">
         <v>100</v>
       </c>
-      <c r="U14" s="115"/>
-      <c r="V14" s="115"/>
-      <c r="W14" s="115"/>
-      <c r="X14" s="115"/>
-      <c r="Y14" s="115"/>
-      <c r="Z14" s="115"/>
-      <c r="AA14" s="115"/>
-      <c r="AB14" s="115"/>
-      <c r="AC14" s="115"/>
+      <c r="U14" s="120"/>
+      <c r="V14" s="120"/>
+      <c r="W14" s="120"/>
+      <c r="X14" s="120"/>
+      <c r="Y14" s="120"/>
+      <c r="Z14" s="120"/>
+      <c r="AA14" s="120"/>
+      <c r="AB14" s="120"/>
+      <c r="AC14" s="120"/>
       <c r="AD14" s="116" t="s">
         <v>105</v>
       </c>
       <c r="AG14" s="116" t="s">
         <v>59</v>
       </c>
-      <c r="AH14" s="115" t="s">
+      <c r="AH14" s="120" t="s">
         <v>109</v>
       </c>
-      <c r="AI14" s="115" t="s">
+      <c r="AI14" s="120" t="s">
         <v>110</v>
       </c>
-      <c r="AJ14" s="115"/>
-      <c r="AK14" s="115"/>
-      <c r="AL14" s="115"/>
-      <c r="AM14" s="115"/>
-      <c r="AN14" s="115"/>
-      <c r="AP14" s="121"/>
+      <c r="AJ14" s="120"/>
+      <c r="AK14" s="120"/>
+      <c r="AL14" s="120"/>
+      <c r="AM14" s="120"/>
+      <c r="AN14" s="120"/>
+      <c r="AP14" s="126"/>
       <c r="AQ14" s="71">
         <v>9</v>
       </c>
@@ -14969,17 +15167,17 @@
       <c r="AT14" s="77" t="s">
         <v>166</v>
       </c>
-      <c r="AY14" s="139"/>
-      <c r="AZ14" s="115"/>
-      <c r="BA14" s="115"/>
-      <c r="BB14" s="115"/>
-      <c r="BC14" s="115"/>
-      <c r="BD14" s="115"/>
-      <c r="BE14" s="115"/>
+      <c r="AY14" s="80"/>
+      <c r="AZ14" s="120"/>
+      <c r="BA14" s="120"/>
+      <c r="BB14" s="120"/>
+      <c r="BC14" s="120"/>
+      <c r="BD14" s="120"/>
+      <c r="BE14" s="120"/>
     </row>
     <row r="15" spans="2:57" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="114"/>
-      <c r="C15" s="114"/>
+      <c r="B15" s="119"/>
+      <c r="C15" s="119"/>
       <c r="D15" s="45">
         <v>1</v>
       </c>
@@ -15011,8 +15209,8 @@
         <v>10</v>
       </c>
       <c r="N15" s="116"/>
-      <c r="R15" s="114"/>
-      <c r="S15" s="114"/>
+      <c r="R15" s="119"/>
+      <c r="S15" s="119"/>
       <c r="T15" s="45">
         <v>1</v>
       </c>
@@ -15045,7 +15243,7 @@
       </c>
       <c r="AD15" s="116"/>
       <c r="AG15" s="116"/>
-      <c r="AH15" s="115"/>
+      <c r="AH15" s="120"/>
       <c r="AI15" s="53" t="s">
         <v>1</v>
       </c>
@@ -15064,7 +15262,7 @@
       <c r="AN15" s="53" t="s">
         <v>69</v>
       </c>
-      <c r="AP15" s="121"/>
+      <c r="AP15" s="126"/>
       <c r="AQ15" s="71">
         <v>10</v>
       </c>
@@ -15077,7 +15275,7 @@
       <c r="AT15" s="77" t="s">
         <v>169</v>
       </c>
-      <c r="AX15" s="140"/>
+      <c r="AX15" s="81"/>
       <c r="AY15" s="78"/>
       <c r="AZ15" s="79" t="s">
         <v>171</v>
@@ -15099,7 +15297,7 @@
       </c>
     </row>
     <row r="16" spans="2:57" x14ac:dyDescent="0.25">
-      <c r="B16" s="122" t="s">
+      <c r="B16" s="124" t="s">
         <v>110</v>
       </c>
       <c r="C16" s="45" t="s">
@@ -15149,7 +15347,7 @@
         <f>AVERAGE(D16:M16)</f>
         <v>9.5918367346938788E-2</v>
       </c>
-      <c r="R16" s="122" t="s">
+      <c r="R16" s="124" t="s">
         <v>110</v>
       </c>
       <c r="S16" s="45" t="s">
@@ -15248,7 +15446,7 @@
       </c>
     </row>
     <row r="17" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="B17" s="122"/>
+      <c r="B17" s="124"/>
       <c r="C17" s="45" t="s">
         <v>2</v>
       </c>
@@ -15296,7 +15494,7 @@
         <f t="shared" ref="N17:N21" si="3">AVERAGE(D17:M17)</f>
         <v>0.19918367346938778</v>
       </c>
-      <c r="R17" s="122"/>
+      <c r="R17" s="124"/>
       <c r="S17" s="45" t="s">
         <v>2</v>
       </c>
@@ -15384,16 +15582,16 @@
         <v>0.49091836734693883</v>
       </c>
       <c r="BD17" s="59">
-        <f t="shared" ref="BD17:BD20" si="9">AM17</f>
+        <f t="shared" ref="BD17:BD19" si="9">AM17</f>
         <v>0.54499999999999993</v>
       </c>
       <c r="BE17" s="59">
-        <f t="shared" ref="BE17:BE20" si="10">AN17</f>
+        <f t="shared" ref="BE17" si="10">AN17</f>
         <v>0.60499999999999998</v>
       </c>
     </row>
     <row r="18" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="B18" s="122"/>
+      <c r="B18" s="124"/>
       <c r="C18" s="45" t="s">
         <v>3</v>
       </c>
@@ -15441,7 +15639,7 @@
         <f t="shared" si="3"/>
         <v>0.32346938775510203</v>
       </c>
-      <c r="R18" s="122"/>
+      <c r="R18" s="124"/>
       <c r="S18" s="45" t="s">
         <v>3</v>
       </c>
@@ -15536,7 +15734,7 @@
       </c>
     </row>
     <row r="19" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="B19" s="122"/>
+      <c r="B19" s="124"/>
       <c r="C19" s="45" t="s">
         <v>52</v>
       </c>
@@ -15584,7 +15782,7 @@
         <f t="shared" si="3"/>
         <v>0.49091836734693883</v>
       </c>
-      <c r="R19" s="122"/>
+      <c r="R19" s="124"/>
       <c r="S19" s="45" t="s">
         <v>52</v>
       </c>
@@ -15680,7 +15878,7 @@
       </c>
     </row>
     <row r="20" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="B20" s="122"/>
+      <c r="B20" s="124"/>
       <c r="C20" s="45" t="s">
         <v>51</v>
       </c>
@@ -15728,7 +15926,7 @@
         <f t="shared" si="3"/>
         <v>0.54499999999999993</v>
       </c>
-      <c r="R20" s="122"/>
+      <c r="R20" s="124"/>
       <c r="S20" s="45" t="s">
         <v>51</v>
       </c>
@@ -15824,7 +16022,7 @@
       </c>
     </row>
     <row r="21" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="B21" s="122"/>
+      <c r="B21" s="124"/>
       <c r="C21" s="45" t="s">
         <v>69</v>
       </c>
@@ -15872,7 +16070,7 @@
         <f t="shared" si="3"/>
         <v>0.60499999999999998</v>
       </c>
-      <c r="R21" s="122"/>
+      <c r="R21" s="124"/>
       <c r="S21" s="45" t="s">
         <v>69</v>
       </c>
@@ -15919,60 +16117,60 @@
       <c r="AR23" s="51"/>
     </row>
     <row r="24" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="B24" s="114" t="s">
+      <c r="B24" s="119" t="s">
         <v>113</v>
       </c>
-      <c r="C24" s="114"/>
-      <c r="D24" s="115" t="s">
+      <c r="C24" s="119"/>
+      <c r="D24" s="120" t="s">
         <v>100</v>
       </c>
-      <c r="E24" s="115"/>
-      <c r="F24" s="115"/>
-      <c r="G24" s="115"/>
-      <c r="H24" s="115"/>
-      <c r="I24" s="115"/>
-      <c r="J24" s="115"/>
-      <c r="K24" s="115"/>
-      <c r="L24" s="115"/>
-      <c r="M24" s="115"/>
+      <c r="E24" s="120"/>
+      <c r="F24" s="120"/>
+      <c r="G24" s="120"/>
+      <c r="H24" s="120"/>
+      <c r="I24" s="120"/>
+      <c r="J24" s="120"/>
+      <c r="K24" s="120"/>
+      <c r="L24" s="120"/>
+      <c r="M24" s="120"/>
       <c r="N24" s="116" t="s">
         <v>105</v>
       </c>
-      <c r="R24" s="114" t="s">
+      <c r="R24" s="119" t="s">
         <v>118</v>
       </c>
-      <c r="S24" s="114"/>
-      <c r="T24" s="115" t="s">
+      <c r="S24" s="119"/>
+      <c r="T24" s="120" t="s">
         <v>100</v>
       </c>
-      <c r="U24" s="115"/>
-      <c r="V24" s="115"/>
-      <c r="W24" s="115"/>
-      <c r="X24" s="115"/>
-      <c r="Y24" s="115"/>
-      <c r="Z24" s="115"/>
-      <c r="AA24" s="115"/>
-      <c r="AB24" s="115"/>
-      <c r="AC24" s="115"/>
+      <c r="U24" s="120"/>
+      <c r="V24" s="120"/>
+      <c r="W24" s="120"/>
+      <c r="X24" s="120"/>
+      <c r="Y24" s="120"/>
+      <c r="Z24" s="120"/>
+      <c r="AA24" s="120"/>
+      <c r="AB24" s="120"/>
+      <c r="AC24" s="120"/>
       <c r="AD24" s="116" t="s">
         <v>105</v>
       </c>
       <c r="AR24" s="77"/>
-      <c r="AY24" s="140" t="s">
+      <c r="AY24" s="81" t="s">
         <v>59</v>
       </c>
-      <c r="AZ24" s="115" t="s">
+      <c r="AZ24" s="120" t="s">
         <v>110</v>
       </c>
-      <c r="BA24" s="115"/>
-      <c r="BB24" s="115"/>
-      <c r="BC24" s="115"/>
-      <c r="BD24" s="115"/>
-      <c r="BE24" s="115"/>
+      <c r="BA24" s="120"/>
+      <c r="BB24" s="120"/>
+      <c r="BC24" s="120"/>
+      <c r="BD24" s="120"/>
+      <c r="BE24" s="120"/>
     </row>
     <row r="25" spans="1:57" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="114"/>
-      <c r="C25" s="114"/>
+      <c r="B25" s="119"/>
+      <c r="C25" s="119"/>
       <c r="D25" s="45">
         <v>1</v>
       </c>
@@ -16004,8 +16202,8 @@
         <v>10</v>
       </c>
       <c r="N25" s="116"/>
-      <c r="R25" s="114"/>
-      <c r="S25" s="114"/>
+      <c r="R25" s="119"/>
+      <c r="S25" s="119"/>
       <c r="T25" s="45">
         <v>1</v>
       </c>
@@ -16038,7 +16236,7 @@
       </c>
       <c r="AD25" s="116"/>
       <c r="AR25" s="77"/>
-      <c r="AY25" s="140"/>
+      <c r="AY25" s="81"/>
       <c r="AZ25" s="79" t="s">
         <v>171</v>
       </c>
@@ -16059,7 +16257,7 @@
       </c>
     </row>
     <row r="26" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="B26" s="122" t="s">
+      <c r="B26" s="124" t="s">
         <v>110</v>
       </c>
       <c r="C26" s="45" t="s">
@@ -16109,7 +16307,7 @@
         <f>AVERAGE(D26:M26)</f>
         <v>0.10015624999999999</v>
       </c>
-      <c r="R26" s="122" t="s">
+      <c r="R26" s="124" t="s">
         <v>110</v>
       </c>
       <c r="S26" s="45" t="s">
@@ -16179,7 +16377,7 @@
       </c>
     </row>
     <row r="27" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="B27" s="122"/>
+      <c r="B27" s="124"/>
       <c r="C27" s="45" t="s">
         <v>2</v>
       </c>
@@ -16227,7 +16425,7 @@
         <f t="shared" ref="N27:N30" si="12">AVERAGE(D27:M27)</f>
         <v>0.16820312499999998</v>
       </c>
-      <c r="R27" s="122"/>
+      <c r="R27" s="124"/>
       <c r="S27" s="45" t="s">
         <v>2</v>
       </c>
@@ -16286,16 +16484,16 @@
         <v>5.4722799999999995E-2</v>
       </c>
       <c r="BD27" s="58">
-        <f t="shared" ref="BD27:BD30" si="18">AM7</f>
+        <f t="shared" ref="BD27:BD29" si="18">AM7</f>
         <v>5.2898399999999998E-2</v>
       </c>
       <c r="BE27" s="58">
-        <f t="shared" ref="BE27:BE30" si="19">AN7</f>
+        <f t="shared" ref="BE27" si="19">AN7</f>
         <v>4.9896800000000005E-2</v>
       </c>
     </row>
     <row r="28" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="B28" s="122"/>
+      <c r="B28" s="124"/>
       <c r="C28" s="45" t="s">
         <v>3</v>
       </c>
@@ -16343,7 +16541,7 @@
         <f t="shared" si="12"/>
         <v>0.37398437499999998</v>
       </c>
-      <c r="R28" s="122"/>
+      <c r="R28" s="124"/>
       <c r="S28" s="45" t="s">
         <v>3</v>
       </c>
@@ -16410,7 +16608,7 @@
       </c>
     </row>
     <row r="29" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="B29" s="122"/>
+      <c r="B29" s="124"/>
       <c r="C29" s="45" t="s">
         <v>52</v>
       </c>
@@ -16458,7 +16656,7 @@
         <f t="shared" si="12"/>
         <v>0.45929687499999999</v>
       </c>
-      <c r="R29" s="122"/>
+      <c r="R29" s="124"/>
       <c r="S29" s="45" t="s">
         <v>52</v>
       </c>
@@ -16525,7 +16723,7 @@
       </c>
     </row>
     <row r="30" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="B30" s="122"/>
+      <c r="B30" s="124"/>
       <c r="C30" s="45" t="s">
         <v>51</v>
       </c>
@@ -16573,7 +16771,7 @@
         <f t="shared" si="12"/>
         <v>0.50226562500000005</v>
       </c>
-      <c r="R30" s="122"/>
+      <c r="R30" s="124"/>
       <c r="S30" s="45" t="s">
         <v>51</v>
       </c>
@@ -16642,7 +16840,7 @@
       <c r="A31" t="s">
         <v>108</v>
       </c>
-      <c r="B31" s="122"/>
+      <c r="B31" s="124"/>
       <c r="C31" s="54" t="s">
         <v>69</v>
       </c>
@@ -16679,7 +16877,7 @@
       <c r="N31" s="55" t="s">
         <v>71</v>
       </c>
-      <c r="R31" s="122"/>
+      <c r="R31" s="124"/>
       <c r="S31" s="54" t="s">
         <v>69</v>
       </c>
@@ -16718,48 +16916,48 @@
       </c>
     </row>
     <row r="34" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="B34" s="114" t="s">
+      <c r="B34" s="119" t="s">
         <v>114</v>
       </c>
-      <c r="C34" s="114"/>
-      <c r="D34" s="115" t="s">
+      <c r="C34" s="119"/>
+      <c r="D34" s="120" t="s">
         <v>100</v>
       </c>
-      <c r="E34" s="115"/>
-      <c r="F34" s="115"/>
-      <c r="G34" s="115"/>
-      <c r="H34" s="115"/>
-      <c r="I34" s="115"/>
-      <c r="J34" s="115"/>
-      <c r="K34" s="115"/>
-      <c r="L34" s="115"/>
-      <c r="M34" s="115"/>
+      <c r="E34" s="120"/>
+      <c r="F34" s="120"/>
+      <c r="G34" s="120"/>
+      <c r="H34" s="120"/>
+      <c r="I34" s="120"/>
+      <c r="J34" s="120"/>
+      <c r="K34" s="120"/>
+      <c r="L34" s="120"/>
+      <c r="M34" s="120"/>
       <c r="N34" s="116" t="s">
         <v>105</v>
       </c>
-      <c r="R34" s="114" t="s">
+      <c r="R34" s="119" t="s">
         <v>119</v>
       </c>
-      <c r="S34" s="114"/>
-      <c r="T34" s="115" t="s">
+      <c r="S34" s="119"/>
+      <c r="T34" s="120" t="s">
         <v>100</v>
       </c>
-      <c r="U34" s="115"/>
-      <c r="V34" s="115"/>
-      <c r="W34" s="115"/>
-      <c r="X34" s="115"/>
-      <c r="Y34" s="115"/>
-      <c r="Z34" s="115"/>
-      <c r="AA34" s="115"/>
-      <c r="AB34" s="115"/>
-      <c r="AC34" s="115"/>
+      <c r="U34" s="120"/>
+      <c r="V34" s="120"/>
+      <c r="W34" s="120"/>
+      <c r="X34" s="120"/>
+      <c r="Y34" s="120"/>
+      <c r="Z34" s="120"/>
+      <c r="AA34" s="120"/>
+      <c r="AB34" s="120"/>
+      <c r="AC34" s="120"/>
       <c r="AD34" s="116" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="35" spans="1:45" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="114"/>
-      <c r="C35" s="114"/>
+      <c r="B35" s="119"/>
+      <c r="C35" s="119"/>
       <c r="D35" s="45">
         <v>1</v>
       </c>
@@ -16791,8 +16989,8 @@
         <v>10</v>
       </c>
       <c r="N35" s="116"/>
-      <c r="R35" s="114"/>
-      <c r="S35" s="114"/>
+      <c r="R35" s="119"/>
+      <c r="S35" s="119"/>
       <c r="T35" s="45">
         <v>1</v>
       </c>
@@ -16826,7 +17024,7 @@
       <c r="AD35" s="116"/>
     </row>
     <row r="36" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="B36" s="122" t="s">
+      <c r="B36" s="124" t="s">
         <v>110</v>
       </c>
       <c r="C36" s="45" t="s">
@@ -16876,7 +17074,7 @@
         <f>AVERAGE(D36:M36)</f>
         <v>0.10200743494423789</v>
       </c>
-      <c r="R36" s="122" t="s">
+      <c r="R36" s="124" t="s">
         <v>110</v>
       </c>
       <c r="S36" s="45" t="s">
@@ -16918,7 +17116,7 @@
       </c>
     </row>
     <row r="37" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="B37" s="122"/>
+      <c r="B37" s="124"/>
       <c r="C37" s="45" t="s">
         <v>2</v>
       </c>
@@ -16966,7 +17164,7 @@
         <f t="shared" ref="N37:N40" si="20">AVERAGE(D37:M37)</f>
         <v>0.16988847583643124</v>
       </c>
-      <c r="R37" s="122"/>
+      <c r="R37" s="124"/>
       <c r="S37" s="45" t="s">
         <v>2</v>
       </c>
@@ -17006,7 +17204,7 @@
       </c>
     </row>
     <row r="38" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="B38" s="122"/>
+      <c r="B38" s="124"/>
       <c r="C38" s="45" t="s">
         <v>3</v>
       </c>
@@ -17054,7 +17252,7 @@
         <f t="shared" si="20"/>
         <v>0.37724907063197022</v>
       </c>
-      <c r="R38" s="122"/>
+      <c r="R38" s="124"/>
       <c r="S38" s="45" t="s">
         <v>3</v>
       </c>
@@ -17094,7 +17292,7 @@
       </c>
     </row>
     <row r="39" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="B39" s="122"/>
+      <c r="B39" s="124"/>
       <c r="C39" s="45" t="s">
         <v>52</v>
       </c>
@@ -17142,7 +17340,7 @@
         <f t="shared" si="20"/>
         <v>0.45933085501858739</v>
       </c>
-      <c r="R39" s="122"/>
+      <c r="R39" s="124"/>
       <c r="S39" s="45" t="s">
         <v>52</v>
       </c>
@@ -17182,7 +17380,7 @@
       </c>
     </row>
     <row r="40" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="B40" s="122"/>
+      <c r="B40" s="124"/>
       <c r="C40" s="45" t="s">
         <v>51</v>
       </c>
@@ -17230,7 +17428,7 @@
         <f t="shared" si="20"/>
         <v>0.54542750929368033</v>
       </c>
-      <c r="R40" s="122"/>
+      <c r="R40" s="124"/>
       <c r="S40" s="45" t="s">
         <v>51</v>
       </c>
@@ -17273,7 +17471,7 @@
       <c r="A41" t="s">
         <v>108</v>
       </c>
-      <c r="B41" s="122"/>
+      <c r="B41" s="124"/>
       <c r="C41" s="54" t="s">
         <v>69</v>
       </c>
@@ -17310,7 +17508,7 @@
       <c r="N41" s="55" t="s">
         <v>71</v>
       </c>
-      <c r="R41" s="122"/>
+      <c r="R41" s="124"/>
       <c r="S41" s="54" t="s">
         <v>69</v>
       </c>
@@ -17349,50 +17547,50 @@
       </c>
     </row>
     <row r="44" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="114" t="s">
+      <c r="B44" s="119" t="s">
         <v>124</v>
       </c>
-      <c r="C44" s="114"/>
-      <c r="D44" s="115" t="s">
+      <c r="C44" s="119"/>
+      <c r="D44" s="120" t="s">
         <v>100</v>
       </c>
-      <c r="E44" s="115"/>
-      <c r="F44" s="115"/>
-      <c r="G44" s="115"/>
-      <c r="H44" s="115"/>
-      <c r="I44" s="115"/>
-      <c r="J44" s="115"/>
-      <c r="K44" s="115"/>
-      <c r="L44" s="115"/>
-      <c r="M44" s="115"/>
+      <c r="E44" s="120"/>
+      <c r="F44" s="120"/>
+      <c r="G44" s="120"/>
+      <c r="H44" s="120"/>
+      <c r="I44" s="120"/>
+      <c r="J44" s="120"/>
+      <c r="K44" s="120"/>
+      <c r="L44" s="120"/>
+      <c r="M44" s="120"/>
       <c r="N44" s="116" t="s">
         <v>105</v>
       </c>
-      <c r="R44" s="114" t="s">
+      <c r="R44" s="119" t="s">
         <v>125</v>
       </c>
-      <c r="S44" s="114"/>
-      <c r="T44" s="115" t="s">
+      <c r="S44" s="119"/>
+      <c r="T44" s="120" t="s">
         <v>100</v>
       </c>
-      <c r="U44" s="115"/>
-      <c r="V44" s="115"/>
-      <c r="W44" s="115"/>
-      <c r="X44" s="115"/>
-      <c r="Y44" s="115"/>
-      <c r="Z44" s="115"/>
-      <c r="AA44" s="115"/>
-      <c r="AB44" s="115"/>
-      <c r="AC44" s="115"/>
+      <c r="U44" s="120"/>
+      <c r="V44" s="120"/>
+      <c r="W44" s="120"/>
+      <c r="X44" s="120"/>
+      <c r="Y44" s="120"/>
+      <c r="Z44" s="120"/>
+      <c r="AA44" s="120"/>
+      <c r="AB44" s="120"/>
+      <c r="AC44" s="120"/>
       <c r="AD44" s="116" t="s">
         <v>105</v>
       </c>
       <c r="AG44" s="72"/>
-      <c r="AS44" s="120"/>
+      <c r="AS44" s="125"/>
     </row>
     <row r="45" spans="1:45" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="114"/>
-      <c r="C45" s="114"/>
+      <c r="B45" s="119"/>
+      <c r="C45" s="119"/>
       <c r="D45" s="61">
         <v>1</v>
       </c>
@@ -17424,8 +17622,8 @@
         <v>10</v>
       </c>
       <c r="N45" s="116"/>
-      <c r="R45" s="114"/>
-      <c r="S45" s="114"/>
+      <c r="R45" s="119"/>
+      <c r="S45" s="119"/>
       <c r="T45" s="61">
         <v>1</v>
       </c>
@@ -17458,10 +17656,10 @@
       </c>
       <c r="AD45" s="116"/>
       <c r="AG45" s="72"/>
-      <c r="AS45" s="120"/>
+      <c r="AS45" s="125"/>
     </row>
     <row r="46" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="122" t="s">
+      <c r="B46" s="124" t="s">
         <v>110</v>
       </c>
       <c r="C46" s="61" t="s">
@@ -17511,7 +17709,7 @@
         <f>AVERAGE(D46:M46)</f>
         <v>5.0641711229946505E-2</v>
       </c>
-      <c r="R46" s="122" t="s">
+      <c r="R46" s="124" t="s">
         <v>110</v>
       </c>
       <c r="S46" s="61" t="s">
@@ -17555,7 +17753,7 @@
       <c r="AS46" s="75"/>
     </row>
     <row r="47" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="B47" s="122"/>
+      <c r="B47" s="124"/>
       <c r="C47" s="61" t="s">
         <v>2</v>
       </c>
@@ -17603,7 +17801,7 @@
         <f t="shared" ref="N47:N49" si="22">AVERAGE(D47:M47)</f>
         <v>0.11176470588235295</v>
       </c>
-      <c r="R47" s="122"/>
+      <c r="R47" s="124"/>
       <c r="S47" s="61" t="s">
         <v>2</v>
       </c>
@@ -17645,7 +17843,7 @@
       <c r="AS47" s="75"/>
     </row>
     <row r="48" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="B48" s="122"/>
+      <c r="B48" s="124"/>
       <c r="C48" s="61" t="s">
         <v>3</v>
       </c>
@@ -17693,7 +17891,7 @@
         <f t="shared" si="22"/>
         <v>0.20358288770053479</v>
       </c>
-      <c r="R48" s="122"/>
+      <c r="R48" s="124"/>
       <c r="S48" s="61" t="s">
         <v>3</v>
       </c>
@@ -17735,7 +17933,7 @@
       <c r="AS48" s="75"/>
     </row>
     <row r="49" spans="2:45" x14ac:dyDescent="0.25">
-      <c r="B49" s="122"/>
+      <c r="B49" s="124"/>
       <c r="C49" s="61" t="s">
         <v>52</v>
       </c>
@@ -17783,7 +17981,7 @@
         <f t="shared" si="22"/>
         <v>0.27796791443850272</v>
       </c>
-      <c r="R49" s="122"/>
+      <c r="R49" s="124"/>
       <c r="S49" s="61" t="s">
         <v>52</v>
       </c>
@@ -17836,7 +18034,7 @@
       <c r="AS49" s="75"/>
     </row>
     <row r="50" spans="2:45" x14ac:dyDescent="0.25">
-      <c r="B50" s="122"/>
+      <c r="B50" s="124"/>
       <c r="C50" s="54" t="s">
         <v>51</v>
       </c>
@@ -17873,7 +18071,7 @@
       <c r="N50" s="55" t="s">
         <v>71</v>
       </c>
-      <c r="R50" s="122"/>
+      <c r="R50" s="124"/>
       <c r="S50" s="54" t="s">
         <v>51</v>
       </c>
@@ -17925,7 +18123,7 @@
       <c r="AS50" s="75"/>
     </row>
     <row r="51" spans="2:45" x14ac:dyDescent="0.25">
-      <c r="B51" s="122"/>
+      <c r="B51" s="124"/>
       <c r="C51" s="54" t="s">
         <v>69</v>
       </c>
@@ -17962,7 +18160,7 @@
       <c r="N51" s="55" t="s">
         <v>71</v>
       </c>
-      <c r="R51" s="122"/>
+      <c r="R51" s="124"/>
       <c r="S51" s="54" t="s">
         <v>69</v>
       </c>
@@ -18014,21 +18212,21 @@
       <c r="AS51" s="75"/>
     </row>
     <row r="56" spans="2:45" x14ac:dyDescent="0.25">
-      <c r="AG56" s="124" t="s">
+      <c r="AG56" s="123" t="s">
         <v>144</v>
       </c>
-      <c r="AH56" s="124"/>
-      <c r="AI56" s="124" t="s">
+      <c r="AH56" s="123"/>
+      <c r="AI56" s="123" t="s">
         <v>59</v>
       </c>
-      <c r="AJ56" s="124"/>
-      <c r="AK56" s="124"/>
-      <c r="AL56" s="124"/>
-      <c r="AM56" s="124"/>
+      <c r="AJ56" s="123"/>
+      <c r="AK56" s="123"/>
+      <c r="AL56" s="123"/>
+      <c r="AM56" s="123"/>
     </row>
     <row r="57" spans="2:45" x14ac:dyDescent="0.25">
-      <c r="AG57" s="124"/>
-      <c r="AH57" s="124"/>
+      <c r="AG57" s="123"/>
+      <c r="AH57" s="123"/>
       <c r="AI57" s="43" t="s">
         <v>135</v>
       </c>
@@ -18046,10 +18244,10 @@
       </c>
     </row>
     <row r="58" spans="2:45" x14ac:dyDescent="0.25">
-      <c r="AG58" s="124" t="s">
+      <c r="AG58" s="123" t="s">
         <v>140</v>
       </c>
-      <c r="AH58" s="124"/>
+      <c r="AH58" s="123"/>
       <c r="AI58" s="43" t="s">
         <v>70</v>
       </c>
@@ -18067,10 +18265,10 @@
       </c>
     </row>
     <row r="59" spans="2:45" x14ac:dyDescent="0.25">
-      <c r="AG59" s="123" t="s">
+      <c r="AG59" s="122" t="s">
         <v>141</v>
       </c>
-      <c r="AH59" s="123"/>
+      <c r="AH59" s="122"/>
       <c r="AI59" s="43" t="s">
         <v>70</v>
       </c>
@@ -18088,10 +18286,10 @@
       </c>
     </row>
     <row r="60" spans="2:45" x14ac:dyDescent="0.25">
-      <c r="AG60" s="123" t="s">
+      <c r="AG60" s="122" t="s">
         <v>142</v>
       </c>
-      <c r="AH60" s="123"/>
+      <c r="AH60" s="122"/>
       <c r="AI60" s="43" t="s">
         <v>70</v>
       </c>
@@ -18109,10 +18307,10 @@
       </c>
     </row>
     <row r="61" spans="2:45" x14ac:dyDescent="0.25">
-      <c r="AG61" s="123" t="s">
+      <c r="AG61" s="122" t="s">
         <v>143</v>
       </c>
-      <c r="AH61" s="123"/>
+      <c r="AH61" s="122"/>
       <c r="AI61" s="43" t="s">
         <v>70</v>
       </c>
@@ -18131,38 +18329,13 @@
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="AZ14:BE14"/>
-    <mergeCell ref="AZ24:BE24"/>
-    <mergeCell ref="AG61:AH61"/>
-    <mergeCell ref="AG56:AH57"/>
-    <mergeCell ref="AG58:AH58"/>
-    <mergeCell ref="AI56:AM56"/>
-    <mergeCell ref="AG59:AH59"/>
-    <mergeCell ref="AG60:AH60"/>
-    <mergeCell ref="T44:AC44"/>
-    <mergeCell ref="AD44:AD45"/>
-    <mergeCell ref="R46:R51"/>
-    <mergeCell ref="B44:C45"/>
-    <mergeCell ref="D44:M44"/>
-    <mergeCell ref="N44:N45"/>
-    <mergeCell ref="B46:B51"/>
-    <mergeCell ref="R44:S45"/>
-    <mergeCell ref="R4:S5"/>
-    <mergeCell ref="T4:AC4"/>
-    <mergeCell ref="AD4:AD5"/>
-    <mergeCell ref="R6:R11"/>
-    <mergeCell ref="B14:C15"/>
-    <mergeCell ref="D14:M14"/>
-    <mergeCell ref="N14:N15"/>
-    <mergeCell ref="B4:C5"/>
-    <mergeCell ref="D4:M4"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="B6:B11"/>
-    <mergeCell ref="N24:N25"/>
-    <mergeCell ref="B26:B31"/>
-    <mergeCell ref="B34:C35"/>
-    <mergeCell ref="D34:M34"/>
-    <mergeCell ref="N34:N35"/>
+    <mergeCell ref="AP5:AQ5"/>
+    <mergeCell ref="AG4:AG5"/>
+    <mergeCell ref="AH4:AH5"/>
+    <mergeCell ref="AI4:AN4"/>
+    <mergeCell ref="AG14:AG15"/>
+    <mergeCell ref="AH14:AH15"/>
+    <mergeCell ref="AI14:AN14"/>
     <mergeCell ref="T34:AC34"/>
     <mergeCell ref="AD34:AD35"/>
     <mergeCell ref="R36:R41"/>
@@ -18179,15 +18352,40 @@
     <mergeCell ref="B16:B21"/>
     <mergeCell ref="B24:C25"/>
     <mergeCell ref="D24:M24"/>
+    <mergeCell ref="N24:N25"/>
+    <mergeCell ref="B26:B31"/>
+    <mergeCell ref="B34:C35"/>
+    <mergeCell ref="D34:M34"/>
+    <mergeCell ref="N34:N35"/>
+    <mergeCell ref="R4:S5"/>
+    <mergeCell ref="T4:AC4"/>
+    <mergeCell ref="AD4:AD5"/>
+    <mergeCell ref="R6:R11"/>
+    <mergeCell ref="B14:C15"/>
+    <mergeCell ref="D14:M14"/>
+    <mergeCell ref="N14:N15"/>
+    <mergeCell ref="B4:C5"/>
+    <mergeCell ref="D4:M4"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="B6:B11"/>
+    <mergeCell ref="T44:AC44"/>
+    <mergeCell ref="AD44:AD45"/>
+    <mergeCell ref="R46:R51"/>
+    <mergeCell ref="B44:C45"/>
+    <mergeCell ref="D44:M44"/>
+    <mergeCell ref="N44:N45"/>
+    <mergeCell ref="B46:B51"/>
+    <mergeCell ref="R44:S45"/>
+    <mergeCell ref="AZ14:BE14"/>
+    <mergeCell ref="AZ24:BE24"/>
+    <mergeCell ref="AG61:AH61"/>
+    <mergeCell ref="AG56:AH57"/>
+    <mergeCell ref="AG58:AH58"/>
+    <mergeCell ref="AI56:AM56"/>
+    <mergeCell ref="AG59:AH59"/>
+    <mergeCell ref="AG60:AH60"/>
     <mergeCell ref="AS44:AS45"/>
     <mergeCell ref="AP6:AP15"/>
-    <mergeCell ref="AP5:AQ5"/>
-    <mergeCell ref="AG4:AG5"/>
-    <mergeCell ref="AH4:AH5"/>
-    <mergeCell ref="AI4:AN4"/>
-    <mergeCell ref="AG14:AG15"/>
-    <mergeCell ref="AH14:AH15"/>
-    <mergeCell ref="AI14:AN14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -18201,50 +18399,50 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFC5CAB5-F7BD-4C9D-9320-5671A06A5F0A}">
   <dimension ref="B4:X51"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
       <selection activeCell="Q45" sqref="Q45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="4" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B4" s="114" t="s">
+      <c r="B4" s="119" t="s">
         <v>120</v>
       </c>
-      <c r="C4" s="114"/>
-      <c r="D4" s="115" t="s">
+      <c r="C4" s="119"/>
+      <c r="D4" s="120" t="s">
         <v>100</v>
       </c>
-      <c r="E4" s="115"/>
-      <c r="F4" s="115"/>
-      <c r="G4" s="115"/>
-      <c r="H4" s="115"/>
-      <c r="I4" s="115"/>
-      <c r="J4" s="115"/>
-      <c r="K4" s="115"/>
-      <c r="L4" s="115"/>
-      <c r="M4" s="115"/>
+      <c r="E4" s="120"/>
+      <c r="F4" s="120"/>
+      <c r="G4" s="120"/>
+      <c r="H4" s="120"/>
+      <c r="I4" s="120"/>
+      <c r="J4" s="120"/>
+      <c r="K4" s="120"/>
+      <c r="L4" s="120"/>
+      <c r="M4" s="120"/>
       <c r="N4" s="116" t="s">
         <v>105</v>
       </c>
       <c r="Q4" s="116" t="s">
         <v>59</v>
       </c>
-      <c r="R4" s="115" t="s">
+      <c r="R4" s="120" t="s">
         <v>109</v>
       </c>
-      <c r="S4" s="115" t="s">
+      <c r="S4" s="120" t="s">
         <v>110</v>
       </c>
-      <c r="T4" s="115"/>
-      <c r="U4" s="115"/>
-      <c r="V4" s="115"/>
-      <c r="W4" s="115"/>
-      <c r="X4" s="115"/>
+      <c r="T4" s="120"/>
+      <c r="U4" s="120"/>
+      <c r="V4" s="120"/>
+      <c r="W4" s="120"/>
+      <c r="X4" s="120"/>
     </row>
     <row r="5" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="114"/>
-      <c r="C5" s="114"/>
+      <c r="B5" s="119"/>
+      <c r="C5" s="119"/>
       <c r="D5" s="56">
         <v>1</v>
       </c>
@@ -18277,7 +18475,7 @@
       </c>
       <c r="N5" s="116"/>
       <c r="Q5" s="116"/>
-      <c r="R5" s="115"/>
+      <c r="R5" s="120"/>
       <c r="S5" s="60" t="s">
         <v>1</v>
       </c>
@@ -18298,7 +18496,7 @@
       </c>
     </row>
     <row r="6" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B6" s="122" t="s">
+      <c r="B6" s="124" t="s">
         <v>110</v>
       </c>
       <c r="C6" s="56" t="s">
@@ -18370,7 +18568,7 @@
       </c>
     </row>
     <row r="7" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B7" s="122"/>
+      <c r="B7" s="124"/>
       <c r="C7" s="56" t="s">
         <v>2</v>
       </c>
@@ -18440,7 +18638,7 @@
       </c>
     </row>
     <row r="8" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B8" s="122"/>
+      <c r="B8" s="124"/>
       <c r="C8" s="56" t="s">
         <v>3</v>
       </c>
@@ -18510,7 +18708,7 @@
       </c>
     </row>
     <row r="9" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B9" s="122"/>
+      <c r="B9" s="124"/>
       <c r="C9" s="56" t="s">
         <v>52</v>
       </c>
@@ -18580,7 +18778,7 @@
       </c>
     </row>
     <row r="10" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B10" s="122"/>
+      <c r="B10" s="124"/>
       <c r="C10" s="56" t="s">
         <v>51</v>
       </c>
@@ -18650,7 +18848,7 @@
       </c>
     </row>
     <row r="11" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B11" s="122"/>
+      <c r="B11" s="124"/>
       <c r="C11" s="56" t="s">
         <v>69</v>
       </c>
@@ -18690,29 +18888,29 @@
       </c>
     </row>
     <row r="14" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B14" s="114" t="s">
+      <c r="B14" s="119" t="s">
         <v>121</v>
       </c>
-      <c r="C14" s="114"/>
-      <c r="D14" s="115" t="s">
+      <c r="C14" s="119"/>
+      <c r="D14" s="120" t="s">
         <v>100</v>
       </c>
-      <c r="E14" s="115"/>
-      <c r="F14" s="115"/>
-      <c r="G14" s="115"/>
-      <c r="H14" s="115"/>
-      <c r="I14" s="115"/>
-      <c r="J14" s="115"/>
-      <c r="K14" s="115"/>
-      <c r="L14" s="115"/>
-      <c r="M14" s="115"/>
+      <c r="E14" s="120"/>
+      <c r="F14" s="120"/>
+      <c r="G14" s="120"/>
+      <c r="H14" s="120"/>
+      <c r="I14" s="120"/>
+      <c r="J14" s="120"/>
+      <c r="K14" s="120"/>
+      <c r="L14" s="120"/>
+      <c r="M14" s="120"/>
       <c r="N14" s="116" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="15" spans="2:24" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="114"/>
-      <c r="C15" s="114"/>
+      <c r="B15" s="119"/>
+      <c r="C15" s="119"/>
       <c r="D15" s="56">
         <v>1</v>
       </c>
@@ -18746,7 +18944,7 @@
       <c r="N15" s="116"/>
     </row>
     <row r="16" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B16" s="122" t="s">
+      <c r="B16" s="124" t="s">
         <v>110</v>
       </c>
       <c r="C16" s="56" t="s">
@@ -18788,7 +18986,7 @@
       </c>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B17" s="122"/>
+      <c r="B17" s="124"/>
       <c r="C17" s="56" t="s">
         <v>2</v>
       </c>
@@ -18828,7 +19026,7 @@
       </c>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B18" s="122"/>
+      <c r="B18" s="124"/>
       <c r="C18" s="56" t="s">
         <v>3</v>
       </c>
@@ -18868,7 +19066,7 @@
       </c>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B19" s="122"/>
+      <c r="B19" s="124"/>
       <c r="C19" s="56" t="s">
         <v>52</v>
       </c>
@@ -18908,7 +19106,7 @@
       </c>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B20" s="122"/>
+      <c r="B20" s="124"/>
       <c r="C20" s="56" t="s">
         <v>51</v>
       </c>
@@ -18948,7 +19146,7 @@
       </c>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B21" s="122"/>
+      <c r="B21" s="124"/>
       <c r="C21" s="56" t="s">
         <v>69</v>
       </c>
@@ -18988,29 +19186,29 @@
       </c>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B24" s="114" t="s">
+      <c r="B24" s="119" t="s">
         <v>122</v>
       </c>
-      <c r="C24" s="114"/>
-      <c r="D24" s="115" t="s">
+      <c r="C24" s="119"/>
+      <c r="D24" s="120" t="s">
         <v>100</v>
       </c>
-      <c r="E24" s="115"/>
-      <c r="F24" s="115"/>
-      <c r="G24" s="115"/>
-      <c r="H24" s="115"/>
-      <c r="I24" s="115"/>
-      <c r="J24" s="115"/>
-      <c r="K24" s="115"/>
-      <c r="L24" s="115"/>
-      <c r="M24" s="115"/>
+      <c r="E24" s="120"/>
+      <c r="F24" s="120"/>
+      <c r="G24" s="120"/>
+      <c r="H24" s="120"/>
+      <c r="I24" s="120"/>
+      <c r="J24" s="120"/>
+      <c r="K24" s="120"/>
+      <c r="L24" s="120"/>
+      <c r="M24" s="120"/>
       <c r="N24" s="116" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="25" spans="2:14" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="114"/>
-      <c r="C25" s="114"/>
+      <c r="B25" s="119"/>
+      <c r="C25" s="119"/>
       <c r="D25" s="56">
         <v>1</v>
       </c>
@@ -19044,7 +19242,7 @@
       <c r="N25" s="116"/>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B26" s="122" t="s">
+      <c r="B26" s="124" t="s">
         <v>110</v>
       </c>
       <c r="C26" s="56" t="s">
@@ -19086,7 +19284,7 @@
       </c>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B27" s="122"/>
+      <c r="B27" s="124"/>
       <c r="C27" s="56" t="s">
         <v>2</v>
       </c>
@@ -19126,7 +19324,7 @@
       </c>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B28" s="122"/>
+      <c r="B28" s="124"/>
       <c r="C28" s="56" t="s">
         <v>3</v>
       </c>
@@ -19166,7 +19364,7 @@
       </c>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B29" s="122"/>
+      <c r="B29" s="124"/>
       <c r="C29" s="56" t="s">
         <v>52</v>
       </c>
@@ -19206,7 +19404,7 @@
       </c>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B30" s="122"/>
+      <c r="B30" s="124"/>
       <c r="C30" s="56" t="s">
         <v>51</v>
       </c>
@@ -19246,7 +19444,7 @@
       </c>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B31" s="122"/>
+      <c r="B31" s="124"/>
       <c r="C31" s="54" t="s">
         <v>69</v>
       </c>
@@ -19285,29 +19483,29 @@
       </c>
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B34" s="114" t="s">
+      <c r="B34" s="119" t="s">
         <v>123</v>
       </c>
-      <c r="C34" s="114"/>
-      <c r="D34" s="115" t="s">
+      <c r="C34" s="119"/>
+      <c r="D34" s="120" t="s">
         <v>100</v>
       </c>
-      <c r="E34" s="115"/>
-      <c r="F34" s="115"/>
-      <c r="G34" s="115"/>
-      <c r="H34" s="115"/>
-      <c r="I34" s="115"/>
-      <c r="J34" s="115"/>
-      <c r="K34" s="115"/>
-      <c r="L34" s="115"/>
-      <c r="M34" s="115"/>
+      <c r="E34" s="120"/>
+      <c r="F34" s="120"/>
+      <c r="G34" s="120"/>
+      <c r="H34" s="120"/>
+      <c r="I34" s="120"/>
+      <c r="J34" s="120"/>
+      <c r="K34" s="120"/>
+      <c r="L34" s="120"/>
+      <c r="M34" s="120"/>
       <c r="N34" s="116" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="35" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="114"/>
-      <c r="C35" s="114"/>
+      <c r="B35" s="119"/>
+      <c r="C35" s="119"/>
       <c r="D35" s="56">
         <v>1</v>
       </c>
@@ -19341,7 +19539,7 @@
       <c r="N35" s="116"/>
     </row>
     <row r="36" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B36" s="122" t="s">
+      <c r="B36" s="124" t="s">
         <v>110</v>
       </c>
       <c r="C36" s="56" t="s">
@@ -19383,7 +19581,7 @@
       </c>
     </row>
     <row r="37" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B37" s="122"/>
+      <c r="B37" s="124"/>
       <c r="C37" s="56" t="s">
         <v>2</v>
       </c>
@@ -19423,7 +19621,7 @@
       </c>
     </row>
     <row r="38" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B38" s="122"/>
+      <c r="B38" s="124"/>
       <c r="C38" s="56" t="s">
         <v>3</v>
       </c>
@@ -19463,7 +19661,7 @@
       </c>
     </row>
     <row r="39" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B39" s="122"/>
+      <c r="B39" s="124"/>
       <c r="C39" s="56" t="s">
         <v>52</v>
       </c>
@@ -19503,7 +19701,7 @@
       </c>
     </row>
     <row r="40" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B40" s="122"/>
+      <c r="B40" s="124"/>
       <c r="C40" s="56" t="s">
         <v>51</v>
       </c>
@@ -19543,7 +19741,7 @@
       </c>
     </row>
     <row r="41" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B41" s="122"/>
+      <c r="B41" s="124"/>
       <c r="C41" s="54" t="s">
         <v>69</v>
       </c>
@@ -19582,29 +19780,29 @@
       </c>
     </row>
     <row r="44" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B44" s="114" t="s">
+      <c r="B44" s="119" t="s">
         <v>126</v>
       </c>
-      <c r="C44" s="114"/>
-      <c r="D44" s="115" t="s">
+      <c r="C44" s="119"/>
+      <c r="D44" s="120" t="s">
         <v>100</v>
       </c>
-      <c r="E44" s="115"/>
-      <c r="F44" s="115"/>
-      <c r="G44" s="115"/>
-      <c r="H44" s="115"/>
-      <c r="I44" s="115"/>
-      <c r="J44" s="115"/>
-      <c r="K44" s="115"/>
-      <c r="L44" s="115"/>
-      <c r="M44" s="115"/>
+      <c r="E44" s="120"/>
+      <c r="F44" s="120"/>
+      <c r="G44" s="120"/>
+      <c r="H44" s="120"/>
+      <c r="I44" s="120"/>
+      <c r="J44" s="120"/>
+      <c r="K44" s="120"/>
+      <c r="L44" s="120"/>
+      <c r="M44" s="120"/>
       <c r="N44" s="116" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="45" spans="2:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="114"/>
-      <c r="C45" s="114"/>
+      <c r="B45" s="119"/>
+      <c r="C45" s="119"/>
       <c r="D45" s="62">
         <v>1</v>
       </c>
@@ -19638,7 +19836,7 @@
       <c r="N45" s="116"/>
     </row>
     <row r="46" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B46" s="122" t="s">
+      <c r="B46" s="124" t="s">
         <v>110</v>
       </c>
       <c r="C46" s="62" t="s">
@@ -19680,7 +19878,7 @@
       </c>
     </row>
     <row r="47" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B47" s="122"/>
+      <c r="B47" s="124"/>
       <c r="C47" s="62" t="s">
         <v>2</v>
       </c>
@@ -19720,7 +19918,7 @@
       </c>
     </row>
     <row r="48" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B48" s="122"/>
+      <c r="B48" s="124"/>
       <c r="C48" s="62" t="s">
         <v>3</v>
       </c>
@@ -19760,7 +19958,7 @@
       </c>
     </row>
     <row r="49" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B49" s="122"/>
+      <c r="B49" s="124"/>
       <c r="C49" s="62" t="s">
         <v>52</v>
       </c>
@@ -19800,7 +19998,7 @@
       </c>
     </row>
     <row r="50" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B50" s="122"/>
+      <c r="B50" s="124"/>
       <c r="C50" s="54" t="s">
         <v>51</v>
       </c>
@@ -19839,7 +20037,7 @@
       </c>
     </row>
     <row r="51" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B51" s="122"/>
+      <c r="B51" s="124"/>
       <c r="C51" s="54" t="s">
         <v>69</v>
       </c>
@@ -19879,13 +20077,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="D34:M34"/>
-    <mergeCell ref="N34:N35"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:X4"/>
-    <mergeCell ref="B4:C5"/>
-    <mergeCell ref="D4:M4"/>
-    <mergeCell ref="N4:N5"/>
     <mergeCell ref="B44:C45"/>
     <mergeCell ref="D44:M44"/>
     <mergeCell ref="N44:N45"/>
@@ -19902,6 +20093,13 @@
     <mergeCell ref="N24:N25"/>
     <mergeCell ref="B26:B31"/>
     <mergeCell ref="B34:C35"/>
+    <mergeCell ref="D34:M34"/>
+    <mergeCell ref="N34:N35"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:X4"/>
+    <mergeCell ref="B4:C5"/>
+    <mergeCell ref="D4:M4"/>
+    <mergeCell ref="N4:N5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -19911,7 +20109,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B6:R38"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
       <selection activeCell="U7" sqref="U7"/>
     </sheetView>
   </sheetViews>
@@ -19982,7 +20180,7 @@
       </c>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B8" s="135">
+      <c r="B8" s="129">
         <v>584</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -20003,7 +20201,7 @@
       <c r="H8" s="1">
         <v>8.0800000000000004E-3</v>
       </c>
-      <c r="L8" s="125">
+      <c r="L8" s="130">
         <v>584</v>
       </c>
       <c r="M8" s="1" t="s">
@@ -20026,7 +20224,7 @@
       </c>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B9" s="135"/>
+      <c r="B9" s="129"/>
       <c r="C9" s="1" t="s">
         <v>68</v>
       </c>
@@ -20045,7 +20243,7 @@
       <c r="H9" s="1">
         <v>4.5935999999999998E-2</v>
       </c>
-      <c r="L9" s="126"/>
+      <c r="L9" s="131"/>
       <c r="M9" s="1" t="s">
         <v>65</v>
       </c>
@@ -20071,7 +20269,7 @@
       </c>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B10" s="136">
+      <c r="B10" s="127">
         <v>980</v>
       </c>
       <c r="C10" s="16" t="s">
@@ -20092,7 +20290,7 @@
       <c r="H10" s="16">
         <v>1.2456E-2</v>
       </c>
-      <c r="L10" s="126"/>
+      <c r="L10" s="131"/>
       <c r="M10" s="1" t="s">
         <v>61</v>
       </c>
@@ -20113,7 +20311,7 @@
       </c>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B11" s="136"/>
+      <c r="B11" s="127"/>
       <c r="C11" s="16" t="s">
         <v>68</v>
       </c>
@@ -20132,7 +20330,7 @@
       <c r="H11" s="16">
         <v>6.3119999999999996E-2</v>
       </c>
-      <c r="L11" s="127"/>
+      <c r="L11" s="132"/>
       <c r="M11" s="1" t="s">
         <v>66</v>
       </c>
@@ -20158,7 +20356,7 @@
       </c>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B12" s="115">
+      <c r="B12" s="120">
         <v>1280</v>
       </c>
       <c r="C12" s="4" t="s">
@@ -20179,7 +20377,7 @@
       <c r="H12" s="4">
         <v>1.5299999999999999E-2</v>
       </c>
-      <c r="L12" s="128">
+      <c r="L12" s="133">
         <v>980</v>
       </c>
       <c r="M12" s="16" t="s">
@@ -20202,7 +20400,7 @@
       </c>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B13" s="115"/>
+      <c r="B13" s="120"/>
       <c r="C13" s="4" t="s">
         <v>68</v>
       </c>
@@ -20221,7 +20419,7 @@
       <c r="H13" s="4">
         <v>6.6844000000000001E-2</v>
       </c>
-      <c r="L13" s="129"/>
+      <c r="L13" s="134"/>
       <c r="M13" s="16" t="s">
         <v>66</v>
       </c>
@@ -20247,7 +20445,7 @@
       </c>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B14" s="134">
+      <c r="B14" s="128">
         <v>1345</v>
       </c>
       <c r="C14" s="7" t="s">
@@ -20268,7 +20466,7 @@
       <c r="H14" s="7">
         <v>1.5807999999999999E-2</v>
       </c>
-      <c r="L14" s="129"/>
+      <c r="L14" s="134"/>
       <c r="M14" s="16" t="s">
         <v>61</v>
       </c>
@@ -20289,7 +20487,7 @@
       </c>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B15" s="134"/>
+      <c r="B15" s="128"/>
       <c r="C15" s="7" t="s">
         <v>68</v>
       </c>
@@ -20308,7 +20506,7 @@
       <c r="H15" s="7">
         <v>6.7227999999999996E-2</v>
       </c>
-      <c r="L15" s="130"/>
+      <c r="L15" s="135"/>
       <c r="M15" s="16" t="s">
         <v>66</v>
       </c>
@@ -20334,7 +20532,7 @@
       </c>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="L16" s="131">
+      <c r="L16" s="136">
         <v>1280</v>
       </c>
       <c r="M16" s="4" t="s">
@@ -20357,7 +20555,7 @@
       </c>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="L17" s="132"/>
+      <c r="L17" s="137"/>
       <c r="M17" s="4" t="s">
         <v>65</v>
       </c>
@@ -20383,7 +20581,7 @@
       </c>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="L18" s="132"/>
+      <c r="L18" s="137"/>
       <c r="M18" s="4" t="s">
         <v>61</v>
       </c>
@@ -20404,7 +20602,7 @@
       </c>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="L19" s="133"/>
+      <c r="L19" s="138"/>
       <c r="M19" s="4" t="s">
         <v>65</v>
       </c>
@@ -20430,7 +20628,7 @@
       </c>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="L20" s="134">
+      <c r="L20" s="128">
         <v>1345</v>
       </c>
       <c r="M20" s="7" t="s">
@@ -20453,7 +20651,7 @@
       </c>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="L21" s="134"/>
+      <c r="L21" s="128"/>
       <c r="M21" s="7" t="s">
         <v>65</v>
       </c>
@@ -20479,7 +20677,7 @@
       </c>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="L22" s="134"/>
+      <c r="L22" s="128"/>
       <c r="M22" s="7" t="s">
         <v>61</v>
       </c>
@@ -20500,7 +20698,7 @@
       </c>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="L23" s="134"/>
+      <c r="L23" s="128"/>
       <c r="M23" s="7" t="s">
         <v>65</v>
       </c>
@@ -20554,7 +20752,7 @@
       </c>
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B31" s="135">
+      <c r="B31" s="129">
         <v>584</v>
       </c>
       <c r="C31" s="1" t="s">
@@ -20577,7 +20775,7 @@
       </c>
     </row>
     <row r="32" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B32" s="135"/>
+      <c r="B32" s="129"/>
       <c r="C32" s="1" t="s">
         <v>68</v>
       </c>
@@ -20598,7 +20796,7 @@
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B33" s="136">
+      <c r="B33" s="127">
         <v>980</v>
       </c>
       <c r="C33" s="16" t="s">
@@ -20621,7 +20819,7 @@
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B34" s="136"/>
+      <c r="B34" s="127"/>
       <c r="C34" s="16" t="s">
         <v>68</v>
       </c>
@@ -20642,7 +20840,7 @@
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B35" s="115">
+      <c r="B35" s="120">
         <v>1280</v>
       </c>
       <c r="C35" s="4" t="s">
@@ -20665,7 +20863,7 @@
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B36" s="115"/>
+      <c r="B36" s="120"/>
       <c r="C36" s="4" t="s">
         <v>68</v>
       </c>
@@ -20686,7 +20884,7 @@
       </c>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B37" s="134">
+      <c r="B37" s="128">
         <v>1345</v>
       </c>
       <c r="C37" s="7" t="s">
@@ -20709,7 +20907,7 @@
       </c>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B38" s="134"/>
+      <c r="B38" s="128"/>
       <c r="C38" s="7" t="s">
         <v>68</v>
       </c>
@@ -20731,6 +20929,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="L8:L11"/>
+    <mergeCell ref="L12:L15"/>
+    <mergeCell ref="L16:L19"/>
+    <mergeCell ref="L20:L23"/>
+    <mergeCell ref="B31:B32"/>
     <mergeCell ref="B33:B34"/>
     <mergeCell ref="B35:B36"/>
     <mergeCell ref="B37:B38"/>
@@ -20738,11 +20941,6 @@
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="B14:B15"/>
-    <mergeCell ref="L8:L11"/>
-    <mergeCell ref="L12:L15"/>
-    <mergeCell ref="L16:L19"/>
-    <mergeCell ref="L20:L23"/>
-    <mergeCell ref="B31:B32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -20768,7 +20966,7 @@
   </cols>
   <sheetData>
     <row r="5" spans="1:18" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="137" t="s">
+      <c r="A5" s="139" t="s">
         <v>73</v>
       </c>
       <c r="B5" s="32" t="s">
@@ -20794,7 +20992,7 @@
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="137"/>
+      <c r="A6" s="139"/>
       <c r="B6" s="33">
         <v>584</v>
       </c>
@@ -20818,7 +21016,7 @@
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="137"/>
+      <c r="A7" s="139"/>
       <c r="B7" s="33">
         <v>980</v>
       </c>
@@ -20842,7 +21040,7 @@
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="137"/>
+      <c r="A8" s="139"/>
       <c r="B8" s="33">
         <v>1280</v>
       </c>
@@ -20866,7 +21064,7 @@
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="137"/>
+      <c r="A9" s="139"/>
       <c r="B9" s="33">
         <v>1435</v>
       </c>
@@ -20890,7 +21088,7 @@
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="137"/>
+      <c r="A10" s="139"/>
       <c r="B10" s="33">
         <v>1640</v>
       </c>
@@ -20914,7 +21112,7 @@
       </c>
     </row>
     <row r="14" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="137" t="s">
+      <c r="A14" s="139" t="s">
         <v>72</v>
       </c>
       <c r="B14" s="32" t="s">
@@ -20940,7 +21138,7 @@
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="137"/>
+      <c r="A15" s="139"/>
       <c r="B15" s="33">
         <v>584</v>
       </c>
@@ -20952,7 +21150,7 @@
       <c r="H15" s="1"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="137"/>
+      <c r="A16" s="139"/>
       <c r="B16" s="33">
         <v>980</v>
       </c>
@@ -20962,11 +21160,11 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="5"/>
-      <c r="K16" s="138" t="s">
+      <c r="K16" s="140" t="s">
         <v>74</v>
       </c>
-      <c r="L16" s="138"/>
-      <c r="M16" s="138"/>
+      <c r="L16" s="140"/>
+      <c r="M16" s="140"/>
       <c r="P16" s="11" t="s">
         <v>80</v>
       </c>
@@ -20978,7 +21176,7 @@
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="137"/>
+      <c r="A17" s="139"/>
       <c r="B17" s="33">
         <v>1280</v>
       </c>
@@ -21008,7 +21206,7 @@
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="137"/>
+      <c r="A18" s="139"/>
       <c r="B18" s="33">
         <v>1435</v>
       </c>
@@ -21038,7 +21236,7 @@
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="137"/>
+      <c r="A19" s="139"/>
       <c r="B19" s="33">
         <v>1640</v>
       </c>
